--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -5,29 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Desktop\CDISC\DDF\DDF_Phase 2\CT Work Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E4F66-B7ED-4A82-ADD6-FA56B254A648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6088B859-F4CC-4BEC-A868-E480CB51A829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="370" windowWidth="17720" windowHeight="9730" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="1390" windowWidth="16590" windowHeight="8590" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
     <sheet name="DDF Terminology 2022-09-30" sheetId="1" r:id="rId2"/>
-    <sheet name="Terminology Changes Sp1 - new" sheetId="3" r:id="rId3"/>
-    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId4"/>
+    <sheet name="Terminology Changes Sp2 - new" sheetId="6" r:id="rId3"/>
+    <sheet name="Terminology Changes Sp2 - chg" sheetId="5" r:id="rId4"/>
+    <sheet name="Terminology Changes Sp1 - new" sheetId="3" r:id="rId5"/>
+    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF Terminology 2022-09-30'!$A$1:$H$255</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1010">
   <si>
     <t>Code</t>
   </si>
@@ -3170,12 +3172,24 @@
   <si>
     <t>Business Therapeutic Areas</t>
   </si>
+  <si>
+    <t>Remove attribute 'transitionStartRule' from Encounter Class</t>
+  </si>
+  <si>
+    <t>Remove attribute 'transitionEndRule' from Encounter Class</t>
+  </si>
+  <si>
+    <t>Remove attribute 'transitionStartRule' from StudyElement Class</t>
+  </si>
+  <si>
+    <t>Remove attribute 'transitionEndRule' from StudyElement Class</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3253,6 +3267,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF262626"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3396,7 +3417,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3512,6 +3533,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9648,13 +9684,961 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60F93F-DDE7-4577-BCA7-BDCFD0F8A197}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8CB9F-21CB-4CA7-BF40-DA6BB340EB8E}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.26953125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="44"/>
+    <col min="3" max="3" width="17" style="44" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="44"/>
+    <col min="8" max="8" width="17.90625" style="44" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="44"/>
+    <col min="10" max="10" width="53.6328125" style="44" customWidth="1"/>
+    <col min="11" max="255" width="8.7265625" style="44"/>
+    <col min="256" max="256" width="10.90625" style="44" customWidth="1"/>
+    <col min="257" max="257" width="22.26953125" style="44" customWidth="1"/>
+    <col min="258" max="258" width="8.7265625" style="44"/>
+    <col min="259" max="259" width="17" style="44" customWidth="1"/>
+    <col min="260" max="260" width="13.90625" style="44" customWidth="1"/>
+    <col min="261" max="261" width="20.26953125" style="44" customWidth="1"/>
+    <col min="262" max="262" width="13.90625" style="44" customWidth="1"/>
+    <col min="263" max="263" width="8.7265625" style="44"/>
+    <col min="264" max="264" width="17.90625" style="44" customWidth="1"/>
+    <col min="265" max="265" width="8.7265625" style="44"/>
+    <col min="266" max="266" width="53.6328125" style="44" customWidth="1"/>
+    <col min="267" max="511" width="8.7265625" style="44"/>
+    <col min="512" max="512" width="10.90625" style="44" customWidth="1"/>
+    <col min="513" max="513" width="22.26953125" style="44" customWidth="1"/>
+    <col min="514" max="514" width="8.7265625" style="44"/>
+    <col min="515" max="515" width="17" style="44" customWidth="1"/>
+    <col min="516" max="516" width="13.90625" style="44" customWidth="1"/>
+    <col min="517" max="517" width="20.26953125" style="44" customWidth="1"/>
+    <col min="518" max="518" width="13.90625" style="44" customWidth="1"/>
+    <col min="519" max="519" width="8.7265625" style="44"/>
+    <col min="520" max="520" width="17.90625" style="44" customWidth="1"/>
+    <col min="521" max="521" width="8.7265625" style="44"/>
+    <col min="522" max="522" width="53.6328125" style="44" customWidth="1"/>
+    <col min="523" max="767" width="8.7265625" style="44"/>
+    <col min="768" max="768" width="10.90625" style="44" customWidth="1"/>
+    <col min="769" max="769" width="22.26953125" style="44" customWidth="1"/>
+    <col min="770" max="770" width="8.7265625" style="44"/>
+    <col min="771" max="771" width="17" style="44" customWidth="1"/>
+    <col min="772" max="772" width="13.90625" style="44" customWidth="1"/>
+    <col min="773" max="773" width="20.26953125" style="44" customWidth="1"/>
+    <col min="774" max="774" width="13.90625" style="44" customWidth="1"/>
+    <col min="775" max="775" width="8.7265625" style="44"/>
+    <col min="776" max="776" width="17.90625" style="44" customWidth="1"/>
+    <col min="777" max="777" width="8.7265625" style="44"/>
+    <col min="778" max="778" width="53.6328125" style="44" customWidth="1"/>
+    <col min="779" max="1023" width="8.7265625" style="44"/>
+    <col min="1024" max="1024" width="10.90625" style="44" customWidth="1"/>
+    <col min="1025" max="1025" width="22.26953125" style="44" customWidth="1"/>
+    <col min="1026" max="1026" width="8.7265625" style="44"/>
+    <col min="1027" max="1027" width="17" style="44" customWidth="1"/>
+    <col min="1028" max="1028" width="13.90625" style="44" customWidth="1"/>
+    <col min="1029" max="1029" width="20.26953125" style="44" customWidth="1"/>
+    <col min="1030" max="1030" width="13.90625" style="44" customWidth="1"/>
+    <col min="1031" max="1031" width="8.7265625" style="44"/>
+    <col min="1032" max="1032" width="17.90625" style="44" customWidth="1"/>
+    <col min="1033" max="1033" width="8.7265625" style="44"/>
+    <col min="1034" max="1034" width="53.6328125" style="44" customWidth="1"/>
+    <col min="1035" max="1279" width="8.7265625" style="44"/>
+    <col min="1280" max="1280" width="10.90625" style="44" customWidth="1"/>
+    <col min="1281" max="1281" width="22.26953125" style="44" customWidth="1"/>
+    <col min="1282" max="1282" width="8.7265625" style="44"/>
+    <col min="1283" max="1283" width="17" style="44" customWidth="1"/>
+    <col min="1284" max="1284" width="13.90625" style="44" customWidth="1"/>
+    <col min="1285" max="1285" width="20.26953125" style="44" customWidth="1"/>
+    <col min="1286" max="1286" width="13.90625" style="44" customWidth="1"/>
+    <col min="1287" max="1287" width="8.7265625" style="44"/>
+    <col min="1288" max="1288" width="17.90625" style="44" customWidth="1"/>
+    <col min="1289" max="1289" width="8.7265625" style="44"/>
+    <col min="1290" max="1290" width="53.6328125" style="44" customWidth="1"/>
+    <col min="1291" max="1535" width="8.7265625" style="44"/>
+    <col min="1536" max="1536" width="10.90625" style="44" customWidth="1"/>
+    <col min="1537" max="1537" width="22.26953125" style="44" customWidth="1"/>
+    <col min="1538" max="1538" width="8.7265625" style="44"/>
+    <col min="1539" max="1539" width="17" style="44" customWidth="1"/>
+    <col min="1540" max="1540" width="13.90625" style="44" customWidth="1"/>
+    <col min="1541" max="1541" width="20.26953125" style="44" customWidth="1"/>
+    <col min="1542" max="1542" width="13.90625" style="44" customWidth="1"/>
+    <col min="1543" max="1543" width="8.7265625" style="44"/>
+    <col min="1544" max="1544" width="17.90625" style="44" customWidth="1"/>
+    <col min="1545" max="1545" width="8.7265625" style="44"/>
+    <col min="1546" max="1546" width="53.6328125" style="44" customWidth="1"/>
+    <col min="1547" max="1791" width="8.7265625" style="44"/>
+    <col min="1792" max="1792" width="10.90625" style="44" customWidth="1"/>
+    <col min="1793" max="1793" width="22.26953125" style="44" customWidth="1"/>
+    <col min="1794" max="1794" width="8.7265625" style="44"/>
+    <col min="1795" max="1795" width="17" style="44" customWidth="1"/>
+    <col min="1796" max="1796" width="13.90625" style="44" customWidth="1"/>
+    <col min="1797" max="1797" width="20.26953125" style="44" customWidth="1"/>
+    <col min="1798" max="1798" width="13.90625" style="44" customWidth="1"/>
+    <col min="1799" max="1799" width="8.7265625" style="44"/>
+    <col min="1800" max="1800" width="17.90625" style="44" customWidth="1"/>
+    <col min="1801" max="1801" width="8.7265625" style="44"/>
+    <col min="1802" max="1802" width="53.6328125" style="44" customWidth="1"/>
+    <col min="1803" max="2047" width="8.7265625" style="44"/>
+    <col min="2048" max="2048" width="10.90625" style="44" customWidth="1"/>
+    <col min="2049" max="2049" width="22.26953125" style="44" customWidth="1"/>
+    <col min="2050" max="2050" width="8.7265625" style="44"/>
+    <col min="2051" max="2051" width="17" style="44" customWidth="1"/>
+    <col min="2052" max="2052" width="13.90625" style="44" customWidth="1"/>
+    <col min="2053" max="2053" width="20.26953125" style="44" customWidth="1"/>
+    <col min="2054" max="2054" width="13.90625" style="44" customWidth="1"/>
+    <col min="2055" max="2055" width="8.7265625" style="44"/>
+    <col min="2056" max="2056" width="17.90625" style="44" customWidth="1"/>
+    <col min="2057" max="2057" width="8.7265625" style="44"/>
+    <col min="2058" max="2058" width="53.6328125" style="44" customWidth="1"/>
+    <col min="2059" max="2303" width="8.7265625" style="44"/>
+    <col min="2304" max="2304" width="10.90625" style="44" customWidth="1"/>
+    <col min="2305" max="2305" width="22.26953125" style="44" customWidth="1"/>
+    <col min="2306" max="2306" width="8.7265625" style="44"/>
+    <col min="2307" max="2307" width="17" style="44" customWidth="1"/>
+    <col min="2308" max="2308" width="13.90625" style="44" customWidth="1"/>
+    <col min="2309" max="2309" width="20.26953125" style="44" customWidth="1"/>
+    <col min="2310" max="2310" width="13.90625" style="44" customWidth="1"/>
+    <col min="2311" max="2311" width="8.7265625" style="44"/>
+    <col min="2312" max="2312" width="17.90625" style="44" customWidth="1"/>
+    <col min="2313" max="2313" width="8.7265625" style="44"/>
+    <col min="2314" max="2314" width="53.6328125" style="44" customWidth="1"/>
+    <col min="2315" max="2559" width="8.7265625" style="44"/>
+    <col min="2560" max="2560" width="10.90625" style="44" customWidth="1"/>
+    <col min="2561" max="2561" width="22.26953125" style="44" customWidth="1"/>
+    <col min="2562" max="2562" width="8.7265625" style="44"/>
+    <col min="2563" max="2563" width="17" style="44" customWidth="1"/>
+    <col min="2564" max="2564" width="13.90625" style="44" customWidth="1"/>
+    <col min="2565" max="2565" width="20.26953125" style="44" customWidth="1"/>
+    <col min="2566" max="2566" width="13.90625" style="44" customWidth="1"/>
+    <col min="2567" max="2567" width="8.7265625" style="44"/>
+    <col min="2568" max="2568" width="17.90625" style="44" customWidth="1"/>
+    <col min="2569" max="2569" width="8.7265625" style="44"/>
+    <col min="2570" max="2570" width="53.6328125" style="44" customWidth="1"/>
+    <col min="2571" max="2815" width="8.7265625" style="44"/>
+    <col min="2816" max="2816" width="10.90625" style="44" customWidth="1"/>
+    <col min="2817" max="2817" width="22.26953125" style="44" customWidth="1"/>
+    <col min="2818" max="2818" width="8.7265625" style="44"/>
+    <col min="2819" max="2819" width="17" style="44" customWidth="1"/>
+    <col min="2820" max="2820" width="13.90625" style="44" customWidth="1"/>
+    <col min="2821" max="2821" width="20.26953125" style="44" customWidth="1"/>
+    <col min="2822" max="2822" width="13.90625" style="44" customWidth="1"/>
+    <col min="2823" max="2823" width="8.7265625" style="44"/>
+    <col min="2824" max="2824" width="17.90625" style="44" customWidth="1"/>
+    <col min="2825" max="2825" width="8.7265625" style="44"/>
+    <col min="2826" max="2826" width="53.6328125" style="44" customWidth="1"/>
+    <col min="2827" max="3071" width="8.7265625" style="44"/>
+    <col min="3072" max="3072" width="10.90625" style="44" customWidth="1"/>
+    <col min="3073" max="3073" width="22.26953125" style="44" customWidth="1"/>
+    <col min="3074" max="3074" width="8.7265625" style="44"/>
+    <col min="3075" max="3075" width="17" style="44" customWidth="1"/>
+    <col min="3076" max="3076" width="13.90625" style="44" customWidth="1"/>
+    <col min="3077" max="3077" width="20.26953125" style="44" customWidth="1"/>
+    <col min="3078" max="3078" width="13.90625" style="44" customWidth="1"/>
+    <col min="3079" max="3079" width="8.7265625" style="44"/>
+    <col min="3080" max="3080" width="17.90625" style="44" customWidth="1"/>
+    <col min="3081" max="3081" width="8.7265625" style="44"/>
+    <col min="3082" max="3082" width="53.6328125" style="44" customWidth="1"/>
+    <col min="3083" max="3327" width="8.7265625" style="44"/>
+    <col min="3328" max="3328" width="10.90625" style="44" customWidth="1"/>
+    <col min="3329" max="3329" width="22.26953125" style="44" customWidth="1"/>
+    <col min="3330" max="3330" width="8.7265625" style="44"/>
+    <col min="3331" max="3331" width="17" style="44" customWidth="1"/>
+    <col min="3332" max="3332" width="13.90625" style="44" customWidth="1"/>
+    <col min="3333" max="3333" width="20.26953125" style="44" customWidth="1"/>
+    <col min="3334" max="3334" width="13.90625" style="44" customWidth="1"/>
+    <col min="3335" max="3335" width="8.7265625" style="44"/>
+    <col min="3336" max="3336" width="17.90625" style="44" customWidth="1"/>
+    <col min="3337" max="3337" width="8.7265625" style="44"/>
+    <col min="3338" max="3338" width="53.6328125" style="44" customWidth="1"/>
+    <col min="3339" max="3583" width="8.7265625" style="44"/>
+    <col min="3584" max="3584" width="10.90625" style="44" customWidth="1"/>
+    <col min="3585" max="3585" width="22.26953125" style="44" customWidth="1"/>
+    <col min="3586" max="3586" width="8.7265625" style="44"/>
+    <col min="3587" max="3587" width="17" style="44" customWidth="1"/>
+    <col min="3588" max="3588" width="13.90625" style="44" customWidth="1"/>
+    <col min="3589" max="3589" width="20.26953125" style="44" customWidth="1"/>
+    <col min="3590" max="3590" width="13.90625" style="44" customWidth="1"/>
+    <col min="3591" max="3591" width="8.7265625" style="44"/>
+    <col min="3592" max="3592" width="17.90625" style="44" customWidth="1"/>
+    <col min="3593" max="3593" width="8.7265625" style="44"/>
+    <col min="3594" max="3594" width="53.6328125" style="44" customWidth="1"/>
+    <col min="3595" max="3839" width="8.7265625" style="44"/>
+    <col min="3840" max="3840" width="10.90625" style="44" customWidth="1"/>
+    <col min="3841" max="3841" width="22.26953125" style="44" customWidth="1"/>
+    <col min="3842" max="3842" width="8.7265625" style="44"/>
+    <col min="3843" max="3843" width="17" style="44" customWidth="1"/>
+    <col min="3844" max="3844" width="13.90625" style="44" customWidth="1"/>
+    <col min="3845" max="3845" width="20.26953125" style="44" customWidth="1"/>
+    <col min="3846" max="3846" width="13.90625" style="44" customWidth="1"/>
+    <col min="3847" max="3847" width="8.7265625" style="44"/>
+    <col min="3848" max="3848" width="17.90625" style="44" customWidth="1"/>
+    <col min="3849" max="3849" width="8.7265625" style="44"/>
+    <col min="3850" max="3850" width="53.6328125" style="44" customWidth="1"/>
+    <col min="3851" max="4095" width="8.7265625" style="44"/>
+    <col min="4096" max="4096" width="10.90625" style="44" customWidth="1"/>
+    <col min="4097" max="4097" width="22.26953125" style="44" customWidth="1"/>
+    <col min="4098" max="4098" width="8.7265625" style="44"/>
+    <col min="4099" max="4099" width="17" style="44" customWidth="1"/>
+    <col min="4100" max="4100" width="13.90625" style="44" customWidth="1"/>
+    <col min="4101" max="4101" width="20.26953125" style="44" customWidth="1"/>
+    <col min="4102" max="4102" width="13.90625" style="44" customWidth="1"/>
+    <col min="4103" max="4103" width="8.7265625" style="44"/>
+    <col min="4104" max="4104" width="17.90625" style="44" customWidth="1"/>
+    <col min="4105" max="4105" width="8.7265625" style="44"/>
+    <col min="4106" max="4106" width="53.6328125" style="44" customWidth="1"/>
+    <col min="4107" max="4351" width="8.7265625" style="44"/>
+    <col min="4352" max="4352" width="10.90625" style="44" customWidth="1"/>
+    <col min="4353" max="4353" width="22.26953125" style="44" customWidth="1"/>
+    <col min="4354" max="4354" width="8.7265625" style="44"/>
+    <col min="4355" max="4355" width="17" style="44" customWidth="1"/>
+    <col min="4356" max="4356" width="13.90625" style="44" customWidth="1"/>
+    <col min="4357" max="4357" width="20.26953125" style="44" customWidth="1"/>
+    <col min="4358" max="4358" width="13.90625" style="44" customWidth="1"/>
+    <col min="4359" max="4359" width="8.7265625" style="44"/>
+    <col min="4360" max="4360" width="17.90625" style="44" customWidth="1"/>
+    <col min="4361" max="4361" width="8.7265625" style="44"/>
+    <col min="4362" max="4362" width="53.6328125" style="44" customWidth="1"/>
+    <col min="4363" max="4607" width="8.7265625" style="44"/>
+    <col min="4608" max="4608" width="10.90625" style="44" customWidth="1"/>
+    <col min="4609" max="4609" width="22.26953125" style="44" customWidth="1"/>
+    <col min="4610" max="4610" width="8.7265625" style="44"/>
+    <col min="4611" max="4611" width="17" style="44" customWidth="1"/>
+    <col min="4612" max="4612" width="13.90625" style="44" customWidth="1"/>
+    <col min="4613" max="4613" width="20.26953125" style="44" customWidth="1"/>
+    <col min="4614" max="4614" width="13.90625" style="44" customWidth="1"/>
+    <col min="4615" max="4615" width="8.7265625" style="44"/>
+    <col min="4616" max="4616" width="17.90625" style="44" customWidth="1"/>
+    <col min="4617" max="4617" width="8.7265625" style="44"/>
+    <col min="4618" max="4618" width="53.6328125" style="44" customWidth="1"/>
+    <col min="4619" max="4863" width="8.7265625" style="44"/>
+    <col min="4864" max="4864" width="10.90625" style="44" customWidth="1"/>
+    <col min="4865" max="4865" width="22.26953125" style="44" customWidth="1"/>
+    <col min="4866" max="4866" width="8.7265625" style="44"/>
+    <col min="4867" max="4867" width="17" style="44" customWidth="1"/>
+    <col min="4868" max="4868" width="13.90625" style="44" customWidth="1"/>
+    <col min="4869" max="4869" width="20.26953125" style="44" customWidth="1"/>
+    <col min="4870" max="4870" width="13.90625" style="44" customWidth="1"/>
+    <col min="4871" max="4871" width="8.7265625" style="44"/>
+    <col min="4872" max="4872" width="17.90625" style="44" customWidth="1"/>
+    <col min="4873" max="4873" width="8.7265625" style="44"/>
+    <col min="4874" max="4874" width="53.6328125" style="44" customWidth="1"/>
+    <col min="4875" max="5119" width="8.7265625" style="44"/>
+    <col min="5120" max="5120" width="10.90625" style="44" customWidth="1"/>
+    <col min="5121" max="5121" width="22.26953125" style="44" customWidth="1"/>
+    <col min="5122" max="5122" width="8.7265625" style="44"/>
+    <col min="5123" max="5123" width="17" style="44" customWidth="1"/>
+    <col min="5124" max="5124" width="13.90625" style="44" customWidth="1"/>
+    <col min="5125" max="5125" width="20.26953125" style="44" customWidth="1"/>
+    <col min="5126" max="5126" width="13.90625" style="44" customWidth="1"/>
+    <col min="5127" max="5127" width="8.7265625" style="44"/>
+    <col min="5128" max="5128" width="17.90625" style="44" customWidth="1"/>
+    <col min="5129" max="5129" width="8.7265625" style="44"/>
+    <col min="5130" max="5130" width="53.6328125" style="44" customWidth="1"/>
+    <col min="5131" max="5375" width="8.7265625" style="44"/>
+    <col min="5376" max="5376" width="10.90625" style="44" customWidth="1"/>
+    <col min="5377" max="5377" width="22.26953125" style="44" customWidth="1"/>
+    <col min="5378" max="5378" width="8.7265625" style="44"/>
+    <col min="5379" max="5379" width="17" style="44" customWidth="1"/>
+    <col min="5380" max="5380" width="13.90625" style="44" customWidth="1"/>
+    <col min="5381" max="5381" width="20.26953125" style="44" customWidth="1"/>
+    <col min="5382" max="5382" width="13.90625" style="44" customWidth="1"/>
+    <col min="5383" max="5383" width="8.7265625" style="44"/>
+    <col min="5384" max="5384" width="17.90625" style="44" customWidth="1"/>
+    <col min="5385" max="5385" width="8.7265625" style="44"/>
+    <col min="5386" max="5386" width="53.6328125" style="44" customWidth="1"/>
+    <col min="5387" max="5631" width="8.7265625" style="44"/>
+    <col min="5632" max="5632" width="10.90625" style="44" customWidth="1"/>
+    <col min="5633" max="5633" width="22.26953125" style="44" customWidth="1"/>
+    <col min="5634" max="5634" width="8.7265625" style="44"/>
+    <col min="5635" max="5635" width="17" style="44" customWidth="1"/>
+    <col min="5636" max="5636" width="13.90625" style="44" customWidth="1"/>
+    <col min="5637" max="5637" width="20.26953125" style="44" customWidth="1"/>
+    <col min="5638" max="5638" width="13.90625" style="44" customWidth="1"/>
+    <col min="5639" max="5639" width="8.7265625" style="44"/>
+    <col min="5640" max="5640" width="17.90625" style="44" customWidth="1"/>
+    <col min="5641" max="5641" width="8.7265625" style="44"/>
+    <col min="5642" max="5642" width="53.6328125" style="44" customWidth="1"/>
+    <col min="5643" max="5887" width="8.7265625" style="44"/>
+    <col min="5888" max="5888" width="10.90625" style="44" customWidth="1"/>
+    <col min="5889" max="5889" width="22.26953125" style="44" customWidth="1"/>
+    <col min="5890" max="5890" width="8.7265625" style="44"/>
+    <col min="5891" max="5891" width="17" style="44" customWidth="1"/>
+    <col min="5892" max="5892" width="13.90625" style="44" customWidth="1"/>
+    <col min="5893" max="5893" width="20.26953125" style="44" customWidth="1"/>
+    <col min="5894" max="5894" width="13.90625" style="44" customWidth="1"/>
+    <col min="5895" max="5895" width="8.7265625" style="44"/>
+    <col min="5896" max="5896" width="17.90625" style="44" customWidth="1"/>
+    <col min="5897" max="5897" width="8.7265625" style="44"/>
+    <col min="5898" max="5898" width="53.6328125" style="44" customWidth="1"/>
+    <col min="5899" max="6143" width="8.7265625" style="44"/>
+    <col min="6144" max="6144" width="10.90625" style="44" customWidth="1"/>
+    <col min="6145" max="6145" width="22.26953125" style="44" customWidth="1"/>
+    <col min="6146" max="6146" width="8.7265625" style="44"/>
+    <col min="6147" max="6147" width="17" style="44" customWidth="1"/>
+    <col min="6148" max="6148" width="13.90625" style="44" customWidth="1"/>
+    <col min="6149" max="6149" width="20.26953125" style="44" customWidth="1"/>
+    <col min="6150" max="6150" width="13.90625" style="44" customWidth="1"/>
+    <col min="6151" max="6151" width="8.7265625" style="44"/>
+    <col min="6152" max="6152" width="17.90625" style="44" customWidth="1"/>
+    <col min="6153" max="6153" width="8.7265625" style="44"/>
+    <col min="6154" max="6154" width="53.6328125" style="44" customWidth="1"/>
+    <col min="6155" max="6399" width="8.7265625" style="44"/>
+    <col min="6400" max="6400" width="10.90625" style="44" customWidth="1"/>
+    <col min="6401" max="6401" width="22.26953125" style="44" customWidth="1"/>
+    <col min="6402" max="6402" width="8.7265625" style="44"/>
+    <col min="6403" max="6403" width="17" style="44" customWidth="1"/>
+    <col min="6404" max="6404" width="13.90625" style="44" customWidth="1"/>
+    <col min="6405" max="6405" width="20.26953125" style="44" customWidth="1"/>
+    <col min="6406" max="6406" width="13.90625" style="44" customWidth="1"/>
+    <col min="6407" max="6407" width="8.7265625" style="44"/>
+    <col min="6408" max="6408" width="17.90625" style="44" customWidth="1"/>
+    <col min="6409" max="6409" width="8.7265625" style="44"/>
+    <col min="6410" max="6410" width="53.6328125" style="44" customWidth="1"/>
+    <col min="6411" max="6655" width="8.7265625" style="44"/>
+    <col min="6656" max="6656" width="10.90625" style="44" customWidth="1"/>
+    <col min="6657" max="6657" width="22.26953125" style="44" customWidth="1"/>
+    <col min="6658" max="6658" width="8.7265625" style="44"/>
+    <col min="6659" max="6659" width="17" style="44" customWidth="1"/>
+    <col min="6660" max="6660" width="13.90625" style="44" customWidth="1"/>
+    <col min="6661" max="6661" width="20.26953125" style="44" customWidth="1"/>
+    <col min="6662" max="6662" width="13.90625" style="44" customWidth="1"/>
+    <col min="6663" max="6663" width="8.7265625" style="44"/>
+    <col min="6664" max="6664" width="17.90625" style="44" customWidth="1"/>
+    <col min="6665" max="6665" width="8.7265625" style="44"/>
+    <col min="6666" max="6666" width="53.6328125" style="44" customWidth="1"/>
+    <col min="6667" max="6911" width="8.7265625" style="44"/>
+    <col min="6912" max="6912" width="10.90625" style="44" customWidth="1"/>
+    <col min="6913" max="6913" width="22.26953125" style="44" customWidth="1"/>
+    <col min="6914" max="6914" width="8.7265625" style="44"/>
+    <col min="6915" max="6915" width="17" style="44" customWidth="1"/>
+    <col min="6916" max="6916" width="13.90625" style="44" customWidth="1"/>
+    <col min="6917" max="6917" width="20.26953125" style="44" customWidth="1"/>
+    <col min="6918" max="6918" width="13.90625" style="44" customWidth="1"/>
+    <col min="6919" max="6919" width="8.7265625" style="44"/>
+    <col min="6920" max="6920" width="17.90625" style="44" customWidth="1"/>
+    <col min="6921" max="6921" width="8.7265625" style="44"/>
+    <col min="6922" max="6922" width="53.6328125" style="44" customWidth="1"/>
+    <col min="6923" max="7167" width="8.7265625" style="44"/>
+    <col min="7168" max="7168" width="10.90625" style="44" customWidth="1"/>
+    <col min="7169" max="7169" width="22.26953125" style="44" customWidth="1"/>
+    <col min="7170" max="7170" width="8.7265625" style="44"/>
+    <col min="7171" max="7171" width="17" style="44" customWidth="1"/>
+    <col min="7172" max="7172" width="13.90625" style="44" customWidth="1"/>
+    <col min="7173" max="7173" width="20.26953125" style="44" customWidth="1"/>
+    <col min="7174" max="7174" width="13.90625" style="44" customWidth="1"/>
+    <col min="7175" max="7175" width="8.7265625" style="44"/>
+    <col min="7176" max="7176" width="17.90625" style="44" customWidth="1"/>
+    <col min="7177" max="7177" width="8.7265625" style="44"/>
+    <col min="7178" max="7178" width="53.6328125" style="44" customWidth="1"/>
+    <col min="7179" max="7423" width="8.7265625" style="44"/>
+    <col min="7424" max="7424" width="10.90625" style="44" customWidth="1"/>
+    <col min="7425" max="7425" width="22.26953125" style="44" customWidth="1"/>
+    <col min="7426" max="7426" width="8.7265625" style="44"/>
+    <col min="7427" max="7427" width="17" style="44" customWidth="1"/>
+    <col min="7428" max="7428" width="13.90625" style="44" customWidth="1"/>
+    <col min="7429" max="7429" width="20.26953125" style="44" customWidth="1"/>
+    <col min="7430" max="7430" width="13.90625" style="44" customWidth="1"/>
+    <col min="7431" max="7431" width="8.7265625" style="44"/>
+    <col min="7432" max="7432" width="17.90625" style="44" customWidth="1"/>
+    <col min="7433" max="7433" width="8.7265625" style="44"/>
+    <col min="7434" max="7434" width="53.6328125" style="44" customWidth="1"/>
+    <col min="7435" max="7679" width="8.7265625" style="44"/>
+    <col min="7680" max="7680" width="10.90625" style="44" customWidth="1"/>
+    <col min="7681" max="7681" width="22.26953125" style="44" customWidth="1"/>
+    <col min="7682" max="7682" width="8.7265625" style="44"/>
+    <col min="7683" max="7683" width="17" style="44" customWidth="1"/>
+    <col min="7684" max="7684" width="13.90625" style="44" customWidth="1"/>
+    <col min="7685" max="7685" width="20.26953125" style="44" customWidth="1"/>
+    <col min="7686" max="7686" width="13.90625" style="44" customWidth="1"/>
+    <col min="7687" max="7687" width="8.7265625" style="44"/>
+    <col min="7688" max="7688" width="17.90625" style="44" customWidth="1"/>
+    <col min="7689" max="7689" width="8.7265625" style="44"/>
+    <col min="7690" max="7690" width="53.6328125" style="44" customWidth="1"/>
+    <col min="7691" max="7935" width="8.7265625" style="44"/>
+    <col min="7936" max="7936" width="10.90625" style="44" customWidth="1"/>
+    <col min="7937" max="7937" width="22.26953125" style="44" customWidth="1"/>
+    <col min="7938" max="7938" width="8.7265625" style="44"/>
+    <col min="7939" max="7939" width="17" style="44" customWidth="1"/>
+    <col min="7940" max="7940" width="13.90625" style="44" customWidth="1"/>
+    <col min="7941" max="7941" width="20.26953125" style="44" customWidth="1"/>
+    <col min="7942" max="7942" width="13.90625" style="44" customWidth="1"/>
+    <col min="7943" max="7943" width="8.7265625" style="44"/>
+    <col min="7944" max="7944" width="17.90625" style="44" customWidth="1"/>
+    <col min="7945" max="7945" width="8.7265625" style="44"/>
+    <col min="7946" max="7946" width="53.6328125" style="44" customWidth="1"/>
+    <col min="7947" max="8191" width="8.7265625" style="44"/>
+    <col min="8192" max="8192" width="10.90625" style="44" customWidth="1"/>
+    <col min="8193" max="8193" width="22.26953125" style="44" customWidth="1"/>
+    <col min="8194" max="8194" width="8.7265625" style="44"/>
+    <col min="8195" max="8195" width="17" style="44" customWidth="1"/>
+    <col min="8196" max="8196" width="13.90625" style="44" customWidth="1"/>
+    <col min="8197" max="8197" width="20.26953125" style="44" customWidth="1"/>
+    <col min="8198" max="8198" width="13.90625" style="44" customWidth="1"/>
+    <col min="8199" max="8199" width="8.7265625" style="44"/>
+    <col min="8200" max="8200" width="17.90625" style="44" customWidth="1"/>
+    <col min="8201" max="8201" width="8.7265625" style="44"/>
+    <col min="8202" max="8202" width="53.6328125" style="44" customWidth="1"/>
+    <col min="8203" max="8447" width="8.7265625" style="44"/>
+    <col min="8448" max="8448" width="10.90625" style="44" customWidth="1"/>
+    <col min="8449" max="8449" width="22.26953125" style="44" customWidth="1"/>
+    <col min="8450" max="8450" width="8.7265625" style="44"/>
+    <col min="8451" max="8451" width="17" style="44" customWidth="1"/>
+    <col min="8452" max="8452" width="13.90625" style="44" customWidth="1"/>
+    <col min="8453" max="8453" width="20.26953125" style="44" customWidth="1"/>
+    <col min="8454" max="8454" width="13.90625" style="44" customWidth="1"/>
+    <col min="8455" max="8455" width="8.7265625" style="44"/>
+    <col min="8456" max="8456" width="17.90625" style="44" customWidth="1"/>
+    <col min="8457" max="8457" width="8.7265625" style="44"/>
+    <col min="8458" max="8458" width="53.6328125" style="44" customWidth="1"/>
+    <col min="8459" max="8703" width="8.7265625" style="44"/>
+    <col min="8704" max="8704" width="10.90625" style="44" customWidth="1"/>
+    <col min="8705" max="8705" width="22.26953125" style="44" customWidth="1"/>
+    <col min="8706" max="8706" width="8.7265625" style="44"/>
+    <col min="8707" max="8707" width="17" style="44" customWidth="1"/>
+    <col min="8708" max="8708" width="13.90625" style="44" customWidth="1"/>
+    <col min="8709" max="8709" width="20.26953125" style="44" customWidth="1"/>
+    <col min="8710" max="8710" width="13.90625" style="44" customWidth="1"/>
+    <col min="8711" max="8711" width="8.7265625" style="44"/>
+    <col min="8712" max="8712" width="17.90625" style="44" customWidth="1"/>
+    <col min="8713" max="8713" width="8.7265625" style="44"/>
+    <col min="8714" max="8714" width="53.6328125" style="44" customWidth="1"/>
+    <col min="8715" max="8959" width="8.7265625" style="44"/>
+    <col min="8960" max="8960" width="10.90625" style="44" customWidth="1"/>
+    <col min="8961" max="8961" width="22.26953125" style="44" customWidth="1"/>
+    <col min="8962" max="8962" width="8.7265625" style="44"/>
+    <col min="8963" max="8963" width="17" style="44" customWidth="1"/>
+    <col min="8964" max="8964" width="13.90625" style="44" customWidth="1"/>
+    <col min="8965" max="8965" width="20.26953125" style="44" customWidth="1"/>
+    <col min="8966" max="8966" width="13.90625" style="44" customWidth="1"/>
+    <col min="8967" max="8967" width="8.7265625" style="44"/>
+    <col min="8968" max="8968" width="17.90625" style="44" customWidth="1"/>
+    <col min="8969" max="8969" width="8.7265625" style="44"/>
+    <col min="8970" max="8970" width="53.6328125" style="44" customWidth="1"/>
+    <col min="8971" max="9215" width="8.7265625" style="44"/>
+    <col min="9216" max="9216" width="10.90625" style="44" customWidth="1"/>
+    <col min="9217" max="9217" width="22.26953125" style="44" customWidth="1"/>
+    <col min="9218" max="9218" width="8.7265625" style="44"/>
+    <col min="9219" max="9219" width="17" style="44" customWidth="1"/>
+    <col min="9220" max="9220" width="13.90625" style="44" customWidth="1"/>
+    <col min="9221" max="9221" width="20.26953125" style="44" customWidth="1"/>
+    <col min="9222" max="9222" width="13.90625" style="44" customWidth="1"/>
+    <col min="9223" max="9223" width="8.7265625" style="44"/>
+    <col min="9224" max="9224" width="17.90625" style="44" customWidth="1"/>
+    <col min="9225" max="9225" width="8.7265625" style="44"/>
+    <col min="9226" max="9226" width="53.6328125" style="44" customWidth="1"/>
+    <col min="9227" max="9471" width="8.7265625" style="44"/>
+    <col min="9472" max="9472" width="10.90625" style="44" customWidth="1"/>
+    <col min="9473" max="9473" width="22.26953125" style="44" customWidth="1"/>
+    <col min="9474" max="9474" width="8.7265625" style="44"/>
+    <col min="9475" max="9475" width="17" style="44" customWidth="1"/>
+    <col min="9476" max="9476" width="13.90625" style="44" customWidth="1"/>
+    <col min="9477" max="9477" width="20.26953125" style="44" customWidth="1"/>
+    <col min="9478" max="9478" width="13.90625" style="44" customWidth="1"/>
+    <col min="9479" max="9479" width="8.7265625" style="44"/>
+    <col min="9480" max="9480" width="17.90625" style="44" customWidth="1"/>
+    <col min="9481" max="9481" width="8.7265625" style="44"/>
+    <col min="9482" max="9482" width="53.6328125" style="44" customWidth="1"/>
+    <col min="9483" max="9727" width="8.7265625" style="44"/>
+    <col min="9728" max="9728" width="10.90625" style="44" customWidth="1"/>
+    <col min="9729" max="9729" width="22.26953125" style="44" customWidth="1"/>
+    <col min="9730" max="9730" width="8.7265625" style="44"/>
+    <col min="9731" max="9731" width="17" style="44" customWidth="1"/>
+    <col min="9732" max="9732" width="13.90625" style="44" customWidth="1"/>
+    <col min="9733" max="9733" width="20.26953125" style="44" customWidth="1"/>
+    <col min="9734" max="9734" width="13.90625" style="44" customWidth="1"/>
+    <col min="9735" max="9735" width="8.7265625" style="44"/>
+    <col min="9736" max="9736" width="17.90625" style="44" customWidth="1"/>
+    <col min="9737" max="9737" width="8.7265625" style="44"/>
+    <col min="9738" max="9738" width="53.6328125" style="44" customWidth="1"/>
+    <col min="9739" max="9983" width="8.7265625" style="44"/>
+    <col min="9984" max="9984" width="10.90625" style="44" customWidth="1"/>
+    <col min="9985" max="9985" width="22.26953125" style="44" customWidth="1"/>
+    <col min="9986" max="9986" width="8.7265625" style="44"/>
+    <col min="9987" max="9987" width="17" style="44" customWidth="1"/>
+    <col min="9988" max="9988" width="13.90625" style="44" customWidth="1"/>
+    <col min="9989" max="9989" width="20.26953125" style="44" customWidth="1"/>
+    <col min="9990" max="9990" width="13.90625" style="44" customWidth="1"/>
+    <col min="9991" max="9991" width="8.7265625" style="44"/>
+    <col min="9992" max="9992" width="17.90625" style="44" customWidth="1"/>
+    <col min="9993" max="9993" width="8.7265625" style="44"/>
+    <col min="9994" max="9994" width="53.6328125" style="44" customWidth="1"/>
+    <col min="9995" max="10239" width="8.7265625" style="44"/>
+    <col min="10240" max="10240" width="10.90625" style="44" customWidth="1"/>
+    <col min="10241" max="10241" width="22.26953125" style="44" customWidth="1"/>
+    <col min="10242" max="10242" width="8.7265625" style="44"/>
+    <col min="10243" max="10243" width="17" style="44" customWidth="1"/>
+    <col min="10244" max="10244" width="13.90625" style="44" customWidth="1"/>
+    <col min="10245" max="10245" width="20.26953125" style="44" customWidth="1"/>
+    <col min="10246" max="10246" width="13.90625" style="44" customWidth="1"/>
+    <col min="10247" max="10247" width="8.7265625" style="44"/>
+    <col min="10248" max="10248" width="17.90625" style="44" customWidth="1"/>
+    <col min="10249" max="10249" width="8.7265625" style="44"/>
+    <col min="10250" max="10250" width="53.6328125" style="44" customWidth="1"/>
+    <col min="10251" max="10495" width="8.7265625" style="44"/>
+    <col min="10496" max="10496" width="10.90625" style="44" customWidth="1"/>
+    <col min="10497" max="10497" width="22.26953125" style="44" customWidth="1"/>
+    <col min="10498" max="10498" width="8.7265625" style="44"/>
+    <col min="10499" max="10499" width="17" style="44" customWidth="1"/>
+    <col min="10500" max="10500" width="13.90625" style="44" customWidth="1"/>
+    <col min="10501" max="10501" width="20.26953125" style="44" customWidth="1"/>
+    <col min="10502" max="10502" width="13.90625" style="44" customWidth="1"/>
+    <col min="10503" max="10503" width="8.7265625" style="44"/>
+    <col min="10504" max="10504" width="17.90625" style="44" customWidth="1"/>
+    <col min="10505" max="10505" width="8.7265625" style="44"/>
+    <col min="10506" max="10506" width="53.6328125" style="44" customWidth="1"/>
+    <col min="10507" max="10751" width="8.7265625" style="44"/>
+    <col min="10752" max="10752" width="10.90625" style="44" customWidth="1"/>
+    <col min="10753" max="10753" width="22.26953125" style="44" customWidth="1"/>
+    <col min="10754" max="10754" width="8.7265625" style="44"/>
+    <col min="10755" max="10755" width="17" style="44" customWidth="1"/>
+    <col min="10756" max="10756" width="13.90625" style="44" customWidth="1"/>
+    <col min="10757" max="10757" width="20.26953125" style="44" customWidth="1"/>
+    <col min="10758" max="10758" width="13.90625" style="44" customWidth="1"/>
+    <col min="10759" max="10759" width="8.7265625" style="44"/>
+    <col min="10760" max="10760" width="17.90625" style="44" customWidth="1"/>
+    <col min="10761" max="10761" width="8.7265625" style="44"/>
+    <col min="10762" max="10762" width="53.6328125" style="44" customWidth="1"/>
+    <col min="10763" max="11007" width="8.7265625" style="44"/>
+    <col min="11008" max="11008" width="10.90625" style="44" customWidth="1"/>
+    <col min="11009" max="11009" width="22.26953125" style="44" customWidth="1"/>
+    <col min="11010" max="11010" width="8.7265625" style="44"/>
+    <col min="11011" max="11011" width="17" style="44" customWidth="1"/>
+    <col min="11012" max="11012" width="13.90625" style="44" customWidth="1"/>
+    <col min="11013" max="11013" width="20.26953125" style="44" customWidth="1"/>
+    <col min="11014" max="11014" width="13.90625" style="44" customWidth="1"/>
+    <col min="11015" max="11015" width="8.7265625" style="44"/>
+    <col min="11016" max="11016" width="17.90625" style="44" customWidth="1"/>
+    <col min="11017" max="11017" width="8.7265625" style="44"/>
+    <col min="11018" max="11018" width="53.6328125" style="44" customWidth="1"/>
+    <col min="11019" max="11263" width="8.7265625" style="44"/>
+    <col min="11264" max="11264" width="10.90625" style="44" customWidth="1"/>
+    <col min="11265" max="11265" width="22.26953125" style="44" customWidth="1"/>
+    <col min="11266" max="11266" width="8.7265625" style="44"/>
+    <col min="11267" max="11267" width="17" style="44" customWidth="1"/>
+    <col min="11268" max="11268" width="13.90625" style="44" customWidth="1"/>
+    <col min="11269" max="11269" width="20.26953125" style="44" customWidth="1"/>
+    <col min="11270" max="11270" width="13.90625" style="44" customWidth="1"/>
+    <col min="11271" max="11271" width="8.7265625" style="44"/>
+    <col min="11272" max="11272" width="17.90625" style="44" customWidth="1"/>
+    <col min="11273" max="11273" width="8.7265625" style="44"/>
+    <col min="11274" max="11274" width="53.6328125" style="44" customWidth="1"/>
+    <col min="11275" max="11519" width="8.7265625" style="44"/>
+    <col min="11520" max="11520" width="10.90625" style="44" customWidth="1"/>
+    <col min="11521" max="11521" width="22.26953125" style="44" customWidth="1"/>
+    <col min="11522" max="11522" width="8.7265625" style="44"/>
+    <col min="11523" max="11523" width="17" style="44" customWidth="1"/>
+    <col min="11524" max="11524" width="13.90625" style="44" customWidth="1"/>
+    <col min="11525" max="11525" width="20.26953125" style="44" customWidth="1"/>
+    <col min="11526" max="11526" width="13.90625" style="44" customWidth="1"/>
+    <col min="11527" max="11527" width="8.7265625" style="44"/>
+    <col min="11528" max="11528" width="17.90625" style="44" customWidth="1"/>
+    <col min="11529" max="11529" width="8.7265625" style="44"/>
+    <col min="11530" max="11530" width="53.6328125" style="44" customWidth="1"/>
+    <col min="11531" max="11775" width="8.7265625" style="44"/>
+    <col min="11776" max="11776" width="10.90625" style="44" customWidth="1"/>
+    <col min="11777" max="11777" width="22.26953125" style="44" customWidth="1"/>
+    <col min="11778" max="11778" width="8.7265625" style="44"/>
+    <col min="11779" max="11779" width="17" style="44" customWidth="1"/>
+    <col min="11780" max="11780" width="13.90625" style="44" customWidth="1"/>
+    <col min="11781" max="11781" width="20.26953125" style="44" customWidth="1"/>
+    <col min="11782" max="11782" width="13.90625" style="44" customWidth="1"/>
+    <col min="11783" max="11783" width="8.7265625" style="44"/>
+    <col min="11784" max="11784" width="17.90625" style="44" customWidth="1"/>
+    <col min="11785" max="11785" width="8.7265625" style="44"/>
+    <col min="11786" max="11786" width="53.6328125" style="44" customWidth="1"/>
+    <col min="11787" max="12031" width="8.7265625" style="44"/>
+    <col min="12032" max="12032" width="10.90625" style="44" customWidth="1"/>
+    <col min="12033" max="12033" width="22.26953125" style="44" customWidth="1"/>
+    <col min="12034" max="12034" width="8.7265625" style="44"/>
+    <col min="12035" max="12035" width="17" style="44" customWidth="1"/>
+    <col min="12036" max="12036" width="13.90625" style="44" customWidth="1"/>
+    <col min="12037" max="12037" width="20.26953125" style="44" customWidth="1"/>
+    <col min="12038" max="12038" width="13.90625" style="44" customWidth="1"/>
+    <col min="12039" max="12039" width="8.7265625" style="44"/>
+    <col min="12040" max="12040" width="17.90625" style="44" customWidth="1"/>
+    <col min="12041" max="12041" width="8.7265625" style="44"/>
+    <col min="12042" max="12042" width="53.6328125" style="44" customWidth="1"/>
+    <col min="12043" max="12287" width="8.7265625" style="44"/>
+    <col min="12288" max="12288" width="10.90625" style="44" customWidth="1"/>
+    <col min="12289" max="12289" width="22.26953125" style="44" customWidth="1"/>
+    <col min="12290" max="12290" width="8.7265625" style="44"/>
+    <col min="12291" max="12291" width="17" style="44" customWidth="1"/>
+    <col min="12292" max="12292" width="13.90625" style="44" customWidth="1"/>
+    <col min="12293" max="12293" width="20.26953125" style="44" customWidth="1"/>
+    <col min="12294" max="12294" width="13.90625" style="44" customWidth="1"/>
+    <col min="12295" max="12295" width="8.7265625" style="44"/>
+    <col min="12296" max="12296" width="17.90625" style="44" customWidth="1"/>
+    <col min="12297" max="12297" width="8.7265625" style="44"/>
+    <col min="12298" max="12298" width="53.6328125" style="44" customWidth="1"/>
+    <col min="12299" max="12543" width="8.7265625" style="44"/>
+    <col min="12544" max="12544" width="10.90625" style="44" customWidth="1"/>
+    <col min="12545" max="12545" width="22.26953125" style="44" customWidth="1"/>
+    <col min="12546" max="12546" width="8.7265625" style="44"/>
+    <col min="12547" max="12547" width="17" style="44" customWidth="1"/>
+    <col min="12548" max="12548" width="13.90625" style="44" customWidth="1"/>
+    <col min="12549" max="12549" width="20.26953125" style="44" customWidth="1"/>
+    <col min="12550" max="12550" width="13.90625" style="44" customWidth="1"/>
+    <col min="12551" max="12551" width="8.7265625" style="44"/>
+    <col min="12552" max="12552" width="17.90625" style="44" customWidth="1"/>
+    <col min="12553" max="12553" width="8.7265625" style="44"/>
+    <col min="12554" max="12554" width="53.6328125" style="44" customWidth="1"/>
+    <col min="12555" max="12799" width="8.7265625" style="44"/>
+    <col min="12800" max="12800" width="10.90625" style="44" customWidth="1"/>
+    <col min="12801" max="12801" width="22.26953125" style="44" customWidth="1"/>
+    <col min="12802" max="12802" width="8.7265625" style="44"/>
+    <col min="12803" max="12803" width="17" style="44" customWidth="1"/>
+    <col min="12804" max="12804" width="13.90625" style="44" customWidth="1"/>
+    <col min="12805" max="12805" width="20.26953125" style="44" customWidth="1"/>
+    <col min="12806" max="12806" width="13.90625" style="44" customWidth="1"/>
+    <col min="12807" max="12807" width="8.7265625" style="44"/>
+    <col min="12808" max="12808" width="17.90625" style="44" customWidth="1"/>
+    <col min="12809" max="12809" width="8.7265625" style="44"/>
+    <col min="12810" max="12810" width="53.6328125" style="44" customWidth="1"/>
+    <col min="12811" max="13055" width="8.7265625" style="44"/>
+    <col min="13056" max="13056" width="10.90625" style="44" customWidth="1"/>
+    <col min="13057" max="13057" width="22.26953125" style="44" customWidth="1"/>
+    <col min="13058" max="13058" width="8.7265625" style="44"/>
+    <col min="13059" max="13059" width="17" style="44" customWidth="1"/>
+    <col min="13060" max="13060" width="13.90625" style="44" customWidth="1"/>
+    <col min="13061" max="13061" width="20.26953125" style="44" customWidth="1"/>
+    <col min="13062" max="13062" width="13.90625" style="44" customWidth="1"/>
+    <col min="13063" max="13063" width="8.7265625" style="44"/>
+    <col min="13064" max="13064" width="17.90625" style="44" customWidth="1"/>
+    <col min="13065" max="13065" width="8.7265625" style="44"/>
+    <col min="13066" max="13066" width="53.6328125" style="44" customWidth="1"/>
+    <col min="13067" max="13311" width="8.7265625" style="44"/>
+    <col min="13312" max="13312" width="10.90625" style="44" customWidth="1"/>
+    <col min="13313" max="13313" width="22.26953125" style="44" customWidth="1"/>
+    <col min="13314" max="13314" width="8.7265625" style="44"/>
+    <col min="13315" max="13315" width="17" style="44" customWidth="1"/>
+    <col min="13316" max="13316" width="13.90625" style="44" customWidth="1"/>
+    <col min="13317" max="13317" width="20.26953125" style="44" customWidth="1"/>
+    <col min="13318" max="13318" width="13.90625" style="44" customWidth="1"/>
+    <col min="13319" max="13319" width="8.7265625" style="44"/>
+    <col min="13320" max="13320" width="17.90625" style="44" customWidth="1"/>
+    <col min="13321" max="13321" width="8.7265625" style="44"/>
+    <col min="13322" max="13322" width="53.6328125" style="44" customWidth="1"/>
+    <col min="13323" max="13567" width="8.7265625" style="44"/>
+    <col min="13568" max="13568" width="10.90625" style="44" customWidth="1"/>
+    <col min="13569" max="13569" width="22.26953125" style="44" customWidth="1"/>
+    <col min="13570" max="13570" width="8.7265625" style="44"/>
+    <col min="13571" max="13571" width="17" style="44" customWidth="1"/>
+    <col min="13572" max="13572" width="13.90625" style="44" customWidth="1"/>
+    <col min="13573" max="13573" width="20.26953125" style="44" customWidth="1"/>
+    <col min="13574" max="13574" width="13.90625" style="44" customWidth="1"/>
+    <col min="13575" max="13575" width="8.7265625" style="44"/>
+    <col min="13576" max="13576" width="17.90625" style="44" customWidth="1"/>
+    <col min="13577" max="13577" width="8.7265625" style="44"/>
+    <col min="13578" max="13578" width="53.6328125" style="44" customWidth="1"/>
+    <col min="13579" max="13823" width="8.7265625" style="44"/>
+    <col min="13824" max="13824" width="10.90625" style="44" customWidth="1"/>
+    <col min="13825" max="13825" width="22.26953125" style="44" customWidth="1"/>
+    <col min="13826" max="13826" width="8.7265625" style="44"/>
+    <col min="13827" max="13827" width="17" style="44" customWidth="1"/>
+    <col min="13828" max="13828" width="13.90625" style="44" customWidth="1"/>
+    <col min="13829" max="13829" width="20.26953125" style="44" customWidth="1"/>
+    <col min="13830" max="13830" width="13.90625" style="44" customWidth="1"/>
+    <col min="13831" max="13831" width="8.7265625" style="44"/>
+    <col min="13832" max="13832" width="17.90625" style="44" customWidth="1"/>
+    <col min="13833" max="13833" width="8.7265625" style="44"/>
+    <col min="13834" max="13834" width="53.6328125" style="44" customWidth="1"/>
+    <col min="13835" max="14079" width="8.7265625" style="44"/>
+    <col min="14080" max="14080" width="10.90625" style="44" customWidth="1"/>
+    <col min="14081" max="14081" width="22.26953125" style="44" customWidth="1"/>
+    <col min="14082" max="14082" width="8.7265625" style="44"/>
+    <col min="14083" max="14083" width="17" style="44" customWidth="1"/>
+    <col min="14084" max="14084" width="13.90625" style="44" customWidth="1"/>
+    <col min="14085" max="14085" width="20.26953125" style="44" customWidth="1"/>
+    <col min="14086" max="14086" width="13.90625" style="44" customWidth="1"/>
+    <col min="14087" max="14087" width="8.7265625" style="44"/>
+    <col min="14088" max="14088" width="17.90625" style="44" customWidth="1"/>
+    <col min="14089" max="14089" width="8.7265625" style="44"/>
+    <col min="14090" max="14090" width="53.6328125" style="44" customWidth="1"/>
+    <col min="14091" max="14335" width="8.7265625" style="44"/>
+    <col min="14336" max="14336" width="10.90625" style="44" customWidth="1"/>
+    <col min="14337" max="14337" width="22.26953125" style="44" customWidth="1"/>
+    <col min="14338" max="14338" width="8.7265625" style="44"/>
+    <col min="14339" max="14339" width="17" style="44" customWidth="1"/>
+    <col min="14340" max="14340" width="13.90625" style="44" customWidth="1"/>
+    <col min="14341" max="14341" width="20.26953125" style="44" customWidth="1"/>
+    <col min="14342" max="14342" width="13.90625" style="44" customWidth="1"/>
+    <col min="14343" max="14343" width="8.7265625" style="44"/>
+    <col min="14344" max="14344" width="17.90625" style="44" customWidth="1"/>
+    <col min="14345" max="14345" width="8.7265625" style="44"/>
+    <col min="14346" max="14346" width="53.6328125" style="44" customWidth="1"/>
+    <col min="14347" max="14591" width="8.7265625" style="44"/>
+    <col min="14592" max="14592" width="10.90625" style="44" customWidth="1"/>
+    <col min="14593" max="14593" width="22.26953125" style="44" customWidth="1"/>
+    <col min="14594" max="14594" width="8.7265625" style="44"/>
+    <col min="14595" max="14595" width="17" style="44" customWidth="1"/>
+    <col min="14596" max="14596" width="13.90625" style="44" customWidth="1"/>
+    <col min="14597" max="14597" width="20.26953125" style="44" customWidth="1"/>
+    <col min="14598" max="14598" width="13.90625" style="44" customWidth="1"/>
+    <col min="14599" max="14599" width="8.7265625" style="44"/>
+    <col min="14600" max="14600" width="17.90625" style="44" customWidth="1"/>
+    <col min="14601" max="14601" width="8.7265625" style="44"/>
+    <col min="14602" max="14602" width="53.6328125" style="44" customWidth="1"/>
+    <col min="14603" max="14847" width="8.7265625" style="44"/>
+    <col min="14848" max="14848" width="10.90625" style="44" customWidth="1"/>
+    <col min="14849" max="14849" width="22.26953125" style="44" customWidth="1"/>
+    <col min="14850" max="14850" width="8.7265625" style="44"/>
+    <col min="14851" max="14851" width="17" style="44" customWidth="1"/>
+    <col min="14852" max="14852" width="13.90625" style="44" customWidth="1"/>
+    <col min="14853" max="14853" width="20.26953125" style="44" customWidth="1"/>
+    <col min="14854" max="14854" width="13.90625" style="44" customWidth="1"/>
+    <col min="14855" max="14855" width="8.7265625" style="44"/>
+    <col min="14856" max="14856" width="17.90625" style="44" customWidth="1"/>
+    <col min="14857" max="14857" width="8.7265625" style="44"/>
+    <col min="14858" max="14858" width="53.6328125" style="44" customWidth="1"/>
+    <col min="14859" max="15103" width="8.7265625" style="44"/>
+    <col min="15104" max="15104" width="10.90625" style="44" customWidth="1"/>
+    <col min="15105" max="15105" width="22.26953125" style="44" customWidth="1"/>
+    <col min="15106" max="15106" width="8.7265625" style="44"/>
+    <col min="15107" max="15107" width="17" style="44" customWidth="1"/>
+    <col min="15108" max="15108" width="13.90625" style="44" customWidth="1"/>
+    <col min="15109" max="15109" width="20.26953125" style="44" customWidth="1"/>
+    <col min="15110" max="15110" width="13.90625" style="44" customWidth="1"/>
+    <col min="15111" max="15111" width="8.7265625" style="44"/>
+    <col min="15112" max="15112" width="17.90625" style="44" customWidth="1"/>
+    <col min="15113" max="15113" width="8.7265625" style="44"/>
+    <col min="15114" max="15114" width="53.6328125" style="44" customWidth="1"/>
+    <col min="15115" max="15359" width="8.7265625" style="44"/>
+    <col min="15360" max="15360" width="10.90625" style="44" customWidth="1"/>
+    <col min="15361" max="15361" width="22.26953125" style="44" customWidth="1"/>
+    <col min="15362" max="15362" width="8.7265625" style="44"/>
+    <col min="15363" max="15363" width="17" style="44" customWidth="1"/>
+    <col min="15364" max="15364" width="13.90625" style="44" customWidth="1"/>
+    <col min="15365" max="15365" width="20.26953125" style="44" customWidth="1"/>
+    <col min="15366" max="15366" width="13.90625" style="44" customWidth="1"/>
+    <col min="15367" max="15367" width="8.7265625" style="44"/>
+    <col min="15368" max="15368" width="17.90625" style="44" customWidth="1"/>
+    <col min="15369" max="15369" width="8.7265625" style="44"/>
+    <col min="15370" max="15370" width="53.6328125" style="44" customWidth="1"/>
+    <col min="15371" max="15615" width="8.7265625" style="44"/>
+    <col min="15616" max="15616" width="10.90625" style="44" customWidth="1"/>
+    <col min="15617" max="15617" width="22.26953125" style="44" customWidth="1"/>
+    <col min="15618" max="15618" width="8.7265625" style="44"/>
+    <col min="15619" max="15619" width="17" style="44" customWidth="1"/>
+    <col min="15620" max="15620" width="13.90625" style="44" customWidth="1"/>
+    <col min="15621" max="15621" width="20.26953125" style="44" customWidth="1"/>
+    <col min="15622" max="15622" width="13.90625" style="44" customWidth="1"/>
+    <col min="15623" max="15623" width="8.7265625" style="44"/>
+    <col min="15624" max="15624" width="17.90625" style="44" customWidth="1"/>
+    <col min="15625" max="15625" width="8.7265625" style="44"/>
+    <col min="15626" max="15626" width="53.6328125" style="44" customWidth="1"/>
+    <col min="15627" max="15871" width="8.7265625" style="44"/>
+    <col min="15872" max="15872" width="10.90625" style="44" customWidth="1"/>
+    <col min="15873" max="15873" width="22.26953125" style="44" customWidth="1"/>
+    <col min="15874" max="15874" width="8.7265625" style="44"/>
+    <col min="15875" max="15875" width="17" style="44" customWidth="1"/>
+    <col min="15876" max="15876" width="13.90625" style="44" customWidth="1"/>
+    <col min="15877" max="15877" width="20.26953125" style="44" customWidth="1"/>
+    <col min="15878" max="15878" width="13.90625" style="44" customWidth="1"/>
+    <col min="15879" max="15879" width="8.7265625" style="44"/>
+    <col min="15880" max="15880" width="17.90625" style="44" customWidth="1"/>
+    <col min="15881" max="15881" width="8.7265625" style="44"/>
+    <col min="15882" max="15882" width="53.6328125" style="44" customWidth="1"/>
+    <col min="15883" max="16127" width="8.7265625" style="44"/>
+    <col min="16128" max="16128" width="10.90625" style="44" customWidth="1"/>
+    <col min="16129" max="16129" width="22.26953125" style="44" customWidth="1"/>
+    <col min="16130" max="16130" width="8.7265625" style="44"/>
+    <col min="16131" max="16131" width="17" style="44" customWidth="1"/>
+    <col min="16132" max="16132" width="13.90625" style="44" customWidth="1"/>
+    <col min="16133" max="16133" width="20.26953125" style="44" customWidth="1"/>
+    <col min="16134" max="16134" width="13.90625" style="44" customWidth="1"/>
+    <col min="16135" max="16135" width="8.7265625" style="44"/>
+    <col min="16136" max="16136" width="17.90625" style="44" customWidth="1"/>
+    <col min="16137" max="16137" width="8.7265625" style="44"/>
+    <col min="16138" max="16138" width="53.6328125" style="44" customWidth="1"/>
+    <col min="16139" max="16384" width="8.7265625" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>982</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>976</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>993</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>987</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>974</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>978</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>985</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>993</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>988</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>974</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>978</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>986</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>994</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>987</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>974</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>978</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>985</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>994</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>988</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>974</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>978</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>986</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41" t="s">
+        <v>996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft"/>
@@ -9926,11 +10910,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6088B859-F4CC-4BEC-A868-E480CB51A829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82BC453-615B-49C3-ADD4-473B1344DB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="1390" windowWidth="16590" windowHeight="8590" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="360" windowWidth="16590" windowHeight="8590" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1029">
   <si>
     <t>Code</t>
   </si>
@@ -3183,6 +3183,64 @@
   </si>
   <si>
     <t>Remove attribute 'transitionEndRule' from StudyElement Class</t>
+  </si>
+  <si>
+    <t>Add relationship to StudyDesign class</t>
+  </si>
+  <si>
+    <t>encounters</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>activities</t>
+  </si>
+  <si>
+    <t>Add attribute to StudyDesign Class</t>
+  </si>
+  <si>
+    <t>studyDesignName</t>
+  </si>
+  <si>
+    <t>Study Design Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the study design.</t>
+  </si>
+  <si>
+    <t>studyDesignDesc</t>
+  </si>
+  <si>
+    <t>Study Design Description</t>
+  </si>
+  <si>
+    <t>The textual representation of the study design.</t>
+  </si>
+  <si>
+    <t>Add new Class</t>
+  </si>
+  <si>
+    <t>AliasCode</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Alias Code</t>
+  </si>
+  <si>
+    <t>Add relationship to AliasCode class</t>
+  </si>
+  <si>
+    <t>standardCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standardCodeAliases
+</t>
+  </si>
+  <si>
+    <t>An alternative symbol or combination of symbols which is assigned to the members of a collection.</t>
   </si>
 </sst>
 </file>
@@ -3334,7 +3392,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3411,13 +3469,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3525,15 +3596,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3548,6 +3610,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3843,10 +3929,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>973</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -9685,14 +9771,232 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60F93F-DDE7-4577-BCA7-BDCFD0F8A197}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.90625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="4.36328125" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>982</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>976</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+    </row>
+    <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="37" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="37" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>978</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9704,777 +10008,777 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="44"/>
-    <col min="3" max="3" width="17" style="44" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="44"/>
-    <col min="8" max="8" width="17.90625" style="44" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="44"/>
-    <col min="10" max="10" width="53.6328125" style="44" customWidth="1"/>
-    <col min="11" max="255" width="8.7265625" style="44"/>
-    <col min="256" max="256" width="10.90625" style="44" customWidth="1"/>
-    <col min="257" max="257" width="22.26953125" style="44" customWidth="1"/>
-    <col min="258" max="258" width="8.7265625" style="44"/>
-    <col min="259" max="259" width="17" style="44" customWidth="1"/>
-    <col min="260" max="260" width="13.90625" style="44" customWidth="1"/>
-    <col min="261" max="261" width="20.26953125" style="44" customWidth="1"/>
-    <col min="262" max="262" width="13.90625" style="44" customWidth="1"/>
-    <col min="263" max="263" width="8.7265625" style="44"/>
-    <col min="264" max="264" width="17.90625" style="44" customWidth="1"/>
-    <col min="265" max="265" width="8.7265625" style="44"/>
-    <col min="266" max="266" width="53.6328125" style="44" customWidth="1"/>
-    <col min="267" max="511" width="8.7265625" style="44"/>
-    <col min="512" max="512" width="10.90625" style="44" customWidth="1"/>
-    <col min="513" max="513" width="22.26953125" style="44" customWidth="1"/>
-    <col min="514" max="514" width="8.7265625" style="44"/>
-    <col min="515" max="515" width="17" style="44" customWidth="1"/>
-    <col min="516" max="516" width="13.90625" style="44" customWidth="1"/>
-    <col min="517" max="517" width="20.26953125" style="44" customWidth="1"/>
-    <col min="518" max="518" width="13.90625" style="44" customWidth="1"/>
-    <col min="519" max="519" width="8.7265625" style="44"/>
-    <col min="520" max="520" width="17.90625" style="44" customWidth="1"/>
-    <col min="521" max="521" width="8.7265625" style="44"/>
-    <col min="522" max="522" width="53.6328125" style="44" customWidth="1"/>
-    <col min="523" max="767" width="8.7265625" style="44"/>
-    <col min="768" max="768" width="10.90625" style="44" customWidth="1"/>
-    <col min="769" max="769" width="22.26953125" style="44" customWidth="1"/>
-    <col min="770" max="770" width="8.7265625" style="44"/>
-    <col min="771" max="771" width="17" style="44" customWidth="1"/>
-    <col min="772" max="772" width="13.90625" style="44" customWidth="1"/>
-    <col min="773" max="773" width="20.26953125" style="44" customWidth="1"/>
-    <col min="774" max="774" width="13.90625" style="44" customWidth="1"/>
-    <col min="775" max="775" width="8.7265625" style="44"/>
-    <col min="776" max="776" width="17.90625" style="44" customWidth="1"/>
-    <col min="777" max="777" width="8.7265625" style="44"/>
-    <col min="778" max="778" width="53.6328125" style="44" customWidth="1"/>
-    <col min="779" max="1023" width="8.7265625" style="44"/>
-    <col min="1024" max="1024" width="10.90625" style="44" customWidth="1"/>
-    <col min="1025" max="1025" width="22.26953125" style="44" customWidth="1"/>
-    <col min="1026" max="1026" width="8.7265625" style="44"/>
-    <col min="1027" max="1027" width="17" style="44" customWidth="1"/>
-    <col min="1028" max="1028" width="13.90625" style="44" customWidth="1"/>
-    <col min="1029" max="1029" width="20.26953125" style="44" customWidth="1"/>
-    <col min="1030" max="1030" width="13.90625" style="44" customWidth="1"/>
-    <col min="1031" max="1031" width="8.7265625" style="44"/>
-    <col min="1032" max="1032" width="17.90625" style="44" customWidth="1"/>
-    <col min="1033" max="1033" width="8.7265625" style="44"/>
-    <col min="1034" max="1034" width="53.6328125" style="44" customWidth="1"/>
-    <col min="1035" max="1279" width="8.7265625" style="44"/>
-    <col min="1280" max="1280" width="10.90625" style="44" customWidth="1"/>
-    <col min="1281" max="1281" width="22.26953125" style="44" customWidth="1"/>
-    <col min="1282" max="1282" width="8.7265625" style="44"/>
-    <col min="1283" max="1283" width="17" style="44" customWidth="1"/>
-    <col min="1284" max="1284" width="13.90625" style="44" customWidth="1"/>
-    <col min="1285" max="1285" width="20.26953125" style="44" customWidth="1"/>
-    <col min="1286" max="1286" width="13.90625" style="44" customWidth="1"/>
-    <col min="1287" max="1287" width="8.7265625" style="44"/>
-    <col min="1288" max="1288" width="17.90625" style="44" customWidth="1"/>
-    <col min="1289" max="1289" width="8.7265625" style="44"/>
-    <col min="1290" max="1290" width="53.6328125" style="44" customWidth="1"/>
-    <col min="1291" max="1535" width="8.7265625" style="44"/>
-    <col min="1536" max="1536" width="10.90625" style="44" customWidth="1"/>
-    <col min="1537" max="1537" width="22.26953125" style="44" customWidth="1"/>
-    <col min="1538" max="1538" width="8.7265625" style="44"/>
-    <col min="1539" max="1539" width="17" style="44" customWidth="1"/>
-    <col min="1540" max="1540" width="13.90625" style="44" customWidth="1"/>
-    <col min="1541" max="1541" width="20.26953125" style="44" customWidth="1"/>
-    <col min="1542" max="1542" width="13.90625" style="44" customWidth="1"/>
-    <col min="1543" max="1543" width="8.7265625" style="44"/>
-    <col min="1544" max="1544" width="17.90625" style="44" customWidth="1"/>
-    <col min="1545" max="1545" width="8.7265625" style="44"/>
-    <col min="1546" max="1546" width="53.6328125" style="44" customWidth="1"/>
-    <col min="1547" max="1791" width="8.7265625" style="44"/>
-    <col min="1792" max="1792" width="10.90625" style="44" customWidth="1"/>
-    <col min="1793" max="1793" width="22.26953125" style="44" customWidth="1"/>
-    <col min="1794" max="1794" width="8.7265625" style="44"/>
-    <col min="1795" max="1795" width="17" style="44" customWidth="1"/>
-    <col min="1796" max="1796" width="13.90625" style="44" customWidth="1"/>
-    <col min="1797" max="1797" width="20.26953125" style="44" customWidth="1"/>
-    <col min="1798" max="1798" width="13.90625" style="44" customWidth="1"/>
-    <col min="1799" max="1799" width="8.7265625" style="44"/>
-    <col min="1800" max="1800" width="17.90625" style="44" customWidth="1"/>
-    <col min="1801" max="1801" width="8.7265625" style="44"/>
-    <col min="1802" max="1802" width="53.6328125" style="44" customWidth="1"/>
-    <col min="1803" max="2047" width="8.7265625" style="44"/>
-    <col min="2048" max="2048" width="10.90625" style="44" customWidth="1"/>
-    <col min="2049" max="2049" width="22.26953125" style="44" customWidth="1"/>
-    <col min="2050" max="2050" width="8.7265625" style="44"/>
-    <col min="2051" max="2051" width="17" style="44" customWidth="1"/>
-    <col min="2052" max="2052" width="13.90625" style="44" customWidth="1"/>
-    <col min="2053" max="2053" width="20.26953125" style="44" customWidth="1"/>
-    <col min="2054" max="2054" width="13.90625" style="44" customWidth="1"/>
-    <col min="2055" max="2055" width="8.7265625" style="44"/>
-    <col min="2056" max="2056" width="17.90625" style="44" customWidth="1"/>
-    <col min="2057" max="2057" width="8.7265625" style="44"/>
-    <col min="2058" max="2058" width="53.6328125" style="44" customWidth="1"/>
-    <col min="2059" max="2303" width="8.7265625" style="44"/>
-    <col min="2304" max="2304" width="10.90625" style="44" customWidth="1"/>
-    <col min="2305" max="2305" width="22.26953125" style="44" customWidth="1"/>
-    <col min="2306" max="2306" width="8.7265625" style="44"/>
-    <col min="2307" max="2307" width="17" style="44" customWidth="1"/>
-    <col min="2308" max="2308" width="13.90625" style="44" customWidth="1"/>
-    <col min="2309" max="2309" width="20.26953125" style="44" customWidth="1"/>
-    <col min="2310" max="2310" width="13.90625" style="44" customWidth="1"/>
-    <col min="2311" max="2311" width="8.7265625" style="44"/>
-    <col min="2312" max="2312" width="17.90625" style="44" customWidth="1"/>
-    <col min="2313" max="2313" width="8.7265625" style="44"/>
-    <col min="2314" max="2314" width="53.6328125" style="44" customWidth="1"/>
-    <col min="2315" max="2559" width="8.7265625" style="44"/>
-    <col min="2560" max="2560" width="10.90625" style="44" customWidth="1"/>
-    <col min="2561" max="2561" width="22.26953125" style="44" customWidth="1"/>
-    <col min="2562" max="2562" width="8.7265625" style="44"/>
-    <col min="2563" max="2563" width="17" style="44" customWidth="1"/>
-    <col min="2564" max="2564" width="13.90625" style="44" customWidth="1"/>
-    <col min="2565" max="2565" width="20.26953125" style="44" customWidth="1"/>
-    <col min="2566" max="2566" width="13.90625" style="44" customWidth="1"/>
-    <col min="2567" max="2567" width="8.7265625" style="44"/>
-    <col min="2568" max="2568" width="17.90625" style="44" customWidth="1"/>
-    <col min="2569" max="2569" width="8.7265625" style="44"/>
-    <col min="2570" max="2570" width="53.6328125" style="44" customWidth="1"/>
-    <col min="2571" max="2815" width="8.7265625" style="44"/>
-    <col min="2816" max="2816" width="10.90625" style="44" customWidth="1"/>
-    <col min="2817" max="2817" width="22.26953125" style="44" customWidth="1"/>
-    <col min="2818" max="2818" width="8.7265625" style="44"/>
-    <col min="2819" max="2819" width="17" style="44" customWidth="1"/>
-    <col min="2820" max="2820" width="13.90625" style="44" customWidth="1"/>
-    <col min="2821" max="2821" width="20.26953125" style="44" customWidth="1"/>
-    <col min="2822" max="2822" width="13.90625" style="44" customWidth="1"/>
-    <col min="2823" max="2823" width="8.7265625" style="44"/>
-    <col min="2824" max="2824" width="17.90625" style="44" customWidth="1"/>
-    <col min="2825" max="2825" width="8.7265625" style="44"/>
-    <col min="2826" max="2826" width="53.6328125" style="44" customWidth="1"/>
-    <col min="2827" max="3071" width="8.7265625" style="44"/>
-    <col min="3072" max="3072" width="10.90625" style="44" customWidth="1"/>
-    <col min="3073" max="3073" width="22.26953125" style="44" customWidth="1"/>
-    <col min="3074" max="3074" width="8.7265625" style="44"/>
-    <col min="3075" max="3075" width="17" style="44" customWidth="1"/>
-    <col min="3076" max="3076" width="13.90625" style="44" customWidth="1"/>
-    <col min="3077" max="3077" width="20.26953125" style="44" customWidth="1"/>
-    <col min="3078" max="3078" width="13.90625" style="44" customWidth="1"/>
-    <col min="3079" max="3079" width="8.7265625" style="44"/>
-    <col min="3080" max="3080" width="17.90625" style="44" customWidth="1"/>
-    <col min="3081" max="3081" width="8.7265625" style="44"/>
-    <col min="3082" max="3082" width="53.6328125" style="44" customWidth="1"/>
-    <col min="3083" max="3327" width="8.7265625" style="44"/>
-    <col min="3328" max="3328" width="10.90625" style="44" customWidth="1"/>
-    <col min="3329" max="3329" width="22.26953125" style="44" customWidth="1"/>
-    <col min="3330" max="3330" width="8.7265625" style="44"/>
-    <col min="3331" max="3331" width="17" style="44" customWidth="1"/>
-    <col min="3332" max="3332" width="13.90625" style="44" customWidth="1"/>
-    <col min="3333" max="3333" width="20.26953125" style="44" customWidth="1"/>
-    <col min="3334" max="3334" width="13.90625" style="44" customWidth="1"/>
-    <col min="3335" max="3335" width="8.7265625" style="44"/>
-    <col min="3336" max="3336" width="17.90625" style="44" customWidth="1"/>
-    <col min="3337" max="3337" width="8.7265625" style="44"/>
-    <col min="3338" max="3338" width="53.6328125" style="44" customWidth="1"/>
-    <col min="3339" max="3583" width="8.7265625" style="44"/>
-    <col min="3584" max="3584" width="10.90625" style="44" customWidth="1"/>
-    <col min="3585" max="3585" width="22.26953125" style="44" customWidth="1"/>
-    <col min="3586" max="3586" width="8.7265625" style="44"/>
-    <col min="3587" max="3587" width="17" style="44" customWidth="1"/>
-    <col min="3588" max="3588" width="13.90625" style="44" customWidth="1"/>
-    <col min="3589" max="3589" width="20.26953125" style="44" customWidth="1"/>
-    <col min="3590" max="3590" width="13.90625" style="44" customWidth="1"/>
-    <col min="3591" max="3591" width="8.7265625" style="44"/>
-    <col min="3592" max="3592" width="17.90625" style="44" customWidth="1"/>
-    <col min="3593" max="3593" width="8.7265625" style="44"/>
-    <col min="3594" max="3594" width="53.6328125" style="44" customWidth="1"/>
-    <col min="3595" max="3839" width="8.7265625" style="44"/>
-    <col min="3840" max="3840" width="10.90625" style="44" customWidth="1"/>
-    <col min="3841" max="3841" width="22.26953125" style="44" customWidth="1"/>
-    <col min="3842" max="3842" width="8.7265625" style="44"/>
-    <col min="3843" max="3843" width="17" style="44" customWidth="1"/>
-    <col min="3844" max="3844" width="13.90625" style="44" customWidth="1"/>
-    <col min="3845" max="3845" width="20.26953125" style="44" customWidth="1"/>
-    <col min="3846" max="3846" width="13.90625" style="44" customWidth="1"/>
-    <col min="3847" max="3847" width="8.7265625" style="44"/>
-    <col min="3848" max="3848" width="17.90625" style="44" customWidth="1"/>
-    <col min="3849" max="3849" width="8.7265625" style="44"/>
-    <col min="3850" max="3850" width="53.6328125" style="44" customWidth="1"/>
-    <col min="3851" max="4095" width="8.7265625" style="44"/>
-    <col min="4096" max="4096" width="10.90625" style="44" customWidth="1"/>
-    <col min="4097" max="4097" width="22.26953125" style="44" customWidth="1"/>
-    <col min="4098" max="4098" width="8.7265625" style="44"/>
-    <col min="4099" max="4099" width="17" style="44" customWidth="1"/>
-    <col min="4100" max="4100" width="13.90625" style="44" customWidth="1"/>
-    <col min="4101" max="4101" width="20.26953125" style="44" customWidth="1"/>
-    <col min="4102" max="4102" width="13.90625" style="44" customWidth="1"/>
-    <col min="4103" max="4103" width="8.7265625" style="44"/>
-    <col min="4104" max="4104" width="17.90625" style="44" customWidth="1"/>
-    <col min="4105" max="4105" width="8.7265625" style="44"/>
-    <col min="4106" max="4106" width="53.6328125" style="44" customWidth="1"/>
-    <col min="4107" max="4351" width="8.7265625" style="44"/>
-    <col min="4352" max="4352" width="10.90625" style="44" customWidth="1"/>
-    <col min="4353" max="4353" width="22.26953125" style="44" customWidth="1"/>
-    <col min="4354" max="4354" width="8.7265625" style="44"/>
-    <col min="4355" max="4355" width="17" style="44" customWidth="1"/>
-    <col min="4356" max="4356" width="13.90625" style="44" customWidth="1"/>
-    <col min="4357" max="4357" width="20.26953125" style="44" customWidth="1"/>
-    <col min="4358" max="4358" width="13.90625" style="44" customWidth="1"/>
-    <col min="4359" max="4359" width="8.7265625" style="44"/>
-    <col min="4360" max="4360" width="17.90625" style="44" customWidth="1"/>
-    <col min="4361" max="4361" width="8.7265625" style="44"/>
-    <col min="4362" max="4362" width="53.6328125" style="44" customWidth="1"/>
-    <col min="4363" max="4607" width="8.7265625" style="44"/>
-    <col min="4608" max="4608" width="10.90625" style="44" customWidth="1"/>
-    <col min="4609" max="4609" width="22.26953125" style="44" customWidth="1"/>
-    <col min="4610" max="4610" width="8.7265625" style="44"/>
-    <col min="4611" max="4611" width="17" style="44" customWidth="1"/>
-    <col min="4612" max="4612" width="13.90625" style="44" customWidth="1"/>
-    <col min="4613" max="4613" width="20.26953125" style="44" customWidth="1"/>
-    <col min="4614" max="4614" width="13.90625" style="44" customWidth="1"/>
-    <col min="4615" max="4615" width="8.7265625" style="44"/>
-    <col min="4616" max="4616" width="17.90625" style="44" customWidth="1"/>
-    <col min="4617" max="4617" width="8.7265625" style="44"/>
-    <col min="4618" max="4618" width="53.6328125" style="44" customWidth="1"/>
-    <col min="4619" max="4863" width="8.7265625" style="44"/>
-    <col min="4864" max="4864" width="10.90625" style="44" customWidth="1"/>
-    <col min="4865" max="4865" width="22.26953125" style="44" customWidth="1"/>
-    <col min="4866" max="4866" width="8.7265625" style="44"/>
-    <col min="4867" max="4867" width="17" style="44" customWidth="1"/>
-    <col min="4868" max="4868" width="13.90625" style="44" customWidth="1"/>
-    <col min="4869" max="4869" width="20.26953125" style="44" customWidth="1"/>
-    <col min="4870" max="4870" width="13.90625" style="44" customWidth="1"/>
-    <col min="4871" max="4871" width="8.7265625" style="44"/>
-    <col min="4872" max="4872" width="17.90625" style="44" customWidth="1"/>
-    <col min="4873" max="4873" width="8.7265625" style="44"/>
-    <col min="4874" max="4874" width="53.6328125" style="44" customWidth="1"/>
-    <col min="4875" max="5119" width="8.7265625" style="44"/>
-    <col min="5120" max="5120" width="10.90625" style="44" customWidth="1"/>
-    <col min="5121" max="5121" width="22.26953125" style="44" customWidth="1"/>
-    <col min="5122" max="5122" width="8.7265625" style="44"/>
-    <col min="5123" max="5123" width="17" style="44" customWidth="1"/>
-    <col min="5124" max="5124" width="13.90625" style="44" customWidth="1"/>
-    <col min="5125" max="5125" width="20.26953125" style="44" customWidth="1"/>
-    <col min="5126" max="5126" width="13.90625" style="44" customWidth="1"/>
-    <col min="5127" max="5127" width="8.7265625" style="44"/>
-    <col min="5128" max="5128" width="17.90625" style="44" customWidth="1"/>
-    <col min="5129" max="5129" width="8.7265625" style="44"/>
-    <col min="5130" max="5130" width="53.6328125" style="44" customWidth="1"/>
-    <col min="5131" max="5375" width="8.7265625" style="44"/>
-    <col min="5376" max="5376" width="10.90625" style="44" customWidth="1"/>
-    <col min="5377" max="5377" width="22.26953125" style="44" customWidth="1"/>
-    <col min="5378" max="5378" width="8.7265625" style="44"/>
-    <col min="5379" max="5379" width="17" style="44" customWidth="1"/>
-    <col min="5380" max="5380" width="13.90625" style="44" customWidth="1"/>
-    <col min="5381" max="5381" width="20.26953125" style="44" customWidth="1"/>
-    <col min="5382" max="5382" width="13.90625" style="44" customWidth="1"/>
-    <col min="5383" max="5383" width="8.7265625" style="44"/>
-    <col min="5384" max="5384" width="17.90625" style="44" customWidth="1"/>
-    <col min="5385" max="5385" width="8.7265625" style="44"/>
-    <col min="5386" max="5386" width="53.6328125" style="44" customWidth="1"/>
-    <col min="5387" max="5631" width="8.7265625" style="44"/>
-    <col min="5632" max="5632" width="10.90625" style="44" customWidth="1"/>
-    <col min="5633" max="5633" width="22.26953125" style="44" customWidth="1"/>
-    <col min="5634" max="5634" width="8.7265625" style="44"/>
-    <col min="5635" max="5635" width="17" style="44" customWidth="1"/>
-    <col min="5636" max="5636" width="13.90625" style="44" customWidth="1"/>
-    <col min="5637" max="5637" width="20.26953125" style="44" customWidth="1"/>
-    <col min="5638" max="5638" width="13.90625" style="44" customWidth="1"/>
-    <col min="5639" max="5639" width="8.7265625" style="44"/>
-    <col min="5640" max="5640" width="17.90625" style="44" customWidth="1"/>
-    <col min="5641" max="5641" width="8.7265625" style="44"/>
-    <col min="5642" max="5642" width="53.6328125" style="44" customWidth="1"/>
-    <col min="5643" max="5887" width="8.7265625" style="44"/>
-    <col min="5888" max="5888" width="10.90625" style="44" customWidth="1"/>
-    <col min="5889" max="5889" width="22.26953125" style="44" customWidth="1"/>
-    <col min="5890" max="5890" width="8.7265625" style="44"/>
-    <col min="5891" max="5891" width="17" style="44" customWidth="1"/>
-    <col min="5892" max="5892" width="13.90625" style="44" customWidth="1"/>
-    <col min="5893" max="5893" width="20.26953125" style="44" customWidth="1"/>
-    <col min="5894" max="5894" width="13.90625" style="44" customWidth="1"/>
-    <col min="5895" max="5895" width="8.7265625" style="44"/>
-    <col min="5896" max="5896" width="17.90625" style="44" customWidth="1"/>
-    <col min="5897" max="5897" width="8.7265625" style="44"/>
-    <col min="5898" max="5898" width="53.6328125" style="44" customWidth="1"/>
-    <col min="5899" max="6143" width="8.7265625" style="44"/>
-    <col min="6144" max="6144" width="10.90625" style="44" customWidth="1"/>
-    <col min="6145" max="6145" width="22.26953125" style="44" customWidth="1"/>
-    <col min="6146" max="6146" width="8.7265625" style="44"/>
-    <col min="6147" max="6147" width="17" style="44" customWidth="1"/>
-    <col min="6148" max="6148" width="13.90625" style="44" customWidth="1"/>
-    <col min="6149" max="6149" width="20.26953125" style="44" customWidth="1"/>
-    <col min="6150" max="6150" width="13.90625" style="44" customWidth="1"/>
-    <col min="6151" max="6151" width="8.7265625" style="44"/>
-    <col min="6152" max="6152" width="17.90625" style="44" customWidth="1"/>
-    <col min="6153" max="6153" width="8.7265625" style="44"/>
-    <col min="6154" max="6154" width="53.6328125" style="44" customWidth="1"/>
-    <col min="6155" max="6399" width="8.7265625" style="44"/>
-    <col min="6400" max="6400" width="10.90625" style="44" customWidth="1"/>
-    <col min="6401" max="6401" width="22.26953125" style="44" customWidth="1"/>
-    <col min="6402" max="6402" width="8.7265625" style="44"/>
-    <col min="6403" max="6403" width="17" style="44" customWidth="1"/>
-    <col min="6404" max="6404" width="13.90625" style="44" customWidth="1"/>
-    <col min="6405" max="6405" width="20.26953125" style="44" customWidth="1"/>
-    <col min="6406" max="6406" width="13.90625" style="44" customWidth="1"/>
-    <col min="6407" max="6407" width="8.7265625" style="44"/>
-    <col min="6408" max="6408" width="17.90625" style="44" customWidth="1"/>
-    <col min="6409" max="6409" width="8.7265625" style="44"/>
-    <col min="6410" max="6410" width="53.6328125" style="44" customWidth="1"/>
-    <col min="6411" max="6655" width="8.7265625" style="44"/>
-    <col min="6656" max="6656" width="10.90625" style="44" customWidth="1"/>
-    <col min="6657" max="6657" width="22.26953125" style="44" customWidth="1"/>
-    <col min="6658" max="6658" width="8.7265625" style="44"/>
-    <col min="6659" max="6659" width="17" style="44" customWidth="1"/>
-    <col min="6660" max="6660" width="13.90625" style="44" customWidth="1"/>
-    <col min="6661" max="6661" width="20.26953125" style="44" customWidth="1"/>
-    <col min="6662" max="6662" width="13.90625" style="44" customWidth="1"/>
-    <col min="6663" max="6663" width="8.7265625" style="44"/>
-    <col min="6664" max="6664" width="17.90625" style="44" customWidth="1"/>
-    <col min="6665" max="6665" width="8.7265625" style="44"/>
-    <col min="6666" max="6666" width="53.6328125" style="44" customWidth="1"/>
-    <col min="6667" max="6911" width="8.7265625" style="44"/>
-    <col min="6912" max="6912" width="10.90625" style="44" customWidth="1"/>
-    <col min="6913" max="6913" width="22.26953125" style="44" customWidth="1"/>
-    <col min="6914" max="6914" width="8.7265625" style="44"/>
-    <col min="6915" max="6915" width="17" style="44" customWidth="1"/>
-    <col min="6916" max="6916" width="13.90625" style="44" customWidth="1"/>
-    <col min="6917" max="6917" width="20.26953125" style="44" customWidth="1"/>
-    <col min="6918" max="6918" width="13.90625" style="44" customWidth="1"/>
-    <col min="6919" max="6919" width="8.7265625" style="44"/>
-    <col min="6920" max="6920" width="17.90625" style="44" customWidth="1"/>
-    <col min="6921" max="6921" width="8.7265625" style="44"/>
-    <col min="6922" max="6922" width="53.6328125" style="44" customWidth="1"/>
-    <col min="6923" max="7167" width="8.7265625" style="44"/>
-    <col min="7168" max="7168" width="10.90625" style="44" customWidth="1"/>
-    <col min="7169" max="7169" width="22.26953125" style="44" customWidth="1"/>
-    <col min="7170" max="7170" width="8.7265625" style="44"/>
-    <col min="7171" max="7171" width="17" style="44" customWidth="1"/>
-    <col min="7172" max="7172" width="13.90625" style="44" customWidth="1"/>
-    <col min="7173" max="7173" width="20.26953125" style="44" customWidth="1"/>
-    <col min="7174" max="7174" width="13.90625" style="44" customWidth="1"/>
-    <col min="7175" max="7175" width="8.7265625" style="44"/>
-    <col min="7176" max="7176" width="17.90625" style="44" customWidth="1"/>
-    <col min="7177" max="7177" width="8.7265625" style="44"/>
-    <col min="7178" max="7178" width="53.6328125" style="44" customWidth="1"/>
-    <col min="7179" max="7423" width="8.7265625" style="44"/>
-    <col min="7424" max="7424" width="10.90625" style="44" customWidth="1"/>
-    <col min="7425" max="7425" width="22.26953125" style="44" customWidth="1"/>
-    <col min="7426" max="7426" width="8.7265625" style="44"/>
-    <col min="7427" max="7427" width="17" style="44" customWidth="1"/>
-    <col min="7428" max="7428" width="13.90625" style="44" customWidth="1"/>
-    <col min="7429" max="7429" width="20.26953125" style="44" customWidth="1"/>
-    <col min="7430" max="7430" width="13.90625" style="44" customWidth="1"/>
-    <col min="7431" max="7431" width="8.7265625" style="44"/>
-    <col min="7432" max="7432" width="17.90625" style="44" customWidth="1"/>
-    <col min="7433" max="7433" width="8.7265625" style="44"/>
-    <col min="7434" max="7434" width="53.6328125" style="44" customWidth="1"/>
-    <col min="7435" max="7679" width="8.7265625" style="44"/>
-    <col min="7680" max="7680" width="10.90625" style="44" customWidth="1"/>
-    <col min="7681" max="7681" width="22.26953125" style="44" customWidth="1"/>
-    <col min="7682" max="7682" width="8.7265625" style="44"/>
-    <col min="7683" max="7683" width="17" style="44" customWidth="1"/>
-    <col min="7684" max="7684" width="13.90625" style="44" customWidth="1"/>
-    <col min="7685" max="7685" width="20.26953125" style="44" customWidth="1"/>
-    <col min="7686" max="7686" width="13.90625" style="44" customWidth="1"/>
-    <col min="7687" max="7687" width="8.7265625" style="44"/>
-    <col min="7688" max="7688" width="17.90625" style="44" customWidth="1"/>
-    <col min="7689" max="7689" width="8.7265625" style="44"/>
-    <col min="7690" max="7690" width="53.6328125" style="44" customWidth="1"/>
-    <col min="7691" max="7935" width="8.7265625" style="44"/>
-    <col min="7936" max="7936" width="10.90625" style="44" customWidth="1"/>
-    <col min="7937" max="7937" width="22.26953125" style="44" customWidth="1"/>
-    <col min="7938" max="7938" width="8.7265625" style="44"/>
-    <col min="7939" max="7939" width="17" style="44" customWidth="1"/>
-    <col min="7940" max="7940" width="13.90625" style="44" customWidth="1"/>
-    <col min="7941" max="7941" width="20.26953125" style="44" customWidth="1"/>
-    <col min="7942" max="7942" width="13.90625" style="44" customWidth="1"/>
-    <col min="7943" max="7943" width="8.7265625" style="44"/>
-    <col min="7944" max="7944" width="17.90625" style="44" customWidth="1"/>
-    <col min="7945" max="7945" width="8.7265625" style="44"/>
-    <col min="7946" max="7946" width="53.6328125" style="44" customWidth="1"/>
-    <col min="7947" max="8191" width="8.7265625" style="44"/>
-    <col min="8192" max="8192" width="10.90625" style="44" customWidth="1"/>
-    <col min="8193" max="8193" width="22.26953125" style="44" customWidth="1"/>
-    <col min="8194" max="8194" width="8.7265625" style="44"/>
-    <col min="8195" max="8195" width="17" style="44" customWidth="1"/>
-    <col min="8196" max="8196" width="13.90625" style="44" customWidth="1"/>
-    <col min="8197" max="8197" width="20.26953125" style="44" customWidth="1"/>
-    <col min="8198" max="8198" width="13.90625" style="44" customWidth="1"/>
-    <col min="8199" max="8199" width="8.7265625" style="44"/>
-    <col min="8200" max="8200" width="17.90625" style="44" customWidth="1"/>
-    <col min="8201" max="8201" width="8.7265625" style="44"/>
-    <col min="8202" max="8202" width="53.6328125" style="44" customWidth="1"/>
-    <col min="8203" max="8447" width="8.7265625" style="44"/>
-    <col min="8448" max="8448" width="10.90625" style="44" customWidth="1"/>
-    <col min="8449" max="8449" width="22.26953125" style="44" customWidth="1"/>
-    <col min="8450" max="8450" width="8.7265625" style="44"/>
-    <col min="8451" max="8451" width="17" style="44" customWidth="1"/>
-    <col min="8452" max="8452" width="13.90625" style="44" customWidth="1"/>
-    <col min="8453" max="8453" width="20.26953125" style="44" customWidth="1"/>
-    <col min="8454" max="8454" width="13.90625" style="44" customWidth="1"/>
-    <col min="8455" max="8455" width="8.7265625" style="44"/>
-    <col min="8456" max="8456" width="17.90625" style="44" customWidth="1"/>
-    <col min="8457" max="8457" width="8.7265625" style="44"/>
-    <col min="8458" max="8458" width="53.6328125" style="44" customWidth="1"/>
-    <col min="8459" max="8703" width="8.7265625" style="44"/>
-    <col min="8704" max="8704" width="10.90625" style="44" customWidth="1"/>
-    <col min="8705" max="8705" width="22.26953125" style="44" customWidth="1"/>
-    <col min="8706" max="8706" width="8.7265625" style="44"/>
-    <col min="8707" max="8707" width="17" style="44" customWidth="1"/>
-    <col min="8708" max="8708" width="13.90625" style="44" customWidth="1"/>
-    <col min="8709" max="8709" width="20.26953125" style="44" customWidth="1"/>
-    <col min="8710" max="8710" width="13.90625" style="44" customWidth="1"/>
-    <col min="8711" max="8711" width="8.7265625" style="44"/>
-    <col min="8712" max="8712" width="17.90625" style="44" customWidth="1"/>
-    <col min="8713" max="8713" width="8.7265625" style="44"/>
-    <col min="8714" max="8714" width="53.6328125" style="44" customWidth="1"/>
-    <col min="8715" max="8959" width="8.7265625" style="44"/>
-    <col min="8960" max="8960" width="10.90625" style="44" customWidth="1"/>
-    <col min="8961" max="8961" width="22.26953125" style="44" customWidth="1"/>
-    <col min="8962" max="8962" width="8.7265625" style="44"/>
-    <col min="8963" max="8963" width="17" style="44" customWidth="1"/>
-    <col min="8964" max="8964" width="13.90625" style="44" customWidth="1"/>
-    <col min="8965" max="8965" width="20.26953125" style="44" customWidth="1"/>
-    <col min="8966" max="8966" width="13.90625" style="44" customWidth="1"/>
-    <col min="8967" max="8967" width="8.7265625" style="44"/>
-    <col min="8968" max="8968" width="17.90625" style="44" customWidth="1"/>
-    <col min="8969" max="8969" width="8.7265625" style="44"/>
-    <col min="8970" max="8970" width="53.6328125" style="44" customWidth="1"/>
-    <col min="8971" max="9215" width="8.7265625" style="44"/>
-    <col min="9216" max="9216" width="10.90625" style="44" customWidth="1"/>
-    <col min="9217" max="9217" width="22.26953125" style="44" customWidth="1"/>
-    <col min="9218" max="9218" width="8.7265625" style="44"/>
-    <col min="9219" max="9219" width="17" style="44" customWidth="1"/>
-    <col min="9220" max="9220" width="13.90625" style="44" customWidth="1"/>
-    <col min="9221" max="9221" width="20.26953125" style="44" customWidth="1"/>
-    <col min="9222" max="9222" width="13.90625" style="44" customWidth="1"/>
-    <col min="9223" max="9223" width="8.7265625" style="44"/>
-    <col min="9224" max="9224" width="17.90625" style="44" customWidth="1"/>
-    <col min="9225" max="9225" width="8.7265625" style="44"/>
-    <col min="9226" max="9226" width="53.6328125" style="44" customWidth="1"/>
-    <col min="9227" max="9471" width="8.7265625" style="44"/>
-    <col min="9472" max="9472" width="10.90625" style="44" customWidth="1"/>
-    <col min="9473" max="9473" width="22.26953125" style="44" customWidth="1"/>
-    <col min="9474" max="9474" width="8.7265625" style="44"/>
-    <col min="9475" max="9475" width="17" style="44" customWidth="1"/>
-    <col min="9476" max="9476" width="13.90625" style="44" customWidth="1"/>
-    <col min="9477" max="9477" width="20.26953125" style="44" customWidth="1"/>
-    <col min="9478" max="9478" width="13.90625" style="44" customWidth="1"/>
-    <col min="9479" max="9479" width="8.7265625" style="44"/>
-    <col min="9480" max="9480" width="17.90625" style="44" customWidth="1"/>
-    <col min="9481" max="9481" width="8.7265625" style="44"/>
-    <col min="9482" max="9482" width="53.6328125" style="44" customWidth="1"/>
-    <col min="9483" max="9727" width="8.7265625" style="44"/>
-    <col min="9728" max="9728" width="10.90625" style="44" customWidth="1"/>
-    <col min="9729" max="9729" width="22.26953125" style="44" customWidth="1"/>
-    <col min="9730" max="9730" width="8.7265625" style="44"/>
-    <col min="9731" max="9731" width="17" style="44" customWidth="1"/>
-    <col min="9732" max="9732" width="13.90625" style="44" customWidth="1"/>
-    <col min="9733" max="9733" width="20.26953125" style="44" customWidth="1"/>
-    <col min="9734" max="9734" width="13.90625" style="44" customWidth="1"/>
-    <col min="9735" max="9735" width="8.7265625" style="44"/>
-    <col min="9736" max="9736" width="17.90625" style="44" customWidth="1"/>
-    <col min="9737" max="9737" width="8.7265625" style="44"/>
-    <col min="9738" max="9738" width="53.6328125" style="44" customWidth="1"/>
-    <col min="9739" max="9983" width="8.7265625" style="44"/>
-    <col min="9984" max="9984" width="10.90625" style="44" customWidth="1"/>
-    <col min="9985" max="9985" width="22.26953125" style="44" customWidth="1"/>
-    <col min="9986" max="9986" width="8.7265625" style="44"/>
-    <col min="9987" max="9987" width="17" style="44" customWidth="1"/>
-    <col min="9988" max="9988" width="13.90625" style="44" customWidth="1"/>
-    <col min="9989" max="9989" width="20.26953125" style="44" customWidth="1"/>
-    <col min="9990" max="9990" width="13.90625" style="44" customWidth="1"/>
-    <col min="9991" max="9991" width="8.7265625" style="44"/>
-    <col min="9992" max="9992" width="17.90625" style="44" customWidth="1"/>
-    <col min="9993" max="9993" width="8.7265625" style="44"/>
-    <col min="9994" max="9994" width="53.6328125" style="44" customWidth="1"/>
-    <col min="9995" max="10239" width="8.7265625" style="44"/>
-    <col min="10240" max="10240" width="10.90625" style="44" customWidth="1"/>
-    <col min="10241" max="10241" width="22.26953125" style="44" customWidth="1"/>
-    <col min="10242" max="10242" width="8.7265625" style="44"/>
-    <col min="10243" max="10243" width="17" style="44" customWidth="1"/>
-    <col min="10244" max="10244" width="13.90625" style="44" customWidth="1"/>
-    <col min="10245" max="10245" width="20.26953125" style="44" customWidth="1"/>
-    <col min="10246" max="10246" width="13.90625" style="44" customWidth="1"/>
-    <col min="10247" max="10247" width="8.7265625" style="44"/>
-    <col min="10248" max="10248" width="17.90625" style="44" customWidth="1"/>
-    <col min="10249" max="10249" width="8.7265625" style="44"/>
-    <col min="10250" max="10250" width="53.6328125" style="44" customWidth="1"/>
-    <col min="10251" max="10495" width="8.7265625" style="44"/>
-    <col min="10496" max="10496" width="10.90625" style="44" customWidth="1"/>
-    <col min="10497" max="10497" width="22.26953125" style="44" customWidth="1"/>
-    <col min="10498" max="10498" width="8.7265625" style="44"/>
-    <col min="10499" max="10499" width="17" style="44" customWidth="1"/>
-    <col min="10500" max="10500" width="13.90625" style="44" customWidth="1"/>
-    <col min="10501" max="10501" width="20.26953125" style="44" customWidth="1"/>
-    <col min="10502" max="10502" width="13.90625" style="44" customWidth="1"/>
-    <col min="10503" max="10503" width="8.7265625" style="44"/>
-    <col min="10504" max="10504" width="17.90625" style="44" customWidth="1"/>
-    <col min="10505" max="10505" width="8.7265625" style="44"/>
-    <col min="10506" max="10506" width="53.6328125" style="44" customWidth="1"/>
-    <col min="10507" max="10751" width="8.7265625" style="44"/>
-    <col min="10752" max="10752" width="10.90625" style="44" customWidth="1"/>
-    <col min="10753" max="10753" width="22.26953125" style="44" customWidth="1"/>
-    <col min="10754" max="10754" width="8.7265625" style="44"/>
-    <col min="10755" max="10755" width="17" style="44" customWidth="1"/>
-    <col min="10756" max="10756" width="13.90625" style="44" customWidth="1"/>
-    <col min="10757" max="10757" width="20.26953125" style="44" customWidth="1"/>
-    <col min="10758" max="10758" width="13.90625" style="44" customWidth="1"/>
-    <col min="10759" max="10759" width="8.7265625" style="44"/>
-    <col min="10760" max="10760" width="17.90625" style="44" customWidth="1"/>
-    <col min="10761" max="10761" width="8.7265625" style="44"/>
-    <col min="10762" max="10762" width="53.6328125" style="44" customWidth="1"/>
-    <col min="10763" max="11007" width="8.7265625" style="44"/>
-    <col min="11008" max="11008" width="10.90625" style="44" customWidth="1"/>
-    <col min="11009" max="11009" width="22.26953125" style="44" customWidth="1"/>
-    <col min="11010" max="11010" width="8.7265625" style="44"/>
-    <col min="11011" max="11011" width="17" style="44" customWidth="1"/>
-    <col min="11012" max="11012" width="13.90625" style="44" customWidth="1"/>
-    <col min="11013" max="11013" width="20.26953125" style="44" customWidth="1"/>
-    <col min="11014" max="11014" width="13.90625" style="44" customWidth="1"/>
-    <col min="11015" max="11015" width="8.7265625" style="44"/>
-    <col min="11016" max="11016" width="17.90625" style="44" customWidth="1"/>
-    <col min="11017" max="11017" width="8.7265625" style="44"/>
-    <col min="11018" max="11018" width="53.6328125" style="44" customWidth="1"/>
-    <col min="11019" max="11263" width="8.7265625" style="44"/>
-    <col min="11264" max="11264" width="10.90625" style="44" customWidth="1"/>
-    <col min="11265" max="11265" width="22.26953125" style="44" customWidth="1"/>
-    <col min="11266" max="11266" width="8.7265625" style="44"/>
-    <col min="11267" max="11267" width="17" style="44" customWidth="1"/>
-    <col min="11268" max="11268" width="13.90625" style="44" customWidth="1"/>
-    <col min="11269" max="11269" width="20.26953125" style="44" customWidth="1"/>
-    <col min="11270" max="11270" width="13.90625" style="44" customWidth="1"/>
-    <col min="11271" max="11271" width="8.7265625" style="44"/>
-    <col min="11272" max="11272" width="17.90625" style="44" customWidth="1"/>
-    <col min="11273" max="11273" width="8.7265625" style="44"/>
-    <col min="11274" max="11274" width="53.6328125" style="44" customWidth="1"/>
-    <col min="11275" max="11519" width="8.7265625" style="44"/>
-    <col min="11520" max="11520" width="10.90625" style="44" customWidth="1"/>
-    <col min="11521" max="11521" width="22.26953125" style="44" customWidth="1"/>
-    <col min="11522" max="11522" width="8.7265625" style="44"/>
-    <col min="11523" max="11523" width="17" style="44" customWidth="1"/>
-    <col min="11524" max="11524" width="13.90625" style="44" customWidth="1"/>
-    <col min="11525" max="11525" width="20.26953125" style="44" customWidth="1"/>
-    <col min="11526" max="11526" width="13.90625" style="44" customWidth="1"/>
-    <col min="11527" max="11527" width="8.7265625" style="44"/>
-    <col min="11528" max="11528" width="17.90625" style="44" customWidth="1"/>
-    <col min="11529" max="11529" width="8.7265625" style="44"/>
-    <col min="11530" max="11530" width="53.6328125" style="44" customWidth="1"/>
-    <col min="11531" max="11775" width="8.7265625" style="44"/>
-    <col min="11776" max="11776" width="10.90625" style="44" customWidth="1"/>
-    <col min="11777" max="11777" width="22.26953125" style="44" customWidth="1"/>
-    <col min="11778" max="11778" width="8.7265625" style="44"/>
-    <col min="11779" max="11779" width="17" style="44" customWidth="1"/>
-    <col min="11780" max="11780" width="13.90625" style="44" customWidth="1"/>
-    <col min="11781" max="11781" width="20.26953125" style="44" customWidth="1"/>
-    <col min="11782" max="11782" width="13.90625" style="44" customWidth="1"/>
-    <col min="11783" max="11783" width="8.7265625" style="44"/>
-    <col min="11784" max="11784" width="17.90625" style="44" customWidth="1"/>
-    <col min="11785" max="11785" width="8.7265625" style="44"/>
-    <col min="11786" max="11786" width="53.6328125" style="44" customWidth="1"/>
-    <col min="11787" max="12031" width="8.7265625" style="44"/>
-    <col min="12032" max="12032" width="10.90625" style="44" customWidth="1"/>
-    <col min="12033" max="12033" width="22.26953125" style="44" customWidth="1"/>
-    <col min="12034" max="12034" width="8.7265625" style="44"/>
-    <col min="12035" max="12035" width="17" style="44" customWidth="1"/>
-    <col min="12036" max="12036" width="13.90625" style="44" customWidth="1"/>
-    <col min="12037" max="12037" width="20.26953125" style="44" customWidth="1"/>
-    <col min="12038" max="12038" width="13.90625" style="44" customWidth="1"/>
-    <col min="12039" max="12039" width="8.7265625" style="44"/>
-    <col min="12040" max="12040" width="17.90625" style="44" customWidth="1"/>
-    <col min="12041" max="12041" width="8.7265625" style="44"/>
-    <col min="12042" max="12042" width="53.6328125" style="44" customWidth="1"/>
-    <col min="12043" max="12287" width="8.7265625" style="44"/>
-    <col min="12288" max="12288" width="10.90625" style="44" customWidth="1"/>
-    <col min="12289" max="12289" width="22.26953125" style="44" customWidth="1"/>
-    <col min="12290" max="12290" width="8.7265625" style="44"/>
-    <col min="12291" max="12291" width="17" style="44" customWidth="1"/>
-    <col min="12292" max="12292" width="13.90625" style="44" customWidth="1"/>
-    <col min="12293" max="12293" width="20.26953125" style="44" customWidth="1"/>
-    <col min="12294" max="12294" width="13.90625" style="44" customWidth="1"/>
-    <col min="12295" max="12295" width="8.7265625" style="44"/>
-    <col min="12296" max="12296" width="17.90625" style="44" customWidth="1"/>
-    <col min="12297" max="12297" width="8.7265625" style="44"/>
-    <col min="12298" max="12298" width="53.6328125" style="44" customWidth="1"/>
-    <col min="12299" max="12543" width="8.7265625" style="44"/>
-    <col min="12544" max="12544" width="10.90625" style="44" customWidth="1"/>
-    <col min="12545" max="12545" width="22.26953125" style="44" customWidth="1"/>
-    <col min="12546" max="12546" width="8.7265625" style="44"/>
-    <col min="12547" max="12547" width="17" style="44" customWidth="1"/>
-    <col min="12548" max="12548" width="13.90625" style="44" customWidth="1"/>
-    <col min="12549" max="12549" width="20.26953125" style="44" customWidth="1"/>
-    <col min="12550" max="12550" width="13.90625" style="44" customWidth="1"/>
-    <col min="12551" max="12551" width="8.7265625" style="44"/>
-    <col min="12552" max="12552" width="17.90625" style="44" customWidth="1"/>
-    <col min="12553" max="12553" width="8.7265625" style="44"/>
-    <col min="12554" max="12554" width="53.6328125" style="44" customWidth="1"/>
-    <col min="12555" max="12799" width="8.7265625" style="44"/>
-    <col min="12800" max="12800" width="10.90625" style="44" customWidth="1"/>
-    <col min="12801" max="12801" width="22.26953125" style="44" customWidth="1"/>
-    <col min="12802" max="12802" width="8.7265625" style="44"/>
-    <col min="12803" max="12803" width="17" style="44" customWidth="1"/>
-    <col min="12804" max="12804" width="13.90625" style="44" customWidth="1"/>
-    <col min="12805" max="12805" width="20.26953125" style="44" customWidth="1"/>
-    <col min="12806" max="12806" width="13.90625" style="44" customWidth="1"/>
-    <col min="12807" max="12807" width="8.7265625" style="44"/>
-    <col min="12808" max="12808" width="17.90625" style="44" customWidth="1"/>
-    <col min="12809" max="12809" width="8.7265625" style="44"/>
-    <col min="12810" max="12810" width="53.6328125" style="44" customWidth="1"/>
-    <col min="12811" max="13055" width="8.7265625" style="44"/>
-    <col min="13056" max="13056" width="10.90625" style="44" customWidth="1"/>
-    <col min="13057" max="13057" width="22.26953125" style="44" customWidth="1"/>
-    <col min="13058" max="13058" width="8.7265625" style="44"/>
-    <col min="13059" max="13059" width="17" style="44" customWidth="1"/>
-    <col min="13060" max="13060" width="13.90625" style="44" customWidth="1"/>
-    <col min="13061" max="13061" width="20.26953125" style="44" customWidth="1"/>
-    <col min="13062" max="13062" width="13.90625" style="44" customWidth="1"/>
-    <col min="13063" max="13063" width="8.7265625" style="44"/>
-    <col min="13064" max="13064" width="17.90625" style="44" customWidth="1"/>
-    <col min="13065" max="13065" width="8.7265625" style="44"/>
-    <col min="13066" max="13066" width="53.6328125" style="44" customWidth="1"/>
-    <col min="13067" max="13311" width="8.7265625" style="44"/>
-    <col min="13312" max="13312" width="10.90625" style="44" customWidth="1"/>
-    <col min="13313" max="13313" width="22.26953125" style="44" customWidth="1"/>
-    <col min="13314" max="13314" width="8.7265625" style="44"/>
-    <col min="13315" max="13315" width="17" style="44" customWidth="1"/>
-    <col min="13316" max="13316" width="13.90625" style="44" customWidth="1"/>
-    <col min="13317" max="13317" width="20.26953125" style="44" customWidth="1"/>
-    <col min="13318" max="13318" width="13.90625" style="44" customWidth="1"/>
-    <col min="13319" max="13319" width="8.7265625" style="44"/>
-    <col min="13320" max="13320" width="17.90625" style="44" customWidth="1"/>
-    <col min="13321" max="13321" width="8.7265625" style="44"/>
-    <col min="13322" max="13322" width="53.6328125" style="44" customWidth="1"/>
-    <col min="13323" max="13567" width="8.7265625" style="44"/>
-    <col min="13568" max="13568" width="10.90625" style="44" customWidth="1"/>
-    <col min="13569" max="13569" width="22.26953125" style="44" customWidth="1"/>
-    <col min="13570" max="13570" width="8.7265625" style="44"/>
-    <col min="13571" max="13571" width="17" style="44" customWidth="1"/>
-    <col min="13572" max="13572" width="13.90625" style="44" customWidth="1"/>
-    <col min="13573" max="13573" width="20.26953125" style="44" customWidth="1"/>
-    <col min="13574" max="13574" width="13.90625" style="44" customWidth="1"/>
-    <col min="13575" max="13575" width="8.7265625" style="44"/>
-    <col min="13576" max="13576" width="17.90625" style="44" customWidth="1"/>
-    <col min="13577" max="13577" width="8.7265625" style="44"/>
-    <col min="13578" max="13578" width="53.6328125" style="44" customWidth="1"/>
-    <col min="13579" max="13823" width="8.7265625" style="44"/>
-    <col min="13824" max="13824" width="10.90625" style="44" customWidth="1"/>
-    <col min="13825" max="13825" width="22.26953125" style="44" customWidth="1"/>
-    <col min="13826" max="13826" width="8.7265625" style="44"/>
-    <col min="13827" max="13827" width="17" style="44" customWidth="1"/>
-    <col min="13828" max="13828" width="13.90625" style="44" customWidth="1"/>
-    <col min="13829" max="13829" width="20.26953125" style="44" customWidth="1"/>
-    <col min="13830" max="13830" width="13.90625" style="44" customWidth="1"/>
-    <col min="13831" max="13831" width="8.7265625" style="44"/>
-    <col min="13832" max="13832" width="17.90625" style="44" customWidth="1"/>
-    <col min="13833" max="13833" width="8.7265625" style="44"/>
-    <col min="13834" max="13834" width="53.6328125" style="44" customWidth="1"/>
-    <col min="13835" max="14079" width="8.7265625" style="44"/>
-    <col min="14080" max="14080" width="10.90625" style="44" customWidth="1"/>
-    <col min="14081" max="14081" width="22.26953125" style="44" customWidth="1"/>
-    <col min="14082" max="14082" width="8.7265625" style="44"/>
-    <col min="14083" max="14083" width="17" style="44" customWidth="1"/>
-    <col min="14084" max="14084" width="13.90625" style="44" customWidth="1"/>
-    <col min="14085" max="14085" width="20.26953125" style="44" customWidth="1"/>
-    <col min="14086" max="14086" width="13.90625" style="44" customWidth="1"/>
-    <col min="14087" max="14087" width="8.7265625" style="44"/>
-    <col min="14088" max="14088" width="17.90625" style="44" customWidth="1"/>
-    <col min="14089" max="14089" width="8.7265625" style="44"/>
-    <col min="14090" max="14090" width="53.6328125" style="44" customWidth="1"/>
-    <col min="14091" max="14335" width="8.7265625" style="44"/>
-    <col min="14336" max="14336" width="10.90625" style="44" customWidth="1"/>
-    <col min="14337" max="14337" width="22.26953125" style="44" customWidth="1"/>
-    <col min="14338" max="14338" width="8.7265625" style="44"/>
-    <col min="14339" max="14339" width="17" style="44" customWidth="1"/>
-    <col min="14340" max="14340" width="13.90625" style="44" customWidth="1"/>
-    <col min="14341" max="14341" width="20.26953125" style="44" customWidth="1"/>
-    <col min="14342" max="14342" width="13.90625" style="44" customWidth="1"/>
-    <col min="14343" max="14343" width="8.7265625" style="44"/>
-    <col min="14344" max="14344" width="17.90625" style="44" customWidth="1"/>
-    <col min="14345" max="14345" width="8.7265625" style="44"/>
-    <col min="14346" max="14346" width="53.6328125" style="44" customWidth="1"/>
-    <col min="14347" max="14591" width="8.7265625" style="44"/>
-    <col min="14592" max="14592" width="10.90625" style="44" customWidth="1"/>
-    <col min="14593" max="14593" width="22.26953125" style="44" customWidth="1"/>
-    <col min="14594" max="14594" width="8.7265625" style="44"/>
-    <col min="14595" max="14595" width="17" style="44" customWidth="1"/>
-    <col min="14596" max="14596" width="13.90625" style="44" customWidth="1"/>
-    <col min="14597" max="14597" width="20.26953125" style="44" customWidth="1"/>
-    <col min="14598" max="14598" width="13.90625" style="44" customWidth="1"/>
-    <col min="14599" max="14599" width="8.7265625" style="44"/>
-    <col min="14600" max="14600" width="17.90625" style="44" customWidth="1"/>
-    <col min="14601" max="14601" width="8.7265625" style="44"/>
-    <col min="14602" max="14602" width="53.6328125" style="44" customWidth="1"/>
-    <col min="14603" max="14847" width="8.7265625" style="44"/>
-    <col min="14848" max="14848" width="10.90625" style="44" customWidth="1"/>
-    <col min="14849" max="14849" width="22.26953125" style="44" customWidth="1"/>
-    <col min="14850" max="14850" width="8.7265625" style="44"/>
-    <col min="14851" max="14851" width="17" style="44" customWidth="1"/>
-    <col min="14852" max="14852" width="13.90625" style="44" customWidth="1"/>
-    <col min="14853" max="14853" width="20.26953125" style="44" customWidth="1"/>
-    <col min="14854" max="14854" width="13.90625" style="44" customWidth="1"/>
-    <col min="14855" max="14855" width="8.7265625" style="44"/>
-    <col min="14856" max="14856" width="17.90625" style="44" customWidth="1"/>
-    <col min="14857" max="14857" width="8.7265625" style="44"/>
-    <col min="14858" max="14858" width="53.6328125" style="44" customWidth="1"/>
-    <col min="14859" max="15103" width="8.7265625" style="44"/>
-    <col min="15104" max="15104" width="10.90625" style="44" customWidth="1"/>
-    <col min="15105" max="15105" width="22.26953125" style="44" customWidth="1"/>
-    <col min="15106" max="15106" width="8.7265625" style="44"/>
-    <col min="15107" max="15107" width="17" style="44" customWidth="1"/>
-    <col min="15108" max="15108" width="13.90625" style="44" customWidth="1"/>
-    <col min="15109" max="15109" width="20.26953125" style="44" customWidth="1"/>
-    <col min="15110" max="15110" width="13.90625" style="44" customWidth="1"/>
-    <col min="15111" max="15111" width="8.7265625" style="44"/>
-    <col min="15112" max="15112" width="17.90625" style="44" customWidth="1"/>
-    <col min="15113" max="15113" width="8.7265625" style="44"/>
-    <col min="15114" max="15114" width="53.6328125" style="44" customWidth="1"/>
-    <col min="15115" max="15359" width="8.7265625" style="44"/>
-    <col min="15360" max="15360" width="10.90625" style="44" customWidth="1"/>
-    <col min="15361" max="15361" width="22.26953125" style="44" customWidth="1"/>
-    <col min="15362" max="15362" width="8.7265625" style="44"/>
-    <col min="15363" max="15363" width="17" style="44" customWidth="1"/>
-    <col min="15364" max="15364" width="13.90625" style="44" customWidth="1"/>
-    <col min="15365" max="15365" width="20.26953125" style="44" customWidth="1"/>
-    <col min="15366" max="15366" width="13.90625" style="44" customWidth="1"/>
-    <col min="15367" max="15367" width="8.7265625" style="44"/>
-    <col min="15368" max="15368" width="17.90625" style="44" customWidth="1"/>
-    <col min="15369" max="15369" width="8.7265625" style="44"/>
-    <col min="15370" max="15370" width="53.6328125" style="44" customWidth="1"/>
-    <col min="15371" max="15615" width="8.7265625" style="44"/>
-    <col min="15616" max="15616" width="10.90625" style="44" customWidth="1"/>
-    <col min="15617" max="15617" width="22.26953125" style="44" customWidth="1"/>
-    <col min="15618" max="15618" width="8.7265625" style="44"/>
-    <col min="15619" max="15619" width="17" style="44" customWidth="1"/>
-    <col min="15620" max="15620" width="13.90625" style="44" customWidth="1"/>
-    <col min="15621" max="15621" width="20.26953125" style="44" customWidth="1"/>
-    <col min="15622" max="15622" width="13.90625" style="44" customWidth="1"/>
-    <col min="15623" max="15623" width="8.7265625" style="44"/>
-    <col min="15624" max="15624" width="17.90625" style="44" customWidth="1"/>
-    <col min="15625" max="15625" width="8.7265625" style="44"/>
-    <col min="15626" max="15626" width="53.6328125" style="44" customWidth="1"/>
-    <col min="15627" max="15871" width="8.7265625" style="44"/>
-    <col min="15872" max="15872" width="10.90625" style="44" customWidth="1"/>
-    <col min="15873" max="15873" width="22.26953125" style="44" customWidth="1"/>
-    <col min="15874" max="15874" width="8.7265625" style="44"/>
-    <col min="15875" max="15875" width="17" style="44" customWidth="1"/>
-    <col min="15876" max="15876" width="13.90625" style="44" customWidth="1"/>
-    <col min="15877" max="15877" width="20.26953125" style="44" customWidth="1"/>
-    <col min="15878" max="15878" width="13.90625" style="44" customWidth="1"/>
-    <col min="15879" max="15879" width="8.7265625" style="44"/>
-    <col min="15880" max="15880" width="17.90625" style="44" customWidth="1"/>
-    <col min="15881" max="15881" width="8.7265625" style="44"/>
-    <col min="15882" max="15882" width="53.6328125" style="44" customWidth="1"/>
-    <col min="15883" max="16127" width="8.7265625" style="44"/>
-    <col min="16128" max="16128" width="10.90625" style="44" customWidth="1"/>
-    <col min="16129" max="16129" width="22.26953125" style="44" customWidth="1"/>
-    <col min="16130" max="16130" width="8.7265625" style="44"/>
-    <col min="16131" max="16131" width="17" style="44" customWidth="1"/>
-    <col min="16132" max="16132" width="13.90625" style="44" customWidth="1"/>
-    <col min="16133" max="16133" width="20.26953125" style="44" customWidth="1"/>
-    <col min="16134" max="16134" width="13.90625" style="44" customWidth="1"/>
-    <col min="16135" max="16135" width="8.7265625" style="44"/>
-    <col min="16136" max="16136" width="17.90625" style="44" customWidth="1"/>
-    <col min="16137" max="16137" width="8.7265625" style="44"/>
-    <col min="16138" max="16138" width="53.6328125" style="44" customWidth="1"/>
-    <col min="16139" max="16384" width="8.7265625" style="44"/>
+    <col min="1" max="1" width="22.26953125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="41"/>
+    <col min="3" max="3" width="17" style="41" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="41"/>
+    <col min="8" max="8" width="17.90625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="41"/>
+    <col min="10" max="10" width="53.6328125" style="41" customWidth="1"/>
+    <col min="11" max="255" width="8.7265625" style="41"/>
+    <col min="256" max="256" width="10.90625" style="41" customWidth="1"/>
+    <col min="257" max="257" width="22.26953125" style="41" customWidth="1"/>
+    <col min="258" max="258" width="8.7265625" style="41"/>
+    <col min="259" max="259" width="17" style="41" customWidth="1"/>
+    <col min="260" max="260" width="13.90625" style="41" customWidth="1"/>
+    <col min="261" max="261" width="20.26953125" style="41" customWidth="1"/>
+    <col min="262" max="262" width="13.90625" style="41" customWidth="1"/>
+    <col min="263" max="263" width="8.7265625" style="41"/>
+    <col min="264" max="264" width="17.90625" style="41" customWidth="1"/>
+    <col min="265" max="265" width="8.7265625" style="41"/>
+    <col min="266" max="266" width="53.6328125" style="41" customWidth="1"/>
+    <col min="267" max="511" width="8.7265625" style="41"/>
+    <col min="512" max="512" width="10.90625" style="41" customWidth="1"/>
+    <col min="513" max="513" width="22.26953125" style="41" customWidth="1"/>
+    <col min="514" max="514" width="8.7265625" style="41"/>
+    <col min="515" max="515" width="17" style="41" customWidth="1"/>
+    <col min="516" max="516" width="13.90625" style="41" customWidth="1"/>
+    <col min="517" max="517" width="20.26953125" style="41" customWidth="1"/>
+    <col min="518" max="518" width="13.90625" style="41" customWidth="1"/>
+    <col min="519" max="519" width="8.7265625" style="41"/>
+    <col min="520" max="520" width="17.90625" style="41" customWidth="1"/>
+    <col min="521" max="521" width="8.7265625" style="41"/>
+    <col min="522" max="522" width="53.6328125" style="41" customWidth="1"/>
+    <col min="523" max="767" width="8.7265625" style="41"/>
+    <col min="768" max="768" width="10.90625" style="41" customWidth="1"/>
+    <col min="769" max="769" width="22.26953125" style="41" customWidth="1"/>
+    <col min="770" max="770" width="8.7265625" style="41"/>
+    <col min="771" max="771" width="17" style="41" customWidth="1"/>
+    <col min="772" max="772" width="13.90625" style="41" customWidth="1"/>
+    <col min="773" max="773" width="20.26953125" style="41" customWidth="1"/>
+    <col min="774" max="774" width="13.90625" style="41" customWidth="1"/>
+    <col min="775" max="775" width="8.7265625" style="41"/>
+    <col min="776" max="776" width="17.90625" style="41" customWidth="1"/>
+    <col min="777" max="777" width="8.7265625" style="41"/>
+    <col min="778" max="778" width="53.6328125" style="41" customWidth="1"/>
+    <col min="779" max="1023" width="8.7265625" style="41"/>
+    <col min="1024" max="1024" width="10.90625" style="41" customWidth="1"/>
+    <col min="1025" max="1025" width="22.26953125" style="41" customWidth="1"/>
+    <col min="1026" max="1026" width="8.7265625" style="41"/>
+    <col min="1027" max="1027" width="17" style="41" customWidth="1"/>
+    <col min="1028" max="1028" width="13.90625" style="41" customWidth="1"/>
+    <col min="1029" max="1029" width="20.26953125" style="41" customWidth="1"/>
+    <col min="1030" max="1030" width="13.90625" style="41" customWidth="1"/>
+    <col min="1031" max="1031" width="8.7265625" style="41"/>
+    <col min="1032" max="1032" width="17.90625" style="41" customWidth="1"/>
+    <col min="1033" max="1033" width="8.7265625" style="41"/>
+    <col min="1034" max="1034" width="53.6328125" style="41" customWidth="1"/>
+    <col min="1035" max="1279" width="8.7265625" style="41"/>
+    <col min="1280" max="1280" width="10.90625" style="41" customWidth="1"/>
+    <col min="1281" max="1281" width="22.26953125" style="41" customWidth="1"/>
+    <col min="1282" max="1282" width="8.7265625" style="41"/>
+    <col min="1283" max="1283" width="17" style="41" customWidth="1"/>
+    <col min="1284" max="1284" width="13.90625" style="41" customWidth="1"/>
+    <col min="1285" max="1285" width="20.26953125" style="41" customWidth="1"/>
+    <col min="1286" max="1286" width="13.90625" style="41" customWidth="1"/>
+    <col min="1287" max="1287" width="8.7265625" style="41"/>
+    <col min="1288" max="1288" width="17.90625" style="41" customWidth="1"/>
+    <col min="1289" max="1289" width="8.7265625" style="41"/>
+    <col min="1290" max="1290" width="53.6328125" style="41" customWidth="1"/>
+    <col min="1291" max="1535" width="8.7265625" style="41"/>
+    <col min="1536" max="1536" width="10.90625" style="41" customWidth="1"/>
+    <col min="1537" max="1537" width="22.26953125" style="41" customWidth="1"/>
+    <col min="1538" max="1538" width="8.7265625" style="41"/>
+    <col min="1539" max="1539" width="17" style="41" customWidth="1"/>
+    <col min="1540" max="1540" width="13.90625" style="41" customWidth="1"/>
+    <col min="1541" max="1541" width="20.26953125" style="41" customWidth="1"/>
+    <col min="1542" max="1542" width="13.90625" style="41" customWidth="1"/>
+    <col min="1543" max="1543" width="8.7265625" style="41"/>
+    <col min="1544" max="1544" width="17.90625" style="41" customWidth="1"/>
+    <col min="1545" max="1545" width="8.7265625" style="41"/>
+    <col min="1546" max="1546" width="53.6328125" style="41" customWidth="1"/>
+    <col min="1547" max="1791" width="8.7265625" style="41"/>
+    <col min="1792" max="1792" width="10.90625" style="41" customWidth="1"/>
+    <col min="1793" max="1793" width="22.26953125" style="41" customWidth="1"/>
+    <col min="1794" max="1794" width="8.7265625" style="41"/>
+    <col min="1795" max="1795" width="17" style="41" customWidth="1"/>
+    <col min="1796" max="1796" width="13.90625" style="41" customWidth="1"/>
+    <col min="1797" max="1797" width="20.26953125" style="41" customWidth="1"/>
+    <col min="1798" max="1798" width="13.90625" style="41" customWidth="1"/>
+    <col min="1799" max="1799" width="8.7265625" style="41"/>
+    <col min="1800" max="1800" width="17.90625" style="41" customWidth="1"/>
+    <col min="1801" max="1801" width="8.7265625" style="41"/>
+    <col min="1802" max="1802" width="53.6328125" style="41" customWidth="1"/>
+    <col min="1803" max="2047" width="8.7265625" style="41"/>
+    <col min="2048" max="2048" width="10.90625" style="41" customWidth="1"/>
+    <col min="2049" max="2049" width="22.26953125" style="41" customWidth="1"/>
+    <col min="2050" max="2050" width="8.7265625" style="41"/>
+    <col min="2051" max="2051" width="17" style="41" customWidth="1"/>
+    <col min="2052" max="2052" width="13.90625" style="41" customWidth="1"/>
+    <col min="2053" max="2053" width="20.26953125" style="41" customWidth="1"/>
+    <col min="2054" max="2054" width="13.90625" style="41" customWidth="1"/>
+    <col min="2055" max="2055" width="8.7265625" style="41"/>
+    <col min="2056" max="2056" width="17.90625" style="41" customWidth="1"/>
+    <col min="2057" max="2057" width="8.7265625" style="41"/>
+    <col min="2058" max="2058" width="53.6328125" style="41" customWidth="1"/>
+    <col min="2059" max="2303" width="8.7265625" style="41"/>
+    <col min="2304" max="2304" width="10.90625" style="41" customWidth="1"/>
+    <col min="2305" max="2305" width="22.26953125" style="41" customWidth="1"/>
+    <col min="2306" max="2306" width="8.7265625" style="41"/>
+    <col min="2307" max="2307" width="17" style="41" customWidth="1"/>
+    <col min="2308" max="2308" width="13.90625" style="41" customWidth="1"/>
+    <col min="2309" max="2309" width="20.26953125" style="41" customWidth="1"/>
+    <col min="2310" max="2310" width="13.90625" style="41" customWidth="1"/>
+    <col min="2311" max="2311" width="8.7265625" style="41"/>
+    <col min="2312" max="2312" width="17.90625" style="41" customWidth="1"/>
+    <col min="2313" max="2313" width="8.7265625" style="41"/>
+    <col min="2314" max="2314" width="53.6328125" style="41" customWidth="1"/>
+    <col min="2315" max="2559" width="8.7265625" style="41"/>
+    <col min="2560" max="2560" width="10.90625" style="41" customWidth="1"/>
+    <col min="2561" max="2561" width="22.26953125" style="41" customWidth="1"/>
+    <col min="2562" max="2562" width="8.7265625" style="41"/>
+    <col min="2563" max="2563" width="17" style="41" customWidth="1"/>
+    <col min="2564" max="2564" width="13.90625" style="41" customWidth="1"/>
+    <col min="2565" max="2565" width="20.26953125" style="41" customWidth="1"/>
+    <col min="2566" max="2566" width="13.90625" style="41" customWidth="1"/>
+    <col min="2567" max="2567" width="8.7265625" style="41"/>
+    <col min="2568" max="2568" width="17.90625" style="41" customWidth="1"/>
+    <col min="2569" max="2569" width="8.7265625" style="41"/>
+    <col min="2570" max="2570" width="53.6328125" style="41" customWidth="1"/>
+    <col min="2571" max="2815" width="8.7265625" style="41"/>
+    <col min="2816" max="2816" width="10.90625" style="41" customWidth="1"/>
+    <col min="2817" max="2817" width="22.26953125" style="41" customWidth="1"/>
+    <col min="2818" max="2818" width="8.7265625" style="41"/>
+    <col min="2819" max="2819" width="17" style="41" customWidth="1"/>
+    <col min="2820" max="2820" width="13.90625" style="41" customWidth="1"/>
+    <col min="2821" max="2821" width="20.26953125" style="41" customWidth="1"/>
+    <col min="2822" max="2822" width="13.90625" style="41" customWidth="1"/>
+    <col min="2823" max="2823" width="8.7265625" style="41"/>
+    <col min="2824" max="2824" width="17.90625" style="41" customWidth="1"/>
+    <col min="2825" max="2825" width="8.7265625" style="41"/>
+    <col min="2826" max="2826" width="53.6328125" style="41" customWidth="1"/>
+    <col min="2827" max="3071" width="8.7265625" style="41"/>
+    <col min="3072" max="3072" width="10.90625" style="41" customWidth="1"/>
+    <col min="3073" max="3073" width="22.26953125" style="41" customWidth="1"/>
+    <col min="3074" max="3074" width="8.7265625" style="41"/>
+    <col min="3075" max="3075" width="17" style="41" customWidth="1"/>
+    <col min="3076" max="3076" width="13.90625" style="41" customWidth="1"/>
+    <col min="3077" max="3077" width="20.26953125" style="41" customWidth="1"/>
+    <col min="3078" max="3078" width="13.90625" style="41" customWidth="1"/>
+    <col min="3079" max="3079" width="8.7265625" style="41"/>
+    <col min="3080" max="3080" width="17.90625" style="41" customWidth="1"/>
+    <col min="3081" max="3081" width="8.7265625" style="41"/>
+    <col min="3082" max="3082" width="53.6328125" style="41" customWidth="1"/>
+    <col min="3083" max="3327" width="8.7265625" style="41"/>
+    <col min="3328" max="3328" width="10.90625" style="41" customWidth="1"/>
+    <col min="3329" max="3329" width="22.26953125" style="41" customWidth="1"/>
+    <col min="3330" max="3330" width="8.7265625" style="41"/>
+    <col min="3331" max="3331" width="17" style="41" customWidth="1"/>
+    <col min="3332" max="3332" width="13.90625" style="41" customWidth="1"/>
+    <col min="3333" max="3333" width="20.26953125" style="41" customWidth="1"/>
+    <col min="3334" max="3334" width="13.90625" style="41" customWidth="1"/>
+    <col min="3335" max="3335" width="8.7265625" style="41"/>
+    <col min="3336" max="3336" width="17.90625" style="41" customWidth="1"/>
+    <col min="3337" max="3337" width="8.7265625" style="41"/>
+    <col min="3338" max="3338" width="53.6328125" style="41" customWidth="1"/>
+    <col min="3339" max="3583" width="8.7265625" style="41"/>
+    <col min="3584" max="3584" width="10.90625" style="41" customWidth="1"/>
+    <col min="3585" max="3585" width="22.26953125" style="41" customWidth="1"/>
+    <col min="3586" max="3586" width="8.7265625" style="41"/>
+    <col min="3587" max="3587" width="17" style="41" customWidth="1"/>
+    <col min="3588" max="3588" width="13.90625" style="41" customWidth="1"/>
+    <col min="3589" max="3589" width="20.26953125" style="41" customWidth="1"/>
+    <col min="3590" max="3590" width="13.90625" style="41" customWidth="1"/>
+    <col min="3591" max="3591" width="8.7265625" style="41"/>
+    <col min="3592" max="3592" width="17.90625" style="41" customWidth="1"/>
+    <col min="3593" max="3593" width="8.7265625" style="41"/>
+    <col min="3594" max="3594" width="53.6328125" style="41" customWidth="1"/>
+    <col min="3595" max="3839" width="8.7265625" style="41"/>
+    <col min="3840" max="3840" width="10.90625" style="41" customWidth="1"/>
+    <col min="3841" max="3841" width="22.26953125" style="41" customWidth="1"/>
+    <col min="3842" max="3842" width="8.7265625" style="41"/>
+    <col min="3843" max="3843" width="17" style="41" customWidth="1"/>
+    <col min="3844" max="3844" width="13.90625" style="41" customWidth="1"/>
+    <col min="3845" max="3845" width="20.26953125" style="41" customWidth="1"/>
+    <col min="3846" max="3846" width="13.90625" style="41" customWidth="1"/>
+    <col min="3847" max="3847" width="8.7265625" style="41"/>
+    <col min="3848" max="3848" width="17.90625" style="41" customWidth="1"/>
+    <col min="3849" max="3849" width="8.7265625" style="41"/>
+    <col min="3850" max="3850" width="53.6328125" style="41" customWidth="1"/>
+    <col min="3851" max="4095" width="8.7265625" style="41"/>
+    <col min="4096" max="4096" width="10.90625" style="41" customWidth="1"/>
+    <col min="4097" max="4097" width="22.26953125" style="41" customWidth="1"/>
+    <col min="4098" max="4098" width="8.7265625" style="41"/>
+    <col min="4099" max="4099" width="17" style="41" customWidth="1"/>
+    <col min="4100" max="4100" width="13.90625" style="41" customWidth="1"/>
+    <col min="4101" max="4101" width="20.26953125" style="41" customWidth="1"/>
+    <col min="4102" max="4102" width="13.90625" style="41" customWidth="1"/>
+    <col min="4103" max="4103" width="8.7265625" style="41"/>
+    <col min="4104" max="4104" width="17.90625" style="41" customWidth="1"/>
+    <col min="4105" max="4105" width="8.7265625" style="41"/>
+    <col min="4106" max="4106" width="53.6328125" style="41" customWidth="1"/>
+    <col min="4107" max="4351" width="8.7265625" style="41"/>
+    <col min="4352" max="4352" width="10.90625" style="41" customWidth="1"/>
+    <col min="4353" max="4353" width="22.26953125" style="41" customWidth="1"/>
+    <col min="4354" max="4354" width="8.7265625" style="41"/>
+    <col min="4355" max="4355" width="17" style="41" customWidth="1"/>
+    <col min="4356" max="4356" width="13.90625" style="41" customWidth="1"/>
+    <col min="4357" max="4357" width="20.26953125" style="41" customWidth="1"/>
+    <col min="4358" max="4358" width="13.90625" style="41" customWidth="1"/>
+    <col min="4359" max="4359" width="8.7265625" style="41"/>
+    <col min="4360" max="4360" width="17.90625" style="41" customWidth="1"/>
+    <col min="4361" max="4361" width="8.7265625" style="41"/>
+    <col min="4362" max="4362" width="53.6328125" style="41" customWidth="1"/>
+    <col min="4363" max="4607" width="8.7265625" style="41"/>
+    <col min="4608" max="4608" width="10.90625" style="41" customWidth="1"/>
+    <col min="4609" max="4609" width="22.26953125" style="41" customWidth="1"/>
+    <col min="4610" max="4610" width="8.7265625" style="41"/>
+    <col min="4611" max="4611" width="17" style="41" customWidth="1"/>
+    <col min="4612" max="4612" width="13.90625" style="41" customWidth="1"/>
+    <col min="4613" max="4613" width="20.26953125" style="41" customWidth="1"/>
+    <col min="4614" max="4614" width="13.90625" style="41" customWidth="1"/>
+    <col min="4615" max="4615" width="8.7265625" style="41"/>
+    <col min="4616" max="4616" width="17.90625" style="41" customWidth="1"/>
+    <col min="4617" max="4617" width="8.7265625" style="41"/>
+    <col min="4618" max="4618" width="53.6328125" style="41" customWidth="1"/>
+    <col min="4619" max="4863" width="8.7265625" style="41"/>
+    <col min="4864" max="4864" width="10.90625" style="41" customWidth="1"/>
+    <col min="4865" max="4865" width="22.26953125" style="41" customWidth="1"/>
+    <col min="4866" max="4866" width="8.7265625" style="41"/>
+    <col min="4867" max="4867" width="17" style="41" customWidth="1"/>
+    <col min="4868" max="4868" width="13.90625" style="41" customWidth="1"/>
+    <col min="4869" max="4869" width="20.26953125" style="41" customWidth="1"/>
+    <col min="4870" max="4870" width="13.90625" style="41" customWidth="1"/>
+    <col min="4871" max="4871" width="8.7265625" style="41"/>
+    <col min="4872" max="4872" width="17.90625" style="41" customWidth="1"/>
+    <col min="4873" max="4873" width="8.7265625" style="41"/>
+    <col min="4874" max="4874" width="53.6328125" style="41" customWidth="1"/>
+    <col min="4875" max="5119" width="8.7265625" style="41"/>
+    <col min="5120" max="5120" width="10.90625" style="41" customWidth="1"/>
+    <col min="5121" max="5121" width="22.26953125" style="41" customWidth="1"/>
+    <col min="5122" max="5122" width="8.7265625" style="41"/>
+    <col min="5123" max="5123" width="17" style="41" customWidth="1"/>
+    <col min="5124" max="5124" width="13.90625" style="41" customWidth="1"/>
+    <col min="5125" max="5125" width="20.26953125" style="41" customWidth="1"/>
+    <col min="5126" max="5126" width="13.90625" style="41" customWidth="1"/>
+    <col min="5127" max="5127" width="8.7265625" style="41"/>
+    <col min="5128" max="5128" width="17.90625" style="41" customWidth="1"/>
+    <col min="5129" max="5129" width="8.7265625" style="41"/>
+    <col min="5130" max="5130" width="53.6328125" style="41" customWidth="1"/>
+    <col min="5131" max="5375" width="8.7265625" style="41"/>
+    <col min="5376" max="5376" width="10.90625" style="41" customWidth="1"/>
+    <col min="5377" max="5377" width="22.26953125" style="41" customWidth="1"/>
+    <col min="5378" max="5378" width="8.7265625" style="41"/>
+    <col min="5379" max="5379" width="17" style="41" customWidth="1"/>
+    <col min="5380" max="5380" width="13.90625" style="41" customWidth="1"/>
+    <col min="5381" max="5381" width="20.26953125" style="41" customWidth="1"/>
+    <col min="5382" max="5382" width="13.90625" style="41" customWidth="1"/>
+    <col min="5383" max="5383" width="8.7265625" style="41"/>
+    <col min="5384" max="5384" width="17.90625" style="41" customWidth="1"/>
+    <col min="5385" max="5385" width="8.7265625" style="41"/>
+    <col min="5386" max="5386" width="53.6328125" style="41" customWidth="1"/>
+    <col min="5387" max="5631" width="8.7265625" style="41"/>
+    <col min="5632" max="5632" width="10.90625" style="41" customWidth="1"/>
+    <col min="5633" max="5633" width="22.26953125" style="41" customWidth="1"/>
+    <col min="5634" max="5634" width="8.7265625" style="41"/>
+    <col min="5635" max="5635" width="17" style="41" customWidth="1"/>
+    <col min="5636" max="5636" width="13.90625" style="41" customWidth="1"/>
+    <col min="5637" max="5637" width="20.26953125" style="41" customWidth="1"/>
+    <col min="5638" max="5638" width="13.90625" style="41" customWidth="1"/>
+    <col min="5639" max="5639" width="8.7265625" style="41"/>
+    <col min="5640" max="5640" width="17.90625" style="41" customWidth="1"/>
+    <col min="5641" max="5641" width="8.7265625" style="41"/>
+    <col min="5642" max="5642" width="53.6328125" style="41" customWidth="1"/>
+    <col min="5643" max="5887" width="8.7265625" style="41"/>
+    <col min="5888" max="5888" width="10.90625" style="41" customWidth="1"/>
+    <col min="5889" max="5889" width="22.26953125" style="41" customWidth="1"/>
+    <col min="5890" max="5890" width="8.7265625" style="41"/>
+    <col min="5891" max="5891" width="17" style="41" customWidth="1"/>
+    <col min="5892" max="5892" width="13.90625" style="41" customWidth="1"/>
+    <col min="5893" max="5893" width="20.26953125" style="41" customWidth="1"/>
+    <col min="5894" max="5894" width="13.90625" style="41" customWidth="1"/>
+    <col min="5895" max="5895" width="8.7265625" style="41"/>
+    <col min="5896" max="5896" width="17.90625" style="41" customWidth="1"/>
+    <col min="5897" max="5897" width="8.7265625" style="41"/>
+    <col min="5898" max="5898" width="53.6328125" style="41" customWidth="1"/>
+    <col min="5899" max="6143" width="8.7265625" style="41"/>
+    <col min="6144" max="6144" width="10.90625" style="41" customWidth="1"/>
+    <col min="6145" max="6145" width="22.26953125" style="41" customWidth="1"/>
+    <col min="6146" max="6146" width="8.7265625" style="41"/>
+    <col min="6147" max="6147" width="17" style="41" customWidth="1"/>
+    <col min="6148" max="6148" width="13.90625" style="41" customWidth="1"/>
+    <col min="6149" max="6149" width="20.26953125" style="41" customWidth="1"/>
+    <col min="6150" max="6150" width="13.90625" style="41" customWidth="1"/>
+    <col min="6151" max="6151" width="8.7265625" style="41"/>
+    <col min="6152" max="6152" width="17.90625" style="41" customWidth="1"/>
+    <col min="6153" max="6153" width="8.7265625" style="41"/>
+    <col min="6154" max="6154" width="53.6328125" style="41" customWidth="1"/>
+    <col min="6155" max="6399" width="8.7265625" style="41"/>
+    <col min="6400" max="6400" width="10.90625" style="41" customWidth="1"/>
+    <col min="6401" max="6401" width="22.26953125" style="41" customWidth="1"/>
+    <col min="6402" max="6402" width="8.7265625" style="41"/>
+    <col min="6403" max="6403" width="17" style="41" customWidth="1"/>
+    <col min="6404" max="6404" width="13.90625" style="41" customWidth="1"/>
+    <col min="6405" max="6405" width="20.26953125" style="41" customWidth="1"/>
+    <col min="6406" max="6406" width="13.90625" style="41" customWidth="1"/>
+    <col min="6407" max="6407" width="8.7265625" style="41"/>
+    <col min="6408" max="6408" width="17.90625" style="41" customWidth="1"/>
+    <col min="6409" max="6409" width="8.7265625" style="41"/>
+    <col min="6410" max="6410" width="53.6328125" style="41" customWidth="1"/>
+    <col min="6411" max="6655" width="8.7265625" style="41"/>
+    <col min="6656" max="6656" width="10.90625" style="41" customWidth="1"/>
+    <col min="6657" max="6657" width="22.26953125" style="41" customWidth="1"/>
+    <col min="6658" max="6658" width="8.7265625" style="41"/>
+    <col min="6659" max="6659" width="17" style="41" customWidth="1"/>
+    <col min="6660" max="6660" width="13.90625" style="41" customWidth="1"/>
+    <col min="6661" max="6661" width="20.26953125" style="41" customWidth="1"/>
+    <col min="6662" max="6662" width="13.90625" style="41" customWidth="1"/>
+    <col min="6663" max="6663" width="8.7265625" style="41"/>
+    <col min="6664" max="6664" width="17.90625" style="41" customWidth="1"/>
+    <col min="6665" max="6665" width="8.7265625" style="41"/>
+    <col min="6666" max="6666" width="53.6328125" style="41" customWidth="1"/>
+    <col min="6667" max="6911" width="8.7265625" style="41"/>
+    <col min="6912" max="6912" width="10.90625" style="41" customWidth="1"/>
+    <col min="6913" max="6913" width="22.26953125" style="41" customWidth="1"/>
+    <col min="6914" max="6914" width="8.7265625" style="41"/>
+    <col min="6915" max="6915" width="17" style="41" customWidth="1"/>
+    <col min="6916" max="6916" width="13.90625" style="41" customWidth="1"/>
+    <col min="6917" max="6917" width="20.26953125" style="41" customWidth="1"/>
+    <col min="6918" max="6918" width="13.90625" style="41" customWidth="1"/>
+    <col min="6919" max="6919" width="8.7265625" style="41"/>
+    <col min="6920" max="6920" width="17.90625" style="41" customWidth="1"/>
+    <col min="6921" max="6921" width="8.7265625" style="41"/>
+    <col min="6922" max="6922" width="53.6328125" style="41" customWidth="1"/>
+    <col min="6923" max="7167" width="8.7265625" style="41"/>
+    <col min="7168" max="7168" width="10.90625" style="41" customWidth="1"/>
+    <col min="7169" max="7169" width="22.26953125" style="41" customWidth="1"/>
+    <col min="7170" max="7170" width="8.7265625" style="41"/>
+    <col min="7171" max="7171" width="17" style="41" customWidth="1"/>
+    <col min="7172" max="7172" width="13.90625" style="41" customWidth="1"/>
+    <col min="7173" max="7173" width="20.26953125" style="41" customWidth="1"/>
+    <col min="7174" max="7174" width="13.90625" style="41" customWidth="1"/>
+    <col min="7175" max="7175" width="8.7265625" style="41"/>
+    <col min="7176" max="7176" width="17.90625" style="41" customWidth="1"/>
+    <col min="7177" max="7177" width="8.7265625" style="41"/>
+    <col min="7178" max="7178" width="53.6328125" style="41" customWidth="1"/>
+    <col min="7179" max="7423" width="8.7265625" style="41"/>
+    <col min="7424" max="7424" width="10.90625" style="41" customWidth="1"/>
+    <col min="7425" max="7425" width="22.26953125" style="41" customWidth="1"/>
+    <col min="7426" max="7426" width="8.7265625" style="41"/>
+    <col min="7427" max="7427" width="17" style="41" customWidth="1"/>
+    <col min="7428" max="7428" width="13.90625" style="41" customWidth="1"/>
+    <col min="7429" max="7429" width="20.26953125" style="41" customWidth="1"/>
+    <col min="7430" max="7430" width="13.90625" style="41" customWidth="1"/>
+    <col min="7431" max="7431" width="8.7265625" style="41"/>
+    <col min="7432" max="7432" width="17.90625" style="41" customWidth="1"/>
+    <col min="7433" max="7433" width="8.7265625" style="41"/>
+    <col min="7434" max="7434" width="53.6328125" style="41" customWidth="1"/>
+    <col min="7435" max="7679" width="8.7265625" style="41"/>
+    <col min="7680" max="7680" width="10.90625" style="41" customWidth="1"/>
+    <col min="7681" max="7681" width="22.26953125" style="41" customWidth="1"/>
+    <col min="7682" max="7682" width="8.7265625" style="41"/>
+    <col min="7683" max="7683" width="17" style="41" customWidth="1"/>
+    <col min="7684" max="7684" width="13.90625" style="41" customWidth="1"/>
+    <col min="7685" max="7685" width="20.26953125" style="41" customWidth="1"/>
+    <col min="7686" max="7686" width="13.90625" style="41" customWidth="1"/>
+    <col min="7687" max="7687" width="8.7265625" style="41"/>
+    <col min="7688" max="7688" width="17.90625" style="41" customWidth="1"/>
+    <col min="7689" max="7689" width="8.7265625" style="41"/>
+    <col min="7690" max="7690" width="53.6328125" style="41" customWidth="1"/>
+    <col min="7691" max="7935" width="8.7265625" style="41"/>
+    <col min="7936" max="7936" width="10.90625" style="41" customWidth="1"/>
+    <col min="7937" max="7937" width="22.26953125" style="41" customWidth="1"/>
+    <col min="7938" max="7938" width="8.7265625" style="41"/>
+    <col min="7939" max="7939" width="17" style="41" customWidth="1"/>
+    <col min="7940" max="7940" width="13.90625" style="41" customWidth="1"/>
+    <col min="7941" max="7941" width="20.26953125" style="41" customWidth="1"/>
+    <col min="7942" max="7942" width="13.90625" style="41" customWidth="1"/>
+    <col min="7943" max="7943" width="8.7265625" style="41"/>
+    <col min="7944" max="7944" width="17.90625" style="41" customWidth="1"/>
+    <col min="7945" max="7945" width="8.7265625" style="41"/>
+    <col min="7946" max="7946" width="53.6328125" style="41" customWidth="1"/>
+    <col min="7947" max="8191" width="8.7265625" style="41"/>
+    <col min="8192" max="8192" width="10.90625" style="41" customWidth="1"/>
+    <col min="8193" max="8193" width="22.26953125" style="41" customWidth="1"/>
+    <col min="8194" max="8194" width="8.7265625" style="41"/>
+    <col min="8195" max="8195" width="17" style="41" customWidth="1"/>
+    <col min="8196" max="8196" width="13.90625" style="41" customWidth="1"/>
+    <col min="8197" max="8197" width="20.26953125" style="41" customWidth="1"/>
+    <col min="8198" max="8198" width="13.90625" style="41" customWidth="1"/>
+    <col min="8199" max="8199" width="8.7265625" style="41"/>
+    <col min="8200" max="8200" width="17.90625" style="41" customWidth="1"/>
+    <col min="8201" max="8201" width="8.7265625" style="41"/>
+    <col min="8202" max="8202" width="53.6328125" style="41" customWidth="1"/>
+    <col min="8203" max="8447" width="8.7265625" style="41"/>
+    <col min="8448" max="8448" width="10.90625" style="41" customWidth="1"/>
+    <col min="8449" max="8449" width="22.26953125" style="41" customWidth="1"/>
+    <col min="8450" max="8450" width="8.7265625" style="41"/>
+    <col min="8451" max="8451" width="17" style="41" customWidth="1"/>
+    <col min="8452" max="8452" width="13.90625" style="41" customWidth="1"/>
+    <col min="8453" max="8453" width="20.26953125" style="41" customWidth="1"/>
+    <col min="8454" max="8454" width="13.90625" style="41" customWidth="1"/>
+    <col min="8455" max="8455" width="8.7265625" style="41"/>
+    <col min="8456" max="8456" width="17.90625" style="41" customWidth="1"/>
+    <col min="8457" max="8457" width="8.7265625" style="41"/>
+    <col min="8458" max="8458" width="53.6328125" style="41" customWidth="1"/>
+    <col min="8459" max="8703" width="8.7265625" style="41"/>
+    <col min="8704" max="8704" width="10.90625" style="41" customWidth="1"/>
+    <col min="8705" max="8705" width="22.26953125" style="41" customWidth="1"/>
+    <col min="8706" max="8706" width="8.7265625" style="41"/>
+    <col min="8707" max="8707" width="17" style="41" customWidth="1"/>
+    <col min="8708" max="8708" width="13.90625" style="41" customWidth="1"/>
+    <col min="8709" max="8709" width="20.26953125" style="41" customWidth="1"/>
+    <col min="8710" max="8710" width="13.90625" style="41" customWidth="1"/>
+    <col min="8711" max="8711" width="8.7265625" style="41"/>
+    <col min="8712" max="8712" width="17.90625" style="41" customWidth="1"/>
+    <col min="8713" max="8713" width="8.7265625" style="41"/>
+    <col min="8714" max="8714" width="53.6328125" style="41" customWidth="1"/>
+    <col min="8715" max="8959" width="8.7265625" style="41"/>
+    <col min="8960" max="8960" width="10.90625" style="41" customWidth="1"/>
+    <col min="8961" max="8961" width="22.26953125" style="41" customWidth="1"/>
+    <col min="8962" max="8962" width="8.7265625" style="41"/>
+    <col min="8963" max="8963" width="17" style="41" customWidth="1"/>
+    <col min="8964" max="8964" width="13.90625" style="41" customWidth="1"/>
+    <col min="8965" max="8965" width="20.26953125" style="41" customWidth="1"/>
+    <col min="8966" max="8966" width="13.90625" style="41" customWidth="1"/>
+    <col min="8967" max="8967" width="8.7265625" style="41"/>
+    <col min="8968" max="8968" width="17.90625" style="41" customWidth="1"/>
+    <col min="8969" max="8969" width="8.7265625" style="41"/>
+    <col min="8970" max="8970" width="53.6328125" style="41" customWidth="1"/>
+    <col min="8971" max="9215" width="8.7265625" style="41"/>
+    <col min="9216" max="9216" width="10.90625" style="41" customWidth="1"/>
+    <col min="9217" max="9217" width="22.26953125" style="41" customWidth="1"/>
+    <col min="9218" max="9218" width="8.7265625" style="41"/>
+    <col min="9219" max="9219" width="17" style="41" customWidth="1"/>
+    <col min="9220" max="9220" width="13.90625" style="41" customWidth="1"/>
+    <col min="9221" max="9221" width="20.26953125" style="41" customWidth="1"/>
+    <col min="9222" max="9222" width="13.90625" style="41" customWidth="1"/>
+    <col min="9223" max="9223" width="8.7265625" style="41"/>
+    <col min="9224" max="9224" width="17.90625" style="41" customWidth="1"/>
+    <col min="9225" max="9225" width="8.7265625" style="41"/>
+    <col min="9226" max="9226" width="53.6328125" style="41" customWidth="1"/>
+    <col min="9227" max="9471" width="8.7265625" style="41"/>
+    <col min="9472" max="9472" width="10.90625" style="41" customWidth="1"/>
+    <col min="9473" max="9473" width="22.26953125" style="41" customWidth="1"/>
+    <col min="9474" max="9474" width="8.7265625" style="41"/>
+    <col min="9475" max="9475" width="17" style="41" customWidth="1"/>
+    <col min="9476" max="9476" width="13.90625" style="41" customWidth="1"/>
+    <col min="9477" max="9477" width="20.26953125" style="41" customWidth="1"/>
+    <col min="9478" max="9478" width="13.90625" style="41" customWidth="1"/>
+    <col min="9479" max="9479" width="8.7265625" style="41"/>
+    <col min="9480" max="9480" width="17.90625" style="41" customWidth="1"/>
+    <col min="9481" max="9481" width="8.7265625" style="41"/>
+    <col min="9482" max="9482" width="53.6328125" style="41" customWidth="1"/>
+    <col min="9483" max="9727" width="8.7265625" style="41"/>
+    <col min="9728" max="9728" width="10.90625" style="41" customWidth="1"/>
+    <col min="9729" max="9729" width="22.26953125" style="41" customWidth="1"/>
+    <col min="9730" max="9730" width="8.7265625" style="41"/>
+    <col min="9731" max="9731" width="17" style="41" customWidth="1"/>
+    <col min="9732" max="9732" width="13.90625" style="41" customWidth="1"/>
+    <col min="9733" max="9733" width="20.26953125" style="41" customWidth="1"/>
+    <col min="9734" max="9734" width="13.90625" style="41" customWidth="1"/>
+    <col min="9735" max="9735" width="8.7265625" style="41"/>
+    <col min="9736" max="9736" width="17.90625" style="41" customWidth="1"/>
+    <col min="9737" max="9737" width="8.7265625" style="41"/>
+    <col min="9738" max="9738" width="53.6328125" style="41" customWidth="1"/>
+    <col min="9739" max="9983" width="8.7265625" style="41"/>
+    <col min="9984" max="9984" width="10.90625" style="41" customWidth="1"/>
+    <col min="9985" max="9985" width="22.26953125" style="41" customWidth="1"/>
+    <col min="9986" max="9986" width="8.7265625" style="41"/>
+    <col min="9987" max="9987" width="17" style="41" customWidth="1"/>
+    <col min="9988" max="9988" width="13.90625" style="41" customWidth="1"/>
+    <col min="9989" max="9989" width="20.26953125" style="41" customWidth="1"/>
+    <col min="9990" max="9990" width="13.90625" style="41" customWidth="1"/>
+    <col min="9991" max="9991" width="8.7265625" style="41"/>
+    <col min="9992" max="9992" width="17.90625" style="41" customWidth="1"/>
+    <col min="9993" max="9993" width="8.7265625" style="41"/>
+    <col min="9994" max="9994" width="53.6328125" style="41" customWidth="1"/>
+    <col min="9995" max="10239" width="8.7265625" style="41"/>
+    <col min="10240" max="10240" width="10.90625" style="41" customWidth="1"/>
+    <col min="10241" max="10241" width="22.26953125" style="41" customWidth="1"/>
+    <col min="10242" max="10242" width="8.7265625" style="41"/>
+    <col min="10243" max="10243" width="17" style="41" customWidth="1"/>
+    <col min="10244" max="10244" width="13.90625" style="41" customWidth="1"/>
+    <col min="10245" max="10245" width="20.26953125" style="41" customWidth="1"/>
+    <col min="10246" max="10246" width="13.90625" style="41" customWidth="1"/>
+    <col min="10247" max="10247" width="8.7265625" style="41"/>
+    <col min="10248" max="10248" width="17.90625" style="41" customWidth="1"/>
+    <col min="10249" max="10249" width="8.7265625" style="41"/>
+    <col min="10250" max="10250" width="53.6328125" style="41" customWidth="1"/>
+    <col min="10251" max="10495" width="8.7265625" style="41"/>
+    <col min="10496" max="10496" width="10.90625" style="41" customWidth="1"/>
+    <col min="10497" max="10497" width="22.26953125" style="41" customWidth="1"/>
+    <col min="10498" max="10498" width="8.7265625" style="41"/>
+    <col min="10499" max="10499" width="17" style="41" customWidth="1"/>
+    <col min="10500" max="10500" width="13.90625" style="41" customWidth="1"/>
+    <col min="10501" max="10501" width="20.26953125" style="41" customWidth="1"/>
+    <col min="10502" max="10502" width="13.90625" style="41" customWidth="1"/>
+    <col min="10503" max="10503" width="8.7265625" style="41"/>
+    <col min="10504" max="10504" width="17.90625" style="41" customWidth="1"/>
+    <col min="10505" max="10505" width="8.7265625" style="41"/>
+    <col min="10506" max="10506" width="53.6328125" style="41" customWidth="1"/>
+    <col min="10507" max="10751" width="8.7265625" style="41"/>
+    <col min="10752" max="10752" width="10.90625" style="41" customWidth="1"/>
+    <col min="10753" max="10753" width="22.26953125" style="41" customWidth="1"/>
+    <col min="10754" max="10754" width="8.7265625" style="41"/>
+    <col min="10755" max="10755" width="17" style="41" customWidth="1"/>
+    <col min="10756" max="10756" width="13.90625" style="41" customWidth="1"/>
+    <col min="10757" max="10757" width="20.26953125" style="41" customWidth="1"/>
+    <col min="10758" max="10758" width="13.90625" style="41" customWidth="1"/>
+    <col min="10759" max="10759" width="8.7265625" style="41"/>
+    <col min="10760" max="10760" width="17.90625" style="41" customWidth="1"/>
+    <col min="10761" max="10761" width="8.7265625" style="41"/>
+    <col min="10762" max="10762" width="53.6328125" style="41" customWidth="1"/>
+    <col min="10763" max="11007" width="8.7265625" style="41"/>
+    <col min="11008" max="11008" width="10.90625" style="41" customWidth="1"/>
+    <col min="11009" max="11009" width="22.26953125" style="41" customWidth="1"/>
+    <col min="11010" max="11010" width="8.7265625" style="41"/>
+    <col min="11011" max="11011" width="17" style="41" customWidth="1"/>
+    <col min="11012" max="11012" width="13.90625" style="41" customWidth="1"/>
+    <col min="11013" max="11013" width="20.26953125" style="41" customWidth="1"/>
+    <col min="11014" max="11014" width="13.90625" style="41" customWidth="1"/>
+    <col min="11015" max="11015" width="8.7265625" style="41"/>
+    <col min="11016" max="11016" width="17.90625" style="41" customWidth="1"/>
+    <col min="11017" max="11017" width="8.7265625" style="41"/>
+    <col min="11018" max="11018" width="53.6328125" style="41" customWidth="1"/>
+    <col min="11019" max="11263" width="8.7265625" style="41"/>
+    <col min="11264" max="11264" width="10.90625" style="41" customWidth="1"/>
+    <col min="11265" max="11265" width="22.26953125" style="41" customWidth="1"/>
+    <col min="11266" max="11266" width="8.7265625" style="41"/>
+    <col min="11267" max="11267" width="17" style="41" customWidth="1"/>
+    <col min="11268" max="11268" width="13.90625" style="41" customWidth="1"/>
+    <col min="11269" max="11269" width="20.26953125" style="41" customWidth="1"/>
+    <col min="11270" max="11270" width="13.90625" style="41" customWidth="1"/>
+    <col min="11271" max="11271" width="8.7265625" style="41"/>
+    <col min="11272" max="11272" width="17.90625" style="41" customWidth="1"/>
+    <col min="11273" max="11273" width="8.7265625" style="41"/>
+    <col min="11274" max="11274" width="53.6328125" style="41" customWidth="1"/>
+    <col min="11275" max="11519" width="8.7265625" style="41"/>
+    <col min="11520" max="11520" width="10.90625" style="41" customWidth="1"/>
+    <col min="11521" max="11521" width="22.26953125" style="41" customWidth="1"/>
+    <col min="11522" max="11522" width="8.7265625" style="41"/>
+    <col min="11523" max="11523" width="17" style="41" customWidth="1"/>
+    <col min="11524" max="11524" width="13.90625" style="41" customWidth="1"/>
+    <col min="11525" max="11525" width="20.26953125" style="41" customWidth="1"/>
+    <col min="11526" max="11526" width="13.90625" style="41" customWidth="1"/>
+    <col min="11527" max="11527" width="8.7265625" style="41"/>
+    <col min="11528" max="11528" width="17.90625" style="41" customWidth="1"/>
+    <col min="11529" max="11529" width="8.7265625" style="41"/>
+    <col min="11530" max="11530" width="53.6328125" style="41" customWidth="1"/>
+    <col min="11531" max="11775" width="8.7265625" style="41"/>
+    <col min="11776" max="11776" width="10.90625" style="41" customWidth="1"/>
+    <col min="11777" max="11777" width="22.26953125" style="41" customWidth="1"/>
+    <col min="11778" max="11778" width="8.7265625" style="41"/>
+    <col min="11779" max="11779" width="17" style="41" customWidth="1"/>
+    <col min="11780" max="11780" width="13.90625" style="41" customWidth="1"/>
+    <col min="11781" max="11781" width="20.26953125" style="41" customWidth="1"/>
+    <col min="11782" max="11782" width="13.90625" style="41" customWidth="1"/>
+    <col min="11783" max="11783" width="8.7265625" style="41"/>
+    <col min="11784" max="11784" width="17.90625" style="41" customWidth="1"/>
+    <col min="11785" max="11785" width="8.7265625" style="41"/>
+    <col min="11786" max="11786" width="53.6328125" style="41" customWidth="1"/>
+    <col min="11787" max="12031" width="8.7265625" style="41"/>
+    <col min="12032" max="12032" width="10.90625" style="41" customWidth="1"/>
+    <col min="12033" max="12033" width="22.26953125" style="41" customWidth="1"/>
+    <col min="12034" max="12034" width="8.7265625" style="41"/>
+    <col min="12035" max="12035" width="17" style="41" customWidth="1"/>
+    <col min="12036" max="12036" width="13.90625" style="41" customWidth="1"/>
+    <col min="12037" max="12037" width="20.26953125" style="41" customWidth="1"/>
+    <col min="12038" max="12038" width="13.90625" style="41" customWidth="1"/>
+    <col min="12039" max="12039" width="8.7265625" style="41"/>
+    <col min="12040" max="12040" width="17.90625" style="41" customWidth="1"/>
+    <col min="12041" max="12041" width="8.7265625" style="41"/>
+    <col min="12042" max="12042" width="53.6328125" style="41" customWidth="1"/>
+    <col min="12043" max="12287" width="8.7265625" style="41"/>
+    <col min="12288" max="12288" width="10.90625" style="41" customWidth="1"/>
+    <col min="12289" max="12289" width="22.26953125" style="41" customWidth="1"/>
+    <col min="12290" max="12290" width="8.7265625" style="41"/>
+    <col min="12291" max="12291" width="17" style="41" customWidth="1"/>
+    <col min="12292" max="12292" width="13.90625" style="41" customWidth="1"/>
+    <col min="12293" max="12293" width="20.26953125" style="41" customWidth="1"/>
+    <col min="12294" max="12294" width="13.90625" style="41" customWidth="1"/>
+    <col min="12295" max="12295" width="8.7265625" style="41"/>
+    <col min="12296" max="12296" width="17.90625" style="41" customWidth="1"/>
+    <col min="12297" max="12297" width="8.7265625" style="41"/>
+    <col min="12298" max="12298" width="53.6328125" style="41" customWidth="1"/>
+    <col min="12299" max="12543" width="8.7265625" style="41"/>
+    <col min="12544" max="12544" width="10.90625" style="41" customWidth="1"/>
+    <col min="12545" max="12545" width="22.26953125" style="41" customWidth="1"/>
+    <col min="12546" max="12546" width="8.7265625" style="41"/>
+    <col min="12547" max="12547" width="17" style="41" customWidth="1"/>
+    <col min="12548" max="12548" width="13.90625" style="41" customWidth="1"/>
+    <col min="12549" max="12549" width="20.26953125" style="41" customWidth="1"/>
+    <col min="12550" max="12550" width="13.90625" style="41" customWidth="1"/>
+    <col min="12551" max="12551" width="8.7265625" style="41"/>
+    <col min="12552" max="12552" width="17.90625" style="41" customWidth="1"/>
+    <col min="12553" max="12553" width="8.7265625" style="41"/>
+    <col min="12554" max="12554" width="53.6328125" style="41" customWidth="1"/>
+    <col min="12555" max="12799" width="8.7265625" style="41"/>
+    <col min="12800" max="12800" width="10.90625" style="41" customWidth="1"/>
+    <col min="12801" max="12801" width="22.26953125" style="41" customWidth="1"/>
+    <col min="12802" max="12802" width="8.7265625" style="41"/>
+    <col min="12803" max="12803" width="17" style="41" customWidth="1"/>
+    <col min="12804" max="12804" width="13.90625" style="41" customWidth="1"/>
+    <col min="12805" max="12805" width="20.26953125" style="41" customWidth="1"/>
+    <col min="12806" max="12806" width="13.90625" style="41" customWidth="1"/>
+    <col min="12807" max="12807" width="8.7265625" style="41"/>
+    <col min="12808" max="12808" width="17.90625" style="41" customWidth="1"/>
+    <col min="12809" max="12809" width="8.7265625" style="41"/>
+    <col min="12810" max="12810" width="53.6328125" style="41" customWidth="1"/>
+    <col min="12811" max="13055" width="8.7265625" style="41"/>
+    <col min="13056" max="13056" width="10.90625" style="41" customWidth="1"/>
+    <col min="13057" max="13057" width="22.26953125" style="41" customWidth="1"/>
+    <col min="13058" max="13058" width="8.7265625" style="41"/>
+    <col min="13059" max="13059" width="17" style="41" customWidth="1"/>
+    <col min="13060" max="13060" width="13.90625" style="41" customWidth="1"/>
+    <col min="13061" max="13061" width="20.26953125" style="41" customWidth="1"/>
+    <col min="13062" max="13062" width="13.90625" style="41" customWidth="1"/>
+    <col min="13063" max="13063" width="8.7265625" style="41"/>
+    <col min="13064" max="13064" width="17.90625" style="41" customWidth="1"/>
+    <col min="13065" max="13065" width="8.7265625" style="41"/>
+    <col min="13066" max="13066" width="53.6328125" style="41" customWidth="1"/>
+    <col min="13067" max="13311" width="8.7265625" style="41"/>
+    <col min="13312" max="13312" width="10.90625" style="41" customWidth="1"/>
+    <col min="13313" max="13313" width="22.26953125" style="41" customWidth="1"/>
+    <col min="13314" max="13314" width="8.7265625" style="41"/>
+    <col min="13315" max="13315" width="17" style="41" customWidth="1"/>
+    <col min="13316" max="13316" width="13.90625" style="41" customWidth="1"/>
+    <col min="13317" max="13317" width="20.26953125" style="41" customWidth="1"/>
+    <col min="13318" max="13318" width="13.90625" style="41" customWidth="1"/>
+    <col min="13319" max="13319" width="8.7265625" style="41"/>
+    <col min="13320" max="13320" width="17.90625" style="41" customWidth="1"/>
+    <col min="13321" max="13321" width="8.7265625" style="41"/>
+    <col min="13322" max="13322" width="53.6328125" style="41" customWidth="1"/>
+    <col min="13323" max="13567" width="8.7265625" style="41"/>
+    <col min="13568" max="13568" width="10.90625" style="41" customWidth="1"/>
+    <col min="13569" max="13569" width="22.26953125" style="41" customWidth="1"/>
+    <col min="13570" max="13570" width="8.7265625" style="41"/>
+    <col min="13571" max="13571" width="17" style="41" customWidth="1"/>
+    <col min="13572" max="13572" width="13.90625" style="41" customWidth="1"/>
+    <col min="13573" max="13573" width="20.26953125" style="41" customWidth="1"/>
+    <col min="13574" max="13574" width="13.90625" style="41" customWidth="1"/>
+    <col min="13575" max="13575" width="8.7265625" style="41"/>
+    <col min="13576" max="13576" width="17.90625" style="41" customWidth="1"/>
+    <col min="13577" max="13577" width="8.7265625" style="41"/>
+    <col min="13578" max="13578" width="53.6328125" style="41" customWidth="1"/>
+    <col min="13579" max="13823" width="8.7265625" style="41"/>
+    <col min="13824" max="13824" width="10.90625" style="41" customWidth="1"/>
+    <col min="13825" max="13825" width="22.26953125" style="41" customWidth="1"/>
+    <col min="13826" max="13826" width="8.7265625" style="41"/>
+    <col min="13827" max="13827" width="17" style="41" customWidth="1"/>
+    <col min="13828" max="13828" width="13.90625" style="41" customWidth="1"/>
+    <col min="13829" max="13829" width="20.26953125" style="41" customWidth="1"/>
+    <col min="13830" max="13830" width="13.90625" style="41" customWidth="1"/>
+    <col min="13831" max="13831" width="8.7265625" style="41"/>
+    <col min="13832" max="13832" width="17.90625" style="41" customWidth="1"/>
+    <col min="13833" max="13833" width="8.7265625" style="41"/>
+    <col min="13834" max="13834" width="53.6328125" style="41" customWidth="1"/>
+    <col min="13835" max="14079" width="8.7265625" style="41"/>
+    <col min="14080" max="14080" width="10.90625" style="41" customWidth="1"/>
+    <col min="14081" max="14081" width="22.26953125" style="41" customWidth="1"/>
+    <col min="14082" max="14082" width="8.7265625" style="41"/>
+    <col min="14083" max="14083" width="17" style="41" customWidth="1"/>
+    <col min="14084" max="14084" width="13.90625" style="41" customWidth="1"/>
+    <col min="14085" max="14085" width="20.26953125" style="41" customWidth="1"/>
+    <col min="14086" max="14086" width="13.90625" style="41" customWidth="1"/>
+    <col min="14087" max="14087" width="8.7265625" style="41"/>
+    <col min="14088" max="14088" width="17.90625" style="41" customWidth="1"/>
+    <col min="14089" max="14089" width="8.7265625" style="41"/>
+    <col min="14090" max="14090" width="53.6328125" style="41" customWidth="1"/>
+    <col min="14091" max="14335" width="8.7265625" style="41"/>
+    <col min="14336" max="14336" width="10.90625" style="41" customWidth="1"/>
+    <col min="14337" max="14337" width="22.26953125" style="41" customWidth="1"/>
+    <col min="14338" max="14338" width="8.7265625" style="41"/>
+    <col min="14339" max="14339" width="17" style="41" customWidth="1"/>
+    <col min="14340" max="14340" width="13.90625" style="41" customWidth="1"/>
+    <col min="14341" max="14341" width="20.26953125" style="41" customWidth="1"/>
+    <col min="14342" max="14342" width="13.90625" style="41" customWidth="1"/>
+    <col min="14343" max="14343" width="8.7265625" style="41"/>
+    <col min="14344" max="14344" width="17.90625" style="41" customWidth="1"/>
+    <col min="14345" max="14345" width="8.7265625" style="41"/>
+    <col min="14346" max="14346" width="53.6328125" style="41" customWidth="1"/>
+    <col min="14347" max="14591" width="8.7265625" style="41"/>
+    <col min="14592" max="14592" width="10.90625" style="41" customWidth="1"/>
+    <col min="14593" max="14593" width="22.26953125" style="41" customWidth="1"/>
+    <col min="14594" max="14594" width="8.7265625" style="41"/>
+    <col min="14595" max="14595" width="17" style="41" customWidth="1"/>
+    <col min="14596" max="14596" width="13.90625" style="41" customWidth="1"/>
+    <col min="14597" max="14597" width="20.26953125" style="41" customWidth="1"/>
+    <col min="14598" max="14598" width="13.90625" style="41" customWidth="1"/>
+    <col min="14599" max="14599" width="8.7265625" style="41"/>
+    <col min="14600" max="14600" width="17.90625" style="41" customWidth="1"/>
+    <col min="14601" max="14601" width="8.7265625" style="41"/>
+    <col min="14602" max="14602" width="53.6328125" style="41" customWidth="1"/>
+    <col min="14603" max="14847" width="8.7265625" style="41"/>
+    <col min="14848" max="14848" width="10.90625" style="41" customWidth="1"/>
+    <col min="14849" max="14849" width="22.26953125" style="41" customWidth="1"/>
+    <col min="14850" max="14850" width="8.7265625" style="41"/>
+    <col min="14851" max="14851" width="17" style="41" customWidth="1"/>
+    <col min="14852" max="14852" width="13.90625" style="41" customWidth="1"/>
+    <col min="14853" max="14853" width="20.26953125" style="41" customWidth="1"/>
+    <col min="14854" max="14854" width="13.90625" style="41" customWidth="1"/>
+    <col min="14855" max="14855" width="8.7265625" style="41"/>
+    <col min="14856" max="14856" width="17.90625" style="41" customWidth="1"/>
+    <col min="14857" max="14857" width="8.7265625" style="41"/>
+    <col min="14858" max="14858" width="53.6328125" style="41" customWidth="1"/>
+    <col min="14859" max="15103" width="8.7265625" style="41"/>
+    <col min="15104" max="15104" width="10.90625" style="41" customWidth="1"/>
+    <col min="15105" max="15105" width="22.26953125" style="41" customWidth="1"/>
+    <col min="15106" max="15106" width="8.7265625" style="41"/>
+    <col min="15107" max="15107" width="17" style="41" customWidth="1"/>
+    <col min="15108" max="15108" width="13.90625" style="41" customWidth="1"/>
+    <col min="15109" max="15109" width="20.26953125" style="41" customWidth="1"/>
+    <col min="15110" max="15110" width="13.90625" style="41" customWidth="1"/>
+    <col min="15111" max="15111" width="8.7265625" style="41"/>
+    <col min="15112" max="15112" width="17.90625" style="41" customWidth="1"/>
+    <col min="15113" max="15113" width="8.7265625" style="41"/>
+    <col min="15114" max="15114" width="53.6328125" style="41" customWidth="1"/>
+    <col min="15115" max="15359" width="8.7265625" style="41"/>
+    <col min="15360" max="15360" width="10.90625" style="41" customWidth="1"/>
+    <col min="15361" max="15361" width="22.26953125" style="41" customWidth="1"/>
+    <col min="15362" max="15362" width="8.7265625" style="41"/>
+    <col min="15363" max="15363" width="17" style="41" customWidth="1"/>
+    <col min="15364" max="15364" width="13.90625" style="41" customWidth="1"/>
+    <col min="15365" max="15365" width="20.26953125" style="41" customWidth="1"/>
+    <col min="15366" max="15366" width="13.90625" style="41" customWidth="1"/>
+    <col min="15367" max="15367" width="8.7265625" style="41"/>
+    <col min="15368" max="15368" width="17.90625" style="41" customWidth="1"/>
+    <col min="15369" max="15369" width="8.7265625" style="41"/>
+    <col min="15370" max="15370" width="53.6328125" style="41" customWidth="1"/>
+    <col min="15371" max="15615" width="8.7265625" style="41"/>
+    <col min="15616" max="15616" width="10.90625" style="41" customWidth="1"/>
+    <col min="15617" max="15617" width="22.26953125" style="41" customWidth="1"/>
+    <col min="15618" max="15618" width="8.7265625" style="41"/>
+    <col min="15619" max="15619" width="17" style="41" customWidth="1"/>
+    <col min="15620" max="15620" width="13.90625" style="41" customWidth="1"/>
+    <col min="15621" max="15621" width="20.26953125" style="41" customWidth="1"/>
+    <col min="15622" max="15622" width="13.90625" style="41" customWidth="1"/>
+    <col min="15623" max="15623" width="8.7265625" style="41"/>
+    <col min="15624" max="15624" width="17.90625" style="41" customWidth="1"/>
+    <col min="15625" max="15625" width="8.7265625" style="41"/>
+    <col min="15626" max="15626" width="53.6328125" style="41" customWidth="1"/>
+    <col min="15627" max="15871" width="8.7265625" style="41"/>
+    <col min="15872" max="15872" width="10.90625" style="41" customWidth="1"/>
+    <col min="15873" max="15873" width="22.26953125" style="41" customWidth="1"/>
+    <col min="15874" max="15874" width="8.7265625" style="41"/>
+    <col min="15875" max="15875" width="17" style="41" customWidth="1"/>
+    <col min="15876" max="15876" width="13.90625" style="41" customWidth="1"/>
+    <col min="15877" max="15877" width="20.26953125" style="41" customWidth="1"/>
+    <col min="15878" max="15878" width="13.90625" style="41" customWidth="1"/>
+    <col min="15879" max="15879" width="8.7265625" style="41"/>
+    <col min="15880" max="15880" width="17.90625" style="41" customWidth="1"/>
+    <col min="15881" max="15881" width="8.7265625" style="41"/>
+    <col min="15882" max="15882" width="53.6328125" style="41" customWidth="1"/>
+    <col min="15883" max="16127" width="8.7265625" style="41"/>
+    <col min="16128" max="16128" width="10.90625" style="41" customWidth="1"/>
+    <col min="16129" max="16129" width="22.26953125" style="41" customWidth="1"/>
+    <col min="16130" max="16130" width="8.7265625" style="41"/>
+    <col min="16131" max="16131" width="17" style="41" customWidth="1"/>
+    <col min="16132" max="16132" width="13.90625" style="41" customWidth="1"/>
+    <col min="16133" max="16133" width="20.26953125" style="41" customWidth="1"/>
+    <col min="16134" max="16134" width="13.90625" style="41" customWidth="1"/>
+    <col min="16135" max="16135" width="8.7265625" style="41"/>
+    <col min="16136" max="16136" width="17.90625" style="41" customWidth="1"/>
+    <col min="16137" max="16137" width="8.7265625" style="41"/>
+    <col min="16138" max="16138" width="53.6328125" style="41" customWidth="1"/>
+    <col min="16139" max="16384" width="8.7265625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
@@ -10510,122 +10814,122 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="37" t="s">
         <v>1006</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="39" t="s">
         <v>993</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>987</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="40" t="s">
         <v>974</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>978</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="38" t="s">
         <v>985</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
         <v>1007</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="39" t="s">
         <v>993</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="39" t="s">
         <v>988</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="40" t="s">
         <v>974</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="38" t="s">
         <v>978</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="38" t="s">
         <v>986</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="38" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="37" t="s">
         <v>1008</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="39" t="s">
         <v>994</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="39" t="s">
         <v>987</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="40" t="s">
         <v>974</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="38" t="s">
         <v>978</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="38" t="s">
         <v>985</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="38" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="37" t="s">
         <v>1009</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="39" t="s">
         <v>994</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="39" t="s">
         <v>988</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="40" t="s">
         <v>974</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="38" t="s">
         <v>978</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="38" t="s">
         <v>986</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="38" t="s">
         <v>996</v>
       </c>
     </row>
@@ -10641,7 +10945,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10924,11 +11228,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>992</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82BC453-615B-49C3-ADD4-473B1344DB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BF6498-66F2-48F6-8F32-3725C38906E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="360" windowWidth="16590" windowHeight="8590" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="1050" windowWidth="16590" windowHeight="8590" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -3488,7 +3488,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3611,20 +3611,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3634,6 +3622,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3929,10 +3926,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>973</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -9830,32 +9827,32 @@
       <c r="A2" s="36" t="s">
         <v>1010</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="37" t="s">
         <v>979</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>1011</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>1012</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>1010</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="37" t="s">
         <v>979</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="44" t="s">
         <v>1013</v>
       </c>
       <c r="F3" s="37" t="s">
@@ -9870,10 +9867,10 @@
       <c r="A4" s="36" t="s">
         <v>1014</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="42" t="s">
         <v>324</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -9900,10 +9897,10 @@
       <c r="A5" s="36" t="s">
         <v>1014</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="42" t="s">
         <v>324</v>
       </c>
       <c r="D5" s="37" t="s">
@@ -9945,14 +9942,14 @@
       <c r="F6" s="37" t="s">
         <v>1023</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="44" t="s">
         <v>978</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="44" t="s">
         <v>1024</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="45" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -11228,11 +11225,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>992</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82BC453-615B-49C3-ADD4-473B1344DB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EEA6D9-A6BE-4013-8823-029918143733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="360" windowWidth="16590" windowHeight="8590" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="17790" windowHeight="8850" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1064">
   <si>
     <t>Code</t>
   </si>
@@ -3242,12 +3242,585 @@
   <si>
     <t>An alternative symbol or combination of symbols which is assigned to the members of a collection.</t>
   </si>
+  <si>
+    <t>InvestigationalInterventions</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>The condition, disease or disorder that the clinical trial is intended to investigate or address.</t>
+  </si>
+  <si>
+    <t>StudyDesignPopulation</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>StudyArm</t>
+  </si>
+  <si>
+    <t>The textual representation of the study arm.</t>
+  </si>
+  <si>
+    <t>StudyEpoch</t>
+  </si>
+  <si>
+    <t>StudyElement</t>
+  </si>
+  <si>
+    <t>TransitionRule</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>StudyData</t>
+  </si>
+  <si>
+    <t>WorkflowItem</t>
+  </si>
+  <si>
+    <t>AnalysisPopulation</t>
+  </si>
+  <si>
+    <t>IntercurrentEvent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyDesignDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyDesignDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>interventionDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>interventionDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>indicationDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>indicationDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>populationDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>populationDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>objectiveDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>objectiveDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>endpointDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>endpointDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>endpointPurposeDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>endpointPurposeDesciption</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyArmDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyArmDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyArmDataOriginDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyArmDataOriginDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyEpochDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyEpochDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyElementDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyElementDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>transitionRuleDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>transitionRuleDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>encounterDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>encounterDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activityDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activityDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyDataDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyDataDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowItemDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowItemDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>intercurrentEventDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>intercurrentEventDescription</t>
+    </r>
+  </si>
+  <si>
+    <t>Update Attribute Name in USDM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3335,8 +3908,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3388,6 +3967,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3488,7 +4073,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3611,6 +4196,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3620,20 +4217,14 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3929,10 +4520,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>973</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -9830,32 +10421,32 @@
       <c r="A2" s="36" t="s">
         <v>1010</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="37" t="s">
         <v>979</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>1011</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>1012</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>1010</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="37" t="s">
         <v>979</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="44" t="s">
         <v>1013</v>
       </c>
       <c r="F3" s="37" t="s">
@@ -9870,10 +10461,10 @@
       <c r="A4" s="36" t="s">
         <v>1014</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="42" t="s">
         <v>324</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -9900,10 +10491,10 @@
       <c r="A5" s="36" t="s">
         <v>1014</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="42" t="s">
         <v>324</v>
       </c>
       <c r="D5" s="37" t="s">
@@ -9945,14 +10536,14 @@
       <c r="F6" s="37" t="s">
         <v>1023</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="44" t="s">
         <v>978</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="44" t="s">
         <v>1024</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="45" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -10006,9 +10597,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10933,8 +11524,503 @@
         <v>996</v>
       </c>
     </row>
+    <row r="6" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="37" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="35" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="50" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="35" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="35" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="35" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="35" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="35" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="35" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="50" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="35" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="35" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="35" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="35" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="35" t="s">
+        <v>993</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="35" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="35"/>
+      <c r="J19" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="35" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="35" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="35" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="35" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11228,11 +12314,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>992</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EEA6D9-A6BE-4013-8823-029918143733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2873ABE-C3E5-4247-9C6B-C4BF20A99EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="17790" windowHeight="8850" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="470" windowWidth="18430" windowHeight="7600" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -4208,6 +4208,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4216,15 +4225,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4520,10 +4520,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>973</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="50"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -10362,9 +10362,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60F93F-DDE7-4577-BCA7-BDCFD0F8A197}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -10594,9 +10591,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8CB9F-21CB-4CA7-BF40-DA6BB340EB8E}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
@@ -11533,7 +11527,7 @@
       <c r="D6" s="35" t="s">
         <v>979</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="46" t="s">
         <v>1045</v>
       </c>
       <c r="F6" s="35" t="s">
@@ -11545,7 +11539,7 @@
       <c r="H6" s="37" t="s">
         <v>1019</v>
       </c>
-      <c r="I6" s="50"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="37" t="s">
         <v>1020</v>
       </c>
@@ -11559,7 +11553,7 @@
       <c r="D7" s="35" t="s">
         <v>1029</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="46" t="s">
         <v>1046</v>
       </c>
       <c r="F7" s="35" t="s">
@@ -11585,7 +11579,7 @@
       <c r="D8" s="35" t="s">
         <v>1030</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="46" t="s">
         <v>1047</v>
       </c>
       <c r="F8" s="35" t="s">
@@ -11611,7 +11605,7 @@
       <c r="D9" s="35" t="s">
         <v>1032</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="46" t="s">
         <v>1048</v>
       </c>
       <c r="F9" s="35" t="s">
@@ -11637,7 +11631,7 @@
       <c r="D10" s="35" t="s">
         <v>1033</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="46" t="s">
         <v>1049</v>
       </c>
       <c r="F10" s="35" t="s">
@@ -11663,7 +11657,7 @@
       <c r="D11" s="35" t="s">
         <v>1034</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="48" t="s">
         <v>1050</v>
       </c>
       <c r="F11" s="35" t="s">
@@ -11689,7 +11683,7 @@
       <c r="D12" s="35" t="s">
         <v>1034</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="46" t="s">
         <v>1051</v>
       </c>
       <c r="F12" s="35" t="s">
@@ -11715,7 +11709,7 @@
       <c r="D13" s="35" t="s">
         <v>1035</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="46" t="s">
         <v>1052</v>
       </c>
       <c r="F13" s="35" t="s">
@@ -11741,7 +11735,7 @@
       <c r="D14" s="35" t="s">
         <v>1035</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="46" t="s">
         <v>1053</v>
       </c>
       <c r="F14" s="35" t="s">
@@ -11767,7 +11761,7 @@
       <c r="D15" s="35" t="s">
         <v>1037</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="46" t="s">
         <v>1054</v>
       </c>
       <c r="F15" s="35" t="s">
@@ -11793,7 +11787,7 @@
       <c r="D16" s="35" t="s">
         <v>1038</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="46" t="s">
         <v>1055</v>
       </c>
       <c r="F16" s="35" t="s">
@@ -11819,7 +11813,7 @@
       <c r="D17" s="35" t="s">
         <v>1039</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="46" t="s">
         <v>1056</v>
       </c>
       <c r="F17" s="35" t="s">
@@ -11845,7 +11839,7 @@
       <c r="D18" s="35" t="s">
         <v>993</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="46" t="s">
         <v>1057</v>
       </c>
       <c r="F18" s="35" t="s">
@@ -11871,7 +11865,7 @@
       <c r="D19" s="35" t="s">
         <v>1040</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="46" t="s">
         <v>1058</v>
       </c>
       <c r="F19" s="35" t="s">
@@ -11897,7 +11891,7 @@
       <c r="D20" s="35" t="s">
         <v>1041</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="46" t="s">
         <v>1059</v>
       </c>
       <c r="F20" s="35" t="s">
@@ -11923,7 +11917,7 @@
       <c r="D21" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="46" t="s">
         <v>1060</v>
       </c>
       <c r="F21" s="35" t="s">
@@ -11949,7 +11943,7 @@
       <c r="D22" s="35" t="s">
         <v>1042</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="48" t="s">
         <v>1061</v>
       </c>
       <c r="F22" s="35" t="s">
@@ -11975,7 +11969,7 @@
       <c r="D23" s="35" t="s">
         <v>1043</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="46" t="s">
         <v>1048</v>
       </c>
       <c r="F23" s="35" t="s">
@@ -12001,7 +11995,7 @@
       <c r="D24" s="35" t="s">
         <v>1044</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="46" t="s">
         <v>1062</v>
       </c>
       <c r="F24" s="35" t="s">
@@ -12314,11 +12308,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>992</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2873ABE-C3E5-4247-9C6B-C4BF20A99EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AB4C29-16E1-4838-B13F-AFCF317964AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="470" windowWidth="18430" windowHeight="7600" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="1230" windowWidth="18430" windowHeight="7600" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
     <sheet name="DDF Terminology 2022-09-30" sheetId="1" r:id="rId2"/>
-    <sheet name="Terminology Changes Sp2 - new" sheetId="6" r:id="rId3"/>
-    <sheet name="Terminology Changes Sp2 - chg" sheetId="5" r:id="rId4"/>
-    <sheet name="Terminology Changes Sp1 - new" sheetId="3" r:id="rId5"/>
-    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId6"/>
+    <sheet name="Terminology Changes Sp3 - new" sheetId="8" r:id="rId3"/>
+    <sheet name="Terminology Changes Sp3 - chg" sheetId="7" r:id="rId4"/>
+    <sheet name="Terminology Changes Sp2 - new" sheetId="6" r:id="rId5"/>
+    <sheet name="Terminology Changes Sp2 - chg" sheetId="5" r:id="rId6"/>
+    <sheet name="Terminology Changes Sp1 - new" sheetId="3" r:id="rId7"/>
+    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF Terminology 2022-09-30'!$A$1:$H$255</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1078">
   <si>
     <t>Code</t>
   </si>
@@ -3814,6 +3816,152 @@
   </si>
   <si>
     <t>Update Attribute Name in USDM</t>
+  </si>
+  <si>
+    <t>Update Attribute Name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>encounterContactMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>encounterContactModes</t>
+    </r>
+  </si>
+  <si>
+    <t>Update Relationship Name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyIdentifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyIdentifiers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyProtocolVersion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyProtocolVersions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyDesign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyDesigns</t>
+    </r>
+  </si>
+  <si>
+    <t>Add new Attribute to Activity Class</t>
+  </si>
+  <si>
+    <t>activityIsOptional</t>
+  </si>
+  <si>
+    <t>Study Activity is Optional</t>
+  </si>
+  <si>
+    <t>An indication as to whether the study activity is available to be performed but is not obligatory.</t>
+  </si>
+  <si>
+    <t>Add new Attribute to Procedure Class</t>
+  </si>
+  <si>
+    <t>procedureIsOptional</t>
+  </si>
+  <si>
+    <t>Study Procedure is Optional</t>
+  </si>
+  <si>
+    <t>An indication as to whether the study procedure is available to be performed but is not obligatory.</t>
   </si>
 </sst>
 </file>
@@ -3915,7 +4063,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3973,6 +4121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4073,7 +4227,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4225,6 +4379,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10361,10 +10518,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60F93F-DDE7-4577-BCA7-BDCFD0F8A197}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388C2AD6-B218-4E22-9152-9FF923DE673A}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10414,175 +10577,65 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+        <v>1070</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="D2" s="37" t="s">
-        <v>979</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>1011</v>
+        <v>1040</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>1071</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-    </row>
-    <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="37" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+        <v>1074</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>278</v>
+      </c>
       <c r="D3" s="37" t="s">
-        <v>979</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>1013</v>
+        <v>154</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>1075</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+        <v>974</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>1076</v>
+      </c>
       <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>979</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>974</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>978</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>979</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>974</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>978</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="37" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>978</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="J3" s="37" t="s">
+        <v>1077</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10590,10 +10643,1149 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A8CE6A-08F8-4094-B8C4-805F6E207B55}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="41"/>
+    <col min="3" max="3" width="17" style="41" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="41"/>
+    <col min="8" max="8" width="17.90625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="41"/>
+    <col min="10" max="10" width="53.6328125" style="41" customWidth="1"/>
+    <col min="11" max="255" width="8.7265625" style="41"/>
+    <col min="256" max="256" width="10.90625" style="41" customWidth="1"/>
+    <col min="257" max="257" width="22.26953125" style="41" customWidth="1"/>
+    <col min="258" max="258" width="8.7265625" style="41"/>
+    <col min="259" max="259" width="17" style="41" customWidth="1"/>
+    <col min="260" max="260" width="13.90625" style="41" customWidth="1"/>
+    <col min="261" max="261" width="20.26953125" style="41" customWidth="1"/>
+    <col min="262" max="262" width="13.90625" style="41" customWidth="1"/>
+    <col min="263" max="263" width="8.7265625" style="41"/>
+    <col min="264" max="264" width="17.90625" style="41" customWidth="1"/>
+    <col min="265" max="265" width="8.7265625" style="41"/>
+    <col min="266" max="266" width="53.6328125" style="41" customWidth="1"/>
+    <col min="267" max="511" width="8.7265625" style="41"/>
+    <col min="512" max="512" width="10.90625" style="41" customWidth="1"/>
+    <col min="513" max="513" width="22.26953125" style="41" customWidth="1"/>
+    <col min="514" max="514" width="8.7265625" style="41"/>
+    <col min="515" max="515" width="17" style="41" customWidth="1"/>
+    <col min="516" max="516" width="13.90625" style="41" customWidth="1"/>
+    <col min="517" max="517" width="20.26953125" style="41" customWidth="1"/>
+    <col min="518" max="518" width="13.90625" style="41" customWidth="1"/>
+    <col min="519" max="519" width="8.7265625" style="41"/>
+    <col min="520" max="520" width="17.90625" style="41" customWidth="1"/>
+    <col min="521" max="521" width="8.7265625" style="41"/>
+    <col min="522" max="522" width="53.6328125" style="41" customWidth="1"/>
+    <col min="523" max="767" width="8.7265625" style="41"/>
+    <col min="768" max="768" width="10.90625" style="41" customWidth="1"/>
+    <col min="769" max="769" width="22.26953125" style="41" customWidth="1"/>
+    <col min="770" max="770" width="8.7265625" style="41"/>
+    <col min="771" max="771" width="17" style="41" customWidth="1"/>
+    <col min="772" max="772" width="13.90625" style="41" customWidth="1"/>
+    <col min="773" max="773" width="20.26953125" style="41" customWidth="1"/>
+    <col min="774" max="774" width="13.90625" style="41" customWidth="1"/>
+    <col min="775" max="775" width="8.7265625" style="41"/>
+    <col min="776" max="776" width="17.90625" style="41" customWidth="1"/>
+    <col min="777" max="777" width="8.7265625" style="41"/>
+    <col min="778" max="778" width="53.6328125" style="41" customWidth="1"/>
+    <col min="779" max="1023" width="8.7265625" style="41"/>
+    <col min="1024" max="1024" width="10.90625" style="41" customWidth="1"/>
+    <col min="1025" max="1025" width="22.26953125" style="41" customWidth="1"/>
+    <col min="1026" max="1026" width="8.7265625" style="41"/>
+    <col min="1027" max="1027" width="17" style="41" customWidth="1"/>
+    <col min="1028" max="1028" width="13.90625" style="41" customWidth="1"/>
+    <col min="1029" max="1029" width="20.26953125" style="41" customWidth="1"/>
+    <col min="1030" max="1030" width="13.90625" style="41" customWidth="1"/>
+    <col min="1031" max="1031" width="8.7265625" style="41"/>
+    <col min="1032" max="1032" width="17.90625" style="41" customWidth="1"/>
+    <col min="1033" max="1033" width="8.7265625" style="41"/>
+    <col min="1034" max="1034" width="53.6328125" style="41" customWidth="1"/>
+    <col min="1035" max="1279" width="8.7265625" style="41"/>
+    <col min="1280" max="1280" width="10.90625" style="41" customWidth="1"/>
+    <col min="1281" max="1281" width="22.26953125" style="41" customWidth="1"/>
+    <col min="1282" max="1282" width="8.7265625" style="41"/>
+    <col min="1283" max="1283" width="17" style="41" customWidth="1"/>
+    <col min="1284" max="1284" width="13.90625" style="41" customWidth="1"/>
+    <col min="1285" max="1285" width="20.26953125" style="41" customWidth="1"/>
+    <col min="1286" max="1286" width="13.90625" style="41" customWidth="1"/>
+    <col min="1287" max="1287" width="8.7265625" style="41"/>
+    <col min="1288" max="1288" width="17.90625" style="41" customWidth="1"/>
+    <col min="1289" max="1289" width="8.7265625" style="41"/>
+    <col min="1290" max="1290" width="53.6328125" style="41" customWidth="1"/>
+    <col min="1291" max="1535" width="8.7265625" style="41"/>
+    <col min="1536" max="1536" width="10.90625" style="41" customWidth="1"/>
+    <col min="1537" max="1537" width="22.26953125" style="41" customWidth="1"/>
+    <col min="1538" max="1538" width="8.7265625" style="41"/>
+    <col min="1539" max="1539" width="17" style="41" customWidth="1"/>
+    <col min="1540" max="1540" width="13.90625" style="41" customWidth="1"/>
+    <col min="1541" max="1541" width="20.26953125" style="41" customWidth="1"/>
+    <col min="1542" max="1542" width="13.90625" style="41" customWidth="1"/>
+    <col min="1543" max="1543" width="8.7265625" style="41"/>
+    <col min="1544" max="1544" width="17.90625" style="41" customWidth="1"/>
+    <col min="1545" max="1545" width="8.7265625" style="41"/>
+    <col min="1546" max="1546" width="53.6328125" style="41" customWidth="1"/>
+    <col min="1547" max="1791" width="8.7265625" style="41"/>
+    <col min="1792" max="1792" width="10.90625" style="41" customWidth="1"/>
+    <col min="1793" max="1793" width="22.26953125" style="41" customWidth="1"/>
+    <col min="1794" max="1794" width="8.7265625" style="41"/>
+    <col min="1795" max="1795" width="17" style="41" customWidth="1"/>
+    <col min="1796" max="1796" width="13.90625" style="41" customWidth="1"/>
+    <col min="1797" max="1797" width="20.26953125" style="41" customWidth="1"/>
+    <col min="1798" max="1798" width="13.90625" style="41" customWidth="1"/>
+    <col min="1799" max="1799" width="8.7265625" style="41"/>
+    <col min="1800" max="1800" width="17.90625" style="41" customWidth="1"/>
+    <col min="1801" max="1801" width="8.7265625" style="41"/>
+    <col min="1802" max="1802" width="53.6328125" style="41" customWidth="1"/>
+    <col min="1803" max="2047" width="8.7265625" style="41"/>
+    <col min="2048" max="2048" width="10.90625" style="41" customWidth="1"/>
+    <col min="2049" max="2049" width="22.26953125" style="41" customWidth="1"/>
+    <col min="2050" max="2050" width="8.7265625" style="41"/>
+    <col min="2051" max="2051" width="17" style="41" customWidth="1"/>
+    <col min="2052" max="2052" width="13.90625" style="41" customWidth="1"/>
+    <col min="2053" max="2053" width="20.26953125" style="41" customWidth="1"/>
+    <col min="2054" max="2054" width="13.90625" style="41" customWidth="1"/>
+    <col min="2055" max="2055" width="8.7265625" style="41"/>
+    <col min="2056" max="2056" width="17.90625" style="41" customWidth="1"/>
+    <col min="2057" max="2057" width="8.7265625" style="41"/>
+    <col min="2058" max="2058" width="53.6328125" style="41" customWidth="1"/>
+    <col min="2059" max="2303" width="8.7265625" style="41"/>
+    <col min="2304" max="2304" width="10.90625" style="41" customWidth="1"/>
+    <col min="2305" max="2305" width="22.26953125" style="41" customWidth="1"/>
+    <col min="2306" max="2306" width="8.7265625" style="41"/>
+    <col min="2307" max="2307" width="17" style="41" customWidth="1"/>
+    <col min="2308" max="2308" width="13.90625" style="41" customWidth="1"/>
+    <col min="2309" max="2309" width="20.26953125" style="41" customWidth="1"/>
+    <col min="2310" max="2310" width="13.90625" style="41" customWidth="1"/>
+    <col min="2311" max="2311" width="8.7265625" style="41"/>
+    <col min="2312" max="2312" width="17.90625" style="41" customWidth="1"/>
+    <col min="2313" max="2313" width="8.7265625" style="41"/>
+    <col min="2314" max="2314" width="53.6328125" style="41" customWidth="1"/>
+    <col min="2315" max="2559" width="8.7265625" style="41"/>
+    <col min="2560" max="2560" width="10.90625" style="41" customWidth="1"/>
+    <col min="2561" max="2561" width="22.26953125" style="41" customWidth="1"/>
+    <col min="2562" max="2562" width="8.7265625" style="41"/>
+    <col min="2563" max="2563" width="17" style="41" customWidth="1"/>
+    <col min="2564" max="2564" width="13.90625" style="41" customWidth="1"/>
+    <col min="2565" max="2565" width="20.26953125" style="41" customWidth="1"/>
+    <col min="2566" max="2566" width="13.90625" style="41" customWidth="1"/>
+    <col min="2567" max="2567" width="8.7265625" style="41"/>
+    <col min="2568" max="2568" width="17.90625" style="41" customWidth="1"/>
+    <col min="2569" max="2569" width="8.7265625" style="41"/>
+    <col min="2570" max="2570" width="53.6328125" style="41" customWidth="1"/>
+    <col min="2571" max="2815" width="8.7265625" style="41"/>
+    <col min="2816" max="2816" width="10.90625" style="41" customWidth="1"/>
+    <col min="2817" max="2817" width="22.26953125" style="41" customWidth="1"/>
+    <col min="2818" max="2818" width="8.7265625" style="41"/>
+    <col min="2819" max="2819" width="17" style="41" customWidth="1"/>
+    <col min="2820" max="2820" width="13.90625" style="41" customWidth="1"/>
+    <col min="2821" max="2821" width="20.26953125" style="41" customWidth="1"/>
+    <col min="2822" max="2822" width="13.90625" style="41" customWidth="1"/>
+    <col min="2823" max="2823" width="8.7265625" style="41"/>
+    <col min="2824" max="2824" width="17.90625" style="41" customWidth="1"/>
+    <col min="2825" max="2825" width="8.7265625" style="41"/>
+    <col min="2826" max="2826" width="53.6328125" style="41" customWidth="1"/>
+    <col min="2827" max="3071" width="8.7265625" style="41"/>
+    <col min="3072" max="3072" width="10.90625" style="41" customWidth="1"/>
+    <col min="3073" max="3073" width="22.26953125" style="41" customWidth="1"/>
+    <col min="3074" max="3074" width="8.7265625" style="41"/>
+    <col min="3075" max="3075" width="17" style="41" customWidth="1"/>
+    <col min="3076" max="3076" width="13.90625" style="41" customWidth="1"/>
+    <col min="3077" max="3077" width="20.26953125" style="41" customWidth="1"/>
+    <col min="3078" max="3078" width="13.90625" style="41" customWidth="1"/>
+    <col min="3079" max="3079" width="8.7265625" style="41"/>
+    <col min="3080" max="3080" width="17.90625" style="41" customWidth="1"/>
+    <col min="3081" max="3081" width="8.7265625" style="41"/>
+    <col min="3082" max="3082" width="53.6328125" style="41" customWidth="1"/>
+    <col min="3083" max="3327" width="8.7265625" style="41"/>
+    <col min="3328" max="3328" width="10.90625" style="41" customWidth="1"/>
+    <col min="3329" max="3329" width="22.26953125" style="41" customWidth="1"/>
+    <col min="3330" max="3330" width="8.7265625" style="41"/>
+    <col min="3331" max="3331" width="17" style="41" customWidth="1"/>
+    <col min="3332" max="3332" width="13.90625" style="41" customWidth="1"/>
+    <col min="3333" max="3333" width="20.26953125" style="41" customWidth="1"/>
+    <col min="3334" max="3334" width="13.90625" style="41" customWidth="1"/>
+    <col min="3335" max="3335" width="8.7265625" style="41"/>
+    <col min="3336" max="3336" width="17.90625" style="41" customWidth="1"/>
+    <col min="3337" max="3337" width="8.7265625" style="41"/>
+    <col min="3338" max="3338" width="53.6328125" style="41" customWidth="1"/>
+    <col min="3339" max="3583" width="8.7265625" style="41"/>
+    <col min="3584" max="3584" width="10.90625" style="41" customWidth="1"/>
+    <col min="3585" max="3585" width="22.26953125" style="41" customWidth="1"/>
+    <col min="3586" max="3586" width="8.7265625" style="41"/>
+    <col min="3587" max="3587" width="17" style="41" customWidth="1"/>
+    <col min="3588" max="3588" width="13.90625" style="41" customWidth="1"/>
+    <col min="3589" max="3589" width="20.26953125" style="41" customWidth="1"/>
+    <col min="3590" max="3590" width="13.90625" style="41" customWidth="1"/>
+    <col min="3591" max="3591" width="8.7265625" style="41"/>
+    <col min="3592" max="3592" width="17.90625" style="41" customWidth="1"/>
+    <col min="3593" max="3593" width="8.7265625" style="41"/>
+    <col min="3594" max="3594" width="53.6328125" style="41" customWidth="1"/>
+    <col min="3595" max="3839" width="8.7265625" style="41"/>
+    <col min="3840" max="3840" width="10.90625" style="41" customWidth="1"/>
+    <col min="3841" max="3841" width="22.26953125" style="41" customWidth="1"/>
+    <col min="3842" max="3842" width="8.7265625" style="41"/>
+    <col min="3843" max="3843" width="17" style="41" customWidth="1"/>
+    <col min="3844" max="3844" width="13.90625" style="41" customWidth="1"/>
+    <col min="3845" max="3845" width="20.26953125" style="41" customWidth="1"/>
+    <col min="3846" max="3846" width="13.90625" style="41" customWidth="1"/>
+    <col min="3847" max="3847" width="8.7265625" style="41"/>
+    <col min="3848" max="3848" width="17.90625" style="41" customWidth="1"/>
+    <col min="3849" max="3849" width="8.7265625" style="41"/>
+    <col min="3850" max="3850" width="53.6328125" style="41" customWidth="1"/>
+    <col min="3851" max="4095" width="8.7265625" style="41"/>
+    <col min="4096" max="4096" width="10.90625" style="41" customWidth="1"/>
+    <col min="4097" max="4097" width="22.26953125" style="41" customWidth="1"/>
+    <col min="4098" max="4098" width="8.7265625" style="41"/>
+    <col min="4099" max="4099" width="17" style="41" customWidth="1"/>
+    <col min="4100" max="4100" width="13.90625" style="41" customWidth="1"/>
+    <col min="4101" max="4101" width="20.26953125" style="41" customWidth="1"/>
+    <col min="4102" max="4102" width="13.90625" style="41" customWidth="1"/>
+    <col min="4103" max="4103" width="8.7265625" style="41"/>
+    <col min="4104" max="4104" width="17.90625" style="41" customWidth="1"/>
+    <col min="4105" max="4105" width="8.7265625" style="41"/>
+    <col min="4106" max="4106" width="53.6328125" style="41" customWidth="1"/>
+    <col min="4107" max="4351" width="8.7265625" style="41"/>
+    <col min="4352" max="4352" width="10.90625" style="41" customWidth="1"/>
+    <col min="4353" max="4353" width="22.26953125" style="41" customWidth="1"/>
+    <col min="4354" max="4354" width="8.7265625" style="41"/>
+    <col min="4355" max="4355" width="17" style="41" customWidth="1"/>
+    <col min="4356" max="4356" width="13.90625" style="41" customWidth="1"/>
+    <col min="4357" max="4357" width="20.26953125" style="41" customWidth="1"/>
+    <col min="4358" max="4358" width="13.90625" style="41" customWidth="1"/>
+    <col min="4359" max="4359" width="8.7265625" style="41"/>
+    <col min="4360" max="4360" width="17.90625" style="41" customWidth="1"/>
+    <col min="4361" max="4361" width="8.7265625" style="41"/>
+    <col min="4362" max="4362" width="53.6328125" style="41" customWidth="1"/>
+    <col min="4363" max="4607" width="8.7265625" style="41"/>
+    <col min="4608" max="4608" width="10.90625" style="41" customWidth="1"/>
+    <col min="4609" max="4609" width="22.26953125" style="41" customWidth="1"/>
+    <col min="4610" max="4610" width="8.7265625" style="41"/>
+    <col min="4611" max="4611" width="17" style="41" customWidth="1"/>
+    <col min="4612" max="4612" width="13.90625" style="41" customWidth="1"/>
+    <col min="4613" max="4613" width="20.26953125" style="41" customWidth="1"/>
+    <col min="4614" max="4614" width="13.90625" style="41" customWidth="1"/>
+    <col min="4615" max="4615" width="8.7265625" style="41"/>
+    <col min="4616" max="4616" width="17.90625" style="41" customWidth="1"/>
+    <col min="4617" max="4617" width="8.7265625" style="41"/>
+    <col min="4618" max="4618" width="53.6328125" style="41" customWidth="1"/>
+    <col min="4619" max="4863" width="8.7265625" style="41"/>
+    <col min="4864" max="4864" width="10.90625" style="41" customWidth="1"/>
+    <col min="4865" max="4865" width="22.26953125" style="41" customWidth="1"/>
+    <col min="4866" max="4866" width="8.7265625" style="41"/>
+    <col min="4867" max="4867" width="17" style="41" customWidth="1"/>
+    <col min="4868" max="4868" width="13.90625" style="41" customWidth="1"/>
+    <col min="4869" max="4869" width="20.26953125" style="41" customWidth="1"/>
+    <col min="4870" max="4870" width="13.90625" style="41" customWidth="1"/>
+    <col min="4871" max="4871" width="8.7265625" style="41"/>
+    <col min="4872" max="4872" width="17.90625" style="41" customWidth="1"/>
+    <col min="4873" max="4873" width="8.7265625" style="41"/>
+    <col min="4874" max="4874" width="53.6328125" style="41" customWidth="1"/>
+    <col min="4875" max="5119" width="8.7265625" style="41"/>
+    <col min="5120" max="5120" width="10.90625" style="41" customWidth="1"/>
+    <col min="5121" max="5121" width="22.26953125" style="41" customWidth="1"/>
+    <col min="5122" max="5122" width="8.7265625" style="41"/>
+    <col min="5123" max="5123" width="17" style="41" customWidth="1"/>
+    <col min="5124" max="5124" width="13.90625" style="41" customWidth="1"/>
+    <col min="5125" max="5125" width="20.26953125" style="41" customWidth="1"/>
+    <col min="5126" max="5126" width="13.90625" style="41" customWidth="1"/>
+    <col min="5127" max="5127" width="8.7265625" style="41"/>
+    <col min="5128" max="5128" width="17.90625" style="41" customWidth="1"/>
+    <col min="5129" max="5129" width="8.7265625" style="41"/>
+    <col min="5130" max="5130" width="53.6328125" style="41" customWidth="1"/>
+    <col min="5131" max="5375" width="8.7265625" style="41"/>
+    <col min="5376" max="5376" width="10.90625" style="41" customWidth="1"/>
+    <col min="5377" max="5377" width="22.26953125" style="41" customWidth="1"/>
+    <col min="5378" max="5378" width="8.7265625" style="41"/>
+    <col min="5379" max="5379" width="17" style="41" customWidth="1"/>
+    <col min="5380" max="5380" width="13.90625" style="41" customWidth="1"/>
+    <col min="5381" max="5381" width="20.26953125" style="41" customWidth="1"/>
+    <col min="5382" max="5382" width="13.90625" style="41" customWidth="1"/>
+    <col min="5383" max="5383" width="8.7265625" style="41"/>
+    <col min="5384" max="5384" width="17.90625" style="41" customWidth="1"/>
+    <col min="5385" max="5385" width="8.7265625" style="41"/>
+    <col min="5386" max="5386" width="53.6328125" style="41" customWidth="1"/>
+    <col min="5387" max="5631" width="8.7265625" style="41"/>
+    <col min="5632" max="5632" width="10.90625" style="41" customWidth="1"/>
+    <col min="5633" max="5633" width="22.26953125" style="41" customWidth="1"/>
+    <col min="5634" max="5634" width="8.7265625" style="41"/>
+    <col min="5635" max="5635" width="17" style="41" customWidth="1"/>
+    <col min="5636" max="5636" width="13.90625" style="41" customWidth="1"/>
+    <col min="5637" max="5637" width="20.26953125" style="41" customWidth="1"/>
+    <col min="5638" max="5638" width="13.90625" style="41" customWidth="1"/>
+    <col min="5639" max="5639" width="8.7265625" style="41"/>
+    <col min="5640" max="5640" width="17.90625" style="41" customWidth="1"/>
+    <col min="5641" max="5641" width="8.7265625" style="41"/>
+    <col min="5642" max="5642" width="53.6328125" style="41" customWidth="1"/>
+    <col min="5643" max="5887" width="8.7265625" style="41"/>
+    <col min="5888" max="5888" width="10.90625" style="41" customWidth="1"/>
+    <col min="5889" max="5889" width="22.26953125" style="41" customWidth="1"/>
+    <col min="5890" max="5890" width="8.7265625" style="41"/>
+    <col min="5891" max="5891" width="17" style="41" customWidth="1"/>
+    <col min="5892" max="5892" width="13.90625" style="41" customWidth="1"/>
+    <col min="5893" max="5893" width="20.26953125" style="41" customWidth="1"/>
+    <col min="5894" max="5894" width="13.90625" style="41" customWidth="1"/>
+    <col min="5895" max="5895" width="8.7265625" style="41"/>
+    <col min="5896" max="5896" width="17.90625" style="41" customWidth="1"/>
+    <col min="5897" max="5897" width="8.7265625" style="41"/>
+    <col min="5898" max="5898" width="53.6328125" style="41" customWidth="1"/>
+    <col min="5899" max="6143" width="8.7265625" style="41"/>
+    <col min="6144" max="6144" width="10.90625" style="41" customWidth="1"/>
+    <col min="6145" max="6145" width="22.26953125" style="41" customWidth="1"/>
+    <col min="6146" max="6146" width="8.7265625" style="41"/>
+    <col min="6147" max="6147" width="17" style="41" customWidth="1"/>
+    <col min="6148" max="6148" width="13.90625" style="41" customWidth="1"/>
+    <col min="6149" max="6149" width="20.26953125" style="41" customWidth="1"/>
+    <col min="6150" max="6150" width="13.90625" style="41" customWidth="1"/>
+    <col min="6151" max="6151" width="8.7265625" style="41"/>
+    <col min="6152" max="6152" width="17.90625" style="41" customWidth="1"/>
+    <col min="6153" max="6153" width="8.7265625" style="41"/>
+    <col min="6154" max="6154" width="53.6328125" style="41" customWidth="1"/>
+    <col min="6155" max="6399" width="8.7265625" style="41"/>
+    <col min="6400" max="6400" width="10.90625" style="41" customWidth="1"/>
+    <col min="6401" max="6401" width="22.26953125" style="41" customWidth="1"/>
+    <col min="6402" max="6402" width="8.7265625" style="41"/>
+    <col min="6403" max="6403" width="17" style="41" customWidth="1"/>
+    <col min="6404" max="6404" width="13.90625" style="41" customWidth="1"/>
+    <col min="6405" max="6405" width="20.26953125" style="41" customWidth="1"/>
+    <col min="6406" max="6406" width="13.90625" style="41" customWidth="1"/>
+    <col min="6407" max="6407" width="8.7265625" style="41"/>
+    <col min="6408" max="6408" width="17.90625" style="41" customWidth="1"/>
+    <col min="6409" max="6409" width="8.7265625" style="41"/>
+    <col min="6410" max="6410" width="53.6328125" style="41" customWidth="1"/>
+    <col min="6411" max="6655" width="8.7265625" style="41"/>
+    <col min="6656" max="6656" width="10.90625" style="41" customWidth="1"/>
+    <col min="6657" max="6657" width="22.26953125" style="41" customWidth="1"/>
+    <col min="6658" max="6658" width="8.7265625" style="41"/>
+    <col min="6659" max="6659" width="17" style="41" customWidth="1"/>
+    <col min="6660" max="6660" width="13.90625" style="41" customWidth="1"/>
+    <col min="6661" max="6661" width="20.26953125" style="41" customWidth="1"/>
+    <col min="6662" max="6662" width="13.90625" style="41" customWidth="1"/>
+    <col min="6663" max="6663" width="8.7265625" style="41"/>
+    <col min="6664" max="6664" width="17.90625" style="41" customWidth="1"/>
+    <col min="6665" max="6665" width="8.7265625" style="41"/>
+    <col min="6666" max="6666" width="53.6328125" style="41" customWidth="1"/>
+    <col min="6667" max="6911" width="8.7265625" style="41"/>
+    <col min="6912" max="6912" width="10.90625" style="41" customWidth="1"/>
+    <col min="6913" max="6913" width="22.26953125" style="41" customWidth="1"/>
+    <col min="6914" max="6914" width="8.7265625" style="41"/>
+    <col min="6915" max="6915" width="17" style="41" customWidth="1"/>
+    <col min="6916" max="6916" width="13.90625" style="41" customWidth="1"/>
+    <col min="6917" max="6917" width="20.26953125" style="41" customWidth="1"/>
+    <col min="6918" max="6918" width="13.90625" style="41" customWidth="1"/>
+    <col min="6919" max="6919" width="8.7265625" style="41"/>
+    <col min="6920" max="6920" width="17.90625" style="41" customWidth="1"/>
+    <col min="6921" max="6921" width="8.7265625" style="41"/>
+    <col min="6922" max="6922" width="53.6328125" style="41" customWidth="1"/>
+    <col min="6923" max="7167" width="8.7265625" style="41"/>
+    <col min="7168" max="7168" width="10.90625" style="41" customWidth="1"/>
+    <col min="7169" max="7169" width="22.26953125" style="41" customWidth="1"/>
+    <col min="7170" max="7170" width="8.7265625" style="41"/>
+    <col min="7171" max="7171" width="17" style="41" customWidth="1"/>
+    <col min="7172" max="7172" width="13.90625" style="41" customWidth="1"/>
+    <col min="7173" max="7173" width="20.26953125" style="41" customWidth="1"/>
+    <col min="7174" max="7174" width="13.90625" style="41" customWidth="1"/>
+    <col min="7175" max="7175" width="8.7265625" style="41"/>
+    <col min="7176" max="7176" width="17.90625" style="41" customWidth="1"/>
+    <col min="7177" max="7177" width="8.7265625" style="41"/>
+    <col min="7178" max="7178" width="53.6328125" style="41" customWidth="1"/>
+    <col min="7179" max="7423" width="8.7265625" style="41"/>
+    <col min="7424" max="7424" width="10.90625" style="41" customWidth="1"/>
+    <col min="7425" max="7425" width="22.26953125" style="41" customWidth="1"/>
+    <col min="7426" max="7426" width="8.7265625" style="41"/>
+    <col min="7427" max="7427" width="17" style="41" customWidth="1"/>
+    <col min="7428" max="7428" width="13.90625" style="41" customWidth="1"/>
+    <col min="7429" max="7429" width="20.26953125" style="41" customWidth="1"/>
+    <col min="7430" max="7430" width="13.90625" style="41" customWidth="1"/>
+    <col min="7431" max="7431" width="8.7265625" style="41"/>
+    <col min="7432" max="7432" width="17.90625" style="41" customWidth="1"/>
+    <col min="7433" max="7433" width="8.7265625" style="41"/>
+    <col min="7434" max="7434" width="53.6328125" style="41" customWidth="1"/>
+    <col min="7435" max="7679" width="8.7265625" style="41"/>
+    <col min="7680" max="7680" width="10.90625" style="41" customWidth="1"/>
+    <col min="7681" max="7681" width="22.26953125" style="41" customWidth="1"/>
+    <col min="7682" max="7682" width="8.7265625" style="41"/>
+    <col min="7683" max="7683" width="17" style="41" customWidth="1"/>
+    <col min="7684" max="7684" width="13.90625" style="41" customWidth="1"/>
+    <col min="7685" max="7685" width="20.26953125" style="41" customWidth="1"/>
+    <col min="7686" max="7686" width="13.90625" style="41" customWidth="1"/>
+    <col min="7687" max="7687" width="8.7265625" style="41"/>
+    <col min="7688" max="7688" width="17.90625" style="41" customWidth="1"/>
+    <col min="7689" max="7689" width="8.7265625" style="41"/>
+    <col min="7690" max="7690" width="53.6328125" style="41" customWidth="1"/>
+    <col min="7691" max="7935" width="8.7265625" style="41"/>
+    <col min="7936" max="7936" width="10.90625" style="41" customWidth="1"/>
+    <col min="7937" max="7937" width="22.26953125" style="41" customWidth="1"/>
+    <col min="7938" max="7938" width="8.7265625" style="41"/>
+    <col min="7939" max="7939" width="17" style="41" customWidth="1"/>
+    <col min="7940" max="7940" width="13.90625" style="41" customWidth="1"/>
+    <col min="7941" max="7941" width="20.26953125" style="41" customWidth="1"/>
+    <col min="7942" max="7942" width="13.90625" style="41" customWidth="1"/>
+    <col min="7943" max="7943" width="8.7265625" style="41"/>
+    <col min="7944" max="7944" width="17.90625" style="41" customWidth="1"/>
+    <col min="7945" max="7945" width="8.7265625" style="41"/>
+    <col min="7946" max="7946" width="53.6328125" style="41" customWidth="1"/>
+    <col min="7947" max="8191" width="8.7265625" style="41"/>
+    <col min="8192" max="8192" width="10.90625" style="41" customWidth="1"/>
+    <col min="8193" max="8193" width="22.26953125" style="41" customWidth="1"/>
+    <col min="8194" max="8194" width="8.7265625" style="41"/>
+    <col min="8195" max="8195" width="17" style="41" customWidth="1"/>
+    <col min="8196" max="8196" width="13.90625" style="41" customWidth="1"/>
+    <col min="8197" max="8197" width="20.26953125" style="41" customWidth="1"/>
+    <col min="8198" max="8198" width="13.90625" style="41" customWidth="1"/>
+    <col min="8199" max="8199" width="8.7265625" style="41"/>
+    <col min="8200" max="8200" width="17.90625" style="41" customWidth="1"/>
+    <col min="8201" max="8201" width="8.7265625" style="41"/>
+    <col min="8202" max="8202" width="53.6328125" style="41" customWidth="1"/>
+    <col min="8203" max="8447" width="8.7265625" style="41"/>
+    <col min="8448" max="8448" width="10.90625" style="41" customWidth="1"/>
+    <col min="8449" max="8449" width="22.26953125" style="41" customWidth="1"/>
+    <col min="8450" max="8450" width="8.7265625" style="41"/>
+    <col min="8451" max="8451" width="17" style="41" customWidth="1"/>
+    <col min="8452" max="8452" width="13.90625" style="41" customWidth="1"/>
+    <col min="8453" max="8453" width="20.26953125" style="41" customWidth="1"/>
+    <col min="8454" max="8454" width="13.90625" style="41" customWidth="1"/>
+    <col min="8455" max="8455" width="8.7265625" style="41"/>
+    <col min="8456" max="8456" width="17.90625" style="41" customWidth="1"/>
+    <col min="8457" max="8457" width="8.7265625" style="41"/>
+    <col min="8458" max="8458" width="53.6328125" style="41" customWidth="1"/>
+    <col min="8459" max="8703" width="8.7265625" style="41"/>
+    <col min="8704" max="8704" width="10.90625" style="41" customWidth="1"/>
+    <col min="8705" max="8705" width="22.26953125" style="41" customWidth="1"/>
+    <col min="8706" max="8706" width="8.7265625" style="41"/>
+    <col min="8707" max="8707" width="17" style="41" customWidth="1"/>
+    <col min="8708" max="8708" width="13.90625" style="41" customWidth="1"/>
+    <col min="8709" max="8709" width="20.26953125" style="41" customWidth="1"/>
+    <col min="8710" max="8710" width="13.90625" style="41" customWidth="1"/>
+    <col min="8711" max="8711" width="8.7265625" style="41"/>
+    <col min="8712" max="8712" width="17.90625" style="41" customWidth="1"/>
+    <col min="8713" max="8713" width="8.7265625" style="41"/>
+    <col min="8714" max="8714" width="53.6328125" style="41" customWidth="1"/>
+    <col min="8715" max="8959" width="8.7265625" style="41"/>
+    <col min="8960" max="8960" width="10.90625" style="41" customWidth="1"/>
+    <col min="8961" max="8961" width="22.26953125" style="41" customWidth="1"/>
+    <col min="8962" max="8962" width="8.7265625" style="41"/>
+    <col min="8963" max="8963" width="17" style="41" customWidth="1"/>
+    <col min="8964" max="8964" width="13.90625" style="41" customWidth="1"/>
+    <col min="8965" max="8965" width="20.26953125" style="41" customWidth="1"/>
+    <col min="8966" max="8966" width="13.90625" style="41" customWidth="1"/>
+    <col min="8967" max="8967" width="8.7265625" style="41"/>
+    <col min="8968" max="8968" width="17.90625" style="41" customWidth="1"/>
+    <col min="8969" max="8969" width="8.7265625" style="41"/>
+    <col min="8970" max="8970" width="53.6328125" style="41" customWidth="1"/>
+    <col min="8971" max="9215" width="8.7265625" style="41"/>
+    <col min="9216" max="9216" width="10.90625" style="41" customWidth="1"/>
+    <col min="9217" max="9217" width="22.26953125" style="41" customWidth="1"/>
+    <col min="9218" max="9218" width="8.7265625" style="41"/>
+    <col min="9219" max="9219" width="17" style="41" customWidth="1"/>
+    <col min="9220" max="9220" width="13.90625" style="41" customWidth="1"/>
+    <col min="9221" max="9221" width="20.26953125" style="41" customWidth="1"/>
+    <col min="9222" max="9222" width="13.90625" style="41" customWidth="1"/>
+    <col min="9223" max="9223" width="8.7265625" style="41"/>
+    <col min="9224" max="9224" width="17.90625" style="41" customWidth="1"/>
+    <col min="9225" max="9225" width="8.7265625" style="41"/>
+    <col min="9226" max="9226" width="53.6328125" style="41" customWidth="1"/>
+    <col min="9227" max="9471" width="8.7265625" style="41"/>
+    <col min="9472" max="9472" width="10.90625" style="41" customWidth="1"/>
+    <col min="9473" max="9473" width="22.26953125" style="41" customWidth="1"/>
+    <col min="9474" max="9474" width="8.7265625" style="41"/>
+    <col min="9475" max="9475" width="17" style="41" customWidth="1"/>
+    <col min="9476" max="9476" width="13.90625" style="41" customWidth="1"/>
+    <col min="9477" max="9477" width="20.26953125" style="41" customWidth="1"/>
+    <col min="9478" max="9478" width="13.90625" style="41" customWidth="1"/>
+    <col min="9479" max="9479" width="8.7265625" style="41"/>
+    <col min="9480" max="9480" width="17.90625" style="41" customWidth="1"/>
+    <col min="9481" max="9481" width="8.7265625" style="41"/>
+    <col min="9482" max="9482" width="53.6328125" style="41" customWidth="1"/>
+    <col min="9483" max="9727" width="8.7265625" style="41"/>
+    <col min="9728" max="9728" width="10.90625" style="41" customWidth="1"/>
+    <col min="9729" max="9729" width="22.26953125" style="41" customWidth="1"/>
+    <col min="9730" max="9730" width="8.7265625" style="41"/>
+    <col min="9731" max="9731" width="17" style="41" customWidth="1"/>
+    <col min="9732" max="9732" width="13.90625" style="41" customWidth="1"/>
+    <col min="9733" max="9733" width="20.26953125" style="41" customWidth="1"/>
+    <col min="9734" max="9734" width="13.90625" style="41" customWidth="1"/>
+    <col min="9735" max="9735" width="8.7265625" style="41"/>
+    <col min="9736" max="9736" width="17.90625" style="41" customWidth="1"/>
+    <col min="9737" max="9737" width="8.7265625" style="41"/>
+    <col min="9738" max="9738" width="53.6328125" style="41" customWidth="1"/>
+    <col min="9739" max="9983" width="8.7265625" style="41"/>
+    <col min="9984" max="9984" width="10.90625" style="41" customWidth="1"/>
+    <col min="9985" max="9985" width="22.26953125" style="41" customWidth="1"/>
+    <col min="9986" max="9986" width="8.7265625" style="41"/>
+    <col min="9987" max="9987" width="17" style="41" customWidth="1"/>
+    <col min="9988" max="9988" width="13.90625" style="41" customWidth="1"/>
+    <col min="9989" max="9989" width="20.26953125" style="41" customWidth="1"/>
+    <col min="9990" max="9990" width="13.90625" style="41" customWidth="1"/>
+    <col min="9991" max="9991" width="8.7265625" style="41"/>
+    <col min="9992" max="9992" width="17.90625" style="41" customWidth="1"/>
+    <col min="9993" max="9993" width="8.7265625" style="41"/>
+    <col min="9994" max="9994" width="53.6328125" style="41" customWidth="1"/>
+    <col min="9995" max="10239" width="8.7265625" style="41"/>
+    <col min="10240" max="10240" width="10.90625" style="41" customWidth="1"/>
+    <col min="10241" max="10241" width="22.26953125" style="41" customWidth="1"/>
+    <col min="10242" max="10242" width="8.7265625" style="41"/>
+    <col min="10243" max="10243" width="17" style="41" customWidth="1"/>
+    <col min="10244" max="10244" width="13.90625" style="41" customWidth="1"/>
+    <col min="10245" max="10245" width="20.26953125" style="41" customWidth="1"/>
+    <col min="10246" max="10246" width="13.90625" style="41" customWidth="1"/>
+    <col min="10247" max="10247" width="8.7265625" style="41"/>
+    <col min="10248" max="10248" width="17.90625" style="41" customWidth="1"/>
+    <col min="10249" max="10249" width="8.7265625" style="41"/>
+    <col min="10250" max="10250" width="53.6328125" style="41" customWidth="1"/>
+    <col min="10251" max="10495" width="8.7265625" style="41"/>
+    <col min="10496" max="10496" width="10.90625" style="41" customWidth="1"/>
+    <col min="10497" max="10497" width="22.26953125" style="41" customWidth="1"/>
+    <col min="10498" max="10498" width="8.7265625" style="41"/>
+    <col min="10499" max="10499" width="17" style="41" customWidth="1"/>
+    <col min="10500" max="10500" width="13.90625" style="41" customWidth="1"/>
+    <col min="10501" max="10501" width="20.26953125" style="41" customWidth="1"/>
+    <col min="10502" max="10502" width="13.90625" style="41" customWidth="1"/>
+    <col min="10503" max="10503" width="8.7265625" style="41"/>
+    <col min="10504" max="10504" width="17.90625" style="41" customWidth="1"/>
+    <col min="10505" max="10505" width="8.7265625" style="41"/>
+    <col min="10506" max="10506" width="53.6328125" style="41" customWidth="1"/>
+    <col min="10507" max="10751" width="8.7265625" style="41"/>
+    <col min="10752" max="10752" width="10.90625" style="41" customWidth="1"/>
+    <col min="10753" max="10753" width="22.26953125" style="41" customWidth="1"/>
+    <col min="10754" max="10754" width="8.7265625" style="41"/>
+    <col min="10755" max="10755" width="17" style="41" customWidth="1"/>
+    <col min="10756" max="10756" width="13.90625" style="41" customWidth="1"/>
+    <col min="10757" max="10757" width="20.26953125" style="41" customWidth="1"/>
+    <col min="10758" max="10758" width="13.90625" style="41" customWidth="1"/>
+    <col min="10759" max="10759" width="8.7265625" style="41"/>
+    <col min="10760" max="10760" width="17.90625" style="41" customWidth="1"/>
+    <col min="10761" max="10761" width="8.7265625" style="41"/>
+    <col min="10762" max="10762" width="53.6328125" style="41" customWidth="1"/>
+    <col min="10763" max="11007" width="8.7265625" style="41"/>
+    <col min="11008" max="11008" width="10.90625" style="41" customWidth="1"/>
+    <col min="11009" max="11009" width="22.26953125" style="41" customWidth="1"/>
+    <col min="11010" max="11010" width="8.7265625" style="41"/>
+    <col min="11011" max="11011" width="17" style="41" customWidth="1"/>
+    <col min="11012" max="11012" width="13.90625" style="41" customWidth="1"/>
+    <col min="11013" max="11013" width="20.26953125" style="41" customWidth="1"/>
+    <col min="11014" max="11014" width="13.90625" style="41" customWidth="1"/>
+    <col min="11015" max="11015" width="8.7265625" style="41"/>
+    <col min="11016" max="11016" width="17.90625" style="41" customWidth="1"/>
+    <col min="11017" max="11017" width="8.7265625" style="41"/>
+    <col min="11018" max="11018" width="53.6328125" style="41" customWidth="1"/>
+    <col min="11019" max="11263" width="8.7265625" style="41"/>
+    <col min="11264" max="11264" width="10.90625" style="41" customWidth="1"/>
+    <col min="11265" max="11265" width="22.26953125" style="41" customWidth="1"/>
+    <col min="11266" max="11266" width="8.7265625" style="41"/>
+    <col min="11267" max="11267" width="17" style="41" customWidth="1"/>
+    <col min="11268" max="11268" width="13.90625" style="41" customWidth="1"/>
+    <col min="11269" max="11269" width="20.26953125" style="41" customWidth="1"/>
+    <col min="11270" max="11270" width="13.90625" style="41" customWidth="1"/>
+    <col min="11271" max="11271" width="8.7265625" style="41"/>
+    <col min="11272" max="11272" width="17.90625" style="41" customWidth="1"/>
+    <col min="11273" max="11273" width="8.7265625" style="41"/>
+    <col min="11274" max="11274" width="53.6328125" style="41" customWidth="1"/>
+    <col min="11275" max="11519" width="8.7265625" style="41"/>
+    <col min="11520" max="11520" width="10.90625" style="41" customWidth="1"/>
+    <col min="11521" max="11521" width="22.26953125" style="41" customWidth="1"/>
+    <col min="11522" max="11522" width="8.7265625" style="41"/>
+    <col min="11523" max="11523" width="17" style="41" customWidth="1"/>
+    <col min="11524" max="11524" width="13.90625" style="41" customWidth="1"/>
+    <col min="11525" max="11525" width="20.26953125" style="41" customWidth="1"/>
+    <col min="11526" max="11526" width="13.90625" style="41" customWidth="1"/>
+    <col min="11527" max="11527" width="8.7265625" style="41"/>
+    <col min="11528" max="11528" width="17.90625" style="41" customWidth="1"/>
+    <col min="11529" max="11529" width="8.7265625" style="41"/>
+    <col min="11530" max="11530" width="53.6328125" style="41" customWidth="1"/>
+    <col min="11531" max="11775" width="8.7265625" style="41"/>
+    <col min="11776" max="11776" width="10.90625" style="41" customWidth="1"/>
+    <col min="11777" max="11777" width="22.26953125" style="41" customWidth="1"/>
+    <col min="11778" max="11778" width="8.7265625" style="41"/>
+    <col min="11779" max="11779" width="17" style="41" customWidth="1"/>
+    <col min="11780" max="11780" width="13.90625" style="41" customWidth="1"/>
+    <col min="11781" max="11781" width="20.26953125" style="41" customWidth="1"/>
+    <col min="11782" max="11782" width="13.90625" style="41" customWidth="1"/>
+    <col min="11783" max="11783" width="8.7265625" style="41"/>
+    <col min="11784" max="11784" width="17.90625" style="41" customWidth="1"/>
+    <col min="11785" max="11785" width="8.7265625" style="41"/>
+    <col min="11786" max="11786" width="53.6328125" style="41" customWidth="1"/>
+    <col min="11787" max="12031" width="8.7265625" style="41"/>
+    <col min="12032" max="12032" width="10.90625" style="41" customWidth="1"/>
+    <col min="12033" max="12033" width="22.26953125" style="41" customWidth="1"/>
+    <col min="12034" max="12034" width="8.7265625" style="41"/>
+    <col min="12035" max="12035" width="17" style="41" customWidth="1"/>
+    <col min="12036" max="12036" width="13.90625" style="41" customWidth="1"/>
+    <col min="12037" max="12037" width="20.26953125" style="41" customWidth="1"/>
+    <col min="12038" max="12038" width="13.90625" style="41" customWidth="1"/>
+    <col min="12039" max="12039" width="8.7265625" style="41"/>
+    <col min="12040" max="12040" width="17.90625" style="41" customWidth="1"/>
+    <col min="12041" max="12041" width="8.7265625" style="41"/>
+    <col min="12042" max="12042" width="53.6328125" style="41" customWidth="1"/>
+    <col min="12043" max="12287" width="8.7265625" style="41"/>
+    <col min="12288" max="12288" width="10.90625" style="41" customWidth="1"/>
+    <col min="12289" max="12289" width="22.26953125" style="41" customWidth="1"/>
+    <col min="12290" max="12290" width="8.7265625" style="41"/>
+    <col min="12291" max="12291" width="17" style="41" customWidth="1"/>
+    <col min="12292" max="12292" width="13.90625" style="41" customWidth="1"/>
+    <col min="12293" max="12293" width="20.26953125" style="41" customWidth="1"/>
+    <col min="12294" max="12294" width="13.90625" style="41" customWidth="1"/>
+    <col min="12295" max="12295" width="8.7265625" style="41"/>
+    <col min="12296" max="12296" width="17.90625" style="41" customWidth="1"/>
+    <col min="12297" max="12297" width="8.7265625" style="41"/>
+    <col min="12298" max="12298" width="53.6328125" style="41" customWidth="1"/>
+    <col min="12299" max="12543" width="8.7265625" style="41"/>
+    <col min="12544" max="12544" width="10.90625" style="41" customWidth="1"/>
+    <col min="12545" max="12545" width="22.26953125" style="41" customWidth="1"/>
+    <col min="12546" max="12546" width="8.7265625" style="41"/>
+    <col min="12547" max="12547" width="17" style="41" customWidth="1"/>
+    <col min="12548" max="12548" width="13.90625" style="41" customWidth="1"/>
+    <col min="12549" max="12549" width="20.26953125" style="41" customWidth="1"/>
+    <col min="12550" max="12550" width="13.90625" style="41" customWidth="1"/>
+    <col min="12551" max="12551" width="8.7265625" style="41"/>
+    <col min="12552" max="12552" width="17.90625" style="41" customWidth="1"/>
+    <col min="12553" max="12553" width="8.7265625" style="41"/>
+    <col min="12554" max="12554" width="53.6328125" style="41" customWidth="1"/>
+    <col min="12555" max="12799" width="8.7265625" style="41"/>
+    <col min="12800" max="12800" width="10.90625" style="41" customWidth="1"/>
+    <col min="12801" max="12801" width="22.26953125" style="41" customWidth="1"/>
+    <col min="12802" max="12802" width="8.7265625" style="41"/>
+    <col min="12803" max="12803" width="17" style="41" customWidth="1"/>
+    <col min="12804" max="12804" width="13.90625" style="41" customWidth="1"/>
+    <col min="12805" max="12805" width="20.26953125" style="41" customWidth="1"/>
+    <col min="12806" max="12806" width="13.90625" style="41" customWidth="1"/>
+    <col min="12807" max="12807" width="8.7265625" style="41"/>
+    <col min="12808" max="12808" width="17.90625" style="41" customWidth="1"/>
+    <col min="12809" max="12809" width="8.7265625" style="41"/>
+    <col min="12810" max="12810" width="53.6328125" style="41" customWidth="1"/>
+    <col min="12811" max="13055" width="8.7265625" style="41"/>
+    <col min="13056" max="13056" width="10.90625" style="41" customWidth="1"/>
+    <col min="13057" max="13057" width="22.26953125" style="41" customWidth="1"/>
+    <col min="13058" max="13058" width="8.7265625" style="41"/>
+    <col min="13059" max="13059" width="17" style="41" customWidth="1"/>
+    <col min="13060" max="13060" width="13.90625" style="41" customWidth="1"/>
+    <col min="13061" max="13061" width="20.26953125" style="41" customWidth="1"/>
+    <col min="13062" max="13062" width="13.90625" style="41" customWidth="1"/>
+    <col min="13063" max="13063" width="8.7265625" style="41"/>
+    <col min="13064" max="13064" width="17.90625" style="41" customWidth="1"/>
+    <col min="13065" max="13065" width="8.7265625" style="41"/>
+    <col min="13066" max="13066" width="53.6328125" style="41" customWidth="1"/>
+    <col min="13067" max="13311" width="8.7265625" style="41"/>
+    <col min="13312" max="13312" width="10.90625" style="41" customWidth="1"/>
+    <col min="13313" max="13313" width="22.26953125" style="41" customWidth="1"/>
+    <col min="13314" max="13314" width="8.7265625" style="41"/>
+    <col min="13315" max="13315" width="17" style="41" customWidth="1"/>
+    <col min="13316" max="13316" width="13.90625" style="41" customWidth="1"/>
+    <col min="13317" max="13317" width="20.26953125" style="41" customWidth="1"/>
+    <col min="13318" max="13318" width="13.90625" style="41" customWidth="1"/>
+    <col min="13319" max="13319" width="8.7265625" style="41"/>
+    <col min="13320" max="13320" width="17.90625" style="41" customWidth="1"/>
+    <col min="13321" max="13321" width="8.7265625" style="41"/>
+    <col min="13322" max="13322" width="53.6328125" style="41" customWidth="1"/>
+    <col min="13323" max="13567" width="8.7265625" style="41"/>
+    <col min="13568" max="13568" width="10.90625" style="41" customWidth="1"/>
+    <col min="13569" max="13569" width="22.26953125" style="41" customWidth="1"/>
+    <col min="13570" max="13570" width="8.7265625" style="41"/>
+    <col min="13571" max="13571" width="17" style="41" customWidth="1"/>
+    <col min="13572" max="13572" width="13.90625" style="41" customWidth="1"/>
+    <col min="13573" max="13573" width="20.26953125" style="41" customWidth="1"/>
+    <col min="13574" max="13574" width="13.90625" style="41" customWidth="1"/>
+    <col min="13575" max="13575" width="8.7265625" style="41"/>
+    <col min="13576" max="13576" width="17.90625" style="41" customWidth="1"/>
+    <col min="13577" max="13577" width="8.7265625" style="41"/>
+    <col min="13578" max="13578" width="53.6328125" style="41" customWidth="1"/>
+    <col min="13579" max="13823" width="8.7265625" style="41"/>
+    <col min="13824" max="13824" width="10.90625" style="41" customWidth="1"/>
+    <col min="13825" max="13825" width="22.26953125" style="41" customWidth="1"/>
+    <col min="13826" max="13826" width="8.7265625" style="41"/>
+    <col min="13827" max="13827" width="17" style="41" customWidth="1"/>
+    <col min="13828" max="13828" width="13.90625" style="41" customWidth="1"/>
+    <col min="13829" max="13829" width="20.26953125" style="41" customWidth="1"/>
+    <col min="13830" max="13830" width="13.90625" style="41" customWidth="1"/>
+    <col min="13831" max="13831" width="8.7265625" style="41"/>
+    <col min="13832" max="13832" width="17.90625" style="41" customWidth="1"/>
+    <col min="13833" max="13833" width="8.7265625" style="41"/>
+    <col min="13834" max="13834" width="53.6328125" style="41" customWidth="1"/>
+    <col min="13835" max="14079" width="8.7265625" style="41"/>
+    <col min="14080" max="14080" width="10.90625" style="41" customWidth="1"/>
+    <col min="14081" max="14081" width="22.26953125" style="41" customWidth="1"/>
+    <col min="14082" max="14082" width="8.7265625" style="41"/>
+    <col min="14083" max="14083" width="17" style="41" customWidth="1"/>
+    <col min="14084" max="14084" width="13.90625" style="41" customWidth="1"/>
+    <col min="14085" max="14085" width="20.26953125" style="41" customWidth="1"/>
+    <col min="14086" max="14086" width="13.90625" style="41" customWidth="1"/>
+    <col min="14087" max="14087" width="8.7265625" style="41"/>
+    <col min="14088" max="14088" width="17.90625" style="41" customWidth="1"/>
+    <col min="14089" max="14089" width="8.7265625" style="41"/>
+    <col min="14090" max="14090" width="53.6328125" style="41" customWidth="1"/>
+    <col min="14091" max="14335" width="8.7265625" style="41"/>
+    <col min="14336" max="14336" width="10.90625" style="41" customWidth="1"/>
+    <col min="14337" max="14337" width="22.26953125" style="41" customWidth="1"/>
+    <col min="14338" max="14338" width="8.7265625" style="41"/>
+    <col min="14339" max="14339" width="17" style="41" customWidth="1"/>
+    <col min="14340" max="14340" width="13.90625" style="41" customWidth="1"/>
+    <col min="14341" max="14341" width="20.26953125" style="41" customWidth="1"/>
+    <col min="14342" max="14342" width="13.90625" style="41" customWidth="1"/>
+    <col min="14343" max="14343" width="8.7265625" style="41"/>
+    <col min="14344" max="14344" width="17.90625" style="41" customWidth="1"/>
+    <col min="14345" max="14345" width="8.7265625" style="41"/>
+    <col min="14346" max="14346" width="53.6328125" style="41" customWidth="1"/>
+    <col min="14347" max="14591" width="8.7265625" style="41"/>
+    <col min="14592" max="14592" width="10.90625" style="41" customWidth="1"/>
+    <col min="14593" max="14593" width="22.26953125" style="41" customWidth="1"/>
+    <col min="14594" max="14594" width="8.7265625" style="41"/>
+    <col min="14595" max="14595" width="17" style="41" customWidth="1"/>
+    <col min="14596" max="14596" width="13.90625" style="41" customWidth="1"/>
+    <col min="14597" max="14597" width="20.26953125" style="41" customWidth="1"/>
+    <col min="14598" max="14598" width="13.90625" style="41" customWidth="1"/>
+    <col min="14599" max="14599" width="8.7265625" style="41"/>
+    <col min="14600" max="14600" width="17.90625" style="41" customWidth="1"/>
+    <col min="14601" max="14601" width="8.7265625" style="41"/>
+    <col min="14602" max="14602" width="53.6328125" style="41" customWidth="1"/>
+    <col min="14603" max="14847" width="8.7265625" style="41"/>
+    <col min="14848" max="14848" width="10.90625" style="41" customWidth="1"/>
+    <col min="14849" max="14849" width="22.26953125" style="41" customWidth="1"/>
+    <col min="14850" max="14850" width="8.7265625" style="41"/>
+    <col min="14851" max="14851" width="17" style="41" customWidth="1"/>
+    <col min="14852" max="14852" width="13.90625" style="41" customWidth="1"/>
+    <col min="14853" max="14853" width="20.26953125" style="41" customWidth="1"/>
+    <col min="14854" max="14854" width="13.90625" style="41" customWidth="1"/>
+    <col min="14855" max="14855" width="8.7265625" style="41"/>
+    <col min="14856" max="14856" width="17.90625" style="41" customWidth="1"/>
+    <col min="14857" max="14857" width="8.7265625" style="41"/>
+    <col min="14858" max="14858" width="53.6328125" style="41" customWidth="1"/>
+    <col min="14859" max="15103" width="8.7265625" style="41"/>
+    <col min="15104" max="15104" width="10.90625" style="41" customWidth="1"/>
+    <col min="15105" max="15105" width="22.26953125" style="41" customWidth="1"/>
+    <col min="15106" max="15106" width="8.7265625" style="41"/>
+    <col min="15107" max="15107" width="17" style="41" customWidth="1"/>
+    <col min="15108" max="15108" width="13.90625" style="41" customWidth="1"/>
+    <col min="15109" max="15109" width="20.26953125" style="41" customWidth="1"/>
+    <col min="15110" max="15110" width="13.90625" style="41" customWidth="1"/>
+    <col min="15111" max="15111" width="8.7265625" style="41"/>
+    <col min="15112" max="15112" width="17.90625" style="41" customWidth="1"/>
+    <col min="15113" max="15113" width="8.7265625" style="41"/>
+    <col min="15114" max="15114" width="53.6328125" style="41" customWidth="1"/>
+    <col min="15115" max="15359" width="8.7265625" style="41"/>
+    <col min="15360" max="15360" width="10.90625" style="41" customWidth="1"/>
+    <col min="15361" max="15361" width="22.26953125" style="41" customWidth="1"/>
+    <col min="15362" max="15362" width="8.7265625" style="41"/>
+    <col min="15363" max="15363" width="17" style="41" customWidth="1"/>
+    <col min="15364" max="15364" width="13.90625" style="41" customWidth="1"/>
+    <col min="15365" max="15365" width="20.26953125" style="41" customWidth="1"/>
+    <col min="15366" max="15366" width="13.90625" style="41" customWidth="1"/>
+    <col min="15367" max="15367" width="8.7265625" style="41"/>
+    <col min="15368" max="15368" width="17.90625" style="41" customWidth="1"/>
+    <col min="15369" max="15369" width="8.7265625" style="41"/>
+    <col min="15370" max="15370" width="53.6328125" style="41" customWidth="1"/>
+    <col min="15371" max="15615" width="8.7265625" style="41"/>
+    <col min="15616" max="15616" width="10.90625" style="41" customWidth="1"/>
+    <col min="15617" max="15617" width="22.26953125" style="41" customWidth="1"/>
+    <col min="15618" max="15618" width="8.7265625" style="41"/>
+    <col min="15619" max="15619" width="17" style="41" customWidth="1"/>
+    <col min="15620" max="15620" width="13.90625" style="41" customWidth="1"/>
+    <col min="15621" max="15621" width="20.26953125" style="41" customWidth="1"/>
+    <col min="15622" max="15622" width="13.90625" style="41" customWidth="1"/>
+    <col min="15623" max="15623" width="8.7265625" style="41"/>
+    <col min="15624" max="15624" width="17.90625" style="41" customWidth="1"/>
+    <col min="15625" max="15625" width="8.7265625" style="41"/>
+    <col min="15626" max="15626" width="53.6328125" style="41" customWidth="1"/>
+    <col min="15627" max="15871" width="8.7265625" style="41"/>
+    <col min="15872" max="15872" width="10.90625" style="41" customWidth="1"/>
+    <col min="15873" max="15873" width="22.26953125" style="41" customWidth="1"/>
+    <col min="15874" max="15874" width="8.7265625" style="41"/>
+    <col min="15875" max="15875" width="17" style="41" customWidth="1"/>
+    <col min="15876" max="15876" width="13.90625" style="41" customWidth="1"/>
+    <col min="15877" max="15877" width="20.26953125" style="41" customWidth="1"/>
+    <col min="15878" max="15878" width="13.90625" style="41" customWidth="1"/>
+    <col min="15879" max="15879" width="8.7265625" style="41"/>
+    <col min="15880" max="15880" width="17.90625" style="41" customWidth="1"/>
+    <col min="15881" max="15881" width="8.7265625" style="41"/>
+    <col min="15882" max="15882" width="53.6328125" style="41" customWidth="1"/>
+    <col min="15883" max="16127" width="8.7265625" style="41"/>
+    <col min="16128" max="16128" width="10.90625" style="41" customWidth="1"/>
+    <col min="16129" max="16129" width="22.26953125" style="41" customWidth="1"/>
+    <col min="16130" max="16130" width="8.7265625" style="41"/>
+    <col min="16131" max="16131" width="17" style="41" customWidth="1"/>
+    <col min="16132" max="16132" width="13.90625" style="41" customWidth="1"/>
+    <col min="16133" max="16133" width="20.26953125" style="41" customWidth="1"/>
+    <col min="16134" max="16134" width="13.90625" style="41" customWidth="1"/>
+    <col min="16135" max="16135" width="8.7265625" style="41"/>
+    <col min="16136" max="16136" width="17.90625" style="41" customWidth="1"/>
+    <col min="16137" max="16137" width="8.7265625" style="41"/>
+    <col min="16138" max="16138" width="53.6328125" style="41" customWidth="1"/>
+    <col min="16139" max="16384" width="8.7265625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>982</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>976</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="35" t="s">
+        <v>993</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="35" t="s">
+        <v>989</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="35" t="s">
+        <v>989</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="35" t="s">
+        <v>989</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60F93F-DDE7-4577-BCA7-BDCFD0F8A197}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="4.36328125" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>982</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>976</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="37" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="37" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>978</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8CB9F-21CB-4CA7-BF40-DA6BB340EB8E}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12018,7 +13210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -12294,7 +13486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,30 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AB4C29-16E1-4838-B13F-AFCF317964AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E490CCCC-D4D3-4E02-A552-EE3F5FE282A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1230" windowWidth="18430" windowHeight="7600" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="710" windowWidth="13500" windowHeight="7750" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
     <sheet name="DDF Terminology 2022-09-30" sheetId="1" r:id="rId2"/>
-    <sheet name="Terminology Changes Sp3 - new" sheetId="8" r:id="rId3"/>
-    <sheet name="Terminology Changes Sp3 - chg" sheetId="7" r:id="rId4"/>
-    <sheet name="Terminology Changes Sp2 - new" sheetId="6" r:id="rId5"/>
-    <sheet name="Terminology Changes Sp2 - chg" sheetId="5" r:id="rId6"/>
-    <sheet name="Terminology Changes Sp1 - new" sheetId="3" r:id="rId7"/>
-    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId8"/>
+    <sheet name="Terminology Changes Sp4 - new" sheetId="9" r:id="rId3"/>
+    <sheet name="Terminology Changes Sp4 - chg" sheetId="10" r:id="rId4"/>
+    <sheet name="Terminology Changes Sp3 - new" sheetId="8" r:id="rId5"/>
+    <sheet name="Terminology Changes Sp3 - chg" sheetId="7" r:id="rId6"/>
+    <sheet name="Terminology Changes Sp2 - new" sheetId="6" r:id="rId7"/>
+    <sheet name="Terminology Changes Sp2 - chg" sheetId="5" r:id="rId8"/>
+    <sheet name="Terminology Changes Sp1 - new" sheetId="3" r:id="rId9"/>
+    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF Terminology 2022-09-30'!$A$1:$H$255</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="1085">
   <si>
     <t>Code</t>
   </si>
@@ -3962,6 +3964,27 @@
   </si>
   <si>
     <t>An indication as to whether the study procedure is available to be performed but is not obligatory.</t>
+  </si>
+  <si>
+    <t>No changes for Sprint 4</t>
+  </si>
+  <si>
+    <t>activityIsOptionalReason</t>
+  </si>
+  <si>
+    <t>Study Activity is Optional Reason</t>
+  </si>
+  <si>
+    <t>The explanation for why the study activity is available to be performed but is not obligatory.</t>
+  </si>
+  <si>
+    <t>procedureIsOptionalReason</t>
+  </si>
+  <si>
+    <t>Study Procedure is Optional Reason</t>
+  </si>
+  <si>
+    <t>The explanation for why the study procedure is available to be performed but is not obligatory.</t>
   </si>
 </sst>
 </file>
@@ -4227,7 +4250,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4371,6 +4394,9 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4380,8 +4406,8 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4677,10 +4703,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>973</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -4769,6 +4795,34 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>992</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10518,15 +10572,155 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388C2AD6-B218-4E22-9152-9FF923DE673A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F67F6C-9C5A-4D9C-A0BA-6CE74C3B3F1E}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="4.36328125" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>982</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>976</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>974</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>978</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="36" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>974</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>978</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="36" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A4186-9BCA-48CF-8DF0-AEF3719878D4}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388C2AD6-B218-4E22-9152-9FF923DE673A}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10642,11 +10836,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A8CE6A-08F8-4094-B8C4-805F6E207B55}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -11492,7 +11683,7 @@
       <c r="D3" s="35" t="s">
         <v>989</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="49" t="s">
         <v>1067</v>
       </c>
       <c r="F3" s="35" t="s">
@@ -11512,7 +11703,7 @@
       <c r="D4" s="35" t="s">
         <v>989</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="49" t="s">
         <v>1068</v>
       </c>
       <c r="F4" s="35" t="s">
@@ -11532,7 +11723,7 @@
       <c r="D5" s="35" t="s">
         <v>989</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="F5" s="35" t="s">
@@ -11548,7 +11739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60F93F-DDE7-4577-BCA7-BDCFD0F8A197}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -11779,7 +11970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8CB9F-21CB-4CA7-BF40-DA6BB340EB8E}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -13210,7 +13401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -13484,32 +13675,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="8.7265625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>992</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B40D557-5CDB-48E8-A13D-F9A64BB0E836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5AFA7C-AA8D-4C64-9AF2-250FB0210897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50" yWindow="400" windowWidth="18920" windowHeight="9230" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2350" yWindow="720" windowWidth="16240" windowHeight="9230" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF Terminology 2022-12-16'!$A$1:$H$255</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4016,9 +4027,6 @@
     <t>A statement describing the overall rationale of the study. This field describes the contribution of this study to product development, i.e., what knowledge is being contributed from the conduct of this study.</t>
   </si>
   <si>
-    <t>OrganizationLegalAddress</t>
-  </si>
-  <si>
     <t>DDF Address Attribute Terminology</t>
   </si>
   <si>
@@ -4281,6 +4289,9 @@
   </si>
   <si>
     <t>Update Definition; DDF Controlled Terminology maintenance with quarterly release cycle.</t>
+  </si>
+  <si>
+    <t>organizationLegalAddress</t>
   </si>
 </sst>
 </file>
@@ -4714,15 +4725,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4749,6 +4751,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5044,10 +5055,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>970</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -6862,11 +6873,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="58" t="s">
         <v>989</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6896,50 +6907,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="48" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7032,24 +7043,24 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="48" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7076,24 +7087,24 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="48" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7192,24 +7203,24 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="48" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7302,24 +7313,24 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="H19" s="48" t="s">
         <v>87</v>
       </c>
     </row>
@@ -7478,24 +7489,24 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="48" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7566,24 +7577,24 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51" t="s">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="51" t="s">
+      <c r="H31" s="48" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8146,24 +8157,24 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51" t="s">
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="E57" s="51" t="s">
+      <c r="E57" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="F57" s="51" t="s">
+      <c r="F57" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="G57" s="51" t="s">
+      <c r="G57" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="H57" s="51" t="s">
+      <c r="H57" s="48" t="s">
         <v>215</v>
       </c>
     </row>
@@ -8190,24 +8201,24 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51" t="s">
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="E59" s="51" t="s">
+      <c r="E59" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F59" s="51" t="s">
+      <c r="F59" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="G59" s="51" t="s">
+      <c r="G59" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="H59" s="51" t="s">
+      <c r="H59" s="48" t="s">
         <v>222</v>
       </c>
     </row>
@@ -8258,24 +8269,24 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51" t="s">
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="E62" s="51" t="s">
+      <c r="E62" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="F62" s="51" t="s">
+      <c r="F62" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G62" s="51" t="s">
+      <c r="G62" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="H62" s="51" t="s">
+      <c r="H62" s="48" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8346,24 +8357,24 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51" t="s">
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="E66" s="51" t="s">
+      <c r="E66" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="F66" s="51" t="s">
+      <c r="F66" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="G66" s="51" t="s">
+      <c r="G66" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="H66" s="51" t="s">
+      <c r="H66" s="48" t="s">
         <v>242</v>
       </c>
     </row>
@@ -8412,24 +8423,24 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51" t="s">
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="E69" s="51" t="s">
+      <c r="E69" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="F69" s="51" t="s">
+      <c r="F69" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="G69" s="51" t="s">
+      <c r="G69" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="H69" s="51" t="s">
+      <c r="H69" s="48" t="s">
         <v>252</v>
       </c>
     </row>
@@ -8478,24 +8489,24 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51" t="s">
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="E72" s="51" t="s">
+      <c r="E72" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="F72" s="51" t="s">
+      <c r="F72" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="G72" s="51" t="s">
+      <c r="G72" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="H72" s="51" t="s">
+      <c r="H72" s="48" t="s">
         <v>262</v>
       </c>
     </row>
@@ -8588,24 +8599,24 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A77" s="51" t="s">
+      <c r="A77" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51" t="s">
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="E77" s="51" t="s">
+      <c r="E77" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="F77" s="51" t="s">
+      <c r="F77" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="G77" s="51" t="s">
+      <c r="G77" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="H77" s="51" t="s">
+      <c r="H77" s="48" t="s">
         <v>278</v>
       </c>
     </row>
@@ -8654,24 +8665,24 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51" t="s">
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="E80" s="51" t="s">
+      <c r="E80" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="F80" s="51" t="s">
+      <c r="F80" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="G80" s="51" t="s">
+      <c r="G80" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="H80" s="51" t="s">
+      <c r="H80" s="48" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8788,24 +8799,24 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A86" s="51" t="s">
+      <c r="A86" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51" t="s">
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="E86" s="51" t="s">
+      <c r="E86" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="F86" s="51" t="s">
+      <c r="F86" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="G86" s="51" t="s">
+      <c r="G86" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="H86" s="51" t="s">
+      <c r="H86" s="48" t="s">
         <v>310</v>
       </c>
     </row>
@@ -8876,24 +8887,24 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A90" s="51" t="s">
+      <c r="A90" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51" t="s">
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E90" s="51" t="s">
+      <c r="E90" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F90" s="51" t="s">
+      <c r="F90" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="G90" s="51" t="s">
+      <c r="G90" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="H90" s="51" t="s">
+      <c r="H90" s="48" t="s">
         <v>324</v>
       </c>
     </row>
@@ -8970,24 +8981,24 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A94" s="51" t="s">
+      <c r="A94" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="B94" s="51"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="51" t="s">
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="E94" s="51" t="s">
+      <c r="E94" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="F94" s="51" t="s">
+      <c r="F94" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="G94" s="51" t="s">
+      <c r="G94" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="H94" s="51" t="s">
+      <c r="H94" s="48" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9014,24 +9025,24 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A96" s="51" t="s">
+      <c r="A96" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="B96" s="51"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51" t="s">
+      <c r="B96" s="48"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="E96" s="51" t="s">
+      <c r="E96" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="F96" s="51" t="s">
+      <c r="F96" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="G96" s="51" t="s">
+      <c r="G96" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="H96" s="51" t="s">
+      <c r="H96" s="48" t="s">
         <v>348</v>
       </c>
     </row>
@@ -9080,24 +9091,24 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="B99" s="51"/>
-      <c r="C99" s="51"/>
-      <c r="D99" s="51" t="s">
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="E99" s="51" t="s">
+      <c r="E99" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F99" s="51" t="s">
+      <c r="F99" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="G99" s="51" t="s">
+      <c r="G99" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="H99" s="51" t="s">
+      <c r="H99" s="48" t="s">
         <v>358</v>
       </c>
     </row>
@@ -9212,24 +9223,24 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A105" s="51" t="s">
+      <c r="A105" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="B105" s="51"/>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51" t="s">
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="E105" s="51" t="s">
+      <c r="E105" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="F105" s="51" t="s">
+      <c r="F105" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="G105" s="51" t="s">
+      <c r="G105" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="H105" s="51" t="s">
+      <c r="H105" s="48" t="s">
         <v>379</v>
       </c>
     </row>
@@ -9256,24 +9267,24 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A107" s="51" t="s">
+      <c r="A107" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="B107" s="51"/>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51" t="s">
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="E107" s="51" t="s">
+      <c r="E107" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="F107" s="51" t="s">
+      <c r="F107" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="G107" s="51" t="s">
+      <c r="G107" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="H107" s="51" t="s">
+      <c r="H107" s="48" t="s">
         <v>383</v>
       </c>
     </row>
@@ -9456,24 +9467,24 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A116" s="51" t="s">
+      <c r="A116" s="48" t="s">
         <v>409</v>
       </c>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51" t="s">
+      <c r="B116" s="48"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="48" t="s">
         <v>410</v>
       </c>
-      <c r="E116" s="51" t="s">
+      <c r="E116" s="48" t="s">
         <v>410</v>
       </c>
-      <c r="F116" s="51" t="s">
+      <c r="F116" s="48" t="s">
         <v>410</v>
       </c>
-      <c r="G116" s="51" t="s">
+      <c r="G116" s="48" t="s">
         <v>411</v>
       </c>
-      <c r="H116" s="51" t="s">
+      <c r="H116" s="48" t="s">
         <v>412</v>
       </c>
     </row>
@@ -9500,24 +9511,24 @@
       </c>
     </row>
     <row r="118" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A118" s="51" t="s">
+      <c r="A118" s="48" t="s">
         <v>416</v>
       </c>
-      <c r="B118" s="51"/>
-      <c r="C118" s="51"/>
-      <c r="D118" s="51" t="s">
+      <c r="B118" s="48"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="48" t="s">
         <v>417</v>
       </c>
-      <c r="E118" s="51" t="s">
+      <c r="E118" s="48" t="s">
         <v>417</v>
       </c>
-      <c r="F118" s="51" t="s">
+      <c r="F118" s="48" t="s">
         <v>417</v>
       </c>
-      <c r="G118" s="51" t="s">
+      <c r="G118" s="48" t="s">
         <v>418</v>
       </c>
-      <c r="H118" s="51" t="s">
+      <c r="H118" s="48" t="s">
         <v>419</v>
       </c>
     </row>
@@ -9544,24 +9555,24 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A120" s="51" t="s">
+      <c r="A120" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="B120" s="51"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51" t="s">
+      <c r="B120" s="48"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="E120" s="51" t="s">
+      <c r="E120" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="F120" s="51" t="s">
+      <c r="F120" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="G120" s="51" t="s">
+      <c r="G120" s="48" t="s">
         <v>425</v>
       </c>
-      <c r="H120" s="51" t="s">
+      <c r="H120" s="48" t="s">
         <v>426</v>
       </c>
     </row>
@@ -9632,24 +9643,24 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A124" s="51" t="s">
+      <c r="A124" s="48" t="s">
         <v>433</v>
       </c>
-      <c r="B124" s="51"/>
-      <c r="C124" s="51"/>
-      <c r="D124" s="51" t="s">
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48" t="s">
         <v>434</v>
       </c>
-      <c r="E124" s="51" t="s">
+      <c r="E124" s="48" t="s">
         <v>434</v>
       </c>
-      <c r="F124" s="51" t="s">
+      <c r="F124" s="48" t="s">
         <v>434</v>
       </c>
-      <c r="G124" s="51" t="s">
+      <c r="G124" s="48" t="s">
         <v>435</v>
       </c>
-      <c r="H124" s="51" t="s">
+      <c r="H124" s="48" t="s">
         <v>436</v>
       </c>
     </row>
@@ -9676,24 +9687,24 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A126" s="51" t="s">
+      <c r="A126" s="48" t="s">
         <v>440</v>
       </c>
-      <c r="B126" s="51"/>
-      <c r="C126" s="51"/>
-      <c r="D126" s="51" t="s">
+      <c r="B126" s="48"/>
+      <c r="C126" s="48"/>
+      <c r="D126" s="48" t="s">
         <v>441</v>
       </c>
-      <c r="E126" s="51" t="s">
+      <c r="E126" s="48" t="s">
         <v>441</v>
       </c>
-      <c r="F126" s="51" t="s">
+      <c r="F126" s="48" t="s">
         <v>441</v>
       </c>
-      <c r="G126" s="51" t="s">
+      <c r="G126" s="48" t="s">
         <v>442</v>
       </c>
-      <c r="H126" s="51" t="s">
+      <c r="H126" s="48" t="s">
         <v>443</v>
       </c>
     </row>
@@ -9764,26 +9775,26 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A130" s="51" t="s">
+      <c r="A130" s="48" t="s">
         <v>453</v>
       </c>
-      <c r="B130" s="51"/>
-      <c r="C130" s="51" t="s">
+      <c r="B130" s="48"/>
+      <c r="C130" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="51" t="s">
+      <c r="D130" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E130" s="51" t="s">
+      <c r="E130" s="48" t="s">
         <v>454</v>
       </c>
-      <c r="F130" s="51" t="s">
+      <c r="F130" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="G130" s="51" t="s">
+      <c r="G130" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="H130" s="51" t="s">
+      <c r="H130" s="48" t="s">
         <v>456</v>
       </c>
     </row>
@@ -10184,26 +10195,26 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="51" t="s">
+      <c r="A149" s="48" t="s">
         <v>529</v>
       </c>
-      <c r="B149" s="51"/>
-      <c r="C149" s="51" t="s">
+      <c r="B149" s="48"/>
+      <c r="C149" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D149" s="51" t="s">
+      <c r="D149" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="E149" s="51" t="s">
+      <c r="E149" s="48" t="s">
         <v>531</v>
       </c>
-      <c r="F149" s="51" t="s">
+      <c r="F149" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="G149" s="51" t="s">
+      <c r="G149" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="H149" s="51" t="s">
+      <c r="H149" s="48" t="s">
         <v>533</v>
       </c>
     </row>
@@ -10476,26 +10487,26 @@
       </c>
     </row>
     <row r="162" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A162" s="51" t="s">
+      <c r="A162" s="48" t="s">
         <v>584</v>
       </c>
-      <c r="B162" s="51"/>
-      <c r="C162" s="51" t="s">
+      <c r="B162" s="48"/>
+      <c r="C162" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D162" s="51" t="s">
+      <c r="D162" s="48" t="s">
         <v>585</v>
       </c>
-      <c r="E162" s="51" t="s">
+      <c r="E162" s="48" t="s">
         <v>586</v>
       </c>
-      <c r="F162" s="51" t="s">
+      <c r="F162" s="48" t="s">
         <v>585</v>
       </c>
-      <c r="G162" s="51" t="s">
+      <c r="G162" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="H162" s="51" t="s">
+      <c r="H162" s="48" t="s">
         <v>588</v>
       </c>
     </row>
@@ -10610,26 +10621,26 @@
       </c>
     </row>
     <row r="168" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A168" s="51" t="s">
+      <c r="A168" s="48" t="s">
         <v>609</v>
       </c>
-      <c r="B168" s="51"/>
-      <c r="C168" s="51" t="s">
+      <c r="B168" s="48"/>
+      <c r="C168" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D168" s="51" t="s">
+      <c r="D168" s="48" t="s">
         <v>610</v>
       </c>
-      <c r="E168" s="51" t="s">
+      <c r="E168" s="48" t="s">
         <v>611</v>
       </c>
-      <c r="F168" s="51" t="s">
+      <c r="F168" s="48" t="s">
         <v>610</v>
       </c>
-      <c r="G168" s="51" t="s">
+      <c r="G168" s="48" t="s">
         <v>612</v>
       </c>
-      <c r="H168" s="51" t="s">
+      <c r="H168" s="48" t="s">
         <v>613</v>
       </c>
     </row>
@@ -10770,24 +10781,24 @@
       </c>
     </row>
     <row r="175" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A175" s="51" t="s">
+      <c r="A175" s="48" t="s">
         <v>639</v>
       </c>
-      <c r="B175" s="51"/>
-      <c r="C175" s="51"/>
-      <c r="D175" s="51" t="s">
+      <c r="B175" s="48"/>
+      <c r="C175" s="48"/>
+      <c r="D175" s="48" t="s">
         <v>640</v>
       </c>
-      <c r="E175" s="51" t="s">
+      <c r="E175" s="48" t="s">
         <v>640</v>
       </c>
-      <c r="F175" s="51" t="s">
+      <c r="F175" s="48" t="s">
         <v>640</v>
       </c>
-      <c r="G175" s="51" t="s">
+      <c r="G175" s="48" t="s">
         <v>641</v>
       </c>
-      <c r="H175" s="51" t="s">
+      <c r="H175" s="48" t="s">
         <v>642</v>
       </c>
     </row>
@@ -10840,24 +10851,24 @@
       </c>
     </row>
     <row r="178" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A178" s="51" t="s">
+      <c r="A178" s="48" t="s">
         <v>653</v>
       </c>
-      <c r="B178" s="51"/>
-      <c r="C178" s="51"/>
-      <c r="D178" s="51" t="s">
+      <c r="B178" s="48"/>
+      <c r="C178" s="48"/>
+      <c r="D178" s="48" t="s">
         <v>654</v>
       </c>
-      <c r="E178" s="51" t="s">
+      <c r="E178" s="48" t="s">
         <v>654</v>
       </c>
-      <c r="F178" s="51" t="s">
+      <c r="F178" s="48" t="s">
         <v>654</v>
       </c>
-      <c r="G178" s="51" t="s">
+      <c r="G178" s="48" t="s">
         <v>655</v>
       </c>
-      <c r="H178" s="51" t="s">
+      <c r="H178" s="48" t="s">
         <v>656</v>
       </c>
     </row>
@@ -10932,24 +10943,24 @@
       </c>
     </row>
     <row r="182" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A182" s="51" t="s">
+      <c r="A182" s="48" t="s">
         <v>668</v>
       </c>
-      <c r="B182" s="51"/>
-      <c r="C182" s="51"/>
-      <c r="D182" s="51" t="s">
+      <c r="B182" s="48"/>
+      <c r="C182" s="48"/>
+      <c r="D182" s="48" t="s">
         <v>669</v>
       </c>
-      <c r="E182" s="51" t="s">
+      <c r="E182" s="48" t="s">
         <v>669</v>
       </c>
-      <c r="F182" s="51" t="s">
+      <c r="F182" s="48" t="s">
         <v>669</v>
       </c>
-      <c r="G182" s="51" t="s">
+      <c r="G182" s="48" t="s">
         <v>670</v>
       </c>
-      <c r="H182" s="51" t="s">
+      <c r="H182" s="48" t="s">
         <v>671</v>
       </c>
     </row>
@@ -11066,24 +11077,24 @@
       </c>
     </row>
     <row r="188" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A188" s="51" t="s">
+      <c r="A188" s="48" t="s">
         <v>689</v>
       </c>
-      <c r="B188" s="51"/>
-      <c r="C188" s="51"/>
-      <c r="D188" s="51" t="s">
+      <c r="B188" s="48"/>
+      <c r="C188" s="48"/>
+      <c r="D188" s="48" t="s">
         <v>690</v>
       </c>
-      <c r="E188" s="51" t="s">
+      <c r="E188" s="48" t="s">
         <v>690</v>
       </c>
-      <c r="F188" s="51" t="s">
+      <c r="F188" s="48" t="s">
         <v>690</v>
       </c>
-      <c r="G188" s="51" t="s">
+      <c r="G188" s="48" t="s">
         <v>691</v>
       </c>
-      <c r="H188" s="51" t="s">
+      <c r="H188" s="48" t="s">
         <v>692</v>
       </c>
     </row>
@@ -11198,26 +11209,26 @@
       </c>
     </row>
     <row r="194" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A194" s="51" t="s">
+      <c r="A194" s="48" t="s">
         <v>709</v>
       </c>
-      <c r="B194" s="51"/>
-      <c r="C194" s="51" t="s">
+      <c r="B194" s="48"/>
+      <c r="C194" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D194" s="51" t="s">
+      <c r="D194" s="48" t="s">
         <v>710</v>
       </c>
-      <c r="E194" s="51" t="s">
+      <c r="E194" s="48" t="s">
         <v>711</v>
       </c>
-      <c r="F194" s="51" t="s">
+      <c r="F194" s="48" t="s">
         <v>710</v>
       </c>
-      <c r="G194" s="51" t="s">
+      <c r="G194" s="48" t="s">
         <v>712</v>
       </c>
-      <c r="H194" s="51" t="s">
+      <c r="H194" s="48" t="s">
         <v>713</v>
       </c>
     </row>
@@ -11312,26 +11323,26 @@
       </c>
     </row>
     <row r="199" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A199" s="51" t="s">
+      <c r="A199" s="48" t="s">
         <v>731</v>
       </c>
-      <c r="B199" s="51"/>
-      <c r="C199" s="51" t="s">
+      <c r="B199" s="48"/>
+      <c r="C199" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D199" s="51" t="s">
+      <c r="D199" s="48" t="s">
         <v>732</v>
       </c>
-      <c r="E199" s="51" t="s">
+      <c r="E199" s="48" t="s">
         <v>733</v>
       </c>
-      <c r="F199" s="51" t="s">
+      <c r="F199" s="48" t="s">
         <v>732</v>
       </c>
-      <c r="G199" s="51" t="s">
+      <c r="G199" s="48" t="s">
         <v>734</v>
       </c>
-      <c r="H199" s="51" t="s">
+      <c r="H199" s="48" t="s">
         <v>735</v>
       </c>
     </row>
@@ -11584,26 +11595,26 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="51" t="s">
+      <c r="A211" s="48" t="s">
         <v>780</v>
       </c>
-      <c r="B211" s="51"/>
-      <c r="C211" s="51" t="s">
+      <c r="B211" s="48"/>
+      <c r="C211" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D211" s="51" t="s">
+      <c r="D211" s="48" t="s">
         <v>781</v>
       </c>
-      <c r="E211" s="51" t="s">
+      <c r="E211" s="48" t="s">
         <v>782</v>
       </c>
-      <c r="F211" s="51" t="s">
+      <c r="F211" s="48" t="s">
         <v>781</v>
       </c>
-      <c r="G211" s="51" t="s">
+      <c r="G211" s="48" t="s">
         <v>783</v>
       </c>
-      <c r="H211" s="51" t="s">
+      <c r="H211" s="48" t="s">
         <v>784</v>
       </c>
     </row>
@@ -11920,26 +11931,26 @@
       </c>
     </row>
     <row r="225" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A225" s="51" t="s">
+      <c r="A225" s="48" t="s">
         <v>850</v>
       </c>
-      <c r="B225" s="51"/>
-      <c r="C225" s="51" t="s">
+      <c r="B225" s="48"/>
+      <c r="C225" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D225" s="51" t="s">
+      <c r="D225" s="48" t="s">
         <v>851</v>
       </c>
-      <c r="E225" s="51" t="s">
+      <c r="E225" s="48" t="s">
         <v>852</v>
       </c>
-      <c r="F225" s="51" t="s">
+      <c r="F225" s="48" t="s">
         <v>851</v>
       </c>
-      <c r="G225" s="51" t="s">
+      <c r="G225" s="48" t="s">
         <v>853</v>
       </c>
-      <c r="H225" s="51" t="s">
+      <c r="H225" s="48" t="s">
         <v>854</v>
       </c>
     </row>
@@ -12676,12 +12687,12 @@
         <v>6</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>45</v>
@@ -12698,7 +12709,7 @@
       <c r="F2" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="49" t="s">
         <v>1087</v>
       </c>
       <c r="H2" s="15" t="s">
@@ -12712,7 +12723,7 @@
     </row>
     <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>45</v>
@@ -12729,7 +12740,7 @@
       <c r="F3" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="49" t="s">
         <v>1091</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -12743,7 +12754,7 @@
     </row>
     <row r="4" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -12751,94 +12762,94 @@
         <v>149</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>1094</v>
+        <v>1157</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>1009</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>975</v>
       </c>
       <c r="C5" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>1095</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>1096</v>
-      </c>
       <c r="E5" s="33" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>1020</v>
       </c>
-      <c r="G5" s="56" t="s">
-        <v>1097</v>
+      <c r="G5" s="53" t="s">
+        <v>1096</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="33" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>975</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>1095</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>1096</v>
-      </c>
       <c r="E6" s="33" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="53" t="s">
         <v>975</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="33" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="K6" s="33"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>975</v>
       </c>
       <c r="C7" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>1095</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>1096</v>
-      </c>
       <c r="E7" s="33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>971</v>
@@ -12847,172 +12858,172 @@
         <v>975</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="33" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>975</v>
       </c>
       <c r="C8" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>1095</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>1096</v>
-      </c>
       <c r="E8" s="33" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="53" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>1106</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>1107</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>975</v>
       </c>
       <c r="C9" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>1095</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>1096</v>
-      </c>
       <c r="E9" s="33" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="53" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>1110</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>1111</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="33" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>975</v>
       </c>
       <c r="C10" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>1095</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>1096</v>
-      </c>
       <c r="E10" s="33" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="53" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H10" s="33" t="s">
         <v>1114</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>1115</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="33" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>975</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>1095</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>1096</v>
-      </c>
       <c r="E11" s="33" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="53" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>1118</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>1119</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="33" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>975</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>1095</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>1096</v>
-      </c>
       <c r="E12" s="33" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H12" s="33" t="s">
         <v>1122</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>1123</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="33" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>321</v>
@@ -13024,26 +13035,26 @@
         <v>976</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="49" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>1126</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>1127</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="33" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>337</v>
@@ -13055,26 +13066,26 @@
         <v>1029</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="49" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>1130</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>1131</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="33" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>337</v>
@@ -13086,26 +13097,26 @@
         <v>1029</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="49" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>1134</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>1135</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>337</v>
@@ -13117,26 +13128,26 @@
         <v>1029</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="49" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>1138</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>1139</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>337</v>
@@ -13148,31 +13159,31 @@
         <v>1029</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>1142</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>1143</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="54" t="s">
         <v>125</v>
       </c>
       <c r="D18" s="15"/>
@@ -13188,16 +13199,16 @@
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="33" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="54" t="s">
         <v>125</v>
       </c>
       <c r="D19" s="15"/>
@@ -13205,7 +13216,7 @@
       <c r="F19" s="15" t="s">
         <v>1020</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="55" t="s">
         <v>145</v>
       </c>
       <c r="H19" s="15" t="s">
@@ -13213,24 +13224,24 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="33" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="54" t="s">
         <v>654</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
-        <v>1153</v>
-      </c>
-      <c r="G20" s="58" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G20" s="55" t="s">
         <v>661</v>
       </c>
       <c r="H20" s="15" t="s">
@@ -13240,7 +13251,7 @@
         <v>663</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="K20" s="15"/>
     </row>

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5AFA7C-AA8D-4C64-9AF2-250FB0210897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5575B43-853A-4624-A9D9-948018BFD4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2350" yWindow="720" windowWidth="16240" windowHeight="9230" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="980" windowWidth="18740" windowHeight="9220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -12632,9 +12632,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD16AA3-41A2-4CE2-A54F-A23529603CBB}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -13021,7 +13018,7 @@
       </c>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>1148</v>
       </c>
@@ -13263,9 +13260,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A40D45-4A6D-4323-AF2A-723C324D4F9C}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,27 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5575B43-853A-4624-A9D9-948018BFD4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9C3152-30C7-4072-8C98-7DE2CAF61B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="980" windowWidth="18740" windowHeight="9220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="400" windowWidth="18740" windowHeight="9220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
     <sheet name="DDF Terminology 2022-12-16" sheetId="1" r:id="rId2"/>
-    <sheet name="Terminology Changes Sp5 - new" sheetId="11" r:id="rId3"/>
-    <sheet name="Terminology Changes Sp5 - chg" sheetId="12" r:id="rId4"/>
-    <sheet name="Terminology Changes Sp4 - new" sheetId="9" r:id="rId5"/>
-    <sheet name="Terminology Changes Sp4 - chg" sheetId="10" r:id="rId6"/>
-    <sheet name="Terminology Changes Sp3 - new" sheetId="8" r:id="rId7"/>
-    <sheet name="Terminology Changes Sp3 - chg" sheetId="7" r:id="rId8"/>
-    <sheet name="Terminology Changes Sp2 - new" sheetId="6" r:id="rId9"/>
-    <sheet name="Terminology Changes Sp2 - chg" sheetId="5" r:id="rId10"/>
-    <sheet name="Terminology Changes Sp1 - new" sheetId="3" r:id="rId11"/>
-    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId12"/>
+    <sheet name="Terminology Changes Sp6 - new" sheetId="14" r:id="rId3"/>
+    <sheet name="Terminology Changes Sp6 - chg" sheetId="13" r:id="rId4"/>
+    <sheet name="Terminology Changes Sp5 - new" sheetId="11" r:id="rId5"/>
+    <sheet name="Terminology Changes Sp5 - chg" sheetId="12" r:id="rId6"/>
+    <sheet name="Terminology Changes Sp4 - new" sheetId="9" r:id="rId7"/>
+    <sheet name="Terminology Changes Sp4 - chg" sheetId="10" r:id="rId8"/>
+    <sheet name="Terminology Changes Sp3 - new" sheetId="8" r:id="rId9"/>
+    <sheet name="Terminology Changes Sp3 - chg" sheetId="7" r:id="rId10"/>
+    <sheet name="Terminology Changes Sp2 - new" sheetId="6" r:id="rId11"/>
+    <sheet name="Terminology Changes Sp2 - chg" sheetId="5" r:id="rId12"/>
+    <sheet name="Terminology Changes Sp1 - new" sheetId="3" r:id="rId13"/>
+    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF Terminology 2022-12-16'!$A$1:$H$255</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1201">
   <si>
     <t>Code</t>
   </si>
@@ -4293,12 +4295,192 @@
   <si>
     <t>organizationLegalAddress</t>
   </si>
+  <si>
+    <t>Y - ISO 3166-1 Alpha-3 Country code</t>
+  </si>
+  <si>
+    <t>Add new Attribute to StudyDesign Class</t>
+  </si>
+  <si>
+    <t>studyDesignBlindingScheme</t>
+  </si>
+  <si>
+    <t>C49658</t>
+  </si>
+  <si>
+    <t>Trial Blinding Schema</t>
+  </si>
+  <si>
+    <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+  </si>
+  <si>
+    <t>The type of experimental design used to describe the level of awareness of the study subjects and/ or study personnel as it relates to the respective intervention(s) or assessments being observed, received or administered.</t>
+  </si>
+  <si>
+    <t>Y - C66735</t>
+  </si>
+  <si>
+    <t>C66735</t>
+  </si>
+  <si>
+    <t>C15228</t>
+  </si>
+  <si>
+    <t>DOUBLE BLIND</t>
+  </si>
+  <si>
+    <t>Double Masked; Double-Masked</t>
+  </si>
+  <si>
+    <t>A study in which neither the subject nor the study personnel interacting with the subject or data during the study knows what intervention a subject is receiving.</t>
+  </si>
+  <si>
+    <t>C187674</t>
+  </si>
+  <si>
+    <t>OBSERVER BLIND</t>
+  </si>
+  <si>
+    <t>A study in which the study personnel who measure, record, or assess the subject do not know which intervention the subject is receiving or, in the context of observational studies, do not know the external factors to which a subject has been exposed.</t>
+  </si>
+  <si>
+    <t>C156592</t>
+  </si>
+  <si>
+    <t>OPEN LABEL TO TREATMENT AND DOUBLE BLIND TO IMP DOSE</t>
+  </si>
+  <si>
+    <t>A study in which the therapeutic treatment is open label but the dosing information of the investigational medicinal product (IMP) is double-blinded.</t>
+  </si>
+  <si>
+    <t>C49659</t>
+  </si>
+  <si>
+    <t>OPEN LABEL</t>
+  </si>
+  <si>
+    <t>A study in which subjects and study personnel know which intervention each subject is receiving.</t>
+  </si>
+  <si>
+    <t>C28233</t>
+  </si>
+  <si>
+    <t>SINGLE BLIND</t>
+  </si>
+  <si>
+    <t>Single Masked; Single-Masked</t>
+  </si>
+  <si>
+    <t>A study in which one party, either the subject or study personnel, does not know which intervention is administered to the subject.</t>
+  </si>
+  <si>
+    <t>activityIsConditional</t>
+  </si>
+  <si>
+    <t>Study Activity is Conditional</t>
+  </si>
+  <si>
+    <t>An indication as to whether the study activity is subject to or dependent upon something else.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>activityIsConditionalReason</t>
+  </si>
+  <si>
+    <t>Study Activity is Conditional Reason</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The explanation for why the study activity is subject to or dependent upon something else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>procedureIsConditional</t>
+  </si>
+  <si>
+    <t>Study Procedure is Conditional</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>An indication as to whether the study procedure is subject to or dependent upon something else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>procedureIsConditionalReason</t>
+  </si>
+  <si>
+    <t>Study Procedure is Conditional Reason</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The explanation for why the study procedure is subject to or dependent upon something else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Point out to ISO 3166 codelist for valid values</t>
+  </si>
+  <si>
+    <t>Remove Attribute from list and replace with new attribute in sprint 6</t>
+  </si>
+  <si>
+    <t>Add reference to Codelist TBLIND (C66735)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4400,6 +4582,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -4587,7 +4776,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4760,6 +4949,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5153,6 +5366,1140 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A8CE6A-08F8-4094-B8C4-805F6E207B55}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="37"/>
+    <col min="3" max="3" width="17" style="37" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="37"/>
+    <col min="8" max="8" width="17.90625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="37"/>
+    <col min="10" max="10" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11" max="255" width="8.7265625" style="37"/>
+    <col min="256" max="256" width="10.90625" style="37" customWidth="1"/>
+    <col min="257" max="257" width="22.26953125" style="37" customWidth="1"/>
+    <col min="258" max="258" width="8.7265625" style="37"/>
+    <col min="259" max="259" width="17" style="37" customWidth="1"/>
+    <col min="260" max="260" width="13.90625" style="37" customWidth="1"/>
+    <col min="261" max="261" width="20.26953125" style="37" customWidth="1"/>
+    <col min="262" max="262" width="13.90625" style="37" customWidth="1"/>
+    <col min="263" max="263" width="8.7265625" style="37"/>
+    <col min="264" max="264" width="17.90625" style="37" customWidth="1"/>
+    <col min="265" max="265" width="8.7265625" style="37"/>
+    <col min="266" max="266" width="53.6328125" style="37" customWidth="1"/>
+    <col min="267" max="511" width="8.7265625" style="37"/>
+    <col min="512" max="512" width="10.90625" style="37" customWidth="1"/>
+    <col min="513" max="513" width="22.26953125" style="37" customWidth="1"/>
+    <col min="514" max="514" width="8.7265625" style="37"/>
+    <col min="515" max="515" width="17" style="37" customWidth="1"/>
+    <col min="516" max="516" width="13.90625" style="37" customWidth="1"/>
+    <col min="517" max="517" width="20.26953125" style="37" customWidth="1"/>
+    <col min="518" max="518" width="13.90625" style="37" customWidth="1"/>
+    <col min="519" max="519" width="8.7265625" style="37"/>
+    <col min="520" max="520" width="17.90625" style="37" customWidth="1"/>
+    <col min="521" max="521" width="8.7265625" style="37"/>
+    <col min="522" max="522" width="53.6328125" style="37" customWidth="1"/>
+    <col min="523" max="767" width="8.7265625" style="37"/>
+    <col min="768" max="768" width="10.90625" style="37" customWidth="1"/>
+    <col min="769" max="769" width="22.26953125" style="37" customWidth="1"/>
+    <col min="770" max="770" width="8.7265625" style="37"/>
+    <col min="771" max="771" width="17" style="37" customWidth="1"/>
+    <col min="772" max="772" width="13.90625" style="37" customWidth="1"/>
+    <col min="773" max="773" width="20.26953125" style="37" customWidth="1"/>
+    <col min="774" max="774" width="13.90625" style="37" customWidth="1"/>
+    <col min="775" max="775" width="8.7265625" style="37"/>
+    <col min="776" max="776" width="17.90625" style="37" customWidth="1"/>
+    <col min="777" max="777" width="8.7265625" style="37"/>
+    <col min="778" max="778" width="53.6328125" style="37" customWidth="1"/>
+    <col min="779" max="1023" width="8.7265625" style="37"/>
+    <col min="1024" max="1024" width="10.90625" style="37" customWidth="1"/>
+    <col min="1025" max="1025" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1026" max="1026" width="8.7265625" style="37"/>
+    <col min="1027" max="1027" width="17" style="37" customWidth="1"/>
+    <col min="1028" max="1028" width="13.90625" style="37" customWidth="1"/>
+    <col min="1029" max="1029" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1030" max="1030" width="13.90625" style="37" customWidth="1"/>
+    <col min="1031" max="1031" width="8.7265625" style="37"/>
+    <col min="1032" max="1032" width="17.90625" style="37" customWidth="1"/>
+    <col min="1033" max="1033" width="8.7265625" style="37"/>
+    <col min="1034" max="1034" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1035" max="1279" width="8.7265625" style="37"/>
+    <col min="1280" max="1280" width="10.90625" style="37" customWidth="1"/>
+    <col min="1281" max="1281" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1282" max="1282" width="8.7265625" style="37"/>
+    <col min="1283" max="1283" width="17" style="37" customWidth="1"/>
+    <col min="1284" max="1284" width="13.90625" style="37" customWidth="1"/>
+    <col min="1285" max="1285" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1286" max="1286" width="13.90625" style="37" customWidth="1"/>
+    <col min="1287" max="1287" width="8.7265625" style="37"/>
+    <col min="1288" max="1288" width="17.90625" style="37" customWidth="1"/>
+    <col min="1289" max="1289" width="8.7265625" style="37"/>
+    <col min="1290" max="1290" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1291" max="1535" width="8.7265625" style="37"/>
+    <col min="1536" max="1536" width="10.90625" style="37" customWidth="1"/>
+    <col min="1537" max="1537" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1538" max="1538" width="8.7265625" style="37"/>
+    <col min="1539" max="1539" width="17" style="37" customWidth="1"/>
+    <col min="1540" max="1540" width="13.90625" style="37" customWidth="1"/>
+    <col min="1541" max="1541" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1542" max="1542" width="13.90625" style="37" customWidth="1"/>
+    <col min="1543" max="1543" width="8.7265625" style="37"/>
+    <col min="1544" max="1544" width="17.90625" style="37" customWidth="1"/>
+    <col min="1545" max="1545" width="8.7265625" style="37"/>
+    <col min="1546" max="1546" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1547" max="1791" width="8.7265625" style="37"/>
+    <col min="1792" max="1792" width="10.90625" style="37" customWidth="1"/>
+    <col min="1793" max="1793" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1794" max="1794" width="8.7265625" style="37"/>
+    <col min="1795" max="1795" width="17" style="37" customWidth="1"/>
+    <col min="1796" max="1796" width="13.90625" style="37" customWidth="1"/>
+    <col min="1797" max="1797" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1798" max="1798" width="13.90625" style="37" customWidth="1"/>
+    <col min="1799" max="1799" width="8.7265625" style="37"/>
+    <col min="1800" max="1800" width="17.90625" style="37" customWidth="1"/>
+    <col min="1801" max="1801" width="8.7265625" style="37"/>
+    <col min="1802" max="1802" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1803" max="2047" width="8.7265625" style="37"/>
+    <col min="2048" max="2048" width="10.90625" style="37" customWidth="1"/>
+    <col min="2049" max="2049" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2050" max="2050" width="8.7265625" style="37"/>
+    <col min="2051" max="2051" width="17" style="37" customWidth="1"/>
+    <col min="2052" max="2052" width="13.90625" style="37" customWidth="1"/>
+    <col min="2053" max="2053" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2054" max="2054" width="13.90625" style="37" customWidth="1"/>
+    <col min="2055" max="2055" width="8.7265625" style="37"/>
+    <col min="2056" max="2056" width="17.90625" style="37" customWidth="1"/>
+    <col min="2057" max="2057" width="8.7265625" style="37"/>
+    <col min="2058" max="2058" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2059" max="2303" width="8.7265625" style="37"/>
+    <col min="2304" max="2304" width="10.90625" style="37" customWidth="1"/>
+    <col min="2305" max="2305" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2306" max="2306" width="8.7265625" style="37"/>
+    <col min="2307" max="2307" width="17" style="37" customWidth="1"/>
+    <col min="2308" max="2308" width="13.90625" style="37" customWidth="1"/>
+    <col min="2309" max="2309" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2310" max="2310" width="13.90625" style="37" customWidth="1"/>
+    <col min="2311" max="2311" width="8.7265625" style="37"/>
+    <col min="2312" max="2312" width="17.90625" style="37" customWidth="1"/>
+    <col min="2313" max="2313" width="8.7265625" style="37"/>
+    <col min="2314" max="2314" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2315" max="2559" width="8.7265625" style="37"/>
+    <col min="2560" max="2560" width="10.90625" style="37" customWidth="1"/>
+    <col min="2561" max="2561" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2562" max="2562" width="8.7265625" style="37"/>
+    <col min="2563" max="2563" width="17" style="37" customWidth="1"/>
+    <col min="2564" max="2564" width="13.90625" style="37" customWidth="1"/>
+    <col min="2565" max="2565" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2566" max="2566" width="13.90625" style="37" customWidth="1"/>
+    <col min="2567" max="2567" width="8.7265625" style="37"/>
+    <col min="2568" max="2568" width="17.90625" style="37" customWidth="1"/>
+    <col min="2569" max="2569" width="8.7265625" style="37"/>
+    <col min="2570" max="2570" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2571" max="2815" width="8.7265625" style="37"/>
+    <col min="2816" max="2816" width="10.90625" style="37" customWidth="1"/>
+    <col min="2817" max="2817" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2818" max="2818" width="8.7265625" style="37"/>
+    <col min="2819" max="2819" width="17" style="37" customWidth="1"/>
+    <col min="2820" max="2820" width="13.90625" style="37" customWidth="1"/>
+    <col min="2821" max="2821" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2822" max="2822" width="13.90625" style="37" customWidth="1"/>
+    <col min="2823" max="2823" width="8.7265625" style="37"/>
+    <col min="2824" max="2824" width="17.90625" style="37" customWidth="1"/>
+    <col min="2825" max="2825" width="8.7265625" style="37"/>
+    <col min="2826" max="2826" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2827" max="3071" width="8.7265625" style="37"/>
+    <col min="3072" max="3072" width="10.90625" style="37" customWidth="1"/>
+    <col min="3073" max="3073" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3074" max="3074" width="8.7265625" style="37"/>
+    <col min="3075" max="3075" width="17" style="37" customWidth="1"/>
+    <col min="3076" max="3076" width="13.90625" style="37" customWidth="1"/>
+    <col min="3077" max="3077" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3078" max="3078" width="13.90625" style="37" customWidth="1"/>
+    <col min="3079" max="3079" width="8.7265625" style="37"/>
+    <col min="3080" max="3080" width="17.90625" style="37" customWidth="1"/>
+    <col min="3081" max="3081" width="8.7265625" style="37"/>
+    <col min="3082" max="3082" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3083" max="3327" width="8.7265625" style="37"/>
+    <col min="3328" max="3328" width="10.90625" style="37" customWidth="1"/>
+    <col min="3329" max="3329" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3330" max="3330" width="8.7265625" style="37"/>
+    <col min="3331" max="3331" width="17" style="37" customWidth="1"/>
+    <col min="3332" max="3332" width="13.90625" style="37" customWidth="1"/>
+    <col min="3333" max="3333" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3334" max="3334" width="13.90625" style="37" customWidth="1"/>
+    <col min="3335" max="3335" width="8.7265625" style="37"/>
+    <col min="3336" max="3336" width="17.90625" style="37" customWidth="1"/>
+    <col min="3337" max="3337" width="8.7265625" style="37"/>
+    <col min="3338" max="3338" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3339" max="3583" width="8.7265625" style="37"/>
+    <col min="3584" max="3584" width="10.90625" style="37" customWidth="1"/>
+    <col min="3585" max="3585" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3586" max="3586" width="8.7265625" style="37"/>
+    <col min="3587" max="3587" width="17" style="37" customWidth="1"/>
+    <col min="3588" max="3588" width="13.90625" style="37" customWidth="1"/>
+    <col min="3589" max="3589" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3590" max="3590" width="13.90625" style="37" customWidth="1"/>
+    <col min="3591" max="3591" width="8.7265625" style="37"/>
+    <col min="3592" max="3592" width="17.90625" style="37" customWidth="1"/>
+    <col min="3593" max="3593" width="8.7265625" style="37"/>
+    <col min="3594" max="3594" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3595" max="3839" width="8.7265625" style="37"/>
+    <col min="3840" max="3840" width="10.90625" style="37" customWidth="1"/>
+    <col min="3841" max="3841" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3842" max="3842" width="8.7265625" style="37"/>
+    <col min="3843" max="3843" width="17" style="37" customWidth="1"/>
+    <col min="3844" max="3844" width="13.90625" style="37" customWidth="1"/>
+    <col min="3845" max="3845" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3846" max="3846" width="13.90625" style="37" customWidth="1"/>
+    <col min="3847" max="3847" width="8.7265625" style="37"/>
+    <col min="3848" max="3848" width="17.90625" style="37" customWidth="1"/>
+    <col min="3849" max="3849" width="8.7265625" style="37"/>
+    <col min="3850" max="3850" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3851" max="4095" width="8.7265625" style="37"/>
+    <col min="4096" max="4096" width="10.90625" style="37" customWidth="1"/>
+    <col min="4097" max="4097" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4098" max="4098" width="8.7265625" style="37"/>
+    <col min="4099" max="4099" width="17" style="37" customWidth="1"/>
+    <col min="4100" max="4100" width="13.90625" style="37" customWidth="1"/>
+    <col min="4101" max="4101" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4102" max="4102" width="13.90625" style="37" customWidth="1"/>
+    <col min="4103" max="4103" width="8.7265625" style="37"/>
+    <col min="4104" max="4104" width="17.90625" style="37" customWidth="1"/>
+    <col min="4105" max="4105" width="8.7265625" style="37"/>
+    <col min="4106" max="4106" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4107" max="4351" width="8.7265625" style="37"/>
+    <col min="4352" max="4352" width="10.90625" style="37" customWidth="1"/>
+    <col min="4353" max="4353" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4354" max="4354" width="8.7265625" style="37"/>
+    <col min="4355" max="4355" width="17" style="37" customWidth="1"/>
+    <col min="4356" max="4356" width="13.90625" style="37" customWidth="1"/>
+    <col min="4357" max="4357" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4358" max="4358" width="13.90625" style="37" customWidth="1"/>
+    <col min="4359" max="4359" width="8.7265625" style="37"/>
+    <col min="4360" max="4360" width="17.90625" style="37" customWidth="1"/>
+    <col min="4361" max="4361" width="8.7265625" style="37"/>
+    <col min="4362" max="4362" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4363" max="4607" width="8.7265625" style="37"/>
+    <col min="4608" max="4608" width="10.90625" style="37" customWidth="1"/>
+    <col min="4609" max="4609" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4610" max="4610" width="8.7265625" style="37"/>
+    <col min="4611" max="4611" width="17" style="37" customWidth="1"/>
+    <col min="4612" max="4612" width="13.90625" style="37" customWidth="1"/>
+    <col min="4613" max="4613" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4614" max="4614" width="13.90625" style="37" customWidth="1"/>
+    <col min="4615" max="4615" width="8.7265625" style="37"/>
+    <col min="4616" max="4616" width="17.90625" style="37" customWidth="1"/>
+    <col min="4617" max="4617" width="8.7265625" style="37"/>
+    <col min="4618" max="4618" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4619" max="4863" width="8.7265625" style="37"/>
+    <col min="4864" max="4864" width="10.90625" style="37" customWidth="1"/>
+    <col min="4865" max="4865" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4866" max="4866" width="8.7265625" style="37"/>
+    <col min="4867" max="4867" width="17" style="37" customWidth="1"/>
+    <col min="4868" max="4868" width="13.90625" style="37" customWidth="1"/>
+    <col min="4869" max="4869" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4870" max="4870" width="13.90625" style="37" customWidth="1"/>
+    <col min="4871" max="4871" width="8.7265625" style="37"/>
+    <col min="4872" max="4872" width="17.90625" style="37" customWidth="1"/>
+    <col min="4873" max="4873" width="8.7265625" style="37"/>
+    <col min="4874" max="4874" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4875" max="5119" width="8.7265625" style="37"/>
+    <col min="5120" max="5120" width="10.90625" style="37" customWidth="1"/>
+    <col min="5121" max="5121" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5122" max="5122" width="8.7265625" style="37"/>
+    <col min="5123" max="5123" width="17" style="37" customWidth="1"/>
+    <col min="5124" max="5124" width="13.90625" style="37" customWidth="1"/>
+    <col min="5125" max="5125" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5126" max="5126" width="13.90625" style="37" customWidth="1"/>
+    <col min="5127" max="5127" width="8.7265625" style="37"/>
+    <col min="5128" max="5128" width="17.90625" style="37" customWidth="1"/>
+    <col min="5129" max="5129" width="8.7265625" style="37"/>
+    <col min="5130" max="5130" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5131" max="5375" width="8.7265625" style="37"/>
+    <col min="5376" max="5376" width="10.90625" style="37" customWidth="1"/>
+    <col min="5377" max="5377" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5378" max="5378" width="8.7265625" style="37"/>
+    <col min="5379" max="5379" width="17" style="37" customWidth="1"/>
+    <col min="5380" max="5380" width="13.90625" style="37" customWidth="1"/>
+    <col min="5381" max="5381" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5382" max="5382" width="13.90625" style="37" customWidth="1"/>
+    <col min="5383" max="5383" width="8.7265625" style="37"/>
+    <col min="5384" max="5384" width="17.90625" style="37" customWidth="1"/>
+    <col min="5385" max="5385" width="8.7265625" style="37"/>
+    <col min="5386" max="5386" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5387" max="5631" width="8.7265625" style="37"/>
+    <col min="5632" max="5632" width="10.90625" style="37" customWidth="1"/>
+    <col min="5633" max="5633" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5634" max="5634" width="8.7265625" style="37"/>
+    <col min="5635" max="5635" width="17" style="37" customWidth="1"/>
+    <col min="5636" max="5636" width="13.90625" style="37" customWidth="1"/>
+    <col min="5637" max="5637" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5638" max="5638" width="13.90625" style="37" customWidth="1"/>
+    <col min="5639" max="5639" width="8.7265625" style="37"/>
+    <col min="5640" max="5640" width="17.90625" style="37" customWidth="1"/>
+    <col min="5641" max="5641" width="8.7265625" style="37"/>
+    <col min="5642" max="5642" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5643" max="5887" width="8.7265625" style="37"/>
+    <col min="5888" max="5888" width="10.90625" style="37" customWidth="1"/>
+    <col min="5889" max="5889" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5890" max="5890" width="8.7265625" style="37"/>
+    <col min="5891" max="5891" width="17" style="37" customWidth="1"/>
+    <col min="5892" max="5892" width="13.90625" style="37" customWidth="1"/>
+    <col min="5893" max="5893" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5894" max="5894" width="13.90625" style="37" customWidth="1"/>
+    <col min="5895" max="5895" width="8.7265625" style="37"/>
+    <col min="5896" max="5896" width="17.90625" style="37" customWidth="1"/>
+    <col min="5897" max="5897" width="8.7265625" style="37"/>
+    <col min="5898" max="5898" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5899" max="6143" width="8.7265625" style="37"/>
+    <col min="6144" max="6144" width="10.90625" style="37" customWidth="1"/>
+    <col min="6145" max="6145" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6146" max="6146" width="8.7265625" style="37"/>
+    <col min="6147" max="6147" width="17" style="37" customWidth="1"/>
+    <col min="6148" max="6148" width="13.90625" style="37" customWidth="1"/>
+    <col min="6149" max="6149" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6150" max="6150" width="13.90625" style="37" customWidth="1"/>
+    <col min="6151" max="6151" width="8.7265625" style="37"/>
+    <col min="6152" max="6152" width="17.90625" style="37" customWidth="1"/>
+    <col min="6153" max="6153" width="8.7265625" style="37"/>
+    <col min="6154" max="6154" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6155" max="6399" width="8.7265625" style="37"/>
+    <col min="6400" max="6400" width="10.90625" style="37" customWidth="1"/>
+    <col min="6401" max="6401" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6402" max="6402" width="8.7265625" style="37"/>
+    <col min="6403" max="6403" width="17" style="37" customWidth="1"/>
+    <col min="6404" max="6404" width="13.90625" style="37" customWidth="1"/>
+    <col min="6405" max="6405" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6406" max="6406" width="13.90625" style="37" customWidth="1"/>
+    <col min="6407" max="6407" width="8.7265625" style="37"/>
+    <col min="6408" max="6408" width="17.90625" style="37" customWidth="1"/>
+    <col min="6409" max="6409" width="8.7265625" style="37"/>
+    <col min="6410" max="6410" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6411" max="6655" width="8.7265625" style="37"/>
+    <col min="6656" max="6656" width="10.90625" style="37" customWidth="1"/>
+    <col min="6657" max="6657" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6658" max="6658" width="8.7265625" style="37"/>
+    <col min="6659" max="6659" width="17" style="37" customWidth="1"/>
+    <col min="6660" max="6660" width="13.90625" style="37" customWidth="1"/>
+    <col min="6661" max="6661" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6662" max="6662" width="13.90625" style="37" customWidth="1"/>
+    <col min="6663" max="6663" width="8.7265625" style="37"/>
+    <col min="6664" max="6664" width="17.90625" style="37" customWidth="1"/>
+    <col min="6665" max="6665" width="8.7265625" style="37"/>
+    <col min="6666" max="6666" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6667" max="6911" width="8.7265625" style="37"/>
+    <col min="6912" max="6912" width="10.90625" style="37" customWidth="1"/>
+    <col min="6913" max="6913" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6914" max="6914" width="8.7265625" style="37"/>
+    <col min="6915" max="6915" width="17" style="37" customWidth="1"/>
+    <col min="6916" max="6916" width="13.90625" style="37" customWidth="1"/>
+    <col min="6917" max="6917" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6918" max="6918" width="13.90625" style="37" customWidth="1"/>
+    <col min="6919" max="6919" width="8.7265625" style="37"/>
+    <col min="6920" max="6920" width="17.90625" style="37" customWidth="1"/>
+    <col min="6921" max="6921" width="8.7265625" style="37"/>
+    <col min="6922" max="6922" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6923" max="7167" width="8.7265625" style="37"/>
+    <col min="7168" max="7168" width="10.90625" style="37" customWidth="1"/>
+    <col min="7169" max="7169" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7170" max="7170" width="8.7265625" style="37"/>
+    <col min="7171" max="7171" width="17" style="37" customWidth="1"/>
+    <col min="7172" max="7172" width="13.90625" style="37" customWidth="1"/>
+    <col min="7173" max="7173" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7174" max="7174" width="13.90625" style="37" customWidth="1"/>
+    <col min="7175" max="7175" width="8.7265625" style="37"/>
+    <col min="7176" max="7176" width="17.90625" style="37" customWidth="1"/>
+    <col min="7177" max="7177" width="8.7265625" style="37"/>
+    <col min="7178" max="7178" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7179" max="7423" width="8.7265625" style="37"/>
+    <col min="7424" max="7424" width="10.90625" style="37" customWidth="1"/>
+    <col min="7425" max="7425" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7426" max="7426" width="8.7265625" style="37"/>
+    <col min="7427" max="7427" width="17" style="37" customWidth="1"/>
+    <col min="7428" max="7428" width="13.90625" style="37" customWidth="1"/>
+    <col min="7429" max="7429" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7430" max="7430" width="13.90625" style="37" customWidth="1"/>
+    <col min="7431" max="7431" width="8.7265625" style="37"/>
+    <col min="7432" max="7432" width="17.90625" style="37" customWidth="1"/>
+    <col min="7433" max="7433" width="8.7265625" style="37"/>
+    <col min="7434" max="7434" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7435" max="7679" width="8.7265625" style="37"/>
+    <col min="7680" max="7680" width="10.90625" style="37" customWidth="1"/>
+    <col min="7681" max="7681" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7682" max="7682" width="8.7265625" style="37"/>
+    <col min="7683" max="7683" width="17" style="37" customWidth="1"/>
+    <col min="7684" max="7684" width="13.90625" style="37" customWidth="1"/>
+    <col min="7685" max="7685" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7686" max="7686" width="13.90625" style="37" customWidth="1"/>
+    <col min="7687" max="7687" width="8.7265625" style="37"/>
+    <col min="7688" max="7688" width="17.90625" style="37" customWidth="1"/>
+    <col min="7689" max="7689" width="8.7265625" style="37"/>
+    <col min="7690" max="7690" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7691" max="7935" width="8.7265625" style="37"/>
+    <col min="7936" max="7936" width="10.90625" style="37" customWidth="1"/>
+    <col min="7937" max="7937" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7938" max="7938" width="8.7265625" style="37"/>
+    <col min="7939" max="7939" width="17" style="37" customWidth="1"/>
+    <col min="7940" max="7940" width="13.90625" style="37" customWidth="1"/>
+    <col min="7941" max="7941" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7942" max="7942" width="13.90625" style="37" customWidth="1"/>
+    <col min="7943" max="7943" width="8.7265625" style="37"/>
+    <col min="7944" max="7944" width="17.90625" style="37" customWidth="1"/>
+    <col min="7945" max="7945" width="8.7265625" style="37"/>
+    <col min="7946" max="7946" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7947" max="8191" width="8.7265625" style="37"/>
+    <col min="8192" max="8192" width="10.90625" style="37" customWidth="1"/>
+    <col min="8193" max="8193" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8194" max="8194" width="8.7265625" style="37"/>
+    <col min="8195" max="8195" width="17" style="37" customWidth="1"/>
+    <col min="8196" max="8196" width="13.90625" style="37" customWidth="1"/>
+    <col min="8197" max="8197" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8198" max="8198" width="13.90625" style="37" customWidth="1"/>
+    <col min="8199" max="8199" width="8.7265625" style="37"/>
+    <col min="8200" max="8200" width="17.90625" style="37" customWidth="1"/>
+    <col min="8201" max="8201" width="8.7265625" style="37"/>
+    <col min="8202" max="8202" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8203" max="8447" width="8.7265625" style="37"/>
+    <col min="8448" max="8448" width="10.90625" style="37" customWidth="1"/>
+    <col min="8449" max="8449" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8450" max="8450" width="8.7265625" style="37"/>
+    <col min="8451" max="8451" width="17" style="37" customWidth="1"/>
+    <col min="8452" max="8452" width="13.90625" style="37" customWidth="1"/>
+    <col min="8453" max="8453" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8454" max="8454" width="13.90625" style="37" customWidth="1"/>
+    <col min="8455" max="8455" width="8.7265625" style="37"/>
+    <col min="8456" max="8456" width="17.90625" style="37" customWidth="1"/>
+    <col min="8457" max="8457" width="8.7265625" style="37"/>
+    <col min="8458" max="8458" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8459" max="8703" width="8.7265625" style="37"/>
+    <col min="8704" max="8704" width="10.90625" style="37" customWidth="1"/>
+    <col min="8705" max="8705" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8706" max="8706" width="8.7265625" style="37"/>
+    <col min="8707" max="8707" width="17" style="37" customWidth="1"/>
+    <col min="8708" max="8708" width="13.90625" style="37" customWidth="1"/>
+    <col min="8709" max="8709" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8710" max="8710" width="13.90625" style="37" customWidth="1"/>
+    <col min="8711" max="8711" width="8.7265625" style="37"/>
+    <col min="8712" max="8712" width="17.90625" style="37" customWidth="1"/>
+    <col min="8713" max="8713" width="8.7265625" style="37"/>
+    <col min="8714" max="8714" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8715" max="8959" width="8.7265625" style="37"/>
+    <col min="8960" max="8960" width="10.90625" style="37" customWidth="1"/>
+    <col min="8961" max="8961" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8962" max="8962" width="8.7265625" style="37"/>
+    <col min="8963" max="8963" width="17" style="37" customWidth="1"/>
+    <col min="8964" max="8964" width="13.90625" style="37" customWidth="1"/>
+    <col min="8965" max="8965" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8966" max="8966" width="13.90625" style="37" customWidth="1"/>
+    <col min="8967" max="8967" width="8.7265625" style="37"/>
+    <col min="8968" max="8968" width="17.90625" style="37" customWidth="1"/>
+    <col min="8969" max="8969" width="8.7265625" style="37"/>
+    <col min="8970" max="8970" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8971" max="9215" width="8.7265625" style="37"/>
+    <col min="9216" max="9216" width="10.90625" style="37" customWidth="1"/>
+    <col min="9217" max="9217" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9218" max="9218" width="8.7265625" style="37"/>
+    <col min="9219" max="9219" width="17" style="37" customWidth="1"/>
+    <col min="9220" max="9220" width="13.90625" style="37" customWidth="1"/>
+    <col min="9221" max="9221" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9222" max="9222" width="13.90625" style="37" customWidth="1"/>
+    <col min="9223" max="9223" width="8.7265625" style="37"/>
+    <col min="9224" max="9224" width="17.90625" style="37" customWidth="1"/>
+    <col min="9225" max="9225" width="8.7265625" style="37"/>
+    <col min="9226" max="9226" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9227" max="9471" width="8.7265625" style="37"/>
+    <col min="9472" max="9472" width="10.90625" style="37" customWidth="1"/>
+    <col min="9473" max="9473" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9474" max="9474" width="8.7265625" style="37"/>
+    <col min="9475" max="9475" width="17" style="37" customWidth="1"/>
+    <col min="9476" max="9476" width="13.90625" style="37" customWidth="1"/>
+    <col min="9477" max="9477" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9478" max="9478" width="13.90625" style="37" customWidth="1"/>
+    <col min="9479" max="9479" width="8.7265625" style="37"/>
+    <col min="9480" max="9480" width="17.90625" style="37" customWidth="1"/>
+    <col min="9481" max="9481" width="8.7265625" style="37"/>
+    <col min="9482" max="9482" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9483" max="9727" width="8.7265625" style="37"/>
+    <col min="9728" max="9728" width="10.90625" style="37" customWidth="1"/>
+    <col min="9729" max="9729" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9730" max="9730" width="8.7265625" style="37"/>
+    <col min="9731" max="9731" width="17" style="37" customWidth="1"/>
+    <col min="9732" max="9732" width="13.90625" style="37" customWidth="1"/>
+    <col min="9733" max="9733" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9734" max="9734" width="13.90625" style="37" customWidth="1"/>
+    <col min="9735" max="9735" width="8.7265625" style="37"/>
+    <col min="9736" max="9736" width="17.90625" style="37" customWidth="1"/>
+    <col min="9737" max="9737" width="8.7265625" style="37"/>
+    <col min="9738" max="9738" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9739" max="9983" width="8.7265625" style="37"/>
+    <col min="9984" max="9984" width="10.90625" style="37" customWidth="1"/>
+    <col min="9985" max="9985" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9986" max="9986" width="8.7265625" style="37"/>
+    <col min="9987" max="9987" width="17" style="37" customWidth="1"/>
+    <col min="9988" max="9988" width="13.90625" style="37" customWidth="1"/>
+    <col min="9989" max="9989" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9990" max="9990" width="13.90625" style="37" customWidth="1"/>
+    <col min="9991" max="9991" width="8.7265625" style="37"/>
+    <col min="9992" max="9992" width="17.90625" style="37" customWidth="1"/>
+    <col min="9993" max="9993" width="8.7265625" style="37"/>
+    <col min="9994" max="9994" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9995" max="10239" width="8.7265625" style="37"/>
+    <col min="10240" max="10240" width="10.90625" style="37" customWidth="1"/>
+    <col min="10241" max="10241" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10242" max="10242" width="8.7265625" style="37"/>
+    <col min="10243" max="10243" width="17" style="37" customWidth="1"/>
+    <col min="10244" max="10244" width="13.90625" style="37" customWidth="1"/>
+    <col min="10245" max="10245" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10246" max="10246" width="13.90625" style="37" customWidth="1"/>
+    <col min="10247" max="10247" width="8.7265625" style="37"/>
+    <col min="10248" max="10248" width="17.90625" style="37" customWidth="1"/>
+    <col min="10249" max="10249" width="8.7265625" style="37"/>
+    <col min="10250" max="10250" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10251" max="10495" width="8.7265625" style="37"/>
+    <col min="10496" max="10496" width="10.90625" style="37" customWidth="1"/>
+    <col min="10497" max="10497" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10498" max="10498" width="8.7265625" style="37"/>
+    <col min="10499" max="10499" width="17" style="37" customWidth="1"/>
+    <col min="10500" max="10500" width="13.90625" style="37" customWidth="1"/>
+    <col min="10501" max="10501" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10502" max="10502" width="13.90625" style="37" customWidth="1"/>
+    <col min="10503" max="10503" width="8.7265625" style="37"/>
+    <col min="10504" max="10504" width="17.90625" style="37" customWidth="1"/>
+    <col min="10505" max="10505" width="8.7265625" style="37"/>
+    <col min="10506" max="10506" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10507" max="10751" width="8.7265625" style="37"/>
+    <col min="10752" max="10752" width="10.90625" style="37" customWidth="1"/>
+    <col min="10753" max="10753" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10754" max="10754" width="8.7265625" style="37"/>
+    <col min="10755" max="10755" width="17" style="37" customWidth="1"/>
+    <col min="10756" max="10756" width="13.90625" style="37" customWidth="1"/>
+    <col min="10757" max="10757" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10758" max="10758" width="13.90625" style="37" customWidth="1"/>
+    <col min="10759" max="10759" width="8.7265625" style="37"/>
+    <col min="10760" max="10760" width="17.90625" style="37" customWidth="1"/>
+    <col min="10761" max="10761" width="8.7265625" style="37"/>
+    <col min="10762" max="10762" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10763" max="11007" width="8.7265625" style="37"/>
+    <col min="11008" max="11008" width="10.90625" style="37" customWidth="1"/>
+    <col min="11009" max="11009" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11010" max="11010" width="8.7265625" style="37"/>
+    <col min="11011" max="11011" width="17" style="37" customWidth="1"/>
+    <col min="11012" max="11012" width="13.90625" style="37" customWidth="1"/>
+    <col min="11013" max="11013" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11014" max="11014" width="13.90625" style="37" customWidth="1"/>
+    <col min="11015" max="11015" width="8.7265625" style="37"/>
+    <col min="11016" max="11016" width="17.90625" style="37" customWidth="1"/>
+    <col min="11017" max="11017" width="8.7265625" style="37"/>
+    <col min="11018" max="11018" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11019" max="11263" width="8.7265625" style="37"/>
+    <col min="11264" max="11264" width="10.90625" style="37" customWidth="1"/>
+    <col min="11265" max="11265" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11266" max="11266" width="8.7265625" style="37"/>
+    <col min="11267" max="11267" width="17" style="37" customWidth="1"/>
+    <col min="11268" max="11268" width="13.90625" style="37" customWidth="1"/>
+    <col min="11269" max="11269" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11270" max="11270" width="13.90625" style="37" customWidth="1"/>
+    <col min="11271" max="11271" width="8.7265625" style="37"/>
+    <col min="11272" max="11272" width="17.90625" style="37" customWidth="1"/>
+    <col min="11273" max="11273" width="8.7265625" style="37"/>
+    <col min="11274" max="11274" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11275" max="11519" width="8.7265625" style="37"/>
+    <col min="11520" max="11520" width="10.90625" style="37" customWidth="1"/>
+    <col min="11521" max="11521" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11522" max="11522" width="8.7265625" style="37"/>
+    <col min="11523" max="11523" width="17" style="37" customWidth="1"/>
+    <col min="11524" max="11524" width="13.90625" style="37" customWidth="1"/>
+    <col min="11525" max="11525" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11526" max="11526" width="13.90625" style="37" customWidth="1"/>
+    <col min="11527" max="11527" width="8.7265625" style="37"/>
+    <col min="11528" max="11528" width="17.90625" style="37" customWidth="1"/>
+    <col min="11529" max="11529" width="8.7265625" style="37"/>
+    <col min="11530" max="11530" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11531" max="11775" width="8.7265625" style="37"/>
+    <col min="11776" max="11776" width="10.90625" style="37" customWidth="1"/>
+    <col min="11777" max="11777" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11778" max="11778" width="8.7265625" style="37"/>
+    <col min="11779" max="11779" width="17" style="37" customWidth="1"/>
+    <col min="11780" max="11780" width="13.90625" style="37" customWidth="1"/>
+    <col min="11781" max="11781" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11782" max="11782" width="13.90625" style="37" customWidth="1"/>
+    <col min="11783" max="11783" width="8.7265625" style="37"/>
+    <col min="11784" max="11784" width="17.90625" style="37" customWidth="1"/>
+    <col min="11785" max="11785" width="8.7265625" style="37"/>
+    <col min="11786" max="11786" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11787" max="12031" width="8.7265625" style="37"/>
+    <col min="12032" max="12032" width="10.90625" style="37" customWidth="1"/>
+    <col min="12033" max="12033" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12034" max="12034" width="8.7265625" style="37"/>
+    <col min="12035" max="12035" width="17" style="37" customWidth="1"/>
+    <col min="12036" max="12036" width="13.90625" style="37" customWidth="1"/>
+    <col min="12037" max="12037" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12038" max="12038" width="13.90625" style="37" customWidth="1"/>
+    <col min="12039" max="12039" width="8.7265625" style="37"/>
+    <col min="12040" max="12040" width="17.90625" style="37" customWidth="1"/>
+    <col min="12041" max="12041" width="8.7265625" style="37"/>
+    <col min="12042" max="12042" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12043" max="12287" width="8.7265625" style="37"/>
+    <col min="12288" max="12288" width="10.90625" style="37" customWidth="1"/>
+    <col min="12289" max="12289" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12290" max="12290" width="8.7265625" style="37"/>
+    <col min="12291" max="12291" width="17" style="37" customWidth="1"/>
+    <col min="12292" max="12292" width="13.90625" style="37" customWidth="1"/>
+    <col min="12293" max="12293" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12294" max="12294" width="13.90625" style="37" customWidth="1"/>
+    <col min="12295" max="12295" width="8.7265625" style="37"/>
+    <col min="12296" max="12296" width="17.90625" style="37" customWidth="1"/>
+    <col min="12297" max="12297" width="8.7265625" style="37"/>
+    <col min="12298" max="12298" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12299" max="12543" width="8.7265625" style="37"/>
+    <col min="12544" max="12544" width="10.90625" style="37" customWidth="1"/>
+    <col min="12545" max="12545" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12546" max="12546" width="8.7265625" style="37"/>
+    <col min="12547" max="12547" width="17" style="37" customWidth="1"/>
+    <col min="12548" max="12548" width="13.90625" style="37" customWidth="1"/>
+    <col min="12549" max="12549" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12550" max="12550" width="13.90625" style="37" customWidth="1"/>
+    <col min="12551" max="12551" width="8.7265625" style="37"/>
+    <col min="12552" max="12552" width="17.90625" style="37" customWidth="1"/>
+    <col min="12553" max="12553" width="8.7265625" style="37"/>
+    <col min="12554" max="12554" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12555" max="12799" width="8.7265625" style="37"/>
+    <col min="12800" max="12800" width="10.90625" style="37" customWidth="1"/>
+    <col min="12801" max="12801" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12802" max="12802" width="8.7265625" style="37"/>
+    <col min="12803" max="12803" width="17" style="37" customWidth="1"/>
+    <col min="12804" max="12804" width="13.90625" style="37" customWidth="1"/>
+    <col min="12805" max="12805" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12806" max="12806" width="13.90625" style="37" customWidth="1"/>
+    <col min="12807" max="12807" width="8.7265625" style="37"/>
+    <col min="12808" max="12808" width="17.90625" style="37" customWidth="1"/>
+    <col min="12809" max="12809" width="8.7265625" style="37"/>
+    <col min="12810" max="12810" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12811" max="13055" width="8.7265625" style="37"/>
+    <col min="13056" max="13056" width="10.90625" style="37" customWidth="1"/>
+    <col min="13057" max="13057" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13058" max="13058" width="8.7265625" style="37"/>
+    <col min="13059" max="13059" width="17" style="37" customWidth="1"/>
+    <col min="13060" max="13060" width="13.90625" style="37" customWidth="1"/>
+    <col min="13061" max="13061" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13062" max="13062" width="13.90625" style="37" customWidth="1"/>
+    <col min="13063" max="13063" width="8.7265625" style="37"/>
+    <col min="13064" max="13064" width="17.90625" style="37" customWidth="1"/>
+    <col min="13065" max="13065" width="8.7265625" style="37"/>
+    <col min="13066" max="13066" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13067" max="13311" width="8.7265625" style="37"/>
+    <col min="13312" max="13312" width="10.90625" style="37" customWidth="1"/>
+    <col min="13313" max="13313" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13314" max="13314" width="8.7265625" style="37"/>
+    <col min="13315" max="13315" width="17" style="37" customWidth="1"/>
+    <col min="13316" max="13316" width="13.90625" style="37" customWidth="1"/>
+    <col min="13317" max="13317" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13318" max="13318" width="13.90625" style="37" customWidth="1"/>
+    <col min="13319" max="13319" width="8.7265625" style="37"/>
+    <col min="13320" max="13320" width="17.90625" style="37" customWidth="1"/>
+    <col min="13321" max="13321" width="8.7265625" style="37"/>
+    <col min="13322" max="13322" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13323" max="13567" width="8.7265625" style="37"/>
+    <col min="13568" max="13568" width="10.90625" style="37" customWidth="1"/>
+    <col min="13569" max="13569" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13570" max="13570" width="8.7265625" style="37"/>
+    <col min="13571" max="13571" width="17" style="37" customWidth="1"/>
+    <col min="13572" max="13572" width="13.90625" style="37" customWidth="1"/>
+    <col min="13573" max="13573" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13574" max="13574" width="13.90625" style="37" customWidth="1"/>
+    <col min="13575" max="13575" width="8.7265625" style="37"/>
+    <col min="13576" max="13576" width="17.90625" style="37" customWidth="1"/>
+    <col min="13577" max="13577" width="8.7265625" style="37"/>
+    <col min="13578" max="13578" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13579" max="13823" width="8.7265625" style="37"/>
+    <col min="13824" max="13824" width="10.90625" style="37" customWidth="1"/>
+    <col min="13825" max="13825" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13826" max="13826" width="8.7265625" style="37"/>
+    <col min="13827" max="13827" width="17" style="37" customWidth="1"/>
+    <col min="13828" max="13828" width="13.90625" style="37" customWidth="1"/>
+    <col min="13829" max="13829" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13830" max="13830" width="13.90625" style="37" customWidth="1"/>
+    <col min="13831" max="13831" width="8.7265625" style="37"/>
+    <col min="13832" max="13832" width="17.90625" style="37" customWidth="1"/>
+    <col min="13833" max="13833" width="8.7265625" style="37"/>
+    <col min="13834" max="13834" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13835" max="14079" width="8.7265625" style="37"/>
+    <col min="14080" max="14080" width="10.90625" style="37" customWidth="1"/>
+    <col min="14081" max="14081" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14082" max="14082" width="8.7265625" style="37"/>
+    <col min="14083" max="14083" width="17" style="37" customWidth="1"/>
+    <col min="14084" max="14084" width="13.90625" style="37" customWidth="1"/>
+    <col min="14085" max="14085" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14086" max="14086" width="13.90625" style="37" customWidth="1"/>
+    <col min="14087" max="14087" width="8.7265625" style="37"/>
+    <col min="14088" max="14088" width="17.90625" style="37" customWidth="1"/>
+    <col min="14089" max="14089" width="8.7265625" style="37"/>
+    <col min="14090" max="14090" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14091" max="14335" width="8.7265625" style="37"/>
+    <col min="14336" max="14336" width="10.90625" style="37" customWidth="1"/>
+    <col min="14337" max="14337" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14338" max="14338" width="8.7265625" style="37"/>
+    <col min="14339" max="14339" width="17" style="37" customWidth="1"/>
+    <col min="14340" max="14340" width="13.90625" style="37" customWidth="1"/>
+    <col min="14341" max="14341" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14342" max="14342" width="13.90625" style="37" customWidth="1"/>
+    <col min="14343" max="14343" width="8.7265625" style="37"/>
+    <col min="14344" max="14344" width="17.90625" style="37" customWidth="1"/>
+    <col min="14345" max="14345" width="8.7265625" style="37"/>
+    <col min="14346" max="14346" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14347" max="14591" width="8.7265625" style="37"/>
+    <col min="14592" max="14592" width="10.90625" style="37" customWidth="1"/>
+    <col min="14593" max="14593" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14594" max="14594" width="8.7265625" style="37"/>
+    <col min="14595" max="14595" width="17" style="37" customWidth="1"/>
+    <col min="14596" max="14596" width="13.90625" style="37" customWidth="1"/>
+    <col min="14597" max="14597" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14598" max="14598" width="13.90625" style="37" customWidth="1"/>
+    <col min="14599" max="14599" width="8.7265625" style="37"/>
+    <col min="14600" max="14600" width="17.90625" style="37" customWidth="1"/>
+    <col min="14601" max="14601" width="8.7265625" style="37"/>
+    <col min="14602" max="14602" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14603" max="14847" width="8.7265625" style="37"/>
+    <col min="14848" max="14848" width="10.90625" style="37" customWidth="1"/>
+    <col min="14849" max="14849" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14850" max="14850" width="8.7265625" style="37"/>
+    <col min="14851" max="14851" width="17" style="37" customWidth="1"/>
+    <col min="14852" max="14852" width="13.90625" style="37" customWidth="1"/>
+    <col min="14853" max="14853" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14854" max="14854" width="13.90625" style="37" customWidth="1"/>
+    <col min="14855" max="14855" width="8.7265625" style="37"/>
+    <col min="14856" max="14856" width="17.90625" style="37" customWidth="1"/>
+    <col min="14857" max="14857" width="8.7265625" style="37"/>
+    <col min="14858" max="14858" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14859" max="15103" width="8.7265625" style="37"/>
+    <col min="15104" max="15104" width="10.90625" style="37" customWidth="1"/>
+    <col min="15105" max="15105" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15106" max="15106" width="8.7265625" style="37"/>
+    <col min="15107" max="15107" width="17" style="37" customWidth="1"/>
+    <col min="15108" max="15108" width="13.90625" style="37" customWidth="1"/>
+    <col min="15109" max="15109" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15110" max="15110" width="13.90625" style="37" customWidth="1"/>
+    <col min="15111" max="15111" width="8.7265625" style="37"/>
+    <col min="15112" max="15112" width="17.90625" style="37" customWidth="1"/>
+    <col min="15113" max="15113" width="8.7265625" style="37"/>
+    <col min="15114" max="15114" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15115" max="15359" width="8.7265625" style="37"/>
+    <col min="15360" max="15360" width="10.90625" style="37" customWidth="1"/>
+    <col min="15361" max="15361" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15362" max="15362" width="8.7265625" style="37"/>
+    <col min="15363" max="15363" width="17" style="37" customWidth="1"/>
+    <col min="15364" max="15364" width="13.90625" style="37" customWidth="1"/>
+    <col min="15365" max="15365" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15366" max="15366" width="13.90625" style="37" customWidth="1"/>
+    <col min="15367" max="15367" width="8.7265625" style="37"/>
+    <col min="15368" max="15368" width="17.90625" style="37" customWidth="1"/>
+    <col min="15369" max="15369" width="8.7265625" style="37"/>
+    <col min="15370" max="15370" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15371" max="15615" width="8.7265625" style="37"/>
+    <col min="15616" max="15616" width="10.90625" style="37" customWidth="1"/>
+    <col min="15617" max="15617" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15618" max="15618" width="8.7265625" style="37"/>
+    <col min="15619" max="15619" width="17" style="37" customWidth="1"/>
+    <col min="15620" max="15620" width="13.90625" style="37" customWidth="1"/>
+    <col min="15621" max="15621" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15622" max="15622" width="13.90625" style="37" customWidth="1"/>
+    <col min="15623" max="15623" width="8.7265625" style="37"/>
+    <col min="15624" max="15624" width="17.90625" style="37" customWidth="1"/>
+    <col min="15625" max="15625" width="8.7265625" style="37"/>
+    <col min="15626" max="15626" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15627" max="15871" width="8.7265625" style="37"/>
+    <col min="15872" max="15872" width="10.90625" style="37" customWidth="1"/>
+    <col min="15873" max="15873" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15874" max="15874" width="8.7265625" style="37"/>
+    <col min="15875" max="15875" width="17" style="37" customWidth="1"/>
+    <col min="15876" max="15876" width="13.90625" style="37" customWidth="1"/>
+    <col min="15877" max="15877" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15878" max="15878" width="13.90625" style="37" customWidth="1"/>
+    <col min="15879" max="15879" width="8.7265625" style="37"/>
+    <col min="15880" max="15880" width="17.90625" style="37" customWidth="1"/>
+    <col min="15881" max="15881" width="8.7265625" style="37"/>
+    <col min="15882" max="15882" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15883" max="16127" width="8.7265625" style="37"/>
+    <col min="16128" max="16128" width="10.90625" style="37" customWidth="1"/>
+    <col min="16129" max="16129" width="22.26953125" style="37" customWidth="1"/>
+    <col min="16130" max="16130" width="8.7265625" style="37"/>
+    <col min="16131" max="16131" width="17" style="37" customWidth="1"/>
+    <col min="16132" max="16132" width="13.90625" style="37" customWidth="1"/>
+    <col min="16133" max="16133" width="20.26953125" style="37" customWidth="1"/>
+    <col min="16134" max="16134" width="13.90625" style="37" customWidth="1"/>
+    <col min="16135" max="16135" width="8.7265625" style="37"/>
+    <col min="16136" max="16136" width="17.90625" style="37" customWidth="1"/>
+    <col min="16137" max="16137" width="8.7265625" style="37"/>
+    <col min="16138" max="16138" width="53.6328125" style="37" customWidth="1"/>
+    <col min="16139" max="16384" width="8.7265625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="31" t="s">
+        <v>990</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="31" t="s">
+        <v>986</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="31" t="s">
+        <v>986</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="31" t="s">
+        <v>986</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60F93F-DDE7-4577-BCA7-BDCFD0F8A197}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.36328125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="33" t="s">
+        <v>976</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="33" t="s">
+        <v>976</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>976</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="33" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>976</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="33" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>975</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8CB9F-21CB-4CA7-BF40-DA6BB340EB8E}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -6583,7 +7930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -6859,7 +8206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -12631,14 +13978,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD16AA3-41A2-4CE2-A54F-A23529603CBB}">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264A0E63-654A-4241-8D6A-763EA143F33E}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.453125" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
@@ -12646,13 +13999,13 @@
     <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" style="2" customWidth="1"/>
     <col min="10" max="10" width="75" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.1796875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>997</v>
       </c>
@@ -12687,588 +14040,373 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>1144</v>
+        <v>1197</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>45</v>
+        <v>975</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>986</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F2" s="33" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F2" s="60" t="s">
         <v>971</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
-        <v>1089</v>
-      </c>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G2" s="53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="33" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>986</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F3" s="33" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F3" s="60" t="s">
         <v>971</v>
       </c>
-      <c r="G3" s="49" t="s">
-        <v>1091</v>
+      <c r="G3" s="15" t="s">
+        <v>1161</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>1092</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="33" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>1095</v>
+        <v>1162</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>1172</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="33" t="s">
-        <v>1097</v>
-      </c>
-      <c r="K5" s="33"/>
-    </row>
-    <row r="6" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>975</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>1099</v>
+      <c r="J5" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>1175</v>
       </c>
       <c r="I6" s="15"/>
-      <c r="J6" s="33" t="s">
-        <v>1100</v>
-      </c>
-      <c r="K6" s="33"/>
+      <c r="J6" s="15" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>1200</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>1102</v>
+      <c r="A7" s="38" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>1178</v>
       </c>
       <c r="I7" s="15"/>
-      <c r="J7" s="33" t="s">
-        <v>1103</v>
-      </c>
-      <c r="K7" s="33"/>
+      <c r="J7" s="15" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>1200</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>1106</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="33" t="s">
-        <v>1107</v>
-      </c>
-      <c r="K8" s="33"/>
+      <c r="A8" s="38" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>1200</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>1147</v>
+        <v>1067</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>975</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>1109</v>
-      </c>
       <c r="H9" s="33" t="s">
-        <v>1110</v>
+        <v>1185</v>
       </c>
       <c r="I9" s="15"/>
-      <c r="J9" s="33" t="s">
-        <v>1111</v>
-      </c>
-      <c r="K9" s="33"/>
+      <c r="J9" s="63" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>1187</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>1147</v>
+        <v>1067</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>975</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>1113</v>
-      </c>
       <c r="H10" s="33" t="s">
-        <v>1114</v>
+        <v>1189</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="33" t="s">
-        <v>1115</v>
-      </c>
-      <c r="K10" s="33"/>
+      <c r="J10" s="64" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>1187</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>1147</v>
+        <v>1071</v>
       </c>
       <c r="B11" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>975</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>1117</v>
-      </c>
       <c r="H11" s="33" t="s">
-        <v>1118</v>
+        <v>1192</v>
       </c>
       <c r="I11" s="15"/>
-      <c r="J11" s="33" t="s">
-        <v>1119</v>
-      </c>
-      <c r="K11" s="33"/>
+      <c r="J11" s="64" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>1187</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>1147</v>
+        <v>1071</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>975</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>1121</v>
-      </c>
       <c r="H12" s="33" t="s">
-        <v>1122</v>
+        <v>1195</v>
       </c>
       <c r="I12" s="15"/>
-      <c r="J12" s="33" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>976</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>1125</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="33" t="s">
-        <v>1127</v>
-      </c>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>1129</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>1130</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="33" t="s">
-        <v>1131</v>
-      </c>
-      <c r="K14" s="33"/>
-    </row>
-    <row r="15" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15" t="s">
-        <v>1135</v>
-      </c>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>1141</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15" t="s">
-        <v>1143</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="33" t="s">
-        <v>1153</v>
-      </c>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="33" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="54" t="s">
-        <v>654</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>661</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>662</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>1155</v>
-      </c>
-      <c r="K20" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A40D45-4A6D-4323-AF2A-723C324D4F9C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1085</v>
+      <c r="J12" s="64" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
@@ -13276,269 +14414,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F67F6C-9C5A-4D9C-A0BA-6CE74C3B3F1E}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.36328125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>979</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>972</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>973</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>974</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>971</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="32" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>971</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="32" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A4186-9BCA-48CF-8DF0-AEF3719878D4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388C2AD6-B218-4E22-9152-9FF923DE673A}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.36328125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>979</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>972</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>973</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>974</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="33" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>1073</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="33" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A8CE6A-08F8-4094-B8C4-805F6E207B55}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A041E8E2-47BE-478A-82CC-ADE978755671}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13549,7 +14429,7 @@
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.1796875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="37"/>
+    <col min="2" max="2" width="8.7265625" style="37" customWidth="1"/>
     <col min="3" max="3" width="17" style="37" customWidth="1"/>
     <col min="4" max="4" width="13.90625" style="37" customWidth="1"/>
     <col min="5" max="5" width="20.26953125" style="37" customWidth="1"/>
@@ -14349,103 +15229,787 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+        <v>1198</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>23</v>
+      </c>
       <c r="D2" s="31" t="s">
-        <v>990</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>1062</v>
+        <v>1037</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>1068</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>971</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="34" t="s">
+        <v>975</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="34" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+        <v>1198</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" s="31" t="s">
-        <v>986</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>1064</v>
+        <v>1037</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>1076</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>975</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I3" s="66"/>
+      <c r="J3" s="34" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+        <v>1198</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>276</v>
+      </c>
       <c r="D4" s="31" t="s">
-        <v>986</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>1065</v>
+        <v>153</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>1072</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>975</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I4" s="66"/>
+      <c r="J4" s="34" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+        <v>1198</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>276</v>
+      </c>
       <c r="D5" s="31" t="s">
-        <v>986</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>1066</v>
+        <v>153</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>1079</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+        <v>971</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>975</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="34" t="s">
+        <v>1081</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60F93F-DDE7-4577-BCA7-BDCFD0F8A197}">
-  <dimension ref="A1:J8"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD16AA3-41A2-4CE2-A54F-A23529603CBB}">
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>986</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>986</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="33" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="33" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>975</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="33" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="33" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="33" t="s">
+        <v>1107</v>
+      </c>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="33" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="33" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="33" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="33" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>976</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="33" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="33" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="33" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="33" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="54" t="s">
+        <v>654</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K20" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A40D45-4A6D-4323-AF2A-723C324D4F9C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F67F6C-9C5A-4D9C-A0BA-6CE74C3B3F1E}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -14496,175 +16060,205 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+        <v>1067</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>971</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="32" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>971</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="32" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A4186-9BCA-48CF-8DF0-AEF3719878D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388C2AD6-B218-4E22-9152-9FF923DE673A}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.36328125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>23</v>
+      </c>
       <c r="D2" s="33" t="s">
-        <v>976</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>1008</v>
+        <v>1037</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>1068</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="33" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+        <v>1071</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>276</v>
+      </c>
       <c r="D3" s="33" t="s">
-        <v>976</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>1010</v>
+        <v>153</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>1072</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+        <v>971</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>1073</v>
+      </c>
       <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>976</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="33" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>976</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="33" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>975</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>1021</v>
-      </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="J3" s="33" t="s">
+        <v>1074</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9C3152-30C7-4072-8C98-7DE2CAF61B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C1C1BB-7BA7-43F4-A20B-C59D6C1770C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="400" windowWidth="18740" windowHeight="9220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="320" windowWidth="19080" windowHeight="9880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -4941,15 +4941,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4973,6 +4964,15 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5268,10 +5268,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="64" t="s">
         <v>970</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -8220,11 +8220,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>989</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8238,9 +8238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H255"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E180" sqref="E180:G180"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13979,12 +13979,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264A0E63-654A-4241-8D6A-763EA143F33E}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -14050,13 +14047,13 @@
       <c r="C2" s="32" t="s">
         <v>1094</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="56" t="s">
         <v>1095</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="57" t="s">
         <v>1120</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="57" t="s">
         <v>971</v>
       </c>
       <c r="G2" s="53" t="s">
@@ -14069,7 +14066,7 @@
       <c r="J2" s="33" t="s">
         <v>1123</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="58" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -14089,7 +14086,7 @@
       <c r="E3" s="15" t="s">
         <v>1160</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="57" t="s">
         <v>971</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -14139,7 +14136,7 @@
       <c r="J4" s="15" t="s">
         <v>1170</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="59" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -14172,7 +14169,7 @@
       <c r="J5" s="15" t="s">
         <v>1173</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="59" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -14205,7 +14202,7 @@
       <c r="J6" s="15" t="s">
         <v>1176</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="59" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -14238,7 +14235,7 @@
       <c r="J7" s="15" t="s">
         <v>1179</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="59" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -14273,11 +14270,11 @@
       <c r="J8" s="15" t="s">
         <v>1183</v>
       </c>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="59" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>1067</v>
       </c>
@@ -14303,14 +14300,14 @@
         <v>1185</v>
       </c>
       <c r="I9" s="15"/>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>1186</v>
       </c>
       <c r="K9" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>1067</v>
       </c>
@@ -14336,14 +14333,14 @@
         <v>1189</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="61" t="s">
         <v>1190</v>
       </c>
       <c r="K10" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>1071</v>
       </c>
@@ -14369,14 +14366,14 @@
         <v>1192</v>
       </c>
       <c r="I11" s="15"/>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="61" t="s">
         <v>1193</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>1071</v>
       </c>
@@ -14402,7 +14399,7 @@
         <v>1195</v>
       </c>
       <c r="I12" s="15"/>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="61" t="s">
         <v>1196</v>
       </c>
       <c r="K12" s="33" t="s">
@@ -14416,9 +14413,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A041E8E2-47BE-478A-82CC-ADE978755671}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15242,7 +15236,7 @@
       <c r="D2" s="31" t="s">
         <v>1037</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="62" t="s">
         <v>1068</v>
       </c>
       <c r="F2" s="31" t="s">
@@ -15254,7 +15248,7 @@
       <c r="H2" s="34" t="s">
         <v>1069</v>
       </c>
-      <c r="I2" s="66"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="34" t="s">
         <v>1070</v>
       </c>
@@ -15272,7 +15266,7 @@
       <c r="D3" s="31" t="s">
         <v>1037</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="62" t="s">
         <v>1076</v>
       </c>
       <c r="F3" s="31" t="s">
@@ -15284,7 +15278,7 @@
       <c r="H3" s="34" t="s">
         <v>1077</v>
       </c>
-      <c r="I3" s="66"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="34" t="s">
         <v>1078</v>
       </c>
@@ -15302,7 +15296,7 @@
       <c r="D4" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="62" t="s">
         <v>1072</v>
       </c>
       <c r="F4" s="31" t="s">
@@ -15314,7 +15308,7 @@
       <c r="H4" s="34" t="s">
         <v>1073</v>
       </c>
-      <c r="I4" s="66"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="34" t="s">
         <v>1074</v>
       </c>
@@ -15332,7 +15326,7 @@
       <c r="D5" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="62" t="s">
         <v>1079</v>
       </c>
       <c r="F5" s="31" t="s">
@@ -15344,7 +15338,7 @@
       <c r="H5" s="34" t="s">
         <v>1080</v>
       </c>
-      <c r="I5" s="66"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="34" t="s">
         <v>1081</v>
       </c>

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,29 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C1C1BB-7BA7-43F4-A20B-C59D6C1770C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC93F26-7F73-4AC3-A2BC-E9BC5EF2164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="320" windowWidth="19080" windowHeight="9880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="160" windowWidth="17200" windowHeight="9880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
     <sheet name="DDF Terminology 2022-12-16" sheetId="1" r:id="rId2"/>
-    <sheet name="Terminology Changes Sp6 - new" sheetId="14" r:id="rId3"/>
-    <sheet name="Terminology Changes Sp6 - chg" sheetId="13" r:id="rId4"/>
-    <sheet name="Terminology Changes Sp5 - new" sheetId="11" r:id="rId5"/>
-    <sheet name="Terminology Changes Sp5 - chg" sheetId="12" r:id="rId6"/>
-    <sheet name="Terminology Changes Sp4 - new" sheetId="9" r:id="rId7"/>
-    <sheet name="Terminology Changes Sp4 - chg" sheetId="10" r:id="rId8"/>
-    <sheet name="Terminology Changes Sp3 - new" sheetId="8" r:id="rId9"/>
-    <sheet name="Terminology Changes Sp3 - chg" sheetId="7" r:id="rId10"/>
-    <sheet name="Terminology Changes Sp2 - new" sheetId="6" r:id="rId11"/>
-    <sheet name="Terminology Changes Sp2 - chg" sheetId="5" r:id="rId12"/>
-    <sheet name="Terminology Changes Sp1 - new" sheetId="3" r:id="rId13"/>
-    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId14"/>
+    <sheet name="Terminology Changes Sp7 - new" sheetId="15" r:id="rId3"/>
+    <sheet name="Terminology Changes Sp7 - chg" sheetId="16" r:id="rId4"/>
+    <sheet name="Terminology Changes Sp6 - new" sheetId="14" r:id="rId5"/>
+    <sheet name="Terminology Changes Sp6 - chg" sheetId="13" r:id="rId6"/>
+    <sheet name="Terminology Changes Sp5 - new" sheetId="11" r:id="rId7"/>
+    <sheet name="Terminology Changes Sp5 - chg" sheetId="12" r:id="rId8"/>
+    <sheet name="Terminology Changes Sp4 - new" sheetId="9" r:id="rId9"/>
+    <sheet name="Terminology Changes Sp4 - chg" sheetId="10" r:id="rId10"/>
+    <sheet name="Terminology Changes Sp3 - new" sheetId="8" r:id="rId11"/>
+    <sheet name="Terminology Changes Sp3 - chg" sheetId="7" r:id="rId12"/>
+    <sheet name="Terminology Changes Sp2 - new" sheetId="6" r:id="rId13"/>
+    <sheet name="Terminology Changes Sp2 - chg" sheetId="5" r:id="rId14"/>
+    <sheet name="Terminology Changes Sp1 - new" sheetId="3" r:id="rId15"/>
+    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF Terminology 2022-12-16'!$A$1:$H$255</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="1305">
   <si>
     <t>Code</t>
   </si>
@@ -4219,6 +4221,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4247,6 +4250,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4275,6 +4279,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4474,6 +4479,319 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>No changes this sprint</t>
+  </si>
+  <si>
+    <t>Add new class</t>
+  </si>
+  <si>
+    <t>BiomedicalConcept</t>
+  </si>
+  <si>
+    <t>Biomedical Concept</t>
+  </si>
+  <si>
+    <t>A unit of biomedical knowledge created from a unique combination of characteristics that include implementation details like variables and terminologies, used as building blocks for standardized, hierarchically structured clinical research information.</t>
+  </si>
+  <si>
+    <t>Add New Attribute to BiomedicalConcept Class</t>
+  </si>
+  <si>
+    <t>DDF Biomedical Concept Attribute Terminology</t>
+  </si>
+  <si>
+    <t>bcName</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the biomedical concept.</t>
+  </si>
+  <si>
+    <t>bcSynonyms</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Synonym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A word or an expression that serves as a figurative, symbolic, or exact substitute for a biomedical concept, and which has the same meaning.
+</t>
+  </si>
+  <si>
+    <t>bcReference</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Reference</t>
+  </si>
+  <si>
+    <t>A citation to an authoritative source for a biomedical concept.</t>
+  </si>
+  <si>
+    <t>bcConceptCode</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Concept Code</t>
+  </si>
+  <si>
+    <t>A concept unique identifier assigned to a biomedical concept that points to the meaning of that biomedical concept.</t>
+  </si>
+  <si>
+    <t>biomedicalConceptId</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Identifier</t>
+  </si>
+  <si>
+    <t>A system identifier assigned to the biomedical concept.</t>
+  </si>
+  <si>
+    <t>Add new Relationship to BiomedicalConcept Class</t>
+  </si>
+  <si>
+    <t>bcProperties</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptProperty</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Property</t>
+  </si>
+  <si>
+    <t>A characteristic from a set of characteristics used to define a biomedical concept.</t>
+  </si>
+  <si>
+    <t>Add New Attribute to BiomedicalConceptProperty Class</t>
+  </si>
+  <si>
+    <t>DDF Biomedical Concept Property Attribute Terminology</t>
+  </si>
+  <si>
+    <t>bcPropertyName</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Property Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the biomedical concept property.</t>
+  </si>
+  <si>
+    <t>bcPropertyRequired</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Property Required Indicator</t>
+  </si>
+  <si>
+    <t>An indication as to whether the biomedical concept property is required.</t>
+  </si>
+  <si>
+    <t>bcPropertyEnabled</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Property Enabled Indicator</t>
+  </si>
+  <si>
+    <t>An indication as to whether the biomedical concept property is activated for use within a given usage context for a biomedical concept.</t>
+  </si>
+  <si>
+    <t>bcPropertyDatatype</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Property Response Data Type</t>
+  </si>
+  <si>
+    <t>The structural format of the biomedical concept property response value. The datatype is carried in the attribute and influences the set of allowable values the attribute may assume. (After HL7)</t>
+  </si>
+  <si>
+    <t>bcPropertyConceptCode</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Property Concept Code</t>
+  </si>
+  <si>
+    <t>A concept unique identifier assigned to a biomedical concept property that points to the meaning of that biomedical concept property.</t>
+  </si>
+  <si>
+    <t>Add new Relationship to BiomedicalConceptProperty Class</t>
+  </si>
+  <si>
+    <t>bcPropertyResponseCodes</t>
+  </si>
+  <si>
+    <t>ResponseCode</t>
+  </si>
+  <si>
+    <t>Response Code</t>
+  </si>
+  <si>
+    <t>A symbol or combination of symbols representing the response to the question.</t>
+  </si>
+  <si>
+    <t>Add new Attribute to ResponseCode Class</t>
+  </si>
+  <si>
+    <t>DDF Response Code Attribute Terminology</t>
+  </si>
+  <si>
+    <t>responseCodeEnabled</t>
+  </si>
+  <si>
+    <t>Response Code Enabled Indicator</t>
+  </si>
+  <si>
+    <t>An indication as to whether the response code is activated for use within a given usage context.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptSurrogate</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Surrogate</t>
+  </si>
+  <si>
+    <t>A concept that substitutes for a standard biomedical concept from the designated source.</t>
+  </si>
+  <si>
+    <t>Add new Attribute to BiomedicalConceptSurrogate Class</t>
+  </si>
+  <si>
+    <t>DDF Biomedical Concept Surrogate Attribute Terminology</t>
+  </si>
+  <si>
+    <t>bcSurrograteName</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Surrogate Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the biomedical concept surrogate.</t>
+  </si>
+  <si>
+    <t>bcSurrogateDescription</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Surrogate Description</t>
+  </si>
+  <si>
+    <t>The textual representation of the biomedical concept surrogate.</t>
+  </si>
+  <si>
+    <t>bcSurrogateReference</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Surrogate Reference</t>
+  </si>
+  <si>
+    <t>A citation to an authoritative source for a biomedical concept surrogate.</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptCategory</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Category</t>
+  </si>
+  <si>
+    <t>A grouping of biomedical concepts based on some commonality or by user defined characteristics.</t>
+  </si>
+  <si>
+    <t>Add new Attribute to BiomedicalConceptCategory Class</t>
+  </si>
+  <si>
+    <t>DDF Biomedical Concept Category Attribute Terminology</t>
+  </si>
+  <si>
+    <t>bcCategoryName</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Category Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the biomedical concept category.</t>
+  </si>
+  <si>
+    <t>bcCategoryDescription</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Category Description</t>
+  </si>
+  <si>
+    <t>The textual representation of the biomedical concept category.</t>
+  </si>
+  <si>
+    <t>Add new Relationship to BiomedicalConceptCategory Class</t>
+  </si>
+  <si>
+    <t>bcCategoryMemberIds</t>
+  </si>
+  <si>
+    <t>bcCategoryParents</t>
+  </si>
+  <si>
+    <t>bcCategoryChildren</t>
+  </si>
+  <si>
+    <t>Add new Relationship to Activity Class</t>
+  </si>
+  <si>
+    <t>biomedicalConceptIds</t>
+  </si>
+  <si>
+    <t>bcCategoryIds</t>
+  </si>
+  <si>
+    <t>bcSurrogateIds</t>
+  </si>
+  <si>
+    <t>Add new Relationship to StudyDesign Class</t>
+  </si>
+  <si>
+    <t>Add Codelist SEXPOP (C66732)</t>
+  </si>
+  <si>
+    <t>C66732</t>
+  </si>
+  <si>
+    <t>SEXPOP</t>
+  </si>
+  <si>
+    <t>C49636</t>
+  </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>One and the other; relating to or being two in conjunction. (NCI)</t>
+  </si>
+  <si>
+    <t>C16576</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>A person who belongs to the sex that normally produces ova. The term is used to indicate biological sex distinctions, or cultural gender role distinctions, or both. (NCI)</t>
+  </si>
+  <si>
+    <t>C20197</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>A person who belongs to the sex that normally produces sperm. The term is used to indicate biological sex distinctions, cultural gender role distinctions, or both. (NCI)</t>
+  </si>
+  <si>
+    <t>N/A - These are the codelist valid values</t>
   </si>
 </sst>
 </file>
@@ -4570,12 +4888,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4776,7 +5096,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4973,6 +5293,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5366,6 +5701,146 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A4186-9BCA-48CF-8DF0-AEF3719878D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388C2AD6-B218-4E22-9152-9FF923DE673A}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.36328125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="33" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="33" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A8CE6A-08F8-4094-B8C4-805F6E207B55}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -6268,7 +6743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60F93F-DDE7-4577-BCA7-BDCFD0F8A197}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -6499,7 +6974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8CB9F-21CB-4CA7-BF40-DA6BB340EB8E}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -7930,7 +8405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -8206,7 +8681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -8238,9 +8713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13978,12 +14453,1180 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10997117-CBE1-4ECD-9BC6-C8E99561FD60}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="33" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="33" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="33" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="33" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="33" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="45" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="33" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="33" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="33" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="33" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="33" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="33" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="33" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="56"/>
+      <c r="J18" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="33" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="33" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G26" s="69"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A27" s="68" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E27" s="70" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G27" s="69"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A28" s="68" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E28" s="70" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G28" s="69"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A29" s="68" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E29" s="70" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A30" s="68" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G30" s="69"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A31" s="68" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E31" s="70" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F31" s="70" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A32" s="68" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70" t="s">
+        <v>976</v>
+      </c>
+      <c r="E32" s="70" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A33" s="68" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70" t="s">
+        <v>976</v>
+      </c>
+      <c r="E33" s="70" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F33" s="70" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A34" s="68" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70" t="s">
+        <v>976</v>
+      </c>
+      <c r="E34" s="70" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA23957-5739-4649-99F3-C386B4ED6B49}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264A0E63-654A-4241-8D6A-763EA143F33E}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -14411,13 +16054,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A041E8E2-47BE-478A-82CC-ADE978755671}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -15348,7 +16991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD16AA3-41A2-4CE2-A54F-A23529603CBB}">
   <dimension ref="A1:K20"/>
   <sheetViews>
@@ -15978,7 +17621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A40D45-4A6D-4323-AF2A-723C324D4F9C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15998,7 +17641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F67F6C-9C5A-4D9C-A0BA-6CE74C3B3F1E}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -16117,144 +17760,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A4186-9BCA-48CF-8DF0-AEF3719878D4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388C2AD6-B218-4E22-9152-9FF923DE673A}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.36328125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>979</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>972</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>973</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>974</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="33" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>1073</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="33" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC93F26-7F73-4AC3-A2BC-E9BC5EF2164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9FD280-EAE4-4AC8-8CC6-15A0025EE1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="160" windowWidth="17200" windowHeight="9880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1430" yWindow="190" windowWidth="17200" windowHeight="9880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="1306">
   <si>
     <t>Code</t>
   </si>
@@ -4481,9 +4481,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>No changes this sprint</t>
-  </si>
-  <si>
     <t>Add new class</t>
   </si>
   <si>
@@ -4539,15 +4536,6 @@
     <t>A concept unique identifier assigned to a biomedical concept that points to the meaning of that biomedical concept.</t>
   </si>
   <si>
-    <t>biomedicalConceptId</t>
-  </si>
-  <si>
-    <t>Biomedical Concept Identifier</t>
-  </si>
-  <si>
-    <t>A system identifier assigned to the biomedical concept.</t>
-  </si>
-  <si>
     <t>Add new Relationship to BiomedicalConcept Class</t>
   </si>
   <si>
@@ -4728,12 +4716,6 @@
     <t>bcCategoryMemberIds</t>
   </si>
   <si>
-    <t>bcCategoryParents</t>
-  </si>
-  <si>
-    <t>bcCategoryChildren</t>
-  </si>
-  <si>
     <t>Add new Relationship to Activity Class</t>
   </si>
   <si>
@@ -4792,6 +4774,79 @@
   </si>
   <si>
     <t>N/A - These are the codelist valid values</t>
+  </si>
+  <si>
+    <t>Remove Attribute and change to Relationship</t>
+  </si>
+  <si>
+    <t>bcCategoryParentIds</t>
+  </si>
+  <si>
+    <t>bcCategoryChildrenIds</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowItemEncounter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowItemEncounterId</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowItemActivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowItemActivityId</t>
+    </r>
+  </si>
+  <si>
+    <t>previousActivityID</t>
+  </si>
+  <si>
+    <t>nextActivityID</t>
   </si>
 </sst>
 </file>
@@ -5285,18 +5340,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5308,6 +5351,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5603,10 +5658,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>970</v>
       </c>
-      <c r="B1" s="65"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -8695,11 +8750,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>989</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14457,7 +14512,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -14514,7 +14569,7 @@
     </row>
     <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>124</v>
@@ -14523,10 +14578,10 @@
         <v>125</v>
       </c>
       <c r="D2" s="31" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E2" s="56" t="s">
         <v>1203</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>1204</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>1020</v>
@@ -14535,11 +14590,11 @@
         <v>975</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I2" s="43"/>
       <c r="J2" s="33" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="K2" s="33" t="s">
         <v>1187</v>
@@ -14547,19 +14602,19 @@
     </row>
     <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>1207</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>1208</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>971</v>
@@ -14568,11 +14623,11 @@
         <v>975</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="33" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K3" s="33" t="s">
         <v>1187</v>
@@ -14580,19 +14635,19 @@
     </row>
     <row r="4" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>971</v>
@@ -14601,11 +14656,11 @@
         <v>975</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="33" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K4" s="33" t="s">
         <v>1187</v>
@@ -14613,19 +14668,19 @@
     </row>
     <row r="5" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>971</v>
@@ -14634,11 +14689,11 @@
         <v>975</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="33" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>1187</v>
@@ -14646,19 +14701,19 @@
     </row>
     <row r="6" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>971</v>
@@ -14667,100 +14722,100 @@
         <v>975</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="33" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>975</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E7" s="33" t="s">
+    <row r="7" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="45" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E7" s="66" t="s">
         <v>1220</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="33" t="s">
-        <v>1222</v>
-      </c>
+      <c r="F7" s="66" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+    <row r="8" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="33" t="s">
         <v>1223</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="45" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
       <c r="K8" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>125</v>
+        <v>1224</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>1225</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>1020</v>
+        <v>1226</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>971</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="33" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="K9" s="33" t="s">
         <v>1187</v>
@@ -14768,19 +14823,19 @@
     </row>
     <row r="10" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C10" s="33" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>1229</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>1230</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>971</v>
@@ -14789,11 +14844,11 @@
         <v>975</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="33" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K10" s="33" t="s">
         <v>1187</v>
@@ -14801,19 +14856,19 @@
     </row>
     <row r="11" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>971</v>
@@ -14822,11 +14877,11 @@
         <v>975</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="33" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>1187</v>
@@ -14834,19 +14889,19 @@
     </row>
     <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>971</v>
@@ -14855,11 +14910,11 @@
         <v>975</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="33" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="K12" s="33" t="s">
         <v>1187</v>
@@ -14867,19 +14922,19 @@
     </row>
     <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>971</v>
@@ -14888,100 +14943,100 @@
         <v>975</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="K13" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>975</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E14" s="33" t="s">
+    <row r="14" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E14" s="66" t="s">
         <v>1242</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="33" t="s">
-        <v>1244</v>
-      </c>
+      <c r="F14" s="66" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
       <c r="K14" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>1244</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="33" t="s">
         <v>1245</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
       <c r="K15" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>125</v>
+        <v>1246</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>1247</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>1020</v>
+        <v>971</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="33" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="K16" s="33" t="s">
         <v>1187</v>
@@ -14989,98 +15044,98 @@
     </row>
     <row r="17" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C17" s="33" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>1251</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>1252</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G17" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>1253</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="33" t="s">
-        <v>1254</v>
+      <c r="G17" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="56"/>
+      <c r="J17" s="31" t="s">
+        <v>138</v>
       </c>
       <c r="K17" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B18" s="15" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G18" s="33" t="s">
         <v>975</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="56"/>
-      <c r="J18" s="31" t="s">
-        <v>138</v>
+      <c r="H18" s="33" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="33" t="s">
+        <v>1254</v>
       </c>
       <c r="K18" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>125</v>
+        <v>1255</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>1256</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>1020</v>
+        <v>971</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="I19" s="15"/>
-      <c r="J19" s="33" t="s">
-        <v>1258</v>
+      <c r="J19" s="15" t="s">
+        <v>1259</v>
       </c>
       <c r="K19" s="33" t="s">
         <v>1187</v>
@@ -15088,32 +15143,32 @@
     </row>
     <row r="20" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C20" s="33" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>1260</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>1261</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="15" t="s">
         <v>975</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K20" s="33" t="s">
         <v>1187</v>
@@ -15121,19 +15176,19 @@
     </row>
     <row r="21" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F21" s="33" t="s">
         <v>971</v>
@@ -15142,77 +15197,77 @@
         <v>975</v>
       </c>
       <c r="H21" s="33" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="33" t="s">
         <v>1265</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15" t="s">
-        <v>1266</v>
       </c>
       <c r="K21" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>975</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>1260</v>
+        <v>1201</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>125</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>1256</v>
+        <v>1266</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>971</v>
+        <v>1020</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>975</v>
       </c>
       <c r="H22" s="33" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15" t="s">
         <v>1268</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="33" t="s">
-        <v>1269</v>
       </c>
       <c r="K22" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>125</v>
+        <v>1269</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>1270</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G23" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="K23" s="33" t="s">
         <v>1187</v>
@@ -15220,378 +15275,387 @@
     </row>
     <row r="24" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C24" s="33" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>1274</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>1275</v>
       </c>
       <c r="F24" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="15" t="s">
         <v>975</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="K24" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>975</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E25" s="33" t="s">
+    <row r="25" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E25" s="66" t="s">
         <v>1278</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>975</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15" t="s">
-        <v>1280</v>
-      </c>
+      <c r="F25" s="66" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G25" s="65"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="66"/>
       <c r="K25" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E26" s="70" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F26" s="70" t="s">
+      <c r="A26" s="64" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E26" s="66" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F26" s="66" t="s">
         <v>1009</v>
       </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="70"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66"/>
       <c r="K26" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E27" s="70" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F27" s="70" t="s">
+      <c r="A27" s="64" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F27" s="66" t="s">
         <v>1009</v>
       </c>
-      <c r="G27" s="69"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="70"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="66"/>
       <c r="K27" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E28" s="70" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F28" s="70" t="s">
+    <row r="28" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F28" s="66" t="s">
         <v>1009</v>
       </c>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="70"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="66"/>
       <c r="K28" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70" t="s">
+      <c r="A29" s="64" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66" t="s">
         <v>1037</v>
       </c>
-      <c r="E29" s="70" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F29" s="70" t="s">
+      <c r="E29" s="66" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F29" s="66" t="s">
         <v>1009</v>
       </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="70"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="66"/>
       <c r="K29" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70" t="s">
+      <c r="A30" s="64" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66" t="s">
         <v>1037</v>
       </c>
-      <c r="E30" s="70" t="s">
-        <v>1287</v>
-      </c>
-      <c r="F30" s="70" t="s">
+      <c r="E30" s="66" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F30" s="66" t="s">
         <v>1009</v>
       </c>
-      <c r="G30" s="69"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="70"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="66"/>
       <c r="K30" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E31" s="70" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F31" s="70" t="s">
+      <c r="A31" s="64" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66" t="s">
+        <v>976</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F31" s="66" t="s">
         <v>1009</v>
       </c>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="70"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="66"/>
       <c r="K31" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70" t="s">
+      <c r="A32" s="64" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66" t="s">
         <v>976</v>
       </c>
-      <c r="E32" s="70" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F32" s="70" t="s">
+      <c r="E32" s="66" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F32" s="66" t="s">
         <v>1009</v>
       </c>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="70"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="66"/>
       <c r="K32" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70" t="s">
+      <c r="A33" s="64" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66" t="s">
         <v>976</v>
       </c>
-      <c r="E33" s="70" t="s">
-        <v>1287</v>
-      </c>
-      <c r="F33" s="70" t="s">
+      <c r="E33" s="66" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F33" s="66" t="s">
         <v>1009</v>
       </c>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="70"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66"/>
       <c r="K33" s="33" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A34" s="68" t="s">
+    <row r="34" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15" t="s">
         <v>1289</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70" t="s">
-        <v>976</v>
-      </c>
-      <c r="E34" s="70" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F34" s="70" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="33" t="s">
-        <v>1187</v>
+      <c r="K34" s="15" t="s">
+        <v>1298</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>1291</v>
+        <v>1284</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>1285</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D35" s="33" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>1029</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>1150</v>
       </c>
       <c r="G35" s="15" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J35" s="15" t="s">
         <v>1293</v>
       </c>
-      <c r="H35" s="15" t="s">
-        <v>1294</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15" t="s">
-        <v>1295</v>
-      </c>
       <c r="K35" s="15" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>1029</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>1150</v>
       </c>
       <c r="G36" s="15" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I36" s="15" t="s">
         <v>1296</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="J36" s="15" t="s">
         <v>1297</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="K36" s="15" t="s">
         <v>1298</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>1299</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>1302</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>1303</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>1304</v>
+    </row>
+    <row r="37" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66" t="s">
+        <v>976</v>
+      </c>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66" t="s">
+        <v>976</v>
+      </c>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="33" t="s">
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
@@ -15604,16 +15668,918 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="37"/>
+    <col min="3" max="3" width="17" style="37" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="37"/>
+    <col min="8" max="8" width="17.90625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="37"/>
+    <col min="10" max="10" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11" max="255" width="8.7265625" style="37"/>
+    <col min="256" max="256" width="10.90625" style="37" customWidth="1"/>
+    <col min="257" max="257" width="22.26953125" style="37" customWidth="1"/>
+    <col min="258" max="258" width="8.7265625" style="37"/>
+    <col min="259" max="259" width="17" style="37" customWidth="1"/>
+    <col min="260" max="260" width="13.90625" style="37" customWidth="1"/>
+    <col min="261" max="261" width="20.26953125" style="37" customWidth="1"/>
+    <col min="262" max="262" width="13.90625" style="37" customWidth="1"/>
+    <col min="263" max="263" width="8.7265625" style="37"/>
+    <col min="264" max="264" width="17.90625" style="37" customWidth="1"/>
+    <col min="265" max="265" width="8.7265625" style="37"/>
+    <col min="266" max="266" width="53.6328125" style="37" customWidth="1"/>
+    <col min="267" max="511" width="8.7265625" style="37"/>
+    <col min="512" max="512" width="10.90625" style="37" customWidth="1"/>
+    <col min="513" max="513" width="22.26953125" style="37" customWidth="1"/>
+    <col min="514" max="514" width="8.7265625" style="37"/>
+    <col min="515" max="515" width="17" style="37" customWidth="1"/>
+    <col min="516" max="516" width="13.90625" style="37" customWidth="1"/>
+    <col min="517" max="517" width="20.26953125" style="37" customWidth="1"/>
+    <col min="518" max="518" width="13.90625" style="37" customWidth="1"/>
+    <col min="519" max="519" width="8.7265625" style="37"/>
+    <col min="520" max="520" width="17.90625" style="37" customWidth="1"/>
+    <col min="521" max="521" width="8.7265625" style="37"/>
+    <col min="522" max="522" width="53.6328125" style="37" customWidth="1"/>
+    <col min="523" max="767" width="8.7265625" style="37"/>
+    <col min="768" max="768" width="10.90625" style="37" customWidth="1"/>
+    <col min="769" max="769" width="22.26953125" style="37" customWidth="1"/>
+    <col min="770" max="770" width="8.7265625" style="37"/>
+    <col min="771" max="771" width="17" style="37" customWidth="1"/>
+    <col min="772" max="772" width="13.90625" style="37" customWidth="1"/>
+    <col min="773" max="773" width="20.26953125" style="37" customWidth="1"/>
+    <col min="774" max="774" width="13.90625" style="37" customWidth="1"/>
+    <col min="775" max="775" width="8.7265625" style="37"/>
+    <col min="776" max="776" width="17.90625" style="37" customWidth="1"/>
+    <col min="777" max="777" width="8.7265625" style="37"/>
+    <col min="778" max="778" width="53.6328125" style="37" customWidth="1"/>
+    <col min="779" max="1023" width="8.7265625" style="37"/>
+    <col min="1024" max="1024" width="10.90625" style="37" customWidth="1"/>
+    <col min="1025" max="1025" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1026" max="1026" width="8.7265625" style="37"/>
+    <col min="1027" max="1027" width="17" style="37" customWidth="1"/>
+    <col min="1028" max="1028" width="13.90625" style="37" customWidth="1"/>
+    <col min="1029" max="1029" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1030" max="1030" width="13.90625" style="37" customWidth="1"/>
+    <col min="1031" max="1031" width="8.7265625" style="37"/>
+    <col min="1032" max="1032" width="17.90625" style="37" customWidth="1"/>
+    <col min="1033" max="1033" width="8.7265625" style="37"/>
+    <col min="1034" max="1034" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1035" max="1279" width="8.7265625" style="37"/>
+    <col min="1280" max="1280" width="10.90625" style="37" customWidth="1"/>
+    <col min="1281" max="1281" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1282" max="1282" width="8.7265625" style="37"/>
+    <col min="1283" max="1283" width="17" style="37" customWidth="1"/>
+    <col min="1284" max="1284" width="13.90625" style="37" customWidth="1"/>
+    <col min="1285" max="1285" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1286" max="1286" width="13.90625" style="37" customWidth="1"/>
+    <col min="1287" max="1287" width="8.7265625" style="37"/>
+    <col min="1288" max="1288" width="17.90625" style="37" customWidth="1"/>
+    <col min="1289" max="1289" width="8.7265625" style="37"/>
+    <col min="1290" max="1290" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1291" max="1535" width="8.7265625" style="37"/>
+    <col min="1536" max="1536" width="10.90625" style="37" customWidth="1"/>
+    <col min="1537" max="1537" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1538" max="1538" width="8.7265625" style="37"/>
+    <col min="1539" max="1539" width="17" style="37" customWidth="1"/>
+    <col min="1540" max="1540" width="13.90625" style="37" customWidth="1"/>
+    <col min="1541" max="1541" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1542" max="1542" width="13.90625" style="37" customWidth="1"/>
+    <col min="1543" max="1543" width="8.7265625" style="37"/>
+    <col min="1544" max="1544" width="17.90625" style="37" customWidth="1"/>
+    <col min="1545" max="1545" width="8.7265625" style="37"/>
+    <col min="1546" max="1546" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1547" max="1791" width="8.7265625" style="37"/>
+    <col min="1792" max="1792" width="10.90625" style="37" customWidth="1"/>
+    <col min="1793" max="1793" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1794" max="1794" width="8.7265625" style="37"/>
+    <col min="1795" max="1795" width="17" style="37" customWidth="1"/>
+    <col min="1796" max="1796" width="13.90625" style="37" customWidth="1"/>
+    <col min="1797" max="1797" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1798" max="1798" width="13.90625" style="37" customWidth="1"/>
+    <col min="1799" max="1799" width="8.7265625" style="37"/>
+    <col min="1800" max="1800" width="17.90625" style="37" customWidth="1"/>
+    <col min="1801" max="1801" width="8.7265625" style="37"/>
+    <col min="1802" max="1802" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1803" max="2047" width="8.7265625" style="37"/>
+    <col min="2048" max="2048" width="10.90625" style="37" customWidth="1"/>
+    <col min="2049" max="2049" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2050" max="2050" width="8.7265625" style="37"/>
+    <col min="2051" max="2051" width="17" style="37" customWidth="1"/>
+    <col min="2052" max="2052" width="13.90625" style="37" customWidth="1"/>
+    <col min="2053" max="2053" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2054" max="2054" width="13.90625" style="37" customWidth="1"/>
+    <col min="2055" max="2055" width="8.7265625" style="37"/>
+    <col min="2056" max="2056" width="17.90625" style="37" customWidth="1"/>
+    <col min="2057" max="2057" width="8.7265625" style="37"/>
+    <col min="2058" max="2058" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2059" max="2303" width="8.7265625" style="37"/>
+    <col min="2304" max="2304" width="10.90625" style="37" customWidth="1"/>
+    <col min="2305" max="2305" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2306" max="2306" width="8.7265625" style="37"/>
+    <col min="2307" max="2307" width="17" style="37" customWidth="1"/>
+    <col min="2308" max="2308" width="13.90625" style="37" customWidth="1"/>
+    <col min="2309" max="2309" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2310" max="2310" width="13.90625" style="37" customWidth="1"/>
+    <col min="2311" max="2311" width="8.7265625" style="37"/>
+    <col min="2312" max="2312" width="17.90625" style="37" customWidth="1"/>
+    <col min="2313" max="2313" width="8.7265625" style="37"/>
+    <col min="2314" max="2314" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2315" max="2559" width="8.7265625" style="37"/>
+    <col min="2560" max="2560" width="10.90625" style="37" customWidth="1"/>
+    <col min="2561" max="2561" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2562" max="2562" width="8.7265625" style="37"/>
+    <col min="2563" max="2563" width="17" style="37" customWidth="1"/>
+    <col min="2564" max="2564" width="13.90625" style="37" customWidth="1"/>
+    <col min="2565" max="2565" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2566" max="2566" width="13.90625" style="37" customWidth="1"/>
+    <col min="2567" max="2567" width="8.7265625" style="37"/>
+    <col min="2568" max="2568" width="17.90625" style="37" customWidth="1"/>
+    <col min="2569" max="2569" width="8.7265625" style="37"/>
+    <col min="2570" max="2570" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2571" max="2815" width="8.7265625" style="37"/>
+    <col min="2816" max="2816" width="10.90625" style="37" customWidth="1"/>
+    <col min="2817" max="2817" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2818" max="2818" width="8.7265625" style="37"/>
+    <col min="2819" max="2819" width="17" style="37" customWidth="1"/>
+    <col min="2820" max="2820" width="13.90625" style="37" customWidth="1"/>
+    <col min="2821" max="2821" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2822" max="2822" width="13.90625" style="37" customWidth="1"/>
+    <col min="2823" max="2823" width="8.7265625" style="37"/>
+    <col min="2824" max="2824" width="17.90625" style="37" customWidth="1"/>
+    <col min="2825" max="2825" width="8.7265625" style="37"/>
+    <col min="2826" max="2826" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2827" max="3071" width="8.7265625" style="37"/>
+    <col min="3072" max="3072" width="10.90625" style="37" customWidth="1"/>
+    <col min="3073" max="3073" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3074" max="3074" width="8.7265625" style="37"/>
+    <col min="3075" max="3075" width="17" style="37" customWidth="1"/>
+    <col min="3076" max="3076" width="13.90625" style="37" customWidth="1"/>
+    <col min="3077" max="3077" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3078" max="3078" width="13.90625" style="37" customWidth="1"/>
+    <col min="3079" max="3079" width="8.7265625" style="37"/>
+    <col min="3080" max="3080" width="17.90625" style="37" customWidth="1"/>
+    <col min="3081" max="3081" width="8.7265625" style="37"/>
+    <col min="3082" max="3082" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3083" max="3327" width="8.7265625" style="37"/>
+    <col min="3328" max="3328" width="10.90625" style="37" customWidth="1"/>
+    <col min="3329" max="3329" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3330" max="3330" width="8.7265625" style="37"/>
+    <col min="3331" max="3331" width="17" style="37" customWidth="1"/>
+    <col min="3332" max="3332" width="13.90625" style="37" customWidth="1"/>
+    <col min="3333" max="3333" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3334" max="3334" width="13.90625" style="37" customWidth="1"/>
+    <col min="3335" max="3335" width="8.7265625" style="37"/>
+    <col min="3336" max="3336" width="17.90625" style="37" customWidth="1"/>
+    <col min="3337" max="3337" width="8.7265625" style="37"/>
+    <col min="3338" max="3338" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3339" max="3583" width="8.7265625" style="37"/>
+    <col min="3584" max="3584" width="10.90625" style="37" customWidth="1"/>
+    <col min="3585" max="3585" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3586" max="3586" width="8.7265625" style="37"/>
+    <col min="3587" max="3587" width="17" style="37" customWidth="1"/>
+    <col min="3588" max="3588" width="13.90625" style="37" customWidth="1"/>
+    <col min="3589" max="3589" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3590" max="3590" width="13.90625" style="37" customWidth="1"/>
+    <col min="3591" max="3591" width="8.7265625" style="37"/>
+    <col min="3592" max="3592" width="17.90625" style="37" customWidth="1"/>
+    <col min="3593" max="3593" width="8.7265625" style="37"/>
+    <col min="3594" max="3594" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3595" max="3839" width="8.7265625" style="37"/>
+    <col min="3840" max="3840" width="10.90625" style="37" customWidth="1"/>
+    <col min="3841" max="3841" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3842" max="3842" width="8.7265625" style="37"/>
+    <col min="3843" max="3843" width="17" style="37" customWidth="1"/>
+    <col min="3844" max="3844" width="13.90625" style="37" customWidth="1"/>
+    <col min="3845" max="3845" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3846" max="3846" width="13.90625" style="37" customWidth="1"/>
+    <col min="3847" max="3847" width="8.7265625" style="37"/>
+    <col min="3848" max="3848" width="17.90625" style="37" customWidth="1"/>
+    <col min="3849" max="3849" width="8.7265625" style="37"/>
+    <col min="3850" max="3850" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3851" max="4095" width="8.7265625" style="37"/>
+    <col min="4096" max="4096" width="10.90625" style="37" customWidth="1"/>
+    <col min="4097" max="4097" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4098" max="4098" width="8.7265625" style="37"/>
+    <col min="4099" max="4099" width="17" style="37" customWidth="1"/>
+    <col min="4100" max="4100" width="13.90625" style="37" customWidth="1"/>
+    <col min="4101" max="4101" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4102" max="4102" width="13.90625" style="37" customWidth="1"/>
+    <col min="4103" max="4103" width="8.7265625" style="37"/>
+    <col min="4104" max="4104" width="17.90625" style="37" customWidth="1"/>
+    <col min="4105" max="4105" width="8.7265625" style="37"/>
+    <col min="4106" max="4106" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4107" max="4351" width="8.7265625" style="37"/>
+    <col min="4352" max="4352" width="10.90625" style="37" customWidth="1"/>
+    <col min="4353" max="4353" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4354" max="4354" width="8.7265625" style="37"/>
+    <col min="4355" max="4355" width="17" style="37" customWidth="1"/>
+    <col min="4356" max="4356" width="13.90625" style="37" customWidth="1"/>
+    <col min="4357" max="4357" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4358" max="4358" width="13.90625" style="37" customWidth="1"/>
+    <col min="4359" max="4359" width="8.7265625" style="37"/>
+    <col min="4360" max="4360" width="17.90625" style="37" customWidth="1"/>
+    <col min="4361" max="4361" width="8.7265625" style="37"/>
+    <col min="4362" max="4362" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4363" max="4607" width="8.7265625" style="37"/>
+    <col min="4608" max="4608" width="10.90625" style="37" customWidth="1"/>
+    <col min="4609" max="4609" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4610" max="4610" width="8.7265625" style="37"/>
+    <col min="4611" max="4611" width="17" style="37" customWidth="1"/>
+    <col min="4612" max="4612" width="13.90625" style="37" customWidth="1"/>
+    <col min="4613" max="4613" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4614" max="4614" width="13.90625" style="37" customWidth="1"/>
+    <col min="4615" max="4615" width="8.7265625" style="37"/>
+    <col min="4616" max="4616" width="17.90625" style="37" customWidth="1"/>
+    <col min="4617" max="4617" width="8.7265625" style="37"/>
+    <col min="4618" max="4618" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4619" max="4863" width="8.7265625" style="37"/>
+    <col min="4864" max="4864" width="10.90625" style="37" customWidth="1"/>
+    <col min="4865" max="4865" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4866" max="4866" width="8.7265625" style="37"/>
+    <col min="4867" max="4867" width="17" style="37" customWidth="1"/>
+    <col min="4868" max="4868" width="13.90625" style="37" customWidth="1"/>
+    <col min="4869" max="4869" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4870" max="4870" width="13.90625" style="37" customWidth="1"/>
+    <col min="4871" max="4871" width="8.7265625" style="37"/>
+    <col min="4872" max="4872" width="17.90625" style="37" customWidth="1"/>
+    <col min="4873" max="4873" width="8.7265625" style="37"/>
+    <col min="4874" max="4874" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4875" max="5119" width="8.7265625" style="37"/>
+    <col min="5120" max="5120" width="10.90625" style="37" customWidth="1"/>
+    <col min="5121" max="5121" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5122" max="5122" width="8.7265625" style="37"/>
+    <col min="5123" max="5123" width="17" style="37" customWidth="1"/>
+    <col min="5124" max="5124" width="13.90625" style="37" customWidth="1"/>
+    <col min="5125" max="5125" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5126" max="5126" width="13.90625" style="37" customWidth="1"/>
+    <col min="5127" max="5127" width="8.7265625" style="37"/>
+    <col min="5128" max="5128" width="17.90625" style="37" customWidth="1"/>
+    <col min="5129" max="5129" width="8.7265625" style="37"/>
+    <col min="5130" max="5130" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5131" max="5375" width="8.7265625" style="37"/>
+    <col min="5376" max="5376" width="10.90625" style="37" customWidth="1"/>
+    <col min="5377" max="5377" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5378" max="5378" width="8.7265625" style="37"/>
+    <col min="5379" max="5379" width="17" style="37" customWidth="1"/>
+    <col min="5380" max="5380" width="13.90625" style="37" customWidth="1"/>
+    <col min="5381" max="5381" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5382" max="5382" width="13.90625" style="37" customWidth="1"/>
+    <col min="5383" max="5383" width="8.7265625" style="37"/>
+    <col min="5384" max="5384" width="17.90625" style="37" customWidth="1"/>
+    <col min="5385" max="5385" width="8.7265625" style="37"/>
+    <col min="5386" max="5386" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5387" max="5631" width="8.7265625" style="37"/>
+    <col min="5632" max="5632" width="10.90625" style="37" customWidth="1"/>
+    <col min="5633" max="5633" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5634" max="5634" width="8.7265625" style="37"/>
+    <col min="5635" max="5635" width="17" style="37" customWidth="1"/>
+    <col min="5636" max="5636" width="13.90625" style="37" customWidth="1"/>
+    <col min="5637" max="5637" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5638" max="5638" width="13.90625" style="37" customWidth="1"/>
+    <col min="5639" max="5639" width="8.7265625" style="37"/>
+    <col min="5640" max="5640" width="17.90625" style="37" customWidth="1"/>
+    <col min="5641" max="5641" width="8.7265625" style="37"/>
+    <col min="5642" max="5642" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5643" max="5887" width="8.7265625" style="37"/>
+    <col min="5888" max="5888" width="10.90625" style="37" customWidth="1"/>
+    <col min="5889" max="5889" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5890" max="5890" width="8.7265625" style="37"/>
+    <col min="5891" max="5891" width="17" style="37" customWidth="1"/>
+    <col min="5892" max="5892" width="13.90625" style="37" customWidth="1"/>
+    <col min="5893" max="5893" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5894" max="5894" width="13.90625" style="37" customWidth="1"/>
+    <col min="5895" max="5895" width="8.7265625" style="37"/>
+    <col min="5896" max="5896" width="17.90625" style="37" customWidth="1"/>
+    <col min="5897" max="5897" width="8.7265625" style="37"/>
+    <col min="5898" max="5898" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5899" max="6143" width="8.7265625" style="37"/>
+    <col min="6144" max="6144" width="10.90625" style="37" customWidth="1"/>
+    <col min="6145" max="6145" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6146" max="6146" width="8.7265625" style="37"/>
+    <col min="6147" max="6147" width="17" style="37" customWidth="1"/>
+    <col min="6148" max="6148" width="13.90625" style="37" customWidth="1"/>
+    <col min="6149" max="6149" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6150" max="6150" width="13.90625" style="37" customWidth="1"/>
+    <col min="6151" max="6151" width="8.7265625" style="37"/>
+    <col min="6152" max="6152" width="17.90625" style="37" customWidth="1"/>
+    <col min="6153" max="6153" width="8.7265625" style="37"/>
+    <col min="6154" max="6154" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6155" max="6399" width="8.7265625" style="37"/>
+    <col min="6400" max="6400" width="10.90625" style="37" customWidth="1"/>
+    <col min="6401" max="6401" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6402" max="6402" width="8.7265625" style="37"/>
+    <col min="6403" max="6403" width="17" style="37" customWidth="1"/>
+    <col min="6404" max="6404" width="13.90625" style="37" customWidth="1"/>
+    <col min="6405" max="6405" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6406" max="6406" width="13.90625" style="37" customWidth="1"/>
+    <col min="6407" max="6407" width="8.7265625" style="37"/>
+    <col min="6408" max="6408" width="17.90625" style="37" customWidth="1"/>
+    <col min="6409" max="6409" width="8.7265625" style="37"/>
+    <col min="6410" max="6410" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6411" max="6655" width="8.7265625" style="37"/>
+    <col min="6656" max="6656" width="10.90625" style="37" customWidth="1"/>
+    <col min="6657" max="6657" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6658" max="6658" width="8.7265625" style="37"/>
+    <col min="6659" max="6659" width="17" style="37" customWidth="1"/>
+    <col min="6660" max="6660" width="13.90625" style="37" customWidth="1"/>
+    <col min="6661" max="6661" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6662" max="6662" width="13.90625" style="37" customWidth="1"/>
+    <col min="6663" max="6663" width="8.7265625" style="37"/>
+    <col min="6664" max="6664" width="17.90625" style="37" customWidth="1"/>
+    <col min="6665" max="6665" width="8.7265625" style="37"/>
+    <col min="6666" max="6666" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6667" max="6911" width="8.7265625" style="37"/>
+    <col min="6912" max="6912" width="10.90625" style="37" customWidth="1"/>
+    <col min="6913" max="6913" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6914" max="6914" width="8.7265625" style="37"/>
+    <col min="6915" max="6915" width="17" style="37" customWidth="1"/>
+    <col min="6916" max="6916" width="13.90625" style="37" customWidth="1"/>
+    <col min="6917" max="6917" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6918" max="6918" width="13.90625" style="37" customWidth="1"/>
+    <col min="6919" max="6919" width="8.7265625" style="37"/>
+    <col min="6920" max="6920" width="17.90625" style="37" customWidth="1"/>
+    <col min="6921" max="6921" width="8.7265625" style="37"/>
+    <col min="6922" max="6922" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6923" max="7167" width="8.7265625" style="37"/>
+    <col min="7168" max="7168" width="10.90625" style="37" customWidth="1"/>
+    <col min="7169" max="7169" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7170" max="7170" width="8.7265625" style="37"/>
+    <col min="7171" max="7171" width="17" style="37" customWidth="1"/>
+    <col min="7172" max="7172" width="13.90625" style="37" customWidth="1"/>
+    <col min="7173" max="7173" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7174" max="7174" width="13.90625" style="37" customWidth="1"/>
+    <col min="7175" max="7175" width="8.7265625" style="37"/>
+    <col min="7176" max="7176" width="17.90625" style="37" customWidth="1"/>
+    <col min="7177" max="7177" width="8.7265625" style="37"/>
+    <col min="7178" max="7178" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7179" max="7423" width="8.7265625" style="37"/>
+    <col min="7424" max="7424" width="10.90625" style="37" customWidth="1"/>
+    <col min="7425" max="7425" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7426" max="7426" width="8.7265625" style="37"/>
+    <col min="7427" max="7427" width="17" style="37" customWidth="1"/>
+    <col min="7428" max="7428" width="13.90625" style="37" customWidth="1"/>
+    <col min="7429" max="7429" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7430" max="7430" width="13.90625" style="37" customWidth="1"/>
+    <col min="7431" max="7431" width="8.7265625" style="37"/>
+    <col min="7432" max="7432" width="17.90625" style="37" customWidth="1"/>
+    <col min="7433" max="7433" width="8.7265625" style="37"/>
+    <col min="7434" max="7434" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7435" max="7679" width="8.7265625" style="37"/>
+    <col min="7680" max="7680" width="10.90625" style="37" customWidth="1"/>
+    <col min="7681" max="7681" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7682" max="7682" width="8.7265625" style="37"/>
+    <col min="7683" max="7683" width="17" style="37" customWidth="1"/>
+    <col min="7684" max="7684" width="13.90625" style="37" customWidth="1"/>
+    <col min="7685" max="7685" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7686" max="7686" width="13.90625" style="37" customWidth="1"/>
+    <col min="7687" max="7687" width="8.7265625" style="37"/>
+    <col min="7688" max="7688" width="17.90625" style="37" customWidth="1"/>
+    <col min="7689" max="7689" width="8.7265625" style="37"/>
+    <col min="7690" max="7690" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7691" max="7935" width="8.7265625" style="37"/>
+    <col min="7936" max="7936" width="10.90625" style="37" customWidth="1"/>
+    <col min="7937" max="7937" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7938" max="7938" width="8.7265625" style="37"/>
+    <col min="7939" max="7939" width="17" style="37" customWidth="1"/>
+    <col min="7940" max="7940" width="13.90625" style="37" customWidth="1"/>
+    <col min="7941" max="7941" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7942" max="7942" width="13.90625" style="37" customWidth="1"/>
+    <col min="7943" max="7943" width="8.7265625" style="37"/>
+    <col min="7944" max="7944" width="17.90625" style="37" customWidth="1"/>
+    <col min="7945" max="7945" width="8.7265625" style="37"/>
+    <col min="7946" max="7946" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7947" max="8191" width="8.7265625" style="37"/>
+    <col min="8192" max="8192" width="10.90625" style="37" customWidth="1"/>
+    <col min="8193" max="8193" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8194" max="8194" width="8.7265625" style="37"/>
+    <col min="8195" max="8195" width="17" style="37" customWidth="1"/>
+    <col min="8196" max="8196" width="13.90625" style="37" customWidth="1"/>
+    <col min="8197" max="8197" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8198" max="8198" width="13.90625" style="37" customWidth="1"/>
+    <col min="8199" max="8199" width="8.7265625" style="37"/>
+    <col min="8200" max="8200" width="17.90625" style="37" customWidth="1"/>
+    <col min="8201" max="8201" width="8.7265625" style="37"/>
+    <col min="8202" max="8202" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8203" max="8447" width="8.7265625" style="37"/>
+    <col min="8448" max="8448" width="10.90625" style="37" customWidth="1"/>
+    <col min="8449" max="8449" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8450" max="8450" width="8.7265625" style="37"/>
+    <col min="8451" max="8451" width="17" style="37" customWidth="1"/>
+    <col min="8452" max="8452" width="13.90625" style="37" customWidth="1"/>
+    <col min="8453" max="8453" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8454" max="8454" width="13.90625" style="37" customWidth="1"/>
+    <col min="8455" max="8455" width="8.7265625" style="37"/>
+    <col min="8456" max="8456" width="17.90625" style="37" customWidth="1"/>
+    <col min="8457" max="8457" width="8.7265625" style="37"/>
+    <col min="8458" max="8458" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8459" max="8703" width="8.7265625" style="37"/>
+    <col min="8704" max="8704" width="10.90625" style="37" customWidth="1"/>
+    <col min="8705" max="8705" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8706" max="8706" width="8.7265625" style="37"/>
+    <col min="8707" max="8707" width="17" style="37" customWidth="1"/>
+    <col min="8708" max="8708" width="13.90625" style="37" customWidth="1"/>
+    <col min="8709" max="8709" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8710" max="8710" width="13.90625" style="37" customWidth="1"/>
+    <col min="8711" max="8711" width="8.7265625" style="37"/>
+    <col min="8712" max="8712" width="17.90625" style="37" customWidth="1"/>
+    <col min="8713" max="8713" width="8.7265625" style="37"/>
+    <col min="8714" max="8714" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8715" max="8959" width="8.7265625" style="37"/>
+    <col min="8960" max="8960" width="10.90625" style="37" customWidth="1"/>
+    <col min="8961" max="8961" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8962" max="8962" width="8.7265625" style="37"/>
+    <col min="8963" max="8963" width="17" style="37" customWidth="1"/>
+    <col min="8964" max="8964" width="13.90625" style="37" customWidth="1"/>
+    <col min="8965" max="8965" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8966" max="8966" width="13.90625" style="37" customWidth="1"/>
+    <col min="8967" max="8967" width="8.7265625" style="37"/>
+    <col min="8968" max="8968" width="17.90625" style="37" customWidth="1"/>
+    <col min="8969" max="8969" width="8.7265625" style="37"/>
+    <col min="8970" max="8970" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8971" max="9215" width="8.7265625" style="37"/>
+    <col min="9216" max="9216" width="10.90625" style="37" customWidth="1"/>
+    <col min="9217" max="9217" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9218" max="9218" width="8.7265625" style="37"/>
+    <col min="9219" max="9219" width="17" style="37" customWidth="1"/>
+    <col min="9220" max="9220" width="13.90625" style="37" customWidth="1"/>
+    <col min="9221" max="9221" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9222" max="9222" width="13.90625" style="37" customWidth="1"/>
+    <col min="9223" max="9223" width="8.7265625" style="37"/>
+    <col min="9224" max="9224" width="17.90625" style="37" customWidth="1"/>
+    <col min="9225" max="9225" width="8.7265625" style="37"/>
+    <col min="9226" max="9226" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9227" max="9471" width="8.7265625" style="37"/>
+    <col min="9472" max="9472" width="10.90625" style="37" customWidth="1"/>
+    <col min="9473" max="9473" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9474" max="9474" width="8.7265625" style="37"/>
+    <col min="9475" max="9475" width="17" style="37" customWidth="1"/>
+    <col min="9476" max="9476" width="13.90625" style="37" customWidth="1"/>
+    <col min="9477" max="9477" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9478" max="9478" width="13.90625" style="37" customWidth="1"/>
+    <col min="9479" max="9479" width="8.7265625" style="37"/>
+    <col min="9480" max="9480" width="17.90625" style="37" customWidth="1"/>
+    <col min="9481" max="9481" width="8.7265625" style="37"/>
+    <col min="9482" max="9482" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9483" max="9727" width="8.7265625" style="37"/>
+    <col min="9728" max="9728" width="10.90625" style="37" customWidth="1"/>
+    <col min="9729" max="9729" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9730" max="9730" width="8.7265625" style="37"/>
+    <col min="9731" max="9731" width="17" style="37" customWidth="1"/>
+    <col min="9732" max="9732" width="13.90625" style="37" customWidth="1"/>
+    <col min="9733" max="9733" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9734" max="9734" width="13.90625" style="37" customWidth="1"/>
+    <col min="9735" max="9735" width="8.7265625" style="37"/>
+    <col min="9736" max="9736" width="17.90625" style="37" customWidth="1"/>
+    <col min="9737" max="9737" width="8.7265625" style="37"/>
+    <col min="9738" max="9738" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9739" max="9983" width="8.7265625" style="37"/>
+    <col min="9984" max="9984" width="10.90625" style="37" customWidth="1"/>
+    <col min="9985" max="9985" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9986" max="9986" width="8.7265625" style="37"/>
+    <col min="9987" max="9987" width="17" style="37" customWidth="1"/>
+    <col min="9988" max="9988" width="13.90625" style="37" customWidth="1"/>
+    <col min="9989" max="9989" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9990" max="9990" width="13.90625" style="37" customWidth="1"/>
+    <col min="9991" max="9991" width="8.7265625" style="37"/>
+    <col min="9992" max="9992" width="17.90625" style="37" customWidth="1"/>
+    <col min="9993" max="9993" width="8.7265625" style="37"/>
+    <col min="9994" max="9994" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9995" max="10239" width="8.7265625" style="37"/>
+    <col min="10240" max="10240" width="10.90625" style="37" customWidth="1"/>
+    <col min="10241" max="10241" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10242" max="10242" width="8.7265625" style="37"/>
+    <col min="10243" max="10243" width="17" style="37" customWidth="1"/>
+    <col min="10244" max="10244" width="13.90625" style="37" customWidth="1"/>
+    <col min="10245" max="10245" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10246" max="10246" width="13.90625" style="37" customWidth="1"/>
+    <col min="10247" max="10247" width="8.7265625" style="37"/>
+    <col min="10248" max="10248" width="17.90625" style="37" customWidth="1"/>
+    <col min="10249" max="10249" width="8.7265625" style="37"/>
+    <col min="10250" max="10250" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10251" max="10495" width="8.7265625" style="37"/>
+    <col min="10496" max="10496" width="10.90625" style="37" customWidth="1"/>
+    <col min="10497" max="10497" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10498" max="10498" width="8.7265625" style="37"/>
+    <col min="10499" max="10499" width="17" style="37" customWidth="1"/>
+    <col min="10500" max="10500" width="13.90625" style="37" customWidth="1"/>
+    <col min="10501" max="10501" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10502" max="10502" width="13.90625" style="37" customWidth="1"/>
+    <col min="10503" max="10503" width="8.7265625" style="37"/>
+    <col min="10504" max="10504" width="17.90625" style="37" customWidth="1"/>
+    <col min="10505" max="10505" width="8.7265625" style="37"/>
+    <col min="10506" max="10506" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10507" max="10751" width="8.7265625" style="37"/>
+    <col min="10752" max="10752" width="10.90625" style="37" customWidth="1"/>
+    <col min="10753" max="10753" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10754" max="10754" width="8.7265625" style="37"/>
+    <col min="10755" max="10755" width="17" style="37" customWidth="1"/>
+    <col min="10756" max="10756" width="13.90625" style="37" customWidth="1"/>
+    <col min="10757" max="10757" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10758" max="10758" width="13.90625" style="37" customWidth="1"/>
+    <col min="10759" max="10759" width="8.7265625" style="37"/>
+    <col min="10760" max="10760" width="17.90625" style="37" customWidth="1"/>
+    <col min="10761" max="10761" width="8.7265625" style="37"/>
+    <col min="10762" max="10762" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10763" max="11007" width="8.7265625" style="37"/>
+    <col min="11008" max="11008" width="10.90625" style="37" customWidth="1"/>
+    <col min="11009" max="11009" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11010" max="11010" width="8.7265625" style="37"/>
+    <col min="11011" max="11011" width="17" style="37" customWidth="1"/>
+    <col min="11012" max="11012" width="13.90625" style="37" customWidth="1"/>
+    <col min="11013" max="11013" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11014" max="11014" width="13.90625" style="37" customWidth="1"/>
+    <col min="11015" max="11015" width="8.7265625" style="37"/>
+    <col min="11016" max="11016" width="17.90625" style="37" customWidth="1"/>
+    <col min="11017" max="11017" width="8.7265625" style="37"/>
+    <col min="11018" max="11018" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11019" max="11263" width="8.7265625" style="37"/>
+    <col min="11264" max="11264" width="10.90625" style="37" customWidth="1"/>
+    <col min="11265" max="11265" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11266" max="11266" width="8.7265625" style="37"/>
+    <col min="11267" max="11267" width="17" style="37" customWidth="1"/>
+    <col min="11268" max="11268" width="13.90625" style="37" customWidth="1"/>
+    <col min="11269" max="11269" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11270" max="11270" width="13.90625" style="37" customWidth="1"/>
+    <col min="11271" max="11271" width="8.7265625" style="37"/>
+    <col min="11272" max="11272" width="17.90625" style="37" customWidth="1"/>
+    <col min="11273" max="11273" width="8.7265625" style="37"/>
+    <col min="11274" max="11274" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11275" max="11519" width="8.7265625" style="37"/>
+    <col min="11520" max="11520" width="10.90625" style="37" customWidth="1"/>
+    <col min="11521" max="11521" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11522" max="11522" width="8.7265625" style="37"/>
+    <col min="11523" max="11523" width="17" style="37" customWidth="1"/>
+    <col min="11524" max="11524" width="13.90625" style="37" customWidth="1"/>
+    <col min="11525" max="11525" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11526" max="11526" width="13.90625" style="37" customWidth="1"/>
+    <col min="11527" max="11527" width="8.7265625" style="37"/>
+    <col min="11528" max="11528" width="17.90625" style="37" customWidth="1"/>
+    <col min="11529" max="11529" width="8.7265625" style="37"/>
+    <col min="11530" max="11530" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11531" max="11775" width="8.7265625" style="37"/>
+    <col min="11776" max="11776" width="10.90625" style="37" customWidth="1"/>
+    <col min="11777" max="11777" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11778" max="11778" width="8.7265625" style="37"/>
+    <col min="11779" max="11779" width="17" style="37" customWidth="1"/>
+    <col min="11780" max="11780" width="13.90625" style="37" customWidth="1"/>
+    <col min="11781" max="11781" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11782" max="11782" width="13.90625" style="37" customWidth="1"/>
+    <col min="11783" max="11783" width="8.7265625" style="37"/>
+    <col min="11784" max="11784" width="17.90625" style="37" customWidth="1"/>
+    <col min="11785" max="11785" width="8.7265625" style="37"/>
+    <col min="11786" max="11786" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11787" max="12031" width="8.7265625" style="37"/>
+    <col min="12032" max="12032" width="10.90625" style="37" customWidth="1"/>
+    <col min="12033" max="12033" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12034" max="12034" width="8.7265625" style="37"/>
+    <col min="12035" max="12035" width="17" style="37" customWidth="1"/>
+    <col min="12036" max="12036" width="13.90625" style="37" customWidth="1"/>
+    <col min="12037" max="12037" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12038" max="12038" width="13.90625" style="37" customWidth="1"/>
+    <col min="12039" max="12039" width="8.7265625" style="37"/>
+    <col min="12040" max="12040" width="17.90625" style="37" customWidth="1"/>
+    <col min="12041" max="12041" width="8.7265625" style="37"/>
+    <col min="12042" max="12042" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12043" max="12287" width="8.7265625" style="37"/>
+    <col min="12288" max="12288" width="10.90625" style="37" customWidth="1"/>
+    <col min="12289" max="12289" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12290" max="12290" width="8.7265625" style="37"/>
+    <col min="12291" max="12291" width="17" style="37" customWidth="1"/>
+    <col min="12292" max="12292" width="13.90625" style="37" customWidth="1"/>
+    <col min="12293" max="12293" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12294" max="12294" width="13.90625" style="37" customWidth="1"/>
+    <col min="12295" max="12295" width="8.7265625" style="37"/>
+    <col min="12296" max="12296" width="17.90625" style="37" customWidth="1"/>
+    <col min="12297" max="12297" width="8.7265625" style="37"/>
+    <col min="12298" max="12298" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12299" max="12543" width="8.7265625" style="37"/>
+    <col min="12544" max="12544" width="10.90625" style="37" customWidth="1"/>
+    <col min="12545" max="12545" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12546" max="12546" width="8.7265625" style="37"/>
+    <col min="12547" max="12547" width="17" style="37" customWidth="1"/>
+    <col min="12548" max="12548" width="13.90625" style="37" customWidth="1"/>
+    <col min="12549" max="12549" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12550" max="12550" width="13.90625" style="37" customWidth="1"/>
+    <col min="12551" max="12551" width="8.7265625" style="37"/>
+    <col min="12552" max="12552" width="17.90625" style="37" customWidth="1"/>
+    <col min="12553" max="12553" width="8.7265625" style="37"/>
+    <col min="12554" max="12554" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12555" max="12799" width="8.7265625" style="37"/>
+    <col min="12800" max="12800" width="10.90625" style="37" customWidth="1"/>
+    <col min="12801" max="12801" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12802" max="12802" width="8.7265625" style="37"/>
+    <col min="12803" max="12803" width="17" style="37" customWidth="1"/>
+    <col min="12804" max="12804" width="13.90625" style="37" customWidth="1"/>
+    <col min="12805" max="12805" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12806" max="12806" width="13.90625" style="37" customWidth="1"/>
+    <col min="12807" max="12807" width="8.7265625" style="37"/>
+    <col min="12808" max="12808" width="17.90625" style="37" customWidth="1"/>
+    <col min="12809" max="12809" width="8.7265625" style="37"/>
+    <col min="12810" max="12810" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12811" max="13055" width="8.7265625" style="37"/>
+    <col min="13056" max="13056" width="10.90625" style="37" customWidth="1"/>
+    <col min="13057" max="13057" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13058" max="13058" width="8.7265625" style="37"/>
+    <col min="13059" max="13059" width="17" style="37" customWidth="1"/>
+    <col min="13060" max="13060" width="13.90625" style="37" customWidth="1"/>
+    <col min="13061" max="13061" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13062" max="13062" width="13.90625" style="37" customWidth="1"/>
+    <col min="13063" max="13063" width="8.7265625" style="37"/>
+    <col min="13064" max="13064" width="17.90625" style="37" customWidth="1"/>
+    <col min="13065" max="13065" width="8.7265625" style="37"/>
+    <col min="13066" max="13066" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13067" max="13311" width="8.7265625" style="37"/>
+    <col min="13312" max="13312" width="10.90625" style="37" customWidth="1"/>
+    <col min="13313" max="13313" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13314" max="13314" width="8.7265625" style="37"/>
+    <col min="13315" max="13315" width="17" style="37" customWidth="1"/>
+    <col min="13316" max="13316" width="13.90625" style="37" customWidth="1"/>
+    <col min="13317" max="13317" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13318" max="13318" width="13.90625" style="37" customWidth="1"/>
+    <col min="13319" max="13319" width="8.7265625" style="37"/>
+    <col min="13320" max="13320" width="17.90625" style="37" customWidth="1"/>
+    <col min="13321" max="13321" width="8.7265625" style="37"/>
+    <col min="13322" max="13322" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13323" max="13567" width="8.7265625" style="37"/>
+    <col min="13568" max="13568" width="10.90625" style="37" customWidth="1"/>
+    <col min="13569" max="13569" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13570" max="13570" width="8.7265625" style="37"/>
+    <col min="13571" max="13571" width="17" style="37" customWidth="1"/>
+    <col min="13572" max="13572" width="13.90625" style="37" customWidth="1"/>
+    <col min="13573" max="13573" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13574" max="13574" width="13.90625" style="37" customWidth="1"/>
+    <col min="13575" max="13575" width="8.7265625" style="37"/>
+    <col min="13576" max="13576" width="17.90625" style="37" customWidth="1"/>
+    <col min="13577" max="13577" width="8.7265625" style="37"/>
+    <col min="13578" max="13578" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13579" max="13823" width="8.7265625" style="37"/>
+    <col min="13824" max="13824" width="10.90625" style="37" customWidth="1"/>
+    <col min="13825" max="13825" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13826" max="13826" width="8.7265625" style="37"/>
+    <col min="13827" max="13827" width="17" style="37" customWidth="1"/>
+    <col min="13828" max="13828" width="13.90625" style="37" customWidth="1"/>
+    <col min="13829" max="13829" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13830" max="13830" width="13.90625" style="37" customWidth="1"/>
+    <col min="13831" max="13831" width="8.7265625" style="37"/>
+    <col min="13832" max="13832" width="17.90625" style="37" customWidth="1"/>
+    <col min="13833" max="13833" width="8.7265625" style="37"/>
+    <col min="13834" max="13834" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13835" max="14079" width="8.7265625" style="37"/>
+    <col min="14080" max="14080" width="10.90625" style="37" customWidth="1"/>
+    <col min="14081" max="14081" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14082" max="14082" width="8.7265625" style="37"/>
+    <col min="14083" max="14083" width="17" style="37" customWidth="1"/>
+    <col min="14084" max="14084" width="13.90625" style="37" customWidth="1"/>
+    <col min="14085" max="14085" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14086" max="14086" width="13.90625" style="37" customWidth="1"/>
+    <col min="14087" max="14087" width="8.7265625" style="37"/>
+    <col min="14088" max="14088" width="17.90625" style="37" customWidth="1"/>
+    <col min="14089" max="14089" width="8.7265625" style="37"/>
+    <col min="14090" max="14090" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14091" max="14335" width="8.7265625" style="37"/>
+    <col min="14336" max="14336" width="10.90625" style="37" customWidth="1"/>
+    <col min="14337" max="14337" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14338" max="14338" width="8.7265625" style="37"/>
+    <col min="14339" max="14339" width="17" style="37" customWidth="1"/>
+    <col min="14340" max="14340" width="13.90625" style="37" customWidth="1"/>
+    <col min="14341" max="14341" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14342" max="14342" width="13.90625" style="37" customWidth="1"/>
+    <col min="14343" max="14343" width="8.7265625" style="37"/>
+    <col min="14344" max="14344" width="17.90625" style="37" customWidth="1"/>
+    <col min="14345" max="14345" width="8.7265625" style="37"/>
+    <col min="14346" max="14346" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14347" max="14591" width="8.7265625" style="37"/>
+    <col min="14592" max="14592" width="10.90625" style="37" customWidth="1"/>
+    <col min="14593" max="14593" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14594" max="14594" width="8.7265625" style="37"/>
+    <col min="14595" max="14595" width="17" style="37" customWidth="1"/>
+    <col min="14596" max="14596" width="13.90625" style="37" customWidth="1"/>
+    <col min="14597" max="14597" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14598" max="14598" width="13.90625" style="37" customWidth="1"/>
+    <col min="14599" max="14599" width="8.7265625" style="37"/>
+    <col min="14600" max="14600" width="17.90625" style="37" customWidth="1"/>
+    <col min="14601" max="14601" width="8.7265625" style="37"/>
+    <col min="14602" max="14602" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14603" max="14847" width="8.7265625" style="37"/>
+    <col min="14848" max="14848" width="10.90625" style="37" customWidth="1"/>
+    <col min="14849" max="14849" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14850" max="14850" width="8.7265625" style="37"/>
+    <col min="14851" max="14851" width="17" style="37" customWidth="1"/>
+    <col min="14852" max="14852" width="13.90625" style="37" customWidth="1"/>
+    <col min="14853" max="14853" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14854" max="14854" width="13.90625" style="37" customWidth="1"/>
+    <col min="14855" max="14855" width="8.7265625" style="37"/>
+    <col min="14856" max="14856" width="17.90625" style="37" customWidth="1"/>
+    <col min="14857" max="14857" width="8.7265625" style="37"/>
+    <col min="14858" max="14858" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14859" max="15103" width="8.7265625" style="37"/>
+    <col min="15104" max="15104" width="10.90625" style="37" customWidth="1"/>
+    <col min="15105" max="15105" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15106" max="15106" width="8.7265625" style="37"/>
+    <col min="15107" max="15107" width="17" style="37" customWidth="1"/>
+    <col min="15108" max="15108" width="13.90625" style="37" customWidth="1"/>
+    <col min="15109" max="15109" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15110" max="15110" width="13.90625" style="37" customWidth="1"/>
+    <col min="15111" max="15111" width="8.7265625" style="37"/>
+    <col min="15112" max="15112" width="17.90625" style="37" customWidth="1"/>
+    <col min="15113" max="15113" width="8.7265625" style="37"/>
+    <col min="15114" max="15114" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15115" max="15359" width="8.7265625" style="37"/>
+    <col min="15360" max="15360" width="10.90625" style="37" customWidth="1"/>
+    <col min="15361" max="15361" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15362" max="15362" width="8.7265625" style="37"/>
+    <col min="15363" max="15363" width="17" style="37" customWidth="1"/>
+    <col min="15364" max="15364" width="13.90625" style="37" customWidth="1"/>
+    <col min="15365" max="15365" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15366" max="15366" width="13.90625" style="37" customWidth="1"/>
+    <col min="15367" max="15367" width="8.7265625" style="37"/>
+    <col min="15368" max="15368" width="17.90625" style="37" customWidth="1"/>
+    <col min="15369" max="15369" width="8.7265625" style="37"/>
+    <col min="15370" max="15370" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15371" max="15615" width="8.7265625" style="37"/>
+    <col min="15616" max="15616" width="10.90625" style="37" customWidth="1"/>
+    <col min="15617" max="15617" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15618" max="15618" width="8.7265625" style="37"/>
+    <col min="15619" max="15619" width="17" style="37" customWidth="1"/>
+    <col min="15620" max="15620" width="13.90625" style="37" customWidth="1"/>
+    <col min="15621" max="15621" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15622" max="15622" width="13.90625" style="37" customWidth="1"/>
+    <col min="15623" max="15623" width="8.7265625" style="37"/>
+    <col min="15624" max="15624" width="17.90625" style="37" customWidth="1"/>
+    <col min="15625" max="15625" width="8.7265625" style="37"/>
+    <col min="15626" max="15626" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15627" max="15871" width="8.7265625" style="37"/>
+    <col min="15872" max="15872" width="10.90625" style="37" customWidth="1"/>
+    <col min="15873" max="15873" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15874" max="15874" width="8.7265625" style="37"/>
+    <col min="15875" max="15875" width="17" style="37" customWidth="1"/>
+    <col min="15876" max="15876" width="13.90625" style="37" customWidth="1"/>
+    <col min="15877" max="15877" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15878" max="15878" width="13.90625" style="37" customWidth="1"/>
+    <col min="15879" max="15879" width="8.7265625" style="37"/>
+    <col min="15880" max="15880" width="17.90625" style="37" customWidth="1"/>
+    <col min="15881" max="15881" width="8.7265625" style="37"/>
+    <col min="15882" max="15882" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15883" max="16127" width="8.7265625" style="37"/>
+    <col min="16128" max="16128" width="10.90625" style="37" customWidth="1"/>
+    <col min="16129" max="16129" width="22.26953125" style="37" customWidth="1"/>
+    <col min="16130" max="16130" width="8.7265625" style="37"/>
+    <col min="16131" max="16131" width="17" style="37" customWidth="1"/>
+    <col min="16132" max="16132" width="13.90625" style="37" customWidth="1"/>
+    <col min="16133" max="16133" width="20.26953125" style="37" customWidth="1"/>
+    <col min="16134" max="16134" width="13.90625" style="37" customWidth="1"/>
+    <col min="16135" max="16135" width="8.7265625" style="37"/>
+    <col min="16136" max="16136" width="17.90625" style="37" customWidth="1"/>
+    <col min="16137" max="16137" width="8.7265625" style="37"/>
+    <col min="16138" max="16138" width="53.6328125" style="37" customWidth="1"/>
+    <col min="16139" max="16384" width="8.7265625" style="37"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>1201</v>
-      </c>
+    <row r="1" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16060,7 +17026,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9FD280-EAE4-4AC8-8CC6-15A0025EE1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF7C0CF-317A-48E4-8D10-9607939478B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1430" yWindow="190" windowWidth="17200" windowHeight="9880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="0" windowWidth="17200" windowHeight="9880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="1309">
   <si>
     <t>Code</t>
   </si>
@@ -4847,6 +4847,15 @@
   </si>
   <si>
     <t>nextActivityID</t>
+  </si>
+  <si>
+    <t>biomedicalConcepts</t>
+  </si>
+  <si>
+    <t>bcCategories</t>
+  </si>
+  <si>
+    <t>bcSurrogates</t>
   </si>
 </sst>
 </file>
@@ -5352,6 +5361,9 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5360,9 +5372,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5658,10 +5667,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>970</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -8750,11 +8759,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>989</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15454,7 +15463,7 @@
         <v>976</v>
       </c>
       <c r="E31" s="66" t="s">
-        <v>1280</v>
+        <v>1306</v>
       </c>
       <c r="F31" s="66" t="s">
         <v>1009</v>
@@ -15477,7 +15486,7 @@
         <v>976</v>
       </c>
       <c r="E32" s="66" t="s">
-        <v>1281</v>
+        <v>1307</v>
       </c>
       <c r="F32" s="66" t="s">
         <v>1009</v>
@@ -15500,7 +15509,7 @@
         <v>976</v>
       </c>
       <c r="E33" s="66" t="s">
-        <v>1282</v>
+        <v>1308</v>
       </c>
       <c r="F33" s="66" t="s">
         <v>1009</v>
@@ -16494,14 +16503,14 @@
       <c r="F2" s="31" t="s">
         <v>971</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="34" t="s">
@@ -16527,14 +16536,14 @@
       <c r="F3" s="31" t="s">
         <v>971</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="68" t="s">
         <v>34</v>
       </c>
       <c r="K3" s="34" t="s">

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,31 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF7C0CF-317A-48E4-8D10-9607939478B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308D8BDF-7CED-4318-88CF-F656F1B52781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="0" windowWidth="17200" windowHeight="9880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="18730" windowHeight="8310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
     <sheet name="DDF Terminology 2022-12-16" sheetId="1" r:id="rId2"/>
-    <sheet name="Terminology Changes Sp7 - new" sheetId="15" r:id="rId3"/>
-    <sheet name="Terminology Changes Sp7 - chg" sheetId="16" r:id="rId4"/>
-    <sheet name="Terminology Changes Sp6 - new" sheetId="14" r:id="rId5"/>
-    <sheet name="Terminology Changes Sp6 - chg" sheetId="13" r:id="rId6"/>
-    <sheet name="Terminology Changes Sp5 - new" sheetId="11" r:id="rId7"/>
-    <sheet name="Terminology Changes Sp5 - chg" sheetId="12" r:id="rId8"/>
-    <sheet name="Terminology Changes Sp4 - new" sheetId="9" r:id="rId9"/>
-    <sheet name="Terminology Changes Sp4 - chg" sheetId="10" r:id="rId10"/>
-    <sheet name="Terminology Changes Sp3 - new" sheetId="8" r:id="rId11"/>
-    <sheet name="Terminology Changes Sp3 - chg" sheetId="7" r:id="rId12"/>
-    <sheet name="Terminology Changes Sp2 - new" sheetId="6" r:id="rId13"/>
-    <sheet name="Terminology Changes Sp2 - chg" sheetId="5" r:id="rId14"/>
-    <sheet name="Terminology Changes Sp1 - new" sheetId="3" r:id="rId15"/>
-    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId16"/>
+    <sheet name="Terminology Changes Sp9 - new" sheetId="18" r:id="rId3"/>
+    <sheet name="Terminology Changes Sp9 - chg" sheetId="17" r:id="rId4"/>
+    <sheet name="Terminology Changes Sp7 - new" sheetId="15" r:id="rId5"/>
+    <sheet name="Terminology Changes Sp7 - chg" sheetId="16" r:id="rId6"/>
+    <sheet name="Terminology Changes Sp6 - new" sheetId="14" r:id="rId7"/>
+    <sheet name="Terminology Changes Sp6 - chg" sheetId="13" r:id="rId8"/>
+    <sheet name="Terminology Changes Sp5 - new" sheetId="11" r:id="rId9"/>
+    <sheet name="Terminology Changes Sp5 - chg" sheetId="12" r:id="rId10"/>
+    <sheet name="Terminology Changes Sp4 - new" sheetId="9" r:id="rId11"/>
+    <sheet name="Terminology Changes Sp4 - chg" sheetId="10" r:id="rId12"/>
+    <sheet name="Terminology Changes Sp3 - new" sheetId="8" r:id="rId13"/>
+    <sheet name="Terminology Changes Sp3 - chg" sheetId="7" r:id="rId14"/>
+    <sheet name="Terminology Changes Sp2 - new" sheetId="6" r:id="rId15"/>
+    <sheet name="Terminology Changes Sp2 - chg" sheetId="5" r:id="rId16"/>
+    <sheet name="Terminology Changes Sp1 - new" sheetId="3" r:id="rId17"/>
+    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF Terminology 2022-12-16'!$A$1:$H$255</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Terminology Changes Sp9 - chg'!$A$1:$WVR$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Terminology Changes Sp9 - new'!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="1403">
   <si>
     <t>Code</t>
   </si>
@@ -4856,6 +4860,395 @@
   </si>
   <si>
     <t>bcSurrogates</t>
+  </si>
+  <si>
+    <t>Remove Relationship from StudyDesign Class</t>
+  </si>
+  <si>
+    <t>studyWorkflows</t>
+  </si>
+  <si>
+    <t>Update UML Item Name to correctly reflect UML Class Name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AliasCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Entity</t>
+    </r>
+  </si>
+  <si>
+    <t>Change 'Class' to 'Entity' in column C of the CT deliverable.</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Multiple Rows&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Update Relationship Name to reflect USDM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bcSurrogateIds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+bcSurrogates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biomedicalConceptIds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+biomedicalConcepts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bcCategoryIds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+bcCategories</t>
+    </r>
+  </si>
+  <si>
+    <t>activityTimelineId</t>
+  </si>
+  <si>
+    <t>Add new Relationship to Encounter Class</t>
+  </si>
+  <si>
+    <t>encounterScheduledAtTimingId</t>
+  </si>
+  <si>
+    <t>studyScheduleTimelines</t>
+  </si>
+  <si>
+    <t>ScheduledActivityInstance</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Scheduled Activity Instance</t>
+  </si>
+  <si>
+    <t>A scheduled occurrence of an activity event.</t>
+  </si>
+  <si>
+    <t>Add new Relationship to ScheduledActivityInstance Class</t>
+  </si>
+  <si>
+    <t>activityIds</t>
+  </si>
+  <si>
+    <t>Add new class (Chris and Dave not aligned)</t>
+  </si>
+  <si>
+    <t>ScheduledDecisionInstance</t>
+  </si>
+  <si>
+    <t>Scheduled Decision Instance</t>
+  </si>
+  <si>
+    <t>A scheduled occurrence of a decision event.</t>
+  </si>
+  <si>
+    <t>ScheduledInstance</t>
+  </si>
+  <si>
+    <t>Scheduled Instance</t>
+  </si>
+  <si>
+    <t>A scheduled occurrence of a temporal event.</t>
+  </si>
+  <si>
+    <t>Add new Attribute to ScheduledInstanceClass</t>
+  </si>
+  <si>
+    <t>DDF Scheduled Instance Attribute Terminology</t>
+  </si>
+  <si>
+    <t>scheduleSequenceNumber</t>
+  </si>
+  <si>
+    <t>Schedule Sequence Number</t>
+  </si>
+  <si>
+    <t>A numeral or string of numerals expressing a relative sequence of scheduled temporal events.</t>
+  </si>
+  <si>
+    <t>scheduledInstanceType</t>
+  </si>
+  <si>
+    <t>Scheduled Instance Type</t>
+  </si>
+  <si>
+    <t>A characterization or classification of the scheduled instance.</t>
+  </si>
+  <si>
+    <t>Y-(CNEW)</t>
+  </si>
+  <si>
+    <t>Add new Relationship to ScheduledInstance Class</t>
+  </si>
+  <si>
+    <t>scheduleTimelineExitId</t>
+  </si>
+  <si>
+    <t>scheduledInstanceEncounterId</t>
+  </si>
+  <si>
+    <t>scheduledInstanceTimings</t>
+  </si>
+  <si>
+    <t>scheduledInstanceTimelineId</t>
+  </si>
+  <si>
+    <t>Add new value value set of 'scheduledInstanceType'</t>
+  </si>
+  <si>
+    <t>Valid Values for 'scheduledInstanceType'</t>
+  </si>
+  <si>
+    <t>Valid Values</t>
+  </si>
+  <si>
+    <t>C43431</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>An active process; the act of performing.</t>
+  </si>
+  <si>
+    <t>C53285</t>
+  </si>
+  <si>
+    <t>DECISION</t>
+  </si>
+  <si>
+    <t>A position, opinion, or judgment reached on an issue under consideration.</t>
+  </si>
+  <si>
+    <t>ScheduleTimeline</t>
+  </si>
+  <si>
+    <t>Schedule Timeline</t>
+  </si>
+  <si>
+    <t>A chronological schedule of planned temporal events.</t>
+  </si>
+  <si>
+    <t>Add new Attribute to ScheduleTimeline Class</t>
+  </si>
+  <si>
+    <t>DDF Timeline Attribute Terminology</t>
+  </si>
+  <si>
+    <t>scheduleTimelineName</t>
+  </si>
+  <si>
+    <t>Schedule Timeline Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the schedule timeline.</t>
+  </si>
+  <si>
+    <t>scheduleTimelineDescription</t>
+  </si>
+  <si>
+    <t>Schedule Timeline Description</t>
+  </si>
+  <si>
+    <t>The textual representation of the schedule timeline.</t>
+  </si>
+  <si>
+    <t>entryCondition</t>
+  </si>
+  <si>
+    <t>Schedule Timeline Entry Condition</t>
+  </si>
+  <si>
+    <t>A logical evaluation on which rests the validity of entry into a schedule timeline.</t>
+  </si>
+  <si>
+    <t>Add new Relationship to ScheduleTimeline Class</t>
+  </si>
+  <si>
+    <t>scheduleTimelineInstances</t>
+  </si>
+  <si>
+    <t>scheduleTimelineEntryId</t>
+  </si>
+  <si>
+    <t>scheduleTimelineExits</t>
+  </si>
+  <si>
+    <t>ScheduleTimelineExit</t>
+  </si>
+  <si>
+    <t>Schedule Timeline Exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To go out of or leave the schedule timeline.
+</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>C80484</t>
+  </si>
+  <si>
+    <t>The chronological relationship between temporal events.</t>
+  </si>
+  <si>
+    <t>Add new Attribute to Timing Class</t>
+  </si>
+  <si>
+    <t>DDF Timing Attribute Terminology</t>
+  </si>
+  <si>
+    <t>timingType</t>
+  </si>
+  <si>
+    <t>Timing Type</t>
+  </si>
+  <si>
+    <t>A characterization or classification of the chronological relationship between temporal events.</t>
+  </si>
+  <si>
+    <t>Y - (C66728/STENRF)</t>
+  </si>
+  <si>
+    <t>timingValue</t>
+  </si>
+  <si>
+    <t>Timing Value</t>
+  </si>
+  <si>
+    <t>The temporal value of the chronological relationship between temporal events.</t>
+  </si>
+  <si>
+    <t>timingRelativeToFrom</t>
+  </si>
+  <si>
+    <t>Timing Relative To From</t>
+  </si>
+  <si>
+    <t>The name of the reference event used to define the temporal relationship with another event.</t>
+  </si>
+  <si>
+    <t>timingWindow</t>
+  </si>
+  <si>
+    <t>C48921</t>
+  </si>
+  <si>
+    <t>Timing Window</t>
+  </si>
+  <si>
+    <t>A time period, or other type of interval, during which a temporal event may be achieved, obtained, or observed.</t>
+  </si>
+  <si>
+    <t>Add new Relationship to Timing Class</t>
+  </si>
+  <si>
+    <t>relativeFromScheduledInstanceId</t>
+  </si>
+  <si>
+    <t>relativeToScheduledInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4975,7 +5368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5045,6 +5438,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5160,7 +5571,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5372,6 +5783,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5765,6 +6197,147 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A40D45-4A6D-4323-AF2A-723C324D4F9C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F67F6C-9C5A-4D9C-A0BA-6CE74C3B3F1E}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.36328125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>971</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="32" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>971</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="32" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A4186-9BCA-48CF-8DF0-AEF3719878D4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5782,7 +6355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388C2AD6-B218-4E22-9152-9FF923DE673A}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -5904,7 +6477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A8CE6A-08F8-4094-B8C4-805F6E207B55}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -6807,7 +7380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60F93F-DDE7-4577-BCA7-BDCFD0F8A197}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -7038,7 +7611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8CB9F-21CB-4CA7-BF40-DA6BB340EB8E}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -8469,7 +9042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -8745,7 +9318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -14517,13 +15090,1815 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10997117-CBE1-4ECD-9BC6-C8E99561FD60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDB70F2-A83C-4A22-9A26-FC6D53CC0692}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="55" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="55" t="s">
+        <v>990</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="55" t="s">
+        <v>976</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>1326</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="33" t="s">
+        <v>1327</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="33" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="33" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>971</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="33" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="60" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>971</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="33" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="60" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="60" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="60" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="60" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="60" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="60" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="33" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F17" s="77" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="33" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>971</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="33" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>971</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="33" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>971</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>1372</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="33" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="55" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="55" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="55" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F24" s="77" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="33" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F25" s="77" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="33" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>971</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="33" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K26" s="60" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>971</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="33" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F28" s="78" t="s">
+        <v>971</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="33" t="s">
+        <v>1395</v>
+      </c>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F29" s="78" t="s">
+        <v>971</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="33" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="31" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="31" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{DBDB70F2-A83C-4A22-9A26-FC6D53CC0692}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F64286E-59CC-471D-9EBF-04664B927C60}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="37"/>
+    <col min="3" max="3" width="17" style="37" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="37"/>
+    <col min="8" max="8" width="17.90625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="37"/>
+    <col min="10" max="10" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11" max="255" width="8.7265625" style="37"/>
+    <col min="256" max="256" width="10.90625" style="37" customWidth="1"/>
+    <col min="257" max="257" width="22.26953125" style="37" customWidth="1"/>
+    <col min="258" max="258" width="8.7265625" style="37"/>
+    <col min="259" max="259" width="17" style="37" customWidth="1"/>
+    <col min="260" max="260" width="13.90625" style="37" customWidth="1"/>
+    <col min="261" max="261" width="20.26953125" style="37" customWidth="1"/>
+    <col min="262" max="262" width="13.90625" style="37" customWidth="1"/>
+    <col min="263" max="263" width="8.7265625" style="37"/>
+    <col min="264" max="264" width="17.90625" style="37" customWidth="1"/>
+    <col min="265" max="265" width="8.7265625" style="37"/>
+    <col min="266" max="266" width="53.6328125" style="37" customWidth="1"/>
+    <col min="267" max="511" width="8.7265625" style="37"/>
+    <col min="512" max="512" width="10.90625" style="37" customWidth="1"/>
+    <col min="513" max="513" width="22.26953125" style="37" customWidth="1"/>
+    <col min="514" max="514" width="8.7265625" style="37"/>
+    <col min="515" max="515" width="17" style="37" customWidth="1"/>
+    <col min="516" max="516" width="13.90625" style="37" customWidth="1"/>
+    <col min="517" max="517" width="20.26953125" style="37" customWidth="1"/>
+    <col min="518" max="518" width="13.90625" style="37" customWidth="1"/>
+    <col min="519" max="519" width="8.7265625" style="37"/>
+    <col min="520" max="520" width="17.90625" style="37" customWidth="1"/>
+    <col min="521" max="521" width="8.7265625" style="37"/>
+    <col min="522" max="522" width="53.6328125" style="37" customWidth="1"/>
+    <col min="523" max="767" width="8.7265625" style="37"/>
+    <col min="768" max="768" width="10.90625" style="37" customWidth="1"/>
+    <col min="769" max="769" width="22.26953125" style="37" customWidth="1"/>
+    <col min="770" max="770" width="8.7265625" style="37"/>
+    <col min="771" max="771" width="17" style="37" customWidth="1"/>
+    <col min="772" max="772" width="13.90625" style="37" customWidth="1"/>
+    <col min="773" max="773" width="20.26953125" style="37" customWidth="1"/>
+    <col min="774" max="774" width="13.90625" style="37" customWidth="1"/>
+    <col min="775" max="775" width="8.7265625" style="37"/>
+    <col min="776" max="776" width="17.90625" style="37" customWidth="1"/>
+    <col min="777" max="777" width="8.7265625" style="37"/>
+    <col min="778" max="778" width="53.6328125" style="37" customWidth="1"/>
+    <col min="779" max="1023" width="8.7265625" style="37"/>
+    <col min="1024" max="1024" width="10.90625" style="37" customWidth="1"/>
+    <col min="1025" max="1025" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1026" max="1026" width="8.7265625" style="37"/>
+    <col min="1027" max="1027" width="17" style="37" customWidth="1"/>
+    <col min="1028" max="1028" width="13.90625" style="37" customWidth="1"/>
+    <col min="1029" max="1029" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1030" max="1030" width="13.90625" style="37" customWidth="1"/>
+    <col min="1031" max="1031" width="8.7265625" style="37"/>
+    <col min="1032" max="1032" width="17.90625" style="37" customWidth="1"/>
+    <col min="1033" max="1033" width="8.7265625" style="37"/>
+    <col min="1034" max="1034" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1035" max="1279" width="8.7265625" style="37"/>
+    <col min="1280" max="1280" width="10.90625" style="37" customWidth="1"/>
+    <col min="1281" max="1281" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1282" max="1282" width="8.7265625" style="37"/>
+    <col min="1283" max="1283" width="17" style="37" customWidth="1"/>
+    <col min="1284" max="1284" width="13.90625" style="37" customWidth="1"/>
+    <col min="1285" max="1285" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1286" max="1286" width="13.90625" style="37" customWidth="1"/>
+    <col min="1287" max="1287" width="8.7265625" style="37"/>
+    <col min="1288" max="1288" width="17.90625" style="37" customWidth="1"/>
+    <col min="1289" max="1289" width="8.7265625" style="37"/>
+    <col min="1290" max="1290" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1291" max="1535" width="8.7265625" style="37"/>
+    <col min="1536" max="1536" width="10.90625" style="37" customWidth="1"/>
+    <col min="1537" max="1537" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1538" max="1538" width="8.7265625" style="37"/>
+    <col min="1539" max="1539" width="17" style="37" customWidth="1"/>
+    <col min="1540" max="1540" width="13.90625" style="37" customWidth="1"/>
+    <col min="1541" max="1541" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1542" max="1542" width="13.90625" style="37" customWidth="1"/>
+    <col min="1543" max="1543" width="8.7265625" style="37"/>
+    <col min="1544" max="1544" width="17.90625" style="37" customWidth="1"/>
+    <col min="1545" max="1545" width="8.7265625" style="37"/>
+    <col min="1546" max="1546" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1547" max="1791" width="8.7265625" style="37"/>
+    <col min="1792" max="1792" width="10.90625" style="37" customWidth="1"/>
+    <col min="1793" max="1793" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1794" max="1794" width="8.7265625" style="37"/>
+    <col min="1795" max="1795" width="17" style="37" customWidth="1"/>
+    <col min="1796" max="1796" width="13.90625" style="37" customWidth="1"/>
+    <col min="1797" max="1797" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1798" max="1798" width="13.90625" style="37" customWidth="1"/>
+    <col min="1799" max="1799" width="8.7265625" style="37"/>
+    <col min="1800" max="1800" width="17.90625" style="37" customWidth="1"/>
+    <col min="1801" max="1801" width="8.7265625" style="37"/>
+    <col min="1802" max="1802" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1803" max="2047" width="8.7265625" style="37"/>
+    <col min="2048" max="2048" width="10.90625" style="37" customWidth="1"/>
+    <col min="2049" max="2049" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2050" max="2050" width="8.7265625" style="37"/>
+    <col min="2051" max="2051" width="17" style="37" customWidth="1"/>
+    <col min="2052" max="2052" width="13.90625" style="37" customWidth="1"/>
+    <col min="2053" max="2053" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2054" max="2054" width="13.90625" style="37" customWidth="1"/>
+    <col min="2055" max="2055" width="8.7265625" style="37"/>
+    <col min="2056" max="2056" width="17.90625" style="37" customWidth="1"/>
+    <col min="2057" max="2057" width="8.7265625" style="37"/>
+    <col min="2058" max="2058" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2059" max="2303" width="8.7265625" style="37"/>
+    <col min="2304" max="2304" width="10.90625" style="37" customWidth="1"/>
+    <col min="2305" max="2305" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2306" max="2306" width="8.7265625" style="37"/>
+    <col min="2307" max="2307" width="17" style="37" customWidth="1"/>
+    <col min="2308" max="2308" width="13.90625" style="37" customWidth="1"/>
+    <col min="2309" max="2309" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2310" max="2310" width="13.90625" style="37" customWidth="1"/>
+    <col min="2311" max="2311" width="8.7265625" style="37"/>
+    <col min="2312" max="2312" width="17.90625" style="37" customWidth="1"/>
+    <col min="2313" max="2313" width="8.7265625" style="37"/>
+    <col min="2314" max="2314" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2315" max="2559" width="8.7265625" style="37"/>
+    <col min="2560" max="2560" width="10.90625" style="37" customWidth="1"/>
+    <col min="2561" max="2561" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2562" max="2562" width="8.7265625" style="37"/>
+    <col min="2563" max="2563" width="17" style="37" customWidth="1"/>
+    <col min="2564" max="2564" width="13.90625" style="37" customWidth="1"/>
+    <col min="2565" max="2565" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2566" max="2566" width="13.90625" style="37" customWidth="1"/>
+    <col min="2567" max="2567" width="8.7265625" style="37"/>
+    <col min="2568" max="2568" width="17.90625" style="37" customWidth="1"/>
+    <col min="2569" max="2569" width="8.7265625" style="37"/>
+    <col min="2570" max="2570" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2571" max="2815" width="8.7265625" style="37"/>
+    <col min="2816" max="2816" width="10.90625" style="37" customWidth="1"/>
+    <col min="2817" max="2817" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2818" max="2818" width="8.7265625" style="37"/>
+    <col min="2819" max="2819" width="17" style="37" customWidth="1"/>
+    <col min="2820" max="2820" width="13.90625" style="37" customWidth="1"/>
+    <col min="2821" max="2821" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2822" max="2822" width="13.90625" style="37" customWidth="1"/>
+    <col min="2823" max="2823" width="8.7265625" style="37"/>
+    <col min="2824" max="2824" width="17.90625" style="37" customWidth="1"/>
+    <col min="2825" max="2825" width="8.7265625" style="37"/>
+    <col min="2826" max="2826" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2827" max="3071" width="8.7265625" style="37"/>
+    <col min="3072" max="3072" width="10.90625" style="37" customWidth="1"/>
+    <col min="3073" max="3073" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3074" max="3074" width="8.7265625" style="37"/>
+    <col min="3075" max="3075" width="17" style="37" customWidth="1"/>
+    <col min="3076" max="3076" width="13.90625" style="37" customWidth="1"/>
+    <col min="3077" max="3077" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3078" max="3078" width="13.90625" style="37" customWidth="1"/>
+    <col min="3079" max="3079" width="8.7265625" style="37"/>
+    <col min="3080" max="3080" width="17.90625" style="37" customWidth="1"/>
+    <col min="3081" max="3081" width="8.7265625" style="37"/>
+    <col min="3082" max="3082" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3083" max="3327" width="8.7265625" style="37"/>
+    <col min="3328" max="3328" width="10.90625" style="37" customWidth="1"/>
+    <col min="3329" max="3329" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3330" max="3330" width="8.7265625" style="37"/>
+    <col min="3331" max="3331" width="17" style="37" customWidth="1"/>
+    <col min="3332" max="3332" width="13.90625" style="37" customWidth="1"/>
+    <col min="3333" max="3333" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3334" max="3334" width="13.90625" style="37" customWidth="1"/>
+    <col min="3335" max="3335" width="8.7265625" style="37"/>
+    <col min="3336" max="3336" width="17.90625" style="37" customWidth="1"/>
+    <col min="3337" max="3337" width="8.7265625" style="37"/>
+    <col min="3338" max="3338" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3339" max="3583" width="8.7265625" style="37"/>
+    <col min="3584" max="3584" width="10.90625" style="37" customWidth="1"/>
+    <col min="3585" max="3585" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3586" max="3586" width="8.7265625" style="37"/>
+    <col min="3587" max="3587" width="17" style="37" customWidth="1"/>
+    <col min="3588" max="3588" width="13.90625" style="37" customWidth="1"/>
+    <col min="3589" max="3589" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3590" max="3590" width="13.90625" style="37" customWidth="1"/>
+    <col min="3591" max="3591" width="8.7265625" style="37"/>
+    <col min="3592" max="3592" width="17.90625" style="37" customWidth="1"/>
+    <col min="3593" max="3593" width="8.7265625" style="37"/>
+    <col min="3594" max="3594" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3595" max="3839" width="8.7265625" style="37"/>
+    <col min="3840" max="3840" width="10.90625" style="37" customWidth="1"/>
+    <col min="3841" max="3841" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3842" max="3842" width="8.7265625" style="37"/>
+    <col min="3843" max="3843" width="17" style="37" customWidth="1"/>
+    <col min="3844" max="3844" width="13.90625" style="37" customWidth="1"/>
+    <col min="3845" max="3845" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3846" max="3846" width="13.90625" style="37" customWidth="1"/>
+    <col min="3847" max="3847" width="8.7265625" style="37"/>
+    <col min="3848" max="3848" width="17.90625" style="37" customWidth="1"/>
+    <col min="3849" max="3849" width="8.7265625" style="37"/>
+    <col min="3850" max="3850" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3851" max="4095" width="8.7265625" style="37"/>
+    <col min="4096" max="4096" width="10.90625" style="37" customWidth="1"/>
+    <col min="4097" max="4097" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4098" max="4098" width="8.7265625" style="37"/>
+    <col min="4099" max="4099" width="17" style="37" customWidth="1"/>
+    <col min="4100" max="4100" width="13.90625" style="37" customWidth="1"/>
+    <col min="4101" max="4101" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4102" max="4102" width="13.90625" style="37" customWidth="1"/>
+    <col min="4103" max="4103" width="8.7265625" style="37"/>
+    <col min="4104" max="4104" width="17.90625" style="37" customWidth="1"/>
+    <col min="4105" max="4105" width="8.7265625" style="37"/>
+    <col min="4106" max="4106" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4107" max="4351" width="8.7265625" style="37"/>
+    <col min="4352" max="4352" width="10.90625" style="37" customWidth="1"/>
+    <col min="4353" max="4353" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4354" max="4354" width="8.7265625" style="37"/>
+    <col min="4355" max="4355" width="17" style="37" customWidth="1"/>
+    <col min="4356" max="4356" width="13.90625" style="37" customWidth="1"/>
+    <col min="4357" max="4357" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4358" max="4358" width="13.90625" style="37" customWidth="1"/>
+    <col min="4359" max="4359" width="8.7265625" style="37"/>
+    <col min="4360" max="4360" width="17.90625" style="37" customWidth="1"/>
+    <col min="4361" max="4361" width="8.7265625" style="37"/>
+    <col min="4362" max="4362" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4363" max="4607" width="8.7265625" style="37"/>
+    <col min="4608" max="4608" width="10.90625" style="37" customWidth="1"/>
+    <col min="4609" max="4609" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4610" max="4610" width="8.7265625" style="37"/>
+    <col min="4611" max="4611" width="17" style="37" customWidth="1"/>
+    <col min="4612" max="4612" width="13.90625" style="37" customWidth="1"/>
+    <col min="4613" max="4613" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4614" max="4614" width="13.90625" style="37" customWidth="1"/>
+    <col min="4615" max="4615" width="8.7265625" style="37"/>
+    <col min="4616" max="4616" width="17.90625" style="37" customWidth="1"/>
+    <col min="4617" max="4617" width="8.7265625" style="37"/>
+    <col min="4618" max="4618" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4619" max="4863" width="8.7265625" style="37"/>
+    <col min="4864" max="4864" width="10.90625" style="37" customWidth="1"/>
+    <col min="4865" max="4865" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4866" max="4866" width="8.7265625" style="37"/>
+    <col min="4867" max="4867" width="17" style="37" customWidth="1"/>
+    <col min="4868" max="4868" width="13.90625" style="37" customWidth="1"/>
+    <col min="4869" max="4869" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4870" max="4870" width="13.90625" style="37" customWidth="1"/>
+    <col min="4871" max="4871" width="8.7265625" style="37"/>
+    <col min="4872" max="4872" width="17.90625" style="37" customWidth="1"/>
+    <col min="4873" max="4873" width="8.7265625" style="37"/>
+    <col min="4874" max="4874" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4875" max="5119" width="8.7265625" style="37"/>
+    <col min="5120" max="5120" width="10.90625" style="37" customWidth="1"/>
+    <col min="5121" max="5121" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5122" max="5122" width="8.7265625" style="37"/>
+    <col min="5123" max="5123" width="17" style="37" customWidth="1"/>
+    <col min="5124" max="5124" width="13.90625" style="37" customWidth="1"/>
+    <col min="5125" max="5125" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5126" max="5126" width="13.90625" style="37" customWidth="1"/>
+    <col min="5127" max="5127" width="8.7265625" style="37"/>
+    <col min="5128" max="5128" width="17.90625" style="37" customWidth="1"/>
+    <col min="5129" max="5129" width="8.7265625" style="37"/>
+    <col min="5130" max="5130" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5131" max="5375" width="8.7265625" style="37"/>
+    <col min="5376" max="5376" width="10.90625" style="37" customWidth="1"/>
+    <col min="5377" max="5377" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5378" max="5378" width="8.7265625" style="37"/>
+    <col min="5379" max="5379" width="17" style="37" customWidth="1"/>
+    <col min="5380" max="5380" width="13.90625" style="37" customWidth="1"/>
+    <col min="5381" max="5381" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5382" max="5382" width="13.90625" style="37" customWidth="1"/>
+    <col min="5383" max="5383" width="8.7265625" style="37"/>
+    <col min="5384" max="5384" width="17.90625" style="37" customWidth="1"/>
+    <col min="5385" max="5385" width="8.7265625" style="37"/>
+    <col min="5386" max="5386" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5387" max="5631" width="8.7265625" style="37"/>
+    <col min="5632" max="5632" width="10.90625" style="37" customWidth="1"/>
+    <col min="5633" max="5633" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5634" max="5634" width="8.7265625" style="37"/>
+    <col min="5635" max="5635" width="17" style="37" customWidth="1"/>
+    <col min="5636" max="5636" width="13.90625" style="37" customWidth="1"/>
+    <col min="5637" max="5637" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5638" max="5638" width="13.90625" style="37" customWidth="1"/>
+    <col min="5639" max="5639" width="8.7265625" style="37"/>
+    <col min="5640" max="5640" width="17.90625" style="37" customWidth="1"/>
+    <col min="5641" max="5641" width="8.7265625" style="37"/>
+    <col min="5642" max="5642" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5643" max="5887" width="8.7265625" style="37"/>
+    <col min="5888" max="5888" width="10.90625" style="37" customWidth="1"/>
+    <col min="5889" max="5889" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5890" max="5890" width="8.7265625" style="37"/>
+    <col min="5891" max="5891" width="17" style="37" customWidth="1"/>
+    <col min="5892" max="5892" width="13.90625" style="37" customWidth="1"/>
+    <col min="5893" max="5893" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5894" max="5894" width="13.90625" style="37" customWidth="1"/>
+    <col min="5895" max="5895" width="8.7265625" style="37"/>
+    <col min="5896" max="5896" width="17.90625" style="37" customWidth="1"/>
+    <col min="5897" max="5897" width="8.7265625" style="37"/>
+    <col min="5898" max="5898" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5899" max="6143" width="8.7265625" style="37"/>
+    <col min="6144" max="6144" width="10.90625" style="37" customWidth="1"/>
+    <col min="6145" max="6145" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6146" max="6146" width="8.7265625" style="37"/>
+    <col min="6147" max="6147" width="17" style="37" customWidth="1"/>
+    <col min="6148" max="6148" width="13.90625" style="37" customWidth="1"/>
+    <col min="6149" max="6149" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6150" max="6150" width="13.90625" style="37" customWidth="1"/>
+    <col min="6151" max="6151" width="8.7265625" style="37"/>
+    <col min="6152" max="6152" width="17.90625" style="37" customWidth="1"/>
+    <col min="6153" max="6153" width="8.7265625" style="37"/>
+    <col min="6154" max="6154" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6155" max="6399" width="8.7265625" style="37"/>
+    <col min="6400" max="6400" width="10.90625" style="37" customWidth="1"/>
+    <col min="6401" max="6401" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6402" max="6402" width="8.7265625" style="37"/>
+    <col min="6403" max="6403" width="17" style="37" customWidth="1"/>
+    <col min="6404" max="6404" width="13.90625" style="37" customWidth="1"/>
+    <col min="6405" max="6405" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6406" max="6406" width="13.90625" style="37" customWidth="1"/>
+    <col min="6407" max="6407" width="8.7265625" style="37"/>
+    <col min="6408" max="6408" width="17.90625" style="37" customWidth="1"/>
+    <col min="6409" max="6409" width="8.7265625" style="37"/>
+    <col min="6410" max="6410" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6411" max="6655" width="8.7265625" style="37"/>
+    <col min="6656" max="6656" width="10.90625" style="37" customWidth="1"/>
+    <col min="6657" max="6657" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6658" max="6658" width="8.7265625" style="37"/>
+    <col min="6659" max="6659" width="17" style="37" customWidth="1"/>
+    <col min="6660" max="6660" width="13.90625" style="37" customWidth="1"/>
+    <col min="6661" max="6661" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6662" max="6662" width="13.90625" style="37" customWidth="1"/>
+    <col min="6663" max="6663" width="8.7265625" style="37"/>
+    <col min="6664" max="6664" width="17.90625" style="37" customWidth="1"/>
+    <col min="6665" max="6665" width="8.7265625" style="37"/>
+    <col min="6666" max="6666" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6667" max="6911" width="8.7265625" style="37"/>
+    <col min="6912" max="6912" width="10.90625" style="37" customWidth="1"/>
+    <col min="6913" max="6913" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6914" max="6914" width="8.7265625" style="37"/>
+    <col min="6915" max="6915" width="17" style="37" customWidth="1"/>
+    <col min="6916" max="6916" width="13.90625" style="37" customWidth="1"/>
+    <col min="6917" max="6917" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6918" max="6918" width="13.90625" style="37" customWidth="1"/>
+    <col min="6919" max="6919" width="8.7265625" style="37"/>
+    <col min="6920" max="6920" width="17.90625" style="37" customWidth="1"/>
+    <col min="6921" max="6921" width="8.7265625" style="37"/>
+    <col min="6922" max="6922" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6923" max="7167" width="8.7265625" style="37"/>
+    <col min="7168" max="7168" width="10.90625" style="37" customWidth="1"/>
+    <col min="7169" max="7169" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7170" max="7170" width="8.7265625" style="37"/>
+    <col min="7171" max="7171" width="17" style="37" customWidth="1"/>
+    <col min="7172" max="7172" width="13.90625" style="37" customWidth="1"/>
+    <col min="7173" max="7173" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7174" max="7174" width="13.90625" style="37" customWidth="1"/>
+    <col min="7175" max="7175" width="8.7265625" style="37"/>
+    <col min="7176" max="7176" width="17.90625" style="37" customWidth="1"/>
+    <col min="7177" max="7177" width="8.7265625" style="37"/>
+    <col min="7178" max="7178" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7179" max="7423" width="8.7265625" style="37"/>
+    <col min="7424" max="7424" width="10.90625" style="37" customWidth="1"/>
+    <col min="7425" max="7425" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7426" max="7426" width="8.7265625" style="37"/>
+    <col min="7427" max="7427" width="17" style="37" customWidth="1"/>
+    <col min="7428" max="7428" width="13.90625" style="37" customWidth="1"/>
+    <col min="7429" max="7429" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7430" max="7430" width="13.90625" style="37" customWidth="1"/>
+    <col min="7431" max="7431" width="8.7265625" style="37"/>
+    <col min="7432" max="7432" width="17.90625" style="37" customWidth="1"/>
+    <col min="7433" max="7433" width="8.7265625" style="37"/>
+    <col min="7434" max="7434" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7435" max="7679" width="8.7265625" style="37"/>
+    <col min="7680" max="7680" width="10.90625" style="37" customWidth="1"/>
+    <col min="7681" max="7681" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7682" max="7682" width="8.7265625" style="37"/>
+    <col min="7683" max="7683" width="17" style="37" customWidth="1"/>
+    <col min="7684" max="7684" width="13.90625" style="37" customWidth="1"/>
+    <col min="7685" max="7685" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7686" max="7686" width="13.90625" style="37" customWidth="1"/>
+    <col min="7687" max="7687" width="8.7265625" style="37"/>
+    <col min="7688" max="7688" width="17.90625" style="37" customWidth="1"/>
+    <col min="7689" max="7689" width="8.7265625" style="37"/>
+    <col min="7690" max="7690" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7691" max="7935" width="8.7265625" style="37"/>
+    <col min="7936" max="7936" width="10.90625" style="37" customWidth="1"/>
+    <col min="7937" max="7937" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7938" max="7938" width="8.7265625" style="37"/>
+    <col min="7939" max="7939" width="17" style="37" customWidth="1"/>
+    <col min="7940" max="7940" width="13.90625" style="37" customWidth="1"/>
+    <col min="7941" max="7941" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7942" max="7942" width="13.90625" style="37" customWidth="1"/>
+    <col min="7943" max="7943" width="8.7265625" style="37"/>
+    <col min="7944" max="7944" width="17.90625" style="37" customWidth="1"/>
+    <col min="7945" max="7945" width="8.7265625" style="37"/>
+    <col min="7946" max="7946" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7947" max="8191" width="8.7265625" style="37"/>
+    <col min="8192" max="8192" width="10.90625" style="37" customWidth="1"/>
+    <col min="8193" max="8193" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8194" max="8194" width="8.7265625" style="37"/>
+    <col min="8195" max="8195" width="17" style="37" customWidth="1"/>
+    <col min="8196" max="8196" width="13.90625" style="37" customWidth="1"/>
+    <col min="8197" max="8197" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8198" max="8198" width="13.90625" style="37" customWidth="1"/>
+    <col min="8199" max="8199" width="8.7265625" style="37"/>
+    <col min="8200" max="8200" width="17.90625" style="37" customWidth="1"/>
+    <col min="8201" max="8201" width="8.7265625" style="37"/>
+    <col min="8202" max="8202" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8203" max="8447" width="8.7265625" style="37"/>
+    <col min="8448" max="8448" width="10.90625" style="37" customWidth="1"/>
+    <col min="8449" max="8449" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8450" max="8450" width="8.7265625" style="37"/>
+    <col min="8451" max="8451" width="17" style="37" customWidth="1"/>
+    <col min="8452" max="8452" width="13.90625" style="37" customWidth="1"/>
+    <col min="8453" max="8453" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8454" max="8454" width="13.90625" style="37" customWidth="1"/>
+    <col min="8455" max="8455" width="8.7265625" style="37"/>
+    <col min="8456" max="8456" width="17.90625" style="37" customWidth="1"/>
+    <col min="8457" max="8457" width="8.7265625" style="37"/>
+    <col min="8458" max="8458" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8459" max="8703" width="8.7265625" style="37"/>
+    <col min="8704" max="8704" width="10.90625" style="37" customWidth="1"/>
+    <col min="8705" max="8705" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8706" max="8706" width="8.7265625" style="37"/>
+    <col min="8707" max="8707" width="17" style="37" customWidth="1"/>
+    <col min="8708" max="8708" width="13.90625" style="37" customWidth="1"/>
+    <col min="8709" max="8709" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8710" max="8710" width="13.90625" style="37" customWidth="1"/>
+    <col min="8711" max="8711" width="8.7265625" style="37"/>
+    <col min="8712" max="8712" width="17.90625" style="37" customWidth="1"/>
+    <col min="8713" max="8713" width="8.7265625" style="37"/>
+    <col min="8714" max="8714" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8715" max="8959" width="8.7265625" style="37"/>
+    <col min="8960" max="8960" width="10.90625" style="37" customWidth="1"/>
+    <col min="8961" max="8961" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8962" max="8962" width="8.7265625" style="37"/>
+    <col min="8963" max="8963" width="17" style="37" customWidth="1"/>
+    <col min="8964" max="8964" width="13.90625" style="37" customWidth="1"/>
+    <col min="8965" max="8965" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8966" max="8966" width="13.90625" style="37" customWidth="1"/>
+    <col min="8967" max="8967" width="8.7265625" style="37"/>
+    <col min="8968" max="8968" width="17.90625" style="37" customWidth="1"/>
+    <col min="8969" max="8969" width="8.7265625" style="37"/>
+    <col min="8970" max="8970" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8971" max="9215" width="8.7265625" style="37"/>
+    <col min="9216" max="9216" width="10.90625" style="37" customWidth="1"/>
+    <col min="9217" max="9217" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9218" max="9218" width="8.7265625" style="37"/>
+    <col min="9219" max="9219" width="17" style="37" customWidth="1"/>
+    <col min="9220" max="9220" width="13.90625" style="37" customWidth="1"/>
+    <col min="9221" max="9221" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9222" max="9222" width="13.90625" style="37" customWidth="1"/>
+    <col min="9223" max="9223" width="8.7265625" style="37"/>
+    <col min="9224" max="9224" width="17.90625" style="37" customWidth="1"/>
+    <col min="9225" max="9225" width="8.7265625" style="37"/>
+    <col min="9226" max="9226" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9227" max="9471" width="8.7265625" style="37"/>
+    <col min="9472" max="9472" width="10.90625" style="37" customWidth="1"/>
+    <col min="9473" max="9473" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9474" max="9474" width="8.7265625" style="37"/>
+    <col min="9475" max="9475" width="17" style="37" customWidth="1"/>
+    <col min="9476" max="9476" width="13.90625" style="37" customWidth="1"/>
+    <col min="9477" max="9477" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9478" max="9478" width="13.90625" style="37" customWidth="1"/>
+    <col min="9479" max="9479" width="8.7265625" style="37"/>
+    <col min="9480" max="9480" width="17.90625" style="37" customWidth="1"/>
+    <col min="9481" max="9481" width="8.7265625" style="37"/>
+    <col min="9482" max="9482" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9483" max="9727" width="8.7265625" style="37"/>
+    <col min="9728" max="9728" width="10.90625" style="37" customWidth="1"/>
+    <col min="9729" max="9729" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9730" max="9730" width="8.7265625" style="37"/>
+    <col min="9731" max="9731" width="17" style="37" customWidth="1"/>
+    <col min="9732" max="9732" width="13.90625" style="37" customWidth="1"/>
+    <col min="9733" max="9733" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9734" max="9734" width="13.90625" style="37" customWidth="1"/>
+    <col min="9735" max="9735" width="8.7265625" style="37"/>
+    <col min="9736" max="9736" width="17.90625" style="37" customWidth="1"/>
+    <col min="9737" max="9737" width="8.7265625" style="37"/>
+    <col min="9738" max="9738" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9739" max="9983" width="8.7265625" style="37"/>
+    <col min="9984" max="9984" width="10.90625" style="37" customWidth="1"/>
+    <col min="9985" max="9985" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9986" max="9986" width="8.7265625" style="37"/>
+    <col min="9987" max="9987" width="17" style="37" customWidth="1"/>
+    <col min="9988" max="9988" width="13.90625" style="37" customWidth="1"/>
+    <col min="9989" max="9989" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9990" max="9990" width="13.90625" style="37" customWidth="1"/>
+    <col min="9991" max="9991" width="8.7265625" style="37"/>
+    <col min="9992" max="9992" width="17.90625" style="37" customWidth="1"/>
+    <col min="9993" max="9993" width="8.7265625" style="37"/>
+    <col min="9994" max="9994" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9995" max="10239" width="8.7265625" style="37"/>
+    <col min="10240" max="10240" width="10.90625" style="37" customWidth="1"/>
+    <col min="10241" max="10241" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10242" max="10242" width="8.7265625" style="37"/>
+    <col min="10243" max="10243" width="17" style="37" customWidth="1"/>
+    <col min="10244" max="10244" width="13.90625" style="37" customWidth="1"/>
+    <col min="10245" max="10245" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10246" max="10246" width="13.90625" style="37" customWidth="1"/>
+    <col min="10247" max="10247" width="8.7265625" style="37"/>
+    <col min="10248" max="10248" width="17.90625" style="37" customWidth="1"/>
+    <col min="10249" max="10249" width="8.7265625" style="37"/>
+    <col min="10250" max="10250" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10251" max="10495" width="8.7265625" style="37"/>
+    <col min="10496" max="10496" width="10.90625" style="37" customWidth="1"/>
+    <col min="10497" max="10497" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10498" max="10498" width="8.7265625" style="37"/>
+    <col min="10499" max="10499" width="17" style="37" customWidth="1"/>
+    <col min="10500" max="10500" width="13.90625" style="37" customWidth="1"/>
+    <col min="10501" max="10501" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10502" max="10502" width="13.90625" style="37" customWidth="1"/>
+    <col min="10503" max="10503" width="8.7265625" style="37"/>
+    <col min="10504" max="10504" width="17.90625" style="37" customWidth="1"/>
+    <col min="10505" max="10505" width="8.7265625" style="37"/>
+    <col min="10506" max="10506" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10507" max="10751" width="8.7265625" style="37"/>
+    <col min="10752" max="10752" width="10.90625" style="37" customWidth="1"/>
+    <col min="10753" max="10753" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10754" max="10754" width="8.7265625" style="37"/>
+    <col min="10755" max="10755" width="17" style="37" customWidth="1"/>
+    <col min="10756" max="10756" width="13.90625" style="37" customWidth="1"/>
+    <col min="10757" max="10757" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10758" max="10758" width="13.90625" style="37" customWidth="1"/>
+    <col min="10759" max="10759" width="8.7265625" style="37"/>
+    <col min="10760" max="10760" width="17.90625" style="37" customWidth="1"/>
+    <col min="10761" max="10761" width="8.7265625" style="37"/>
+    <col min="10762" max="10762" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10763" max="11007" width="8.7265625" style="37"/>
+    <col min="11008" max="11008" width="10.90625" style="37" customWidth="1"/>
+    <col min="11009" max="11009" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11010" max="11010" width="8.7265625" style="37"/>
+    <col min="11011" max="11011" width="17" style="37" customWidth="1"/>
+    <col min="11012" max="11012" width="13.90625" style="37" customWidth="1"/>
+    <col min="11013" max="11013" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11014" max="11014" width="13.90625" style="37" customWidth="1"/>
+    <col min="11015" max="11015" width="8.7265625" style="37"/>
+    <col min="11016" max="11016" width="17.90625" style="37" customWidth="1"/>
+    <col min="11017" max="11017" width="8.7265625" style="37"/>
+    <col min="11018" max="11018" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11019" max="11263" width="8.7265625" style="37"/>
+    <col min="11264" max="11264" width="10.90625" style="37" customWidth="1"/>
+    <col min="11265" max="11265" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11266" max="11266" width="8.7265625" style="37"/>
+    <col min="11267" max="11267" width="17" style="37" customWidth="1"/>
+    <col min="11268" max="11268" width="13.90625" style="37" customWidth="1"/>
+    <col min="11269" max="11269" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11270" max="11270" width="13.90625" style="37" customWidth="1"/>
+    <col min="11271" max="11271" width="8.7265625" style="37"/>
+    <col min="11272" max="11272" width="17.90625" style="37" customWidth="1"/>
+    <col min="11273" max="11273" width="8.7265625" style="37"/>
+    <col min="11274" max="11274" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11275" max="11519" width="8.7265625" style="37"/>
+    <col min="11520" max="11520" width="10.90625" style="37" customWidth="1"/>
+    <col min="11521" max="11521" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11522" max="11522" width="8.7265625" style="37"/>
+    <col min="11523" max="11523" width="17" style="37" customWidth="1"/>
+    <col min="11524" max="11524" width="13.90625" style="37" customWidth="1"/>
+    <col min="11525" max="11525" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11526" max="11526" width="13.90625" style="37" customWidth="1"/>
+    <col min="11527" max="11527" width="8.7265625" style="37"/>
+    <col min="11528" max="11528" width="17.90625" style="37" customWidth="1"/>
+    <col min="11529" max="11529" width="8.7265625" style="37"/>
+    <col min="11530" max="11530" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11531" max="11775" width="8.7265625" style="37"/>
+    <col min="11776" max="11776" width="10.90625" style="37" customWidth="1"/>
+    <col min="11777" max="11777" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11778" max="11778" width="8.7265625" style="37"/>
+    <col min="11779" max="11779" width="17" style="37" customWidth="1"/>
+    <col min="11780" max="11780" width="13.90625" style="37" customWidth="1"/>
+    <col min="11781" max="11781" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11782" max="11782" width="13.90625" style="37" customWidth="1"/>
+    <col min="11783" max="11783" width="8.7265625" style="37"/>
+    <col min="11784" max="11784" width="17.90625" style="37" customWidth="1"/>
+    <col min="11785" max="11785" width="8.7265625" style="37"/>
+    <col min="11786" max="11786" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11787" max="12031" width="8.7265625" style="37"/>
+    <col min="12032" max="12032" width="10.90625" style="37" customWidth="1"/>
+    <col min="12033" max="12033" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12034" max="12034" width="8.7265625" style="37"/>
+    <col min="12035" max="12035" width="17" style="37" customWidth="1"/>
+    <col min="12036" max="12036" width="13.90625" style="37" customWidth="1"/>
+    <col min="12037" max="12037" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12038" max="12038" width="13.90625" style="37" customWidth="1"/>
+    <col min="12039" max="12039" width="8.7265625" style="37"/>
+    <col min="12040" max="12040" width="17.90625" style="37" customWidth="1"/>
+    <col min="12041" max="12041" width="8.7265625" style="37"/>
+    <col min="12042" max="12042" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12043" max="12287" width="8.7265625" style="37"/>
+    <col min="12288" max="12288" width="10.90625" style="37" customWidth="1"/>
+    <col min="12289" max="12289" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12290" max="12290" width="8.7265625" style="37"/>
+    <col min="12291" max="12291" width="17" style="37" customWidth="1"/>
+    <col min="12292" max="12292" width="13.90625" style="37" customWidth="1"/>
+    <col min="12293" max="12293" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12294" max="12294" width="13.90625" style="37" customWidth="1"/>
+    <col min="12295" max="12295" width="8.7265625" style="37"/>
+    <col min="12296" max="12296" width="17.90625" style="37" customWidth="1"/>
+    <col min="12297" max="12297" width="8.7265625" style="37"/>
+    <col min="12298" max="12298" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12299" max="12543" width="8.7265625" style="37"/>
+    <col min="12544" max="12544" width="10.90625" style="37" customWidth="1"/>
+    <col min="12545" max="12545" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12546" max="12546" width="8.7265625" style="37"/>
+    <col min="12547" max="12547" width="17" style="37" customWidth="1"/>
+    <col min="12548" max="12548" width="13.90625" style="37" customWidth="1"/>
+    <col min="12549" max="12549" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12550" max="12550" width="13.90625" style="37" customWidth="1"/>
+    <col min="12551" max="12551" width="8.7265625" style="37"/>
+    <col min="12552" max="12552" width="17.90625" style="37" customWidth="1"/>
+    <col min="12553" max="12553" width="8.7265625" style="37"/>
+    <col min="12554" max="12554" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12555" max="12799" width="8.7265625" style="37"/>
+    <col min="12800" max="12800" width="10.90625" style="37" customWidth="1"/>
+    <col min="12801" max="12801" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12802" max="12802" width="8.7265625" style="37"/>
+    <col min="12803" max="12803" width="17" style="37" customWidth="1"/>
+    <col min="12804" max="12804" width="13.90625" style="37" customWidth="1"/>
+    <col min="12805" max="12805" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12806" max="12806" width="13.90625" style="37" customWidth="1"/>
+    <col min="12807" max="12807" width="8.7265625" style="37"/>
+    <col min="12808" max="12808" width="17.90625" style="37" customWidth="1"/>
+    <col min="12809" max="12809" width="8.7265625" style="37"/>
+    <col min="12810" max="12810" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12811" max="13055" width="8.7265625" style="37"/>
+    <col min="13056" max="13056" width="10.90625" style="37" customWidth="1"/>
+    <col min="13057" max="13057" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13058" max="13058" width="8.7265625" style="37"/>
+    <col min="13059" max="13059" width="17" style="37" customWidth="1"/>
+    <col min="13060" max="13060" width="13.90625" style="37" customWidth="1"/>
+    <col min="13061" max="13061" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13062" max="13062" width="13.90625" style="37" customWidth="1"/>
+    <col min="13063" max="13063" width="8.7265625" style="37"/>
+    <col min="13064" max="13064" width="17.90625" style="37" customWidth="1"/>
+    <col min="13065" max="13065" width="8.7265625" style="37"/>
+    <col min="13066" max="13066" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13067" max="13311" width="8.7265625" style="37"/>
+    <col min="13312" max="13312" width="10.90625" style="37" customWidth="1"/>
+    <col min="13313" max="13313" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13314" max="13314" width="8.7265625" style="37"/>
+    <col min="13315" max="13315" width="17" style="37" customWidth="1"/>
+    <col min="13316" max="13316" width="13.90625" style="37" customWidth="1"/>
+    <col min="13317" max="13317" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13318" max="13318" width="13.90625" style="37" customWidth="1"/>
+    <col min="13319" max="13319" width="8.7265625" style="37"/>
+    <col min="13320" max="13320" width="17.90625" style="37" customWidth="1"/>
+    <col min="13321" max="13321" width="8.7265625" style="37"/>
+    <col min="13322" max="13322" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13323" max="13567" width="8.7265625" style="37"/>
+    <col min="13568" max="13568" width="10.90625" style="37" customWidth="1"/>
+    <col min="13569" max="13569" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13570" max="13570" width="8.7265625" style="37"/>
+    <col min="13571" max="13571" width="17" style="37" customWidth="1"/>
+    <col min="13572" max="13572" width="13.90625" style="37" customWidth="1"/>
+    <col min="13573" max="13573" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13574" max="13574" width="13.90625" style="37" customWidth="1"/>
+    <col min="13575" max="13575" width="8.7265625" style="37"/>
+    <col min="13576" max="13576" width="17.90625" style="37" customWidth="1"/>
+    <col min="13577" max="13577" width="8.7265625" style="37"/>
+    <col min="13578" max="13578" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13579" max="13823" width="8.7265625" style="37"/>
+    <col min="13824" max="13824" width="10.90625" style="37" customWidth="1"/>
+    <col min="13825" max="13825" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13826" max="13826" width="8.7265625" style="37"/>
+    <col min="13827" max="13827" width="17" style="37" customWidth="1"/>
+    <col min="13828" max="13828" width="13.90625" style="37" customWidth="1"/>
+    <col min="13829" max="13829" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13830" max="13830" width="13.90625" style="37" customWidth="1"/>
+    <col min="13831" max="13831" width="8.7265625" style="37"/>
+    <col min="13832" max="13832" width="17.90625" style="37" customWidth="1"/>
+    <col min="13833" max="13833" width="8.7265625" style="37"/>
+    <col min="13834" max="13834" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13835" max="14079" width="8.7265625" style="37"/>
+    <col min="14080" max="14080" width="10.90625" style="37" customWidth="1"/>
+    <col min="14081" max="14081" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14082" max="14082" width="8.7265625" style="37"/>
+    <col min="14083" max="14083" width="17" style="37" customWidth="1"/>
+    <col min="14084" max="14084" width="13.90625" style="37" customWidth="1"/>
+    <col min="14085" max="14085" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14086" max="14086" width="13.90625" style="37" customWidth="1"/>
+    <col min="14087" max="14087" width="8.7265625" style="37"/>
+    <col min="14088" max="14088" width="17.90625" style="37" customWidth="1"/>
+    <col min="14089" max="14089" width="8.7265625" style="37"/>
+    <col min="14090" max="14090" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14091" max="14335" width="8.7265625" style="37"/>
+    <col min="14336" max="14336" width="10.90625" style="37" customWidth="1"/>
+    <col min="14337" max="14337" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14338" max="14338" width="8.7265625" style="37"/>
+    <col min="14339" max="14339" width="17" style="37" customWidth="1"/>
+    <col min="14340" max="14340" width="13.90625" style="37" customWidth="1"/>
+    <col min="14341" max="14341" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14342" max="14342" width="13.90625" style="37" customWidth="1"/>
+    <col min="14343" max="14343" width="8.7265625" style="37"/>
+    <col min="14344" max="14344" width="17.90625" style="37" customWidth="1"/>
+    <col min="14345" max="14345" width="8.7265625" style="37"/>
+    <col min="14346" max="14346" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14347" max="14591" width="8.7265625" style="37"/>
+    <col min="14592" max="14592" width="10.90625" style="37" customWidth="1"/>
+    <col min="14593" max="14593" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14594" max="14594" width="8.7265625" style="37"/>
+    <col min="14595" max="14595" width="17" style="37" customWidth="1"/>
+    <col min="14596" max="14596" width="13.90625" style="37" customWidth="1"/>
+    <col min="14597" max="14597" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14598" max="14598" width="13.90625" style="37" customWidth="1"/>
+    <col min="14599" max="14599" width="8.7265625" style="37"/>
+    <col min="14600" max="14600" width="17.90625" style="37" customWidth="1"/>
+    <col min="14601" max="14601" width="8.7265625" style="37"/>
+    <col min="14602" max="14602" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14603" max="14847" width="8.7265625" style="37"/>
+    <col min="14848" max="14848" width="10.90625" style="37" customWidth="1"/>
+    <col min="14849" max="14849" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14850" max="14850" width="8.7265625" style="37"/>
+    <col min="14851" max="14851" width="17" style="37" customWidth="1"/>
+    <col min="14852" max="14852" width="13.90625" style="37" customWidth="1"/>
+    <col min="14853" max="14853" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14854" max="14854" width="13.90625" style="37" customWidth="1"/>
+    <col min="14855" max="14855" width="8.7265625" style="37"/>
+    <col min="14856" max="14856" width="17.90625" style="37" customWidth="1"/>
+    <col min="14857" max="14857" width="8.7265625" style="37"/>
+    <col min="14858" max="14858" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14859" max="15103" width="8.7265625" style="37"/>
+    <col min="15104" max="15104" width="10.90625" style="37" customWidth="1"/>
+    <col min="15105" max="15105" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15106" max="15106" width="8.7265625" style="37"/>
+    <col min="15107" max="15107" width="17" style="37" customWidth="1"/>
+    <col min="15108" max="15108" width="13.90625" style="37" customWidth="1"/>
+    <col min="15109" max="15109" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15110" max="15110" width="13.90625" style="37" customWidth="1"/>
+    <col min="15111" max="15111" width="8.7265625" style="37"/>
+    <col min="15112" max="15112" width="17.90625" style="37" customWidth="1"/>
+    <col min="15113" max="15113" width="8.7265625" style="37"/>
+    <col min="15114" max="15114" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15115" max="15359" width="8.7265625" style="37"/>
+    <col min="15360" max="15360" width="10.90625" style="37" customWidth="1"/>
+    <col min="15361" max="15361" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15362" max="15362" width="8.7265625" style="37"/>
+    <col min="15363" max="15363" width="17" style="37" customWidth="1"/>
+    <col min="15364" max="15364" width="13.90625" style="37" customWidth="1"/>
+    <col min="15365" max="15365" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15366" max="15366" width="13.90625" style="37" customWidth="1"/>
+    <col min="15367" max="15367" width="8.7265625" style="37"/>
+    <col min="15368" max="15368" width="17.90625" style="37" customWidth="1"/>
+    <col min="15369" max="15369" width="8.7265625" style="37"/>
+    <col min="15370" max="15370" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15371" max="15615" width="8.7265625" style="37"/>
+    <col min="15616" max="15616" width="10.90625" style="37" customWidth="1"/>
+    <col min="15617" max="15617" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15618" max="15618" width="8.7265625" style="37"/>
+    <col min="15619" max="15619" width="17" style="37" customWidth="1"/>
+    <col min="15620" max="15620" width="13.90625" style="37" customWidth="1"/>
+    <col min="15621" max="15621" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15622" max="15622" width="13.90625" style="37" customWidth="1"/>
+    <col min="15623" max="15623" width="8.7265625" style="37"/>
+    <col min="15624" max="15624" width="17.90625" style="37" customWidth="1"/>
+    <col min="15625" max="15625" width="8.7265625" style="37"/>
+    <col min="15626" max="15626" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15627" max="15871" width="8.7265625" style="37"/>
+    <col min="15872" max="15872" width="10.90625" style="37" customWidth="1"/>
+    <col min="15873" max="15873" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15874" max="15874" width="8.7265625" style="37"/>
+    <col min="15875" max="15875" width="17" style="37" customWidth="1"/>
+    <col min="15876" max="15876" width="13.90625" style="37" customWidth="1"/>
+    <col min="15877" max="15877" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15878" max="15878" width="13.90625" style="37" customWidth="1"/>
+    <col min="15879" max="15879" width="8.7265625" style="37"/>
+    <col min="15880" max="15880" width="17.90625" style="37" customWidth="1"/>
+    <col min="15881" max="15881" width="8.7265625" style="37"/>
+    <col min="15882" max="15882" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15883" max="16127" width="8.7265625" style="37"/>
+    <col min="16128" max="16128" width="10.90625" style="37" customWidth="1"/>
+    <col min="16129" max="16129" width="22.26953125" style="37" customWidth="1"/>
+    <col min="16130" max="16130" width="8.7265625" style="37"/>
+    <col min="16131" max="16131" width="17" style="37" customWidth="1"/>
+    <col min="16132" max="16132" width="13.90625" style="37" customWidth="1"/>
+    <col min="16133" max="16133" width="20.26953125" style="37" customWidth="1"/>
+    <col min="16134" max="16134" width="13.90625" style="37" customWidth="1"/>
+    <col min="16135" max="16135" width="8.7265625" style="37"/>
+    <col min="16136" max="16136" width="17.90625" style="37" customWidth="1"/>
+    <col min="16137" max="16137" width="8.7265625" style="37"/>
+    <col min="16138" max="16138" width="53.6328125" style="37" customWidth="1"/>
+    <col min="16139" max="16384" width="8.7265625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="31" t="s">
+        <v>976</v>
+      </c>
+      <c r="E2" s="72" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="1:10" ht="50" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="56" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="50" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="56" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="31" t="s">
+        <v>976</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="31" t="s">
+        <v>976</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="31" t="s">
+        <v>976</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:WVR1" xr:uid="{3F64286E-59CC-471D-9EBF-04664B927C60}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10997117-CBE1-4ECD-9BC6-C8E99561FD60}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15672,14 +18047,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA23957-5739-4649-99F3-C386B4ED6B49}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16595,7 +18969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264A0E63-654A-4241-8D6A-763EA143F33E}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -17029,7 +19403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A041E8E2-47BE-478A-82CC-ADE978755671}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -17966,7 +20340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD16AA3-41A2-4CE2-A54F-A23529603CBB}">
   <dimension ref="A1:K20"/>
   <sheetViews>
@@ -18594,145 +20968,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A40D45-4A6D-4323-AF2A-723C324D4F9C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F67F6C-9C5A-4D9C-A0BA-6CE74C3B3F1E}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.36328125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>979</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>972</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>973</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>974</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>971</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="32" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>971</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="32" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308D8BDF-7CED-4318-88CF-F656F1B52781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A62FA29-4C44-48E3-A1E6-2E7F4D453B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="18730" windowHeight="8310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="470" yWindow="1900" windowWidth="18730" windowHeight="8310" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="1403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1399">
   <si>
     <t>Code</t>
   </si>
@@ -4933,72 +4933,6 @@
   </si>
   <si>
     <t>&lt;&lt;Multiple Rows&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Update Relationship Name to reflect USDM</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bcSurrogateIds</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-bcSurrogates</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>biomedicalConceptIds</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-biomedicalConcepts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bcCategoryIds</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-bcCategories</t>
-    </r>
   </si>
   <si>
     <t>activityTimelineId</t>
@@ -5571,7 +5505,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5775,15 +5709,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5796,14 +5721,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6099,10 +6030,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="75" t="s">
         <v>970</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -9332,11 +9263,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>989</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15096,7 +15027,7 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
@@ -15163,7 +15094,7 @@
         <v>1037</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>1009</v>
@@ -15176,7 +15107,7 @@
     </row>
     <row r="3" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -15184,7 +15115,7 @@
         <v>990</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>1009</v>
@@ -15205,7 +15136,7 @@
         <v>976</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>1009</v>
@@ -15227,37 +15158,37 @@
         <v>125</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>1325</v>
+        <v>1320</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>1321</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="33" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>1009</v>
@@ -15270,7 +15201,7 @@
     </row>
     <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>124</v>
@@ -15279,23 +15210,23 @@
         <v>125</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>1325</v>
+        <v>1327</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>1321</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="33" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="K7" s="15"/>
     </row>
@@ -15310,97 +15241,97 @@
         <v>125</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>1325</v>
+        <v>1330</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>1321</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="33" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F9" s="78" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F9" s="74" t="s">
         <v>971</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="33" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="33"/>
       <c r="D10" s="60" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F10" s="78" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F10" s="74" t="s">
         <v>971</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="33" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="60" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="F11" s="45" t="s">
         <v>1009</v>
@@ -15413,15 +15344,15 @@
     </row>
     <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="60" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>1009</v>
@@ -15434,15 +15365,15 @@
     </row>
     <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="60" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="F13" s="45" t="s">
         <v>1009</v>
@@ -15455,15 +15386,15 @@
     </row>
     <row r="14" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="60" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="F14" s="45" t="s">
         <v>1009</v>
@@ -15475,56 +15406,56 @@
       <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
-        <v>1351</v>
+      <c r="A15" s="72" t="s">
+        <v>1347</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="60" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="33" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
-        <v>1351</v>
+      <c r="A16" s="72" t="s">
+        <v>1347</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="60" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="F16" s="33" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G16" s="33" t="s">
         <v>1353</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>1357</v>
-      </c>
       <c r="H16" s="33" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="33" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="K16" s="15"/>
     </row>
@@ -15539,130 +15470,130 @@
         <v>125</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>1360</v>
-      </c>
-      <c r="F17" s="77" t="s">
-        <v>1325</v>
+        <v>1356</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>1321</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="33" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>1365</v>
-      </c>
-      <c r="F18" s="78" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F18" s="74" t="s">
         <v>971</v>
       </c>
       <c r="G18" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="33" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C19" s="33" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E19" s="55" t="s">
         <v>1364</v>
       </c>
-      <c r="D19" s="55" t="s">
-        <v>1360</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>1368</v>
-      </c>
-      <c r="F19" s="78" t="s">
+      <c r="F19" s="74" t="s">
         <v>971</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="33" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F20" s="78" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F20" s="74" t="s">
         <v>971</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="33" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="33"/>
       <c r="D21" s="55" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="F21" s="45" t="s">
         <v>1009</v>
@@ -15675,15 +15606,15 @@
     </row>
     <row r="22" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="55" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="F22" s="45" t="s">
         <v>1009</v>
@@ -15696,15 +15627,15 @@
     </row>
     <row r="23" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="55" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="F23" s="45" t="s">
         <v>1009</v>
@@ -15726,23 +15657,23 @@
         <v>125</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>1378</v>
-      </c>
-      <c r="F24" s="77" t="s">
-        <v>1325</v>
+        <v>1374</v>
+      </c>
+      <c r="F24" s="73" t="s">
+        <v>1321</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="33" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="K24" s="15"/>
     </row>
@@ -15757,163 +15688,163 @@
         <v>125</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>1381</v>
-      </c>
-      <c r="F25" s="77" t="s">
-        <v>1325</v>
+        <v>1377</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>1321</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="33" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="K25" s="15"/>
     </row>
     <row r="26" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F26" s="78" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F26" s="74" t="s">
         <v>971</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="33" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="K26" s="60" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F27" s="78" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F27" s="74" t="s">
         <v>971</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="33" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F28" s="78" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F28" s="74" t="s">
         <v>971</v>
       </c>
       <c r="G28" s="33" t="s">
         <v>975</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="33" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>975</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F29" s="78" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F29" s="74" t="s">
         <v>971</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="33" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
       <c r="D30" s="31" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="F30" s="45" t="s">
         <v>1009</v>
@@ -15926,15 +15857,15 @@
     </row>
     <row r="31" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
       <c r="D31" s="31" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="F31" s="45" t="s">
         <v>1009</v>
@@ -15956,9 +15887,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -16775,7 +16706,7 @@
       <c r="D2" s="31" t="s">
         <v>976</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="69" t="s">
         <v>1310</v>
       </c>
       <c r="F2" s="31" t="s">
@@ -16795,10 +16726,10 @@
       <c r="D3" s="56" t="s">
         <v>1095</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="70" t="s">
         <v>1312</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="71" t="s">
         <v>1313</v>
       </c>
       <c r="G3" s="15"/>
@@ -16815,76 +16746,16 @@
       <c r="D4" s="56" t="s">
         <v>1315</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="70" t="s">
         <v>1315</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="71" t="s">
         <v>1313</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="31" t="s">
-        <v>976</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="31" t="s">
-        <v>976</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>1318</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="31" t="s">
-        <v>976</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:WVR1" xr:uid="{3F64286E-59CC-471D-9EBF-04664B927C60}"/>

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,35 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A62FA29-4C44-48E3-A1E6-2E7F4D453B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B93C28-8AC3-410D-AA1E-0DE6D9009EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="470" yWindow="1900" windowWidth="18730" windowHeight="8310" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="210" windowWidth="17570" windowHeight="9730" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
     <sheet name="DDF Terminology 2022-12-16" sheetId="1" r:id="rId2"/>
-    <sheet name="Terminology Changes Sp9 - new" sheetId="18" r:id="rId3"/>
-    <sheet name="Terminology Changes Sp9 - chg" sheetId="17" r:id="rId4"/>
-    <sheet name="Terminology Changes Sp7 - new" sheetId="15" r:id="rId5"/>
-    <sheet name="Terminology Changes Sp7 - chg" sheetId="16" r:id="rId6"/>
-    <sheet name="Terminology Changes Sp6 - new" sheetId="14" r:id="rId7"/>
-    <sheet name="Terminology Changes Sp6 - chg" sheetId="13" r:id="rId8"/>
-    <sheet name="Terminology Changes Sp5 - new" sheetId="11" r:id="rId9"/>
-    <sheet name="Terminology Changes Sp5 - chg" sheetId="12" r:id="rId10"/>
-    <sheet name="Terminology Changes Sp4 - new" sheetId="9" r:id="rId11"/>
-    <sheet name="Terminology Changes Sp4 - chg" sheetId="10" r:id="rId12"/>
-    <sheet name="Terminology Changes Sp3 - new" sheetId="8" r:id="rId13"/>
-    <sheet name="Terminology Changes Sp3 - chg" sheetId="7" r:id="rId14"/>
-    <sheet name="Terminology Changes Sp2 - new" sheetId="6" r:id="rId15"/>
-    <sheet name="Terminology Changes Sp2 - chg" sheetId="5" r:id="rId16"/>
-    <sheet name="Terminology Changes Sp1 - new" sheetId="3" r:id="rId17"/>
-    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId18"/>
+    <sheet name="Terminology Changes Sp10 - new" sheetId="19" r:id="rId3"/>
+    <sheet name="Terminology Changes Sp10 - chg" sheetId="20" r:id="rId4"/>
+    <sheet name="Terminology Changes Sp9 - new" sheetId="18" r:id="rId5"/>
+    <sheet name="Terminology Changes Sp9 - chg" sheetId="17" r:id="rId6"/>
+    <sheet name="Terminology Changes Sp7 - new" sheetId="15" r:id="rId7"/>
+    <sheet name="Terminology Changes Sp7 - chg" sheetId="16" r:id="rId8"/>
+    <sheet name="Terminology Changes Sp6 - new" sheetId="14" r:id="rId9"/>
+    <sheet name="Terminology Changes Sp6 - chg" sheetId="13" r:id="rId10"/>
+    <sheet name="Terminology Changes Sp5 - new" sheetId="11" r:id="rId11"/>
+    <sheet name="Terminology Changes Sp5 - chg" sheetId="12" r:id="rId12"/>
+    <sheet name="Terminology Changes Sp4 - new" sheetId="9" r:id="rId13"/>
+    <sheet name="Terminology Changes Sp4 - chg" sheetId="10" r:id="rId14"/>
+    <sheet name="Terminology Changes Sp3 - new" sheetId="8" r:id="rId15"/>
+    <sheet name="Terminology Changes Sp3 - chg" sheetId="7" r:id="rId16"/>
+    <sheet name="Terminology Changes Sp2 - new" sheetId="6" r:id="rId17"/>
+    <sheet name="Terminology Changes Sp2 - chg" sheetId="5" r:id="rId18"/>
+    <sheet name="Terminology Changes Sp1 - new" sheetId="3" r:id="rId19"/>
+    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF Terminology 2022-12-16'!$A$1:$H$255</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Terminology Changes Sp9 - chg'!$A$1:$WVR$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Terminology Changes Sp9 - new'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'Terminology Changes Sp1 - new'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Terminology Changes Sp10 - chg'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Terminology Changes Sp9 - chg'!$A$1:$WVR$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Terminology Changes Sp9 - new'!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="1431">
   <si>
     <t>Code</t>
   </si>
@@ -5183,6 +5186,250 @@
   </si>
   <si>
     <t>relativeToScheduledInstanceId</t>
+  </si>
+  <si>
+    <t>No new content for sprint 10</t>
+  </si>
+  <si>
+    <t>Rename Attribute of StudyEpoch class</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>previousEpochId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>previousStudyEpochId</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nextEpochId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nextStudyEpochId</t>
+    </r>
+  </si>
+  <si>
+    <t>Update Entity Name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>InvestigationalInterventions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>InvestigationalIntervention</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">InvestigationalInterventions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>InvestigationalIntervention</t>
+    </r>
+  </si>
+  <si>
+    <t>Remove Relationship from StudyDesign Entity</t>
+  </si>
+  <si>
+    <t>Remove Relationship from Activity Attribute</t>
+  </si>
+  <si>
+    <t>studyDataCollection</t>
+  </si>
+  <si>
+    <t>Remove StudyData Entity from USDM CT</t>
+  </si>
+  <si>
+    <t>Remove Attributes from StudyData Entity in USDM CT</t>
+  </si>
+  <si>
+    <t>studyDataName</t>
+  </si>
+  <si>
+    <t>studyDataDescription</t>
+  </si>
+  <si>
+    <t>ecrfLink</t>
+  </si>
+  <si>
+    <t>Remove Workflow Entity from USDM CT</t>
+  </si>
+  <si>
+    <t>Remove Relationship from Workflow Attribute</t>
+  </si>
+  <si>
+    <t>workflowItems</t>
+  </si>
+  <si>
+    <t>Remove Attributes from Workflow Entity in USDM CT</t>
+  </si>
+  <si>
+    <t>workflowDescription</t>
+  </si>
+  <si>
+    <t>Remove WorkflowItem Entity from USDM CT</t>
+  </si>
+  <si>
+    <t>Remove Relationship from WorkflowItems Attribute</t>
+  </si>
+  <si>
+    <t>workflowItemEncounterId</t>
+  </si>
+  <si>
+    <t>workflowItemActivityId</t>
+  </si>
+  <si>
+    <t>Remove Attributes from WorkflowItem Entity in USDM CT</t>
+  </si>
+  <si>
+    <t>workflowItemDescription</t>
+  </si>
+  <si>
+    <t>previousWorkflowItemId</t>
+  </si>
+  <si>
+    <t>nextWorkflowItemId</t>
+  </si>
+  <si>
+    <t>Rename Relationship of BiomedicalConceptCategory class</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bcCategoryParenstIds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bcCategoryParentIds</t>
+    </r>
+  </si>
+  <si>
+    <t>Rename Attribute of BiomedicalConceptSurrogate class</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bcSurrograteName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bcSurrogateName</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5505,7 +5752,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5735,6 +5982,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6128,6 +6387,1573 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A041E8E2-47BE-478A-82CC-ADE978755671}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="17" style="37" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="37"/>
+    <col min="8" max="8" width="17.90625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="37"/>
+    <col min="10" max="10" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11" max="255" width="8.7265625" style="37"/>
+    <col min="256" max="256" width="10.90625" style="37" customWidth="1"/>
+    <col min="257" max="257" width="22.26953125" style="37" customWidth="1"/>
+    <col min="258" max="258" width="8.7265625" style="37"/>
+    <col min="259" max="259" width="17" style="37" customWidth="1"/>
+    <col min="260" max="260" width="13.90625" style="37" customWidth="1"/>
+    <col min="261" max="261" width="20.26953125" style="37" customWidth="1"/>
+    <col min="262" max="262" width="13.90625" style="37" customWidth="1"/>
+    <col min="263" max="263" width="8.7265625" style="37"/>
+    <col min="264" max="264" width="17.90625" style="37" customWidth="1"/>
+    <col min="265" max="265" width="8.7265625" style="37"/>
+    <col min="266" max="266" width="53.6328125" style="37" customWidth="1"/>
+    <col min="267" max="511" width="8.7265625" style="37"/>
+    <col min="512" max="512" width="10.90625" style="37" customWidth="1"/>
+    <col min="513" max="513" width="22.26953125" style="37" customWidth="1"/>
+    <col min="514" max="514" width="8.7265625" style="37"/>
+    <col min="515" max="515" width="17" style="37" customWidth="1"/>
+    <col min="516" max="516" width="13.90625" style="37" customWidth="1"/>
+    <col min="517" max="517" width="20.26953125" style="37" customWidth="1"/>
+    <col min="518" max="518" width="13.90625" style="37" customWidth="1"/>
+    <col min="519" max="519" width="8.7265625" style="37"/>
+    <col min="520" max="520" width="17.90625" style="37" customWidth="1"/>
+    <col min="521" max="521" width="8.7265625" style="37"/>
+    <col min="522" max="522" width="53.6328125" style="37" customWidth="1"/>
+    <col min="523" max="767" width="8.7265625" style="37"/>
+    <col min="768" max="768" width="10.90625" style="37" customWidth="1"/>
+    <col min="769" max="769" width="22.26953125" style="37" customWidth="1"/>
+    <col min="770" max="770" width="8.7265625" style="37"/>
+    <col min="771" max="771" width="17" style="37" customWidth="1"/>
+    <col min="772" max="772" width="13.90625" style="37" customWidth="1"/>
+    <col min="773" max="773" width="20.26953125" style="37" customWidth="1"/>
+    <col min="774" max="774" width="13.90625" style="37" customWidth="1"/>
+    <col min="775" max="775" width="8.7265625" style="37"/>
+    <col min="776" max="776" width="17.90625" style="37" customWidth="1"/>
+    <col min="777" max="777" width="8.7265625" style="37"/>
+    <col min="778" max="778" width="53.6328125" style="37" customWidth="1"/>
+    <col min="779" max="1023" width="8.7265625" style="37"/>
+    <col min="1024" max="1024" width="10.90625" style="37" customWidth="1"/>
+    <col min="1025" max="1025" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1026" max="1026" width="8.7265625" style="37"/>
+    <col min="1027" max="1027" width="17" style="37" customWidth="1"/>
+    <col min="1028" max="1028" width="13.90625" style="37" customWidth="1"/>
+    <col min="1029" max="1029" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1030" max="1030" width="13.90625" style="37" customWidth="1"/>
+    <col min="1031" max="1031" width="8.7265625" style="37"/>
+    <col min="1032" max="1032" width="17.90625" style="37" customWidth="1"/>
+    <col min="1033" max="1033" width="8.7265625" style="37"/>
+    <col min="1034" max="1034" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1035" max="1279" width="8.7265625" style="37"/>
+    <col min="1280" max="1280" width="10.90625" style="37" customWidth="1"/>
+    <col min="1281" max="1281" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1282" max="1282" width="8.7265625" style="37"/>
+    <col min="1283" max="1283" width="17" style="37" customWidth="1"/>
+    <col min="1284" max="1284" width="13.90625" style="37" customWidth="1"/>
+    <col min="1285" max="1285" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1286" max="1286" width="13.90625" style="37" customWidth="1"/>
+    <col min="1287" max="1287" width="8.7265625" style="37"/>
+    <col min="1288" max="1288" width="17.90625" style="37" customWidth="1"/>
+    <col min="1289" max="1289" width="8.7265625" style="37"/>
+    <col min="1290" max="1290" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1291" max="1535" width="8.7265625" style="37"/>
+    <col min="1536" max="1536" width="10.90625" style="37" customWidth="1"/>
+    <col min="1537" max="1537" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1538" max="1538" width="8.7265625" style="37"/>
+    <col min="1539" max="1539" width="17" style="37" customWidth="1"/>
+    <col min="1540" max="1540" width="13.90625" style="37" customWidth="1"/>
+    <col min="1541" max="1541" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1542" max="1542" width="13.90625" style="37" customWidth="1"/>
+    <col min="1543" max="1543" width="8.7265625" style="37"/>
+    <col min="1544" max="1544" width="17.90625" style="37" customWidth="1"/>
+    <col min="1545" max="1545" width="8.7265625" style="37"/>
+    <col min="1546" max="1546" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1547" max="1791" width="8.7265625" style="37"/>
+    <col min="1792" max="1792" width="10.90625" style="37" customWidth="1"/>
+    <col min="1793" max="1793" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1794" max="1794" width="8.7265625" style="37"/>
+    <col min="1795" max="1795" width="17" style="37" customWidth="1"/>
+    <col min="1796" max="1796" width="13.90625" style="37" customWidth="1"/>
+    <col min="1797" max="1797" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1798" max="1798" width="13.90625" style="37" customWidth="1"/>
+    <col min="1799" max="1799" width="8.7265625" style="37"/>
+    <col min="1800" max="1800" width="17.90625" style="37" customWidth="1"/>
+    <col min="1801" max="1801" width="8.7265625" style="37"/>
+    <col min="1802" max="1802" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1803" max="2047" width="8.7265625" style="37"/>
+    <col min="2048" max="2048" width="10.90625" style="37" customWidth="1"/>
+    <col min="2049" max="2049" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2050" max="2050" width="8.7265625" style="37"/>
+    <col min="2051" max="2051" width="17" style="37" customWidth="1"/>
+    <col min="2052" max="2052" width="13.90625" style="37" customWidth="1"/>
+    <col min="2053" max="2053" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2054" max="2054" width="13.90625" style="37" customWidth="1"/>
+    <col min="2055" max="2055" width="8.7265625" style="37"/>
+    <col min="2056" max="2056" width="17.90625" style="37" customWidth="1"/>
+    <col min="2057" max="2057" width="8.7265625" style="37"/>
+    <col min="2058" max="2058" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2059" max="2303" width="8.7265625" style="37"/>
+    <col min="2304" max="2304" width="10.90625" style="37" customWidth="1"/>
+    <col min="2305" max="2305" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2306" max="2306" width="8.7265625" style="37"/>
+    <col min="2307" max="2307" width="17" style="37" customWidth="1"/>
+    <col min="2308" max="2308" width="13.90625" style="37" customWidth="1"/>
+    <col min="2309" max="2309" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2310" max="2310" width="13.90625" style="37" customWidth="1"/>
+    <col min="2311" max="2311" width="8.7265625" style="37"/>
+    <col min="2312" max="2312" width="17.90625" style="37" customWidth="1"/>
+    <col min="2313" max="2313" width="8.7265625" style="37"/>
+    <col min="2314" max="2314" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2315" max="2559" width="8.7265625" style="37"/>
+    <col min="2560" max="2560" width="10.90625" style="37" customWidth="1"/>
+    <col min="2561" max="2561" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2562" max="2562" width="8.7265625" style="37"/>
+    <col min="2563" max="2563" width="17" style="37" customWidth="1"/>
+    <col min="2564" max="2564" width="13.90625" style="37" customWidth="1"/>
+    <col min="2565" max="2565" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2566" max="2566" width="13.90625" style="37" customWidth="1"/>
+    <col min="2567" max="2567" width="8.7265625" style="37"/>
+    <col min="2568" max="2568" width="17.90625" style="37" customWidth="1"/>
+    <col min="2569" max="2569" width="8.7265625" style="37"/>
+    <col min="2570" max="2570" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2571" max="2815" width="8.7265625" style="37"/>
+    <col min="2816" max="2816" width="10.90625" style="37" customWidth="1"/>
+    <col min="2817" max="2817" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2818" max="2818" width="8.7265625" style="37"/>
+    <col min="2819" max="2819" width="17" style="37" customWidth="1"/>
+    <col min="2820" max="2820" width="13.90625" style="37" customWidth="1"/>
+    <col min="2821" max="2821" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2822" max="2822" width="13.90625" style="37" customWidth="1"/>
+    <col min="2823" max="2823" width="8.7265625" style="37"/>
+    <col min="2824" max="2824" width="17.90625" style="37" customWidth="1"/>
+    <col min="2825" max="2825" width="8.7265625" style="37"/>
+    <col min="2826" max="2826" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2827" max="3071" width="8.7265625" style="37"/>
+    <col min="3072" max="3072" width="10.90625" style="37" customWidth="1"/>
+    <col min="3073" max="3073" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3074" max="3074" width="8.7265625" style="37"/>
+    <col min="3075" max="3075" width="17" style="37" customWidth="1"/>
+    <col min="3076" max="3076" width="13.90625" style="37" customWidth="1"/>
+    <col min="3077" max="3077" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3078" max="3078" width="13.90625" style="37" customWidth="1"/>
+    <col min="3079" max="3079" width="8.7265625" style="37"/>
+    <col min="3080" max="3080" width="17.90625" style="37" customWidth="1"/>
+    <col min="3081" max="3081" width="8.7265625" style="37"/>
+    <col min="3082" max="3082" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3083" max="3327" width="8.7265625" style="37"/>
+    <col min="3328" max="3328" width="10.90625" style="37" customWidth="1"/>
+    <col min="3329" max="3329" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3330" max="3330" width="8.7265625" style="37"/>
+    <col min="3331" max="3331" width="17" style="37" customWidth="1"/>
+    <col min="3332" max="3332" width="13.90625" style="37" customWidth="1"/>
+    <col min="3333" max="3333" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3334" max="3334" width="13.90625" style="37" customWidth="1"/>
+    <col min="3335" max="3335" width="8.7265625" style="37"/>
+    <col min="3336" max="3336" width="17.90625" style="37" customWidth="1"/>
+    <col min="3337" max="3337" width="8.7265625" style="37"/>
+    <col min="3338" max="3338" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3339" max="3583" width="8.7265625" style="37"/>
+    <col min="3584" max="3584" width="10.90625" style="37" customWidth="1"/>
+    <col min="3585" max="3585" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3586" max="3586" width="8.7265625" style="37"/>
+    <col min="3587" max="3587" width="17" style="37" customWidth="1"/>
+    <col min="3588" max="3588" width="13.90625" style="37" customWidth="1"/>
+    <col min="3589" max="3589" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3590" max="3590" width="13.90625" style="37" customWidth="1"/>
+    <col min="3591" max="3591" width="8.7265625" style="37"/>
+    <col min="3592" max="3592" width="17.90625" style="37" customWidth="1"/>
+    <col min="3593" max="3593" width="8.7265625" style="37"/>
+    <col min="3594" max="3594" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3595" max="3839" width="8.7265625" style="37"/>
+    <col min="3840" max="3840" width="10.90625" style="37" customWidth="1"/>
+    <col min="3841" max="3841" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3842" max="3842" width="8.7265625" style="37"/>
+    <col min="3843" max="3843" width="17" style="37" customWidth="1"/>
+    <col min="3844" max="3844" width="13.90625" style="37" customWidth="1"/>
+    <col min="3845" max="3845" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3846" max="3846" width="13.90625" style="37" customWidth="1"/>
+    <col min="3847" max="3847" width="8.7265625" style="37"/>
+    <col min="3848" max="3848" width="17.90625" style="37" customWidth="1"/>
+    <col min="3849" max="3849" width="8.7265625" style="37"/>
+    <col min="3850" max="3850" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3851" max="4095" width="8.7265625" style="37"/>
+    <col min="4096" max="4096" width="10.90625" style="37" customWidth="1"/>
+    <col min="4097" max="4097" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4098" max="4098" width="8.7265625" style="37"/>
+    <col min="4099" max="4099" width="17" style="37" customWidth="1"/>
+    <col min="4100" max="4100" width="13.90625" style="37" customWidth="1"/>
+    <col min="4101" max="4101" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4102" max="4102" width="13.90625" style="37" customWidth="1"/>
+    <col min="4103" max="4103" width="8.7265625" style="37"/>
+    <col min="4104" max="4104" width="17.90625" style="37" customWidth="1"/>
+    <col min="4105" max="4105" width="8.7265625" style="37"/>
+    <col min="4106" max="4106" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4107" max="4351" width="8.7265625" style="37"/>
+    <col min="4352" max="4352" width="10.90625" style="37" customWidth="1"/>
+    <col min="4353" max="4353" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4354" max="4354" width="8.7265625" style="37"/>
+    <col min="4355" max="4355" width="17" style="37" customWidth="1"/>
+    <col min="4356" max="4356" width="13.90625" style="37" customWidth="1"/>
+    <col min="4357" max="4357" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4358" max="4358" width="13.90625" style="37" customWidth="1"/>
+    <col min="4359" max="4359" width="8.7265625" style="37"/>
+    <col min="4360" max="4360" width="17.90625" style="37" customWidth="1"/>
+    <col min="4361" max="4361" width="8.7265625" style="37"/>
+    <col min="4362" max="4362" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4363" max="4607" width="8.7265625" style="37"/>
+    <col min="4608" max="4608" width="10.90625" style="37" customWidth="1"/>
+    <col min="4609" max="4609" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4610" max="4610" width="8.7265625" style="37"/>
+    <col min="4611" max="4611" width="17" style="37" customWidth="1"/>
+    <col min="4612" max="4612" width="13.90625" style="37" customWidth="1"/>
+    <col min="4613" max="4613" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4614" max="4614" width="13.90625" style="37" customWidth="1"/>
+    <col min="4615" max="4615" width="8.7265625" style="37"/>
+    <col min="4616" max="4616" width="17.90625" style="37" customWidth="1"/>
+    <col min="4617" max="4617" width="8.7265625" style="37"/>
+    <col min="4618" max="4618" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4619" max="4863" width="8.7265625" style="37"/>
+    <col min="4864" max="4864" width="10.90625" style="37" customWidth="1"/>
+    <col min="4865" max="4865" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4866" max="4866" width="8.7265625" style="37"/>
+    <col min="4867" max="4867" width="17" style="37" customWidth="1"/>
+    <col min="4868" max="4868" width="13.90625" style="37" customWidth="1"/>
+    <col min="4869" max="4869" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4870" max="4870" width="13.90625" style="37" customWidth="1"/>
+    <col min="4871" max="4871" width="8.7265625" style="37"/>
+    <col min="4872" max="4872" width="17.90625" style="37" customWidth="1"/>
+    <col min="4873" max="4873" width="8.7265625" style="37"/>
+    <col min="4874" max="4874" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4875" max="5119" width="8.7265625" style="37"/>
+    <col min="5120" max="5120" width="10.90625" style="37" customWidth="1"/>
+    <col min="5121" max="5121" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5122" max="5122" width="8.7265625" style="37"/>
+    <col min="5123" max="5123" width="17" style="37" customWidth="1"/>
+    <col min="5124" max="5124" width="13.90625" style="37" customWidth="1"/>
+    <col min="5125" max="5125" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5126" max="5126" width="13.90625" style="37" customWidth="1"/>
+    <col min="5127" max="5127" width="8.7265625" style="37"/>
+    <col min="5128" max="5128" width="17.90625" style="37" customWidth="1"/>
+    <col min="5129" max="5129" width="8.7265625" style="37"/>
+    <col min="5130" max="5130" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5131" max="5375" width="8.7265625" style="37"/>
+    <col min="5376" max="5376" width="10.90625" style="37" customWidth="1"/>
+    <col min="5377" max="5377" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5378" max="5378" width="8.7265625" style="37"/>
+    <col min="5379" max="5379" width="17" style="37" customWidth="1"/>
+    <col min="5380" max="5380" width="13.90625" style="37" customWidth="1"/>
+    <col min="5381" max="5381" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5382" max="5382" width="13.90625" style="37" customWidth="1"/>
+    <col min="5383" max="5383" width="8.7265625" style="37"/>
+    <col min="5384" max="5384" width="17.90625" style="37" customWidth="1"/>
+    <col min="5385" max="5385" width="8.7265625" style="37"/>
+    <col min="5386" max="5386" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5387" max="5631" width="8.7265625" style="37"/>
+    <col min="5632" max="5632" width="10.90625" style="37" customWidth="1"/>
+    <col min="5633" max="5633" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5634" max="5634" width="8.7265625" style="37"/>
+    <col min="5635" max="5635" width="17" style="37" customWidth="1"/>
+    <col min="5636" max="5636" width="13.90625" style="37" customWidth="1"/>
+    <col min="5637" max="5637" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5638" max="5638" width="13.90625" style="37" customWidth="1"/>
+    <col min="5639" max="5639" width="8.7265625" style="37"/>
+    <col min="5640" max="5640" width="17.90625" style="37" customWidth="1"/>
+    <col min="5641" max="5641" width="8.7265625" style="37"/>
+    <col min="5642" max="5642" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5643" max="5887" width="8.7265625" style="37"/>
+    <col min="5888" max="5888" width="10.90625" style="37" customWidth="1"/>
+    <col min="5889" max="5889" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5890" max="5890" width="8.7265625" style="37"/>
+    <col min="5891" max="5891" width="17" style="37" customWidth="1"/>
+    <col min="5892" max="5892" width="13.90625" style="37" customWidth="1"/>
+    <col min="5893" max="5893" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5894" max="5894" width="13.90625" style="37" customWidth="1"/>
+    <col min="5895" max="5895" width="8.7265625" style="37"/>
+    <col min="5896" max="5896" width="17.90625" style="37" customWidth="1"/>
+    <col min="5897" max="5897" width="8.7265625" style="37"/>
+    <col min="5898" max="5898" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5899" max="6143" width="8.7265625" style="37"/>
+    <col min="6144" max="6144" width="10.90625" style="37" customWidth="1"/>
+    <col min="6145" max="6145" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6146" max="6146" width="8.7265625" style="37"/>
+    <col min="6147" max="6147" width="17" style="37" customWidth="1"/>
+    <col min="6148" max="6148" width="13.90625" style="37" customWidth="1"/>
+    <col min="6149" max="6149" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6150" max="6150" width="13.90625" style="37" customWidth="1"/>
+    <col min="6151" max="6151" width="8.7265625" style="37"/>
+    <col min="6152" max="6152" width="17.90625" style="37" customWidth="1"/>
+    <col min="6153" max="6153" width="8.7265625" style="37"/>
+    <col min="6154" max="6154" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6155" max="6399" width="8.7265625" style="37"/>
+    <col min="6400" max="6400" width="10.90625" style="37" customWidth="1"/>
+    <col min="6401" max="6401" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6402" max="6402" width="8.7265625" style="37"/>
+    <col min="6403" max="6403" width="17" style="37" customWidth="1"/>
+    <col min="6404" max="6404" width="13.90625" style="37" customWidth="1"/>
+    <col min="6405" max="6405" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6406" max="6406" width="13.90625" style="37" customWidth="1"/>
+    <col min="6407" max="6407" width="8.7265625" style="37"/>
+    <col min="6408" max="6408" width="17.90625" style="37" customWidth="1"/>
+    <col min="6409" max="6409" width="8.7265625" style="37"/>
+    <col min="6410" max="6410" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6411" max="6655" width="8.7265625" style="37"/>
+    <col min="6656" max="6656" width="10.90625" style="37" customWidth="1"/>
+    <col min="6657" max="6657" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6658" max="6658" width="8.7265625" style="37"/>
+    <col min="6659" max="6659" width="17" style="37" customWidth="1"/>
+    <col min="6660" max="6660" width="13.90625" style="37" customWidth="1"/>
+    <col min="6661" max="6661" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6662" max="6662" width="13.90625" style="37" customWidth="1"/>
+    <col min="6663" max="6663" width="8.7265625" style="37"/>
+    <col min="6664" max="6664" width="17.90625" style="37" customWidth="1"/>
+    <col min="6665" max="6665" width="8.7265625" style="37"/>
+    <col min="6666" max="6666" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6667" max="6911" width="8.7265625" style="37"/>
+    <col min="6912" max="6912" width="10.90625" style="37" customWidth="1"/>
+    <col min="6913" max="6913" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6914" max="6914" width="8.7265625" style="37"/>
+    <col min="6915" max="6915" width="17" style="37" customWidth="1"/>
+    <col min="6916" max="6916" width="13.90625" style="37" customWidth="1"/>
+    <col min="6917" max="6917" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6918" max="6918" width="13.90625" style="37" customWidth="1"/>
+    <col min="6919" max="6919" width="8.7265625" style="37"/>
+    <col min="6920" max="6920" width="17.90625" style="37" customWidth="1"/>
+    <col min="6921" max="6921" width="8.7265625" style="37"/>
+    <col min="6922" max="6922" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6923" max="7167" width="8.7265625" style="37"/>
+    <col min="7168" max="7168" width="10.90625" style="37" customWidth="1"/>
+    <col min="7169" max="7169" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7170" max="7170" width="8.7265625" style="37"/>
+    <col min="7171" max="7171" width="17" style="37" customWidth="1"/>
+    <col min="7172" max="7172" width="13.90625" style="37" customWidth="1"/>
+    <col min="7173" max="7173" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7174" max="7174" width="13.90625" style="37" customWidth="1"/>
+    <col min="7175" max="7175" width="8.7265625" style="37"/>
+    <col min="7176" max="7176" width="17.90625" style="37" customWidth="1"/>
+    <col min="7177" max="7177" width="8.7265625" style="37"/>
+    <col min="7178" max="7178" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7179" max="7423" width="8.7265625" style="37"/>
+    <col min="7424" max="7424" width="10.90625" style="37" customWidth="1"/>
+    <col min="7425" max="7425" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7426" max="7426" width="8.7265625" style="37"/>
+    <col min="7427" max="7427" width="17" style="37" customWidth="1"/>
+    <col min="7428" max="7428" width="13.90625" style="37" customWidth="1"/>
+    <col min="7429" max="7429" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7430" max="7430" width="13.90625" style="37" customWidth="1"/>
+    <col min="7431" max="7431" width="8.7265625" style="37"/>
+    <col min="7432" max="7432" width="17.90625" style="37" customWidth="1"/>
+    <col min="7433" max="7433" width="8.7265625" style="37"/>
+    <col min="7434" max="7434" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7435" max="7679" width="8.7265625" style="37"/>
+    <col min="7680" max="7680" width="10.90625" style="37" customWidth="1"/>
+    <col min="7681" max="7681" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7682" max="7682" width="8.7265625" style="37"/>
+    <col min="7683" max="7683" width="17" style="37" customWidth="1"/>
+    <col min="7684" max="7684" width="13.90625" style="37" customWidth="1"/>
+    <col min="7685" max="7685" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7686" max="7686" width="13.90625" style="37" customWidth="1"/>
+    <col min="7687" max="7687" width="8.7265625" style="37"/>
+    <col min="7688" max="7688" width="17.90625" style="37" customWidth="1"/>
+    <col min="7689" max="7689" width="8.7265625" style="37"/>
+    <col min="7690" max="7690" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7691" max="7935" width="8.7265625" style="37"/>
+    <col min="7936" max="7936" width="10.90625" style="37" customWidth="1"/>
+    <col min="7937" max="7937" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7938" max="7938" width="8.7265625" style="37"/>
+    <col min="7939" max="7939" width="17" style="37" customWidth="1"/>
+    <col min="7940" max="7940" width="13.90625" style="37" customWidth="1"/>
+    <col min="7941" max="7941" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7942" max="7942" width="13.90625" style="37" customWidth="1"/>
+    <col min="7943" max="7943" width="8.7265625" style="37"/>
+    <col min="7944" max="7944" width="17.90625" style="37" customWidth="1"/>
+    <col min="7945" max="7945" width="8.7265625" style="37"/>
+    <col min="7946" max="7946" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7947" max="8191" width="8.7265625" style="37"/>
+    <col min="8192" max="8192" width="10.90625" style="37" customWidth="1"/>
+    <col min="8193" max="8193" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8194" max="8194" width="8.7265625" style="37"/>
+    <col min="8195" max="8195" width="17" style="37" customWidth="1"/>
+    <col min="8196" max="8196" width="13.90625" style="37" customWidth="1"/>
+    <col min="8197" max="8197" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8198" max="8198" width="13.90625" style="37" customWidth="1"/>
+    <col min="8199" max="8199" width="8.7265625" style="37"/>
+    <col min="8200" max="8200" width="17.90625" style="37" customWidth="1"/>
+    <col min="8201" max="8201" width="8.7265625" style="37"/>
+    <col min="8202" max="8202" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8203" max="8447" width="8.7265625" style="37"/>
+    <col min="8448" max="8448" width="10.90625" style="37" customWidth="1"/>
+    <col min="8449" max="8449" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8450" max="8450" width="8.7265625" style="37"/>
+    <col min="8451" max="8451" width="17" style="37" customWidth="1"/>
+    <col min="8452" max="8452" width="13.90625" style="37" customWidth="1"/>
+    <col min="8453" max="8453" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8454" max="8454" width="13.90625" style="37" customWidth="1"/>
+    <col min="8455" max="8455" width="8.7265625" style="37"/>
+    <col min="8456" max="8456" width="17.90625" style="37" customWidth="1"/>
+    <col min="8457" max="8457" width="8.7265625" style="37"/>
+    <col min="8458" max="8458" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8459" max="8703" width="8.7265625" style="37"/>
+    <col min="8704" max="8704" width="10.90625" style="37" customWidth="1"/>
+    <col min="8705" max="8705" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8706" max="8706" width="8.7265625" style="37"/>
+    <col min="8707" max="8707" width="17" style="37" customWidth="1"/>
+    <col min="8708" max="8708" width="13.90625" style="37" customWidth="1"/>
+    <col min="8709" max="8709" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8710" max="8710" width="13.90625" style="37" customWidth="1"/>
+    <col min="8711" max="8711" width="8.7265625" style="37"/>
+    <col min="8712" max="8712" width="17.90625" style="37" customWidth="1"/>
+    <col min="8713" max="8713" width="8.7265625" style="37"/>
+    <col min="8714" max="8714" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8715" max="8959" width="8.7265625" style="37"/>
+    <col min="8960" max="8960" width="10.90625" style="37" customWidth="1"/>
+    <col min="8961" max="8961" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8962" max="8962" width="8.7265625" style="37"/>
+    <col min="8963" max="8963" width="17" style="37" customWidth="1"/>
+    <col min="8964" max="8964" width="13.90625" style="37" customWidth="1"/>
+    <col min="8965" max="8965" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8966" max="8966" width="13.90625" style="37" customWidth="1"/>
+    <col min="8967" max="8967" width="8.7265625" style="37"/>
+    <col min="8968" max="8968" width="17.90625" style="37" customWidth="1"/>
+    <col min="8969" max="8969" width="8.7265625" style="37"/>
+    <col min="8970" max="8970" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8971" max="9215" width="8.7265625" style="37"/>
+    <col min="9216" max="9216" width="10.90625" style="37" customWidth="1"/>
+    <col min="9217" max="9217" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9218" max="9218" width="8.7265625" style="37"/>
+    <col min="9219" max="9219" width="17" style="37" customWidth="1"/>
+    <col min="9220" max="9220" width="13.90625" style="37" customWidth="1"/>
+    <col min="9221" max="9221" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9222" max="9222" width="13.90625" style="37" customWidth="1"/>
+    <col min="9223" max="9223" width="8.7265625" style="37"/>
+    <col min="9224" max="9224" width="17.90625" style="37" customWidth="1"/>
+    <col min="9225" max="9225" width="8.7265625" style="37"/>
+    <col min="9226" max="9226" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9227" max="9471" width="8.7265625" style="37"/>
+    <col min="9472" max="9472" width="10.90625" style="37" customWidth="1"/>
+    <col min="9473" max="9473" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9474" max="9474" width="8.7265625" style="37"/>
+    <col min="9475" max="9475" width="17" style="37" customWidth="1"/>
+    <col min="9476" max="9476" width="13.90625" style="37" customWidth="1"/>
+    <col min="9477" max="9477" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9478" max="9478" width="13.90625" style="37" customWidth="1"/>
+    <col min="9479" max="9479" width="8.7265625" style="37"/>
+    <col min="9480" max="9480" width="17.90625" style="37" customWidth="1"/>
+    <col min="9481" max="9481" width="8.7265625" style="37"/>
+    <col min="9482" max="9482" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9483" max="9727" width="8.7265625" style="37"/>
+    <col min="9728" max="9728" width="10.90625" style="37" customWidth="1"/>
+    <col min="9729" max="9729" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9730" max="9730" width="8.7265625" style="37"/>
+    <col min="9731" max="9731" width="17" style="37" customWidth="1"/>
+    <col min="9732" max="9732" width="13.90625" style="37" customWidth="1"/>
+    <col min="9733" max="9733" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9734" max="9734" width="13.90625" style="37" customWidth="1"/>
+    <col min="9735" max="9735" width="8.7265625" style="37"/>
+    <col min="9736" max="9736" width="17.90625" style="37" customWidth="1"/>
+    <col min="9737" max="9737" width="8.7265625" style="37"/>
+    <col min="9738" max="9738" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9739" max="9983" width="8.7265625" style="37"/>
+    <col min="9984" max="9984" width="10.90625" style="37" customWidth="1"/>
+    <col min="9985" max="9985" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9986" max="9986" width="8.7265625" style="37"/>
+    <col min="9987" max="9987" width="17" style="37" customWidth="1"/>
+    <col min="9988" max="9988" width="13.90625" style="37" customWidth="1"/>
+    <col min="9989" max="9989" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9990" max="9990" width="13.90625" style="37" customWidth="1"/>
+    <col min="9991" max="9991" width="8.7265625" style="37"/>
+    <col min="9992" max="9992" width="17.90625" style="37" customWidth="1"/>
+    <col min="9993" max="9993" width="8.7265625" style="37"/>
+    <col min="9994" max="9994" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9995" max="10239" width="8.7265625" style="37"/>
+    <col min="10240" max="10240" width="10.90625" style="37" customWidth="1"/>
+    <col min="10241" max="10241" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10242" max="10242" width="8.7265625" style="37"/>
+    <col min="10243" max="10243" width="17" style="37" customWidth="1"/>
+    <col min="10244" max="10244" width="13.90625" style="37" customWidth="1"/>
+    <col min="10245" max="10245" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10246" max="10246" width="13.90625" style="37" customWidth="1"/>
+    <col min="10247" max="10247" width="8.7265625" style="37"/>
+    <col min="10248" max="10248" width="17.90625" style="37" customWidth="1"/>
+    <col min="10249" max="10249" width="8.7265625" style="37"/>
+    <col min="10250" max="10250" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10251" max="10495" width="8.7265625" style="37"/>
+    <col min="10496" max="10496" width="10.90625" style="37" customWidth="1"/>
+    <col min="10497" max="10497" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10498" max="10498" width="8.7265625" style="37"/>
+    <col min="10499" max="10499" width="17" style="37" customWidth="1"/>
+    <col min="10500" max="10500" width="13.90625" style="37" customWidth="1"/>
+    <col min="10501" max="10501" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10502" max="10502" width="13.90625" style="37" customWidth="1"/>
+    <col min="10503" max="10503" width="8.7265625" style="37"/>
+    <col min="10504" max="10504" width="17.90625" style="37" customWidth="1"/>
+    <col min="10505" max="10505" width="8.7265625" style="37"/>
+    <col min="10506" max="10506" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10507" max="10751" width="8.7265625" style="37"/>
+    <col min="10752" max="10752" width="10.90625" style="37" customWidth="1"/>
+    <col min="10753" max="10753" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10754" max="10754" width="8.7265625" style="37"/>
+    <col min="10755" max="10755" width="17" style="37" customWidth="1"/>
+    <col min="10756" max="10756" width="13.90625" style="37" customWidth="1"/>
+    <col min="10757" max="10757" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10758" max="10758" width="13.90625" style="37" customWidth="1"/>
+    <col min="10759" max="10759" width="8.7265625" style="37"/>
+    <col min="10760" max="10760" width="17.90625" style="37" customWidth="1"/>
+    <col min="10761" max="10761" width="8.7265625" style="37"/>
+    <col min="10762" max="10762" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10763" max="11007" width="8.7265625" style="37"/>
+    <col min="11008" max="11008" width="10.90625" style="37" customWidth="1"/>
+    <col min="11009" max="11009" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11010" max="11010" width="8.7265625" style="37"/>
+    <col min="11011" max="11011" width="17" style="37" customWidth="1"/>
+    <col min="11012" max="11012" width="13.90625" style="37" customWidth="1"/>
+    <col min="11013" max="11013" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11014" max="11014" width="13.90625" style="37" customWidth="1"/>
+    <col min="11015" max="11015" width="8.7265625" style="37"/>
+    <col min="11016" max="11016" width="17.90625" style="37" customWidth="1"/>
+    <col min="11017" max="11017" width="8.7265625" style="37"/>
+    <col min="11018" max="11018" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11019" max="11263" width="8.7265625" style="37"/>
+    <col min="11264" max="11264" width="10.90625" style="37" customWidth="1"/>
+    <col min="11265" max="11265" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11266" max="11266" width="8.7265625" style="37"/>
+    <col min="11267" max="11267" width="17" style="37" customWidth="1"/>
+    <col min="11268" max="11268" width="13.90625" style="37" customWidth="1"/>
+    <col min="11269" max="11269" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11270" max="11270" width="13.90625" style="37" customWidth="1"/>
+    <col min="11271" max="11271" width="8.7265625" style="37"/>
+    <col min="11272" max="11272" width="17.90625" style="37" customWidth="1"/>
+    <col min="11273" max="11273" width="8.7265625" style="37"/>
+    <col min="11274" max="11274" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11275" max="11519" width="8.7265625" style="37"/>
+    <col min="11520" max="11520" width="10.90625" style="37" customWidth="1"/>
+    <col min="11521" max="11521" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11522" max="11522" width="8.7265625" style="37"/>
+    <col min="11523" max="11523" width="17" style="37" customWidth="1"/>
+    <col min="11524" max="11524" width="13.90625" style="37" customWidth="1"/>
+    <col min="11525" max="11525" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11526" max="11526" width="13.90625" style="37" customWidth="1"/>
+    <col min="11527" max="11527" width="8.7265625" style="37"/>
+    <col min="11528" max="11528" width="17.90625" style="37" customWidth="1"/>
+    <col min="11529" max="11529" width="8.7265625" style="37"/>
+    <col min="11530" max="11530" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11531" max="11775" width="8.7265625" style="37"/>
+    <col min="11776" max="11776" width="10.90625" style="37" customWidth="1"/>
+    <col min="11777" max="11777" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11778" max="11778" width="8.7265625" style="37"/>
+    <col min="11779" max="11779" width="17" style="37" customWidth="1"/>
+    <col min="11780" max="11780" width="13.90625" style="37" customWidth="1"/>
+    <col min="11781" max="11781" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11782" max="11782" width="13.90625" style="37" customWidth="1"/>
+    <col min="11783" max="11783" width="8.7265625" style="37"/>
+    <col min="11784" max="11784" width="17.90625" style="37" customWidth="1"/>
+    <col min="11785" max="11785" width="8.7265625" style="37"/>
+    <col min="11786" max="11786" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11787" max="12031" width="8.7265625" style="37"/>
+    <col min="12032" max="12032" width="10.90625" style="37" customWidth="1"/>
+    <col min="12033" max="12033" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12034" max="12034" width="8.7265625" style="37"/>
+    <col min="12035" max="12035" width="17" style="37" customWidth="1"/>
+    <col min="12036" max="12036" width="13.90625" style="37" customWidth="1"/>
+    <col min="12037" max="12037" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12038" max="12038" width="13.90625" style="37" customWidth="1"/>
+    <col min="12039" max="12039" width="8.7265625" style="37"/>
+    <col min="12040" max="12040" width="17.90625" style="37" customWidth="1"/>
+    <col min="12041" max="12041" width="8.7265625" style="37"/>
+    <col min="12042" max="12042" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12043" max="12287" width="8.7265625" style="37"/>
+    <col min="12288" max="12288" width="10.90625" style="37" customWidth="1"/>
+    <col min="12289" max="12289" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12290" max="12290" width="8.7265625" style="37"/>
+    <col min="12291" max="12291" width="17" style="37" customWidth="1"/>
+    <col min="12292" max="12292" width="13.90625" style="37" customWidth="1"/>
+    <col min="12293" max="12293" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12294" max="12294" width="13.90625" style="37" customWidth="1"/>
+    <col min="12295" max="12295" width="8.7265625" style="37"/>
+    <col min="12296" max="12296" width="17.90625" style="37" customWidth="1"/>
+    <col min="12297" max="12297" width="8.7265625" style="37"/>
+    <col min="12298" max="12298" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12299" max="12543" width="8.7265625" style="37"/>
+    <col min="12544" max="12544" width="10.90625" style="37" customWidth="1"/>
+    <col min="12545" max="12545" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12546" max="12546" width="8.7265625" style="37"/>
+    <col min="12547" max="12547" width="17" style="37" customWidth="1"/>
+    <col min="12548" max="12548" width="13.90625" style="37" customWidth="1"/>
+    <col min="12549" max="12549" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12550" max="12550" width="13.90625" style="37" customWidth="1"/>
+    <col min="12551" max="12551" width="8.7265625" style="37"/>
+    <col min="12552" max="12552" width="17.90625" style="37" customWidth="1"/>
+    <col min="12553" max="12553" width="8.7265625" style="37"/>
+    <col min="12554" max="12554" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12555" max="12799" width="8.7265625" style="37"/>
+    <col min="12800" max="12800" width="10.90625" style="37" customWidth="1"/>
+    <col min="12801" max="12801" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12802" max="12802" width="8.7265625" style="37"/>
+    <col min="12803" max="12803" width="17" style="37" customWidth="1"/>
+    <col min="12804" max="12804" width="13.90625" style="37" customWidth="1"/>
+    <col min="12805" max="12805" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12806" max="12806" width="13.90625" style="37" customWidth="1"/>
+    <col min="12807" max="12807" width="8.7265625" style="37"/>
+    <col min="12808" max="12808" width="17.90625" style="37" customWidth="1"/>
+    <col min="12809" max="12809" width="8.7265625" style="37"/>
+    <col min="12810" max="12810" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12811" max="13055" width="8.7265625" style="37"/>
+    <col min="13056" max="13056" width="10.90625" style="37" customWidth="1"/>
+    <col min="13057" max="13057" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13058" max="13058" width="8.7265625" style="37"/>
+    <col min="13059" max="13059" width="17" style="37" customWidth="1"/>
+    <col min="13060" max="13060" width="13.90625" style="37" customWidth="1"/>
+    <col min="13061" max="13061" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13062" max="13062" width="13.90625" style="37" customWidth="1"/>
+    <col min="13063" max="13063" width="8.7265625" style="37"/>
+    <col min="13064" max="13064" width="17.90625" style="37" customWidth="1"/>
+    <col min="13065" max="13065" width="8.7265625" style="37"/>
+    <col min="13066" max="13066" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13067" max="13311" width="8.7265625" style="37"/>
+    <col min="13312" max="13312" width="10.90625" style="37" customWidth="1"/>
+    <col min="13313" max="13313" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13314" max="13314" width="8.7265625" style="37"/>
+    <col min="13315" max="13315" width="17" style="37" customWidth="1"/>
+    <col min="13316" max="13316" width="13.90625" style="37" customWidth="1"/>
+    <col min="13317" max="13317" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13318" max="13318" width="13.90625" style="37" customWidth="1"/>
+    <col min="13319" max="13319" width="8.7265625" style="37"/>
+    <col min="13320" max="13320" width="17.90625" style="37" customWidth="1"/>
+    <col min="13321" max="13321" width="8.7265625" style="37"/>
+    <col min="13322" max="13322" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13323" max="13567" width="8.7265625" style="37"/>
+    <col min="13568" max="13568" width="10.90625" style="37" customWidth="1"/>
+    <col min="13569" max="13569" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13570" max="13570" width="8.7265625" style="37"/>
+    <col min="13571" max="13571" width="17" style="37" customWidth="1"/>
+    <col min="13572" max="13572" width="13.90625" style="37" customWidth="1"/>
+    <col min="13573" max="13573" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13574" max="13574" width="13.90625" style="37" customWidth="1"/>
+    <col min="13575" max="13575" width="8.7265625" style="37"/>
+    <col min="13576" max="13576" width="17.90625" style="37" customWidth="1"/>
+    <col min="13577" max="13577" width="8.7265625" style="37"/>
+    <col min="13578" max="13578" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13579" max="13823" width="8.7265625" style="37"/>
+    <col min="13824" max="13824" width="10.90625" style="37" customWidth="1"/>
+    <col min="13825" max="13825" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13826" max="13826" width="8.7265625" style="37"/>
+    <col min="13827" max="13827" width="17" style="37" customWidth="1"/>
+    <col min="13828" max="13828" width="13.90625" style="37" customWidth="1"/>
+    <col min="13829" max="13829" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13830" max="13830" width="13.90625" style="37" customWidth="1"/>
+    <col min="13831" max="13831" width="8.7265625" style="37"/>
+    <col min="13832" max="13832" width="17.90625" style="37" customWidth="1"/>
+    <col min="13833" max="13833" width="8.7265625" style="37"/>
+    <col min="13834" max="13834" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13835" max="14079" width="8.7265625" style="37"/>
+    <col min="14080" max="14080" width="10.90625" style="37" customWidth="1"/>
+    <col min="14081" max="14081" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14082" max="14082" width="8.7265625" style="37"/>
+    <col min="14083" max="14083" width="17" style="37" customWidth="1"/>
+    <col min="14084" max="14084" width="13.90625" style="37" customWidth="1"/>
+    <col min="14085" max="14085" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14086" max="14086" width="13.90625" style="37" customWidth="1"/>
+    <col min="14087" max="14087" width="8.7265625" style="37"/>
+    <col min="14088" max="14088" width="17.90625" style="37" customWidth="1"/>
+    <col min="14089" max="14089" width="8.7265625" style="37"/>
+    <col min="14090" max="14090" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14091" max="14335" width="8.7265625" style="37"/>
+    <col min="14336" max="14336" width="10.90625" style="37" customWidth="1"/>
+    <col min="14337" max="14337" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14338" max="14338" width="8.7265625" style="37"/>
+    <col min="14339" max="14339" width="17" style="37" customWidth="1"/>
+    <col min="14340" max="14340" width="13.90625" style="37" customWidth="1"/>
+    <col min="14341" max="14341" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14342" max="14342" width="13.90625" style="37" customWidth="1"/>
+    <col min="14343" max="14343" width="8.7265625" style="37"/>
+    <col min="14344" max="14344" width="17.90625" style="37" customWidth="1"/>
+    <col min="14345" max="14345" width="8.7265625" style="37"/>
+    <col min="14346" max="14346" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14347" max="14591" width="8.7265625" style="37"/>
+    <col min="14592" max="14592" width="10.90625" style="37" customWidth="1"/>
+    <col min="14593" max="14593" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14594" max="14594" width="8.7265625" style="37"/>
+    <col min="14595" max="14595" width="17" style="37" customWidth="1"/>
+    <col min="14596" max="14596" width="13.90625" style="37" customWidth="1"/>
+    <col min="14597" max="14597" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14598" max="14598" width="13.90625" style="37" customWidth="1"/>
+    <col min="14599" max="14599" width="8.7265625" style="37"/>
+    <col min="14600" max="14600" width="17.90625" style="37" customWidth="1"/>
+    <col min="14601" max="14601" width="8.7265625" style="37"/>
+    <col min="14602" max="14602" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14603" max="14847" width="8.7265625" style="37"/>
+    <col min="14848" max="14848" width="10.90625" style="37" customWidth="1"/>
+    <col min="14849" max="14849" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14850" max="14850" width="8.7265625" style="37"/>
+    <col min="14851" max="14851" width="17" style="37" customWidth="1"/>
+    <col min="14852" max="14852" width="13.90625" style="37" customWidth="1"/>
+    <col min="14853" max="14853" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14854" max="14854" width="13.90625" style="37" customWidth="1"/>
+    <col min="14855" max="14855" width="8.7265625" style="37"/>
+    <col min="14856" max="14856" width="17.90625" style="37" customWidth="1"/>
+    <col min="14857" max="14857" width="8.7265625" style="37"/>
+    <col min="14858" max="14858" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14859" max="15103" width="8.7265625" style="37"/>
+    <col min="15104" max="15104" width="10.90625" style="37" customWidth="1"/>
+    <col min="15105" max="15105" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15106" max="15106" width="8.7265625" style="37"/>
+    <col min="15107" max="15107" width="17" style="37" customWidth="1"/>
+    <col min="15108" max="15108" width="13.90625" style="37" customWidth="1"/>
+    <col min="15109" max="15109" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15110" max="15110" width="13.90625" style="37" customWidth="1"/>
+    <col min="15111" max="15111" width="8.7265625" style="37"/>
+    <col min="15112" max="15112" width="17.90625" style="37" customWidth="1"/>
+    <col min="15113" max="15113" width="8.7265625" style="37"/>
+    <col min="15114" max="15114" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15115" max="15359" width="8.7265625" style="37"/>
+    <col min="15360" max="15360" width="10.90625" style="37" customWidth="1"/>
+    <col min="15361" max="15361" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15362" max="15362" width="8.7265625" style="37"/>
+    <col min="15363" max="15363" width="17" style="37" customWidth="1"/>
+    <col min="15364" max="15364" width="13.90625" style="37" customWidth="1"/>
+    <col min="15365" max="15365" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15366" max="15366" width="13.90625" style="37" customWidth="1"/>
+    <col min="15367" max="15367" width="8.7265625" style="37"/>
+    <col min="15368" max="15368" width="17.90625" style="37" customWidth="1"/>
+    <col min="15369" max="15369" width="8.7265625" style="37"/>
+    <col min="15370" max="15370" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15371" max="15615" width="8.7265625" style="37"/>
+    <col min="15616" max="15616" width="10.90625" style="37" customWidth="1"/>
+    <col min="15617" max="15617" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15618" max="15618" width="8.7265625" style="37"/>
+    <col min="15619" max="15619" width="17" style="37" customWidth="1"/>
+    <col min="15620" max="15620" width="13.90625" style="37" customWidth="1"/>
+    <col min="15621" max="15621" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15622" max="15622" width="13.90625" style="37" customWidth="1"/>
+    <col min="15623" max="15623" width="8.7265625" style="37"/>
+    <col min="15624" max="15624" width="17.90625" style="37" customWidth="1"/>
+    <col min="15625" max="15625" width="8.7265625" style="37"/>
+    <col min="15626" max="15626" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15627" max="15871" width="8.7265625" style="37"/>
+    <col min="15872" max="15872" width="10.90625" style="37" customWidth="1"/>
+    <col min="15873" max="15873" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15874" max="15874" width="8.7265625" style="37"/>
+    <col min="15875" max="15875" width="17" style="37" customWidth="1"/>
+    <col min="15876" max="15876" width="13.90625" style="37" customWidth="1"/>
+    <col min="15877" max="15877" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15878" max="15878" width="13.90625" style="37" customWidth="1"/>
+    <col min="15879" max="15879" width="8.7265625" style="37"/>
+    <col min="15880" max="15880" width="17.90625" style="37" customWidth="1"/>
+    <col min="15881" max="15881" width="8.7265625" style="37"/>
+    <col min="15882" max="15882" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15883" max="16127" width="8.7265625" style="37"/>
+    <col min="16128" max="16128" width="10.90625" style="37" customWidth="1"/>
+    <col min="16129" max="16129" width="22.26953125" style="37" customWidth="1"/>
+    <col min="16130" max="16130" width="8.7265625" style="37"/>
+    <col min="16131" max="16131" width="17" style="37" customWidth="1"/>
+    <col min="16132" max="16132" width="13.90625" style="37" customWidth="1"/>
+    <col min="16133" max="16133" width="20.26953125" style="37" customWidth="1"/>
+    <col min="16134" max="16134" width="13.90625" style="37" customWidth="1"/>
+    <col min="16135" max="16135" width="8.7265625" style="37"/>
+    <col min="16136" max="16136" width="17.90625" style="37" customWidth="1"/>
+    <col min="16137" max="16137" width="8.7265625" style="37"/>
+    <col min="16138" max="16138" width="53.6328125" style="37" customWidth="1"/>
+    <col min="16139" max="16384" width="8.7265625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>975</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="34" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>975</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I3" s="63"/>
+      <c r="J3" s="34" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>975</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I4" s="63"/>
+      <c r="J4" s="34" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>975</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="34" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD16AA3-41A2-4CE2-A54F-A23529603CBB}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>986</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>986</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="33" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="33" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>975</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="33" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="33" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="33" t="s">
+        <v>1107</v>
+      </c>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="33" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="33" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="33" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="33" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>976</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="33" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="33" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="33" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="33" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="54" t="s">
+        <v>654</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K20" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A40D45-4A6D-4323-AF2A-723C324D4F9C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6147,7 +7973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F67F6C-9C5A-4D9C-A0BA-6CE74C3B3F1E}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -6268,7 +8094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A4186-9BCA-48CF-8DF0-AEF3719878D4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6286,7 +8112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388C2AD6-B218-4E22-9152-9FF923DE673A}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -6408,7 +8234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A8CE6A-08F8-4094-B8C4-805F6E207B55}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -7311,7 +9137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60F93F-DDE7-4577-BCA7-BDCFD0F8A197}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -7542,7 +9368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8CB9F-21CB-4CA7-BF40-DA6BB340EB8E}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -8973,7 +10799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -9249,34 +11075,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>989</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H255"/>
@@ -15020,11 +16818,1357 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0966432F-A939-4559-ADEB-BD54EB272DD4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150C8F3C-152C-4725-ACEB-686C247A329B}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="37"/>
+    <col min="3" max="3" width="17" style="37" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="37"/>
+    <col min="8" max="8" width="17.90625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="37"/>
+    <col min="10" max="10" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11" max="255" width="8.7265625" style="37"/>
+    <col min="256" max="256" width="10.90625" style="37" customWidth="1"/>
+    <col min="257" max="257" width="22.26953125" style="37" customWidth="1"/>
+    <col min="258" max="258" width="8.7265625" style="37"/>
+    <col min="259" max="259" width="17" style="37" customWidth="1"/>
+    <col min="260" max="260" width="13.90625" style="37" customWidth="1"/>
+    <col min="261" max="261" width="20.26953125" style="37" customWidth="1"/>
+    <col min="262" max="262" width="13.90625" style="37" customWidth="1"/>
+    <col min="263" max="263" width="8.7265625" style="37"/>
+    <col min="264" max="264" width="17.90625" style="37" customWidth="1"/>
+    <col min="265" max="265" width="8.7265625" style="37"/>
+    <col min="266" max="266" width="53.6328125" style="37" customWidth="1"/>
+    <col min="267" max="511" width="8.7265625" style="37"/>
+    <col min="512" max="512" width="10.90625" style="37" customWidth="1"/>
+    <col min="513" max="513" width="22.26953125" style="37" customWidth="1"/>
+    <col min="514" max="514" width="8.7265625" style="37"/>
+    <col min="515" max="515" width="17" style="37" customWidth="1"/>
+    <col min="516" max="516" width="13.90625" style="37" customWidth="1"/>
+    <col min="517" max="517" width="20.26953125" style="37" customWidth="1"/>
+    <col min="518" max="518" width="13.90625" style="37" customWidth="1"/>
+    <col min="519" max="519" width="8.7265625" style="37"/>
+    <col min="520" max="520" width="17.90625" style="37" customWidth="1"/>
+    <col min="521" max="521" width="8.7265625" style="37"/>
+    <col min="522" max="522" width="53.6328125" style="37" customWidth="1"/>
+    <col min="523" max="767" width="8.7265625" style="37"/>
+    <col min="768" max="768" width="10.90625" style="37" customWidth="1"/>
+    <col min="769" max="769" width="22.26953125" style="37" customWidth="1"/>
+    <col min="770" max="770" width="8.7265625" style="37"/>
+    <col min="771" max="771" width="17" style="37" customWidth="1"/>
+    <col min="772" max="772" width="13.90625" style="37" customWidth="1"/>
+    <col min="773" max="773" width="20.26953125" style="37" customWidth="1"/>
+    <col min="774" max="774" width="13.90625" style="37" customWidth="1"/>
+    <col min="775" max="775" width="8.7265625" style="37"/>
+    <col min="776" max="776" width="17.90625" style="37" customWidth="1"/>
+    <col min="777" max="777" width="8.7265625" style="37"/>
+    <col min="778" max="778" width="53.6328125" style="37" customWidth="1"/>
+    <col min="779" max="1023" width="8.7265625" style="37"/>
+    <col min="1024" max="1024" width="10.90625" style="37" customWidth="1"/>
+    <col min="1025" max="1025" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1026" max="1026" width="8.7265625" style="37"/>
+    <col min="1027" max="1027" width="17" style="37" customWidth="1"/>
+    <col min="1028" max="1028" width="13.90625" style="37" customWidth="1"/>
+    <col min="1029" max="1029" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1030" max="1030" width="13.90625" style="37" customWidth="1"/>
+    <col min="1031" max="1031" width="8.7265625" style="37"/>
+    <col min="1032" max="1032" width="17.90625" style="37" customWidth="1"/>
+    <col min="1033" max="1033" width="8.7265625" style="37"/>
+    <col min="1034" max="1034" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1035" max="1279" width="8.7265625" style="37"/>
+    <col min="1280" max="1280" width="10.90625" style="37" customWidth="1"/>
+    <col min="1281" max="1281" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1282" max="1282" width="8.7265625" style="37"/>
+    <col min="1283" max="1283" width="17" style="37" customWidth="1"/>
+    <col min="1284" max="1284" width="13.90625" style="37" customWidth="1"/>
+    <col min="1285" max="1285" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1286" max="1286" width="13.90625" style="37" customWidth="1"/>
+    <col min="1287" max="1287" width="8.7265625" style="37"/>
+    <col min="1288" max="1288" width="17.90625" style="37" customWidth="1"/>
+    <col min="1289" max="1289" width="8.7265625" style="37"/>
+    <col min="1290" max="1290" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1291" max="1535" width="8.7265625" style="37"/>
+    <col min="1536" max="1536" width="10.90625" style="37" customWidth="1"/>
+    <col min="1537" max="1537" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1538" max="1538" width="8.7265625" style="37"/>
+    <col min="1539" max="1539" width="17" style="37" customWidth="1"/>
+    <col min="1540" max="1540" width="13.90625" style="37" customWidth="1"/>
+    <col min="1541" max="1541" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1542" max="1542" width="13.90625" style="37" customWidth="1"/>
+    <col min="1543" max="1543" width="8.7265625" style="37"/>
+    <col min="1544" max="1544" width="17.90625" style="37" customWidth="1"/>
+    <col min="1545" max="1545" width="8.7265625" style="37"/>
+    <col min="1546" max="1546" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1547" max="1791" width="8.7265625" style="37"/>
+    <col min="1792" max="1792" width="10.90625" style="37" customWidth="1"/>
+    <col min="1793" max="1793" width="22.26953125" style="37" customWidth="1"/>
+    <col min="1794" max="1794" width="8.7265625" style="37"/>
+    <col min="1795" max="1795" width="17" style="37" customWidth="1"/>
+    <col min="1796" max="1796" width="13.90625" style="37" customWidth="1"/>
+    <col min="1797" max="1797" width="20.26953125" style="37" customWidth="1"/>
+    <col min="1798" max="1798" width="13.90625" style="37" customWidth="1"/>
+    <col min="1799" max="1799" width="8.7265625" style="37"/>
+    <col min="1800" max="1800" width="17.90625" style="37" customWidth="1"/>
+    <col min="1801" max="1801" width="8.7265625" style="37"/>
+    <col min="1802" max="1802" width="53.6328125" style="37" customWidth="1"/>
+    <col min="1803" max="2047" width="8.7265625" style="37"/>
+    <col min="2048" max="2048" width="10.90625" style="37" customWidth="1"/>
+    <col min="2049" max="2049" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2050" max="2050" width="8.7265625" style="37"/>
+    <col min="2051" max="2051" width="17" style="37" customWidth="1"/>
+    <col min="2052" max="2052" width="13.90625" style="37" customWidth="1"/>
+    <col min="2053" max="2053" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2054" max="2054" width="13.90625" style="37" customWidth="1"/>
+    <col min="2055" max="2055" width="8.7265625" style="37"/>
+    <col min="2056" max="2056" width="17.90625" style="37" customWidth="1"/>
+    <col min="2057" max="2057" width="8.7265625" style="37"/>
+    <col min="2058" max="2058" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2059" max="2303" width="8.7265625" style="37"/>
+    <col min="2304" max="2304" width="10.90625" style="37" customWidth="1"/>
+    <col min="2305" max="2305" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2306" max="2306" width="8.7265625" style="37"/>
+    <col min="2307" max="2307" width="17" style="37" customWidth="1"/>
+    <col min="2308" max="2308" width="13.90625" style="37" customWidth="1"/>
+    <col min="2309" max="2309" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2310" max="2310" width="13.90625" style="37" customWidth="1"/>
+    <col min="2311" max="2311" width="8.7265625" style="37"/>
+    <col min="2312" max="2312" width="17.90625" style="37" customWidth="1"/>
+    <col min="2313" max="2313" width="8.7265625" style="37"/>
+    <col min="2314" max="2314" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2315" max="2559" width="8.7265625" style="37"/>
+    <col min="2560" max="2560" width="10.90625" style="37" customWidth="1"/>
+    <col min="2561" max="2561" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2562" max="2562" width="8.7265625" style="37"/>
+    <col min="2563" max="2563" width="17" style="37" customWidth="1"/>
+    <col min="2564" max="2564" width="13.90625" style="37" customWidth="1"/>
+    <col min="2565" max="2565" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2566" max="2566" width="13.90625" style="37" customWidth="1"/>
+    <col min="2567" max="2567" width="8.7265625" style="37"/>
+    <col min="2568" max="2568" width="17.90625" style="37" customWidth="1"/>
+    <col min="2569" max="2569" width="8.7265625" style="37"/>
+    <col min="2570" max="2570" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2571" max="2815" width="8.7265625" style="37"/>
+    <col min="2816" max="2816" width="10.90625" style="37" customWidth="1"/>
+    <col min="2817" max="2817" width="22.26953125" style="37" customWidth="1"/>
+    <col min="2818" max="2818" width="8.7265625" style="37"/>
+    <col min="2819" max="2819" width="17" style="37" customWidth="1"/>
+    <col min="2820" max="2820" width="13.90625" style="37" customWidth="1"/>
+    <col min="2821" max="2821" width="20.26953125" style="37" customWidth="1"/>
+    <col min="2822" max="2822" width="13.90625" style="37" customWidth="1"/>
+    <col min="2823" max="2823" width="8.7265625" style="37"/>
+    <col min="2824" max="2824" width="17.90625" style="37" customWidth="1"/>
+    <col min="2825" max="2825" width="8.7265625" style="37"/>
+    <col min="2826" max="2826" width="53.6328125" style="37" customWidth="1"/>
+    <col min="2827" max="3071" width="8.7265625" style="37"/>
+    <col min="3072" max="3072" width="10.90625" style="37" customWidth="1"/>
+    <col min="3073" max="3073" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3074" max="3074" width="8.7265625" style="37"/>
+    <col min="3075" max="3075" width="17" style="37" customWidth="1"/>
+    <col min="3076" max="3076" width="13.90625" style="37" customWidth="1"/>
+    <col min="3077" max="3077" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3078" max="3078" width="13.90625" style="37" customWidth="1"/>
+    <col min="3079" max="3079" width="8.7265625" style="37"/>
+    <col min="3080" max="3080" width="17.90625" style="37" customWidth="1"/>
+    <col min="3081" max="3081" width="8.7265625" style="37"/>
+    <col min="3082" max="3082" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3083" max="3327" width="8.7265625" style="37"/>
+    <col min="3328" max="3328" width="10.90625" style="37" customWidth="1"/>
+    <col min="3329" max="3329" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3330" max="3330" width="8.7265625" style="37"/>
+    <col min="3331" max="3331" width="17" style="37" customWidth="1"/>
+    <col min="3332" max="3332" width="13.90625" style="37" customWidth="1"/>
+    <col min="3333" max="3333" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3334" max="3334" width="13.90625" style="37" customWidth="1"/>
+    <col min="3335" max="3335" width="8.7265625" style="37"/>
+    <col min="3336" max="3336" width="17.90625" style="37" customWidth="1"/>
+    <col min="3337" max="3337" width="8.7265625" style="37"/>
+    <col min="3338" max="3338" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3339" max="3583" width="8.7265625" style="37"/>
+    <col min="3584" max="3584" width="10.90625" style="37" customWidth="1"/>
+    <col min="3585" max="3585" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3586" max="3586" width="8.7265625" style="37"/>
+    <col min="3587" max="3587" width="17" style="37" customWidth="1"/>
+    <col min="3588" max="3588" width="13.90625" style="37" customWidth="1"/>
+    <col min="3589" max="3589" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3590" max="3590" width="13.90625" style="37" customWidth="1"/>
+    <col min="3591" max="3591" width="8.7265625" style="37"/>
+    <col min="3592" max="3592" width="17.90625" style="37" customWidth="1"/>
+    <col min="3593" max="3593" width="8.7265625" style="37"/>
+    <col min="3594" max="3594" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3595" max="3839" width="8.7265625" style="37"/>
+    <col min="3840" max="3840" width="10.90625" style="37" customWidth="1"/>
+    <col min="3841" max="3841" width="22.26953125" style="37" customWidth="1"/>
+    <col min="3842" max="3842" width="8.7265625" style="37"/>
+    <col min="3843" max="3843" width="17" style="37" customWidth="1"/>
+    <col min="3844" max="3844" width="13.90625" style="37" customWidth="1"/>
+    <col min="3845" max="3845" width="20.26953125" style="37" customWidth="1"/>
+    <col min="3846" max="3846" width="13.90625" style="37" customWidth="1"/>
+    <col min="3847" max="3847" width="8.7265625" style="37"/>
+    <col min="3848" max="3848" width="17.90625" style="37" customWidth="1"/>
+    <col min="3849" max="3849" width="8.7265625" style="37"/>
+    <col min="3850" max="3850" width="53.6328125" style="37" customWidth="1"/>
+    <col min="3851" max="4095" width="8.7265625" style="37"/>
+    <col min="4096" max="4096" width="10.90625" style="37" customWidth="1"/>
+    <col min="4097" max="4097" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4098" max="4098" width="8.7265625" style="37"/>
+    <col min="4099" max="4099" width="17" style="37" customWidth="1"/>
+    <col min="4100" max="4100" width="13.90625" style="37" customWidth="1"/>
+    <col min="4101" max="4101" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4102" max="4102" width="13.90625" style="37" customWidth="1"/>
+    <col min="4103" max="4103" width="8.7265625" style="37"/>
+    <col min="4104" max="4104" width="17.90625" style="37" customWidth="1"/>
+    <col min="4105" max="4105" width="8.7265625" style="37"/>
+    <col min="4106" max="4106" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4107" max="4351" width="8.7265625" style="37"/>
+    <col min="4352" max="4352" width="10.90625" style="37" customWidth="1"/>
+    <col min="4353" max="4353" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4354" max="4354" width="8.7265625" style="37"/>
+    <col min="4355" max="4355" width="17" style="37" customWidth="1"/>
+    <col min="4356" max="4356" width="13.90625" style="37" customWidth="1"/>
+    <col min="4357" max="4357" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4358" max="4358" width="13.90625" style="37" customWidth="1"/>
+    <col min="4359" max="4359" width="8.7265625" style="37"/>
+    <col min="4360" max="4360" width="17.90625" style="37" customWidth="1"/>
+    <col min="4361" max="4361" width="8.7265625" style="37"/>
+    <col min="4362" max="4362" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4363" max="4607" width="8.7265625" style="37"/>
+    <col min="4608" max="4608" width="10.90625" style="37" customWidth="1"/>
+    <col min="4609" max="4609" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4610" max="4610" width="8.7265625" style="37"/>
+    <col min="4611" max="4611" width="17" style="37" customWidth="1"/>
+    <col min="4612" max="4612" width="13.90625" style="37" customWidth="1"/>
+    <col min="4613" max="4613" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4614" max="4614" width="13.90625" style="37" customWidth="1"/>
+    <col min="4615" max="4615" width="8.7265625" style="37"/>
+    <col min="4616" max="4616" width="17.90625" style="37" customWidth="1"/>
+    <col min="4617" max="4617" width="8.7265625" style="37"/>
+    <col min="4618" max="4618" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4619" max="4863" width="8.7265625" style="37"/>
+    <col min="4864" max="4864" width="10.90625" style="37" customWidth="1"/>
+    <col min="4865" max="4865" width="22.26953125" style="37" customWidth="1"/>
+    <col min="4866" max="4866" width="8.7265625" style="37"/>
+    <col min="4867" max="4867" width="17" style="37" customWidth="1"/>
+    <col min="4868" max="4868" width="13.90625" style="37" customWidth="1"/>
+    <col min="4869" max="4869" width="20.26953125" style="37" customWidth="1"/>
+    <col min="4870" max="4870" width="13.90625" style="37" customWidth="1"/>
+    <col min="4871" max="4871" width="8.7265625" style="37"/>
+    <col min="4872" max="4872" width="17.90625" style="37" customWidth="1"/>
+    <col min="4873" max="4873" width="8.7265625" style="37"/>
+    <col min="4874" max="4874" width="53.6328125" style="37" customWidth="1"/>
+    <col min="4875" max="5119" width="8.7265625" style="37"/>
+    <col min="5120" max="5120" width="10.90625" style="37" customWidth="1"/>
+    <col min="5121" max="5121" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5122" max="5122" width="8.7265625" style="37"/>
+    <col min="5123" max="5123" width="17" style="37" customWidth="1"/>
+    <col min="5124" max="5124" width="13.90625" style="37" customWidth="1"/>
+    <col min="5125" max="5125" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5126" max="5126" width="13.90625" style="37" customWidth="1"/>
+    <col min="5127" max="5127" width="8.7265625" style="37"/>
+    <col min="5128" max="5128" width="17.90625" style="37" customWidth="1"/>
+    <col min="5129" max="5129" width="8.7265625" style="37"/>
+    <col min="5130" max="5130" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5131" max="5375" width="8.7265625" style="37"/>
+    <col min="5376" max="5376" width="10.90625" style="37" customWidth="1"/>
+    <col min="5377" max="5377" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5378" max="5378" width="8.7265625" style="37"/>
+    <col min="5379" max="5379" width="17" style="37" customWidth="1"/>
+    <col min="5380" max="5380" width="13.90625" style="37" customWidth="1"/>
+    <col min="5381" max="5381" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5382" max="5382" width="13.90625" style="37" customWidth="1"/>
+    <col min="5383" max="5383" width="8.7265625" style="37"/>
+    <col min="5384" max="5384" width="17.90625" style="37" customWidth="1"/>
+    <col min="5385" max="5385" width="8.7265625" style="37"/>
+    <col min="5386" max="5386" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5387" max="5631" width="8.7265625" style="37"/>
+    <col min="5632" max="5632" width="10.90625" style="37" customWidth="1"/>
+    <col min="5633" max="5633" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5634" max="5634" width="8.7265625" style="37"/>
+    <col min="5635" max="5635" width="17" style="37" customWidth="1"/>
+    <col min="5636" max="5636" width="13.90625" style="37" customWidth="1"/>
+    <col min="5637" max="5637" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5638" max="5638" width="13.90625" style="37" customWidth="1"/>
+    <col min="5639" max="5639" width="8.7265625" style="37"/>
+    <col min="5640" max="5640" width="17.90625" style="37" customWidth="1"/>
+    <col min="5641" max="5641" width="8.7265625" style="37"/>
+    <col min="5642" max="5642" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5643" max="5887" width="8.7265625" style="37"/>
+    <col min="5888" max="5888" width="10.90625" style="37" customWidth="1"/>
+    <col min="5889" max="5889" width="22.26953125" style="37" customWidth="1"/>
+    <col min="5890" max="5890" width="8.7265625" style="37"/>
+    <col min="5891" max="5891" width="17" style="37" customWidth="1"/>
+    <col min="5892" max="5892" width="13.90625" style="37" customWidth="1"/>
+    <col min="5893" max="5893" width="20.26953125" style="37" customWidth="1"/>
+    <col min="5894" max="5894" width="13.90625" style="37" customWidth="1"/>
+    <col min="5895" max="5895" width="8.7265625" style="37"/>
+    <col min="5896" max="5896" width="17.90625" style="37" customWidth="1"/>
+    <col min="5897" max="5897" width="8.7265625" style="37"/>
+    <col min="5898" max="5898" width="53.6328125" style="37" customWidth="1"/>
+    <col min="5899" max="6143" width="8.7265625" style="37"/>
+    <col min="6144" max="6144" width="10.90625" style="37" customWidth="1"/>
+    <col min="6145" max="6145" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6146" max="6146" width="8.7265625" style="37"/>
+    <col min="6147" max="6147" width="17" style="37" customWidth="1"/>
+    <col min="6148" max="6148" width="13.90625" style="37" customWidth="1"/>
+    <col min="6149" max="6149" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6150" max="6150" width="13.90625" style="37" customWidth="1"/>
+    <col min="6151" max="6151" width="8.7265625" style="37"/>
+    <col min="6152" max="6152" width="17.90625" style="37" customWidth="1"/>
+    <col min="6153" max="6153" width="8.7265625" style="37"/>
+    <col min="6154" max="6154" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6155" max="6399" width="8.7265625" style="37"/>
+    <col min="6400" max="6400" width="10.90625" style="37" customWidth="1"/>
+    <col min="6401" max="6401" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6402" max="6402" width="8.7265625" style="37"/>
+    <col min="6403" max="6403" width="17" style="37" customWidth="1"/>
+    <col min="6404" max="6404" width="13.90625" style="37" customWidth="1"/>
+    <col min="6405" max="6405" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6406" max="6406" width="13.90625" style="37" customWidth="1"/>
+    <col min="6407" max="6407" width="8.7265625" style="37"/>
+    <col min="6408" max="6408" width="17.90625" style="37" customWidth="1"/>
+    <col min="6409" max="6409" width="8.7265625" style="37"/>
+    <col min="6410" max="6410" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6411" max="6655" width="8.7265625" style="37"/>
+    <col min="6656" max="6656" width="10.90625" style="37" customWidth="1"/>
+    <col min="6657" max="6657" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6658" max="6658" width="8.7265625" style="37"/>
+    <col min="6659" max="6659" width="17" style="37" customWidth="1"/>
+    <col min="6660" max="6660" width="13.90625" style="37" customWidth="1"/>
+    <col min="6661" max="6661" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6662" max="6662" width="13.90625" style="37" customWidth="1"/>
+    <col min="6663" max="6663" width="8.7265625" style="37"/>
+    <col min="6664" max="6664" width="17.90625" style="37" customWidth="1"/>
+    <col min="6665" max="6665" width="8.7265625" style="37"/>
+    <col min="6666" max="6666" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6667" max="6911" width="8.7265625" style="37"/>
+    <col min="6912" max="6912" width="10.90625" style="37" customWidth="1"/>
+    <col min="6913" max="6913" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6914" max="6914" width="8.7265625" style="37"/>
+    <col min="6915" max="6915" width="17" style="37" customWidth="1"/>
+    <col min="6916" max="6916" width="13.90625" style="37" customWidth="1"/>
+    <col min="6917" max="6917" width="20.26953125" style="37" customWidth="1"/>
+    <col min="6918" max="6918" width="13.90625" style="37" customWidth="1"/>
+    <col min="6919" max="6919" width="8.7265625" style="37"/>
+    <col min="6920" max="6920" width="17.90625" style="37" customWidth="1"/>
+    <col min="6921" max="6921" width="8.7265625" style="37"/>
+    <col min="6922" max="6922" width="53.6328125" style="37" customWidth="1"/>
+    <col min="6923" max="7167" width="8.7265625" style="37"/>
+    <col min="7168" max="7168" width="10.90625" style="37" customWidth="1"/>
+    <col min="7169" max="7169" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7170" max="7170" width="8.7265625" style="37"/>
+    <col min="7171" max="7171" width="17" style="37" customWidth="1"/>
+    <col min="7172" max="7172" width="13.90625" style="37" customWidth="1"/>
+    <col min="7173" max="7173" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7174" max="7174" width="13.90625" style="37" customWidth="1"/>
+    <col min="7175" max="7175" width="8.7265625" style="37"/>
+    <col min="7176" max="7176" width="17.90625" style="37" customWidth="1"/>
+    <col min="7177" max="7177" width="8.7265625" style="37"/>
+    <col min="7178" max="7178" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7179" max="7423" width="8.7265625" style="37"/>
+    <col min="7424" max="7424" width="10.90625" style="37" customWidth="1"/>
+    <col min="7425" max="7425" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7426" max="7426" width="8.7265625" style="37"/>
+    <col min="7427" max="7427" width="17" style="37" customWidth="1"/>
+    <col min="7428" max="7428" width="13.90625" style="37" customWidth="1"/>
+    <col min="7429" max="7429" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7430" max="7430" width="13.90625" style="37" customWidth="1"/>
+    <col min="7431" max="7431" width="8.7265625" style="37"/>
+    <col min="7432" max="7432" width="17.90625" style="37" customWidth="1"/>
+    <col min="7433" max="7433" width="8.7265625" style="37"/>
+    <col min="7434" max="7434" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7435" max="7679" width="8.7265625" style="37"/>
+    <col min="7680" max="7680" width="10.90625" style="37" customWidth="1"/>
+    <col min="7681" max="7681" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7682" max="7682" width="8.7265625" style="37"/>
+    <col min="7683" max="7683" width="17" style="37" customWidth="1"/>
+    <col min="7684" max="7684" width="13.90625" style="37" customWidth="1"/>
+    <col min="7685" max="7685" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7686" max="7686" width="13.90625" style="37" customWidth="1"/>
+    <col min="7687" max="7687" width="8.7265625" style="37"/>
+    <col min="7688" max="7688" width="17.90625" style="37" customWidth="1"/>
+    <col min="7689" max="7689" width="8.7265625" style="37"/>
+    <col min="7690" max="7690" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7691" max="7935" width="8.7265625" style="37"/>
+    <col min="7936" max="7936" width="10.90625" style="37" customWidth="1"/>
+    <col min="7937" max="7937" width="22.26953125" style="37" customWidth="1"/>
+    <col min="7938" max="7938" width="8.7265625" style="37"/>
+    <col min="7939" max="7939" width="17" style="37" customWidth="1"/>
+    <col min="7940" max="7940" width="13.90625" style="37" customWidth="1"/>
+    <col min="7941" max="7941" width="20.26953125" style="37" customWidth="1"/>
+    <col min="7942" max="7942" width="13.90625" style="37" customWidth="1"/>
+    <col min="7943" max="7943" width="8.7265625" style="37"/>
+    <col min="7944" max="7944" width="17.90625" style="37" customWidth="1"/>
+    <col min="7945" max="7945" width="8.7265625" style="37"/>
+    <col min="7946" max="7946" width="53.6328125" style="37" customWidth="1"/>
+    <col min="7947" max="8191" width="8.7265625" style="37"/>
+    <col min="8192" max="8192" width="10.90625" style="37" customWidth="1"/>
+    <col min="8193" max="8193" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8194" max="8194" width="8.7265625" style="37"/>
+    <col min="8195" max="8195" width="17" style="37" customWidth="1"/>
+    <col min="8196" max="8196" width="13.90625" style="37" customWidth="1"/>
+    <col min="8197" max="8197" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8198" max="8198" width="13.90625" style="37" customWidth="1"/>
+    <col min="8199" max="8199" width="8.7265625" style="37"/>
+    <col min="8200" max="8200" width="17.90625" style="37" customWidth="1"/>
+    <col min="8201" max="8201" width="8.7265625" style="37"/>
+    <col min="8202" max="8202" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8203" max="8447" width="8.7265625" style="37"/>
+    <col min="8448" max="8448" width="10.90625" style="37" customWidth="1"/>
+    <col min="8449" max="8449" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8450" max="8450" width="8.7265625" style="37"/>
+    <col min="8451" max="8451" width="17" style="37" customWidth="1"/>
+    <col min="8452" max="8452" width="13.90625" style="37" customWidth="1"/>
+    <col min="8453" max="8453" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8454" max="8454" width="13.90625" style="37" customWidth="1"/>
+    <col min="8455" max="8455" width="8.7265625" style="37"/>
+    <col min="8456" max="8456" width="17.90625" style="37" customWidth="1"/>
+    <col min="8457" max="8457" width="8.7265625" style="37"/>
+    <col min="8458" max="8458" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8459" max="8703" width="8.7265625" style="37"/>
+    <col min="8704" max="8704" width="10.90625" style="37" customWidth="1"/>
+    <col min="8705" max="8705" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8706" max="8706" width="8.7265625" style="37"/>
+    <col min="8707" max="8707" width="17" style="37" customWidth="1"/>
+    <col min="8708" max="8708" width="13.90625" style="37" customWidth="1"/>
+    <col min="8709" max="8709" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8710" max="8710" width="13.90625" style="37" customWidth="1"/>
+    <col min="8711" max="8711" width="8.7265625" style="37"/>
+    <col min="8712" max="8712" width="17.90625" style="37" customWidth="1"/>
+    <col min="8713" max="8713" width="8.7265625" style="37"/>
+    <col min="8714" max="8714" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8715" max="8959" width="8.7265625" style="37"/>
+    <col min="8960" max="8960" width="10.90625" style="37" customWidth="1"/>
+    <col min="8961" max="8961" width="22.26953125" style="37" customWidth="1"/>
+    <col min="8962" max="8962" width="8.7265625" style="37"/>
+    <col min="8963" max="8963" width="17" style="37" customWidth="1"/>
+    <col min="8964" max="8964" width="13.90625" style="37" customWidth="1"/>
+    <col min="8965" max="8965" width="20.26953125" style="37" customWidth="1"/>
+    <col min="8966" max="8966" width="13.90625" style="37" customWidth="1"/>
+    <col min="8967" max="8967" width="8.7265625" style="37"/>
+    <col min="8968" max="8968" width="17.90625" style="37" customWidth="1"/>
+    <col min="8969" max="8969" width="8.7265625" style="37"/>
+    <col min="8970" max="8970" width="53.6328125" style="37" customWidth="1"/>
+    <col min="8971" max="9215" width="8.7265625" style="37"/>
+    <col min="9216" max="9216" width="10.90625" style="37" customWidth="1"/>
+    <col min="9217" max="9217" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9218" max="9218" width="8.7265625" style="37"/>
+    <col min="9219" max="9219" width="17" style="37" customWidth="1"/>
+    <col min="9220" max="9220" width="13.90625" style="37" customWidth="1"/>
+    <col min="9221" max="9221" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9222" max="9222" width="13.90625" style="37" customWidth="1"/>
+    <col min="9223" max="9223" width="8.7265625" style="37"/>
+    <col min="9224" max="9224" width="17.90625" style="37" customWidth="1"/>
+    <col min="9225" max="9225" width="8.7265625" style="37"/>
+    <col min="9226" max="9226" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9227" max="9471" width="8.7265625" style="37"/>
+    <col min="9472" max="9472" width="10.90625" style="37" customWidth="1"/>
+    <col min="9473" max="9473" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9474" max="9474" width="8.7265625" style="37"/>
+    <col min="9475" max="9475" width="17" style="37" customWidth="1"/>
+    <col min="9476" max="9476" width="13.90625" style="37" customWidth="1"/>
+    <col min="9477" max="9477" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9478" max="9478" width="13.90625" style="37" customWidth="1"/>
+    <col min="9479" max="9479" width="8.7265625" style="37"/>
+    <col min="9480" max="9480" width="17.90625" style="37" customWidth="1"/>
+    <col min="9481" max="9481" width="8.7265625" style="37"/>
+    <col min="9482" max="9482" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9483" max="9727" width="8.7265625" style="37"/>
+    <col min="9728" max="9728" width="10.90625" style="37" customWidth="1"/>
+    <col min="9729" max="9729" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9730" max="9730" width="8.7265625" style="37"/>
+    <col min="9731" max="9731" width="17" style="37" customWidth="1"/>
+    <col min="9732" max="9732" width="13.90625" style="37" customWidth="1"/>
+    <col min="9733" max="9733" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9734" max="9734" width="13.90625" style="37" customWidth="1"/>
+    <col min="9735" max="9735" width="8.7265625" style="37"/>
+    <col min="9736" max="9736" width="17.90625" style="37" customWidth="1"/>
+    <col min="9737" max="9737" width="8.7265625" style="37"/>
+    <col min="9738" max="9738" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9739" max="9983" width="8.7265625" style="37"/>
+    <col min="9984" max="9984" width="10.90625" style="37" customWidth="1"/>
+    <col min="9985" max="9985" width="22.26953125" style="37" customWidth="1"/>
+    <col min="9986" max="9986" width="8.7265625" style="37"/>
+    <col min="9987" max="9987" width="17" style="37" customWidth="1"/>
+    <col min="9988" max="9988" width="13.90625" style="37" customWidth="1"/>
+    <col min="9989" max="9989" width="20.26953125" style="37" customWidth="1"/>
+    <col min="9990" max="9990" width="13.90625" style="37" customWidth="1"/>
+    <col min="9991" max="9991" width="8.7265625" style="37"/>
+    <col min="9992" max="9992" width="17.90625" style="37" customWidth="1"/>
+    <col min="9993" max="9993" width="8.7265625" style="37"/>
+    <col min="9994" max="9994" width="53.6328125" style="37" customWidth="1"/>
+    <col min="9995" max="10239" width="8.7265625" style="37"/>
+    <col min="10240" max="10240" width="10.90625" style="37" customWidth="1"/>
+    <col min="10241" max="10241" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10242" max="10242" width="8.7265625" style="37"/>
+    <col min="10243" max="10243" width="17" style="37" customWidth="1"/>
+    <col min="10244" max="10244" width="13.90625" style="37" customWidth="1"/>
+    <col min="10245" max="10245" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10246" max="10246" width="13.90625" style="37" customWidth="1"/>
+    <col min="10247" max="10247" width="8.7265625" style="37"/>
+    <col min="10248" max="10248" width="17.90625" style="37" customWidth="1"/>
+    <col min="10249" max="10249" width="8.7265625" style="37"/>
+    <col min="10250" max="10250" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10251" max="10495" width="8.7265625" style="37"/>
+    <col min="10496" max="10496" width="10.90625" style="37" customWidth="1"/>
+    <col min="10497" max="10497" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10498" max="10498" width="8.7265625" style="37"/>
+    <col min="10499" max="10499" width="17" style="37" customWidth="1"/>
+    <col min="10500" max="10500" width="13.90625" style="37" customWidth="1"/>
+    <col min="10501" max="10501" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10502" max="10502" width="13.90625" style="37" customWidth="1"/>
+    <col min="10503" max="10503" width="8.7265625" style="37"/>
+    <col min="10504" max="10504" width="17.90625" style="37" customWidth="1"/>
+    <col min="10505" max="10505" width="8.7265625" style="37"/>
+    <col min="10506" max="10506" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10507" max="10751" width="8.7265625" style="37"/>
+    <col min="10752" max="10752" width="10.90625" style="37" customWidth="1"/>
+    <col min="10753" max="10753" width="22.26953125" style="37" customWidth="1"/>
+    <col min="10754" max="10754" width="8.7265625" style="37"/>
+    <col min="10755" max="10755" width="17" style="37" customWidth="1"/>
+    <col min="10756" max="10756" width="13.90625" style="37" customWidth="1"/>
+    <col min="10757" max="10757" width="20.26953125" style="37" customWidth="1"/>
+    <col min="10758" max="10758" width="13.90625" style="37" customWidth="1"/>
+    <col min="10759" max="10759" width="8.7265625" style="37"/>
+    <col min="10760" max="10760" width="17.90625" style="37" customWidth="1"/>
+    <col min="10761" max="10761" width="8.7265625" style="37"/>
+    <col min="10762" max="10762" width="53.6328125" style="37" customWidth="1"/>
+    <col min="10763" max="11007" width="8.7265625" style="37"/>
+    <col min="11008" max="11008" width="10.90625" style="37" customWidth="1"/>
+    <col min="11009" max="11009" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11010" max="11010" width="8.7265625" style="37"/>
+    <col min="11011" max="11011" width="17" style="37" customWidth="1"/>
+    <col min="11012" max="11012" width="13.90625" style="37" customWidth="1"/>
+    <col min="11013" max="11013" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11014" max="11014" width="13.90625" style="37" customWidth="1"/>
+    <col min="11015" max="11015" width="8.7265625" style="37"/>
+    <col min="11016" max="11016" width="17.90625" style="37" customWidth="1"/>
+    <col min="11017" max="11017" width="8.7265625" style="37"/>
+    <col min="11018" max="11018" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11019" max="11263" width="8.7265625" style="37"/>
+    <col min="11264" max="11264" width="10.90625" style="37" customWidth="1"/>
+    <col min="11265" max="11265" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11266" max="11266" width="8.7265625" style="37"/>
+    <col min="11267" max="11267" width="17" style="37" customWidth="1"/>
+    <col min="11268" max="11268" width="13.90625" style="37" customWidth="1"/>
+    <col min="11269" max="11269" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11270" max="11270" width="13.90625" style="37" customWidth="1"/>
+    <col min="11271" max="11271" width="8.7265625" style="37"/>
+    <col min="11272" max="11272" width="17.90625" style="37" customWidth="1"/>
+    <col min="11273" max="11273" width="8.7265625" style="37"/>
+    <col min="11274" max="11274" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11275" max="11519" width="8.7265625" style="37"/>
+    <col min="11520" max="11520" width="10.90625" style="37" customWidth="1"/>
+    <col min="11521" max="11521" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11522" max="11522" width="8.7265625" style="37"/>
+    <col min="11523" max="11523" width="17" style="37" customWidth="1"/>
+    <col min="11524" max="11524" width="13.90625" style="37" customWidth="1"/>
+    <col min="11525" max="11525" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11526" max="11526" width="13.90625" style="37" customWidth="1"/>
+    <col min="11527" max="11527" width="8.7265625" style="37"/>
+    <col min="11528" max="11528" width="17.90625" style="37" customWidth="1"/>
+    <col min="11529" max="11529" width="8.7265625" style="37"/>
+    <col min="11530" max="11530" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11531" max="11775" width="8.7265625" style="37"/>
+    <col min="11776" max="11776" width="10.90625" style="37" customWidth="1"/>
+    <col min="11777" max="11777" width="22.26953125" style="37" customWidth="1"/>
+    <col min="11778" max="11778" width="8.7265625" style="37"/>
+    <col min="11779" max="11779" width="17" style="37" customWidth="1"/>
+    <col min="11780" max="11780" width="13.90625" style="37" customWidth="1"/>
+    <col min="11781" max="11781" width="20.26953125" style="37" customWidth="1"/>
+    <col min="11782" max="11782" width="13.90625" style="37" customWidth="1"/>
+    <col min="11783" max="11783" width="8.7265625" style="37"/>
+    <col min="11784" max="11784" width="17.90625" style="37" customWidth="1"/>
+    <col min="11785" max="11785" width="8.7265625" style="37"/>
+    <col min="11786" max="11786" width="53.6328125" style="37" customWidth="1"/>
+    <col min="11787" max="12031" width="8.7265625" style="37"/>
+    <col min="12032" max="12032" width="10.90625" style="37" customWidth="1"/>
+    <col min="12033" max="12033" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12034" max="12034" width="8.7265625" style="37"/>
+    <col min="12035" max="12035" width="17" style="37" customWidth="1"/>
+    <col min="12036" max="12036" width="13.90625" style="37" customWidth="1"/>
+    <col min="12037" max="12037" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12038" max="12038" width="13.90625" style="37" customWidth="1"/>
+    <col min="12039" max="12039" width="8.7265625" style="37"/>
+    <col min="12040" max="12040" width="17.90625" style="37" customWidth="1"/>
+    <col min="12041" max="12041" width="8.7265625" style="37"/>
+    <col min="12042" max="12042" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12043" max="12287" width="8.7265625" style="37"/>
+    <col min="12288" max="12288" width="10.90625" style="37" customWidth="1"/>
+    <col min="12289" max="12289" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12290" max="12290" width="8.7265625" style="37"/>
+    <col min="12291" max="12291" width="17" style="37" customWidth="1"/>
+    <col min="12292" max="12292" width="13.90625" style="37" customWidth="1"/>
+    <col min="12293" max="12293" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12294" max="12294" width="13.90625" style="37" customWidth="1"/>
+    <col min="12295" max="12295" width="8.7265625" style="37"/>
+    <col min="12296" max="12296" width="17.90625" style="37" customWidth="1"/>
+    <col min="12297" max="12297" width="8.7265625" style="37"/>
+    <col min="12298" max="12298" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12299" max="12543" width="8.7265625" style="37"/>
+    <col min="12544" max="12544" width="10.90625" style="37" customWidth="1"/>
+    <col min="12545" max="12545" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12546" max="12546" width="8.7265625" style="37"/>
+    <col min="12547" max="12547" width="17" style="37" customWidth="1"/>
+    <col min="12548" max="12548" width="13.90625" style="37" customWidth="1"/>
+    <col min="12549" max="12549" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12550" max="12550" width="13.90625" style="37" customWidth="1"/>
+    <col min="12551" max="12551" width="8.7265625" style="37"/>
+    <col min="12552" max="12552" width="17.90625" style="37" customWidth="1"/>
+    <col min="12553" max="12553" width="8.7265625" style="37"/>
+    <col min="12554" max="12554" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12555" max="12799" width="8.7265625" style="37"/>
+    <col min="12800" max="12800" width="10.90625" style="37" customWidth="1"/>
+    <col min="12801" max="12801" width="22.26953125" style="37" customWidth="1"/>
+    <col min="12802" max="12802" width="8.7265625" style="37"/>
+    <col min="12803" max="12803" width="17" style="37" customWidth="1"/>
+    <col min="12804" max="12804" width="13.90625" style="37" customWidth="1"/>
+    <col min="12805" max="12805" width="20.26953125" style="37" customWidth="1"/>
+    <col min="12806" max="12806" width="13.90625" style="37" customWidth="1"/>
+    <col min="12807" max="12807" width="8.7265625" style="37"/>
+    <col min="12808" max="12808" width="17.90625" style="37" customWidth="1"/>
+    <col min="12809" max="12809" width="8.7265625" style="37"/>
+    <col min="12810" max="12810" width="53.6328125" style="37" customWidth="1"/>
+    <col min="12811" max="13055" width="8.7265625" style="37"/>
+    <col min="13056" max="13056" width="10.90625" style="37" customWidth="1"/>
+    <col min="13057" max="13057" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13058" max="13058" width="8.7265625" style="37"/>
+    <col min="13059" max="13059" width="17" style="37" customWidth="1"/>
+    <col min="13060" max="13060" width="13.90625" style="37" customWidth="1"/>
+    <col min="13061" max="13061" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13062" max="13062" width="13.90625" style="37" customWidth="1"/>
+    <col min="13063" max="13063" width="8.7265625" style="37"/>
+    <col min="13064" max="13064" width="17.90625" style="37" customWidth="1"/>
+    <col min="13065" max="13065" width="8.7265625" style="37"/>
+    <col min="13066" max="13066" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13067" max="13311" width="8.7265625" style="37"/>
+    <col min="13312" max="13312" width="10.90625" style="37" customWidth="1"/>
+    <col min="13313" max="13313" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13314" max="13314" width="8.7265625" style="37"/>
+    <col min="13315" max="13315" width="17" style="37" customWidth="1"/>
+    <col min="13316" max="13316" width="13.90625" style="37" customWidth="1"/>
+    <col min="13317" max="13317" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13318" max="13318" width="13.90625" style="37" customWidth="1"/>
+    <col min="13319" max="13319" width="8.7265625" style="37"/>
+    <col min="13320" max="13320" width="17.90625" style="37" customWidth="1"/>
+    <col min="13321" max="13321" width="8.7265625" style="37"/>
+    <col min="13322" max="13322" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13323" max="13567" width="8.7265625" style="37"/>
+    <col min="13568" max="13568" width="10.90625" style="37" customWidth="1"/>
+    <col min="13569" max="13569" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13570" max="13570" width="8.7265625" style="37"/>
+    <col min="13571" max="13571" width="17" style="37" customWidth="1"/>
+    <col min="13572" max="13572" width="13.90625" style="37" customWidth="1"/>
+    <col min="13573" max="13573" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13574" max="13574" width="13.90625" style="37" customWidth="1"/>
+    <col min="13575" max="13575" width="8.7265625" style="37"/>
+    <col min="13576" max="13576" width="17.90625" style="37" customWidth="1"/>
+    <col min="13577" max="13577" width="8.7265625" style="37"/>
+    <col min="13578" max="13578" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13579" max="13823" width="8.7265625" style="37"/>
+    <col min="13824" max="13824" width="10.90625" style="37" customWidth="1"/>
+    <col min="13825" max="13825" width="22.26953125" style="37" customWidth="1"/>
+    <col min="13826" max="13826" width="8.7265625" style="37"/>
+    <col min="13827" max="13827" width="17" style="37" customWidth="1"/>
+    <col min="13828" max="13828" width="13.90625" style="37" customWidth="1"/>
+    <col min="13829" max="13829" width="20.26953125" style="37" customWidth="1"/>
+    <col min="13830" max="13830" width="13.90625" style="37" customWidth="1"/>
+    <col min="13831" max="13831" width="8.7265625" style="37"/>
+    <col min="13832" max="13832" width="17.90625" style="37" customWidth="1"/>
+    <col min="13833" max="13833" width="8.7265625" style="37"/>
+    <col min="13834" max="13834" width="53.6328125" style="37" customWidth="1"/>
+    <col min="13835" max="14079" width="8.7265625" style="37"/>
+    <col min="14080" max="14080" width="10.90625" style="37" customWidth="1"/>
+    <col min="14081" max="14081" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14082" max="14082" width="8.7265625" style="37"/>
+    <col min="14083" max="14083" width="17" style="37" customWidth="1"/>
+    <col min="14084" max="14084" width="13.90625" style="37" customWidth="1"/>
+    <col min="14085" max="14085" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14086" max="14086" width="13.90625" style="37" customWidth="1"/>
+    <col min="14087" max="14087" width="8.7265625" style="37"/>
+    <col min="14088" max="14088" width="17.90625" style="37" customWidth="1"/>
+    <col min="14089" max="14089" width="8.7265625" style="37"/>
+    <col min="14090" max="14090" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14091" max="14335" width="8.7265625" style="37"/>
+    <col min="14336" max="14336" width="10.90625" style="37" customWidth="1"/>
+    <col min="14337" max="14337" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14338" max="14338" width="8.7265625" style="37"/>
+    <col min="14339" max="14339" width="17" style="37" customWidth="1"/>
+    <col min="14340" max="14340" width="13.90625" style="37" customWidth="1"/>
+    <col min="14341" max="14341" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14342" max="14342" width="13.90625" style="37" customWidth="1"/>
+    <col min="14343" max="14343" width="8.7265625" style="37"/>
+    <col min="14344" max="14344" width="17.90625" style="37" customWidth="1"/>
+    <col min="14345" max="14345" width="8.7265625" style="37"/>
+    <col min="14346" max="14346" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14347" max="14591" width="8.7265625" style="37"/>
+    <col min="14592" max="14592" width="10.90625" style="37" customWidth="1"/>
+    <col min="14593" max="14593" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14594" max="14594" width="8.7265625" style="37"/>
+    <col min="14595" max="14595" width="17" style="37" customWidth="1"/>
+    <col min="14596" max="14596" width="13.90625" style="37" customWidth="1"/>
+    <col min="14597" max="14597" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14598" max="14598" width="13.90625" style="37" customWidth="1"/>
+    <col min="14599" max="14599" width="8.7265625" style="37"/>
+    <col min="14600" max="14600" width="17.90625" style="37" customWidth="1"/>
+    <col min="14601" max="14601" width="8.7265625" style="37"/>
+    <col min="14602" max="14602" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14603" max="14847" width="8.7265625" style="37"/>
+    <col min="14848" max="14848" width="10.90625" style="37" customWidth="1"/>
+    <col min="14849" max="14849" width="22.26953125" style="37" customWidth="1"/>
+    <col min="14850" max="14850" width="8.7265625" style="37"/>
+    <col min="14851" max="14851" width="17" style="37" customWidth="1"/>
+    <col min="14852" max="14852" width="13.90625" style="37" customWidth="1"/>
+    <col min="14853" max="14853" width="20.26953125" style="37" customWidth="1"/>
+    <col min="14854" max="14854" width="13.90625" style="37" customWidth="1"/>
+    <col min="14855" max="14855" width="8.7265625" style="37"/>
+    <col min="14856" max="14856" width="17.90625" style="37" customWidth="1"/>
+    <col min="14857" max="14857" width="8.7265625" style="37"/>
+    <col min="14858" max="14858" width="53.6328125" style="37" customWidth="1"/>
+    <col min="14859" max="15103" width="8.7265625" style="37"/>
+    <col min="15104" max="15104" width="10.90625" style="37" customWidth="1"/>
+    <col min="15105" max="15105" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15106" max="15106" width="8.7265625" style="37"/>
+    <col min="15107" max="15107" width="17" style="37" customWidth="1"/>
+    <col min="15108" max="15108" width="13.90625" style="37" customWidth="1"/>
+    <col min="15109" max="15109" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15110" max="15110" width="13.90625" style="37" customWidth="1"/>
+    <col min="15111" max="15111" width="8.7265625" style="37"/>
+    <col min="15112" max="15112" width="17.90625" style="37" customWidth="1"/>
+    <col min="15113" max="15113" width="8.7265625" style="37"/>
+    <col min="15114" max="15114" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15115" max="15359" width="8.7265625" style="37"/>
+    <col min="15360" max="15360" width="10.90625" style="37" customWidth="1"/>
+    <col min="15361" max="15361" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15362" max="15362" width="8.7265625" style="37"/>
+    <col min="15363" max="15363" width="17" style="37" customWidth="1"/>
+    <col min="15364" max="15364" width="13.90625" style="37" customWidth="1"/>
+    <col min="15365" max="15365" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15366" max="15366" width="13.90625" style="37" customWidth="1"/>
+    <col min="15367" max="15367" width="8.7265625" style="37"/>
+    <col min="15368" max="15368" width="17.90625" style="37" customWidth="1"/>
+    <col min="15369" max="15369" width="8.7265625" style="37"/>
+    <col min="15370" max="15370" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15371" max="15615" width="8.7265625" style="37"/>
+    <col min="15616" max="15616" width="10.90625" style="37" customWidth="1"/>
+    <col min="15617" max="15617" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15618" max="15618" width="8.7265625" style="37"/>
+    <col min="15619" max="15619" width="17" style="37" customWidth="1"/>
+    <col min="15620" max="15620" width="13.90625" style="37" customWidth="1"/>
+    <col min="15621" max="15621" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15622" max="15622" width="13.90625" style="37" customWidth="1"/>
+    <col min="15623" max="15623" width="8.7265625" style="37"/>
+    <col min="15624" max="15624" width="17.90625" style="37" customWidth="1"/>
+    <col min="15625" max="15625" width="8.7265625" style="37"/>
+    <col min="15626" max="15626" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15627" max="15871" width="8.7265625" style="37"/>
+    <col min="15872" max="15872" width="10.90625" style="37" customWidth="1"/>
+    <col min="15873" max="15873" width="22.26953125" style="37" customWidth="1"/>
+    <col min="15874" max="15874" width="8.7265625" style="37"/>
+    <col min="15875" max="15875" width="17" style="37" customWidth="1"/>
+    <col min="15876" max="15876" width="13.90625" style="37" customWidth="1"/>
+    <col min="15877" max="15877" width="20.26953125" style="37" customWidth="1"/>
+    <col min="15878" max="15878" width="13.90625" style="37" customWidth="1"/>
+    <col min="15879" max="15879" width="8.7265625" style="37"/>
+    <col min="15880" max="15880" width="17.90625" style="37" customWidth="1"/>
+    <col min="15881" max="15881" width="8.7265625" style="37"/>
+    <col min="15882" max="15882" width="53.6328125" style="37" customWidth="1"/>
+    <col min="15883" max="16127" width="8.7265625" style="37"/>
+    <col min="16128" max="16128" width="10.90625" style="37" customWidth="1"/>
+    <col min="16129" max="16129" width="22.26953125" style="37" customWidth="1"/>
+    <col min="16130" max="16130" width="8.7265625" style="37"/>
+    <col min="16131" max="16131" width="17" style="37" customWidth="1"/>
+    <col min="16132" max="16132" width="13.90625" style="37" customWidth="1"/>
+    <col min="16133" max="16133" width="20.26953125" style="37" customWidth="1"/>
+    <col min="16134" max="16134" width="13.90625" style="37" customWidth="1"/>
+    <col min="16135" max="16135" width="8.7265625" style="37"/>
+    <col min="16136" max="16136" width="17.90625" style="37" customWidth="1"/>
+    <col min="16137" max="16137" width="8.7265625" style="37"/>
+    <col min="16138" max="16138" width="53.6328125" style="37" customWidth="1"/>
+    <col min="16139" max="16384" width="8.7265625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="31" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="31" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="31" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="33" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="34" t="s">
+        <v>976</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="68" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="68" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="68" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>971</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="68" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>971</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>312</v>
+      </c>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="68" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>971</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="78" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+    </row>
+    <row r="13" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>971</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>421</v>
+      </c>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="68" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="68" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+    </row>
+    <row r="16" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="68" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+    </row>
+    <row r="17" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="68" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>971</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="68" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E18" s="80" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>971</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>430</v>
+      </c>
+      <c r="H18" s="68" t="s">
+        <v>431</v>
+      </c>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="68" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>971</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="H19" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="31" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="31" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>971</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{150C8F3C-152C-4725-ACEB-686C247A329B}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDB70F2-A83C-4A22-9A26-FC6D53CC0692}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15882,14 +19026,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F64286E-59CC-471D-9EBF-04664B927C60}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -16763,7 +19904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10997117-CBE1-4ECD-9BC6-C8E99561FD60}">
   <dimension ref="A1:K38"/>
   <sheetViews>
@@ -17918,7 +21059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA23957-5739-4649-99F3-C386B4ED6B49}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -18840,7 +21981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264A0E63-654A-4241-8D6A-763EA143F33E}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -19272,1571 +22413,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A041E8E2-47BE-478A-82CC-ADE978755671}">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.1796875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="17" style="37" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" style="37" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="37"/>
-    <col min="8" max="8" width="17.90625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="37"/>
-    <col min="10" max="10" width="53.6328125" style="37" customWidth="1"/>
-    <col min="11" max="255" width="8.7265625" style="37"/>
-    <col min="256" max="256" width="10.90625" style="37" customWidth="1"/>
-    <col min="257" max="257" width="22.26953125" style="37" customWidth="1"/>
-    <col min="258" max="258" width="8.7265625" style="37"/>
-    <col min="259" max="259" width="17" style="37" customWidth="1"/>
-    <col min="260" max="260" width="13.90625" style="37" customWidth="1"/>
-    <col min="261" max="261" width="20.26953125" style="37" customWidth="1"/>
-    <col min="262" max="262" width="13.90625" style="37" customWidth="1"/>
-    <col min="263" max="263" width="8.7265625" style="37"/>
-    <col min="264" max="264" width="17.90625" style="37" customWidth="1"/>
-    <col min="265" max="265" width="8.7265625" style="37"/>
-    <col min="266" max="266" width="53.6328125" style="37" customWidth="1"/>
-    <col min="267" max="511" width="8.7265625" style="37"/>
-    <col min="512" max="512" width="10.90625" style="37" customWidth="1"/>
-    <col min="513" max="513" width="22.26953125" style="37" customWidth="1"/>
-    <col min="514" max="514" width="8.7265625" style="37"/>
-    <col min="515" max="515" width="17" style="37" customWidth="1"/>
-    <col min="516" max="516" width="13.90625" style="37" customWidth="1"/>
-    <col min="517" max="517" width="20.26953125" style="37" customWidth="1"/>
-    <col min="518" max="518" width="13.90625" style="37" customWidth="1"/>
-    <col min="519" max="519" width="8.7265625" style="37"/>
-    <col min="520" max="520" width="17.90625" style="37" customWidth="1"/>
-    <col min="521" max="521" width="8.7265625" style="37"/>
-    <col min="522" max="522" width="53.6328125" style="37" customWidth="1"/>
-    <col min="523" max="767" width="8.7265625" style="37"/>
-    <col min="768" max="768" width="10.90625" style="37" customWidth="1"/>
-    <col min="769" max="769" width="22.26953125" style="37" customWidth="1"/>
-    <col min="770" max="770" width="8.7265625" style="37"/>
-    <col min="771" max="771" width="17" style="37" customWidth="1"/>
-    <col min="772" max="772" width="13.90625" style="37" customWidth="1"/>
-    <col min="773" max="773" width="20.26953125" style="37" customWidth="1"/>
-    <col min="774" max="774" width="13.90625" style="37" customWidth="1"/>
-    <col min="775" max="775" width="8.7265625" style="37"/>
-    <col min="776" max="776" width="17.90625" style="37" customWidth="1"/>
-    <col min="777" max="777" width="8.7265625" style="37"/>
-    <col min="778" max="778" width="53.6328125" style="37" customWidth="1"/>
-    <col min="779" max="1023" width="8.7265625" style="37"/>
-    <col min="1024" max="1024" width="10.90625" style="37" customWidth="1"/>
-    <col min="1025" max="1025" width="22.26953125" style="37" customWidth="1"/>
-    <col min="1026" max="1026" width="8.7265625" style="37"/>
-    <col min="1027" max="1027" width="17" style="37" customWidth="1"/>
-    <col min="1028" max="1028" width="13.90625" style="37" customWidth="1"/>
-    <col min="1029" max="1029" width="20.26953125" style="37" customWidth="1"/>
-    <col min="1030" max="1030" width="13.90625" style="37" customWidth="1"/>
-    <col min="1031" max="1031" width="8.7265625" style="37"/>
-    <col min="1032" max="1032" width="17.90625" style="37" customWidth="1"/>
-    <col min="1033" max="1033" width="8.7265625" style="37"/>
-    <col min="1034" max="1034" width="53.6328125" style="37" customWidth="1"/>
-    <col min="1035" max="1279" width="8.7265625" style="37"/>
-    <col min="1280" max="1280" width="10.90625" style="37" customWidth="1"/>
-    <col min="1281" max="1281" width="22.26953125" style="37" customWidth="1"/>
-    <col min="1282" max="1282" width="8.7265625" style="37"/>
-    <col min="1283" max="1283" width="17" style="37" customWidth="1"/>
-    <col min="1284" max="1284" width="13.90625" style="37" customWidth="1"/>
-    <col min="1285" max="1285" width="20.26953125" style="37" customWidth="1"/>
-    <col min="1286" max="1286" width="13.90625" style="37" customWidth="1"/>
-    <col min="1287" max="1287" width="8.7265625" style="37"/>
-    <col min="1288" max="1288" width="17.90625" style="37" customWidth="1"/>
-    <col min="1289" max="1289" width="8.7265625" style="37"/>
-    <col min="1290" max="1290" width="53.6328125" style="37" customWidth="1"/>
-    <col min="1291" max="1535" width="8.7265625" style="37"/>
-    <col min="1536" max="1536" width="10.90625" style="37" customWidth="1"/>
-    <col min="1537" max="1537" width="22.26953125" style="37" customWidth="1"/>
-    <col min="1538" max="1538" width="8.7265625" style="37"/>
-    <col min="1539" max="1539" width="17" style="37" customWidth="1"/>
-    <col min="1540" max="1540" width="13.90625" style="37" customWidth="1"/>
-    <col min="1541" max="1541" width="20.26953125" style="37" customWidth="1"/>
-    <col min="1542" max="1542" width="13.90625" style="37" customWidth="1"/>
-    <col min="1543" max="1543" width="8.7265625" style="37"/>
-    <col min="1544" max="1544" width="17.90625" style="37" customWidth="1"/>
-    <col min="1545" max="1545" width="8.7265625" style="37"/>
-    <col min="1546" max="1546" width="53.6328125" style="37" customWidth="1"/>
-    <col min="1547" max="1791" width="8.7265625" style="37"/>
-    <col min="1792" max="1792" width="10.90625" style="37" customWidth="1"/>
-    <col min="1793" max="1793" width="22.26953125" style="37" customWidth="1"/>
-    <col min="1794" max="1794" width="8.7265625" style="37"/>
-    <col min="1795" max="1795" width="17" style="37" customWidth="1"/>
-    <col min="1796" max="1796" width="13.90625" style="37" customWidth="1"/>
-    <col min="1797" max="1797" width="20.26953125" style="37" customWidth="1"/>
-    <col min="1798" max="1798" width="13.90625" style="37" customWidth="1"/>
-    <col min="1799" max="1799" width="8.7265625" style="37"/>
-    <col min="1800" max="1800" width="17.90625" style="37" customWidth="1"/>
-    <col min="1801" max="1801" width="8.7265625" style="37"/>
-    <col min="1802" max="1802" width="53.6328125" style="37" customWidth="1"/>
-    <col min="1803" max="2047" width="8.7265625" style="37"/>
-    <col min="2048" max="2048" width="10.90625" style="37" customWidth="1"/>
-    <col min="2049" max="2049" width="22.26953125" style="37" customWidth="1"/>
-    <col min="2050" max="2050" width="8.7265625" style="37"/>
-    <col min="2051" max="2051" width="17" style="37" customWidth="1"/>
-    <col min="2052" max="2052" width="13.90625" style="37" customWidth="1"/>
-    <col min="2053" max="2053" width="20.26953125" style="37" customWidth="1"/>
-    <col min="2054" max="2054" width="13.90625" style="37" customWidth="1"/>
-    <col min="2055" max="2055" width="8.7265625" style="37"/>
-    <col min="2056" max="2056" width="17.90625" style="37" customWidth="1"/>
-    <col min="2057" max="2057" width="8.7265625" style="37"/>
-    <col min="2058" max="2058" width="53.6328125" style="37" customWidth="1"/>
-    <col min="2059" max="2303" width="8.7265625" style="37"/>
-    <col min="2304" max="2304" width="10.90625" style="37" customWidth="1"/>
-    <col min="2305" max="2305" width="22.26953125" style="37" customWidth="1"/>
-    <col min="2306" max="2306" width="8.7265625" style="37"/>
-    <col min="2307" max="2307" width="17" style="37" customWidth="1"/>
-    <col min="2308" max="2308" width="13.90625" style="37" customWidth="1"/>
-    <col min="2309" max="2309" width="20.26953125" style="37" customWidth="1"/>
-    <col min="2310" max="2310" width="13.90625" style="37" customWidth="1"/>
-    <col min="2311" max="2311" width="8.7265625" style="37"/>
-    <col min="2312" max="2312" width="17.90625" style="37" customWidth="1"/>
-    <col min="2313" max="2313" width="8.7265625" style="37"/>
-    <col min="2314" max="2314" width="53.6328125" style="37" customWidth="1"/>
-    <col min="2315" max="2559" width="8.7265625" style="37"/>
-    <col min="2560" max="2560" width="10.90625" style="37" customWidth="1"/>
-    <col min="2561" max="2561" width="22.26953125" style="37" customWidth="1"/>
-    <col min="2562" max="2562" width="8.7265625" style="37"/>
-    <col min="2563" max="2563" width="17" style="37" customWidth="1"/>
-    <col min="2564" max="2564" width="13.90625" style="37" customWidth="1"/>
-    <col min="2565" max="2565" width="20.26953125" style="37" customWidth="1"/>
-    <col min="2566" max="2566" width="13.90625" style="37" customWidth="1"/>
-    <col min="2567" max="2567" width="8.7265625" style="37"/>
-    <col min="2568" max="2568" width="17.90625" style="37" customWidth="1"/>
-    <col min="2569" max="2569" width="8.7265625" style="37"/>
-    <col min="2570" max="2570" width="53.6328125" style="37" customWidth="1"/>
-    <col min="2571" max="2815" width="8.7265625" style="37"/>
-    <col min="2816" max="2816" width="10.90625" style="37" customWidth="1"/>
-    <col min="2817" max="2817" width="22.26953125" style="37" customWidth="1"/>
-    <col min="2818" max="2818" width="8.7265625" style="37"/>
-    <col min="2819" max="2819" width="17" style="37" customWidth="1"/>
-    <col min="2820" max="2820" width="13.90625" style="37" customWidth="1"/>
-    <col min="2821" max="2821" width="20.26953125" style="37" customWidth="1"/>
-    <col min="2822" max="2822" width="13.90625" style="37" customWidth="1"/>
-    <col min="2823" max="2823" width="8.7265625" style="37"/>
-    <col min="2824" max="2824" width="17.90625" style="37" customWidth="1"/>
-    <col min="2825" max="2825" width="8.7265625" style="37"/>
-    <col min="2826" max="2826" width="53.6328125" style="37" customWidth="1"/>
-    <col min="2827" max="3071" width="8.7265625" style="37"/>
-    <col min="3072" max="3072" width="10.90625" style="37" customWidth="1"/>
-    <col min="3073" max="3073" width="22.26953125" style="37" customWidth="1"/>
-    <col min="3074" max="3074" width="8.7265625" style="37"/>
-    <col min="3075" max="3075" width="17" style="37" customWidth="1"/>
-    <col min="3076" max="3076" width="13.90625" style="37" customWidth="1"/>
-    <col min="3077" max="3077" width="20.26953125" style="37" customWidth="1"/>
-    <col min="3078" max="3078" width="13.90625" style="37" customWidth="1"/>
-    <col min="3079" max="3079" width="8.7265625" style="37"/>
-    <col min="3080" max="3080" width="17.90625" style="37" customWidth="1"/>
-    <col min="3081" max="3081" width="8.7265625" style="37"/>
-    <col min="3082" max="3082" width="53.6328125" style="37" customWidth="1"/>
-    <col min="3083" max="3327" width="8.7265625" style="37"/>
-    <col min="3328" max="3328" width="10.90625" style="37" customWidth="1"/>
-    <col min="3329" max="3329" width="22.26953125" style="37" customWidth="1"/>
-    <col min="3330" max="3330" width="8.7265625" style="37"/>
-    <col min="3331" max="3331" width="17" style="37" customWidth="1"/>
-    <col min="3332" max="3332" width="13.90625" style="37" customWidth="1"/>
-    <col min="3333" max="3333" width="20.26953125" style="37" customWidth="1"/>
-    <col min="3334" max="3334" width="13.90625" style="37" customWidth="1"/>
-    <col min="3335" max="3335" width="8.7265625" style="37"/>
-    <col min="3336" max="3336" width="17.90625" style="37" customWidth="1"/>
-    <col min="3337" max="3337" width="8.7265625" style="37"/>
-    <col min="3338" max="3338" width="53.6328125" style="37" customWidth="1"/>
-    <col min="3339" max="3583" width="8.7265625" style="37"/>
-    <col min="3584" max="3584" width="10.90625" style="37" customWidth="1"/>
-    <col min="3585" max="3585" width="22.26953125" style="37" customWidth="1"/>
-    <col min="3586" max="3586" width="8.7265625" style="37"/>
-    <col min="3587" max="3587" width="17" style="37" customWidth="1"/>
-    <col min="3588" max="3588" width="13.90625" style="37" customWidth="1"/>
-    <col min="3589" max="3589" width="20.26953125" style="37" customWidth="1"/>
-    <col min="3590" max="3590" width="13.90625" style="37" customWidth="1"/>
-    <col min="3591" max="3591" width="8.7265625" style="37"/>
-    <col min="3592" max="3592" width="17.90625" style="37" customWidth="1"/>
-    <col min="3593" max="3593" width="8.7265625" style="37"/>
-    <col min="3594" max="3594" width="53.6328125" style="37" customWidth="1"/>
-    <col min="3595" max="3839" width="8.7265625" style="37"/>
-    <col min="3840" max="3840" width="10.90625" style="37" customWidth="1"/>
-    <col min="3841" max="3841" width="22.26953125" style="37" customWidth="1"/>
-    <col min="3842" max="3842" width="8.7265625" style="37"/>
-    <col min="3843" max="3843" width="17" style="37" customWidth="1"/>
-    <col min="3844" max="3844" width="13.90625" style="37" customWidth="1"/>
-    <col min="3845" max="3845" width="20.26953125" style="37" customWidth="1"/>
-    <col min="3846" max="3846" width="13.90625" style="37" customWidth="1"/>
-    <col min="3847" max="3847" width="8.7265625" style="37"/>
-    <col min="3848" max="3848" width="17.90625" style="37" customWidth="1"/>
-    <col min="3849" max="3849" width="8.7265625" style="37"/>
-    <col min="3850" max="3850" width="53.6328125" style="37" customWidth="1"/>
-    <col min="3851" max="4095" width="8.7265625" style="37"/>
-    <col min="4096" max="4096" width="10.90625" style="37" customWidth="1"/>
-    <col min="4097" max="4097" width="22.26953125" style="37" customWidth="1"/>
-    <col min="4098" max="4098" width="8.7265625" style="37"/>
-    <col min="4099" max="4099" width="17" style="37" customWidth="1"/>
-    <col min="4100" max="4100" width="13.90625" style="37" customWidth="1"/>
-    <col min="4101" max="4101" width="20.26953125" style="37" customWidth="1"/>
-    <col min="4102" max="4102" width="13.90625" style="37" customWidth="1"/>
-    <col min="4103" max="4103" width="8.7265625" style="37"/>
-    <col min="4104" max="4104" width="17.90625" style="37" customWidth="1"/>
-    <col min="4105" max="4105" width="8.7265625" style="37"/>
-    <col min="4106" max="4106" width="53.6328125" style="37" customWidth="1"/>
-    <col min="4107" max="4351" width="8.7265625" style="37"/>
-    <col min="4352" max="4352" width="10.90625" style="37" customWidth="1"/>
-    <col min="4353" max="4353" width="22.26953125" style="37" customWidth="1"/>
-    <col min="4354" max="4354" width="8.7265625" style="37"/>
-    <col min="4355" max="4355" width="17" style="37" customWidth="1"/>
-    <col min="4356" max="4356" width="13.90625" style="37" customWidth="1"/>
-    <col min="4357" max="4357" width="20.26953125" style="37" customWidth="1"/>
-    <col min="4358" max="4358" width="13.90625" style="37" customWidth="1"/>
-    <col min="4359" max="4359" width="8.7265625" style="37"/>
-    <col min="4360" max="4360" width="17.90625" style="37" customWidth="1"/>
-    <col min="4361" max="4361" width="8.7265625" style="37"/>
-    <col min="4362" max="4362" width="53.6328125" style="37" customWidth="1"/>
-    <col min="4363" max="4607" width="8.7265625" style="37"/>
-    <col min="4608" max="4608" width="10.90625" style="37" customWidth="1"/>
-    <col min="4609" max="4609" width="22.26953125" style="37" customWidth="1"/>
-    <col min="4610" max="4610" width="8.7265625" style="37"/>
-    <col min="4611" max="4611" width="17" style="37" customWidth="1"/>
-    <col min="4612" max="4612" width="13.90625" style="37" customWidth="1"/>
-    <col min="4613" max="4613" width="20.26953125" style="37" customWidth="1"/>
-    <col min="4614" max="4614" width="13.90625" style="37" customWidth="1"/>
-    <col min="4615" max="4615" width="8.7265625" style="37"/>
-    <col min="4616" max="4616" width="17.90625" style="37" customWidth="1"/>
-    <col min="4617" max="4617" width="8.7265625" style="37"/>
-    <col min="4618" max="4618" width="53.6328125" style="37" customWidth="1"/>
-    <col min="4619" max="4863" width="8.7265625" style="37"/>
-    <col min="4864" max="4864" width="10.90625" style="37" customWidth="1"/>
-    <col min="4865" max="4865" width="22.26953125" style="37" customWidth="1"/>
-    <col min="4866" max="4866" width="8.7265625" style="37"/>
-    <col min="4867" max="4867" width="17" style="37" customWidth="1"/>
-    <col min="4868" max="4868" width="13.90625" style="37" customWidth="1"/>
-    <col min="4869" max="4869" width="20.26953125" style="37" customWidth="1"/>
-    <col min="4870" max="4870" width="13.90625" style="37" customWidth="1"/>
-    <col min="4871" max="4871" width="8.7265625" style="37"/>
-    <col min="4872" max="4872" width="17.90625" style="37" customWidth="1"/>
-    <col min="4873" max="4873" width="8.7265625" style="37"/>
-    <col min="4874" max="4874" width="53.6328125" style="37" customWidth="1"/>
-    <col min="4875" max="5119" width="8.7265625" style="37"/>
-    <col min="5120" max="5120" width="10.90625" style="37" customWidth="1"/>
-    <col min="5121" max="5121" width="22.26953125" style="37" customWidth="1"/>
-    <col min="5122" max="5122" width="8.7265625" style="37"/>
-    <col min="5123" max="5123" width="17" style="37" customWidth="1"/>
-    <col min="5124" max="5124" width="13.90625" style="37" customWidth="1"/>
-    <col min="5125" max="5125" width="20.26953125" style="37" customWidth="1"/>
-    <col min="5126" max="5126" width="13.90625" style="37" customWidth="1"/>
-    <col min="5127" max="5127" width="8.7265625" style="37"/>
-    <col min="5128" max="5128" width="17.90625" style="37" customWidth="1"/>
-    <col min="5129" max="5129" width="8.7265625" style="37"/>
-    <col min="5130" max="5130" width="53.6328125" style="37" customWidth="1"/>
-    <col min="5131" max="5375" width="8.7265625" style="37"/>
-    <col min="5376" max="5376" width="10.90625" style="37" customWidth="1"/>
-    <col min="5377" max="5377" width="22.26953125" style="37" customWidth="1"/>
-    <col min="5378" max="5378" width="8.7265625" style="37"/>
-    <col min="5379" max="5379" width="17" style="37" customWidth="1"/>
-    <col min="5380" max="5380" width="13.90625" style="37" customWidth="1"/>
-    <col min="5381" max="5381" width="20.26953125" style="37" customWidth="1"/>
-    <col min="5382" max="5382" width="13.90625" style="37" customWidth="1"/>
-    <col min="5383" max="5383" width="8.7265625" style="37"/>
-    <col min="5384" max="5384" width="17.90625" style="37" customWidth="1"/>
-    <col min="5385" max="5385" width="8.7265625" style="37"/>
-    <col min="5386" max="5386" width="53.6328125" style="37" customWidth="1"/>
-    <col min="5387" max="5631" width="8.7265625" style="37"/>
-    <col min="5632" max="5632" width="10.90625" style="37" customWidth="1"/>
-    <col min="5633" max="5633" width="22.26953125" style="37" customWidth="1"/>
-    <col min="5634" max="5634" width="8.7265625" style="37"/>
-    <col min="5635" max="5635" width="17" style="37" customWidth="1"/>
-    <col min="5636" max="5636" width="13.90625" style="37" customWidth="1"/>
-    <col min="5637" max="5637" width="20.26953125" style="37" customWidth="1"/>
-    <col min="5638" max="5638" width="13.90625" style="37" customWidth="1"/>
-    <col min="5639" max="5639" width="8.7265625" style="37"/>
-    <col min="5640" max="5640" width="17.90625" style="37" customWidth="1"/>
-    <col min="5641" max="5641" width="8.7265625" style="37"/>
-    <col min="5642" max="5642" width="53.6328125" style="37" customWidth="1"/>
-    <col min="5643" max="5887" width="8.7265625" style="37"/>
-    <col min="5888" max="5888" width="10.90625" style="37" customWidth="1"/>
-    <col min="5889" max="5889" width="22.26953125" style="37" customWidth="1"/>
-    <col min="5890" max="5890" width="8.7265625" style="37"/>
-    <col min="5891" max="5891" width="17" style="37" customWidth="1"/>
-    <col min="5892" max="5892" width="13.90625" style="37" customWidth="1"/>
-    <col min="5893" max="5893" width="20.26953125" style="37" customWidth="1"/>
-    <col min="5894" max="5894" width="13.90625" style="37" customWidth="1"/>
-    <col min="5895" max="5895" width="8.7265625" style="37"/>
-    <col min="5896" max="5896" width="17.90625" style="37" customWidth="1"/>
-    <col min="5897" max="5897" width="8.7265625" style="37"/>
-    <col min="5898" max="5898" width="53.6328125" style="37" customWidth="1"/>
-    <col min="5899" max="6143" width="8.7265625" style="37"/>
-    <col min="6144" max="6144" width="10.90625" style="37" customWidth="1"/>
-    <col min="6145" max="6145" width="22.26953125" style="37" customWidth="1"/>
-    <col min="6146" max="6146" width="8.7265625" style="37"/>
-    <col min="6147" max="6147" width="17" style="37" customWidth="1"/>
-    <col min="6148" max="6148" width="13.90625" style="37" customWidth="1"/>
-    <col min="6149" max="6149" width="20.26953125" style="37" customWidth="1"/>
-    <col min="6150" max="6150" width="13.90625" style="37" customWidth="1"/>
-    <col min="6151" max="6151" width="8.7265625" style="37"/>
-    <col min="6152" max="6152" width="17.90625" style="37" customWidth="1"/>
-    <col min="6153" max="6153" width="8.7265625" style="37"/>
-    <col min="6154" max="6154" width="53.6328125" style="37" customWidth="1"/>
-    <col min="6155" max="6399" width="8.7265625" style="37"/>
-    <col min="6400" max="6400" width="10.90625" style="37" customWidth="1"/>
-    <col min="6401" max="6401" width="22.26953125" style="37" customWidth="1"/>
-    <col min="6402" max="6402" width="8.7265625" style="37"/>
-    <col min="6403" max="6403" width="17" style="37" customWidth="1"/>
-    <col min="6404" max="6404" width="13.90625" style="37" customWidth="1"/>
-    <col min="6405" max="6405" width="20.26953125" style="37" customWidth="1"/>
-    <col min="6406" max="6406" width="13.90625" style="37" customWidth="1"/>
-    <col min="6407" max="6407" width="8.7265625" style="37"/>
-    <col min="6408" max="6408" width="17.90625" style="37" customWidth="1"/>
-    <col min="6409" max="6409" width="8.7265625" style="37"/>
-    <col min="6410" max="6410" width="53.6328125" style="37" customWidth="1"/>
-    <col min="6411" max="6655" width="8.7265625" style="37"/>
-    <col min="6656" max="6656" width="10.90625" style="37" customWidth="1"/>
-    <col min="6657" max="6657" width="22.26953125" style="37" customWidth="1"/>
-    <col min="6658" max="6658" width="8.7265625" style="37"/>
-    <col min="6659" max="6659" width="17" style="37" customWidth="1"/>
-    <col min="6660" max="6660" width="13.90625" style="37" customWidth="1"/>
-    <col min="6661" max="6661" width="20.26953125" style="37" customWidth="1"/>
-    <col min="6662" max="6662" width="13.90625" style="37" customWidth="1"/>
-    <col min="6663" max="6663" width="8.7265625" style="37"/>
-    <col min="6664" max="6664" width="17.90625" style="37" customWidth="1"/>
-    <col min="6665" max="6665" width="8.7265625" style="37"/>
-    <col min="6666" max="6666" width="53.6328125" style="37" customWidth="1"/>
-    <col min="6667" max="6911" width="8.7265625" style="37"/>
-    <col min="6912" max="6912" width="10.90625" style="37" customWidth="1"/>
-    <col min="6913" max="6913" width="22.26953125" style="37" customWidth="1"/>
-    <col min="6914" max="6914" width="8.7265625" style="37"/>
-    <col min="6915" max="6915" width="17" style="37" customWidth="1"/>
-    <col min="6916" max="6916" width="13.90625" style="37" customWidth="1"/>
-    <col min="6917" max="6917" width="20.26953125" style="37" customWidth="1"/>
-    <col min="6918" max="6918" width="13.90625" style="37" customWidth="1"/>
-    <col min="6919" max="6919" width="8.7265625" style="37"/>
-    <col min="6920" max="6920" width="17.90625" style="37" customWidth="1"/>
-    <col min="6921" max="6921" width="8.7265625" style="37"/>
-    <col min="6922" max="6922" width="53.6328125" style="37" customWidth="1"/>
-    <col min="6923" max="7167" width="8.7265625" style="37"/>
-    <col min="7168" max="7168" width="10.90625" style="37" customWidth="1"/>
-    <col min="7169" max="7169" width="22.26953125" style="37" customWidth="1"/>
-    <col min="7170" max="7170" width="8.7265625" style="37"/>
-    <col min="7171" max="7171" width="17" style="37" customWidth="1"/>
-    <col min="7172" max="7172" width="13.90625" style="37" customWidth="1"/>
-    <col min="7173" max="7173" width="20.26953125" style="37" customWidth="1"/>
-    <col min="7174" max="7174" width="13.90625" style="37" customWidth="1"/>
-    <col min="7175" max="7175" width="8.7265625" style="37"/>
-    <col min="7176" max="7176" width="17.90625" style="37" customWidth="1"/>
-    <col min="7177" max="7177" width="8.7265625" style="37"/>
-    <col min="7178" max="7178" width="53.6328125" style="37" customWidth="1"/>
-    <col min="7179" max="7423" width="8.7265625" style="37"/>
-    <col min="7424" max="7424" width="10.90625" style="37" customWidth="1"/>
-    <col min="7425" max="7425" width="22.26953125" style="37" customWidth="1"/>
-    <col min="7426" max="7426" width="8.7265625" style="37"/>
-    <col min="7427" max="7427" width="17" style="37" customWidth="1"/>
-    <col min="7428" max="7428" width="13.90625" style="37" customWidth="1"/>
-    <col min="7429" max="7429" width="20.26953125" style="37" customWidth="1"/>
-    <col min="7430" max="7430" width="13.90625" style="37" customWidth="1"/>
-    <col min="7431" max="7431" width="8.7265625" style="37"/>
-    <col min="7432" max="7432" width="17.90625" style="37" customWidth="1"/>
-    <col min="7433" max="7433" width="8.7265625" style="37"/>
-    <col min="7434" max="7434" width="53.6328125" style="37" customWidth="1"/>
-    <col min="7435" max="7679" width="8.7265625" style="37"/>
-    <col min="7680" max="7680" width="10.90625" style="37" customWidth="1"/>
-    <col min="7681" max="7681" width="22.26953125" style="37" customWidth="1"/>
-    <col min="7682" max="7682" width="8.7265625" style="37"/>
-    <col min="7683" max="7683" width="17" style="37" customWidth="1"/>
-    <col min="7684" max="7684" width="13.90625" style="37" customWidth="1"/>
-    <col min="7685" max="7685" width="20.26953125" style="37" customWidth="1"/>
-    <col min="7686" max="7686" width="13.90625" style="37" customWidth="1"/>
-    <col min="7687" max="7687" width="8.7265625" style="37"/>
-    <col min="7688" max="7688" width="17.90625" style="37" customWidth="1"/>
-    <col min="7689" max="7689" width="8.7265625" style="37"/>
-    <col min="7690" max="7690" width="53.6328125" style="37" customWidth="1"/>
-    <col min="7691" max="7935" width="8.7265625" style="37"/>
-    <col min="7936" max="7936" width="10.90625" style="37" customWidth="1"/>
-    <col min="7937" max="7937" width="22.26953125" style="37" customWidth="1"/>
-    <col min="7938" max="7938" width="8.7265625" style="37"/>
-    <col min="7939" max="7939" width="17" style="37" customWidth="1"/>
-    <col min="7940" max="7940" width="13.90625" style="37" customWidth="1"/>
-    <col min="7941" max="7941" width="20.26953125" style="37" customWidth="1"/>
-    <col min="7942" max="7942" width="13.90625" style="37" customWidth="1"/>
-    <col min="7943" max="7943" width="8.7265625" style="37"/>
-    <col min="7944" max="7944" width="17.90625" style="37" customWidth="1"/>
-    <col min="7945" max="7945" width="8.7265625" style="37"/>
-    <col min="7946" max="7946" width="53.6328125" style="37" customWidth="1"/>
-    <col min="7947" max="8191" width="8.7265625" style="37"/>
-    <col min="8192" max="8192" width="10.90625" style="37" customWidth="1"/>
-    <col min="8193" max="8193" width="22.26953125" style="37" customWidth="1"/>
-    <col min="8194" max="8194" width="8.7265625" style="37"/>
-    <col min="8195" max="8195" width="17" style="37" customWidth="1"/>
-    <col min="8196" max="8196" width="13.90625" style="37" customWidth="1"/>
-    <col min="8197" max="8197" width="20.26953125" style="37" customWidth="1"/>
-    <col min="8198" max="8198" width="13.90625" style="37" customWidth="1"/>
-    <col min="8199" max="8199" width="8.7265625" style="37"/>
-    <col min="8200" max="8200" width="17.90625" style="37" customWidth="1"/>
-    <col min="8201" max="8201" width="8.7265625" style="37"/>
-    <col min="8202" max="8202" width="53.6328125" style="37" customWidth="1"/>
-    <col min="8203" max="8447" width="8.7265625" style="37"/>
-    <col min="8448" max="8448" width="10.90625" style="37" customWidth="1"/>
-    <col min="8449" max="8449" width="22.26953125" style="37" customWidth="1"/>
-    <col min="8450" max="8450" width="8.7265625" style="37"/>
-    <col min="8451" max="8451" width="17" style="37" customWidth="1"/>
-    <col min="8452" max="8452" width="13.90625" style="37" customWidth="1"/>
-    <col min="8453" max="8453" width="20.26953125" style="37" customWidth="1"/>
-    <col min="8454" max="8454" width="13.90625" style="37" customWidth="1"/>
-    <col min="8455" max="8455" width="8.7265625" style="37"/>
-    <col min="8456" max="8456" width="17.90625" style="37" customWidth="1"/>
-    <col min="8457" max="8457" width="8.7265625" style="37"/>
-    <col min="8458" max="8458" width="53.6328125" style="37" customWidth="1"/>
-    <col min="8459" max="8703" width="8.7265625" style="37"/>
-    <col min="8704" max="8704" width="10.90625" style="37" customWidth="1"/>
-    <col min="8705" max="8705" width="22.26953125" style="37" customWidth="1"/>
-    <col min="8706" max="8706" width="8.7265625" style="37"/>
-    <col min="8707" max="8707" width="17" style="37" customWidth="1"/>
-    <col min="8708" max="8708" width="13.90625" style="37" customWidth="1"/>
-    <col min="8709" max="8709" width="20.26953125" style="37" customWidth="1"/>
-    <col min="8710" max="8710" width="13.90625" style="37" customWidth="1"/>
-    <col min="8711" max="8711" width="8.7265625" style="37"/>
-    <col min="8712" max="8712" width="17.90625" style="37" customWidth="1"/>
-    <col min="8713" max="8713" width="8.7265625" style="37"/>
-    <col min="8714" max="8714" width="53.6328125" style="37" customWidth="1"/>
-    <col min="8715" max="8959" width="8.7265625" style="37"/>
-    <col min="8960" max="8960" width="10.90625" style="37" customWidth="1"/>
-    <col min="8961" max="8961" width="22.26953125" style="37" customWidth="1"/>
-    <col min="8962" max="8962" width="8.7265625" style="37"/>
-    <col min="8963" max="8963" width="17" style="37" customWidth="1"/>
-    <col min="8964" max="8964" width="13.90625" style="37" customWidth="1"/>
-    <col min="8965" max="8965" width="20.26953125" style="37" customWidth="1"/>
-    <col min="8966" max="8966" width="13.90625" style="37" customWidth="1"/>
-    <col min="8967" max="8967" width="8.7265625" style="37"/>
-    <col min="8968" max="8968" width="17.90625" style="37" customWidth="1"/>
-    <col min="8969" max="8969" width="8.7265625" style="37"/>
-    <col min="8970" max="8970" width="53.6328125" style="37" customWidth="1"/>
-    <col min="8971" max="9215" width="8.7265625" style="37"/>
-    <col min="9216" max="9216" width="10.90625" style="37" customWidth="1"/>
-    <col min="9217" max="9217" width="22.26953125" style="37" customWidth="1"/>
-    <col min="9218" max="9218" width="8.7265625" style="37"/>
-    <col min="9219" max="9219" width="17" style="37" customWidth="1"/>
-    <col min="9220" max="9220" width="13.90625" style="37" customWidth="1"/>
-    <col min="9221" max="9221" width="20.26953125" style="37" customWidth="1"/>
-    <col min="9222" max="9222" width="13.90625" style="37" customWidth="1"/>
-    <col min="9223" max="9223" width="8.7265625" style="37"/>
-    <col min="9224" max="9224" width="17.90625" style="37" customWidth="1"/>
-    <col min="9225" max="9225" width="8.7265625" style="37"/>
-    <col min="9226" max="9226" width="53.6328125" style="37" customWidth="1"/>
-    <col min="9227" max="9471" width="8.7265625" style="37"/>
-    <col min="9472" max="9472" width="10.90625" style="37" customWidth="1"/>
-    <col min="9473" max="9473" width="22.26953125" style="37" customWidth="1"/>
-    <col min="9474" max="9474" width="8.7265625" style="37"/>
-    <col min="9475" max="9475" width="17" style="37" customWidth="1"/>
-    <col min="9476" max="9476" width="13.90625" style="37" customWidth="1"/>
-    <col min="9477" max="9477" width="20.26953125" style="37" customWidth="1"/>
-    <col min="9478" max="9478" width="13.90625" style="37" customWidth="1"/>
-    <col min="9479" max="9479" width="8.7265625" style="37"/>
-    <col min="9480" max="9480" width="17.90625" style="37" customWidth="1"/>
-    <col min="9481" max="9481" width="8.7265625" style="37"/>
-    <col min="9482" max="9482" width="53.6328125" style="37" customWidth="1"/>
-    <col min="9483" max="9727" width="8.7265625" style="37"/>
-    <col min="9728" max="9728" width="10.90625" style="37" customWidth="1"/>
-    <col min="9729" max="9729" width="22.26953125" style="37" customWidth="1"/>
-    <col min="9730" max="9730" width="8.7265625" style="37"/>
-    <col min="9731" max="9731" width="17" style="37" customWidth="1"/>
-    <col min="9732" max="9732" width="13.90625" style="37" customWidth="1"/>
-    <col min="9733" max="9733" width="20.26953125" style="37" customWidth="1"/>
-    <col min="9734" max="9734" width="13.90625" style="37" customWidth="1"/>
-    <col min="9735" max="9735" width="8.7265625" style="37"/>
-    <col min="9736" max="9736" width="17.90625" style="37" customWidth="1"/>
-    <col min="9737" max="9737" width="8.7265625" style="37"/>
-    <col min="9738" max="9738" width="53.6328125" style="37" customWidth="1"/>
-    <col min="9739" max="9983" width="8.7265625" style="37"/>
-    <col min="9984" max="9984" width="10.90625" style="37" customWidth="1"/>
-    <col min="9985" max="9985" width="22.26953125" style="37" customWidth="1"/>
-    <col min="9986" max="9986" width="8.7265625" style="37"/>
-    <col min="9987" max="9987" width="17" style="37" customWidth="1"/>
-    <col min="9988" max="9988" width="13.90625" style="37" customWidth="1"/>
-    <col min="9989" max="9989" width="20.26953125" style="37" customWidth="1"/>
-    <col min="9990" max="9990" width="13.90625" style="37" customWidth="1"/>
-    <col min="9991" max="9991" width="8.7265625" style="37"/>
-    <col min="9992" max="9992" width="17.90625" style="37" customWidth="1"/>
-    <col min="9993" max="9993" width="8.7265625" style="37"/>
-    <col min="9994" max="9994" width="53.6328125" style="37" customWidth="1"/>
-    <col min="9995" max="10239" width="8.7265625" style="37"/>
-    <col min="10240" max="10240" width="10.90625" style="37" customWidth="1"/>
-    <col min="10241" max="10241" width="22.26953125" style="37" customWidth="1"/>
-    <col min="10242" max="10242" width="8.7265625" style="37"/>
-    <col min="10243" max="10243" width="17" style="37" customWidth="1"/>
-    <col min="10244" max="10244" width="13.90625" style="37" customWidth="1"/>
-    <col min="10245" max="10245" width="20.26953125" style="37" customWidth="1"/>
-    <col min="10246" max="10246" width="13.90625" style="37" customWidth="1"/>
-    <col min="10247" max="10247" width="8.7265625" style="37"/>
-    <col min="10248" max="10248" width="17.90625" style="37" customWidth="1"/>
-    <col min="10249" max="10249" width="8.7265625" style="37"/>
-    <col min="10250" max="10250" width="53.6328125" style="37" customWidth="1"/>
-    <col min="10251" max="10495" width="8.7265625" style="37"/>
-    <col min="10496" max="10496" width="10.90625" style="37" customWidth="1"/>
-    <col min="10497" max="10497" width="22.26953125" style="37" customWidth="1"/>
-    <col min="10498" max="10498" width="8.7265625" style="37"/>
-    <col min="10499" max="10499" width="17" style="37" customWidth="1"/>
-    <col min="10500" max="10500" width="13.90625" style="37" customWidth="1"/>
-    <col min="10501" max="10501" width="20.26953125" style="37" customWidth="1"/>
-    <col min="10502" max="10502" width="13.90625" style="37" customWidth="1"/>
-    <col min="10503" max="10503" width="8.7265625" style="37"/>
-    <col min="10504" max="10504" width="17.90625" style="37" customWidth="1"/>
-    <col min="10505" max="10505" width="8.7265625" style="37"/>
-    <col min="10506" max="10506" width="53.6328125" style="37" customWidth="1"/>
-    <col min="10507" max="10751" width="8.7265625" style="37"/>
-    <col min="10752" max="10752" width="10.90625" style="37" customWidth="1"/>
-    <col min="10753" max="10753" width="22.26953125" style="37" customWidth="1"/>
-    <col min="10754" max="10754" width="8.7265625" style="37"/>
-    <col min="10755" max="10755" width="17" style="37" customWidth="1"/>
-    <col min="10756" max="10756" width="13.90625" style="37" customWidth="1"/>
-    <col min="10757" max="10757" width="20.26953125" style="37" customWidth="1"/>
-    <col min="10758" max="10758" width="13.90625" style="37" customWidth="1"/>
-    <col min="10759" max="10759" width="8.7265625" style="37"/>
-    <col min="10760" max="10760" width="17.90625" style="37" customWidth="1"/>
-    <col min="10761" max="10761" width="8.7265625" style="37"/>
-    <col min="10762" max="10762" width="53.6328125" style="37" customWidth="1"/>
-    <col min="10763" max="11007" width="8.7265625" style="37"/>
-    <col min="11008" max="11008" width="10.90625" style="37" customWidth="1"/>
-    <col min="11009" max="11009" width="22.26953125" style="37" customWidth="1"/>
-    <col min="11010" max="11010" width="8.7265625" style="37"/>
-    <col min="11011" max="11011" width="17" style="37" customWidth="1"/>
-    <col min="11012" max="11012" width="13.90625" style="37" customWidth="1"/>
-    <col min="11013" max="11013" width="20.26953125" style="37" customWidth="1"/>
-    <col min="11014" max="11014" width="13.90625" style="37" customWidth="1"/>
-    <col min="11015" max="11015" width="8.7265625" style="37"/>
-    <col min="11016" max="11016" width="17.90625" style="37" customWidth="1"/>
-    <col min="11017" max="11017" width="8.7265625" style="37"/>
-    <col min="11018" max="11018" width="53.6328125" style="37" customWidth="1"/>
-    <col min="11019" max="11263" width="8.7265625" style="37"/>
-    <col min="11264" max="11264" width="10.90625" style="37" customWidth="1"/>
-    <col min="11265" max="11265" width="22.26953125" style="37" customWidth="1"/>
-    <col min="11266" max="11266" width="8.7265625" style="37"/>
-    <col min="11267" max="11267" width="17" style="37" customWidth="1"/>
-    <col min="11268" max="11268" width="13.90625" style="37" customWidth="1"/>
-    <col min="11269" max="11269" width="20.26953125" style="37" customWidth="1"/>
-    <col min="11270" max="11270" width="13.90625" style="37" customWidth="1"/>
-    <col min="11271" max="11271" width="8.7265625" style="37"/>
-    <col min="11272" max="11272" width="17.90625" style="37" customWidth="1"/>
-    <col min="11273" max="11273" width="8.7265625" style="37"/>
-    <col min="11274" max="11274" width="53.6328125" style="37" customWidth="1"/>
-    <col min="11275" max="11519" width="8.7265625" style="37"/>
-    <col min="11520" max="11520" width="10.90625" style="37" customWidth="1"/>
-    <col min="11521" max="11521" width="22.26953125" style="37" customWidth="1"/>
-    <col min="11522" max="11522" width="8.7265625" style="37"/>
-    <col min="11523" max="11523" width="17" style="37" customWidth="1"/>
-    <col min="11524" max="11524" width="13.90625" style="37" customWidth="1"/>
-    <col min="11525" max="11525" width="20.26953125" style="37" customWidth="1"/>
-    <col min="11526" max="11526" width="13.90625" style="37" customWidth="1"/>
-    <col min="11527" max="11527" width="8.7265625" style="37"/>
-    <col min="11528" max="11528" width="17.90625" style="37" customWidth="1"/>
-    <col min="11529" max="11529" width="8.7265625" style="37"/>
-    <col min="11530" max="11530" width="53.6328125" style="37" customWidth="1"/>
-    <col min="11531" max="11775" width="8.7265625" style="37"/>
-    <col min="11776" max="11776" width="10.90625" style="37" customWidth="1"/>
-    <col min="11777" max="11777" width="22.26953125" style="37" customWidth="1"/>
-    <col min="11778" max="11778" width="8.7265625" style="37"/>
-    <col min="11779" max="11779" width="17" style="37" customWidth="1"/>
-    <col min="11780" max="11780" width="13.90625" style="37" customWidth="1"/>
-    <col min="11781" max="11781" width="20.26953125" style="37" customWidth="1"/>
-    <col min="11782" max="11782" width="13.90625" style="37" customWidth="1"/>
-    <col min="11783" max="11783" width="8.7265625" style="37"/>
-    <col min="11784" max="11784" width="17.90625" style="37" customWidth="1"/>
-    <col min="11785" max="11785" width="8.7265625" style="37"/>
-    <col min="11786" max="11786" width="53.6328125" style="37" customWidth="1"/>
-    <col min="11787" max="12031" width="8.7265625" style="37"/>
-    <col min="12032" max="12032" width="10.90625" style="37" customWidth="1"/>
-    <col min="12033" max="12033" width="22.26953125" style="37" customWidth="1"/>
-    <col min="12034" max="12034" width="8.7265625" style="37"/>
-    <col min="12035" max="12035" width="17" style="37" customWidth="1"/>
-    <col min="12036" max="12036" width="13.90625" style="37" customWidth="1"/>
-    <col min="12037" max="12037" width="20.26953125" style="37" customWidth="1"/>
-    <col min="12038" max="12038" width="13.90625" style="37" customWidth="1"/>
-    <col min="12039" max="12039" width="8.7265625" style="37"/>
-    <col min="12040" max="12040" width="17.90625" style="37" customWidth="1"/>
-    <col min="12041" max="12041" width="8.7265625" style="37"/>
-    <col min="12042" max="12042" width="53.6328125" style="37" customWidth="1"/>
-    <col min="12043" max="12287" width="8.7265625" style="37"/>
-    <col min="12288" max="12288" width="10.90625" style="37" customWidth="1"/>
-    <col min="12289" max="12289" width="22.26953125" style="37" customWidth="1"/>
-    <col min="12290" max="12290" width="8.7265625" style="37"/>
-    <col min="12291" max="12291" width="17" style="37" customWidth="1"/>
-    <col min="12292" max="12292" width="13.90625" style="37" customWidth="1"/>
-    <col min="12293" max="12293" width="20.26953125" style="37" customWidth="1"/>
-    <col min="12294" max="12294" width="13.90625" style="37" customWidth="1"/>
-    <col min="12295" max="12295" width="8.7265625" style="37"/>
-    <col min="12296" max="12296" width="17.90625" style="37" customWidth="1"/>
-    <col min="12297" max="12297" width="8.7265625" style="37"/>
-    <col min="12298" max="12298" width="53.6328125" style="37" customWidth="1"/>
-    <col min="12299" max="12543" width="8.7265625" style="37"/>
-    <col min="12544" max="12544" width="10.90625" style="37" customWidth="1"/>
-    <col min="12545" max="12545" width="22.26953125" style="37" customWidth="1"/>
-    <col min="12546" max="12546" width="8.7265625" style="37"/>
-    <col min="12547" max="12547" width="17" style="37" customWidth="1"/>
-    <col min="12548" max="12548" width="13.90625" style="37" customWidth="1"/>
-    <col min="12549" max="12549" width="20.26953125" style="37" customWidth="1"/>
-    <col min="12550" max="12550" width="13.90625" style="37" customWidth="1"/>
-    <col min="12551" max="12551" width="8.7265625" style="37"/>
-    <col min="12552" max="12552" width="17.90625" style="37" customWidth="1"/>
-    <col min="12553" max="12553" width="8.7265625" style="37"/>
-    <col min="12554" max="12554" width="53.6328125" style="37" customWidth="1"/>
-    <col min="12555" max="12799" width="8.7265625" style="37"/>
-    <col min="12800" max="12800" width="10.90625" style="37" customWidth="1"/>
-    <col min="12801" max="12801" width="22.26953125" style="37" customWidth="1"/>
-    <col min="12802" max="12802" width="8.7265625" style="37"/>
-    <col min="12803" max="12803" width="17" style="37" customWidth="1"/>
-    <col min="12804" max="12804" width="13.90625" style="37" customWidth="1"/>
-    <col min="12805" max="12805" width="20.26953125" style="37" customWidth="1"/>
-    <col min="12806" max="12806" width="13.90625" style="37" customWidth="1"/>
-    <col min="12807" max="12807" width="8.7265625" style="37"/>
-    <col min="12808" max="12808" width="17.90625" style="37" customWidth="1"/>
-    <col min="12809" max="12809" width="8.7265625" style="37"/>
-    <col min="12810" max="12810" width="53.6328125" style="37" customWidth="1"/>
-    <col min="12811" max="13055" width="8.7265625" style="37"/>
-    <col min="13056" max="13056" width="10.90625" style="37" customWidth="1"/>
-    <col min="13057" max="13057" width="22.26953125" style="37" customWidth="1"/>
-    <col min="13058" max="13058" width="8.7265625" style="37"/>
-    <col min="13059" max="13059" width="17" style="37" customWidth="1"/>
-    <col min="13060" max="13060" width="13.90625" style="37" customWidth="1"/>
-    <col min="13061" max="13061" width="20.26953125" style="37" customWidth="1"/>
-    <col min="13062" max="13062" width="13.90625" style="37" customWidth="1"/>
-    <col min="13063" max="13063" width="8.7265625" style="37"/>
-    <col min="13064" max="13064" width="17.90625" style="37" customWidth="1"/>
-    <col min="13065" max="13065" width="8.7265625" style="37"/>
-    <col min="13066" max="13066" width="53.6328125" style="37" customWidth="1"/>
-    <col min="13067" max="13311" width="8.7265625" style="37"/>
-    <col min="13312" max="13312" width="10.90625" style="37" customWidth="1"/>
-    <col min="13313" max="13313" width="22.26953125" style="37" customWidth="1"/>
-    <col min="13314" max="13314" width="8.7265625" style="37"/>
-    <col min="13315" max="13315" width="17" style="37" customWidth="1"/>
-    <col min="13316" max="13316" width="13.90625" style="37" customWidth="1"/>
-    <col min="13317" max="13317" width="20.26953125" style="37" customWidth="1"/>
-    <col min="13318" max="13318" width="13.90625" style="37" customWidth="1"/>
-    <col min="13319" max="13319" width="8.7265625" style="37"/>
-    <col min="13320" max="13320" width="17.90625" style="37" customWidth="1"/>
-    <col min="13321" max="13321" width="8.7265625" style="37"/>
-    <col min="13322" max="13322" width="53.6328125" style="37" customWidth="1"/>
-    <col min="13323" max="13567" width="8.7265625" style="37"/>
-    <col min="13568" max="13568" width="10.90625" style="37" customWidth="1"/>
-    <col min="13569" max="13569" width="22.26953125" style="37" customWidth="1"/>
-    <col min="13570" max="13570" width="8.7265625" style="37"/>
-    <col min="13571" max="13571" width="17" style="37" customWidth="1"/>
-    <col min="13572" max="13572" width="13.90625" style="37" customWidth="1"/>
-    <col min="13573" max="13573" width="20.26953125" style="37" customWidth="1"/>
-    <col min="13574" max="13574" width="13.90625" style="37" customWidth="1"/>
-    <col min="13575" max="13575" width="8.7265625" style="37"/>
-    <col min="13576" max="13576" width="17.90625" style="37" customWidth="1"/>
-    <col min="13577" max="13577" width="8.7265625" style="37"/>
-    <col min="13578" max="13578" width="53.6328125" style="37" customWidth="1"/>
-    <col min="13579" max="13823" width="8.7265625" style="37"/>
-    <col min="13824" max="13824" width="10.90625" style="37" customWidth="1"/>
-    <col min="13825" max="13825" width="22.26953125" style="37" customWidth="1"/>
-    <col min="13826" max="13826" width="8.7265625" style="37"/>
-    <col min="13827" max="13827" width="17" style="37" customWidth="1"/>
-    <col min="13828" max="13828" width="13.90625" style="37" customWidth="1"/>
-    <col min="13829" max="13829" width="20.26953125" style="37" customWidth="1"/>
-    <col min="13830" max="13830" width="13.90625" style="37" customWidth="1"/>
-    <col min="13831" max="13831" width="8.7265625" style="37"/>
-    <col min="13832" max="13832" width="17.90625" style="37" customWidth="1"/>
-    <col min="13833" max="13833" width="8.7265625" style="37"/>
-    <col min="13834" max="13834" width="53.6328125" style="37" customWidth="1"/>
-    <col min="13835" max="14079" width="8.7265625" style="37"/>
-    <col min="14080" max="14080" width="10.90625" style="37" customWidth="1"/>
-    <col min="14081" max="14081" width="22.26953125" style="37" customWidth="1"/>
-    <col min="14082" max="14082" width="8.7265625" style="37"/>
-    <col min="14083" max="14083" width="17" style="37" customWidth="1"/>
-    <col min="14084" max="14084" width="13.90625" style="37" customWidth="1"/>
-    <col min="14085" max="14085" width="20.26953125" style="37" customWidth="1"/>
-    <col min="14086" max="14086" width="13.90625" style="37" customWidth="1"/>
-    <col min="14087" max="14087" width="8.7265625" style="37"/>
-    <col min="14088" max="14088" width="17.90625" style="37" customWidth="1"/>
-    <col min="14089" max="14089" width="8.7265625" style="37"/>
-    <col min="14090" max="14090" width="53.6328125" style="37" customWidth="1"/>
-    <col min="14091" max="14335" width="8.7265625" style="37"/>
-    <col min="14336" max="14336" width="10.90625" style="37" customWidth="1"/>
-    <col min="14337" max="14337" width="22.26953125" style="37" customWidth="1"/>
-    <col min="14338" max="14338" width="8.7265625" style="37"/>
-    <col min="14339" max="14339" width="17" style="37" customWidth="1"/>
-    <col min="14340" max="14340" width="13.90625" style="37" customWidth="1"/>
-    <col min="14341" max="14341" width="20.26953125" style="37" customWidth="1"/>
-    <col min="14342" max="14342" width="13.90625" style="37" customWidth="1"/>
-    <col min="14343" max="14343" width="8.7265625" style="37"/>
-    <col min="14344" max="14344" width="17.90625" style="37" customWidth="1"/>
-    <col min="14345" max="14345" width="8.7265625" style="37"/>
-    <col min="14346" max="14346" width="53.6328125" style="37" customWidth="1"/>
-    <col min="14347" max="14591" width="8.7265625" style="37"/>
-    <col min="14592" max="14592" width="10.90625" style="37" customWidth="1"/>
-    <col min="14593" max="14593" width="22.26953125" style="37" customWidth="1"/>
-    <col min="14594" max="14594" width="8.7265625" style="37"/>
-    <col min="14595" max="14595" width="17" style="37" customWidth="1"/>
-    <col min="14596" max="14596" width="13.90625" style="37" customWidth="1"/>
-    <col min="14597" max="14597" width="20.26953125" style="37" customWidth="1"/>
-    <col min="14598" max="14598" width="13.90625" style="37" customWidth="1"/>
-    <col min="14599" max="14599" width="8.7265625" style="37"/>
-    <col min="14600" max="14600" width="17.90625" style="37" customWidth="1"/>
-    <col min="14601" max="14601" width="8.7265625" style="37"/>
-    <col min="14602" max="14602" width="53.6328125" style="37" customWidth="1"/>
-    <col min="14603" max="14847" width="8.7265625" style="37"/>
-    <col min="14848" max="14848" width="10.90625" style="37" customWidth="1"/>
-    <col min="14849" max="14849" width="22.26953125" style="37" customWidth="1"/>
-    <col min="14850" max="14850" width="8.7265625" style="37"/>
-    <col min="14851" max="14851" width="17" style="37" customWidth="1"/>
-    <col min="14852" max="14852" width="13.90625" style="37" customWidth="1"/>
-    <col min="14853" max="14853" width="20.26953125" style="37" customWidth="1"/>
-    <col min="14854" max="14854" width="13.90625" style="37" customWidth="1"/>
-    <col min="14855" max="14855" width="8.7265625" style="37"/>
-    <col min="14856" max="14856" width="17.90625" style="37" customWidth="1"/>
-    <col min="14857" max="14857" width="8.7265625" style="37"/>
-    <col min="14858" max="14858" width="53.6328125" style="37" customWidth="1"/>
-    <col min="14859" max="15103" width="8.7265625" style="37"/>
-    <col min="15104" max="15104" width="10.90625" style="37" customWidth="1"/>
-    <col min="15105" max="15105" width="22.26953125" style="37" customWidth="1"/>
-    <col min="15106" max="15106" width="8.7265625" style="37"/>
-    <col min="15107" max="15107" width="17" style="37" customWidth="1"/>
-    <col min="15108" max="15108" width="13.90625" style="37" customWidth="1"/>
-    <col min="15109" max="15109" width="20.26953125" style="37" customWidth="1"/>
-    <col min="15110" max="15110" width="13.90625" style="37" customWidth="1"/>
-    <col min="15111" max="15111" width="8.7265625" style="37"/>
-    <col min="15112" max="15112" width="17.90625" style="37" customWidth="1"/>
-    <col min="15113" max="15113" width="8.7265625" style="37"/>
-    <col min="15114" max="15114" width="53.6328125" style="37" customWidth="1"/>
-    <col min="15115" max="15359" width="8.7265625" style="37"/>
-    <col min="15360" max="15360" width="10.90625" style="37" customWidth="1"/>
-    <col min="15361" max="15361" width="22.26953125" style="37" customWidth="1"/>
-    <col min="15362" max="15362" width="8.7265625" style="37"/>
-    <col min="15363" max="15363" width="17" style="37" customWidth="1"/>
-    <col min="15364" max="15364" width="13.90625" style="37" customWidth="1"/>
-    <col min="15365" max="15365" width="20.26953125" style="37" customWidth="1"/>
-    <col min="15366" max="15366" width="13.90625" style="37" customWidth="1"/>
-    <col min="15367" max="15367" width="8.7265625" style="37"/>
-    <col min="15368" max="15368" width="17.90625" style="37" customWidth="1"/>
-    <col min="15369" max="15369" width="8.7265625" style="37"/>
-    <col min="15370" max="15370" width="53.6328125" style="37" customWidth="1"/>
-    <col min="15371" max="15615" width="8.7265625" style="37"/>
-    <col min="15616" max="15616" width="10.90625" style="37" customWidth="1"/>
-    <col min="15617" max="15617" width="22.26953125" style="37" customWidth="1"/>
-    <col min="15618" max="15618" width="8.7265625" style="37"/>
-    <col min="15619" max="15619" width="17" style="37" customWidth="1"/>
-    <col min="15620" max="15620" width="13.90625" style="37" customWidth="1"/>
-    <col min="15621" max="15621" width="20.26953125" style="37" customWidth="1"/>
-    <col min="15622" max="15622" width="13.90625" style="37" customWidth="1"/>
-    <col min="15623" max="15623" width="8.7265625" style="37"/>
-    <col min="15624" max="15624" width="17.90625" style="37" customWidth="1"/>
-    <col min="15625" max="15625" width="8.7265625" style="37"/>
-    <col min="15626" max="15626" width="53.6328125" style="37" customWidth="1"/>
-    <col min="15627" max="15871" width="8.7265625" style="37"/>
-    <col min="15872" max="15872" width="10.90625" style="37" customWidth="1"/>
-    <col min="15873" max="15873" width="22.26953125" style="37" customWidth="1"/>
-    <col min="15874" max="15874" width="8.7265625" style="37"/>
-    <col min="15875" max="15875" width="17" style="37" customWidth="1"/>
-    <col min="15876" max="15876" width="13.90625" style="37" customWidth="1"/>
-    <col min="15877" max="15877" width="20.26953125" style="37" customWidth="1"/>
-    <col min="15878" max="15878" width="13.90625" style="37" customWidth="1"/>
-    <col min="15879" max="15879" width="8.7265625" style="37"/>
-    <col min="15880" max="15880" width="17.90625" style="37" customWidth="1"/>
-    <col min="15881" max="15881" width="8.7265625" style="37"/>
-    <col min="15882" max="15882" width="53.6328125" style="37" customWidth="1"/>
-    <col min="15883" max="16127" width="8.7265625" style="37"/>
-    <col min="16128" max="16128" width="10.90625" style="37" customWidth="1"/>
-    <col min="16129" max="16129" width="22.26953125" style="37" customWidth="1"/>
-    <col min="16130" max="16130" width="8.7265625" style="37"/>
-    <col min="16131" max="16131" width="17" style="37" customWidth="1"/>
-    <col min="16132" max="16132" width="13.90625" style="37" customWidth="1"/>
-    <col min="16133" max="16133" width="20.26953125" style="37" customWidth="1"/>
-    <col min="16134" max="16134" width="13.90625" style="37" customWidth="1"/>
-    <col min="16135" max="16135" width="8.7265625" style="37"/>
-    <col min="16136" max="16136" width="17.90625" style="37" customWidth="1"/>
-    <col min="16137" max="16137" width="8.7265625" style="37"/>
-    <col min="16138" max="16138" width="53.6328125" style="37" customWidth="1"/>
-    <col min="16139" max="16384" width="8.7265625" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>979</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>972</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>973</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>974</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>971</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>975</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="34" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>971</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>975</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="34" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>971</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>975</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>1073</v>
-      </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="34" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>971</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>975</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="34" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD16AA3-41A2-4CE2-A54F-A23529603CBB}">
-  <dimension ref="A1:K20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>979</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>972</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>973</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>974</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>986</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
-        <v>1089</v>
-      </c>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>986</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>1092</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="33" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="33" t="s">
-        <v>1097</v>
-      </c>
-      <c r="K5" s="33"/>
-    </row>
-    <row r="6" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>975</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="33" t="s">
-        <v>1100</v>
-      </c>
-      <c r="K6" s="33"/>
-    </row>
-    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="33" t="s">
-        <v>1103</v>
-      </c>
-      <c r="K7" s="33"/>
-    </row>
-    <row r="8" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>1106</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="33" t="s">
-        <v>1107</v>
-      </c>
-      <c r="K8" s="33"/>
-    </row>
-    <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="33" t="s">
-        <v>1111</v>
-      </c>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>1114</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="33" t="s">
-        <v>1115</v>
-      </c>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="33" t="s">
-        <v>1119</v>
-      </c>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="33" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>976</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>1125</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="33" t="s">
-        <v>1127</v>
-      </c>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>1129</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>1130</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="33" t="s">
-        <v>1131</v>
-      </c>
-      <c r="K14" s="33"/>
-    </row>
-    <row r="15" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15" t="s">
-        <v>1135</v>
-      </c>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>1141</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15" t="s">
-        <v>1143</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="33" t="s">
-        <v>1153</v>
-      </c>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="33" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="54" t="s">
-        <v>654</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>661</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>662</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>1155</v>
-      </c>
-      <c r="K20" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED49655B-86F8-4988-BB40-D6BF7D510C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0066D1-1C38-4F91-9C9E-6BECE226AF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="450" windowWidth="13750" windowHeight="9710" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="70" windowWidth="18200" windowHeight="9820" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="1564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="1570">
   <si>
     <t>Code</t>
   </si>
@@ -5694,6 +5694,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -6072,6 +6073,76 @@
   </si>
   <si>
     <t>Post-approval studies to delineate additional information about the drug's risks, benefits, and optimal use that may be requested by regulatory authorities in conjunction with marketing approval. NOTE: Phase 4 studies could include, but would not be limited to, studying different doses or schedules of administration than were used in Phase 2 studies, use of the drug in other patient populations or other stages of the disease, or use of the drug over a longer period of time. [after FDA CDER handbook, ICH E8] See also phase. (CDISC Glossary)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>encounters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>encounterIds</t>
+    </r>
+  </si>
+  <si>
+    <t>Y (C66736)</t>
+  </si>
+  <si>
+    <t>Update UML Item Name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>trialIntentType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>trialIntentTypes</t>
+    </r>
+  </si>
+  <si>
+    <t>Valid Value Set C66736</t>
+  </si>
+  <si>
+    <t>Update DDF Valid Value Sets tab Attribute name from 'trialIntentType' to 'trialIntentTypes'</t>
   </si>
 </sst>
 </file>
@@ -6642,15 +6713,6 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6701,6 +6763,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6996,10 +7067,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="94" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="95"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -11828,7 +11899,7 @@
     <col min="16137" max="16384" width="8.90625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="90" customFormat="1" ht="47.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="87" customFormat="1" ht="47.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -11855,5752 +11926,5752 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="90" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="91" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="91"/>
+      <c r="G4" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="91" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="94" t="s">
+      <c r="E5" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94" t="s">
+      <c r="F5" s="91"/>
+      <c r="G5" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="91" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94" t="s">
+      <c r="F6" s="91"/>
+      <c r="G6" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="91" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="90" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94" t="s">
+      <c r="F8" s="91"/>
+      <c r="G8" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="91" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="90" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="94" t="s">
+      <c r="G10" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="91" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="94" t="s">
+      <c r="G11" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="94" t="s">
+      <c r="H11" s="91" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94" t="s">
+      <c r="F12" s="91"/>
+      <c r="G12" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="91" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="94" t="s">
+      <c r="E13" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="94" t="s">
+      <c r="G13" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="94" t="s">
+      <c r="H13" s="91" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93" t="s">
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="F14" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="G14" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="93" t="s">
+      <c r="H14" s="90" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94" t="s">
+      <c r="C15" s="91"/>
+      <c r="D15" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="94" t="s">
+      <c r="E15" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94" t="s">
+      <c r="F15" s="91"/>
+      <c r="G15" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="94" t="s">
+      <c r="H15" s="91" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="94" t="s">
+      <c r="E16" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94" t="s">
+      <c r="F16" s="91"/>
+      <c r="G16" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="94" t="s">
+      <c r="H16" s="91" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94" t="s">
+      <c r="C17" s="91"/>
+      <c r="D17" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="94" t="s">
+      <c r="E17" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94" t="s">
+      <c r="F17" s="91"/>
+      <c r="G17" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="94" t="s">
+      <c r="H17" s="91" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94" t="s">
+      <c r="F18" s="91"/>
+      <c r="G18" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="94" t="s">
+      <c r="H18" s="91" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93" t="s">
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="93" t="s">
+      <c r="G19" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="93" t="s">
+      <c r="H19" s="90" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94" t="s">
+      <c r="C20" s="91"/>
+      <c r="D20" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="94" t="s">
+      <c r="E20" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94" t="s">
+      <c r="F20" s="91"/>
+      <c r="G20" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="94" t="s">
+      <c r="H20" s="91" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94" t="s">
+      <c r="C21" s="91"/>
+      <c r="D21" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="94" t="s">
+      <c r="E21" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94" t="s">
+      <c r="F21" s="91"/>
+      <c r="G21" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="94" t="s">
+      <c r="H21" s="91" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94" t="s">
+      <c r="C22" s="91"/>
+      <c r="D22" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="94" t="s">
+      <c r="E22" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94" t="s">
+      <c r="F22" s="91"/>
+      <c r="G22" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="94" t="s">
+      <c r="H22" s="91" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94" t="s">
+      <c r="C23" s="91"/>
+      <c r="D23" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="94" t="s">
+      <c r="E23" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94" t="s">
+      <c r="F23" s="91"/>
+      <c r="G23" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="94" t="s">
+      <c r="H23" s="91" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94" t="s">
+      <c r="C24" s="91"/>
+      <c r="D24" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="94" t="s">
+      <c r="E24" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94" t="s">
+      <c r="F24" s="91"/>
+      <c r="G24" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="94" t="s">
+      <c r="H24" s="91" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94" t="s">
+      <c r="C25" s="91"/>
+      <c r="D25" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="94" t="s">
+      <c r="E25" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94" t="s">
+      <c r="F25" s="91"/>
+      <c r="G25" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="94" t="s">
+      <c r="H25" s="91" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94" t="s">
+      <c r="C26" s="91"/>
+      <c r="D26" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="94" t="s">
+      <c r="E26" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94" t="s">
+      <c r="F26" s="91"/>
+      <c r="G26" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="94" t="s">
+      <c r="H26" s="91" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="93" t="s">
+      <c r="E27" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="93" t="s">
+      <c r="F27" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="G27" s="93" t="s">
+      <c r="G27" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="93" t="s">
+      <c r="H27" s="90" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94" t="s">
+      <c r="C28" s="91"/>
+      <c r="D28" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="94" t="s">
+      <c r="E28" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94" t="s">
+      <c r="F28" s="91"/>
+      <c r="G28" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="H28" s="94" t="s">
+      <c r="H28" s="91" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94" t="s">
+      <c r="C29" s="91"/>
+      <c r="D29" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="94" t="s">
+      <c r="E29" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94" t="s">
+      <c r="F29" s="91"/>
+      <c r="G29" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="94" t="s">
+      <c r="H29" s="91" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94" t="s">
+      <c r="C30" s="91"/>
+      <c r="D30" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="94" t="s">
+      <c r="E30" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94" t="s">
+      <c r="F30" s="91"/>
+      <c r="G30" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="94" t="s">
+      <c r="H30" s="91" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93" t="s">
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="93" t="s">
+      <c r="E31" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="93" t="s">
+      <c r="F31" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="G31" s="93" t="s">
+      <c r="G31" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="93" t="s">
+      <c r="H31" s="90" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94" t="s">
+      <c r="C32" s="91"/>
+      <c r="D32" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="94" t="s">
+      <c r="E32" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94" t="s">
+      <c r="F32" s="91"/>
+      <c r="G32" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="H32" s="94" t="s">
+      <c r="H32" s="91" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94" t="s">
+      <c r="C33" s="91"/>
+      <c r="D33" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="94" t="s">
+      <c r="E33" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94" t="s">
+      <c r="F33" s="91"/>
+      <c r="G33" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="H33" s="94" t="s">
+      <c r="H33" s="91" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94" t="s">
+      <c r="C34" s="91"/>
+      <c r="D34" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="94" t="s">
+      <c r="E34" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94" t="s">
+      <c r="F34" s="91"/>
+      <c r="G34" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="H34" s="94" t="s">
+      <c r="H34" s="91" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94" t="s">
+      <c r="C35" s="91"/>
+      <c r="D35" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="94" t="s">
+      <c r="E35" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94" t="s">
+      <c r="F35" s="91"/>
+      <c r="G35" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="94" t="s">
+      <c r="H35" s="91" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94" t="s">
+      <c r="C36" s="91"/>
+      <c r="D36" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="94" t="s">
+      <c r="E36" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94" t="s">
+      <c r="F36" s="91"/>
+      <c r="G36" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="H36" s="94" t="s">
+      <c r="H36" s="91" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="94" t="s">
+      <c r="B37" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94" t="s">
+      <c r="C37" s="91"/>
+      <c r="D37" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="94" t="s">
+      <c r="E37" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94" t="s">
+      <c r="F37" s="91"/>
+      <c r="G37" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="H37" s="94" t="s">
+      <c r="H37" s="91" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94" t="s">
+      <c r="C38" s="91"/>
+      <c r="D38" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="94" t="s">
+      <c r="E38" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94" t="s">
+      <c r="F38" s="91"/>
+      <c r="G38" s="91" t="s">
         <v>1078</v>
       </c>
-      <c r="H38" s="94" t="s">
+      <c r="H38" s="91" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94" t="s">
+      <c r="C39" s="91"/>
+      <c r="D39" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="94" t="s">
+      <c r="E39" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94" t="s">
+      <c r="F39" s="91"/>
+      <c r="G39" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="H39" s="94" t="s">
+      <c r="H39" s="91" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94" t="s">
+      <c r="C40" s="91"/>
+      <c r="D40" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="94" t="s">
+      <c r="E40" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="94" t="s">
+      <c r="F40" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="G40" s="94" t="s">
+      <c r="G40" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="H40" s="94" t="s">
+      <c r="H40" s="91" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94" t="s">
+      <c r="C41" s="91"/>
+      <c r="D41" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="94" t="s">
+      <c r="E41" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94" t="s">
+      <c r="F41" s="91"/>
+      <c r="G41" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="H41" s="94" t="s">
+      <c r="H41" s="91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94" t="s">
+      <c r="C42" s="91"/>
+      <c r="D42" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="94" t="s">
+      <c r="E42" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="94" t="s">
+      <c r="F42" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="G42" s="94" t="s">
+      <c r="G42" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="H42" s="94" t="s">
+      <c r="H42" s="91" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94" t="s">
+      <c r="C43" s="91"/>
+      <c r="D43" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="94" t="s">
+      <c r="E43" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94" t="s">
+      <c r="F43" s="91"/>
+      <c r="G43" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="H43" s="94" t="s">
+      <c r="H43" s="91" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="94" t="s">
+      <c r="A44" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94" t="s">
+      <c r="C44" s="91"/>
+      <c r="D44" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="94" t="s">
+      <c r="E44" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94" t="s">
+      <c r="F44" s="91"/>
+      <c r="G44" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="94" t="s">
+      <c r="H44" s="91" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="94" t="s">
+      <c r="A45" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94" t="s">
+      <c r="C45" s="91"/>
+      <c r="D45" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="94" t="s">
+      <c r="E45" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94" t="s">
+      <c r="F45" s="91"/>
+      <c r="G45" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="H45" s="94" t="s">
+      <c r="H45" s="91" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94" t="s">
+      <c r="C46" s="91"/>
+      <c r="D46" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="94" t="s">
+      <c r="E46" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94" t="s">
+      <c r="F46" s="91"/>
+      <c r="G46" s="91" t="s">
         <v>1079</v>
       </c>
-      <c r="H46" s="94" t="s">
+      <c r="H46" s="91" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="94" t="s">
+      <c r="B47" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94" t="s">
+      <c r="C47" s="91"/>
+      <c r="D47" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="94" t="s">
+      <c r="E47" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94" t="s">
+      <c r="F47" s="91"/>
+      <c r="G47" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="H47" s="94" t="s">
+      <c r="H47" s="91" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="94" t="s">
+      <c r="A48" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="B48" s="94" t="s">
+      <c r="B48" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94" t="s">
+      <c r="C48" s="91"/>
+      <c r="D48" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="94" t="s">
+      <c r="E48" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94" t="s">
+      <c r="F48" s="91"/>
+      <c r="G48" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="H48" s="94" t="s">
+      <c r="H48" s="91" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A49" s="94" t="s">
+      <c r="A49" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="B49" s="94" t="s">
+      <c r="B49" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94" t="s">
+      <c r="C49" s="91"/>
+      <c r="D49" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="94" t="s">
+      <c r="E49" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94" t="s">
+      <c r="F49" s="91"/>
+      <c r="G49" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="H49" s="94" t="s">
+      <c r="H49" s="91" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A50" s="94" t="s">
+      <c r="A50" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="B50" s="94" t="s">
+      <c r="B50" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94" t="s">
+      <c r="C50" s="91"/>
+      <c r="D50" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="94" t="s">
+      <c r="E50" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94" t="s">
+      <c r="F50" s="91"/>
+      <c r="G50" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="H50" s="94" t="s">
+      <c r="H50" s="91" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="94" t="s">
+      <c r="A51" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94" t="s">
+      <c r="C51" s="91"/>
+      <c r="D51" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="94" t="s">
+      <c r="E51" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94" t="s">
+      <c r="F51" s="91"/>
+      <c r="G51" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="H51" s="94" t="s">
+      <c r="H51" s="91" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A52" s="94" t="s">
+      <c r="A52" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94" t="s">
+      <c r="C52" s="91"/>
+      <c r="D52" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E52" s="94" t="s">
+      <c r="E52" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="F52" s="94" t="s">
+      <c r="F52" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="G52" s="94" t="s">
+      <c r="G52" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="H52" s="94" t="s">
+      <c r="H52" s="91" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="94" t="s">
+      <c r="A53" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="B53" s="94" t="s">
+      <c r="B53" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94" t="s">
+      <c r="C53" s="91"/>
+      <c r="D53" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="94" t="s">
+      <c r="E53" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94" t="s">
+      <c r="F53" s="91"/>
+      <c r="G53" s="91" t="s">
         <v>200</v>
       </c>
-      <c r="H53" s="94" t="s">
+      <c r="H53" s="91" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A54" s="94" t="s">
+      <c r="A54" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="B54" s="94" t="s">
+      <c r="B54" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94" t="s">
+      <c r="C54" s="91"/>
+      <c r="D54" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="94" t="s">
+      <c r="E54" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="F54" s="94" t="s">
+      <c r="F54" s="91" t="s">
         <v>203</v>
       </c>
-      <c r="G54" s="94" t="s">
+      <c r="G54" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="H54" s="94" t="s">
+      <c r="H54" s="91" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="94" t="s">
+      <c r="A55" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="B55" s="94" t="s">
+      <c r="B55" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94" t="s">
+      <c r="C55" s="91"/>
+      <c r="D55" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E55" s="94" t="s">
+      <c r="E55" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94" t="s">
+      <c r="F55" s="91"/>
+      <c r="G55" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="H55" s="94" t="s">
+      <c r="H55" s="91" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="94" t="s">
+      <c r="A56" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="94" t="s">
+      <c r="B56" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94" t="s">
+      <c r="C56" s="91"/>
+      <c r="D56" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="94" t="s">
+      <c r="E56" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94" t="s">
+      <c r="F56" s="91"/>
+      <c r="G56" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="H56" s="94" t="s">
+      <c r="H56" s="91" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A57" s="93" t="s">
+      <c r="A57" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="B57" s="93"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="93" t="s">
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="E57" s="93" t="s">
+      <c r="E57" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="F57" s="93" t="s">
+      <c r="F57" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="G57" s="93" t="s">
+      <c r="G57" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="H57" s="93" t="s">
+      <c r="H57" s="90" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A58" s="94" t="s">
+      <c r="A58" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="B58" s="94" t="s">
+      <c r="B58" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94" t="s">
+      <c r="C58" s="91"/>
+      <c r="D58" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="E58" s="94" t="s">
+      <c r="E58" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94" t="s">
+      <c r="F58" s="91"/>
+      <c r="G58" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="H58" s="94" t="s">
+      <c r="H58" s="91" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A59" s="93" t="s">
+      <c r="A59" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="B59" s="93"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="93" t="s">
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="E59" s="93" t="s">
+      <c r="E59" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="F59" s="93" t="s">
+      <c r="F59" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="G59" s="93" t="s">
+      <c r="G59" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="H59" s="93" t="s">
+      <c r="H59" s="90" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="94" t="s">
+      <c r="A60" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94" t="s">
+      <c r="C60" s="91"/>
+      <c r="D60" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="E60" s="94" t="s">
+      <c r="E60" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94" t="s">
+      <c r="F60" s="91"/>
+      <c r="G60" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="H60" s="94" t="s">
+      <c r="H60" s="91" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A61" s="94" t="s">
+      <c r="A61" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="94" t="s">
+      <c r="B61" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94" t="s">
+      <c r="C61" s="91"/>
+      <c r="D61" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="E61" s="94" t="s">
+      <c r="E61" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="F61" s="94" t="s">
+      <c r="F61" s="91" t="s">
         <v>203</v>
       </c>
-      <c r="G61" s="94" t="s">
+      <c r="G61" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="H61" s="94" t="s">
+      <c r="H61" s="91" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A62" s="93" t="s">
+      <c r="A62" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="B62" s="93"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93" t="s">
+      <c r="B62" s="90"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="E62" s="93" t="s">
+      <c r="E62" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="F62" s="93" t="s">
+      <c r="F62" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="G62" s="93" t="s">
+      <c r="G62" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="H62" s="93" t="s">
+      <c r="H62" s="90" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A63" s="94" t="s">
+      <c r="A63" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="B63" s="94" t="s">
+      <c r="B63" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94" t="s">
+      <c r="C63" s="91"/>
+      <c r="D63" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="E63" s="94" t="s">
+      <c r="E63" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94" t="s">
+      <c r="F63" s="91"/>
+      <c r="G63" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="H63" s="94" t="s">
+      <c r="H63" s="91" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A64" s="94" t="s">
+      <c r="A64" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="B64" s="94" t="s">
+      <c r="B64" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94" t="s">
+      <c r="C64" s="91"/>
+      <c r="D64" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="E64" s="94" t="s">
+      <c r="E64" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94" t="s">
+      <c r="F64" s="91"/>
+      <c r="G64" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="H64" s="94" t="s">
+      <c r="H64" s="91" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A65" s="94" t="s">
+      <c r="A65" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="B65" s="94" t="s">
+      <c r="B65" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94" t="s">
+      <c r="C65" s="91"/>
+      <c r="D65" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="E65" s="94" t="s">
+      <c r="E65" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="F65" s="94"/>
-      <c r="G65" s="94" t="s">
+      <c r="F65" s="91"/>
+      <c r="G65" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="H65" s="94" t="s">
+      <c r="H65" s="91" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A66" s="93" t="s">
+      <c r="A66" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="B66" s="93"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="93" t="s">
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="E66" s="93" t="s">
+      <c r="E66" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="F66" s="93" t="s">
+      <c r="F66" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="G66" s="93" t="s">
+      <c r="G66" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="H66" s="93" t="s">
+      <c r="H66" s="90" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A67" s="94" t="s">
+      <c r="A67" s="91" t="s">
         <v>243</v>
       </c>
-      <c r="B67" s="94" t="s">
+      <c r="B67" s="91" t="s">
         <v>239</v>
       </c>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94" t="s">
+      <c r="C67" s="91"/>
+      <c r="D67" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="E67" s="94" t="s">
+      <c r="E67" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94" t="s">
+      <c r="F67" s="91"/>
+      <c r="G67" s="91" t="s">
         <v>245</v>
       </c>
-      <c r="H67" s="94" t="s">
+      <c r="H67" s="91" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A68" s="94" t="s">
+      <c r="A68" s="91" t="s">
         <v>246</v>
       </c>
-      <c r="B68" s="94" t="s">
+      <c r="B68" s="91" t="s">
         <v>239</v>
       </c>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94" t="s">
+      <c r="C68" s="91"/>
+      <c r="D68" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="E68" s="94" t="s">
+      <c r="E68" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94" t="s">
+      <c r="F68" s="91"/>
+      <c r="G68" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="H68" s="94" t="s">
+      <c r="H68" s="91" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A69" s="93" t="s">
+      <c r="A69" s="90" t="s">
         <v>249</v>
       </c>
-      <c r="B69" s="93"/>
-      <c r="C69" s="93"/>
-      <c r="D69" s="93" t="s">
+      <c r="B69" s="90"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="E69" s="93" t="s">
+      <c r="E69" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="F69" s="93" t="s">
+      <c r="F69" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="G69" s="93" t="s">
+      <c r="G69" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="H69" s="93" t="s">
+      <c r="H69" s="90" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="94" t="s">
+      <c r="A70" s="91" t="s">
         <v>253</v>
       </c>
-      <c r="B70" s="94" t="s">
+      <c r="B70" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94" t="s">
+      <c r="C70" s="91"/>
+      <c r="D70" s="91" t="s">
         <v>250</v>
       </c>
-      <c r="E70" s="94" t="s">
+      <c r="E70" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94" t="s">
+      <c r="F70" s="91"/>
+      <c r="G70" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="H70" s="94" t="s">
+      <c r="H70" s="91" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A71" s="94" t="s">
+      <c r="A71" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="B71" s="94" t="s">
+      <c r="B71" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94" t="s">
+      <c r="C71" s="91"/>
+      <c r="D71" s="91" t="s">
         <v>250</v>
       </c>
-      <c r="E71" s="94" t="s">
+      <c r="E71" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94" t="s">
+      <c r="F71" s="91"/>
+      <c r="G71" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="H71" s="94" t="s">
+      <c r="H71" s="91" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A72" s="93" t="s">
+      <c r="A72" s="90" t="s">
         <v>259</v>
       </c>
-      <c r="B72" s="93"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="93" t="s">
+      <c r="B72" s="90"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="E72" s="93" t="s">
+      <c r="E72" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="F72" s="93" t="s">
+      <c r="F72" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="G72" s="93" t="s">
+      <c r="G72" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="H72" s="93" t="s">
+      <c r="H72" s="90" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="94" t="s">
+      <c r="A73" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94" t="s">
+      <c r="C73" s="91"/>
+      <c r="D73" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="E73" s="94" t="s">
+      <c r="E73" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94" t="s">
+      <c r="F73" s="91"/>
+      <c r="G73" s="91" t="s">
         <v>265</v>
       </c>
-      <c r="H73" s="94" t="s">
+      <c r="H73" s="91" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="94" t="s">
+      <c r="A74" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="B74" s="94" t="s">
+      <c r="B74" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94" t="s">
+      <c r="C74" s="91"/>
+      <c r="D74" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="E74" s="94" t="s">
+      <c r="E74" s="91" t="s">
         <v>267</v>
       </c>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94" t="s">
+      <c r="F74" s="91"/>
+      <c r="G74" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="H74" s="94" t="s">
+      <c r="H74" s="91" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="94" t="s">
+      <c r="A75" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="B75" s="94" t="s">
+      <c r="B75" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="C75" s="94"/>
-      <c r="D75" s="94" t="s">
+      <c r="C75" s="91"/>
+      <c r="D75" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="E75" s="94" t="s">
+      <c r="E75" s="91" t="s">
         <v>270</v>
       </c>
-      <c r="F75" s="94"/>
-      <c r="G75" s="94" t="s">
+      <c r="F75" s="91"/>
+      <c r="G75" s="91" t="s">
         <v>271</v>
       </c>
-      <c r="H75" s="94" t="s">
+      <c r="H75" s="91" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="94" t="s">
+      <c r="A76" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="B76" s="94" t="s">
+      <c r="B76" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="C76" s="94"/>
-      <c r="D76" s="94" t="s">
+      <c r="C76" s="91"/>
+      <c r="D76" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="E76" s="94" t="s">
+      <c r="E76" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="F76" s="94"/>
-      <c r="G76" s="94" t="s">
+      <c r="F76" s="91"/>
+      <c r="G76" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="H76" s="94" t="s">
+      <c r="H76" s="91" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A77" s="93" t="s">
+      <c r="A77" s="90" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="93"/>
-      <c r="C77" s="93"/>
-      <c r="D77" s="93" t="s">
+      <c r="B77" s="90"/>
+      <c r="C77" s="90"/>
+      <c r="D77" s="90" t="s">
         <v>276</v>
       </c>
-      <c r="E77" s="93" t="s">
+      <c r="E77" s="90" t="s">
         <v>276</v>
       </c>
-      <c r="F77" s="93" t="s">
+      <c r="F77" s="90" t="s">
         <v>276</v>
       </c>
-      <c r="G77" s="93" t="s">
+      <c r="G77" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="H77" s="93" t="s">
+      <c r="H77" s="90" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="94" t="s">
+      <c r="A78" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="B78" s="94" t="s">
+      <c r="B78" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="C78" s="94"/>
-      <c r="D78" s="94" t="s">
+      <c r="C78" s="91"/>
+      <c r="D78" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="E78" s="94" t="s">
+      <c r="E78" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="F78" s="94"/>
-      <c r="G78" s="94" t="s">
+      <c r="F78" s="91"/>
+      <c r="G78" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="H78" s="94" t="s">
+      <c r="H78" s="91" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="94" t="s">
+      <c r="A79" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="B79" s="94" t="s">
+      <c r="B79" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="C79" s="94"/>
-      <c r="D79" s="94" t="s">
+      <c r="C79" s="91"/>
+      <c r="D79" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="E79" s="94" t="s">
+      <c r="E79" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="F79" s="94"/>
-      <c r="G79" s="94" t="s">
+      <c r="F79" s="91"/>
+      <c r="G79" s="91" t="s">
         <v>284</v>
       </c>
-      <c r="H79" s="94" t="s">
+      <c r="H79" s="91" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A80" s="93" t="s">
+      <c r="A80" s="90" t="s">
         <v>286</v>
       </c>
-      <c r="B80" s="93"/>
-      <c r="C80" s="93"/>
-      <c r="D80" s="93" t="s">
+      <c r="B80" s="90"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="90" t="s">
         <v>287</v>
       </c>
-      <c r="E80" s="93" t="s">
+      <c r="E80" s="90" t="s">
         <v>287</v>
       </c>
-      <c r="F80" s="93" t="s">
+      <c r="F80" s="90" t="s">
         <v>287</v>
       </c>
-      <c r="G80" s="93" t="s">
+      <c r="G80" s="90" t="s">
         <v>288</v>
       </c>
-      <c r="H80" s="93" t="s">
+      <c r="H80" s="90" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="94" t="s">
+      <c r="A81" s="91" t="s">
         <v>290</v>
       </c>
-      <c r="B81" s="94" t="s">
+      <c r="B81" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="C81" s="94"/>
-      <c r="D81" s="94" t="s">
+      <c r="C81" s="91"/>
+      <c r="D81" s="91" t="s">
         <v>287</v>
       </c>
-      <c r="E81" s="94" t="s">
+      <c r="E81" s="91" t="s">
         <v>291</v>
       </c>
-      <c r="F81" s="94"/>
-      <c r="G81" s="94" t="s">
+      <c r="F81" s="91"/>
+      <c r="G81" s="91" t="s">
         <v>292</v>
       </c>
-      <c r="H81" s="94" t="s">
+      <c r="H81" s="91" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A82" s="94" t="s">
+      <c r="A82" s="91" t="s">
         <v>293</v>
       </c>
-      <c r="B82" s="94" t="s">
+      <c r="B82" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="C82" s="94"/>
-      <c r="D82" s="94" t="s">
+      <c r="C82" s="91"/>
+      <c r="D82" s="91" t="s">
         <v>287</v>
       </c>
-      <c r="E82" s="94" t="s">
+      <c r="E82" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="F82" s="94"/>
-      <c r="G82" s="94" t="s">
+      <c r="F82" s="91"/>
+      <c r="G82" s="91" t="s">
         <v>295</v>
       </c>
-      <c r="H82" s="94" t="s">
+      <c r="H82" s="91" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="94" t="s">
+      <c r="A83" s="91" t="s">
         <v>296</v>
       </c>
-      <c r="B83" s="94" t="s">
+      <c r="B83" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94" t="s">
+      <c r="C83" s="91"/>
+      <c r="D83" s="91" t="s">
         <v>287</v>
       </c>
-      <c r="E83" s="94" t="s">
+      <c r="E83" s="91" t="s">
         <v>297</v>
       </c>
-      <c r="F83" s="94" t="s">
+      <c r="F83" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="G83" s="94" t="s">
+      <c r="G83" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="H83" s="94" t="s">
+      <c r="H83" s="91" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="94" t="s">
+      <c r="A84" s="91" t="s">
         <v>300</v>
       </c>
-      <c r="B84" s="94" t="s">
+      <c r="B84" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="94"/>
-      <c r="D84" s="94" t="s">
+      <c r="C84" s="91"/>
+      <c r="D84" s="91" t="s">
         <v>287</v>
       </c>
-      <c r="E84" s="94" t="s">
+      <c r="E84" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="F84" s="94"/>
-      <c r="G84" s="94" t="s">
+      <c r="F84" s="91"/>
+      <c r="G84" s="91" t="s">
         <v>302</v>
       </c>
-      <c r="H84" s="94" t="s">
+      <c r="H84" s="91" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="94" t="s">
+      <c r="A85" s="91" t="s">
         <v>304</v>
       </c>
-      <c r="B85" s="94" t="s">
+      <c r="B85" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="C85" s="94"/>
-      <c r="D85" s="94" t="s">
+      <c r="C85" s="91"/>
+      <c r="D85" s="91" t="s">
         <v>287</v>
       </c>
-      <c r="E85" s="94" t="s">
+      <c r="E85" s="91" t="s">
         <v>305</v>
       </c>
-      <c r="F85" s="94"/>
-      <c r="G85" s="94" t="s">
+      <c r="F85" s="91"/>
+      <c r="G85" s="91" t="s">
         <v>306</v>
       </c>
-      <c r="H85" s="94" t="s">
+      <c r="H85" s="91" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A86" s="93" t="s">
+      <c r="A86" s="90" t="s">
         <v>307</v>
       </c>
-      <c r="B86" s="93"/>
-      <c r="C86" s="93"/>
-      <c r="D86" s="93" t="s">
+      <c r="B86" s="90"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="90" t="s">
         <v>308</v>
       </c>
-      <c r="E86" s="93" t="s">
+      <c r="E86" s="90" t="s">
         <v>308</v>
       </c>
-      <c r="F86" s="93" t="s">
+      <c r="F86" s="90" t="s">
         <v>308</v>
       </c>
-      <c r="G86" s="93" t="s">
+      <c r="G86" s="90" t="s">
         <v>309</v>
       </c>
-      <c r="H86" s="93" t="s">
+      <c r="H86" s="90" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="94" t="s">
+      <c r="A87" s="91" t="s">
         <v>311</v>
       </c>
-      <c r="B87" s="94" t="s">
+      <c r="B87" s="91" t="s">
         <v>307</v>
       </c>
-      <c r="C87" s="94"/>
-      <c r="D87" s="94" t="s">
+      <c r="C87" s="91"/>
+      <c r="D87" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="E87" s="94" t="s">
+      <c r="E87" s="91" t="s">
         <v>312</v>
       </c>
-      <c r="F87" s="94"/>
-      <c r="G87" s="94" t="s">
+      <c r="F87" s="91"/>
+      <c r="G87" s="91" t="s">
         <v>313</v>
       </c>
-      <c r="H87" s="94" t="s">
+      <c r="H87" s="91" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="94" t="s">
+      <c r="A88" s="91" t="s">
         <v>314</v>
       </c>
-      <c r="B88" s="94" t="s">
+      <c r="B88" s="91" t="s">
         <v>307</v>
       </c>
-      <c r="C88" s="94"/>
-      <c r="D88" s="94" t="s">
+      <c r="C88" s="91"/>
+      <c r="D88" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="E88" s="94" t="s">
+      <c r="E88" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="F88" s="94"/>
-      <c r="G88" s="94" t="s">
+      <c r="F88" s="91"/>
+      <c r="G88" s="91" t="s">
         <v>316</v>
       </c>
-      <c r="H88" s="94" t="s">
+      <c r="H88" s="91" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A89" s="94" t="s">
+      <c r="A89" s="91" t="s">
         <v>317</v>
       </c>
-      <c r="B89" s="94" t="s">
+      <c r="B89" s="91" t="s">
         <v>307</v>
       </c>
-      <c r="C89" s="94"/>
-      <c r="D89" s="94" t="s">
+      <c r="C89" s="91"/>
+      <c r="D89" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="E89" s="94" t="s">
+      <c r="E89" s="91" t="s">
         <v>318</v>
       </c>
-      <c r="F89" s="94"/>
-      <c r="G89" s="94" t="s">
+      <c r="F89" s="91"/>
+      <c r="G89" s="91" t="s">
         <v>319</v>
       </c>
-      <c r="H89" s="94" t="s">
+      <c r="H89" s="91" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A90" s="93" t="s">
+      <c r="A90" s="90" t="s">
         <v>321</v>
       </c>
-      <c r="B90" s="93"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="93" t="s">
+      <c r="B90" s="90"/>
+      <c r="C90" s="90"/>
+      <c r="D90" s="90" t="s">
         <v>322</v>
       </c>
-      <c r="E90" s="93" t="s">
+      <c r="E90" s="90" t="s">
         <v>322</v>
       </c>
-      <c r="F90" s="93" t="s">
+      <c r="F90" s="90" t="s">
         <v>322</v>
       </c>
-      <c r="G90" s="93" t="s">
+      <c r="G90" s="90" t="s">
         <v>323</v>
       </c>
-      <c r="H90" s="93" t="s">
+      <c r="H90" s="90" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A91" s="94" t="s">
+      <c r="A91" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="B91" s="94" t="s">
+      <c r="B91" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="C91" s="94"/>
-      <c r="D91" s="94" t="s">
+      <c r="C91" s="91"/>
+      <c r="D91" s="91" t="s">
         <v>322</v>
       </c>
-      <c r="E91" s="94" t="s">
+      <c r="E91" s="91" t="s">
         <v>326</v>
       </c>
-      <c r="F91" s="94" t="s">
+      <c r="F91" s="91" t="s">
         <v>327</v>
       </c>
-      <c r="G91" s="94" t="s">
+      <c r="G91" s="91" t="s">
         <v>328</v>
       </c>
-      <c r="H91" s="94" t="s">
+      <c r="H91" s="91" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A92" s="94" t="s">
+      <c r="A92" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="B92" s="94" t="s">
+      <c r="B92" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="C92" s="94"/>
-      <c r="D92" s="94" t="s">
+      <c r="C92" s="91"/>
+      <c r="D92" s="91" t="s">
         <v>322</v>
       </c>
-      <c r="E92" s="94" t="s">
+      <c r="E92" s="91" t="s">
         <v>330</v>
       </c>
-      <c r="F92" s="94" t="s">
+      <c r="F92" s="91" t="s">
         <v>330</v>
       </c>
-      <c r="G92" s="94" t="s">
+      <c r="G92" s="91" t="s">
         <v>331</v>
       </c>
-      <c r="H92" s="94" t="s">
+      <c r="H92" s="91" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="94" t="s">
+      <c r="A93" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="B93" s="94" t="s">
+      <c r="B93" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="C93" s="94"/>
-      <c r="D93" s="94" t="s">
+      <c r="C93" s="91"/>
+      <c r="D93" s="91" t="s">
         <v>322</v>
       </c>
-      <c r="E93" s="94" t="s">
+      <c r="E93" s="91" t="s">
         <v>334</v>
       </c>
-      <c r="F93" s="94" t="s">
+      <c r="F93" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="G93" s="94" t="s">
+      <c r="G93" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="H93" s="94" t="s">
+      <c r="H93" s="91" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A94" s="93" t="s">
+      <c r="A94" s="90" t="s">
         <v>337</v>
       </c>
-      <c r="B94" s="93"/>
-      <c r="C94" s="93"/>
-      <c r="D94" s="93" t="s">
+      <c r="B94" s="90"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="90" t="s">
         <v>338</v>
       </c>
-      <c r="E94" s="93" t="s">
+      <c r="E94" s="90" t="s">
         <v>338</v>
       </c>
-      <c r="F94" s="93" t="s">
+      <c r="F94" s="90" t="s">
         <v>338</v>
       </c>
-      <c r="G94" s="93" t="s">
+      <c r="G94" s="90" t="s">
         <v>339</v>
       </c>
-      <c r="H94" s="93" t="s">
+      <c r="H94" s="90" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A95" s="94" t="s">
+      <c r="A95" s="91" t="s">
         <v>341</v>
       </c>
-      <c r="B95" s="94" t="s">
+      <c r="B95" s="91" t="s">
         <v>337</v>
       </c>
-      <c r="C95" s="94"/>
-      <c r="D95" s="94" t="s">
+      <c r="C95" s="91"/>
+      <c r="D95" s="91" t="s">
         <v>338</v>
       </c>
-      <c r="E95" s="94" t="s">
+      <c r="E95" s="91" t="s">
         <v>342</v>
       </c>
-      <c r="F95" s="94"/>
-      <c r="G95" s="94" t="s">
+      <c r="F95" s="91"/>
+      <c r="G95" s="91" t="s">
         <v>343</v>
       </c>
-      <c r="H95" s="94" t="s">
+      <c r="H95" s="91" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A96" s="93" t="s">
+      <c r="A96" s="90" t="s">
         <v>345</v>
       </c>
-      <c r="B96" s="93"/>
-      <c r="C96" s="93"/>
-      <c r="D96" s="93" t="s">
+      <c r="B96" s="90"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="90" t="s">
         <v>346</v>
       </c>
-      <c r="E96" s="93" t="s">
+      <c r="E96" s="90" t="s">
         <v>346</v>
       </c>
-      <c r="F96" s="93" t="s">
+      <c r="F96" s="90" t="s">
         <v>346</v>
       </c>
-      <c r="G96" s="93" t="s">
+      <c r="G96" s="90" t="s">
         <v>347</v>
       </c>
-      <c r="H96" s="93" t="s">
+      <c r="H96" s="90" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="94" t="s">
+      <c r="A97" s="91" t="s">
         <v>349</v>
       </c>
-      <c r="B97" s="94" t="s">
+      <c r="B97" s="91" t="s">
         <v>345</v>
       </c>
-      <c r="C97" s="94"/>
-      <c r="D97" s="94" t="s">
+      <c r="C97" s="91"/>
+      <c r="D97" s="91" t="s">
         <v>346</v>
       </c>
-      <c r="E97" s="94" t="s">
+      <c r="E97" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="F97" s="94"/>
-      <c r="G97" s="94" t="s">
+      <c r="F97" s="91"/>
+      <c r="G97" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="H97" s="94" t="s">
+      <c r="H97" s="91" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="94" t="s">
+      <c r="A98" s="91" t="s">
         <v>352</v>
       </c>
-      <c r="B98" s="94" t="s">
+      <c r="B98" s="91" t="s">
         <v>345</v>
       </c>
-      <c r="C98" s="94"/>
-      <c r="D98" s="94" t="s">
+      <c r="C98" s="91"/>
+      <c r="D98" s="91" t="s">
         <v>346</v>
       </c>
-      <c r="E98" s="94" t="s">
+      <c r="E98" s="91" t="s">
         <v>353</v>
       </c>
-      <c r="F98" s="94"/>
-      <c r="G98" s="94" t="s">
+      <c r="F98" s="91"/>
+      <c r="G98" s="91" t="s">
         <v>354</v>
       </c>
-      <c r="H98" s="94" t="s">
+      <c r="H98" s="91" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A99" s="93" t="s">
+      <c r="A99" s="90" t="s">
         <v>355</v>
       </c>
-      <c r="B99" s="93"/>
-      <c r="C99" s="93"/>
-      <c r="D99" s="93" t="s">
+      <c r="B99" s="90"/>
+      <c r="C99" s="90"/>
+      <c r="D99" s="90" t="s">
         <v>356</v>
       </c>
-      <c r="E99" s="93" t="s">
+      <c r="E99" s="90" t="s">
         <v>356</v>
       </c>
-      <c r="F99" s="93" t="s">
+      <c r="F99" s="90" t="s">
         <v>356</v>
       </c>
-      <c r="G99" s="93" t="s">
+      <c r="G99" s="90" t="s">
         <v>357</v>
       </c>
-      <c r="H99" s="93" t="s">
+      <c r="H99" s="90" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A100" s="94" t="s">
+      <c r="A100" s="91" t="s">
         <v>359</v>
       </c>
-      <c r="B100" s="94" t="s">
+      <c r="B100" s="91" t="s">
         <v>355</v>
       </c>
-      <c r="C100" s="94"/>
-      <c r="D100" s="94" t="s">
+      <c r="C100" s="91"/>
+      <c r="D100" s="91" t="s">
         <v>356</v>
       </c>
-      <c r="E100" s="94" t="s">
+      <c r="E100" s="91" t="s">
         <v>360</v>
       </c>
-      <c r="F100" s="94"/>
-      <c r="G100" s="94" t="s">
+      <c r="F100" s="91"/>
+      <c r="G100" s="91" t="s">
         <v>361</v>
       </c>
-      <c r="H100" s="94" t="s">
+      <c r="H100" s="91" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A101" s="94" t="s">
+      <c r="A101" s="91" t="s">
         <v>362</v>
       </c>
-      <c r="B101" s="94" t="s">
+      <c r="B101" s="91" t="s">
         <v>355</v>
       </c>
-      <c r="C101" s="94"/>
-      <c r="D101" s="94" t="s">
+      <c r="C101" s="91"/>
+      <c r="D101" s="91" t="s">
         <v>356</v>
       </c>
-      <c r="E101" s="94" t="s">
+      <c r="E101" s="91" t="s">
         <v>363</v>
       </c>
-      <c r="F101" s="94"/>
-      <c r="G101" s="94" t="s">
+      <c r="F101" s="91"/>
+      <c r="G101" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="H101" s="94" t="s">
+      <c r="H101" s="91" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="94" t="s">
+      <c r="A102" s="91" t="s">
         <v>365</v>
       </c>
-      <c r="B102" s="94" t="s">
+      <c r="B102" s="91" t="s">
         <v>355</v>
       </c>
-      <c r="C102" s="94"/>
-      <c r="D102" s="94" t="s">
+      <c r="C102" s="91"/>
+      <c r="D102" s="91" t="s">
         <v>356</v>
       </c>
-      <c r="E102" s="94" t="s">
+      <c r="E102" s="91" t="s">
         <v>366</v>
       </c>
-      <c r="F102" s="94"/>
-      <c r="G102" s="94" t="s">
+      <c r="F102" s="91"/>
+      <c r="G102" s="91" t="s">
         <v>367</v>
       </c>
-      <c r="H102" s="94" t="s">
+      <c r="H102" s="91" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="94" t="s">
+      <c r="A103" s="91" t="s">
         <v>369</v>
       </c>
-      <c r="B103" s="94" t="s">
+      <c r="B103" s="91" t="s">
         <v>355</v>
       </c>
-      <c r="C103" s="94"/>
-      <c r="D103" s="94" t="s">
+      <c r="C103" s="91"/>
+      <c r="D103" s="91" t="s">
         <v>356</v>
       </c>
-      <c r="E103" s="94" t="s">
+      <c r="E103" s="91" t="s">
         <v>370</v>
       </c>
-      <c r="F103" s="94"/>
-      <c r="G103" s="94" t="s">
+      <c r="F103" s="91"/>
+      <c r="G103" s="91" t="s">
         <v>371</v>
       </c>
-      <c r="H103" s="94" t="s">
+      <c r="H103" s="91" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="94" t="s">
+      <c r="A104" s="91" t="s">
         <v>373</v>
       </c>
-      <c r="B104" s="94" t="s">
+      <c r="B104" s="91" t="s">
         <v>355</v>
       </c>
-      <c r="C104" s="94"/>
-      <c r="D104" s="94" t="s">
+      <c r="C104" s="91"/>
+      <c r="D104" s="91" t="s">
         <v>356</v>
       </c>
-      <c r="E104" s="94" t="s">
+      <c r="E104" s="91" t="s">
         <v>374</v>
       </c>
-      <c r="F104" s="94"/>
-      <c r="G104" s="94" t="s">
+      <c r="F104" s="91"/>
+      <c r="G104" s="91" t="s">
         <v>375</v>
       </c>
-      <c r="H104" s="94" t="s">
+      <c r="H104" s="91" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A105" s="93" t="s">
+      <c r="A105" s="90" t="s">
         <v>376</v>
       </c>
-      <c r="B105" s="93"/>
-      <c r="C105" s="93"/>
-      <c r="D105" s="93" t="s">
+      <c r="B105" s="90"/>
+      <c r="C105" s="90"/>
+      <c r="D105" s="90" t="s">
         <v>377</v>
       </c>
-      <c r="E105" s="93" t="s">
+      <c r="E105" s="90" t="s">
         <v>377</v>
       </c>
-      <c r="F105" s="93" t="s">
+      <c r="F105" s="90" t="s">
         <v>377</v>
       </c>
-      <c r="G105" s="93" t="s">
+      <c r="G105" s="90" t="s">
         <v>378</v>
       </c>
-      <c r="H105" s="93" t="s">
+      <c r="H105" s="90" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="94" t="s">
+      <c r="A106" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="B106" s="94" t="s">
+      <c r="B106" s="91" t="s">
         <v>376</v>
       </c>
-      <c r="C106" s="94"/>
-      <c r="D106" s="94" t="s">
+      <c r="C106" s="91"/>
+      <c r="D106" s="91" t="s">
         <v>377</v>
       </c>
-      <c r="E106" s="94" t="s">
+      <c r="E106" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="F106" s="94"/>
-      <c r="G106" s="94" t="s">
+      <c r="F106" s="91"/>
+      <c r="G106" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="H106" s="94" t="s">
+      <c r="H106" s="91" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A107" s="93" t="s">
+      <c r="A107" s="90" t="s">
         <v>380</v>
       </c>
-      <c r="B107" s="93"/>
-      <c r="C107" s="93"/>
-      <c r="D107" s="93" t="s">
+      <c r="B107" s="90"/>
+      <c r="C107" s="90"/>
+      <c r="D107" s="90" t="s">
         <v>381</v>
       </c>
-      <c r="E107" s="93" t="s">
+      <c r="E107" s="90" t="s">
         <v>381</v>
       </c>
-      <c r="F107" s="93" t="s">
+      <c r="F107" s="90" t="s">
         <v>381</v>
       </c>
-      <c r="G107" s="93" t="s">
+      <c r="G107" s="90" t="s">
         <v>382</v>
       </c>
-      <c r="H107" s="93" t="s">
+      <c r="H107" s="90" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A108" s="94" t="s">
+      <c r="A108" s="91" t="s">
         <v>384</v>
       </c>
-      <c r="B108" s="94" t="s">
+      <c r="B108" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="C108" s="94"/>
-      <c r="D108" s="94" t="s">
+      <c r="C108" s="91"/>
+      <c r="D108" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="E108" s="94" t="s">
+      <c r="E108" s="91" t="s">
         <v>385</v>
       </c>
-      <c r="F108" s="94" t="s">
+      <c r="F108" s="91" t="s">
         <v>386</v>
       </c>
-      <c r="G108" s="94" t="s">
+      <c r="G108" s="91" t="s">
         <v>387</v>
       </c>
-      <c r="H108" s="94" t="s">
+      <c r="H108" s="91" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A109" s="94" t="s">
+      <c r="A109" s="91" t="s">
         <v>388</v>
       </c>
-      <c r="B109" s="94" t="s">
+      <c r="B109" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="C109" s="94"/>
-      <c r="D109" s="94" t="s">
+      <c r="C109" s="91"/>
+      <c r="D109" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="E109" s="94" t="s">
+      <c r="E109" s="91" t="s">
         <v>389</v>
       </c>
-      <c r="F109" s="94"/>
-      <c r="G109" s="94" t="s">
+      <c r="F109" s="91"/>
+      <c r="G109" s="91" t="s">
         <v>390</v>
       </c>
-      <c r="H109" s="94" t="s">
+      <c r="H109" s="91" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A110" s="94" t="s">
+      <c r="A110" s="91" t="s">
         <v>391</v>
       </c>
-      <c r="B110" s="94" t="s">
+      <c r="B110" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="C110" s="94"/>
-      <c r="D110" s="94" t="s">
+      <c r="C110" s="91"/>
+      <c r="D110" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="E110" s="94" t="s">
+      <c r="E110" s="91" t="s">
         <v>392</v>
       </c>
-      <c r="F110" s="94"/>
-      <c r="G110" s="94" t="s">
+      <c r="F110" s="91"/>
+      <c r="G110" s="91" t="s">
         <v>393</v>
       </c>
-      <c r="H110" s="94" t="s">
+      <c r="H110" s="91" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A111" s="94" t="s">
+      <c r="A111" s="91" t="s">
         <v>395</v>
       </c>
-      <c r="B111" s="94" t="s">
+      <c r="B111" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="C111" s="94"/>
-      <c r="D111" s="94" t="s">
+      <c r="C111" s="91"/>
+      <c r="D111" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="E111" s="94" t="s">
+      <c r="E111" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="F111" s="94"/>
-      <c r="G111" s="94" t="s">
+      <c r="F111" s="91"/>
+      <c r="G111" s="91" t="s">
         <v>397</v>
       </c>
-      <c r="H111" s="94" t="s">
+      <c r="H111" s="91" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A112" s="94" t="s">
+      <c r="A112" s="91" t="s">
         <v>399</v>
       </c>
-      <c r="B112" s="94" t="s">
+      <c r="B112" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="C112" s="94"/>
-      <c r="D112" s="94" t="s">
+      <c r="C112" s="91"/>
+      <c r="D112" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="E112" s="94" t="s">
+      <c r="E112" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="F112" s="94"/>
-      <c r="G112" s="94" t="s">
+      <c r="F112" s="91"/>
+      <c r="G112" s="91" t="s">
         <v>401</v>
       </c>
-      <c r="H112" s="94" t="s">
+      <c r="H112" s="91" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A113" s="94" t="s">
+      <c r="A113" s="91" t="s">
         <v>402</v>
       </c>
-      <c r="B113" s="94" t="s">
+      <c r="B113" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="C113" s="94"/>
-      <c r="D113" s="94" t="s">
+      <c r="C113" s="91"/>
+      <c r="D113" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="E113" s="94" t="s">
+      <c r="E113" s="91" t="s">
         <v>403</v>
       </c>
-      <c r="F113" s="94"/>
-      <c r="G113" s="94" t="s">
+      <c r="F113" s="91"/>
+      <c r="G113" s="91" t="s">
         <v>404</v>
       </c>
-      <c r="H113" s="94" t="s">
+      <c r="H113" s="91" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A114" s="94" t="s">
+      <c r="A114" s="91" t="s">
         <v>405</v>
       </c>
-      <c r="B114" s="94" t="s">
+      <c r="B114" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="C114" s="94"/>
-      <c r="D114" s="94" t="s">
+      <c r="C114" s="91"/>
+      <c r="D114" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="E114" s="94" t="s">
+      <c r="E114" s="91" t="s">
         <v>406</v>
       </c>
-      <c r="F114" s="94"/>
-      <c r="G114" s="94" t="s">
+      <c r="F114" s="91"/>
+      <c r="G114" s="91" t="s">
         <v>407</v>
       </c>
-      <c r="H114" s="94" t="s">
+      <c r="H114" s="91" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A115" s="94" t="s">
+      <c r="A115" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="B115" s="94" t="s">
+      <c r="B115" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="C115" s="94"/>
-      <c r="D115" s="94" t="s">
+      <c r="C115" s="91"/>
+      <c r="D115" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="E115" s="94" t="s">
+      <c r="E115" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="F115" s="94"/>
-      <c r="G115" s="94" t="s">
+      <c r="F115" s="91"/>
+      <c r="G115" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="H115" s="94" t="s">
+      <c r="H115" s="91" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A116" s="93" t="s">
+      <c r="A116" s="90" t="s">
         <v>409</v>
       </c>
-      <c r="B116" s="93"/>
-      <c r="C116" s="93"/>
-      <c r="D116" s="93" t="s">
+      <c r="B116" s="90"/>
+      <c r="C116" s="90"/>
+      <c r="D116" s="90" t="s">
         <v>410</v>
       </c>
-      <c r="E116" s="93" t="s">
+      <c r="E116" s="90" t="s">
         <v>410</v>
       </c>
-      <c r="F116" s="93" t="s">
+      <c r="F116" s="90" t="s">
         <v>410</v>
       </c>
-      <c r="G116" s="93" t="s">
+      <c r="G116" s="90" t="s">
         <v>411</v>
       </c>
-      <c r="H116" s="93" t="s">
+      <c r="H116" s="90" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="94" t="s">
+      <c r="A117" s="91" t="s">
         <v>413</v>
       </c>
-      <c r="B117" s="94" t="s">
+      <c r="B117" s="91" t="s">
         <v>409</v>
       </c>
-      <c r="C117" s="94"/>
-      <c r="D117" s="94" t="s">
+      <c r="C117" s="91"/>
+      <c r="D117" s="91" t="s">
         <v>410</v>
       </c>
-      <c r="E117" s="94" t="s">
+      <c r="E117" s="91" t="s">
         <v>414</v>
       </c>
-      <c r="F117" s="94"/>
-      <c r="G117" s="94" t="s">
+      <c r="F117" s="91"/>
+      <c r="G117" s="91" t="s">
         <v>415</v>
       </c>
-      <c r="H117" s="94" t="s">
+      <c r="H117" s="91" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A118" s="93" t="s">
+      <c r="A118" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="B118" s="93"/>
-      <c r="C118" s="93"/>
-      <c r="D118" s="93" t="s">
+      <c r="B118" s="90"/>
+      <c r="C118" s="90"/>
+      <c r="D118" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="E118" s="93" t="s">
+      <c r="E118" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="F118" s="93" t="s">
+      <c r="F118" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="G118" s="93" t="s">
+      <c r="G118" s="90" t="s">
         <v>418</v>
       </c>
-      <c r="H118" s="93" t="s">
+      <c r="H118" s="90" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="94" t="s">
+      <c r="A119" s="91" t="s">
         <v>420</v>
       </c>
-      <c r="B119" s="94" t="s">
+      <c r="B119" s="91" t="s">
         <v>416</v>
       </c>
-      <c r="C119" s="94"/>
-      <c r="D119" s="94" t="s">
+      <c r="C119" s="91"/>
+      <c r="D119" s="91" t="s">
         <v>417</v>
       </c>
-      <c r="E119" s="94" t="s">
+      <c r="E119" s="91" t="s">
         <v>421</v>
       </c>
-      <c r="F119" s="94"/>
-      <c r="G119" s="94" t="s">
+      <c r="F119" s="91"/>
+      <c r="G119" s="91" t="s">
         <v>422</v>
       </c>
-      <c r="H119" s="94" t="s">
+      <c r="H119" s="91" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A120" s="93" t="s">
+      <c r="A120" s="90" t="s">
         <v>423</v>
       </c>
-      <c r="B120" s="93"/>
-      <c r="C120" s="93"/>
-      <c r="D120" s="93" t="s">
+      <c r="B120" s="90"/>
+      <c r="C120" s="90"/>
+      <c r="D120" s="90" t="s">
         <v>424</v>
       </c>
-      <c r="E120" s="93" t="s">
+      <c r="E120" s="90" t="s">
         <v>424</v>
       </c>
-      <c r="F120" s="93" t="s">
+      <c r="F120" s="90" t="s">
         <v>424</v>
       </c>
-      <c r="G120" s="93" t="s">
+      <c r="G120" s="90" t="s">
         <v>425</v>
       </c>
-      <c r="H120" s="93" t="s">
+      <c r="H120" s="90" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A121" s="94" t="s">
+      <c r="A121" s="91" t="s">
         <v>427</v>
       </c>
-      <c r="B121" s="94" t="s">
+      <c r="B121" s="91" t="s">
         <v>423</v>
       </c>
-      <c r="C121" s="94"/>
-      <c r="D121" s="94" t="s">
+      <c r="C121" s="91"/>
+      <c r="D121" s="91" t="s">
         <v>424</v>
       </c>
-      <c r="E121" s="94" t="s">
+      <c r="E121" s="91" t="s">
         <v>428</v>
       </c>
-      <c r="F121" s="94"/>
-      <c r="G121" s="94" t="s">
+      <c r="F121" s="91"/>
+      <c r="G121" s="91" t="s">
         <v>429</v>
       </c>
-      <c r="H121" s="94" t="s">
+      <c r="H121" s="91" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A122" s="94" t="s">
+      <c r="A122" s="91" t="s">
         <v>430</v>
       </c>
-      <c r="B122" s="94" t="s">
+      <c r="B122" s="91" t="s">
         <v>423</v>
       </c>
-      <c r="C122" s="94"/>
-      <c r="D122" s="94" t="s">
+      <c r="C122" s="91"/>
+      <c r="D122" s="91" t="s">
         <v>424</v>
       </c>
-      <c r="E122" s="94" t="s">
+      <c r="E122" s="91" t="s">
         <v>431</v>
       </c>
-      <c r="F122" s="94"/>
-      <c r="G122" s="94" t="s">
+      <c r="F122" s="91"/>
+      <c r="G122" s="91" t="s">
         <v>432</v>
       </c>
-      <c r="H122" s="94" t="s">
+      <c r="H122" s="91" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="94" t="s">
+      <c r="A123" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="B123" s="94" t="s">
+      <c r="B123" s="91" t="s">
         <v>423</v>
       </c>
-      <c r="C123" s="94"/>
-      <c r="D123" s="94" t="s">
+      <c r="C123" s="91"/>
+      <c r="D123" s="91" t="s">
         <v>424</v>
       </c>
-      <c r="E123" s="94" t="s">
+      <c r="E123" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="F123" s="94"/>
-      <c r="G123" s="94" t="s">
+      <c r="F123" s="91"/>
+      <c r="G123" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="H123" s="94" t="s">
+      <c r="H123" s="91" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A124" s="93" t="s">
+      <c r="A124" s="90" t="s">
         <v>433</v>
       </c>
-      <c r="B124" s="93"/>
-      <c r="C124" s="93"/>
-      <c r="D124" s="93" t="s">
+      <c r="B124" s="90"/>
+      <c r="C124" s="90"/>
+      <c r="D124" s="90" t="s">
         <v>434</v>
       </c>
-      <c r="E124" s="93" t="s">
+      <c r="E124" s="90" t="s">
         <v>434</v>
       </c>
-      <c r="F124" s="93" t="s">
+      <c r="F124" s="90" t="s">
         <v>434</v>
       </c>
-      <c r="G124" s="93" t="s">
+      <c r="G124" s="90" t="s">
         <v>435</v>
       </c>
-      <c r="H124" s="93" t="s">
+      <c r="H124" s="90" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A125" s="94" t="s">
+      <c r="A125" s="91" t="s">
         <v>437</v>
       </c>
-      <c r="B125" s="94" t="s">
+      <c r="B125" s="91" t="s">
         <v>433</v>
       </c>
-      <c r="C125" s="94"/>
-      <c r="D125" s="94" t="s">
+      <c r="C125" s="91"/>
+      <c r="D125" s="91" t="s">
         <v>434</v>
       </c>
-      <c r="E125" s="94" t="s">
+      <c r="E125" s="91" t="s">
         <v>438</v>
       </c>
-      <c r="F125" s="94"/>
-      <c r="G125" s="94" t="s">
+      <c r="F125" s="91"/>
+      <c r="G125" s="91" t="s">
         <v>439</v>
       </c>
-      <c r="H125" s="94" t="s">
+      <c r="H125" s="91" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A126" s="93" t="s">
+      <c r="A126" s="90" t="s">
         <v>440</v>
       </c>
-      <c r="B126" s="93"/>
-      <c r="C126" s="93"/>
-      <c r="D126" s="93" t="s">
+      <c r="B126" s="90"/>
+      <c r="C126" s="90"/>
+      <c r="D126" s="90" t="s">
         <v>441</v>
       </c>
-      <c r="E126" s="93" t="s">
+      <c r="E126" s="90" t="s">
         <v>441</v>
       </c>
-      <c r="F126" s="93" t="s">
+      <c r="F126" s="90" t="s">
         <v>441</v>
       </c>
-      <c r="G126" s="93" t="s">
+      <c r="G126" s="90" t="s">
         <v>442</v>
       </c>
-      <c r="H126" s="93" t="s">
+      <c r="H126" s="90" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A127" s="94" t="s">
+      <c r="A127" s="91" t="s">
         <v>444</v>
       </c>
-      <c r="B127" s="94" t="s">
+      <c r="B127" s="91" t="s">
         <v>440</v>
       </c>
-      <c r="C127" s="94"/>
-      <c r="D127" s="94" t="s">
+      <c r="C127" s="91"/>
+      <c r="D127" s="91" t="s">
         <v>441</v>
       </c>
-      <c r="E127" s="94" t="s">
+      <c r="E127" s="91" t="s">
         <v>445</v>
       </c>
-      <c r="F127" s="94"/>
-      <c r="G127" s="94" t="s">
+      <c r="F127" s="91"/>
+      <c r="G127" s="91" t="s">
         <v>446</v>
       </c>
-      <c r="H127" s="94" t="s">
+      <c r="H127" s="91" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="94" t="s">
+      <c r="A128" s="91" t="s">
         <v>447</v>
       </c>
-      <c r="B128" s="94" t="s">
+      <c r="B128" s="91" t="s">
         <v>440</v>
       </c>
-      <c r="C128" s="94"/>
-      <c r="D128" s="94" t="s">
+      <c r="C128" s="91"/>
+      <c r="D128" s="91" t="s">
         <v>441</v>
       </c>
-      <c r="E128" s="94" t="s">
+      <c r="E128" s="91" t="s">
         <v>448</v>
       </c>
-      <c r="F128" s="94"/>
-      <c r="G128" s="94" t="s">
+      <c r="F128" s="91"/>
+      <c r="G128" s="91" t="s">
         <v>449</v>
       </c>
-      <c r="H128" s="94" t="s">
+      <c r="H128" s="91" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="94" t="s">
+      <c r="A129" s="91" t="s">
         <v>450</v>
       </c>
-      <c r="B129" s="94" t="s">
+      <c r="B129" s="91" t="s">
         <v>440</v>
       </c>
-      <c r="C129" s="94"/>
-      <c r="D129" s="94" t="s">
+      <c r="C129" s="91"/>
+      <c r="D129" s="91" t="s">
         <v>441</v>
       </c>
-      <c r="E129" s="94" t="s">
+      <c r="E129" s="91" t="s">
         <v>451</v>
       </c>
-      <c r="F129" s="94"/>
-      <c r="G129" s="94" t="s">
+      <c r="F129" s="91"/>
+      <c r="G129" s="91" t="s">
         <v>452</v>
       </c>
-      <c r="H129" s="94" t="s">
+      <c r="H129" s="91" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A130" s="93" t="s">
+      <c r="A130" s="90" t="s">
         <v>453</v>
       </c>
-      <c r="B130" s="93"/>
-      <c r="C130" s="93" t="s">
+      <c r="B130" s="90"/>
+      <c r="C130" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="93" t="s">
+      <c r="D130" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="E130" s="93" t="s">
+      <c r="E130" s="90" t="s">
         <v>454</v>
       </c>
-      <c r="F130" s="93" t="s">
+      <c r="F130" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="G130" s="93" t="s">
+      <c r="G130" s="90" t="s">
         <v>455</v>
       </c>
-      <c r="H130" s="93" t="s">
+      <c r="H130" s="90" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="94" t="s">
+      <c r="A131" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="B131" s="94" t="s">
+      <c r="B131" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C131" s="94"/>
-      <c r="D131" s="94" t="s">
+      <c r="C131" s="91"/>
+      <c r="D131" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E131" s="94" t="s">
+      <c r="E131" s="91" t="s">
         <v>458</v>
       </c>
-      <c r="F131" s="94"/>
-      <c r="G131" s="94" t="s">
+      <c r="F131" s="91"/>
+      <c r="G131" s="91" t="s">
         <v>459</v>
       </c>
-      <c r="H131" s="94" t="s">
+      <c r="H131" s="91" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="94" t="s">
+      <c r="A132" s="91" t="s">
         <v>461</v>
       </c>
-      <c r="B132" s="94" t="s">
+      <c r="B132" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C132" s="94"/>
-      <c r="D132" s="94" t="s">
+      <c r="C132" s="91"/>
+      <c r="D132" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E132" s="94" t="s">
+      <c r="E132" s="91" t="s">
         <v>462</v>
       </c>
-      <c r="F132" s="94"/>
-      <c r="G132" s="94" t="s">
+      <c r="F132" s="91"/>
+      <c r="G132" s="91" t="s">
         <v>463</v>
       </c>
-      <c r="H132" s="94" t="s">
+      <c r="H132" s="91" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A133" s="94" t="s">
+      <c r="A133" s="91" t="s">
         <v>465</v>
       </c>
-      <c r="B133" s="94" t="s">
+      <c r="B133" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C133" s="94"/>
-      <c r="D133" s="94" t="s">
+      <c r="C133" s="91"/>
+      <c r="D133" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E133" s="94" t="s">
+      <c r="E133" s="91" t="s">
         <v>466</v>
       </c>
-      <c r="F133" s="94"/>
-      <c r="G133" s="94" t="s">
+      <c r="F133" s="91"/>
+      <c r="G133" s="91" t="s">
         <v>467</v>
       </c>
-      <c r="H133" s="94" t="s">
+      <c r="H133" s="91" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="94" t="s">
+      <c r="A134" s="91" t="s">
         <v>469</v>
       </c>
-      <c r="B134" s="94" t="s">
+      <c r="B134" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C134" s="94"/>
-      <c r="D134" s="94" t="s">
+      <c r="C134" s="91"/>
+      <c r="D134" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E134" s="94" t="s">
+      <c r="E134" s="91" t="s">
         <v>470</v>
       </c>
-      <c r="F134" s="94"/>
-      <c r="G134" s="94" t="s">
+      <c r="F134" s="91"/>
+      <c r="G134" s="91" t="s">
         <v>471</v>
       </c>
-      <c r="H134" s="94" t="s">
+      <c r="H134" s="91" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="94" t="s">
+      <c r="A135" s="91" t="s">
         <v>473</v>
       </c>
-      <c r="B135" s="94" t="s">
+      <c r="B135" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C135" s="94"/>
-      <c r="D135" s="94" t="s">
+      <c r="C135" s="91"/>
+      <c r="D135" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E135" s="94" t="s">
+      <c r="E135" s="91" t="s">
         <v>474</v>
       </c>
-      <c r="F135" s="94"/>
-      <c r="G135" s="94" t="s">
+      <c r="F135" s="91"/>
+      <c r="G135" s="91" t="s">
         <v>475</v>
       </c>
-      <c r="H135" s="94" t="s">
+      <c r="H135" s="91" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="94" t="s">
+      <c r="A136" s="91" t="s">
         <v>477</v>
       </c>
-      <c r="B136" s="94" t="s">
+      <c r="B136" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C136" s="94"/>
-      <c r="D136" s="94" t="s">
+      <c r="C136" s="91"/>
+      <c r="D136" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E136" s="94" t="s">
+      <c r="E136" s="91" t="s">
         <v>478</v>
       </c>
-      <c r="F136" s="94"/>
-      <c r="G136" s="94" t="s">
+      <c r="F136" s="91"/>
+      <c r="G136" s="91" t="s">
         <v>479</v>
       </c>
-      <c r="H136" s="94" t="s">
+      <c r="H136" s="91" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A137" s="94" t="s">
+      <c r="A137" s="91" t="s">
         <v>481</v>
       </c>
-      <c r="B137" s="94" t="s">
+      <c r="B137" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C137" s="94"/>
-      <c r="D137" s="94" t="s">
+      <c r="C137" s="91"/>
+      <c r="D137" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E137" s="94" t="s">
+      <c r="E137" s="91" t="s">
         <v>482</v>
       </c>
-      <c r="F137" s="94"/>
-      <c r="G137" s="94" t="s">
+      <c r="F137" s="91"/>
+      <c r="G137" s="91" t="s">
         <v>483</v>
       </c>
-      <c r="H137" s="94" t="s">
+      <c r="H137" s="91" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="94" t="s">
+      <c r="A138" s="91" t="s">
         <v>485</v>
       </c>
-      <c r="B138" s="94" t="s">
+      <c r="B138" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C138" s="94"/>
-      <c r="D138" s="94" t="s">
+      <c r="C138" s="91"/>
+      <c r="D138" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E138" s="94" t="s">
+      <c r="E138" s="91" t="s">
         <v>486</v>
       </c>
-      <c r="F138" s="94"/>
-      <c r="G138" s="94" t="s">
+      <c r="F138" s="91"/>
+      <c r="G138" s="91" t="s">
         <v>487</v>
       </c>
-      <c r="H138" s="94" t="s">
+      <c r="H138" s="91" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="94" t="s">
+      <c r="A139" s="91" t="s">
         <v>489</v>
       </c>
-      <c r="B139" s="94" t="s">
+      <c r="B139" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C139" s="94"/>
-      <c r="D139" s="94" t="s">
+      <c r="C139" s="91"/>
+      <c r="D139" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E139" s="94" t="s">
+      <c r="E139" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="F139" s="94"/>
-      <c r="G139" s="94" t="s">
+      <c r="F139" s="91"/>
+      <c r="G139" s="91" t="s">
         <v>491</v>
       </c>
-      <c r="H139" s="94" t="s">
+      <c r="H139" s="91" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="94" t="s">
+      <c r="A140" s="91" t="s">
         <v>493</v>
       </c>
-      <c r="B140" s="94" t="s">
+      <c r="B140" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C140" s="94"/>
-      <c r="D140" s="94" t="s">
+      <c r="C140" s="91"/>
+      <c r="D140" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E140" s="94" t="s">
+      <c r="E140" s="91" t="s">
         <v>494</v>
       </c>
-      <c r="F140" s="94"/>
-      <c r="G140" s="94" t="s">
+      <c r="F140" s="91"/>
+      <c r="G140" s="91" t="s">
         <v>495</v>
       </c>
-      <c r="H140" s="94" t="s">
+      <c r="H140" s="91" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="94" t="s">
+      <c r="A141" s="91" t="s">
         <v>497</v>
       </c>
-      <c r="B141" s="94" t="s">
+      <c r="B141" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C141" s="94"/>
-      <c r="D141" s="94" t="s">
+      <c r="C141" s="91"/>
+      <c r="D141" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E141" s="94" t="s">
+      <c r="E141" s="91" t="s">
         <v>498</v>
       </c>
-      <c r="F141" s="94"/>
-      <c r="G141" s="94" t="s">
+      <c r="F141" s="91"/>
+      <c r="G141" s="91" t="s">
         <v>499</v>
       </c>
-      <c r="H141" s="94" t="s">
+      <c r="H141" s="91" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="94" t="s">
+      <c r="A142" s="91" t="s">
         <v>501</v>
       </c>
-      <c r="B142" s="94" t="s">
+      <c r="B142" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C142" s="94"/>
-      <c r="D142" s="94" t="s">
+      <c r="C142" s="91"/>
+      <c r="D142" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E142" s="94" t="s">
+      <c r="E142" s="91" t="s">
         <v>502</v>
       </c>
-      <c r="F142" s="94"/>
-      <c r="G142" s="94" t="s">
+      <c r="F142" s="91"/>
+      <c r="G142" s="91" t="s">
         <v>503</v>
       </c>
-      <c r="H142" s="94" t="s">
+      <c r="H142" s="91" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A143" s="94" t="s">
+      <c r="A143" s="91" t="s">
         <v>505</v>
       </c>
-      <c r="B143" s="94" t="s">
+      <c r="B143" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C143" s="94"/>
-      <c r="D143" s="94" t="s">
+      <c r="C143" s="91"/>
+      <c r="D143" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E143" s="94" t="s">
+      <c r="E143" s="91" t="s">
         <v>506</v>
       </c>
-      <c r="F143" s="94"/>
-      <c r="G143" s="94" t="s">
+      <c r="F143" s="91"/>
+      <c r="G143" s="91" t="s">
         <v>507</v>
       </c>
-      <c r="H143" s="94" t="s">
+      <c r="H143" s="91" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A144" s="94" t="s">
+      <c r="A144" s="91" t="s">
         <v>509</v>
       </c>
-      <c r="B144" s="94" t="s">
+      <c r="B144" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C144" s="94"/>
-      <c r="D144" s="94" t="s">
+      <c r="C144" s="91"/>
+      <c r="D144" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E144" s="94" t="s">
+      <c r="E144" s="91" t="s">
         <v>510</v>
       </c>
-      <c r="F144" s="94"/>
-      <c r="G144" s="94" t="s">
+      <c r="F144" s="91"/>
+      <c r="G144" s="91" t="s">
         <v>511</v>
       </c>
-      <c r="H144" s="94" t="s">
+      <c r="H144" s="91" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="94" t="s">
+      <c r="A145" s="91" t="s">
         <v>513</v>
       </c>
-      <c r="B145" s="94" t="s">
+      <c r="B145" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C145" s="94"/>
-      <c r="D145" s="94" t="s">
+      <c r="C145" s="91"/>
+      <c r="D145" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E145" s="94" t="s">
+      <c r="E145" s="91" t="s">
         <v>514</v>
       </c>
-      <c r="F145" s="94"/>
-      <c r="G145" s="94" t="s">
+      <c r="F145" s="91"/>
+      <c r="G145" s="91" t="s">
         <v>515</v>
       </c>
-      <c r="H145" s="94" t="s">
+      <c r="H145" s="91" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="94" t="s">
+      <c r="A146" s="91" t="s">
         <v>517</v>
       </c>
-      <c r="B146" s="94" t="s">
+      <c r="B146" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C146" s="94"/>
-      <c r="D146" s="94" t="s">
+      <c r="C146" s="91"/>
+      <c r="D146" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E146" s="94" t="s">
+      <c r="E146" s="91" t="s">
         <v>518</v>
       </c>
-      <c r="F146" s="94"/>
-      <c r="G146" s="94" t="s">
+      <c r="F146" s="91"/>
+      <c r="G146" s="91" t="s">
         <v>519</v>
       </c>
-      <c r="H146" s="94" t="s">
+      <c r="H146" s="91" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="94" t="s">
+      <c r="A147" s="91" t="s">
         <v>521</v>
       </c>
-      <c r="B147" s="94" t="s">
+      <c r="B147" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C147" s="94"/>
-      <c r="D147" s="94" t="s">
+      <c r="C147" s="91"/>
+      <c r="D147" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E147" s="94" t="s">
+      <c r="E147" s="91" t="s">
         <v>522</v>
       </c>
-      <c r="F147" s="94"/>
-      <c r="G147" s="94" t="s">
+      <c r="F147" s="91"/>
+      <c r="G147" s="91" t="s">
         <v>523</v>
       </c>
-      <c r="H147" s="94" t="s">
+      <c r="H147" s="91" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="94" t="s">
+      <c r="A148" s="91" t="s">
         <v>525</v>
       </c>
-      <c r="B148" s="94" t="s">
+      <c r="B148" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="C148" s="94"/>
-      <c r="D148" s="94" t="s">
+      <c r="C148" s="91"/>
+      <c r="D148" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E148" s="94" t="s">
+      <c r="E148" s="91" t="s">
         <v>526</v>
       </c>
-      <c r="F148" s="94"/>
-      <c r="G148" s="94" t="s">
+      <c r="F148" s="91"/>
+      <c r="G148" s="91" t="s">
         <v>527</v>
       </c>
-      <c r="H148" s="94" t="s">
+      <c r="H148" s="91" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="93" t="s">
+      <c r="A149" s="90" t="s">
         <v>529</v>
       </c>
-      <c r="B149" s="93"/>
-      <c r="C149" s="93" t="s">
+      <c r="B149" s="90"/>
+      <c r="C149" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D149" s="93" t="s">
+      <c r="D149" s="90" t="s">
         <v>530</v>
       </c>
-      <c r="E149" s="93" t="s">
+      <c r="E149" s="90" t="s">
         <v>531</v>
       </c>
-      <c r="F149" s="93" t="s">
+      <c r="F149" s="90" t="s">
         <v>530</v>
       </c>
-      <c r="G149" s="93" t="s">
+      <c r="G149" s="90" t="s">
         <v>532</v>
       </c>
-      <c r="H149" s="93" t="s">
+      <c r="H149" s="90" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A150" s="94" t="s">
+      <c r="A150" s="91" t="s">
         <v>534</v>
       </c>
-      <c r="B150" s="94" t="s">
+      <c r="B150" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="C150" s="94"/>
-      <c r="D150" s="94" t="s">
+      <c r="C150" s="91"/>
+      <c r="D150" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="E150" s="94" t="s">
+      <c r="E150" s="91" t="s">
         <v>535</v>
       </c>
-      <c r="F150" s="94"/>
-      <c r="G150" s="94" t="s">
+      <c r="F150" s="91"/>
+      <c r="G150" s="91" t="s">
         <v>536</v>
       </c>
-      <c r="H150" s="94" t="s">
+      <c r="H150" s="91" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A151" s="94" t="s">
+      <c r="A151" s="91" t="s">
         <v>538</v>
       </c>
-      <c r="B151" s="94" t="s">
+      <c r="B151" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="C151" s="94"/>
-      <c r="D151" s="94" t="s">
+      <c r="C151" s="91"/>
+      <c r="D151" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="E151" s="94" t="s">
+      <c r="E151" s="91" t="s">
         <v>539</v>
       </c>
-      <c r="F151" s="94"/>
-      <c r="G151" s="94" t="s">
+      <c r="F151" s="91"/>
+      <c r="G151" s="91" t="s">
         <v>540</v>
       </c>
-      <c r="H151" s="94" t="s">
+      <c r="H151" s="91" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A152" s="94" t="s">
+      <c r="A152" s="91" t="s">
         <v>542</v>
       </c>
-      <c r="B152" s="94" t="s">
+      <c r="B152" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="C152" s="94"/>
-      <c r="D152" s="94" t="s">
+      <c r="C152" s="91"/>
+      <c r="D152" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="E152" s="94" t="s">
+      <c r="E152" s="91" t="s">
         <v>543</v>
       </c>
-      <c r="F152" s="94" t="s">
+      <c r="F152" s="91" t="s">
         <v>544</v>
       </c>
-      <c r="G152" s="94" t="s">
+      <c r="G152" s="91" t="s">
         <v>545</v>
       </c>
-      <c r="H152" s="94" t="s">
+      <c r="H152" s="91" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A153" s="94" t="s">
+      <c r="A153" s="91" t="s">
         <v>547</v>
       </c>
-      <c r="B153" s="94" t="s">
+      <c r="B153" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="C153" s="94"/>
-      <c r="D153" s="94" t="s">
+      <c r="C153" s="91"/>
+      <c r="D153" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="E153" s="94" t="s">
+      <c r="E153" s="91" t="s">
         <v>548</v>
       </c>
-      <c r="F153" s="94"/>
-      <c r="G153" s="94" t="s">
+      <c r="F153" s="91"/>
+      <c r="G153" s="91" t="s">
         <v>549</v>
       </c>
-      <c r="H153" s="94" t="s">
+      <c r="H153" s="91" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="94" t="s">
+      <c r="A154" s="91" t="s">
         <v>551</v>
       </c>
-      <c r="B154" s="94" t="s">
+      <c r="B154" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="C154" s="94"/>
-      <c r="D154" s="94" t="s">
+      <c r="C154" s="91"/>
+      <c r="D154" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="E154" s="94" t="s">
+      <c r="E154" s="91" t="s">
         <v>552</v>
       </c>
-      <c r="F154" s="94" t="s">
+      <c r="F154" s="91" t="s">
         <v>553</v>
       </c>
-      <c r="G154" s="94" t="s">
+      <c r="G154" s="91" t="s">
         <v>554</v>
       </c>
-      <c r="H154" s="94" t="s">
+      <c r="H154" s="91" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A155" s="94" t="s">
+      <c r="A155" s="91" t="s">
         <v>556</v>
       </c>
-      <c r="B155" s="94" t="s">
+      <c r="B155" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="C155" s="94"/>
-      <c r="D155" s="94" t="s">
+      <c r="C155" s="91"/>
+      <c r="D155" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="E155" s="94" t="s">
+      <c r="E155" s="91" t="s">
         <v>557</v>
       </c>
-      <c r="F155" s="94"/>
-      <c r="G155" s="94" t="s">
+      <c r="F155" s="91"/>
+      <c r="G155" s="91" t="s">
         <v>558</v>
       </c>
-      <c r="H155" s="94" t="s">
+      <c r="H155" s="91" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A156" s="94" t="s">
+      <c r="A156" s="91" t="s">
         <v>560</v>
       </c>
-      <c r="B156" s="94" t="s">
+      <c r="B156" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="C156" s="94"/>
-      <c r="D156" s="94" t="s">
+      <c r="C156" s="91"/>
+      <c r="D156" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="E156" s="94" t="s">
+      <c r="E156" s="91" t="s">
         <v>561</v>
       </c>
-      <c r="F156" s="94"/>
-      <c r="G156" s="94" t="s">
+      <c r="F156" s="91"/>
+      <c r="G156" s="91" t="s">
         <v>562</v>
       </c>
-      <c r="H156" s="94" t="s">
+      <c r="H156" s="91" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A157" s="94" t="s">
+      <c r="A157" s="91" t="s">
         <v>564</v>
       </c>
-      <c r="B157" s="94" t="s">
+      <c r="B157" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="C157" s="94"/>
-      <c r="D157" s="94" t="s">
+      <c r="C157" s="91"/>
+      <c r="D157" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="E157" s="94" t="s">
+      <c r="E157" s="91" t="s">
         <v>565</v>
       </c>
-      <c r="F157" s="94"/>
-      <c r="G157" s="94" t="s">
+      <c r="F157" s="91"/>
+      <c r="G157" s="91" t="s">
         <v>566</v>
       </c>
-      <c r="H157" s="94" t="s">
+      <c r="H157" s="91" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="94" t="s">
+      <c r="A158" s="91" t="s">
         <v>568</v>
       </c>
-      <c r="B158" s="94" t="s">
+      <c r="B158" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="C158" s="94"/>
-      <c r="D158" s="94" t="s">
+      <c r="C158" s="91"/>
+      <c r="D158" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="E158" s="94" t="s">
+      <c r="E158" s="91" t="s">
         <v>569</v>
       </c>
-      <c r="F158" s="94"/>
-      <c r="G158" s="94" t="s">
+      <c r="F158" s="91"/>
+      <c r="G158" s="91" t="s">
         <v>1550</v>
       </c>
-      <c r="H158" s="94" t="s">
+      <c r="H158" s="91" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A159" s="94" t="s">
+      <c r="A159" s="91" t="s">
         <v>571</v>
       </c>
-      <c r="B159" s="94" t="s">
+      <c r="B159" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="C159" s="94"/>
-      <c r="D159" s="94" t="s">
+      <c r="C159" s="91"/>
+      <c r="D159" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="E159" s="94" t="s">
+      <c r="E159" s="91" t="s">
         <v>572</v>
       </c>
-      <c r="F159" s="94"/>
-      <c r="G159" s="94" t="s">
+      <c r="F159" s="91"/>
+      <c r="G159" s="91" t="s">
         <v>573</v>
       </c>
-      <c r="H159" s="94" t="s">
+      <c r="H159" s="91" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A160" s="94" t="s">
+      <c r="A160" s="91" t="s">
         <v>575</v>
       </c>
-      <c r="B160" s="94" t="s">
+      <c r="B160" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="C160" s="94"/>
-      <c r="D160" s="94" t="s">
+      <c r="C160" s="91"/>
+      <c r="D160" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="E160" s="94" t="s">
+      <c r="E160" s="91" t="s">
         <v>576</v>
       </c>
-      <c r="F160" s="94"/>
-      <c r="G160" s="94" t="s">
+      <c r="F160" s="91"/>
+      <c r="G160" s="91" t="s">
         <v>577</v>
       </c>
-      <c r="H160" s="94" t="s">
+      <c r="H160" s="91" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="94" t="s">
+      <c r="A161" s="91" t="s">
         <v>579</v>
       </c>
-      <c r="B161" s="94" t="s">
+      <c r="B161" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="C161" s="94"/>
-      <c r="D161" s="94" t="s">
+      <c r="C161" s="91"/>
+      <c r="D161" s="91" t="s">
         <v>530</v>
       </c>
-      <c r="E161" s="94" t="s">
+      <c r="E161" s="91" t="s">
         <v>580</v>
       </c>
-      <c r="F161" s="94"/>
-      <c r="G161" s="94" t="s">
+      <c r="F161" s="91"/>
+      <c r="G161" s="91" t="s">
         <v>581</v>
       </c>
-      <c r="H161" s="94" t="s">
+      <c r="H161" s="91" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A162" s="93" t="s">
+      <c r="A162" s="90" t="s">
         <v>583</v>
       </c>
-      <c r="B162" s="93"/>
-      <c r="C162" s="93" t="s">
+      <c r="B162" s="90"/>
+      <c r="C162" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D162" s="93" t="s">
+      <c r="D162" s="90" t="s">
         <v>584</v>
       </c>
-      <c r="E162" s="93" t="s">
+      <c r="E162" s="90" t="s">
         <v>585</v>
       </c>
-      <c r="F162" s="93" t="s">
+      <c r="F162" s="90" t="s">
         <v>584</v>
       </c>
-      <c r="G162" s="93" t="s">
+      <c r="G162" s="90" t="s">
         <v>586</v>
       </c>
-      <c r="H162" s="93" t="s">
+      <c r="H162" s="90" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="94" t="s">
+      <c r="A163" s="91" t="s">
         <v>588</v>
       </c>
-      <c r="B163" s="94" t="s">
+      <c r="B163" s="91" t="s">
         <v>583</v>
       </c>
-      <c r="C163" s="94"/>
-      <c r="D163" s="94" t="s">
+      <c r="C163" s="91"/>
+      <c r="D163" s="91" t="s">
         <v>584</v>
       </c>
-      <c r="E163" s="94" t="s">
+      <c r="E163" s="91" t="s">
         <v>589</v>
       </c>
-      <c r="F163" s="94"/>
-      <c r="G163" s="94" t="s">
+      <c r="F163" s="91"/>
+      <c r="G163" s="91" t="s">
         <v>590</v>
       </c>
-      <c r="H163" s="94" t="s">
+      <c r="H163" s="91" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A164" s="94" t="s">
+      <c r="A164" s="91" t="s">
         <v>592</v>
       </c>
-      <c r="B164" s="94" t="s">
+      <c r="B164" s="91" t="s">
         <v>583</v>
       </c>
-      <c r="C164" s="94"/>
-      <c r="D164" s="94" t="s">
+      <c r="C164" s="91"/>
+      <c r="D164" s="91" t="s">
         <v>584</v>
       </c>
-      <c r="E164" s="94" t="s">
+      <c r="E164" s="91" t="s">
         <v>593</v>
       </c>
-      <c r="F164" s="94"/>
-      <c r="G164" s="94" t="s">
+      <c r="F164" s="91"/>
+      <c r="G164" s="91" t="s">
         <v>594</v>
       </c>
-      <c r="H164" s="94" t="s">
+      <c r="H164" s="91" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A165" s="94" t="s">
+      <c r="A165" s="91" t="s">
         <v>596</v>
       </c>
-      <c r="B165" s="94" t="s">
+      <c r="B165" s="91" t="s">
         <v>583</v>
       </c>
-      <c r="C165" s="94"/>
-      <c r="D165" s="94" t="s">
+      <c r="C165" s="91"/>
+      <c r="D165" s="91" t="s">
         <v>584</v>
       </c>
-      <c r="E165" s="94" t="s">
+      <c r="E165" s="91" t="s">
         <v>597</v>
       </c>
-      <c r="F165" s="94"/>
-      <c r="G165" s="94" t="s">
+      <c r="F165" s="91"/>
+      <c r="G165" s="91" t="s">
         <v>598</v>
       </c>
-      <c r="H165" s="94" t="s">
+      <c r="H165" s="91" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A166" s="94" t="s">
+      <c r="A166" s="91" t="s">
         <v>600</v>
       </c>
-      <c r="B166" s="94" t="s">
+      <c r="B166" s="91" t="s">
         <v>583</v>
       </c>
-      <c r="C166" s="94"/>
-      <c r="D166" s="94" t="s">
+      <c r="C166" s="91"/>
+      <c r="D166" s="91" t="s">
         <v>584</v>
       </c>
-      <c r="E166" s="94" t="s">
+      <c r="E166" s="91" t="s">
         <v>601</v>
       </c>
-      <c r="F166" s="94"/>
-      <c r="G166" s="94" t="s">
+      <c r="F166" s="91"/>
+      <c r="G166" s="91" t="s">
         <v>602</v>
       </c>
-      <c r="H166" s="94" t="s">
+      <c r="H166" s="91" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A167" s="94" t="s">
+      <c r="A167" s="91" t="s">
         <v>604</v>
       </c>
-      <c r="B167" s="94" t="s">
+      <c r="B167" s="91" t="s">
         <v>583</v>
       </c>
-      <c r="C167" s="94"/>
-      <c r="D167" s="94" t="s">
+      <c r="C167" s="91"/>
+      <c r="D167" s="91" t="s">
         <v>584</v>
       </c>
-      <c r="E167" s="94" t="s">
+      <c r="E167" s="91" t="s">
         <v>605</v>
       </c>
-      <c r="F167" s="94"/>
-      <c r="G167" s="94" t="s">
+      <c r="F167" s="91"/>
+      <c r="G167" s="91" t="s">
         <v>606</v>
       </c>
-      <c r="H167" s="94" t="s">
+      <c r="H167" s="91" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A168" s="93" t="s">
+      <c r="A168" s="90" t="s">
         <v>608</v>
       </c>
-      <c r="B168" s="93"/>
-      <c r="C168" s="93" t="s">
+      <c r="B168" s="90"/>
+      <c r="C168" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D168" s="93" t="s">
+      <c r="D168" s="90" t="s">
         <v>609</v>
       </c>
-      <c r="E168" s="93" t="s">
+      <c r="E168" s="90" t="s">
         <v>610</v>
       </c>
-      <c r="F168" s="93" t="s">
+      <c r="F168" s="90" t="s">
         <v>609</v>
       </c>
-      <c r="G168" s="93" t="s">
+      <c r="G168" s="90" t="s">
         <v>611</v>
       </c>
-      <c r="H168" s="93" t="s">
+      <c r="H168" s="90" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="94" t="s">
+      <c r="A169" s="91" t="s">
         <v>613</v>
       </c>
-      <c r="B169" s="94" t="s">
+      <c r="B169" s="91" t="s">
         <v>608</v>
       </c>
-      <c r="C169" s="94"/>
-      <c r="D169" s="94" t="s">
+      <c r="C169" s="91"/>
+      <c r="D169" s="91" t="s">
         <v>609</v>
       </c>
-      <c r="E169" s="94" t="s">
+      <c r="E169" s="91" t="s">
         <v>614</v>
       </c>
-      <c r="F169" s="94" t="s">
+      <c r="F169" s="91" t="s">
         <v>615</v>
       </c>
-      <c r="G169" s="94" t="s">
+      <c r="G169" s="91" t="s">
         <v>616</v>
       </c>
-      <c r="H169" s="94" t="s">
+      <c r="H169" s="91" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="94" t="s">
+      <c r="A170" s="91" t="s">
         <v>618</v>
       </c>
-      <c r="B170" s="94" t="s">
+      <c r="B170" s="91" t="s">
         <v>608</v>
       </c>
-      <c r="C170" s="94"/>
-      <c r="D170" s="94" t="s">
+      <c r="C170" s="91"/>
+      <c r="D170" s="91" t="s">
         <v>609</v>
       </c>
-      <c r="E170" s="94" t="s">
+      <c r="E170" s="91" t="s">
         <v>619</v>
       </c>
-      <c r="F170" s="94" t="s">
+      <c r="F170" s="91" t="s">
         <v>620</v>
       </c>
-      <c r="G170" s="94" t="s">
+      <c r="G170" s="91" t="s">
         <v>621</v>
       </c>
-      <c r="H170" s="94" t="s">
+      <c r="H170" s="91" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="94" t="s">
+      <c r="A171" s="91" t="s">
         <v>622</v>
       </c>
-      <c r="B171" s="94" t="s">
+      <c r="B171" s="91" t="s">
         <v>608</v>
       </c>
-      <c r="C171" s="94"/>
-      <c r="D171" s="94" t="s">
+      <c r="C171" s="91"/>
+      <c r="D171" s="91" t="s">
         <v>609</v>
       </c>
-      <c r="E171" s="94" t="s">
+      <c r="E171" s="91" t="s">
         <v>623</v>
       </c>
-      <c r="F171" s="94"/>
-      <c r="G171" s="94" t="s">
+      <c r="F171" s="91"/>
+      <c r="G171" s="91" t="s">
         <v>624</v>
       </c>
-      <c r="H171" s="94" t="s">
+      <c r="H171" s="91" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="94" t="s">
+      <c r="A172" s="91" t="s">
         <v>626</v>
       </c>
-      <c r="B172" s="94" t="s">
+      <c r="B172" s="91" t="s">
         <v>608</v>
       </c>
-      <c r="C172" s="94"/>
-      <c r="D172" s="94" t="s">
+      <c r="C172" s="91"/>
+      <c r="D172" s="91" t="s">
         <v>609</v>
       </c>
-      <c r="E172" s="94" t="s">
+      <c r="E172" s="91" t="s">
         <v>627</v>
       </c>
-      <c r="F172" s="94"/>
-      <c r="G172" s="94" t="s">
+      <c r="F172" s="91"/>
+      <c r="G172" s="91" t="s">
         <v>628</v>
       </c>
-      <c r="H172" s="94" t="s">
+      <c r="H172" s="91" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A173" s="94" t="s">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="91" t="s">
         <v>630</v>
       </c>
-      <c r="B173" s="94" t="s">
+      <c r="B173" s="91" t="s">
         <v>608</v>
       </c>
-      <c r="C173" s="94"/>
-      <c r="D173" s="94" t="s">
+      <c r="C173" s="91"/>
+      <c r="D173" s="91" t="s">
         <v>609</v>
       </c>
-      <c r="E173" s="94" t="s">
+      <c r="E173" s="91" t="s">
         <v>631</v>
       </c>
-      <c r="F173" s="94"/>
-      <c r="G173" s="94" t="s">
+      <c r="F173" s="91"/>
+      <c r="G173" s="91" t="s">
         <v>632</v>
       </c>
-      <c r="H173" s="94" t="s">
+      <c r="H173" s="91" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="94" t="s">
+      <c r="A174" s="91" t="s">
         <v>634</v>
       </c>
-      <c r="B174" s="94" t="s">
+      <c r="B174" s="91" t="s">
         <v>608</v>
       </c>
-      <c r="C174" s="94"/>
-      <c r="D174" s="94" t="s">
+      <c r="C174" s="91"/>
+      <c r="D174" s="91" t="s">
         <v>609</v>
       </c>
-      <c r="E174" s="94" t="s">
+      <c r="E174" s="91" t="s">
         <v>635</v>
       </c>
-      <c r="F174" s="94"/>
-      <c r="G174" s="94" t="s">
+      <c r="F174" s="91"/>
+      <c r="G174" s="91" t="s">
         <v>636</v>
       </c>
-      <c r="H174" s="94" t="s">
+      <c r="H174" s="91" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A175" s="93" t="s">
+      <c r="A175" s="90" t="s">
         <v>638</v>
       </c>
-      <c r="B175" s="93"/>
-      <c r="C175" s="93"/>
-      <c r="D175" s="93" t="s">
+      <c r="B175" s="90"/>
+      <c r="C175" s="90"/>
+      <c r="D175" s="90" t="s">
         <v>639</v>
       </c>
-      <c r="E175" s="93" t="s">
+      <c r="E175" s="90" t="s">
         <v>639</v>
       </c>
-      <c r="F175" s="93" t="s">
+      <c r="F175" s="90" t="s">
         <v>639</v>
       </c>
-      <c r="G175" s="93" t="s">
+      <c r="G175" s="90" t="s">
         <v>640</v>
       </c>
-      <c r="H175" s="93" t="s">
+      <c r="H175" s="90" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A176" s="94" t="s">
+      <c r="A176" s="91" t="s">
         <v>642</v>
       </c>
-      <c r="B176" s="94" t="s">
+      <c r="B176" s="91" t="s">
         <v>638</v>
       </c>
-      <c r="C176" s="94"/>
-      <c r="D176" s="94" t="s">
+      <c r="C176" s="91"/>
+      <c r="D176" s="91" t="s">
         <v>639</v>
       </c>
-      <c r="E176" s="94" t="s">
+      <c r="E176" s="91" t="s">
         <v>643</v>
       </c>
-      <c r="F176" s="94" t="s">
+      <c r="F176" s="91" t="s">
         <v>644</v>
       </c>
-      <c r="G176" s="94" t="s">
+      <c r="G176" s="91" t="s">
         <v>645</v>
       </c>
-      <c r="H176" s="94" t="s">
+      <c r="H176" s="91" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A177" s="94" t="s">
+      <c r="A177" s="91" t="s">
         <v>647</v>
       </c>
-      <c r="B177" s="94" t="s">
+      <c r="B177" s="91" t="s">
         <v>638</v>
       </c>
-      <c r="C177" s="94"/>
-      <c r="D177" s="94" t="s">
+      <c r="C177" s="91"/>
+      <c r="D177" s="91" t="s">
         <v>639</v>
       </c>
-      <c r="E177" s="94" t="s">
+      <c r="E177" s="91" t="s">
         <v>648</v>
       </c>
-      <c r="F177" s="94" t="s">
+      <c r="F177" s="91" t="s">
         <v>649</v>
       </c>
-      <c r="G177" s="94" t="s">
+      <c r="G177" s="91" t="s">
         <v>650</v>
       </c>
-      <c r="H177" s="94" t="s">
+      <c r="H177" s="91" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A178" s="93" t="s">
+      <c r="A178" s="90" t="s">
         <v>652</v>
       </c>
-      <c r="B178" s="93"/>
-      <c r="C178" s="93"/>
-      <c r="D178" s="93" t="s">
+      <c r="B178" s="90"/>
+      <c r="C178" s="90"/>
+      <c r="D178" s="90" t="s">
         <v>653</v>
       </c>
-      <c r="E178" s="93" t="s">
+      <c r="E178" s="90" t="s">
         <v>653</v>
       </c>
-      <c r="F178" s="93" t="s">
+      <c r="F178" s="90" t="s">
         <v>653</v>
       </c>
-      <c r="G178" s="93" t="s">
+      <c r="G178" s="90" t="s">
         <v>654</v>
       </c>
-      <c r="H178" s="93" t="s">
+      <c r="H178" s="90" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A179" s="94" t="s">
+      <c r="A179" s="91" t="s">
         <v>656</v>
       </c>
-      <c r="B179" s="94" t="s">
+      <c r="B179" s="91" t="s">
         <v>652</v>
       </c>
-      <c r="C179" s="94"/>
-      <c r="D179" s="94" t="s">
+      <c r="C179" s="91"/>
+      <c r="D179" s="91" t="s">
         <v>653</v>
       </c>
-      <c r="E179" s="94" t="s">
+      <c r="E179" s="91" t="s">
         <v>657</v>
       </c>
-      <c r="F179" s="94"/>
-      <c r="G179" s="94" t="s">
+      <c r="F179" s="91"/>
+      <c r="G179" s="91" t="s">
         <v>658</v>
       </c>
-      <c r="H179" s="94" t="s">
+      <c r="H179" s="91" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="94" t="s">
+      <c r="A180" s="91" t="s">
         <v>660</v>
       </c>
-      <c r="B180" s="94" t="s">
+      <c r="B180" s="91" t="s">
         <v>652</v>
       </c>
-      <c r="C180" s="94"/>
-      <c r="D180" s="94" t="s">
+      <c r="C180" s="91"/>
+      <c r="D180" s="91" t="s">
         <v>653</v>
       </c>
-      <c r="E180" s="94" t="s">
+      <c r="E180" s="91" t="s">
         <v>661</v>
       </c>
-      <c r="F180" s="94" t="s">
+      <c r="F180" s="91" t="s">
         <v>662</v>
       </c>
-      <c r="G180" s="94" t="s">
+      <c r="G180" s="91" t="s">
         <v>1080</v>
       </c>
-      <c r="H180" s="94" t="s">
+      <c r="H180" s="91" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A181" s="94" t="s">
+      <c r="A181" s="91" t="s">
         <v>663</v>
       </c>
-      <c r="B181" s="94" t="s">
+      <c r="B181" s="91" t="s">
         <v>652</v>
       </c>
-      <c r="C181" s="94"/>
-      <c r="D181" s="94" t="s">
+      <c r="C181" s="91"/>
+      <c r="D181" s="91" t="s">
         <v>653</v>
       </c>
-      <c r="E181" s="94" t="s">
+      <c r="E181" s="91" t="s">
         <v>664</v>
       </c>
-      <c r="F181" s="94" t="s">
+      <c r="F181" s="91" t="s">
         <v>665</v>
       </c>
-      <c r="G181" s="94" t="s">
+      <c r="G181" s="91" t="s">
         <v>666</v>
       </c>
-      <c r="H181" s="94" t="s">
+      <c r="H181" s="91" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A182" s="93" t="s">
+      <c r="A182" s="90" t="s">
         <v>667</v>
       </c>
-      <c r="B182" s="93"/>
-      <c r="C182" s="93"/>
-      <c r="D182" s="93" t="s">
+      <c r="B182" s="90"/>
+      <c r="C182" s="90"/>
+      <c r="D182" s="90" t="s">
         <v>668</v>
       </c>
-      <c r="E182" s="93" t="s">
+      <c r="E182" s="90" t="s">
         <v>668</v>
       </c>
-      <c r="F182" s="93" t="s">
+      <c r="F182" s="90" t="s">
         <v>668</v>
       </c>
-      <c r="G182" s="93" t="s">
+      <c r="G182" s="90" t="s">
         <v>669</v>
       </c>
-      <c r="H182" s="93" t="s">
+      <c r="H182" s="90" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A183" s="94" t="s">
+      <c r="A183" s="91" t="s">
         <v>671</v>
       </c>
-      <c r="B183" s="94" t="s">
+      <c r="B183" s="91" t="s">
         <v>667</v>
       </c>
-      <c r="C183" s="94"/>
-      <c r="D183" s="94" t="s">
+      <c r="C183" s="91"/>
+      <c r="D183" s="91" t="s">
         <v>668</v>
       </c>
-      <c r="E183" s="94" t="s">
+      <c r="E183" s="91" t="s">
         <v>672</v>
       </c>
-      <c r="F183" s="94"/>
-      <c r="G183" s="94" t="s">
+      <c r="F183" s="91"/>
+      <c r="G183" s="91" t="s">
         <v>673</v>
       </c>
-      <c r="H183" s="94" t="s">
+      <c r="H183" s="91" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="94" t="s">
+      <c r="A184" s="91" t="s">
         <v>675</v>
       </c>
-      <c r="B184" s="94" t="s">
+      <c r="B184" s="91" t="s">
         <v>667</v>
       </c>
-      <c r="C184" s="94"/>
-      <c r="D184" s="94" t="s">
+      <c r="C184" s="91"/>
+      <c r="D184" s="91" t="s">
         <v>668</v>
       </c>
-      <c r="E184" s="94" t="s">
+      <c r="E184" s="91" t="s">
         <v>676</v>
       </c>
-      <c r="F184" s="94"/>
-      <c r="G184" s="94" t="s">
+      <c r="F184" s="91"/>
+      <c r="G184" s="91" t="s">
         <v>677</v>
       </c>
-      <c r="H184" s="94" t="s">
+      <c r="H184" s="91" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="94" t="s">
+      <c r="A185" s="91" t="s">
         <v>678</v>
       </c>
-      <c r="B185" s="94" t="s">
+      <c r="B185" s="91" t="s">
         <v>667</v>
       </c>
-      <c r="C185" s="94"/>
-      <c r="D185" s="94" t="s">
+      <c r="C185" s="91"/>
+      <c r="D185" s="91" t="s">
         <v>668</v>
       </c>
-      <c r="E185" s="94" t="s">
+      <c r="E185" s="91" t="s">
         <v>679</v>
       </c>
-      <c r="F185" s="94"/>
-      <c r="G185" s="94" t="s">
+      <c r="F185" s="91"/>
+      <c r="G185" s="91" t="s">
         <v>680</v>
       </c>
-      <c r="H185" s="94" t="s">
+      <c r="H185" s="91" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="94" t="s">
+      <c r="A186" s="91" t="s">
         <v>681</v>
       </c>
-      <c r="B186" s="94" t="s">
+      <c r="B186" s="91" t="s">
         <v>667</v>
       </c>
-      <c r="C186" s="94"/>
-      <c r="D186" s="94" t="s">
+      <c r="C186" s="91"/>
+      <c r="D186" s="91" t="s">
         <v>668</v>
       </c>
-      <c r="E186" s="94" t="s">
+      <c r="E186" s="91" t="s">
         <v>682</v>
       </c>
-      <c r="F186" s="94"/>
-      <c r="G186" s="94" t="s">
+      <c r="F186" s="91"/>
+      <c r="G186" s="91" t="s">
         <v>683</v>
       </c>
-      <c r="H186" s="94" t="s">
+      <c r="H186" s="91" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A187" s="94" t="s">
+      <c r="A187" s="91" t="s">
         <v>684</v>
       </c>
-      <c r="B187" s="94" t="s">
+      <c r="B187" s="91" t="s">
         <v>667</v>
       </c>
-      <c r="C187" s="94"/>
-      <c r="D187" s="94" t="s">
+      <c r="C187" s="91"/>
+      <c r="D187" s="91" t="s">
         <v>668</v>
       </c>
-      <c r="E187" s="94" t="s">
+      <c r="E187" s="91" t="s">
         <v>685</v>
       </c>
-      <c r="F187" s="94" t="s">
+      <c r="F187" s="91" t="s">
         <v>686</v>
       </c>
-      <c r="G187" s="94" t="s">
+      <c r="G187" s="91" t="s">
         <v>687</v>
       </c>
-      <c r="H187" s="94" t="s">
+      <c r="H187" s="91" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A188" s="93" t="s">
+      <c r="A188" s="90" t="s">
         <v>688</v>
       </c>
-      <c r="B188" s="93"/>
-      <c r="C188" s="93"/>
-      <c r="D188" s="93" t="s">
+      <c r="B188" s="90"/>
+      <c r="C188" s="90"/>
+      <c r="D188" s="90" t="s">
         <v>689</v>
       </c>
-      <c r="E188" s="93" t="s">
+      <c r="E188" s="90" t="s">
         <v>689</v>
       </c>
-      <c r="F188" s="93" t="s">
+      <c r="F188" s="90" t="s">
         <v>689</v>
       </c>
-      <c r="G188" s="93" t="s">
+      <c r="G188" s="90" t="s">
         <v>690</v>
       </c>
-      <c r="H188" s="93" t="s">
+      <c r="H188" s="90" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A189" s="94" t="s">
+      <c r="A189" s="91" t="s">
         <v>692</v>
       </c>
-      <c r="B189" s="94" t="s">
+      <c r="B189" s="91" t="s">
         <v>688</v>
       </c>
-      <c r="C189" s="94"/>
-      <c r="D189" s="94" t="s">
+      <c r="C189" s="91"/>
+      <c r="D189" s="91" t="s">
         <v>689</v>
       </c>
-      <c r="E189" s="94" t="s">
+      <c r="E189" s="91" t="s">
         <v>693</v>
       </c>
-      <c r="F189" s="94"/>
-      <c r="G189" s="94" t="s">
+      <c r="F189" s="91"/>
+      <c r="G189" s="91" t="s">
         <v>694</v>
       </c>
-      <c r="H189" s="94" t="s">
+      <c r="H189" s="91" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A190" s="94" t="s">
+      <c r="A190" s="91" t="s">
         <v>695</v>
       </c>
-      <c r="B190" s="94" t="s">
+      <c r="B190" s="91" t="s">
         <v>688</v>
       </c>
-      <c r="C190" s="94"/>
-      <c r="D190" s="94" t="s">
+      <c r="C190" s="91"/>
+      <c r="D190" s="91" t="s">
         <v>689</v>
       </c>
-      <c r="E190" s="94" t="s">
+      <c r="E190" s="91" t="s">
         <v>696</v>
       </c>
-      <c r="F190" s="94"/>
-      <c r="G190" s="94" t="s">
+      <c r="F190" s="91"/>
+      <c r="G190" s="91" t="s">
         <v>697</v>
       </c>
-      <c r="H190" s="94" t="s">
+      <c r="H190" s="91" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="94" t="s">
+      <c r="A191" s="91" t="s">
         <v>698</v>
       </c>
-      <c r="B191" s="94" t="s">
+      <c r="B191" s="91" t="s">
         <v>688</v>
       </c>
-      <c r="C191" s="94"/>
-      <c r="D191" s="94" t="s">
+      <c r="C191" s="91"/>
+      <c r="D191" s="91" t="s">
         <v>689</v>
       </c>
-      <c r="E191" s="94" t="s">
+      <c r="E191" s="91" t="s">
         <v>699</v>
       </c>
-      <c r="F191" s="94"/>
-      <c r="G191" s="94" t="s">
+      <c r="F191" s="91"/>
+      <c r="G191" s="91" t="s">
         <v>700</v>
       </c>
-      <c r="H191" s="94" t="s">
+      <c r="H191" s="91" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="94" t="s">
+      <c r="A192" s="91" t="s">
         <v>702</v>
       </c>
-      <c r="B192" s="94" t="s">
+      <c r="B192" s="91" t="s">
         <v>688</v>
       </c>
-      <c r="C192" s="94"/>
-      <c r="D192" s="94" t="s">
+      <c r="C192" s="91"/>
+      <c r="D192" s="91" t="s">
         <v>689</v>
       </c>
-      <c r="E192" s="94" t="s">
+      <c r="E192" s="91" t="s">
         <v>703</v>
       </c>
-      <c r="F192" s="94"/>
-      <c r="G192" s="94" t="s">
+      <c r="F192" s="91"/>
+      <c r="G192" s="91" t="s">
         <v>704</v>
       </c>
-      <c r="H192" s="94" t="s">
+      <c r="H192" s="91" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A193" s="94" t="s">
+      <c r="A193" s="91" t="s">
         <v>705</v>
       </c>
-      <c r="B193" s="94" t="s">
+      <c r="B193" s="91" t="s">
         <v>688</v>
       </c>
-      <c r="C193" s="94"/>
-      <c r="D193" s="94" t="s">
+      <c r="C193" s="91"/>
+      <c r="D193" s="91" t="s">
         <v>689</v>
       </c>
-      <c r="E193" s="94" t="s">
+      <c r="E193" s="91" t="s">
         <v>706</v>
       </c>
-      <c r="F193" s="94"/>
-      <c r="G193" s="94" t="s">
+      <c r="F193" s="91"/>
+      <c r="G193" s="91" t="s">
         <v>707</v>
       </c>
-      <c r="H193" s="94" t="s">
+      <c r="H193" s="91" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A194" s="93" t="s">
+      <c r="A194" s="90" t="s">
         <v>708</v>
       </c>
-      <c r="B194" s="93"/>
-      <c r="C194" s="93" t="s">
+      <c r="B194" s="90"/>
+      <c r="C194" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D194" s="93" t="s">
+      <c r="D194" s="90" t="s">
         <v>709</v>
       </c>
-      <c r="E194" s="93" t="s">
+      <c r="E194" s="90" t="s">
         <v>710</v>
       </c>
-      <c r="F194" s="93" t="s">
+      <c r="F194" s="90" t="s">
         <v>709</v>
       </c>
-      <c r="G194" s="93" t="s">
+      <c r="G194" s="90" t="s">
         <v>711</v>
       </c>
-      <c r="H194" s="93" t="s">
+      <c r="H194" s="90" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A195" s="94" t="s">
+      <c r="A195" s="91" t="s">
         <v>713</v>
       </c>
-      <c r="B195" s="94" t="s">
+      <c r="B195" s="91" t="s">
         <v>708</v>
       </c>
-      <c r="C195" s="94"/>
-      <c r="D195" s="94" t="s">
+      <c r="C195" s="91"/>
+      <c r="D195" s="91" t="s">
         <v>709</v>
       </c>
-      <c r="E195" s="94" t="s">
+      <c r="E195" s="91" t="s">
         <v>714</v>
       </c>
-      <c r="F195" s="94" t="s">
+      <c r="F195" s="91" t="s">
         <v>715</v>
       </c>
-      <c r="G195" s="94" t="s">
+      <c r="G195" s="91" t="s">
         <v>716</v>
       </c>
-      <c r="H195" s="94" t="s">
+      <c r="H195" s="91" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="94" t="s">
+      <c r="A196" s="91" t="s">
         <v>718</v>
       </c>
-      <c r="B196" s="94" t="s">
+      <c r="B196" s="91" t="s">
         <v>708</v>
       </c>
-      <c r="C196" s="94"/>
-      <c r="D196" s="94" t="s">
+      <c r="C196" s="91"/>
+      <c r="D196" s="91" t="s">
         <v>709</v>
       </c>
-      <c r="E196" s="94" t="s">
+      <c r="E196" s="91" t="s">
         <v>719</v>
       </c>
-      <c r="F196" s="94"/>
-      <c r="G196" s="94" t="s">
+      <c r="F196" s="91"/>
+      <c r="G196" s="91" t="s">
         <v>720</v>
       </c>
-      <c r="H196" s="94" t="s">
+      <c r="H196" s="91" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A197" s="94" t="s">
+      <c r="A197" s="91" t="s">
         <v>722</v>
       </c>
-      <c r="B197" s="94" t="s">
+      <c r="B197" s="91" t="s">
         <v>708</v>
       </c>
-      <c r="C197" s="94"/>
-      <c r="D197" s="94" t="s">
+      <c r="C197" s="91"/>
+      <c r="D197" s="91" t="s">
         <v>709</v>
       </c>
-      <c r="E197" s="94" t="s">
+      <c r="E197" s="91" t="s">
         <v>723</v>
       </c>
-      <c r="F197" s="94"/>
-      <c r="G197" s="94" t="s">
+      <c r="F197" s="91"/>
+      <c r="G197" s="91" t="s">
         <v>724</v>
       </c>
-      <c r="H197" s="94" t="s">
+      <c r="H197" s="91" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="94" t="s">
+      <c r="A198" s="91" t="s">
         <v>726</v>
       </c>
-      <c r="B198" s="94" t="s">
+      <c r="B198" s="91" t="s">
         <v>708</v>
       </c>
-      <c r="C198" s="94"/>
-      <c r="D198" s="94" t="s">
+      <c r="C198" s="91"/>
+      <c r="D198" s="91" t="s">
         <v>709</v>
       </c>
-      <c r="E198" s="94" t="s">
+      <c r="E198" s="91" t="s">
         <v>727</v>
       </c>
-      <c r="F198" s="94"/>
-      <c r="G198" s="94" t="s">
+      <c r="F198" s="91"/>
+      <c r="G198" s="91" t="s">
         <v>728</v>
       </c>
-      <c r="H198" s="94" t="s">
+      <c r="H198" s="91" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A199" s="93" t="s">
+      <c r="A199" s="90" t="s">
         <v>730</v>
       </c>
-      <c r="B199" s="93"/>
-      <c r="C199" s="93" t="s">
+      <c r="B199" s="90"/>
+      <c r="C199" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D199" s="93" t="s">
+      <c r="D199" s="90" t="s">
         <v>731</v>
       </c>
-      <c r="E199" s="93" t="s">
+      <c r="E199" s="90" t="s">
         <v>732</v>
       </c>
-      <c r="F199" s="93" t="s">
+      <c r="F199" s="90" t="s">
         <v>731</v>
       </c>
-      <c r="G199" s="93" t="s">
+      <c r="G199" s="90" t="s">
         <v>733</v>
       </c>
-      <c r="H199" s="93" t="s">
+      <c r="H199" s="90" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A200" s="94" t="s">
+      <c r="A200" s="91" t="s">
         <v>735</v>
       </c>
-      <c r="B200" s="94" t="s">
+      <c r="B200" s="91" t="s">
         <v>730</v>
       </c>
-      <c r="C200" s="94"/>
-      <c r="D200" s="94" t="s">
+      <c r="C200" s="91"/>
+      <c r="D200" s="91" t="s">
         <v>731</v>
       </c>
-      <c r="E200" s="94" t="s">
+      <c r="E200" s="91" t="s">
         <v>736</v>
       </c>
-      <c r="F200" s="94" t="s">
+      <c r="F200" s="91" t="s">
         <v>737</v>
       </c>
-      <c r="G200" s="94" t="s">
+      <c r="G200" s="91" t="s">
         <v>738</v>
       </c>
-      <c r="H200" s="94" t="s">
+      <c r="H200" s="91" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A201" s="94" t="s">
+      <c r="A201" s="91" t="s">
         <v>739</v>
       </c>
-      <c r="B201" s="94" t="s">
+      <c r="B201" s="91" t="s">
         <v>730</v>
       </c>
-      <c r="C201" s="94"/>
-      <c r="D201" s="94" t="s">
+      <c r="C201" s="91"/>
+      <c r="D201" s="91" t="s">
         <v>731</v>
       </c>
-      <c r="E201" s="94" t="s">
+      <c r="E201" s="91" t="s">
         <v>740</v>
       </c>
-      <c r="F201" s="94"/>
-      <c r="G201" s="94" t="s">
+      <c r="F201" s="91"/>
+      <c r="G201" s="91" t="s">
         <v>741</v>
       </c>
-      <c r="H201" s="94" t="s">
+      <c r="H201" s="91" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="94" t="s">
+      <c r="A202" s="91" t="s">
         <v>743</v>
       </c>
-      <c r="B202" s="94" t="s">
+      <c r="B202" s="91" t="s">
         <v>730</v>
       </c>
-      <c r="C202" s="94"/>
-      <c r="D202" s="94" t="s">
+      <c r="C202" s="91"/>
+      <c r="D202" s="91" t="s">
         <v>731</v>
       </c>
-      <c r="E202" s="94" t="s">
+      <c r="E202" s="91" t="s">
         <v>744</v>
       </c>
-      <c r="F202" s="94"/>
-      <c r="G202" s="94" t="s">
+      <c r="F202" s="91"/>
+      <c r="G202" s="91" t="s">
         <v>745</v>
       </c>
-      <c r="H202" s="94" t="s">
+      <c r="H202" s="91" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A203" s="94" t="s">
+      <c r="A203" s="91" t="s">
         <v>747</v>
       </c>
-      <c r="B203" s="94" t="s">
+      <c r="B203" s="91" t="s">
         <v>730</v>
       </c>
-      <c r="C203" s="94"/>
-      <c r="D203" s="94" t="s">
+      <c r="C203" s="91"/>
+      <c r="D203" s="91" t="s">
         <v>731</v>
       </c>
-      <c r="E203" s="94" t="s">
+      <c r="E203" s="91" t="s">
         <v>748</v>
       </c>
-      <c r="F203" s="94"/>
-      <c r="G203" s="94" t="s">
+      <c r="F203" s="91"/>
+      <c r="G203" s="91" t="s">
         <v>749</v>
       </c>
-      <c r="H203" s="94" t="s">
+      <c r="H203" s="91" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="94" t="s">
+      <c r="A204" s="91" t="s">
         <v>751</v>
       </c>
-      <c r="B204" s="94" t="s">
+      <c r="B204" s="91" t="s">
         <v>730</v>
       </c>
-      <c r="C204" s="94"/>
-      <c r="D204" s="94" t="s">
+      <c r="C204" s="91"/>
+      <c r="D204" s="91" t="s">
         <v>731</v>
       </c>
-      <c r="E204" s="94" t="s">
+      <c r="E204" s="91" t="s">
         <v>752</v>
       </c>
-      <c r="F204" s="94"/>
-      <c r="G204" s="94" t="s">
+      <c r="F204" s="91"/>
+      <c r="G204" s="91" t="s">
         <v>753</v>
       </c>
-      <c r="H204" s="94" t="s">
+      <c r="H204" s="91" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A205" s="94" t="s">
+      <c r="A205" s="91" t="s">
         <v>755</v>
       </c>
-      <c r="B205" s="94" t="s">
+      <c r="B205" s="91" t="s">
         <v>730</v>
       </c>
-      <c r="C205" s="94"/>
-      <c r="D205" s="94" t="s">
+      <c r="C205" s="91"/>
+      <c r="D205" s="91" t="s">
         <v>731</v>
       </c>
-      <c r="E205" s="94" t="s">
+      <c r="E205" s="91" t="s">
         <v>756</v>
       </c>
-      <c r="F205" s="94"/>
-      <c r="G205" s="94" t="s">
+      <c r="F205" s="91"/>
+      <c r="G205" s="91" t="s">
         <v>757</v>
       </c>
-      <c r="H205" s="94" t="s">
+      <c r="H205" s="91" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="94" t="s">
+      <c r="A206" s="91" t="s">
         <v>759</v>
       </c>
-      <c r="B206" s="94" t="s">
+      <c r="B206" s="91" t="s">
         <v>730</v>
       </c>
-      <c r="C206" s="94"/>
-      <c r="D206" s="94" t="s">
+      <c r="C206" s="91"/>
+      <c r="D206" s="91" t="s">
         <v>731</v>
       </c>
-      <c r="E206" s="94" t="s">
+      <c r="E206" s="91" t="s">
         <v>760</v>
       </c>
-      <c r="F206" s="94"/>
-      <c r="G206" s="94" t="s">
+      <c r="F206" s="91"/>
+      <c r="G206" s="91" t="s">
         <v>761</v>
       </c>
-      <c r="H206" s="94" t="s">
+      <c r="H206" s="91" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="94" t="s">
+      <c r="A207" s="91" t="s">
         <v>763</v>
       </c>
-      <c r="B207" s="94" t="s">
+      <c r="B207" s="91" t="s">
         <v>730</v>
       </c>
-      <c r="C207" s="94"/>
-      <c r="D207" s="94" t="s">
+      <c r="C207" s="91"/>
+      <c r="D207" s="91" t="s">
         <v>731</v>
       </c>
-      <c r="E207" s="94" t="s">
+      <c r="E207" s="91" t="s">
         <v>764</v>
       </c>
-      <c r="F207" s="94" t="s">
+      <c r="F207" s="91" t="s">
         <v>765</v>
       </c>
-      <c r="G207" s="94" t="s">
+      <c r="G207" s="91" t="s">
         <v>766</v>
       </c>
-      <c r="H207" s="94" t="s">
+      <c r="H207" s="91" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="94" t="s">
+      <c r="A208" s="91" t="s">
         <v>768</v>
       </c>
-      <c r="B208" s="94" t="s">
+      <c r="B208" s="91" t="s">
         <v>730</v>
       </c>
-      <c r="C208" s="94"/>
-      <c r="D208" s="94" t="s">
+      <c r="C208" s="91"/>
+      <c r="D208" s="91" t="s">
         <v>731</v>
       </c>
-      <c r="E208" s="94" t="s">
+      <c r="E208" s="91" t="s">
         <v>572</v>
       </c>
-      <c r="F208" s="94"/>
-      <c r="G208" s="94" t="s">
+      <c r="F208" s="91"/>
+      <c r="G208" s="91" t="s">
         <v>769</v>
       </c>
-      <c r="H208" s="94" t="s">
+      <c r="H208" s="91" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A209" s="94" t="s">
+      <c r="A209" s="91" t="s">
         <v>771</v>
       </c>
-      <c r="B209" s="94" t="s">
+      <c r="B209" s="91" t="s">
         <v>730</v>
       </c>
-      <c r="C209" s="94"/>
-      <c r="D209" s="94" t="s">
+      <c r="C209" s="91"/>
+      <c r="D209" s="91" t="s">
         <v>731</v>
       </c>
-      <c r="E209" s="94" t="s">
+      <c r="E209" s="91" t="s">
         <v>772</v>
       </c>
-      <c r="F209" s="94"/>
-      <c r="G209" s="94" t="s">
+      <c r="F209" s="91"/>
+      <c r="G209" s="91" t="s">
         <v>773</v>
       </c>
-      <c r="H209" s="94" t="s">
+      <c r="H209" s="91" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A210" s="94" t="s">
+      <c r="A210" s="91" t="s">
         <v>775</v>
       </c>
-      <c r="B210" s="94" t="s">
+      <c r="B210" s="91" t="s">
         <v>730</v>
       </c>
-      <c r="C210" s="94"/>
-      <c r="D210" s="94" t="s">
+      <c r="C210" s="91"/>
+      <c r="D210" s="91" t="s">
         <v>731</v>
       </c>
-      <c r="E210" s="94" t="s">
+      <c r="E210" s="91" t="s">
         <v>576</v>
       </c>
-      <c r="F210" s="94" t="s">
+      <c r="F210" s="91" t="s">
         <v>776</v>
       </c>
-      <c r="G210" s="94" t="s">
+      <c r="G210" s="91" t="s">
         <v>777</v>
       </c>
-      <c r="H210" s="94" t="s">
+      <c r="H210" s="91" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="93" t="s">
+      <c r="A211" s="90" t="s">
         <v>779</v>
       </c>
-      <c r="B211" s="93"/>
-      <c r="C211" s="93" t="s">
+      <c r="B211" s="90"/>
+      <c r="C211" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D211" s="93" t="s">
+      <c r="D211" s="90" t="s">
         <v>780</v>
       </c>
-      <c r="E211" s="93" t="s">
+      <c r="E211" s="90" t="s">
         <v>781</v>
       </c>
-      <c r="F211" s="93" t="s">
+      <c r="F211" s="90" t="s">
         <v>780</v>
       </c>
-      <c r="G211" s="93" t="s">
+      <c r="G211" s="90" t="s">
         <v>782</v>
       </c>
-      <c r="H211" s="93" t="s">
+      <c r="H211" s="90" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="94" t="s">
+      <c r="A212" s="91" t="s">
         <v>784</v>
       </c>
-      <c r="B212" s="94" t="s">
+      <c r="B212" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C212" s="94"/>
-      <c r="D212" s="94" t="s">
+      <c r="C212" s="91"/>
+      <c r="D212" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E212" s="94" t="s">
+      <c r="E212" s="91" t="s">
         <v>785</v>
       </c>
-      <c r="F212" s="94" t="s">
+      <c r="F212" s="91" t="s">
         <v>786</v>
       </c>
-      <c r="G212" s="94" t="s">
+      <c r="G212" s="91" t="s">
         <v>787</v>
       </c>
-      <c r="H212" s="94" t="s">
+      <c r="H212" s="91" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="94" t="s">
+      <c r="A213" s="91" t="s">
         <v>789</v>
       </c>
-      <c r="B213" s="94" t="s">
+      <c r="B213" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C213" s="94"/>
-      <c r="D213" s="94" t="s">
+      <c r="C213" s="91"/>
+      <c r="D213" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E213" s="94" t="s">
+      <c r="E213" s="91" t="s">
         <v>790</v>
       </c>
-      <c r="F213" s="94" t="s">
+      <c r="F213" s="91" t="s">
         <v>791</v>
       </c>
-      <c r="G213" s="94" t="s">
+      <c r="G213" s="91" t="s">
         <v>792</v>
       </c>
-      <c r="H213" s="94" t="s">
+      <c r="H213" s="91" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="175" x14ac:dyDescent="0.25">
-      <c r="A214" s="94" t="s">
+      <c r="A214" s="91" t="s">
         <v>794</v>
       </c>
-      <c r="B214" s="94" t="s">
+      <c r="B214" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C214" s="94"/>
-      <c r="D214" s="94" t="s">
+      <c r="C214" s="91"/>
+      <c r="D214" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E214" s="94" t="s">
+      <c r="E214" s="91" t="s">
         <v>795</v>
       </c>
-      <c r="F214" s="94" t="s">
+      <c r="F214" s="91" t="s">
         <v>796</v>
       </c>
-      <c r="G214" s="94" t="s">
+      <c r="G214" s="91" t="s">
         <v>797</v>
       </c>
-      <c r="H214" s="94" t="s">
+      <c r="H214" s="91" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A215" s="94" t="s">
+      <c r="A215" s="91" t="s">
         <v>799</v>
       </c>
-      <c r="B215" s="94" t="s">
+      <c r="B215" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C215" s="94"/>
-      <c r="D215" s="94" t="s">
+      <c r="C215" s="91"/>
+      <c r="D215" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E215" s="94" t="s">
+      <c r="E215" s="91" t="s">
         <v>800</v>
       </c>
-      <c r="F215" s="94" t="s">
+      <c r="F215" s="91" t="s">
         <v>801</v>
       </c>
-      <c r="G215" s="94" t="s">
+      <c r="G215" s="91" t="s">
         <v>802</v>
       </c>
-      <c r="H215" s="94" t="s">
+      <c r="H215" s="91" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A216" s="94" t="s">
+      <c r="A216" s="91" t="s">
         <v>1551</v>
       </c>
-      <c r="B216" s="94" t="s">
+      <c r="B216" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C216" s="94"/>
-      <c r="D216" s="94" t="s">
+      <c r="C216" s="91"/>
+      <c r="D216" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E216" s="94" t="s">
+      <c r="E216" s="91" t="s">
         <v>1552</v>
       </c>
-      <c r="F216" s="94" t="s">
+      <c r="F216" s="91" t="s">
         <v>1553</v>
       </c>
-      <c r="G216" s="94" t="s">
+      <c r="G216" s="91" t="s">
         <v>1554</v>
       </c>
-      <c r="H216" s="94" t="s">
+      <c r="H216" s="91" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A217" s="94" t="s">
+      <c r="A217" s="91" t="s">
         <v>1556</v>
       </c>
-      <c r="B217" s="94" t="s">
+      <c r="B217" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C217" s="94"/>
-      <c r="D217" s="94" t="s">
+      <c r="C217" s="91"/>
+      <c r="D217" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E217" s="94" t="s">
+      <c r="E217" s="91" t="s">
         <v>1557</v>
       </c>
-      <c r="F217" s="94" t="s">
+      <c r="F217" s="91" t="s">
         <v>1558</v>
       </c>
-      <c r="G217" s="94" t="s">
+      <c r="G217" s="91" t="s">
         <v>1559</v>
       </c>
-      <c r="H217" s="94" t="s">
+      <c r="H217" s="91" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A218" s="94" t="s">
+      <c r="A218" s="91" t="s">
         <v>804</v>
       </c>
-      <c r="B218" s="94" t="s">
+      <c r="B218" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C218" s="94"/>
-      <c r="D218" s="94" t="s">
+      <c r="C218" s="91"/>
+      <c r="D218" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E218" s="94" t="s">
+      <c r="E218" s="91" t="s">
         <v>805</v>
       </c>
-      <c r="F218" s="94" t="s">
+      <c r="F218" s="91" t="s">
         <v>806</v>
       </c>
-      <c r="G218" s="94" t="s">
+      <c r="G218" s="91" t="s">
         <v>1561</v>
       </c>
-      <c r="H218" s="94" t="s">
+      <c r="H218" s="91" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A219" s="94" t="s">
+      <c r="A219" s="91" t="s">
         <v>808</v>
       </c>
-      <c r="B219" s="94" t="s">
+      <c r="B219" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C219" s="94"/>
-      <c r="D219" s="94" t="s">
+      <c r="C219" s="91"/>
+      <c r="D219" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E219" s="94" t="s">
+      <c r="E219" s="91" t="s">
         <v>809</v>
       </c>
-      <c r="F219" s="94" t="s">
+      <c r="F219" s="91" t="s">
         <v>810</v>
       </c>
-      <c r="G219" s="94" t="s">
+      <c r="G219" s="91" t="s">
         <v>811</v>
       </c>
-      <c r="H219" s="94" t="s">
+      <c r="H219" s="91" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A220" s="94" t="s">
+      <c r="A220" s="91" t="s">
         <v>813</v>
       </c>
-      <c r="B220" s="94" t="s">
+      <c r="B220" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C220" s="94"/>
-      <c r="D220" s="94" t="s">
+      <c r="C220" s="91"/>
+      <c r="D220" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E220" s="94" t="s">
+      <c r="E220" s="91" t="s">
         <v>814</v>
       </c>
-      <c r="F220" s="94" t="s">
+      <c r="F220" s="91" t="s">
         <v>815</v>
       </c>
-      <c r="G220" s="94" t="s">
+      <c r="G220" s="91" t="s">
         <v>816</v>
       </c>
-      <c r="H220" s="94" t="s">
+      <c r="H220" s="91" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A221" s="94" t="s">
+      <c r="A221" s="91" t="s">
         <v>818</v>
       </c>
-      <c r="B221" s="94" t="s">
+      <c r="B221" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C221" s="94"/>
-      <c r="D221" s="94" t="s">
+      <c r="C221" s="91"/>
+      <c r="D221" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E221" s="94" t="s">
+      <c r="E221" s="91" t="s">
         <v>819</v>
       </c>
-      <c r="F221" s="94" t="s">
+      <c r="F221" s="91" t="s">
         <v>820</v>
       </c>
-      <c r="G221" s="94" t="s">
+      <c r="G221" s="91" t="s">
         <v>821</v>
       </c>
-      <c r="H221" s="94" t="s">
+      <c r="H221" s="91" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="94" t="s">
+      <c r="A222" s="91" t="s">
         <v>823</v>
       </c>
-      <c r="B222" s="94" t="s">
+      <c r="B222" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C222" s="94"/>
-      <c r="D222" s="94" t="s">
+      <c r="C222" s="91"/>
+      <c r="D222" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E222" s="94" t="s">
+      <c r="E222" s="91" t="s">
         <v>824</v>
       </c>
-      <c r="F222" s="94" t="s">
+      <c r="F222" s="91" t="s">
         <v>825</v>
       </c>
-      <c r="G222" s="94" t="s">
+      <c r="G222" s="91" t="s">
         <v>1562</v>
       </c>
-      <c r="H222" s="94" t="s">
+      <c r="H222" s="91" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A223" s="94" t="s">
+      <c r="A223" s="91" t="s">
         <v>827</v>
       </c>
-      <c r="B223" s="94" t="s">
+      <c r="B223" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C223" s="94"/>
-      <c r="D223" s="94" t="s">
+      <c r="C223" s="91"/>
+      <c r="D223" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E223" s="94" t="s">
+      <c r="E223" s="91" t="s">
         <v>828</v>
       </c>
-      <c r="F223" s="94" t="s">
+      <c r="F223" s="91" t="s">
         <v>829</v>
       </c>
-      <c r="G223" s="94" t="s">
+      <c r="G223" s="91" t="s">
         <v>830</v>
       </c>
-      <c r="H223" s="94" t="s">
+      <c r="H223" s="91" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A224" s="94" t="s">
+      <c r="A224" s="91" t="s">
         <v>832</v>
       </c>
-      <c r="B224" s="94" t="s">
+      <c r="B224" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C224" s="94"/>
-      <c r="D224" s="94" t="s">
+      <c r="C224" s="91"/>
+      <c r="D224" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E224" s="94" t="s">
+      <c r="E224" s="91" t="s">
         <v>833</v>
       </c>
-      <c r="F224" s="94" t="s">
+      <c r="F224" s="91" t="s">
         <v>834</v>
       </c>
-      <c r="G224" s="94" t="s">
+      <c r="G224" s="91" t="s">
         <v>835</v>
       </c>
-      <c r="H224" s="94" t="s">
+      <c r="H224" s="91" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="100" x14ac:dyDescent="0.25">
-      <c r="A225" s="94" t="s">
+    <row r="225" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A225" s="91" t="s">
         <v>837</v>
       </c>
-      <c r="B225" s="94" t="s">
+      <c r="B225" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C225" s="94"/>
-      <c r="D225" s="94" t="s">
+      <c r="C225" s="91"/>
+      <c r="D225" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E225" s="94" t="s">
+      <c r="E225" s="91" t="s">
         <v>838</v>
       </c>
-      <c r="F225" s="94" t="s">
+      <c r="F225" s="91" t="s">
         <v>839</v>
       </c>
-      <c r="G225" s="94" t="s">
+      <c r="G225" s="91" t="s">
         <v>1563</v>
       </c>
-      <c r="H225" s="94" t="s">
+      <c r="H225" s="91" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="94" t="s">
+      <c r="A226" s="91" t="s">
         <v>841</v>
       </c>
-      <c r="B226" s="94" t="s">
+      <c r="B226" s="91" t="s">
         <v>779</v>
       </c>
-      <c r="C226" s="94"/>
-      <c r="D226" s="94" t="s">
+      <c r="C226" s="91"/>
+      <c r="D226" s="91" t="s">
         <v>780</v>
       </c>
-      <c r="E226" s="94" t="s">
+      <c r="E226" s="91" t="s">
         <v>842</v>
       </c>
-      <c r="F226" s="94" t="s">
+      <c r="F226" s="91" t="s">
         <v>843</v>
       </c>
-      <c r="G226" s="94" t="s">
+      <c r="G226" s="91" t="s">
         <v>844</v>
       </c>
-      <c r="H226" s="94" t="s">
+      <c r="H226" s="91" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A227" s="95" t="s">
+      <c r="A227" s="92" t="s">
         <v>846</v>
       </c>
-      <c r="B227" s="95"/>
-      <c r="C227" s="95" t="s">
+      <c r="B227" s="92"/>
+      <c r="C227" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D227" s="95" t="s">
+      <c r="D227" s="92" t="s">
         <v>847</v>
       </c>
-      <c r="E227" s="95" t="s">
+      <c r="E227" s="92" t="s">
         <v>848</v>
       </c>
-      <c r="F227" s="95" t="s">
+      <c r="F227" s="92" t="s">
         <v>847</v>
       </c>
-      <c r="G227" s="95" t="s">
+      <c r="G227" s="92" t="s">
         <v>849</v>
       </c>
-      <c r="H227" s="95" t="s">
+      <c r="H227" s="92" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A228" s="94" t="s">
+      <c r="A228" s="91" t="s">
         <v>851</v>
       </c>
-      <c r="B228" s="94" t="s">
+      <c r="B228" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C228" s="94"/>
-      <c r="D228" s="94" t="s">
+      <c r="C228" s="91"/>
+      <c r="D228" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E228" s="94" t="s">
+      <c r="E228" s="91" t="s">
         <v>852</v>
       </c>
-      <c r="F228" s="94"/>
-      <c r="G228" s="94" t="s">
+      <c r="F228" s="91"/>
+      <c r="G228" s="91" t="s">
         <v>853</v>
       </c>
-      <c r="H228" s="94" t="s">
+      <c r="H228" s="91" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A229" s="94" t="s">
+      <c r="A229" s="91" t="s">
         <v>855</v>
       </c>
-      <c r="B229" s="94" t="s">
+      <c r="B229" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C229" s="94"/>
-      <c r="D229" s="94" t="s">
+      <c r="C229" s="91"/>
+      <c r="D229" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E229" s="94" t="s">
+      <c r="E229" s="91" t="s">
         <v>856</v>
       </c>
-      <c r="F229" s="94"/>
-      <c r="G229" s="94" t="s">
+      <c r="F229" s="91"/>
+      <c r="G229" s="91" t="s">
         <v>857</v>
       </c>
-      <c r="H229" s="94" t="s">
+      <c r="H229" s="91" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="94" t="s">
+      <c r="A230" s="91" t="s">
         <v>859</v>
       </c>
-      <c r="B230" s="94" t="s">
+      <c r="B230" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C230" s="94"/>
-      <c r="D230" s="94" t="s">
+      <c r="C230" s="91"/>
+      <c r="D230" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E230" s="94" t="s">
+      <c r="E230" s="91" t="s">
         <v>860</v>
       </c>
-      <c r="F230" s="94"/>
-      <c r="G230" s="94" t="s">
+      <c r="F230" s="91"/>
+      <c r="G230" s="91" t="s">
         <v>861</v>
       </c>
-      <c r="H230" s="94" t="s">
+      <c r="H230" s="91" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A231" s="94" t="s">
+      <c r="A231" s="91" t="s">
         <v>863</v>
       </c>
-      <c r="B231" s="94" t="s">
+      <c r="B231" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C231" s="94"/>
-      <c r="D231" s="94" t="s">
+      <c r="C231" s="91"/>
+      <c r="D231" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E231" s="94" t="s">
+      <c r="E231" s="91" t="s">
         <v>864</v>
       </c>
-      <c r="F231" s="94"/>
-      <c r="G231" s="94" t="s">
+      <c r="F231" s="91"/>
+      <c r="G231" s="91" t="s">
         <v>865</v>
       </c>
-      <c r="H231" s="94" t="s">
+      <c r="H231" s="91" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="94" t="s">
+      <c r="A232" s="91" t="s">
         <v>867</v>
       </c>
-      <c r="B232" s="94" t="s">
+      <c r="B232" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C232" s="94"/>
-      <c r="D232" s="94" t="s">
+      <c r="C232" s="91"/>
+      <c r="D232" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E232" s="94" t="s">
+      <c r="E232" s="91" t="s">
         <v>868</v>
       </c>
-      <c r="F232" s="94"/>
-      <c r="G232" s="94" t="s">
+      <c r="F232" s="91"/>
+      <c r="G232" s="91" t="s">
         <v>869</v>
       </c>
-      <c r="H232" s="94" t="s">
+      <c r="H232" s="91" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="94" t="s">
+      <c r="A233" s="91" t="s">
         <v>871</v>
       </c>
-      <c r="B233" s="94" t="s">
+      <c r="B233" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C233" s="94"/>
-      <c r="D233" s="94" t="s">
+      <c r="C233" s="91"/>
+      <c r="D233" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E233" s="94" t="s">
+      <c r="E233" s="91" t="s">
         <v>872</v>
       </c>
-      <c r="F233" s="94"/>
-      <c r="G233" s="94" t="s">
+      <c r="F233" s="91"/>
+      <c r="G233" s="91" t="s">
         <v>873</v>
       </c>
-      <c r="H233" s="94" t="s">
+      <c r="H233" s="91" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A234" s="94" t="s">
+      <c r="A234" s="91" t="s">
         <v>747</v>
       </c>
-      <c r="B234" s="94" t="s">
+      <c r="B234" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C234" s="94"/>
-      <c r="D234" s="94" t="s">
+      <c r="C234" s="91"/>
+      <c r="D234" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E234" s="94" t="s">
+      <c r="E234" s="91" t="s">
         <v>748</v>
       </c>
-      <c r="F234" s="94"/>
-      <c r="G234" s="94" t="s">
+      <c r="F234" s="91"/>
+      <c r="G234" s="91" t="s">
         <v>749</v>
       </c>
-      <c r="H234" s="94" t="s">
+      <c r="H234" s="91" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A235" s="94" t="s">
+      <c r="A235" s="91" t="s">
         <v>875</v>
       </c>
-      <c r="B235" s="94" t="s">
+      <c r="B235" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C235" s="94"/>
-      <c r="D235" s="94" t="s">
+      <c r="C235" s="91"/>
+      <c r="D235" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E235" s="94" t="s">
+      <c r="E235" s="91" t="s">
         <v>876</v>
       </c>
-      <c r="F235" s="94"/>
-      <c r="G235" s="94" t="s">
+      <c r="F235" s="91"/>
+      <c r="G235" s="91" t="s">
         <v>877</v>
       </c>
-      <c r="H235" s="94" t="s">
+      <c r="H235" s="91" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A236" s="94" t="s">
+      <c r="A236" s="91" t="s">
         <v>879</v>
       </c>
-      <c r="B236" s="94" t="s">
+      <c r="B236" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C236" s="94"/>
-      <c r="D236" s="94" t="s">
+      <c r="C236" s="91"/>
+      <c r="D236" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E236" s="94" t="s">
+      <c r="E236" s="91" t="s">
         <v>880</v>
       </c>
-      <c r="F236" s="94"/>
-      <c r="G236" s="94" t="s">
+      <c r="F236" s="91"/>
+      <c r="G236" s="91" t="s">
         <v>881</v>
       </c>
-      <c r="H236" s="94" t="s">
+      <c r="H236" s="91" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A237" s="94" t="s">
+      <c r="A237" s="91" t="s">
         <v>883</v>
       </c>
-      <c r="B237" s="94" t="s">
+      <c r="B237" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C237" s="94"/>
-      <c r="D237" s="94" t="s">
+      <c r="C237" s="91"/>
+      <c r="D237" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E237" s="94" t="s">
+      <c r="E237" s="91" t="s">
         <v>884</v>
       </c>
-      <c r="F237" s="94"/>
-      <c r="G237" s="94" t="s">
+      <c r="F237" s="91"/>
+      <c r="G237" s="91" t="s">
         <v>885</v>
       </c>
-      <c r="H237" s="94" t="s">
+      <c r="H237" s="91" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A238" s="94" t="s">
+      <c r="A238" s="91" t="s">
         <v>887</v>
       </c>
-      <c r="B238" s="94" t="s">
+      <c r="B238" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C238" s="94"/>
-      <c r="D238" s="94" t="s">
+      <c r="C238" s="91"/>
+      <c r="D238" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E238" s="94" t="s">
+      <c r="E238" s="91" t="s">
         <v>888</v>
       </c>
-      <c r="F238" s="94"/>
-      <c r="G238" s="94" t="s">
+      <c r="F238" s="91"/>
+      <c r="G238" s="91" t="s">
         <v>889</v>
       </c>
-      <c r="H238" s="94" t="s">
+      <c r="H238" s="91" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A239" s="94" t="s">
+      <c r="A239" s="91" t="s">
         <v>891</v>
       </c>
-      <c r="B239" s="94" t="s">
+      <c r="B239" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C239" s="94"/>
-      <c r="D239" s="94" t="s">
+      <c r="C239" s="91"/>
+      <c r="D239" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E239" s="94" t="s">
+      <c r="E239" s="91" t="s">
         <v>892</v>
       </c>
-      <c r="F239" s="94" t="s">
+      <c r="F239" s="91" t="s">
         <v>893</v>
       </c>
-      <c r="G239" s="94" t="s">
+      <c r="G239" s="91" t="s">
         <v>894</v>
       </c>
-      <c r="H239" s="94" t="s">
+      <c r="H239" s="91" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A240" s="94" t="s">
+      <c r="A240" s="91" t="s">
         <v>895</v>
       </c>
-      <c r="B240" s="94" t="s">
+      <c r="B240" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C240" s="94"/>
-      <c r="D240" s="94" t="s">
+      <c r="C240" s="91"/>
+      <c r="D240" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E240" s="94" t="s">
+      <c r="E240" s="91" t="s">
         <v>896</v>
       </c>
-      <c r="F240" s="94"/>
-      <c r="G240" s="94" t="s">
+      <c r="F240" s="91"/>
+      <c r="G240" s="91" t="s">
         <v>897</v>
       </c>
-      <c r="H240" s="94" t="s">
+      <c r="H240" s="91" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="94" t="s">
+      <c r="A241" s="91" t="s">
         <v>899</v>
       </c>
-      <c r="B241" s="94" t="s">
+      <c r="B241" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C241" s="94"/>
-      <c r="D241" s="94" t="s">
+      <c r="C241" s="91"/>
+      <c r="D241" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E241" s="94" t="s">
+      <c r="E241" s="91" t="s">
         <v>900</v>
       </c>
-      <c r="F241" s="94"/>
-      <c r="G241" s="94" t="s">
+      <c r="F241" s="91"/>
+      <c r="G241" s="91" t="s">
         <v>901</v>
       </c>
-      <c r="H241" s="94" t="s">
+      <c r="H241" s="91" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="94" t="s">
+      <c r="A242" s="91" t="s">
         <v>903</v>
       </c>
-      <c r="B242" s="94" t="s">
+      <c r="B242" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C242" s="94"/>
-      <c r="D242" s="94" t="s">
+      <c r="C242" s="91"/>
+      <c r="D242" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E242" s="94" t="s">
+      <c r="E242" s="91" t="s">
         <v>904</v>
       </c>
-      <c r="F242" s="94"/>
-      <c r="G242" s="94" t="s">
+      <c r="F242" s="91"/>
+      <c r="G242" s="91" t="s">
         <v>905</v>
       </c>
-      <c r="H242" s="94" t="s">
+      <c r="H242" s="91" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A243" s="94" t="s">
+      <c r="A243" s="91" t="s">
         <v>907</v>
       </c>
-      <c r="B243" s="94" t="s">
+      <c r="B243" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C243" s="94"/>
-      <c r="D243" s="94" t="s">
+      <c r="C243" s="91"/>
+      <c r="D243" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E243" s="94" t="s">
+      <c r="E243" s="91" t="s">
         <v>908</v>
       </c>
-      <c r="F243" s="94"/>
-      <c r="G243" s="94" t="s">
+      <c r="F243" s="91"/>
+      <c r="G243" s="91" t="s">
         <v>909</v>
       </c>
-      <c r="H243" s="94" t="s">
+      <c r="H243" s="91" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A244" s="94" t="s">
+      <c r="A244" s="91" t="s">
         <v>911</v>
       </c>
-      <c r="B244" s="94" t="s">
+      <c r="B244" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C244" s="94"/>
-      <c r="D244" s="94" t="s">
+      <c r="C244" s="91"/>
+      <c r="D244" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E244" s="94" t="s">
+      <c r="E244" s="91" t="s">
         <v>912</v>
       </c>
-      <c r="F244" s="94"/>
-      <c r="G244" s="94" t="s">
+      <c r="F244" s="91"/>
+      <c r="G244" s="91" t="s">
         <v>913</v>
       </c>
-      <c r="H244" s="94" t="s">
+      <c r="H244" s="91" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A245" s="94" t="s">
+      <c r="A245" s="91" t="s">
         <v>915</v>
       </c>
-      <c r="B245" s="94" t="s">
+      <c r="B245" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C245" s="94"/>
-      <c r="D245" s="94" t="s">
+      <c r="C245" s="91"/>
+      <c r="D245" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E245" s="94" t="s">
+      <c r="E245" s="91" t="s">
         <v>916</v>
       </c>
-      <c r="F245" s="94"/>
-      <c r="G245" s="94" t="s">
+      <c r="F245" s="91"/>
+      <c r="G245" s="91" t="s">
         <v>917</v>
       </c>
-      <c r="H245" s="94" t="s">
+      <c r="H245" s="91" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A246" s="94" t="s">
+      <c r="A246" s="91" t="s">
         <v>919</v>
       </c>
-      <c r="B246" s="94" t="s">
+      <c r="B246" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C246" s="94"/>
-      <c r="D246" s="94" t="s">
+      <c r="C246" s="91"/>
+      <c r="D246" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E246" s="94" t="s">
+      <c r="E246" s="91" t="s">
         <v>920</v>
       </c>
-      <c r="F246" s="94"/>
-      <c r="G246" s="94" t="s">
+      <c r="F246" s="91"/>
+      <c r="G246" s="91" t="s">
         <v>921</v>
       </c>
-      <c r="H246" s="94" t="s">
+      <c r="H246" s="91" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A247" s="94" t="s">
+      <c r="A247" s="91" t="s">
         <v>923</v>
       </c>
-      <c r="B247" s="94" t="s">
+      <c r="B247" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C247" s="94"/>
-      <c r="D247" s="94" t="s">
+      <c r="C247" s="91"/>
+      <c r="D247" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E247" s="94" t="s">
+      <c r="E247" s="91" t="s">
         <v>924</v>
       </c>
-      <c r="F247" s="94"/>
-      <c r="G247" s="94" t="s">
+      <c r="F247" s="91"/>
+      <c r="G247" s="91" t="s">
         <v>925</v>
       </c>
-      <c r="H247" s="94" t="s">
+      <c r="H247" s="91" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A248" s="94" t="s">
+      <c r="A248" s="91" t="s">
         <v>927</v>
       </c>
-      <c r="B248" s="94" t="s">
+      <c r="B248" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C248" s="94"/>
-      <c r="D248" s="94" t="s">
+      <c r="C248" s="91"/>
+      <c r="D248" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E248" s="94" t="s">
+      <c r="E248" s="91" t="s">
         <v>928</v>
       </c>
-      <c r="F248" s="94"/>
-      <c r="G248" s="94" t="s">
+      <c r="F248" s="91"/>
+      <c r="G248" s="91" t="s">
         <v>929</v>
       </c>
-      <c r="H248" s="94" t="s">
+      <c r="H248" s="91" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A249" s="94" t="s">
+      <c r="A249" s="91" t="s">
         <v>763</v>
       </c>
-      <c r="B249" s="94" t="s">
+      <c r="B249" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C249" s="94"/>
-      <c r="D249" s="94" t="s">
+      <c r="C249" s="91"/>
+      <c r="D249" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E249" s="94" t="s">
+      <c r="E249" s="91" t="s">
         <v>764</v>
       </c>
-      <c r="F249" s="94" t="s">
+      <c r="F249" s="91" t="s">
         <v>765</v>
       </c>
-      <c r="G249" s="94" t="s">
+      <c r="G249" s="91" t="s">
         <v>766</v>
       </c>
-      <c r="H249" s="94" t="s">
+      <c r="H249" s="91" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A250" s="94" t="s">
+      <c r="A250" s="91" t="s">
         <v>931</v>
       </c>
-      <c r="B250" s="94" t="s">
+      <c r="B250" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C250" s="94"/>
-      <c r="D250" s="94" t="s">
+      <c r="C250" s="91"/>
+      <c r="D250" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E250" s="94" t="s">
+      <c r="E250" s="91" t="s">
         <v>932</v>
       </c>
-      <c r="F250" s="94"/>
-      <c r="G250" s="94" t="s">
+      <c r="F250" s="91"/>
+      <c r="G250" s="91" t="s">
         <v>933</v>
       </c>
-      <c r="H250" s="94" t="s">
+      <c r="H250" s="91" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A251" s="94" t="s">
+      <c r="A251" s="91" t="s">
         <v>935</v>
       </c>
-      <c r="B251" s="94" t="s">
+      <c r="B251" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C251" s="94"/>
-      <c r="D251" s="94" t="s">
+      <c r="C251" s="91"/>
+      <c r="D251" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E251" s="94" t="s">
+      <c r="E251" s="91" t="s">
         <v>936</v>
       </c>
-      <c r="F251" s="94"/>
-      <c r="G251" s="94" t="s">
+      <c r="F251" s="91"/>
+      <c r="G251" s="91" t="s">
         <v>937</v>
       </c>
-      <c r="H251" s="94" t="s">
+      <c r="H251" s="91" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A252" s="94" t="s">
+      <c r="A252" s="91" t="s">
         <v>939</v>
       </c>
-      <c r="B252" s="94" t="s">
+      <c r="B252" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C252" s="94"/>
-      <c r="D252" s="94" t="s">
+      <c r="C252" s="91"/>
+      <c r="D252" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E252" s="94" t="s">
+      <c r="E252" s="91" t="s">
         <v>940</v>
       </c>
-      <c r="F252" s="94"/>
-      <c r="G252" s="94" t="s">
+      <c r="F252" s="91"/>
+      <c r="G252" s="91" t="s">
         <v>941</v>
       </c>
-      <c r="H252" s="94" t="s">
+      <c r="H252" s="91" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A253" s="94" t="s">
+      <c r="A253" s="91" t="s">
         <v>943</v>
       </c>
-      <c r="B253" s="94" t="s">
+      <c r="B253" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C253" s="94"/>
-      <c r="D253" s="94" t="s">
+      <c r="C253" s="91"/>
+      <c r="D253" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E253" s="94" t="s">
+      <c r="E253" s="91" t="s">
         <v>944</v>
       </c>
-      <c r="F253" s="94" t="s">
+      <c r="F253" s="91" t="s">
         <v>945</v>
       </c>
-      <c r="G253" s="94" t="s">
+      <c r="G253" s="91" t="s">
         <v>946</v>
       </c>
-      <c r="H253" s="94" t="s">
+      <c r="H253" s="91" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A254" s="94" t="s">
+      <c r="A254" s="91" t="s">
         <v>948</v>
       </c>
-      <c r="B254" s="94" t="s">
+      <c r="B254" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C254" s="94"/>
-      <c r="D254" s="94" t="s">
+      <c r="C254" s="91"/>
+      <c r="D254" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E254" s="94" t="s">
+      <c r="E254" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="F254" s="94"/>
-      <c r="G254" s="94" t="s">
+      <c r="F254" s="91"/>
+      <c r="G254" s="91" t="s">
         <v>950</v>
       </c>
-      <c r="H254" s="94" t="s">
+      <c r="H254" s="91" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A255" s="94" t="s">
+      <c r="A255" s="91" t="s">
         <v>775</v>
       </c>
-      <c r="B255" s="94" t="s">
+      <c r="B255" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C255" s="94"/>
-      <c r="D255" s="94" t="s">
+      <c r="C255" s="91"/>
+      <c r="D255" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E255" s="94" t="s">
+      <c r="E255" s="91" t="s">
         <v>576</v>
       </c>
-      <c r="F255" s="94" t="s">
+      <c r="F255" s="91" t="s">
         <v>776</v>
       </c>
-      <c r="G255" s="94" t="s">
+      <c r="G255" s="91" t="s">
         <v>777</v>
       </c>
-      <c r="H255" s="94" t="s">
+      <c r="H255" s="91" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="94" t="s">
+      <c r="A256" s="91" t="s">
         <v>952</v>
       </c>
-      <c r="B256" s="94" t="s">
+      <c r="B256" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C256" s="94"/>
-      <c r="D256" s="94" t="s">
+      <c r="C256" s="91"/>
+      <c r="D256" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E256" s="94" t="s">
+      <c r="E256" s="91" t="s">
         <v>953</v>
       </c>
-      <c r="F256" s="94"/>
-      <c r="G256" s="94" t="s">
+      <c r="F256" s="91"/>
+      <c r="G256" s="91" t="s">
         <v>954</v>
       </c>
-      <c r="H256" s="94" t="s">
+      <c r="H256" s="91" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A257" s="94" t="s">
+      <c r="A257" s="91" t="s">
         <v>956</v>
       </c>
-      <c r="B257" s="94" t="s">
+      <c r="B257" s="91" t="s">
         <v>846</v>
       </c>
-      <c r="C257" s="94"/>
-      <c r="D257" s="94" t="s">
+      <c r="C257" s="91"/>
+      <c r="D257" s="91" t="s">
         <v>847</v>
       </c>
-      <c r="E257" s="94" t="s">
+      <c r="E257" s="91" t="s">
         <v>957</v>
       </c>
-      <c r="F257" s="94"/>
-      <c r="G257" s="94" t="s">
+      <c r="F257" s="91"/>
+      <c r="G257" s="91" t="s">
         <v>958</v>
       </c>
-      <c r="H257" s="94" t="s">
+      <c r="H257" s="91" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="96"/>
-      <c r="B258" s="96"/>
-      <c r="C258" s="96"/>
-      <c r="D258" s="96"/>
-      <c r="E258" s="96"/>
-      <c r="F258" s="96"/>
-      <c r="G258" s="96"/>
-      <c r="H258" s="96"/>
+      <c r="A258" s="93"/>
+      <c r="B258" s="93"/>
+      <c r="C258" s="93"/>
+      <c r="D258" s="93"/>
+      <c r="E258" s="93"/>
+      <c r="F258" s="93"/>
+      <c r="G258" s="93"/>
+      <c r="H258" s="93"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H255" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -19331,11 +19402,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>985</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19349,7 +19420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2261BAFA-DB40-4742-A275-AC9B4F4BE353}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -19418,7 +19489,7 @@
       <c r="D2" s="53" t="s">
         <v>1323</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="85" t="s">
         <v>1490</v>
       </c>
       <c r="F2" s="30" t="s">
@@ -19715,7 +19786,7 @@
       <c r="D11" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="88" t="s">
         <v>1519</v>
       </c>
       <c r="F11" s="30" t="s">
@@ -19764,7 +19835,7 @@
       <c r="J12" s="38" t="s">
         <v>1528</v>
       </c>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="89" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -19979,9 +20050,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26159E6B-EDF9-4EC9-8B9E-0CC93771A6CC}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -20797,29 +20868,29 @@
       <c r="A2" s="37" t="s">
         <v>1427</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="77" t="s">
         <v>971</v>
       </c>
       <c r="C2" s="66" t="s">
         <v>1428</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="78" t="s">
         <v>1326</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="77" t="s">
         <v>1334</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>1429</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="79" t="s">
         <v>1346</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="79" t="s">
         <v>1347</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="80" t="s">
         <v>1348</v>
       </c>
       <c r="K2" s="32" t="s">
@@ -20830,29 +20901,29 @@
       <c r="A3" s="37" t="s">
         <v>1427</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="77" t="s">
         <v>971</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>1428</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>1326</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="77" t="s">
         <v>1334</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>1429</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="79" t="s">
         <v>1350</v>
       </c>
       <c r="I3" s="33"/>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="80" t="s">
         <v>1351</v>
       </c>
       <c r="K3" s="32" t="s">
@@ -20863,29 +20934,29 @@
       <c r="A4" s="31" t="s">
         <v>1430</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="77" t="s">
         <v>1431</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="77" t="s">
         <v>1432</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="78" t="s">
         <v>1373</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="77" t="s">
         <v>1378</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>1433</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="81" t="s">
         <v>1434</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="81" t="s">
         <v>1435</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="81"/>
+      <c r="J4" s="82" t="s">
         <v>1436</v>
       </c>
       <c r="K4" s="32" t="s">
@@ -20896,29 +20967,29 @@
       <c r="A5" s="31" t="s">
         <v>1430</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="77" t="s">
         <v>1431</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="77" t="s">
         <v>1432</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="78" t="s">
         <v>1373</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="77" t="s">
         <v>1378</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>1433</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="81" t="s">
         <v>1437</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="81" t="s">
         <v>1438</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="85" t="s">
+      <c r="I5" s="81"/>
+      <c r="J5" s="82" t="s">
         <v>1439</v>
       </c>
       <c r="K5" s="32" t="s">
@@ -20929,29 +21000,29 @@
       <c r="A6" s="31" t="s">
         <v>1430</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="77" t="s">
         <v>1431</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="77" t="s">
         <v>1432</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="78" t="s">
         <v>1373</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="77" t="s">
         <v>1378</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>1433</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="G6" s="81" t="s">
         <v>1440</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="81" t="s">
         <v>1441</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85" t="s">
+      <c r="I6" s="81"/>
+      <c r="J6" s="82" t="s">
         <v>1442</v>
       </c>
       <c r="K6" s="32" t="s">
@@ -20962,29 +21033,29 @@
       <c r="A7" s="31" t="s">
         <v>1430</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="77" t="s">
         <v>1431</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="77" t="s">
         <v>1432</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="78" t="s">
         <v>1373</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="77" t="s">
         <v>1378</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>1433</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="81" t="s">
         <v>1443</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="81" t="s">
         <v>1444</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85" t="s">
+      <c r="I7" s="81"/>
+      <c r="J7" s="82" t="s">
         <v>1445</v>
       </c>
       <c r="K7" s="32" t="s">
@@ -20995,29 +21066,29 @@
       <c r="A8" s="31" t="s">
         <v>1430</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="77" t="s">
         <v>1431</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="77" t="s">
         <v>1432</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="78" t="s">
         <v>1373</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="77" t="s">
         <v>1378</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>1433</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="81" t="s">
         <v>1446</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="81" t="s">
         <v>1447</v>
       </c>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85" t="s">
+      <c r="I8" s="81"/>
+      <c r="J8" s="82" t="s">
         <v>1448</v>
       </c>
       <c r="K8" s="32" t="s">
@@ -21028,29 +21099,29 @@
       <c r="A9" s="31" t="s">
         <v>1430</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="77" t="s">
         <v>1431</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="77" t="s">
         <v>1432</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="78" t="s">
         <v>1373</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="77" t="s">
         <v>1378</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>1433</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="81" t="s">
         <v>1449</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="81" t="s">
         <v>1450</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85" t="s">
+      <c r="I9" s="81"/>
+      <c r="J9" s="82" t="s">
         <v>1451</v>
       </c>
       <c r="K9" s="32" t="s">
@@ -21061,31 +21132,31 @@
       <c r="A10" s="31" t="s">
         <v>1430</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="77" t="s">
         <v>1431</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="77" t="s">
         <v>1432</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="78" t="s">
         <v>1373</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="77" t="s">
         <v>1378</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>1433</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="81" t="s">
         <v>1452</v>
       </c>
-      <c r="H10" s="84" t="s">
+      <c r="H10" s="81" t="s">
         <v>1453</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="81" t="s">
         <v>1454</v>
       </c>
-      <c r="J10" s="85" t="s">
+      <c r="J10" s="82" t="s">
         <v>1455</v>
       </c>
       <c r="K10" s="32" t="s">
@@ -21096,31 +21167,31 @@
       <c r="A11" s="31" t="s">
         <v>1430</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="77" t="s">
         <v>1431</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="77" t="s">
         <v>1432</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="78" t="s">
         <v>1373</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="77" t="s">
         <v>1378</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>1433</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="81" t="s">
         <v>1456</v>
       </c>
-      <c r="H11" s="84" t="s">
+      <c r="H11" s="81" t="s">
         <v>1457</v>
       </c>
-      <c r="I11" s="84" t="s">
+      <c r="I11" s="81" t="s">
         <v>1458</v>
       </c>
-      <c r="J11" s="85" t="s">
+      <c r="J11" s="82" t="s">
         <v>1459</v>
       </c>
       <c r="K11" s="32" t="s">
@@ -21137,13 +21208,13 @@
       <c r="C12" s="30" t="s">
         <v>1377</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="83" t="s">
         <v>1373</v>
       </c>
       <c r="E12" s="41" t="s">
         <v>1378</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="84" t="s">
         <v>967</v>
       </c>
       <c r="G12" s="31" t="s">
@@ -21170,10 +21241,10 @@
       <c r="C13" s="30" t="s">
         <v>1330</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="83" t="s">
         <v>1326</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="85" t="s">
         <v>1334</v>
       </c>
       <c r="F13" s="22" t="s">
@@ -21189,7 +21260,7 @@
       <c r="J13" s="22" t="s">
         <v>1336</v>
       </c>
-      <c r="K13" s="82" t="s">
+      <c r="K13" s="79" t="s">
         <v>1462</v>
       </c>
     </row>
@@ -21203,10 +21274,10 @@
       <c r="C14" s="30" t="s">
         <v>1377</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="83" t="s">
         <v>1373</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="85" t="s">
         <v>1385</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -21236,7 +21307,7 @@
       <c r="C15" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="86" t="s">
         <v>1026</v>
       </c>
       <c r="E15" s="30" t="s">
@@ -21271,7 +21342,7 @@
       <c r="C16" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="86" t="s">
         <v>1026</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -21306,7 +21377,7 @@
       <c r="C17" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="83" t="s">
         <v>986</v>
       </c>
       <c r="E17" s="30" t="s">
@@ -21341,7 +21412,7 @@
       <c r="C18" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="83" t="s">
         <v>986</v>
       </c>
       <c r="E18" s="30" t="s">
@@ -21376,7 +21447,7 @@
       <c r="C19" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="83" t="s">
         <v>986</v>
       </c>
       <c r="E19" s="30" t="s">
@@ -21409,7 +21480,7 @@
       <c r="C20" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="83" t="s">
         <v>986</v>
       </c>
       <c r="E20" s="30" t="s">
@@ -21442,7 +21513,7 @@
       <c r="C21" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="83" t="s">
         <v>986</v>
       </c>
       <c r="E21" s="30" t="s">
@@ -21475,7 +21546,7 @@
       <c r="C22" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="83" t="s">
         <v>986</v>
       </c>
       <c r="E22" s="30" t="s">
@@ -21508,7 +21579,7 @@
       <c r="C23" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="83" t="s">
         <v>1477</v>
       </c>
       <c r="E23" s="68" t="s">
@@ -21531,7 +21602,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="125" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>1476</v>
       </c>
@@ -21541,7 +21612,7 @@
       <c r="C24" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="83" t="s">
         <v>1477</v>
       </c>
       <c r="E24" s="41" t="s">
@@ -21574,7 +21645,7 @@
       <c r="C25" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="83" t="s">
         <v>1477</v>
       </c>
       <c r="E25" s="41" t="s">
@@ -21607,7 +21678,7 @@
       <c r="C26" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="83" t="s">
         <v>1028</v>
       </c>
       <c r="E26" s="41" t="s">
@@ -21628,6 +21699,402 @@
       </c>
       <c r="K26" s="56" t="s">
         <v>1486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D27" s="86" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="D28" s="86" t="s">
+        <v>972</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>967</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="D29" s="86" t="s">
+        <v>972</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="D30" s="86" t="s">
+        <v>972</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>740</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="D31" s="86" t="s">
+        <v>972</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>743</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>744</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="D32" s="86" t="s">
+        <v>972</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>748</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="D33" s="86" t="s">
+        <v>972</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>751</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>752</v>
+      </c>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="D34" s="86" t="s">
+        <v>972</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>755</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>756</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="D35" s="86" t="s">
+        <v>972</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="D36" s="86" t="s">
+        <v>972</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>764</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="D37" s="86" t="s">
+        <v>972</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="D38" s="86" t="s">
+        <v>972</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="D39" s="86" t="s">
+        <v>972</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>776</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0066D1-1C38-4F91-9C9E-6BECE226AF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F850B2DF-CA43-4CD7-A561-51CA56F647F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="70" windowWidth="18200" windowHeight="9820" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="310" yWindow="0" windowWidth="18200" windowHeight="9820" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="1570">
   <si>
     <t>Code</t>
   </si>
@@ -19420,7 +19420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2261BAFA-DB40-4742-A275-AC9B4F4BE353}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -20052,7 +20052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26159E6B-EDF9-4EC9-8B9E-0CC93771A6CC}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -21724,7 +21724,9 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="32" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
@@ -21792,6 +21794,9 @@
       <c r="J29" s="31" t="s">
         <v>738</v>
       </c>
+      <c r="K29" s="32" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
@@ -21822,6 +21827,9 @@
       <c r="J30" s="31" t="s">
         <v>741</v>
       </c>
+      <c r="K30" s="32" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
@@ -21852,6 +21860,9 @@
       <c r="J31" s="31" t="s">
         <v>745</v>
       </c>
+      <c r="K31" s="32" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
@@ -21882,8 +21893,11 @@
       <c r="J32" s="31" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="K32" s="32" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>1569</v>
       </c>
@@ -21912,8 +21926,11 @@
       <c r="J33" s="31" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="K33" s="32" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>1569</v>
       </c>
@@ -21942,8 +21959,11 @@
       <c r="J34" s="31" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="K34" s="32" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>1569</v>
       </c>
@@ -21972,8 +21992,11 @@
       <c r="J35" s="31" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="K35" s="32" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>1569</v>
       </c>
@@ -22004,8 +22027,11 @@
       <c r="J36" s="31" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="K36" s="32" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>1569</v>
       </c>
@@ -22034,8 +22060,11 @@
       <c r="J37" s="31" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="K37" s="32" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>1569</v>
       </c>
@@ -22064,8 +22093,11 @@
       <c r="J38" s="31" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="K38" s="32" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>1569</v>
       </c>
@@ -22095,6 +22127,9 @@
       </c>
       <c r="J39" s="31" t="s">
         <v>777</v>
+      </c>
+      <c r="K39" s="32" t="s">
+        <v>1196</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C11EC5-54E4-43B6-9103-299057F917F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB92D6-0BDD-43D1-8AAE-019209D6ADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="15960" windowHeight="8670" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="15960" windowHeight="8670" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
     <sheet name="DDF Terminology 2023-03-31" sheetId="1" r:id="rId2"/>
-    <sheet name="Terminology Changes Sp12 - new" sheetId="24" r:id="rId3"/>
-    <sheet name="Terminology Changes Sp12 - chg" sheetId="23" r:id="rId4"/>
+    <sheet name="Terminology Changes Sp13 - new" sheetId="24" r:id="rId3"/>
+    <sheet name="Terminology Changes Sp13 - chg" sheetId="23" r:id="rId4"/>
     <sheet name="Terminology Changes Sp11 - new" sheetId="22" r:id="rId5"/>
     <sheet name="Terminology Changes Sp11 - chg" sheetId="21" r:id="rId6"/>
     <sheet name="Terminology Changes Sp10 - new" sheetId="19" r:id="rId7"/>
@@ -6991,6 +6991,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6999,12 +7005,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7300,10 +7300,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -21668,11 +21668,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>985</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22914,7 +22914,7 @@
       <c r="D4" s="14" t="s">
         <v>1326</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="94" t="s">
         <v>1340</v>
       </c>
       <c r="F4" s="14" t="s">
@@ -22964,7 +22964,7 @@
       <c r="D6" s="32" t="s">
         <v>1326</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="95" t="s">
         <v>1331</v>
       </c>
       <c r="F6" s="54" t="s">

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB92D6-0BDD-43D1-8AAE-019209D6ADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16A15B0-50AF-45E5-9039-54FF58788325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="15960" windowHeight="8670" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2050" yWindow="610" windowWidth="15960" windowHeight="8670" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3806" uniqueCount="1610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="1612">
   <si>
     <t>Code</t>
   </si>
@@ -6369,6 +6369,38 @@
         <family val="2"/>
       </rPr>
       <t>studyArmId</t>
+    </r>
+  </si>
+  <si>
+    <t>studyElements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyElements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyElementIds</t>
     </r>
   </si>
 </sst>
@@ -21684,7 +21716,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CF1164-EFF4-4BD6-B593-E0FB0AB9133F}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22022,6 +22054,29 @@
         <v>1196</v>
       </c>
     </row>
+    <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="32" t="s">
+        <v>1196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22029,7 +22084,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4807563F-8FB3-4C50-999E-0F9405F3617E}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22899,7 +22954,9 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="K3" s="32" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
@@ -22924,7 +22981,9 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="32" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
@@ -22949,7 +23008,9 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="32" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
@@ -23007,7 +23068,9 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="32" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
@@ -23032,7 +23095,9 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="K8" s="32" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
@@ -23057,7 +23122,36 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="32" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="32" t="s">
+        <v>1196</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE992A5-5686-401B-9893-8A62EC747D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E667F5A-5714-4B2B-AA88-D812109C5A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="340" windowWidth="17420" windowHeight="9910" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="770" windowWidth="14620" windowHeight="9320" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1125">
   <si>
     <t>Code</t>
   </si>
@@ -4819,7 +4819,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>endpointPurposeDescription</t>
+      <t>indicationDescription</t>
     </r>
     <r>
       <rPr>
@@ -4837,7 +4837,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>purposeDescription</t>
+      <t>description</t>
     </r>
   </si>
   <si>
@@ -4848,7 +4848,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>The textual representation of the study endpoint purpose.</t>
+      <t>The condition, disease or disorder that the clinical trial is intended to investigate or address.</t>
     </r>
     <r>
       <rPr>
@@ -4866,8 +4866,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>A narrative representation of the study endpoint purpose.</t>
-    </r>
+      <t>A narrative representation of the condition, disease or disorder that the clinical trial is intended to investigate or address.</t>
+    </r>
+  </si>
+  <si>
+    <t>Y (point out to multiple Biomedical coding dictionaries such as SNOMEDCT (for FDA), MedDRA, NCIt, ICD's, etc.)</t>
+  </si>
+  <si>
+    <t>Recode Entity</t>
   </si>
   <si>
     <r>
@@ -4877,7 +4883,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>indicationDescription</t>
+      <t>C112038</t>
     </r>
     <r>
       <rPr>
@@ -4895,7 +4901,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>description</t>
+      <t>C41184</t>
     </r>
   </si>
   <si>
@@ -4906,7 +4912,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>The condition, disease or disorder that the clinical trial is intended to investigate or address.</t>
+      <t>Trial Disease/Condition Indication Description</t>
     </r>
     <r>
       <rPr>
@@ -4924,14 +4930,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>A narrative representation of the condition, disease or disorder that the clinical trial is intended to investigate or address.</t>
-    </r>
-  </si>
-  <si>
-    <t>Y (point out to multiple Biomedical coding dictionaries such as SNOMEDCT (for FDA), MedDRA, NCIt, ICD's, etc.)</t>
-  </si>
-  <si>
-    <t>Recode Entity</t>
+      <t>Disease/Condition Indication</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4941,7 +4941,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>C112038</t>
+      <t>interventionDescription</t>
     </r>
     <r>
       <rPr>
@@ -4959,7 +4959,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>C41184</t>
+      <t>description</t>
     </r>
   </si>
   <si>
@@ -4970,7 +4970,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Trial Disease/Condition Indication Description</t>
+      <t>Intervention Description</t>
     </r>
     <r>
       <rPr>
@@ -4988,7 +4988,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Disease/Condition Indication</t>
+      <t>Investigational Intervention Description</t>
     </r>
   </si>
   <si>
@@ -4999,7 +4999,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>interventionDescription</t>
+      <t>The textual representation of the study intervention.</t>
     </r>
     <r>
       <rPr>
@@ -5017,7 +5017,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>description</t>
+      <t>A narrative representation of the investigational intervention.</t>
     </r>
   </si>
   <si>
@@ -5028,7 +5028,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Intervention Description</t>
+      <t>objectiveDescription</t>
     </r>
     <r>
       <rPr>
@@ -5046,7 +5046,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Investigational Intervention Description</t>
+      <t>description</t>
     </r>
   </si>
   <si>
@@ -5057,7 +5057,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>The textual representation of the study intervention.</t>
+      <t>The textual representation of the study objective. (BRIDG)</t>
     </r>
     <r>
       <rPr>
@@ -5075,123 +5075,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>A narrative representation of the investigational intervention.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>objectiveDescription</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>description</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The textual representation of the study objective. (BRIDG)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>A narrative representation of the study objective.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyArmDataOriginDescription</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dataOriginDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The textual representation of the study arm data origin.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A narrative representation of the study arm data origin.</t>
     </r>
   </si>
   <si>
@@ -12411,7 +12295,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12420,7 +12304,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.6328125" style="1" customWidth="1"/>
     <col min="4" max="6" width="14.81640625" style="1" customWidth="1"/>
@@ -12958,18 +12842,18 @@
         <v>996</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="160" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>1110</v>
@@ -12978,22 +12862,22 @@
         <v>967</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16" t="s">
         <v>1111</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="160" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>1055</v>
+        <v>1113</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>219</v>
@@ -13004,56 +12888,56 @@
       <c r="D19" s="16" t="s">
         <v>982</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>967</v>
+      <c r="E19" s="26" t="s">
+        <v>982</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>1012</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>201</v>
+        <v>1114</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>202</v>
+        <v>1115</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16" t="s">
-        <v>1113</v>
+        <v>1124</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>219</v>
+        <v>1055</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>982</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>982</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>1012</v>
+        <v>992</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>967</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>1116</v>
+        <v>233</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>1117</v>
+        <v>234</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="16" t="s">
-        <v>1128</v>
-      </c>
-      <c r="K20" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K20" s="17" t="s">
         <v>996</v>
       </c>
     </row>
@@ -13071,88 +12955,88 @@
         <v>992</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>235</v>
+        <v>1086</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>226</v>
+      <c r="B22" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>992</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>1085</v>
+        <v>1020</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>1116</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>231</v>
+        <v>1117</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16" t="s">
-        <v>1086</v>
+        <v>1118</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>1118</v>
+        <v>984</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>1119</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>1119</v>
+        <v>254</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
         <v>1120</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="16" t="s">
         <v>996</v>
       </c>
     </row>
@@ -13160,32 +13044,32 @@
       <c r="A24" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>249</v>
+      <c r="B24" s="22" t="s">
+        <v>275</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>984</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>1121</v>
+        <v>153</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>1087</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16" t="s">
-        <v>1122</v>
-      </c>
-      <c r="K24" s="16" t="s">
+      <c r="G24" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K24" s="17" t="s">
         <v>996</v>
       </c>
     </row>
@@ -13202,8 +13086,8 @@
       <c r="D25" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>1087</v>
+      <c r="E25" s="20" t="s">
+        <v>1088</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>967</v>
@@ -13211,51 +13095,45 @@
       <c r="G25" s="17" t="s">
         <v>971</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>1022</v>
+      <c r="H25" s="23" t="s">
+        <v>1024</v>
       </c>
       <c r="I25" s="23"/>
       <c r="J25" s="23" t="s">
-        <v>1023</v>
+        <v>1089</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>275</v>
+        <v>997</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23" t="s">
-        <v>1089</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>1055</v>
       </c>
@@ -13269,12 +13147,12 @@
         <v>1011</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>978</v>
       </c>
-      <c r="G27" s="22"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -13284,7 +13162,7 @@
     </row>
     <row r="28" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>1055</v>
+        <v>1064</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>997</v>
@@ -13292,13 +13170,13 @@
       <c r="C28" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F28" s="22" t="s">
+      <c r="D28" s="29" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>978</v>
       </c>
       <c r="G28" s="14"/>
@@ -13311,7 +13189,7 @@
     </row>
     <row r="29" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>997</v>
@@ -13319,13 +13197,13 @@
       <c r="C29" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="23" t="s">
         <v>1013</v>
       </c>
-      <c r="E29" s="31" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F29" s="25" t="s">
+      <c r="E29" s="39" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F29" s="22" t="s">
         <v>978</v>
       </c>
       <c r="G29" s="14"/>
@@ -13336,7 +13214,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>1055</v>
       </c>
@@ -13350,7 +13228,7 @@
         <v>1013</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>978</v>
@@ -13377,7 +13255,7 @@
         <v>1013</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>978</v>
@@ -13400,11 +13278,11 @@
       <c r="C32" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>1067</v>
+      <c r="D32" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>1068</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>978</v>
@@ -13417,31 +13295,37 @@
         <v>997</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>997</v>
+        <v>971</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>997</v>
+        <v>1039</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>1015</v>
       </c>
-      <c r="E33" s="40" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14" t="s">
-        <v>997</v>
+      <c r="E33" s="30" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
@@ -13457,8 +13341,8 @@
       <c r="D34" s="22" t="s">
         <v>1015</v>
       </c>
-      <c r="E34" s="30" t="s">
-        <v>1090</v>
+      <c r="E34" s="43" t="s">
+        <v>1091</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>967</v>
@@ -13467,11 +13351,11 @@
         <v>971</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23" t="s">
-        <v>1017</v>
+        <v>1092</v>
       </c>
       <c r="K34" s="23" t="s">
         <v>996</v>
@@ -13482,31 +13366,31 @@
         <v>1055</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>971</v>
+        <v>286</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>1091</v>
+        <v>287</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>986</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>1093</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G35" s="23" t="s">
-        <v>971</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23" t="s">
-        <v>1092</v>
-      </c>
-      <c r="K35" s="23" t="s">
+      <c r="G35" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>996</v>
       </c>
     </row>
@@ -13524,89 +13408,77 @@
         <v>986</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G36" s="16" t="s">
-        <v>300</v>
+      <c r="G36" s="17" t="s">
+        <v>296</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16" t="s">
-        <v>302</v>
+        <v>1095</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>1055</v>
+    <row r="37" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>1069</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>286</v>
+        <v>997</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>986</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16" t="s">
-        <v>1095</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>1055</v>
+        <v>997</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>972</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
+        <v>1069</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>286</v>
+        <v>997</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>986</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16" t="s">
-        <v>1124</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>996</v>
+        <v>997</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>972</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="25" x14ac:dyDescent="0.25">
@@ -13619,107 +13491,119 @@
       <c r="C39" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="47" t="s">
         <v>972</v>
       </c>
-      <c r="E39" s="28" t="s">
-        <v>1008</v>
+      <c r="E39" s="48" t="s">
+        <v>1010</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>978</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
       <c r="K39" s="14" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
-        <v>1069</v>
+    <row r="40" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>1055</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>997</v>
+        <v>321</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D40" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" s="27" t="s">
         <v>972</v>
       </c>
-      <c r="E40" s="48" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>978</v>
-      </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
-        <v>1069</v>
+      <c r="E40" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>1055</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>997</v>
+        <v>321</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D41" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="D41" s="16" t="s">
         <v>972</v>
       </c>
-      <c r="E41" s="48" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>978</v>
-      </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14" t="s">
-        <v>997</v>
+      <c r="E41" s="19" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>321</v>
+      <c r="B42" s="14" t="s">
+        <v>337</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>972</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>1096</v>
+        <v>338</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>983</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>1106</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G42" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>979</v>
-      </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17" t="s">
-        <v>980</v>
-      </c>
-      <c r="K42" s="16" t="s">
+      <c r="G42" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K42" s="17" t="s">
         <v>996</v>
       </c>
     </row>
@@ -13728,283 +13612,217 @@
         <v>1055</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>972</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F43" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>988</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F43" s="46" t="s">
         <v>967</v>
       </c>
-      <c r="G43" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>981</v>
-      </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17" t="s">
-        <v>1098</v>
+      <c r="G43" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>337</v>
+      <c r="B44" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F44" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>988</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F44" s="46" t="s">
         <v>967</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="I44" s="16"/>
       <c r="J44" s="16" t="s">
-        <v>1125</v>
-      </c>
-      <c r="K44" s="17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K44" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>988</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F45" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="I45" s="16"/>
-      <c r="J45" s="16" t="s">
-        <v>354</v>
+      <c r="J45" s="17" t="s">
+        <v>1103</v>
       </c>
       <c r="K45" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>988</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F46" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F46" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16" t="s">
-        <v>1101</v>
-      </c>
-      <c r="K46" s="16" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K46" s="17" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>355</v>
+        <v>997</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>987</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="17" t="s">
-        <v>1103</v>
-      </c>
-      <c r="K47" s="16" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>355</v>
+        <v>997</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>987</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16" t="s">
-        <v>1105</v>
-      </c>
-      <c r="K48" s="17" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>997</v>
+      <c r="B49" s="14" t="s">
+        <v>409</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="C51" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D49" s="16" t="s">
         <v>989</v>
       </c>
-      <c r="E51" s="19" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F51" s="16" t="s">
+      <c r="E49" s="19" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F49" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G49" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H49" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16" t="s">
-        <v>1127</v>
-      </c>
-      <c r="K51" s="16" t="s">
+      <c r="I49" s="16"/>
+      <c r="J49" s="16" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K49" s="16" t="s">
         <v>996</v>
       </c>
     </row>

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E667F5A-5714-4B2B-AA88-D812109C5A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF157314-C1D8-441C-8BDC-1BF78EA910DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="770" windowWidth="14620" windowHeight="9320" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="470" windowWidth="18660" windowHeight="9820" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF Terminology 2023-06-30'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Terminology Changes Sp1 - chg'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Terminology Changes Sp1 - chg'!$A$1:$K$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1135">
   <si>
     <t>Code</t>
   </si>
@@ -5192,6 +5192,280 @@
         <family val="2"/>
       </rPr>
       <t>A health problem or disease that is identified as likely to be benefited by a therapy being studied in clinical trials.</t>
+    </r>
+  </si>
+  <si>
+    <t>StudyCell</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyEpochId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyEpoch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyArmId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyArm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyElementIds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>previousStudyEpochId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>previousStudyEpoch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nextStudyEpochId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nextStudyEpoch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>previousEncounterId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>previousEncounter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nextEncounterId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nextEncounter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bcCategoryMemberIds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bcCategoryMembers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>defaultConditionId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>defaultCondition</t>
     </r>
   </si>
 </sst>
@@ -5491,7 +5765,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5640,6 +5914,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12295,9 +12572,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -12655,32 +12932,26 @@
         <v>1055</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>971</v>
+        <v>997</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>998</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>1000</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="17" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>996</v>
+      <c r="J12" s="17"/>
+      <c r="K12" s="14" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="50" x14ac:dyDescent="0.25">
@@ -12697,7 +12968,7 @@
         <v>998</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>967</v>
@@ -12706,11 +12977,11 @@
         <v>971</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17" t="s">
-        <v>1080</v>
+        <v>1001</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>996</v>
@@ -12721,62 +12992,62 @@
         <v>1055</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>997</v>
+        <v>971</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>976</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>84</v>
+        <v>997</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>85</v>
+        <v>997</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="E15" s="40" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>1055</v>
       </c>
@@ -12790,121 +13061,121 @@
         <v>976</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16" t="s">
-        <v>1083</v>
-      </c>
-      <c r="K16" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>111</v>
+      <c r="B17" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>985</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>1108</v>
+        <v>976</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>1082</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="17"/>
+        <v>88</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="16"/>
       <c r="J17" s="16" t="s">
-        <v>1109</v>
+        <v>1083</v>
       </c>
       <c r="K17" s="17" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="160" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>219</v>
+      <c r="B18" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>1110</v>
+        <v>1131</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16" t="s">
-        <v>1111</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>219</v>
+        <v>1055</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>982</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>982</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>1012</v>
+        <v>976</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>967</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>1114</v>
+        <v>103</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>1115</v>
+        <v>104</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16" t="s">
-        <v>1124</v>
-      </c>
-      <c r="K19" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="17" t="s">
         <v>996</v>
       </c>
     </row>
@@ -12912,98 +13183,98 @@
       <c r="A20" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>226</v>
+      <c r="B20" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>992</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>1084</v>
+        <v>985</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>1108</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="I20" s="16"/>
+        <v>115</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="17"/>
       <c r="J20" s="16" t="s">
-        <v>235</v>
+        <v>1109</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="160" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>226</v>
+      <c r="B21" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>992</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>1085</v>
+        <v>982</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>1110</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>1086</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+        <v>1111</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>1055</v>
+        <v>1113</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>967</v>
+        <v>982</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>982</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>1012</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>243</v>
+        <v>1114</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16" t="s">
-        <v>1118</v>
-      </c>
-      <c r="K22" s="17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="K22" s="16" t="s">
         <v>996</v>
       </c>
     </row>
@@ -13011,32 +13282,32 @@
       <c r="A23" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>249</v>
+      <c r="B23" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>1119</v>
+        <v>1084</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>1120</v>
-      </c>
-      <c r="K23" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" s="17" t="s">
         <v>996</v>
       </c>
     </row>
@@ -13045,149 +13316,167 @@
         <v>1055</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>1087</v>
+        <v>992</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>1085</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23" t="s">
-        <v>1023</v>
+      <c r="G24" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16" t="s">
+        <v>1086</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>275</v>
+      <c r="B25" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>1088</v>
+        <v>1020</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>1116</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23" t="s">
-        <v>1089</v>
+      <c r="G25" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16" t="s">
+        <v>1118</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>997</v>
+      <c r="B26" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>984</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>997</v>
+        <v>275</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>997</v>
+        <v>275</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>978</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>1055</v>
       </c>
@@ -13197,16 +13486,16 @@
       <c r="C29" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>1065</v>
+      <c r="D29" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>1062</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>978</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -13214,7 +13503,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>1055</v>
       </c>
@@ -13224,11 +13513,11 @@
       <c r="C30" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>1066</v>
+      <c r="D30" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>1063</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>978</v>
@@ -13243,7 +13532,7 @@
     </row>
     <row r="31" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>1055</v>
+        <v>1064</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>997</v>
@@ -13251,13 +13540,13 @@
       <c r="C31" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="29" t="s">
         <v>1013</v>
       </c>
-      <c r="E31" s="39" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F31" s="22" t="s">
+      <c r="E31" s="31" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F31" s="25" t="s">
         <v>978</v>
       </c>
       <c r="G31" s="14"/>
@@ -13268,7 +13557,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>1055</v>
       </c>
@@ -13278,11 +13567,11 @@
       <c r="C32" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>1068</v>
+      <c r="D32" s="23" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>1065</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>978</v>
@@ -13295,70 +13584,58 @@
         <v>997</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>971</v>
+        <v>997</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>971</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>971</v>
+        <v>997</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>971</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23" t="s">
-        <v>1092</v>
-      </c>
-      <c r="K34" s="23" t="s">
-        <v>996</v>
+        <v>997</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
@@ -13366,146 +13643,152 @@
         <v>1055</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>286</v>
+        <v>997</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>986</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B36" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C39" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D39" s="16" t="s">
         <v>986</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F36" s="16" t="s">
+      <c r="E39" s="19" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F39" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16" t="s">
-        <v>1095</v>
-      </c>
-      <c r="K36" s="16" t="s">
+      <c r="G39" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" s="16" t="s">
         <v>996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>978</v>
-      </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>972</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>978</v>
-      </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>972</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>978</v>
-      </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
@@ -13513,194 +13796,176 @@
         <v>1055</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>972</v>
+        <v>287</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>986</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>979</v>
-      </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17" t="s">
-        <v>980</v>
+        <v>296</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16" t="s">
+        <v>1095</v>
       </c>
       <c r="K40" s="16" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>1055</v>
+      <c r="A41" s="41" t="s">
+        <v>1069</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>321</v>
+        <v>997</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D41" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>972</v>
       </c>
-      <c r="E41" s="19" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>981</v>
-      </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17" t="s">
-        <v>1098</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>996</v>
+      <c r="E41" s="28" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="14" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>337</v>
+      <c r="A42" s="41" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>997</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16" t="s">
-        <v>1121</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>996</v>
+        <v>997</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>972</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>1055</v>
+      <c r="A43" s="41" t="s">
+        <v>1069</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>345</v>
+        <v>997</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>988</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F43" s="46" t="s">
-        <v>967</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>972</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>988</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F44" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>972</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F44" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G44" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16" t="s">
-        <v>1101</v>
+      <c r="G44" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17" t="s">
+        <v>980</v>
       </c>
       <c r="K44" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>987</v>
+        <v>972</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="F45" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="I45" s="16"/>
+      <c r="G45" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="I45" s="17"/>
       <c r="J45" s="17" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="K45" s="16" t="s">
         <v>996</v>
@@ -13710,60 +13975,66 @@
       <c r="A46" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>355</v>
+      <c r="B46" s="14" t="s">
+        <v>337</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>987</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>1104</v>
+        <v>983</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>1106</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16" t="s">
-        <v>1105</v>
+        <v>1121</v>
       </c>
       <c r="K46" s="17" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>997</v>
+        <v>345</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14" t="s">
-        <v>997</v>
+        <v>346</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>988</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>967</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="50" x14ac:dyDescent="0.25">
@@ -13771,67 +14042,341 @@
         <v>1055</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>997</v>
+        <v>345</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>988</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>967</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>409</v>
+      <c r="B49" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>1122</v>
+        <v>1102</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="I49" s="16"/>
-      <c r="J49" s="16" t="s">
-        <v>1123</v>
+      <c r="J49" s="17" t="s">
+        <v>1103</v>
       </c>
       <c r="K49" s="16" t="s">
         <v>996</v>
       </c>
     </row>
+    <row r="50" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>989</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <autoFilter ref="A1:K58" xr:uid="{00000000-0001-0000-0300-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF157314-C1D8-441C-8BDC-1BF78EA910DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B23BE-721F-4ED0-A457-B334E63AC14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="470" windowWidth="18660" windowHeight="9820" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="980" windowWidth="18660" windowHeight="9820" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF Terminology 2023-06-30'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Terminology Changes Sp1 - chg'!$A$1:$K$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Terminology Changes Sp1 - chg'!$A$1:$K$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1137">
   <si>
     <t>Code</t>
   </si>
@@ -5466,6 +5466,64 @@
         <family val="2"/>
       </rPr>
       <t>defaultCondition</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>previousActivityId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>previousActivity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nextActivityId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nextActivity</t>
     </r>
   </si>
 </sst>
@@ -5909,14 +5967,14 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6212,10 +6270,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -12572,7 +12630,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12735,160 +12793,154 @@
         <v>997</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>22</v>
+        <v>997</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>23</v>
+        <v>997</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>990</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E6" s="24" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>22</v>
+        <v>997</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>23</v>
+        <v>997</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>990</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17" t="s">
-        <v>1074</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="E7" s="24" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>38</v>
+      <c r="B8" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>1106</v>
+        <v>1072</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16" t="s">
-        <v>1107</v>
-      </c>
-      <c r="K8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>997</v>
+        <v>22</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>997</v>
+        <v>23</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14" t="s">
-        <v>997</v>
+        <v>990</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>971</v>
+      <c r="B10" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>1004</v>
+        <v>39</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>1075</v>
+        <v>991</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>1106</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17" t="s">
-        <v>1006</v>
+      <c r="G10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16" t="s">
+        <v>1107</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>996</v>
@@ -12899,32 +12951,26 @@
         <v>1055</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>971</v>
+        <v>997</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>1003</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17" t="s">
-        <v>1077</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>996</v>
+      <c r="E11" s="24" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="50" x14ac:dyDescent="0.25">
@@ -12932,26 +12978,32 @@
         <v>1055</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>997</v>
+        <v>971</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>1003</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="E12" s="20" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>1005</v>
+      </c>
       <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="14" t="s">
-        <v>997</v>
+      <c r="J12" s="17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="50" x14ac:dyDescent="0.25">
@@ -12962,13 +13014,13 @@
         <v>971</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>967</v>
@@ -12977,11 +13029,11 @@
         <v>971</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17" t="s">
-        <v>1001</v>
+        <v>1077</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>996</v>
@@ -12992,32 +13044,26 @@
         <v>1055</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>971</v>
+        <v>997</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>998</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>1002</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="17" t="s">
-        <v>1080</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>996</v>
+      <c r="J14" s="17"/>
+      <c r="K14" s="14" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="50" x14ac:dyDescent="0.25">
@@ -13025,58 +13071,64 @@
         <v>1055</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>997</v>
+        <v>971</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>976</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>84</v>
+        <v>971</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>85</v>
+        <v>999</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>976</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>1081</v>
+        <v>998</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>1079</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="K16" s="16" t="s">
+      <c r="G16" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>996</v>
       </c>
     </row>
@@ -13085,35 +13137,29 @@
         <v>1055</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>84</v>
+        <v>997</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>85</v>
+        <v>997</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16" t="s">
-        <v>1083</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="E17" s="40" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>1055</v>
       </c>
@@ -13127,26 +13173,26 @@
         <v>976</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>1131</v>
+        <v>1081</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>1055</v>
       </c>
@@ -13160,218 +13206,218 @@
         <v>976</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>1132</v>
+        <v>1082</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16" t="s">
-        <v>105</v>
+        <v>1083</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>111</v>
+      <c r="B20" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>985</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>1108</v>
+        <v>976</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>1131</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="17"/>
+        <v>107</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="16"/>
       <c r="J20" s="16" t="s">
-        <v>1109</v>
+        <v>109</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="160" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>219</v>
+      <c r="B21" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>1110</v>
+        <v>1132</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>1111</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>1113</v>
+        <v>1055</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>982</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>982</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>1012</v>
+        <v>985</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>967</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>1114</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I22" s="16"/>
+        <v>115</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="17"/>
       <c r="J22" s="16" t="s">
-        <v>1124</v>
-      </c>
-      <c r="K22" s="16" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K22" s="17" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="160" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>226</v>
+      <c r="B23" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>992</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>1084</v>
+        <v>982</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>1110</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+        <v>1111</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>226</v>
+        <v>1113</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>992</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>967</v>
+        <v>982</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>982</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>1012</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>230</v>
+        <v>1114</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>231</v>
+        <v>1115</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16" t="s">
-        <v>1086</v>
-      </c>
-      <c r="K24" s="17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="K24" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>239</v>
+      <c r="B25" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>1116</v>
+        <v>992</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>1084</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>1117</v>
+        <v>234</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
-        <v>1118</v>
+        <v>235</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>996</v>
@@ -13381,63 +13427,63 @@
       <c r="A26" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>249</v>
+      <c r="B26" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>1119</v>
+        <v>1085</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16" t="s">
-        <v>1120</v>
-      </c>
-      <c r="K26" s="16" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K26" s="17" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>275</v>
+      <c r="B27" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>153</v>
+        <v>1020</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>1087</v>
+        <v>1116</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G27" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23" t="s">
-        <v>1023</v>
+      <c r="G27" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16" t="s">
+        <v>1118</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>996</v>
@@ -13447,92 +13493,104 @@
       <c r="A28" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>275</v>
+      <c r="B28" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>1088</v>
+        <v>984</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>1119</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G28" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23" t="s">
-        <v>1089</v>
-      </c>
-      <c r="K28" s="17" t="s">
+      <c r="G28" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K28" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>997</v>
+        <v>275</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>997</v>
+        <v>275</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>997</v>
@@ -13540,16 +13598,16 @@
       <c r="C31" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F31" s="25" t="s">
+      <c r="D31" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F31" s="22" t="s">
         <v>978</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -13567,11 +13625,11 @@
       <c r="C32" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>1065</v>
+      <c r="D32" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>1063</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>978</v>
@@ -13586,7 +13644,7 @@
     </row>
     <row r="33" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>1055</v>
+        <v>1064</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>997</v>
@@ -13594,13 +13652,13 @@
       <c r="C33" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="29" t="s">
         <v>1013</v>
       </c>
-      <c r="E33" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F33" s="22" t="s">
+      <c r="E33" s="31" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>978</v>
       </c>
       <c r="G33" s="14"/>
@@ -13611,7 +13669,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>1055</v>
       </c>
@@ -13625,7 +13683,7 @@
         <v>1013</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>978</v>
@@ -13638,7 +13696,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>1055</v>
       </c>
@@ -13652,7 +13710,7 @@
         <v>1013</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>1134</v>
+        <v>1066</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>978</v>
@@ -13675,11 +13733,11 @@
       <c r="C36" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D36" s="22" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>1068</v>
+      <c r="D36" s="23" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>1067</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>978</v>
@@ -13697,65 +13755,53 @@
         <v>1055</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>971</v>
+        <v>997</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>971</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>971</v>
+        <v>997</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>1039</v>
+        <v>997</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>1015</v>
       </c>
-      <c r="E38" s="43" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>971</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23" t="s">
-        <v>1092</v>
-      </c>
-      <c r="K38" s="23" t="s">
-        <v>996</v>
+      <c r="E38" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
@@ -13763,31 +13809,31 @@
         <v>1055</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>286</v>
+        <v>971</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>986</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>1093</v>
+        <v>1039</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>1090</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G39" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="K39" s="16" t="s">
+      <c r="G39" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K39" s="23" t="s">
         <v>996</v>
       </c>
     </row>
@@ -13796,86 +13842,98 @@
         <v>1055</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>286</v>
+        <v>971</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>986</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>1094</v>
+        <v>1039</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>1091</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K40" s="23" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>986</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>986</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G42" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H42" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16" t="s">
+      <c r="I42" s="16"/>
+      <c r="J42" s="16" t="s">
         <v>1095</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K42" s="16" t="s">
         <v>996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>978</v>
-      </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>972</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>978</v>
-      </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
@@ -13888,119 +13946,107 @@
       <c r="C43" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="25" t="s">
         <v>972</v>
       </c>
-      <c r="E43" s="48" t="s">
-        <v>1010</v>
+      <c r="E43" s="28" t="s">
+        <v>1008</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>978</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="14" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>1055</v>
+      <c r="A44" s="41" t="s">
+        <v>1069</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>321</v>
+        <v>997</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D44" s="27" t="s">
+        <v>997</v>
+      </c>
+      <c r="D44" s="47" t="s">
         <v>972</v>
       </c>
-      <c r="E44" s="19" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>979</v>
-      </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17" t="s">
-        <v>980</v>
-      </c>
-      <c r="K44" s="16" t="s">
-        <v>996</v>
+      <c r="E44" s="48" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>1055</v>
+      <c r="A45" s="41" t="s">
+        <v>1069</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>321</v>
+        <v>997</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D45" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="D45" s="47" t="s">
         <v>972</v>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>981</v>
-      </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17" t="s">
-        <v>1098</v>
-      </c>
-      <c r="K45" s="16" t="s">
-        <v>996</v>
+      <c r="E45" s="48" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>337</v>
+      <c r="B46" s="22" t="s">
+        <v>321</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>1106</v>
+        <v>322</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>972</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>1096</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G46" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16" t="s">
-        <v>1121</v>
-      </c>
-      <c r="K46" s="17" t="s">
+      <c r="G46" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="K46" s="16" t="s">
         <v>996</v>
       </c>
     </row>
@@ -14009,134 +14055,134 @@
         <v>1055</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>988</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F47" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F47" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G47" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16" t="s">
-        <v>354</v>
+      <c r="G47" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17" t="s">
+        <v>1098</v>
       </c>
       <c r="K47" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B48" s="22" t="s">
-        <v>345</v>
+      <c r="B48" s="14" t="s">
+        <v>337</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>988</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F48" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>983</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F48" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="16" t="s">
-        <v>1101</v>
-      </c>
-      <c r="K48" s="16" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K48" s="17" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>987</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F49" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>988</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F49" s="46" t="s">
         <v>967</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="I49" s="16"/>
-      <c r="J49" s="17" t="s">
-        <v>1103</v>
+      <c r="J49" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="K49" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>987</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F50" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>988</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F50" s="46" t="s">
         <v>967</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16" t="s">
-        <v>1105</v>
-      </c>
-      <c r="K50" s="17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K50" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>1055</v>
       </c>
@@ -14150,22 +14196,22 @@
         <v>987</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>1129</v>
+        <v>1102</v>
       </c>
       <c r="F51" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="I51" s="16"/>
-      <c r="J51" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="K51" s="17" t="s">
+      <c r="J51" s="17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K51" s="16" t="s">
         <v>996</v>
       </c>
     </row>
@@ -14183,20 +14229,20 @@
         <v>987</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>1130</v>
+        <v>1104</v>
       </c>
       <c r="F52" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="16" t="s">
-        <v>361</v>
+        <v>1105</v>
       </c>
       <c r="K52" s="17" t="s">
         <v>996</v>
@@ -14207,89 +14253,95 @@
         <v>1055</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>997</v>
+        <v>355</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>997</v>
+        <v>355</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>409</v>
+      <c r="B55" s="22" t="s">
+        <v>997</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>989</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>1055</v>
       </c>
@@ -14299,11 +14351,11 @@
       <c r="C56" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D56" s="14" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E56" s="51" t="s">
-        <v>1127</v>
+      <c r="D56" s="22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>1071</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>978</v>
@@ -14316,31 +14368,37 @@
         <v>997</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>997</v>
+      <c r="B57" s="14" t="s">
+        <v>409</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E57" s="51" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14" t="s">
-        <v>997</v>
+        <v>410</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>989</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="25" x14ac:dyDescent="0.25">
@@ -14356,8 +14414,8 @@
       <c r="D58" s="14" t="s">
         <v>1125</v>
       </c>
-      <c r="E58" s="51" t="s">
-        <v>1128</v>
+      <c r="E58" s="49" t="s">
+        <v>1127</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>978</v>
@@ -14370,9 +14428,63 @@
         <v>997</v>
       </c>
     </row>
+    <row r="59" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E59" s="49" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E60" s="49" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K58" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
+  <autoFilter ref="A1:K60" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K53">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B23BE-721F-4ED0-A457-B334E63AC14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E9BB9D-F61C-4E79-AE52-CC41FE1179CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="980" windowWidth="18660" windowHeight="9820" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="590" windowWidth="18960" windowHeight="9820" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1140">
   <si>
     <t>Code</t>
   </si>
@@ -5525,6 +5525,67 @@
       </rPr>
       <t>nextActivity</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Attribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Relationship</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N/A</t>
+    </r>
+  </si>
+  <si>
+    <t>Rename UML Item Name. Change UML Item from an Attribute to a Relationship</t>
   </si>
 </sst>
 </file>
@@ -5823,7 +5884,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5901,9 +5962,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5961,12 +6019,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5975,6 +6027,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6270,10 +6334,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6765,5836 +6829,5836 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="32" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="33" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34" t="s">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34" t="s">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="33" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="32" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34" t="s">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34" t="s">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="33" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34" t="s">
+      <c r="F23" s="33"/>
+      <c r="G23" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="33" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34" t="s">
+      <c r="F24" s="33"/>
+      <c r="G24" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="33" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34" t="s">
+      <c r="F25" s="33"/>
+      <c r="G25" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34" t="s">
+      <c r="F26" s="33"/>
+      <c r="G26" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="33" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34" t="s">
+      <c r="F28" s="33"/>
+      <c r="G28" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="33" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34" t="s">
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34" t="s">
+      <c r="F29" s="33"/>
+      <c r="G29" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34" t="s">
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34" t="s">
+      <c r="F30" s="33"/>
+      <c r="G30" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H30" s="33" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34" t="s">
+      <c r="C32" s="33"/>
+      <c r="D32" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34" t="s">
+      <c r="F32" s="33"/>
+      <c r="G32" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H32" s="34" t="s">
+      <c r="H32" s="33" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34" t="s">
+      <c r="F33" s="33"/>
+      <c r="G33" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="H33" s="34" t="s">
+      <c r="H33" s="33" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34" t="s">
+      <c r="C34" s="33"/>
+      <c r="D34" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34" t="s">
+      <c r="F34" s="33"/>
+      <c r="G34" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="H34" s="34" t="s">
+      <c r="H34" s="33" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34" t="s">
+      <c r="C35" s="33"/>
+      <c r="D35" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34" t="s">
+      <c r="F35" s="33"/>
+      <c r="G35" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="34" t="s">
+      <c r="H35" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34" t="s">
+      <c r="C36" s="33"/>
+      <c r="D36" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34" t="s">
+      <c r="F36" s="33"/>
+      <c r="G36" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="33" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34" t="s">
+      <c r="C37" s="33"/>
+      <c r="D37" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34" t="s">
+      <c r="F37" s="33"/>
+      <c r="G37" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="H37" s="34" t="s">
+      <c r="H37" s="33" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34" t="s">
+      <c r="C38" s="33"/>
+      <c r="D38" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34" t="s">
+      <c r="F38" s="33"/>
+      <c r="G38" s="33" t="s">
         <v>993</v>
       </c>
-      <c r="H38" s="34" t="s">
+      <c r="H38" s="33" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34" t="s">
+      <c r="C39" s="33"/>
+      <c r="D39" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34" t="s">
+      <c r="F39" s="33"/>
+      <c r="G39" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="H39" s="34" t="s">
+      <c r="H39" s="33" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34" t="s">
+      <c r="C40" s="33"/>
+      <c r="D40" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G40" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="H40" s="34" t="s">
+      <c r="H40" s="33" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34" t="s">
+      <c r="C41" s="33"/>
+      <c r="D41" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34" t="s">
+      <c r="F41" s="33"/>
+      <c r="G41" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="H41" s="33" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34" t="s">
+      <c r="C42" s="33"/>
+      <c r="D42" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="H42" s="34" t="s">
+      <c r="H42" s="33" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34" t="s">
+      <c r="C43" s="33"/>
+      <c r="D43" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34" t="s">
+      <c r="F43" s="33"/>
+      <c r="G43" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="H43" s="34" t="s">
+      <c r="H43" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34" t="s">
+      <c r="C44" s="33"/>
+      <c r="D44" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34" t="s">
+      <c r="F44" s="33"/>
+      <c r="G44" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="33" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34" t="s">
+      <c r="C45" s="33"/>
+      <c r="D45" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34" t="s">
+      <c r="F45" s="33"/>
+      <c r="G45" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="H45" s="33" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34" t="s">
+      <c r="C46" s="33"/>
+      <c r="D46" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34" t="s">
+      <c r="F46" s="33"/>
+      <c r="G46" s="33" t="s">
         <v>994</v>
       </c>
-      <c r="H46" s="34" t="s">
+      <c r="H46" s="33" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34" t="s">
+      <c r="C47" s="33"/>
+      <c r="D47" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34" t="s">
+      <c r="F47" s="33"/>
+      <c r="G47" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="H47" s="34" t="s">
+      <c r="H47" s="33" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34" t="s">
+      <c r="C48" s="33"/>
+      <c r="D48" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34" t="s">
+      <c r="F48" s="33"/>
+      <c r="G48" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="H48" s="34" t="s">
+      <c r="H48" s="33" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34" t="s">
+      <c r="C49" s="33"/>
+      <c r="D49" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34" t="s">
+      <c r="F49" s="33"/>
+      <c r="G49" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="H49" s="34" t="s">
+      <c r="H49" s="33" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34" t="s">
+      <c r="C50" s="33"/>
+      <c r="D50" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34" t="s">
+      <c r="F50" s="33"/>
+      <c r="G50" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="H50" s="34" t="s">
+      <c r="H50" s="33" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34" t="s">
+      <c r="C51" s="33"/>
+      <c r="D51" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E51" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34" t="s">
+      <c r="F51" s="33"/>
+      <c r="G51" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="H51" s="34" t="s">
+      <c r="H51" s="33" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34" t="s">
+      <c r="C52" s="33"/>
+      <c r="D52" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="H52" s="34" t="s">
+      <c r="H52" s="33" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34" t="s">
+      <c r="C53" s="33"/>
+      <c r="D53" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34" t="s">
+      <c r="F53" s="33"/>
+      <c r="G53" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="H53" s="34" t="s">
+      <c r="H53" s="33" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34" t="s">
+      <c r="C54" s="33"/>
+      <c r="D54" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F54" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="H54" s="34" t="s">
+      <c r="H54" s="33" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34" t="s">
+      <c r="C55" s="33"/>
+      <c r="D55" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34" t="s">
+      <c r="F55" s="33"/>
+      <c r="G55" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="H55" s="34" t="s">
+      <c r="H55" s="33" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34" t="s">
+      <c r="C56" s="33"/>
+      <c r="D56" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34" t="s">
+      <c r="F56" s="33"/>
+      <c r="G56" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="H56" s="34" t="s">
+      <c r="H56" s="33" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33" t="s">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="G57" s="33" t="s">
+      <c r="G57" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="H57" s="33" t="s">
+      <c r="H57" s="32" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34" t="s">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34" t="s">
+      <c r="F58" s="33"/>
+      <c r="G58" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="H58" s="34" t="s">
+      <c r="H58" s="33" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33" t="s">
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="E59" s="33" t="s">
+      <c r="E59" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="G59" s="33" t="s">
+      <c r="G59" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="H59" s="33" t="s">
+      <c r="H59" s="32" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34" t="s">
+      <c r="C60" s="33"/>
+      <c r="D60" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34" t="s">
+      <c r="F60" s="33"/>
+      <c r="G60" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="H60" s="34" t="s">
+      <c r="H60" s="33" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34" t="s">
+      <c r="C61" s="33"/>
+      <c r="D61" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="F61" s="34" t="s">
+      <c r="F61" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="G61" s="34" t="s">
+      <c r="G61" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="H61" s="34" t="s">
+      <c r="H61" s="33" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33" t="s">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E62" s="33" t="s">
+      <c r="E62" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="F62" s="33" t="s">
+      <c r="F62" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="G62" s="33" t="s">
+      <c r="G62" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="H62" s="33" t="s">
+      <c r="H62" s="32" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34" t="s">
+      <c r="C63" s="33"/>
+      <c r="D63" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="E63" s="34" t="s">
+      <c r="E63" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34" t="s">
+      <c r="F63" s="33"/>
+      <c r="G63" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="H63" s="34" t="s">
+      <c r="H63" s="33" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34" t="s">
+      <c r="C64" s="33"/>
+      <c r="D64" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34" t="s">
+      <c r="F64" s="33"/>
+      <c r="G64" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="H64" s="34" t="s">
+      <c r="H64" s="33" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34" t="s">
+      <c r="C65" s="33"/>
+      <c r="D65" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E65" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34" t="s">
+      <c r="F65" s="33"/>
+      <c r="G65" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="H65" s="34" t="s">
+      <c r="H65" s="33" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33" t="s">
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="E66" s="33" t="s">
+      <c r="E66" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="F66" s="33" t="s">
+      <c r="F66" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="G66" s="33" t="s">
+      <c r="G66" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="H66" s="33" t="s">
+      <c r="H66" s="32" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34" t="s">
+      <c r="C67" s="33"/>
+      <c r="D67" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E67" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34" t="s">
+      <c r="F67" s="33"/>
+      <c r="G67" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="H67" s="34" t="s">
+      <c r="H67" s="33" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34" t="s">
+      <c r="C68" s="33"/>
+      <c r="D68" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="E68" s="34" t="s">
+      <c r="E68" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34" t="s">
+      <c r="F68" s="33"/>
+      <c r="G68" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="H68" s="34" t="s">
+      <c r="H68" s="33" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33" t="s">
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="E69" s="33" t="s">
+      <c r="E69" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="F69" s="33" t="s">
+      <c r="F69" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="H69" s="33" t="s">
+      <c r="H69" s="32" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34" t="s">
+      <c r="C70" s="33"/>
+      <c r="D70" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="E70" s="34" t="s">
+      <c r="E70" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34" t="s">
+      <c r="F70" s="33"/>
+      <c r="G70" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="H70" s="34" t="s">
+      <c r="H70" s="33" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A71" s="34" t="s">
+      <c r="A71" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34" t="s">
+      <c r="C71" s="33"/>
+      <c r="D71" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="E71" s="34" t="s">
+      <c r="E71" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34" t="s">
+      <c r="F71" s="33"/>
+      <c r="G71" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="H71" s="34" t="s">
+      <c r="H71" s="33" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33" t="s">
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="F72" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="H72" s="33" t="s">
+      <c r="H72" s="32" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34" t="s">
+      <c r="C73" s="33"/>
+      <c r="D73" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="E73" s="34" t="s">
+      <c r="E73" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34" t="s">
+      <c r="F73" s="33"/>
+      <c r="G73" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="H73" s="34" t="s">
+      <c r="H73" s="33" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="E74" s="34" t="s">
+      <c r="E74" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34" t="s">
+      <c r="F74" s="33"/>
+      <c r="G74" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="H74" s="34" t="s">
+      <c r="H74" s="33" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34" t="s">
+      <c r="C75" s="33"/>
+      <c r="D75" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="E75" s="34" t="s">
+      <c r="E75" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34" t="s">
+      <c r="F75" s="33"/>
+      <c r="G75" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="H75" s="34" t="s">
+      <c r="H75" s="33" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34" t="s">
+      <c r="C76" s="33"/>
+      <c r="D76" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="E76" s="34" t="s">
+      <c r="E76" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34" t="s">
+      <c r="F76" s="33"/>
+      <c r="G76" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="H76" s="34" t="s">
+      <c r="H76" s="33" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33" t="s">
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="E77" s="33" t="s">
+      <c r="E77" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="F77" s="33" t="s">
+      <c r="F77" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="G77" s="33" t="s">
+      <c r="G77" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="H77" s="33" t="s">
+      <c r="H77" s="32" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34" t="s">
+      <c r="C78" s="33"/>
+      <c r="D78" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="E78" s="34" t="s">
+      <c r="E78" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34" t="s">
+      <c r="F78" s="33"/>
+      <c r="G78" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="H78" s="34" t="s">
+      <c r="H78" s="33" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34" t="s">
+      <c r="C79" s="33"/>
+      <c r="D79" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="E79" s="34" t="s">
+      <c r="E79" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34" t="s">
+      <c r="F79" s="33"/>
+      <c r="G79" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="H79" s="34" t="s">
+      <c r="H79" s="33" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33" t="s">
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="E80" s="33" t="s">
+      <c r="E80" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="F80" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="H80" s="33" t="s">
+      <c r="H80" s="32" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34" t="s">
+      <c r="C81" s="33"/>
+      <c r="D81" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="E81" s="34" t="s">
+      <c r="E81" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34" t="s">
+      <c r="F81" s="33"/>
+      <c r="G81" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="H81" s="34" t="s">
+      <c r="H81" s="33" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A82" s="34" t="s">
+      <c r="A82" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34" t="s">
+      <c r="C82" s="33"/>
+      <c r="D82" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="E82" s="34" t="s">
+      <c r="E82" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34" t="s">
+      <c r="F82" s="33"/>
+      <c r="G82" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="H82" s="34" t="s">
+      <c r="H82" s="33" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="34" t="s">
+      <c r="A83" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34" t="s">
+      <c r="C83" s="33"/>
+      <c r="D83" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="E83" s="34" t="s">
+      <c r="E83" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="F83" s="34" t="s">
+      <c r="F83" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="G83" s="34" t="s">
+      <c r="G83" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="H83" s="34" t="s">
+      <c r="H83" s="33" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="34" t="s">
+      <c r="A84" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34" t="s">
+      <c r="C84" s="33"/>
+      <c r="D84" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="E84" s="34" t="s">
+      <c r="E84" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34" t="s">
+      <c r="F84" s="33"/>
+      <c r="G84" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="H84" s="34" t="s">
+      <c r="H84" s="33" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34" t="s">
+      <c r="C85" s="33"/>
+      <c r="D85" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="E85" s="34" t="s">
+      <c r="E85" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34" t="s">
+      <c r="F85" s="33"/>
+      <c r="G85" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="H85" s="34" t="s">
+      <c r="H85" s="33" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33" t="s">
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="E86" s="33" t="s">
+      <c r="E86" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="F86" s="33" t="s">
+      <c r="F86" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="G86" s="33" t="s">
+      <c r="G86" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="H86" s="33" t="s">
+      <c r="H86" s="32" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="34" t="s">
+      <c r="A87" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34" t="s">
+      <c r="C87" s="33"/>
+      <c r="D87" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="E87" s="34" t="s">
+      <c r="E87" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34" t="s">
+      <c r="F87" s="33"/>
+      <c r="G87" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="H87" s="34" t="s">
+      <c r="H87" s="33" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34" t="s">
+      <c r="C88" s="33"/>
+      <c r="D88" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="E88" s="34" t="s">
+      <c r="E88" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34" t="s">
+      <c r="F88" s="33"/>
+      <c r="G88" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="H88" s="34" t="s">
+      <c r="H88" s="33" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="B89" s="34" t="s">
+      <c r="B89" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34" t="s">
+      <c r="C89" s="33"/>
+      <c r="D89" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="E89" s="34" t="s">
+      <c r="E89" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34" t="s">
+      <c r="F89" s="33"/>
+      <c r="G89" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="H89" s="34" t="s">
+      <c r="H89" s="33" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A90" s="33" t="s">
+      <c r="A90" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33" t="s">
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="E90" s="33" t="s">
+      <c r="E90" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F90" s="33" t="s">
+      <c r="F90" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="G90" s="33" t="s">
+      <c r="G90" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="H90" s="33" t="s">
+      <c r="H90" s="32" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34" t="s">
+      <c r="C91" s="33"/>
+      <c r="D91" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="E91" s="34" t="s">
+      <c r="E91" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="F91" s="34" t="s">
+      <c r="F91" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="G91" s="34" t="s">
+      <c r="G91" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="H91" s="34" t="s">
+      <c r="H91" s="33" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34" t="s">
+      <c r="C92" s="33"/>
+      <c r="D92" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="E92" s="34" t="s">
+      <c r="E92" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="F92" s="34" t="s">
+      <c r="F92" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="G92" s="34" t="s">
+      <c r="G92" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="H92" s="34" t="s">
+      <c r="H92" s="33" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="34" t="s">
+      <c r="A93" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="B93" s="34" t="s">
+      <c r="B93" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34" t="s">
+      <c r="C93" s="33"/>
+      <c r="D93" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="E93" s="34" t="s">
+      <c r="E93" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="F93" s="34" t="s">
+      <c r="F93" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="G93" s="34" t="s">
+      <c r="G93" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="H93" s="34" t="s">
+      <c r="H93" s="33" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33" t="s">
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="E94" s="33" t="s">
+      <c r="E94" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="F94" s="33" t="s">
+      <c r="F94" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="G94" s="33" t="s">
+      <c r="G94" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="H94" s="33" t="s">
+      <c r="H94" s="32" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A95" s="34" t="s">
+      <c r="A95" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="B95" s="34" t="s">
+      <c r="B95" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34" t="s">
+      <c r="C95" s="33"/>
+      <c r="D95" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="E95" s="34" t="s">
+      <c r="E95" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34" t="s">
+      <c r="F95" s="33"/>
+      <c r="G95" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="H95" s="34" t="s">
+      <c r="H95" s="33" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A96" s="33" t="s">
+      <c r="A96" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33" t="s">
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="E96" s="33" t="s">
+      <c r="E96" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="F96" s="33" t="s">
+      <c r="F96" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="G96" s="33" t="s">
+      <c r="G96" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="H96" s="33" t="s">
+      <c r="H96" s="32" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="B97" s="34" t="s">
+      <c r="B97" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34" t="s">
+      <c r="C97" s="33"/>
+      <c r="D97" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="E97" s="34" t="s">
+      <c r="E97" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34" t="s">
+      <c r="F97" s="33"/>
+      <c r="G97" s="33" t="s">
         <v>351</v>
       </c>
-      <c r="H97" s="34" t="s">
+      <c r="H97" s="33" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="B98" s="34" t="s">
+      <c r="B98" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34" t="s">
+      <c r="C98" s="33"/>
+      <c r="D98" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="E98" s="34" t="s">
+      <c r="E98" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34" t="s">
+      <c r="F98" s="33"/>
+      <c r="G98" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="H98" s="34" t="s">
+      <c r="H98" s="33" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A99" s="33" t="s">
+      <c r="A99" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="B99" s="33"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33" t="s">
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="E99" s="33" t="s">
+      <c r="E99" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="F99" s="33" t="s">
+      <c r="F99" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="G99" s="33" t="s">
+      <c r="G99" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="H99" s="33" t="s">
+      <c r="H99" s="32" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A100" s="34" t="s">
+      <c r="A100" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="B100" s="34" t="s">
+      <c r="B100" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34" t="s">
+      <c r="C100" s="33"/>
+      <c r="D100" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="E100" s="34" t="s">
+      <c r="E100" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34" t="s">
+      <c r="F100" s="33"/>
+      <c r="G100" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="H100" s="34" t="s">
+      <c r="H100" s="33" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A101" s="34" t="s">
+      <c r="A101" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34" t="s">
+      <c r="C101" s="33"/>
+      <c r="D101" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="E101" s="34" t="s">
+      <c r="E101" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34" t="s">
+      <c r="F101" s="33"/>
+      <c r="G101" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="H101" s="34" t="s">
+      <c r="H101" s="33" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34" t="s">
+      <c r="C102" s="33"/>
+      <c r="D102" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="E102" s="34" t="s">
+      <c r="E102" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34" t="s">
+      <c r="F102" s="33"/>
+      <c r="G102" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="H102" s="34" t="s">
+      <c r="H102" s="33" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="34" t="s">
+      <c r="A103" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="B103" s="34" t="s">
+      <c r="B103" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34" t="s">
+      <c r="C103" s="33"/>
+      <c r="D103" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="E103" s="34" t="s">
+      <c r="E103" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34" t="s">
+      <c r="F103" s="33"/>
+      <c r="G103" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="H103" s="34" t="s">
+      <c r="H103" s="33" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="34" t="s">
+      <c r="A104" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34" t="s">
+      <c r="C104" s="33"/>
+      <c r="D104" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="E104" s="34" t="s">
+      <c r="E104" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34" t="s">
+      <c r="F104" s="33"/>
+      <c r="G104" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="H104" s="34" t="s">
+      <c r="H104" s="33" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A105" s="33" t="s">
+      <c r="A105" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33" t="s">
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="E105" s="33" t="s">
+      <c r="E105" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="F105" s="33" t="s">
+      <c r="F105" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="G105" s="33" t="s">
+      <c r="G105" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="H105" s="33" t="s">
+      <c r="H105" s="32" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="34" t="s">
+      <c r="A106" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B106" s="34" t="s">
+      <c r="B106" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34" t="s">
+      <c r="C106" s="33"/>
+      <c r="D106" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="E106" s="34" t="s">
+      <c r="E106" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34" t="s">
+      <c r="F106" s="33"/>
+      <c r="G106" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="H106" s="34" t="s">
+      <c r="H106" s="33" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33" t="s">
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="E107" s="33" t="s">
+      <c r="E107" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="F107" s="33" t="s">
+      <c r="F107" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="G107" s="33" t="s">
+      <c r="G107" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="H107" s="33" t="s">
+      <c r="H107" s="32" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34" t="s">
+      <c r="C108" s="33"/>
+      <c r="D108" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="E108" s="34" t="s">
+      <c r="E108" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="F108" s="34" t="s">
+      <c r="F108" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="G108" s="34" t="s">
+      <c r="G108" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="H108" s="34" t="s">
+      <c r="H108" s="33" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34" t="s">
+      <c r="C109" s="33"/>
+      <c r="D109" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="E109" s="34" t="s">
+      <c r="E109" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34" t="s">
+      <c r="F109" s="33"/>
+      <c r="G109" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="H109" s="34" t="s">
+      <c r="H109" s="33" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A110" s="34" t="s">
+      <c r="A110" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34" t="s">
+      <c r="C110" s="33"/>
+      <c r="D110" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="E110" s="34" t="s">
+      <c r="E110" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34" t="s">
+      <c r="F110" s="33"/>
+      <c r="G110" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="H110" s="34" t="s">
+      <c r="H110" s="33" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A111" s="34" t="s">
+      <c r="A111" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34" t="s">
+      <c r="C111" s="33"/>
+      <c r="D111" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="E111" s="34" t="s">
+      <c r="E111" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34" t="s">
+      <c r="F111" s="33"/>
+      <c r="G111" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="H111" s="34" t="s">
+      <c r="H111" s="33" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A112" s="34" t="s">
+      <c r="A112" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34" t="s">
+      <c r="C112" s="33"/>
+      <c r="D112" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="E112" s="34" t="s">
+      <c r="E112" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34" t="s">
+      <c r="F112" s="33"/>
+      <c r="G112" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="H112" s="34" t="s">
+      <c r="H112" s="33" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A113" s="34" t="s">
+      <c r="A113" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34" t="s">
+      <c r="C113" s="33"/>
+      <c r="D113" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="E113" s="34" t="s">
+      <c r="E113" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34" t="s">
+      <c r="F113" s="33"/>
+      <c r="G113" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="H113" s="34" t="s">
+      <c r="H113" s="33" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34" t="s">
+      <c r="C114" s="33"/>
+      <c r="D114" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="E114" s="34" t="s">
+      <c r="E114" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34" t="s">
+      <c r="F114" s="33"/>
+      <c r="G114" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="H114" s="34" t="s">
+      <c r="H114" s="33" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A115" s="34" t="s">
+      <c r="A115" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34" t="s">
+      <c r="C115" s="33"/>
+      <c r="D115" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="E115" s="34" t="s">
+      <c r="E115" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34" t="s">
+      <c r="F115" s="33"/>
+      <c r="G115" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="H115" s="34" t="s">
+      <c r="H115" s="33" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A116" s="33" t="s">
+      <c r="A116" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="B116" s="33"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33" t="s">
+      <c r="B116" s="32"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="E116" s="33" t="s">
+      <c r="E116" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="F116" s="33" t="s">
+      <c r="F116" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="G116" s="33" t="s">
+      <c r="G116" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="H116" s="33" t="s">
+      <c r="H116" s="32" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="34" t="s">
+      <c r="A117" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34" t="s">
+      <c r="C117" s="33"/>
+      <c r="D117" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="E117" s="34" t="s">
+      <c r="E117" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34" t="s">
+      <c r="F117" s="33"/>
+      <c r="G117" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="H117" s="34" t="s">
+      <c r="H117" s="33" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33" t="s">
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="E118" s="33" t="s">
+      <c r="E118" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="F118" s="33" t="s">
+      <c r="F118" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="G118" s="33" t="s">
+      <c r="G118" s="32" t="s">
         <v>418</v>
       </c>
-      <c r="H118" s="33" t="s">
+      <c r="H118" s="32" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="34" t="s">
+      <c r="A119" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34" t="s">
+      <c r="C119" s="33"/>
+      <c r="D119" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="E119" s="34" t="s">
+      <c r="E119" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34" t="s">
+      <c r="F119" s="33"/>
+      <c r="G119" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="H119" s="34" t="s">
+      <c r="H119" s="33" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A120" s="33" t="s">
+      <c r="A120" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33" t="s">
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="E120" s="33" t="s">
+      <c r="E120" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="F120" s="33" t="s">
+      <c r="F120" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="G120" s="33" t="s">
+      <c r="G120" s="32" t="s">
         <v>425</v>
       </c>
-      <c r="H120" s="33" t="s">
+      <c r="H120" s="32" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A121" s="34" t="s">
+      <c r="A121" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="B121" s="34" t="s">
+      <c r="B121" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34" t="s">
+      <c r="C121" s="33"/>
+      <c r="D121" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="E121" s="34" t="s">
+      <c r="E121" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="F121" s="34"/>
-      <c r="G121" s="34" t="s">
+      <c r="F121" s="33"/>
+      <c r="G121" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H121" s="34" t="s">
+      <c r="H121" s="33" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A122" s="34" t="s">
+      <c r="A122" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34" t="s">
+      <c r="C122" s="33"/>
+      <c r="D122" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="E122" s="34" t="s">
+      <c r="E122" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="F122" s="34"/>
-      <c r="G122" s="34" t="s">
+      <c r="F122" s="33"/>
+      <c r="G122" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="H122" s="34" t="s">
+      <c r="H122" s="33" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="34" t="s">
+      <c r="A123" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34" t="s">
+      <c r="C123" s="33"/>
+      <c r="D123" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="E123" s="34" t="s">
+      <c r="E123" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F123" s="34"/>
-      <c r="G123" s="34" t="s">
+      <c r="F123" s="33"/>
+      <c r="G123" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="H123" s="34" t="s">
+      <c r="H123" s="33" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A124" s="33" t="s">
+      <c r="A124" s="32" t="s">
         <v>433</v>
       </c>
-      <c r="B124" s="33"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33" t="s">
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="E124" s="33" t="s">
+      <c r="E124" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="F124" s="33" t="s">
+      <c r="F124" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="G124" s="33" t="s">
+      <c r="G124" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="H124" s="33" t="s">
+      <c r="H124" s="32" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A125" s="34" t="s">
+      <c r="A125" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34" t="s">
+      <c r="C125" s="33"/>
+      <c r="D125" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="E125" s="34" t="s">
+      <c r="E125" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="F125" s="34"/>
-      <c r="G125" s="34" t="s">
+      <c r="F125" s="33"/>
+      <c r="G125" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="H125" s="34" t="s">
+      <c r="H125" s="33" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A126" s="33" t="s">
+      <c r="A126" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33" t="s">
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="E126" s="33" t="s">
+      <c r="E126" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="F126" s="33" t="s">
+      <c r="F126" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="G126" s="33" t="s">
+      <c r="G126" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="H126" s="33" t="s">
+      <c r="H126" s="32" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A127" s="34" t="s">
+      <c r="A127" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34" t="s">
+      <c r="C127" s="33"/>
+      <c r="D127" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="E127" s="34" t="s">
+      <c r="E127" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="F127" s="34"/>
-      <c r="G127" s="34" t="s">
+      <c r="F127" s="33"/>
+      <c r="G127" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="H127" s="34" t="s">
+      <c r="H127" s="33" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="34" t="s">
+      <c r="A128" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="B128" s="34" t="s">
+      <c r="B128" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34" t="s">
+      <c r="C128" s="33"/>
+      <c r="D128" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="E128" s="34" t="s">
+      <c r="E128" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="F128" s="34"/>
-      <c r="G128" s="34" t="s">
+      <c r="F128" s="33"/>
+      <c r="G128" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="H128" s="34" t="s">
+      <c r="H128" s="33" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="34" t="s">
+      <c r="A129" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="C129" s="34"/>
-      <c r="D129" s="34" t="s">
+      <c r="C129" s="33"/>
+      <c r="D129" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="E129" s="34" t="s">
+      <c r="E129" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="F129" s="34"/>
-      <c r="G129" s="34" t="s">
+      <c r="F129" s="33"/>
+      <c r="G129" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="H129" s="34" t="s">
+      <c r="H129" s="33" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A130" s="33" t="s">
+      <c r="A130" s="32" t="s">
         <v>453</v>
       </c>
-      <c r="B130" s="33"/>
-      <c r="C130" s="33" t="s">
+      <c r="B130" s="32"/>
+      <c r="C130" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="33" t="s">
+      <c r="D130" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E130" s="33" t="s">
+      <c r="E130" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="F130" s="33" t="s">
+      <c r="F130" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="G130" s="33" t="s">
+      <c r="G130" s="32" t="s">
         <v>455</v>
       </c>
-      <c r="H130" s="33" t="s">
+      <c r="H130" s="32" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="34" t="s">
+      <c r="A131" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C131" s="34"/>
-      <c r="D131" s="34" t="s">
+      <c r="C131" s="33"/>
+      <c r="D131" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E131" s="34" t="s">
+      <c r="E131" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="F131" s="34"/>
-      <c r="G131" s="34" t="s">
+      <c r="F131" s="33"/>
+      <c r="G131" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="H131" s="34" t="s">
+      <c r="H131" s="33" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="34" t="s">
+      <c r="A132" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="B132" s="34" t="s">
+      <c r="B132" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C132" s="34"/>
-      <c r="D132" s="34" t="s">
+      <c r="C132" s="33"/>
+      <c r="D132" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E132" s="34" t="s">
+      <c r="E132" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="F132" s="34"/>
-      <c r="G132" s="34" t="s">
+      <c r="F132" s="33"/>
+      <c r="G132" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="H132" s="34" t="s">
+      <c r="H132" s="33" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A133" s="34" t="s">
+      <c r="A133" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="B133" s="34" t="s">
+      <c r="B133" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C133" s="34"/>
-      <c r="D133" s="34" t="s">
+      <c r="C133" s="33"/>
+      <c r="D133" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E133" s="34" t="s">
+      <c r="E133" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="F133" s="34"/>
-      <c r="G133" s="34" t="s">
+      <c r="F133" s="33"/>
+      <c r="G133" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="H133" s="34" t="s">
+      <c r="H133" s="33" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="34" t="s">
+      <c r="A134" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="B134" s="34" t="s">
+      <c r="B134" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34" t="s">
+      <c r="C134" s="33"/>
+      <c r="D134" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E134" s="34" t="s">
+      <c r="E134" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="F134" s="34"/>
-      <c r="G134" s="34" t="s">
+      <c r="F134" s="33"/>
+      <c r="G134" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="H134" s="34" t="s">
+      <c r="H134" s="33" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="34" t="s">
+      <c r="A135" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="B135" s="34" t="s">
+      <c r="B135" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C135" s="34"/>
-      <c r="D135" s="34" t="s">
+      <c r="C135" s="33"/>
+      <c r="D135" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E135" s="34" t="s">
+      <c r="E135" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="F135" s="34"/>
-      <c r="G135" s="34" t="s">
+      <c r="F135" s="33"/>
+      <c r="G135" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="H135" s="34" t="s">
+      <c r="H135" s="33" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="34" t="s">
+      <c r="A136" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="B136" s="34" t="s">
+      <c r="B136" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C136" s="34"/>
-      <c r="D136" s="34" t="s">
+      <c r="C136" s="33"/>
+      <c r="D136" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E136" s="34" t="s">
+      <c r="E136" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="F136" s="34"/>
-      <c r="G136" s="34" t="s">
+      <c r="F136" s="33"/>
+      <c r="G136" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="H136" s="34" t="s">
+      <c r="H136" s="33" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A137" s="34" t="s">
+      <c r="A137" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="B137" s="34" t="s">
+      <c r="B137" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C137" s="34"/>
-      <c r="D137" s="34" t="s">
+      <c r="C137" s="33"/>
+      <c r="D137" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E137" s="34" t="s">
+      <c r="E137" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="F137" s="34"/>
-      <c r="G137" s="34" t="s">
+      <c r="F137" s="33"/>
+      <c r="G137" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="H137" s="34" t="s">
+      <c r="H137" s="33" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="34" t="s">
+      <c r="A138" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C138" s="34"/>
-      <c r="D138" s="34" t="s">
+      <c r="C138" s="33"/>
+      <c r="D138" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E138" s="34" t="s">
+      <c r="E138" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="F138" s="34"/>
-      <c r="G138" s="34" t="s">
+      <c r="F138" s="33"/>
+      <c r="G138" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="H138" s="34" t="s">
+      <c r="H138" s="33" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="34" t="s">
+      <c r="A139" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="B139" s="34" t="s">
+      <c r="B139" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C139" s="34"/>
-      <c r="D139" s="34" t="s">
+      <c r="C139" s="33"/>
+      <c r="D139" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E139" s="34" t="s">
+      <c r="E139" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="F139" s="34"/>
-      <c r="G139" s="34" t="s">
+      <c r="F139" s="33"/>
+      <c r="G139" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="H139" s="34" t="s">
+      <c r="H139" s="33" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="34" t="s">
+      <c r="A140" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="B140" s="34" t="s">
+      <c r="B140" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34" t="s">
+      <c r="C140" s="33"/>
+      <c r="D140" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E140" s="34" t="s">
+      <c r="E140" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F140" s="34"/>
-      <c r="G140" s="34" t="s">
+      <c r="F140" s="33"/>
+      <c r="G140" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="H140" s="34" t="s">
+      <c r="H140" s="33" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="34" t="s">
+      <c r="A141" s="33" t="s">
         <v>497</v>
       </c>
-      <c r="B141" s="34" t="s">
+      <c r="B141" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34" t="s">
+      <c r="C141" s="33"/>
+      <c r="D141" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E141" s="34" t="s">
+      <c r="E141" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="F141" s="34"/>
-      <c r="G141" s="34" t="s">
+      <c r="F141" s="33"/>
+      <c r="G141" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="H141" s="34" t="s">
+      <c r="H141" s="33" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="34" t="s">
+      <c r="A142" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="B142" s="34" t="s">
+      <c r="B142" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34" t="s">
+      <c r="C142" s="33"/>
+      <c r="D142" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E142" s="34" t="s">
+      <c r="E142" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="F142" s="34"/>
-      <c r="G142" s="34" t="s">
+      <c r="F142" s="33"/>
+      <c r="G142" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="H142" s="34" t="s">
+      <c r="H142" s="33" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="34" t="s">
+      <c r="A143" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C143" s="34"/>
-      <c r="D143" s="34" t="s">
+      <c r="C143" s="33"/>
+      <c r="D143" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E143" s="34" t="s">
+      <c r="E143" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="F143" s="34"/>
-      <c r="G143" s="34" t="s">
+      <c r="F143" s="33"/>
+      <c r="G143" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="H143" s="34" t="s">
+      <c r="H143" s="33" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A144" s="34" t="s">
+      <c r="A144" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C144" s="34"/>
-      <c r="D144" s="34" t="s">
+      <c r="C144" s="33"/>
+      <c r="D144" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E144" s="34" t="s">
+      <c r="E144" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="F144" s="34"/>
-      <c r="G144" s="34" t="s">
+      <c r="F144" s="33"/>
+      <c r="G144" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="H144" s="34" t="s">
+      <c r="H144" s="33" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="34" t="s">
+      <c r="A145" s="33" t="s">
         <v>513</v>
       </c>
-      <c r="B145" s="34" t="s">
+      <c r="B145" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34" t="s">
+      <c r="C145" s="33"/>
+      <c r="D145" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E145" s="34" t="s">
+      <c r="E145" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="F145" s="34"/>
-      <c r="G145" s="34" t="s">
+      <c r="F145" s="33"/>
+      <c r="G145" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="H145" s="34" t="s">
+      <c r="H145" s="33" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="34" t="s">
+      <c r="A146" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="B146" s="34" t="s">
+      <c r="B146" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34" t="s">
+      <c r="C146" s="33"/>
+      <c r="D146" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E146" s="34" t="s">
+      <c r="E146" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="F146" s="34"/>
-      <c r="G146" s="34" t="s">
+      <c r="F146" s="33"/>
+      <c r="G146" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="H146" s="34" t="s">
+      <c r="H146" s="33" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="34" t="s">
+      <c r="A147" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B147" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34" t="s">
+      <c r="C147" s="33"/>
+      <c r="D147" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E147" s="34" t="s">
+      <c r="E147" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="F147" s="34"/>
-      <c r="G147" s="34" t="s">
+      <c r="F147" s="33"/>
+      <c r="G147" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="H147" s="34" t="s">
+      <c r="H147" s="33" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="34" t="s">
+      <c r="A148" s="33" t="s">
         <v>525</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C148" s="34"/>
-      <c r="D148" s="34" t="s">
+      <c r="C148" s="33"/>
+      <c r="D148" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E148" s="34" t="s">
+      <c r="E148" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="F148" s="34"/>
-      <c r="G148" s="34" t="s">
+      <c r="F148" s="33"/>
+      <c r="G148" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="H148" s="34" t="s">
+      <c r="H148" s="33" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="33" t="s">
+      <c r="A149" s="32" t="s">
         <v>529</v>
       </c>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33" t="s">
+      <c r="B149" s="32"/>
+      <c r="C149" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D149" s="33" t="s">
+      <c r="D149" s="32" t="s">
         <v>530</v>
       </c>
-      <c r="E149" s="33" t="s">
+      <c r="E149" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="F149" s="33" t="s">
+      <c r="F149" s="32" t="s">
         <v>530</v>
       </c>
-      <c r="G149" s="33" t="s">
+      <c r="G149" s="32" t="s">
         <v>532</v>
       </c>
-      <c r="H149" s="33" t="s">
+      <c r="H149" s="32" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A150" s="34" t="s">
+      <c r="A150" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34" t="s">
+      <c r="C150" s="33"/>
+      <c r="D150" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="E150" s="34" t="s">
+      <c r="E150" s="33" t="s">
         <v>535</v>
       </c>
-      <c r="F150" s="34"/>
-      <c r="G150" s="34" t="s">
+      <c r="F150" s="33"/>
+      <c r="G150" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="H150" s="34" t="s">
+      <c r="H150" s="33" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A151" s="34" t="s">
+      <c r="A151" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C151" s="34"/>
-      <c r="D151" s="34" t="s">
+      <c r="C151" s="33"/>
+      <c r="D151" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="E151" s="34" t="s">
+      <c r="E151" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="F151" s="34"/>
-      <c r="G151" s="34" t="s">
+      <c r="F151" s="33"/>
+      <c r="G151" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="H151" s="34" t="s">
+      <c r="H151" s="33" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A152" s="34" t="s">
+      <c r="A152" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34" t="s">
+      <c r="C152" s="33"/>
+      <c r="D152" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="E152" s="34" t="s">
+      <c r="E152" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="F152" s="34" t="s">
+      <c r="F152" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="G152" s="34" t="s">
+      <c r="G152" s="33" t="s">
         <v>545</v>
       </c>
-      <c r="H152" s="34" t="s">
+      <c r="H152" s="33" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A153" s="34" t="s">
+      <c r="A153" s="33" t="s">
         <v>547</v>
       </c>
-      <c r="B153" s="34" t="s">
+      <c r="B153" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C153" s="34"/>
-      <c r="D153" s="34" t="s">
+      <c r="C153" s="33"/>
+      <c r="D153" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="E153" s="34" t="s">
+      <c r="E153" s="33" t="s">
         <v>548</v>
       </c>
-      <c r="F153" s="34"/>
-      <c r="G153" s="34" t="s">
+      <c r="F153" s="33"/>
+      <c r="G153" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="H153" s="34" t="s">
+      <c r="H153" s="33" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="34" t="s">
+      <c r="A154" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C154" s="34"/>
-      <c r="D154" s="34" t="s">
+      <c r="C154" s="33"/>
+      <c r="D154" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="E154" s="34" t="s">
+      <c r="E154" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="F154" s="34" t="s">
+      <c r="F154" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="G154" s="34" t="s">
+      <c r="G154" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="H154" s="34" t="s">
+      <c r="H154" s="33" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A155" s="34" t="s">
+      <c r="A155" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="B155" s="34" t="s">
+      <c r="B155" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C155" s="34"/>
-      <c r="D155" s="34" t="s">
+      <c r="C155" s="33"/>
+      <c r="D155" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="E155" s="34" t="s">
+      <c r="E155" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="F155" s="34"/>
-      <c r="G155" s="34" t="s">
+      <c r="F155" s="33"/>
+      <c r="G155" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="H155" s="34" t="s">
+      <c r="H155" s="33" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A156" s="34" t="s">
+      <c r="A156" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="B156" s="34" t="s">
+      <c r="B156" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C156" s="34"/>
-      <c r="D156" s="34" t="s">
+      <c r="C156" s="33"/>
+      <c r="D156" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="E156" s="34" t="s">
+      <c r="E156" s="33" t="s">
         <v>561</v>
       </c>
-      <c r="F156" s="34"/>
-      <c r="G156" s="34" t="s">
+      <c r="F156" s="33"/>
+      <c r="G156" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="H156" s="34" t="s">
+      <c r="H156" s="33" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A157" s="34" t="s">
+      <c r="A157" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="B157" s="34" t="s">
+      <c r="B157" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C157" s="34"/>
-      <c r="D157" s="34" t="s">
+      <c r="C157" s="33"/>
+      <c r="D157" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="E157" s="34" t="s">
+      <c r="E157" s="33" t="s">
         <v>565</v>
       </c>
-      <c r="F157" s="34"/>
-      <c r="G157" s="34" t="s">
+      <c r="F157" s="33"/>
+      <c r="G157" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="H157" s="34" t="s">
+      <c r="H157" s="33" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A158" s="34" t="s">
+      <c r="A158" s="33" t="s">
         <v>1041</v>
       </c>
-      <c r="B158" s="34" t="s">
+      <c r="B158" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C158" s="34"/>
-      <c r="D158" s="34" t="s">
+      <c r="C158" s="33"/>
+      <c r="D158" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="E158" s="34" t="s">
+      <c r="E158" s="33" t="s">
         <v>1042</v>
       </c>
-      <c r="F158" s="34"/>
-      <c r="G158" s="34" t="s">
+      <c r="F158" s="33"/>
+      <c r="G158" s="33" t="s">
         <v>1043</v>
       </c>
-      <c r="H158" s="34" t="s">
+      <c r="H158" s="33" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="34" t="s">
+      <c r="A159" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C159" s="34"/>
-      <c r="D159" s="34" t="s">
+      <c r="C159" s="33"/>
+      <c r="D159" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="E159" s="34" t="s">
+      <c r="E159" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="F159" s="34"/>
-      <c r="G159" s="34" t="s">
+      <c r="F159" s="33"/>
+      <c r="G159" s="33" t="s">
         <v>1025</v>
       </c>
-      <c r="H159" s="34" t="s">
+      <c r="H159" s="33" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A160" s="34" t="s">
+      <c r="A160" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="B160" s="34" t="s">
+      <c r="B160" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C160" s="34"/>
-      <c r="D160" s="34" t="s">
+      <c r="C160" s="33"/>
+      <c r="D160" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="E160" s="34" t="s">
+      <c r="E160" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="F160" s="34"/>
-      <c r="G160" s="34" t="s">
+      <c r="F160" s="33"/>
+      <c r="G160" s="33" t="s">
         <v>573</v>
       </c>
-      <c r="H160" s="34" t="s">
+      <c r="H160" s="33" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A161" s="34" t="s">
+      <c r="A161" s="33" t="s">
         <v>575</v>
       </c>
-      <c r="B161" s="34" t="s">
+      <c r="B161" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C161" s="34"/>
-      <c r="D161" s="34" t="s">
+      <c r="C161" s="33"/>
+      <c r="D161" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="E161" s="34" t="s">
+      <c r="E161" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="F161" s="34"/>
-      <c r="G161" s="34" t="s">
+      <c r="F161" s="33"/>
+      <c r="G161" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="H161" s="34" t="s">
+      <c r="H161" s="33" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="34" t="s">
+      <c r="A162" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="B162" s="34" t="s">
+      <c r="B162" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="C162" s="34"/>
-      <c r="D162" s="34" t="s">
+      <c r="C162" s="33"/>
+      <c r="D162" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="E162" s="34" t="s">
+      <c r="E162" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="F162" s="34"/>
-      <c r="G162" s="34" t="s">
+      <c r="F162" s="33"/>
+      <c r="G162" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="H162" s="34" t="s">
+      <c r="H162" s="33" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A163" s="33" t="s">
+      <c r="A163" s="32" t="s">
         <v>583</v>
       </c>
-      <c r="B163" s="33"/>
-      <c r="C163" s="33" t="s">
+      <c r="B163" s="32"/>
+      <c r="C163" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D163" s="33" t="s">
+      <c r="D163" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="E163" s="33" t="s">
+      <c r="E163" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="F163" s="33" t="s">
+      <c r="F163" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="G163" s="33" t="s">
+      <c r="G163" s="32" t="s">
         <v>586</v>
       </c>
-      <c r="H163" s="33" t="s">
+      <c r="H163" s="32" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="34" t="s">
+      <c r="A164" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="B164" s="34" t="s">
+      <c r="B164" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="C164" s="34"/>
-      <c r="D164" s="34" t="s">
+      <c r="C164" s="33"/>
+      <c r="D164" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="E164" s="34" t="s">
+      <c r="E164" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="F164" s="34"/>
-      <c r="G164" s="34" t="s">
+      <c r="F164" s="33"/>
+      <c r="G164" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="H164" s="34" t="s">
+      <c r="H164" s="33" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A165" s="34" t="s">
+      <c r="A165" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="B165" s="34" t="s">
+      <c r="B165" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="C165" s="34"/>
-      <c r="D165" s="34" t="s">
+      <c r="C165" s="33"/>
+      <c r="D165" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="E165" s="34" t="s">
+      <c r="E165" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="F165" s="34"/>
-      <c r="G165" s="34" t="s">
+      <c r="F165" s="33"/>
+      <c r="G165" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="H165" s="34" t="s">
+      <c r="H165" s="33" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A166" s="34" t="s">
+      <c r="A166" s="33" t="s">
         <v>596</v>
       </c>
-      <c r="B166" s="34" t="s">
+      <c r="B166" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="C166" s="34"/>
-      <c r="D166" s="34" t="s">
+      <c r="C166" s="33"/>
+      <c r="D166" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="E166" s="34" t="s">
+      <c r="E166" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="F166" s="34"/>
-      <c r="G166" s="34" t="s">
+      <c r="F166" s="33"/>
+      <c r="G166" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="H166" s="34" t="s">
+      <c r="H166" s="33" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A167" s="34" t="s">
+      <c r="A167" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="B167" s="34" t="s">
+      <c r="B167" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="C167" s="34"/>
-      <c r="D167" s="34" t="s">
+      <c r="C167" s="33"/>
+      <c r="D167" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="E167" s="34" t="s">
+      <c r="E167" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="F167" s="34"/>
-      <c r="G167" s="34" t="s">
+      <c r="F167" s="33"/>
+      <c r="G167" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="H167" s="34" t="s">
+      <c r="H167" s="33" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A168" s="34" t="s">
+      <c r="A168" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="B168" s="34" t="s">
+      <c r="B168" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="C168" s="34"/>
-      <c r="D168" s="34" t="s">
+      <c r="C168" s="33"/>
+      <c r="D168" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="E168" s="34" t="s">
+      <c r="E168" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="F168" s="34"/>
-      <c r="G168" s="34" t="s">
+      <c r="F168" s="33"/>
+      <c r="G168" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="H168" s="34" t="s">
+      <c r="H168" s="33" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A169" s="33" t="s">
+      <c r="A169" s="32" t="s">
         <v>608</v>
       </c>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33" t="s">
+      <c r="B169" s="32"/>
+      <c r="C169" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D169" s="33" t="s">
+      <c r="D169" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="E169" s="33" t="s">
+      <c r="E169" s="32" t="s">
         <v>610</v>
       </c>
-      <c r="F169" s="33" t="s">
+      <c r="F169" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="G169" s="33" t="s">
+      <c r="G169" s="32" t="s">
         <v>611</v>
       </c>
-      <c r="H169" s="33" t="s">
+      <c r="H169" s="32" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="34" t="s">
+      <c r="A170" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="B170" s="34" t="s">
+      <c r="B170" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="C170" s="34"/>
-      <c r="D170" s="34" t="s">
+      <c r="C170" s="33"/>
+      <c r="D170" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="E170" s="34" t="s">
+      <c r="E170" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="F170" s="34" t="s">
+      <c r="F170" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="G170" s="34" t="s">
+      <c r="G170" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="H170" s="34" t="s">
+      <c r="H170" s="33" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="34" t="s">
+      <c r="A171" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="B171" s="34" t="s">
+      <c r="B171" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="C171" s="34"/>
-      <c r="D171" s="34" t="s">
+      <c r="C171" s="33"/>
+      <c r="D171" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="E171" s="34" t="s">
+      <c r="E171" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="F171" s="34" t="s">
+      <c r="F171" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="G171" s="34" t="s">
+      <c r="G171" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="H171" s="34" t="s">
+      <c r="H171" s="33" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="34" t="s">
+      <c r="A172" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="B172" s="34" t="s">
+      <c r="B172" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="C172" s="34"/>
-      <c r="D172" s="34" t="s">
+      <c r="C172" s="33"/>
+      <c r="D172" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="E172" s="34" t="s">
+      <c r="E172" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="F172" s="34"/>
-      <c r="G172" s="34" t="s">
+      <c r="F172" s="33"/>
+      <c r="G172" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="H172" s="34" t="s">
+      <c r="H172" s="33" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="34" t="s">
+      <c r="A173" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="B173" s="34" t="s">
+      <c r="B173" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="C173" s="34"/>
-      <c r="D173" s="34" t="s">
+      <c r="C173" s="33"/>
+      <c r="D173" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="E173" s="34" t="s">
+      <c r="E173" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="F173" s="34"/>
-      <c r="G173" s="34" t="s">
+      <c r="F173" s="33"/>
+      <c r="G173" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="H173" s="34" t="s">
+      <c r="H173" s="33" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="34" t="s">
+      <c r="A174" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="B174" s="34" t="s">
+      <c r="B174" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="C174" s="34"/>
-      <c r="D174" s="34" t="s">
+      <c r="C174" s="33"/>
+      <c r="D174" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="E174" s="34" t="s">
+      <c r="E174" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="F174" s="34"/>
-      <c r="G174" s="34" t="s">
+      <c r="F174" s="33"/>
+      <c r="G174" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="H174" s="34" t="s">
+      <c r="H174" s="33" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="34" t="s">
+      <c r="A175" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="B175" s="34" t="s">
+      <c r="B175" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="C175" s="34"/>
-      <c r="D175" s="34" t="s">
+      <c r="C175" s="33"/>
+      <c r="D175" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="E175" s="34" t="s">
+      <c r="E175" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="F175" s="34"/>
-      <c r="G175" s="34" t="s">
+      <c r="F175" s="33"/>
+      <c r="G175" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="H175" s="34" t="s">
+      <c r="H175" s="33" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A176" s="33" t="s">
+      <c r="A176" s="32" t="s">
         <v>638</v>
       </c>
-      <c r="B176" s="33"/>
-      <c r="C176" s="33"/>
-      <c r="D176" s="33" t="s">
+      <c r="B176" s="32"/>
+      <c r="C176" s="32"/>
+      <c r="D176" s="32" t="s">
         <v>639</v>
       </c>
-      <c r="E176" s="33" t="s">
+      <c r="E176" s="32" t="s">
         <v>639</v>
       </c>
-      <c r="F176" s="33" t="s">
+      <c r="F176" s="32" t="s">
         <v>639</v>
       </c>
-      <c r="G176" s="33" t="s">
+      <c r="G176" s="32" t="s">
         <v>640</v>
       </c>
-      <c r="H176" s="33" t="s">
+      <c r="H176" s="32" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A177" s="34" t="s">
+      <c r="A177" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="B177" s="34" t="s">
+      <c r="B177" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="C177" s="34"/>
-      <c r="D177" s="34" t="s">
+      <c r="C177" s="33"/>
+      <c r="D177" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="E177" s="34" t="s">
+      <c r="E177" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="F177" s="34" t="s">
+      <c r="F177" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="G177" s="34" t="s">
+      <c r="G177" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="H177" s="34" t="s">
+      <c r="H177" s="33" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A178" s="34" t="s">
+      <c r="A178" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="B178" s="34" t="s">
+      <c r="B178" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="C178" s="34"/>
-      <c r="D178" s="34" t="s">
+      <c r="C178" s="33"/>
+      <c r="D178" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="E178" s="34" t="s">
+      <c r="E178" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="F178" s="34" t="s">
+      <c r="F178" s="33" t="s">
         <v>649</v>
       </c>
-      <c r="G178" s="34" t="s">
+      <c r="G178" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="H178" s="34" t="s">
+      <c r="H178" s="33" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A179" s="33" t="s">
+      <c r="A179" s="32" t="s">
         <v>652</v>
       </c>
-      <c r="B179" s="33"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="33" t="s">
+      <c r="B179" s="32"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="32" t="s">
         <v>653</v>
       </c>
-      <c r="E179" s="33" t="s">
+      <c r="E179" s="32" t="s">
         <v>653</v>
       </c>
-      <c r="F179" s="33" t="s">
+      <c r="F179" s="32" t="s">
         <v>653</v>
       </c>
-      <c r="G179" s="33" t="s">
+      <c r="G179" s="32" t="s">
         <v>654</v>
       </c>
-      <c r="H179" s="33" t="s">
+      <c r="H179" s="32" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A180" s="34" t="s">
+      <c r="A180" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="B180" s="34" t="s">
+      <c r="B180" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="C180" s="34"/>
-      <c r="D180" s="34" t="s">
+      <c r="C180" s="33"/>
+      <c r="D180" s="33" t="s">
         <v>653</v>
       </c>
-      <c r="E180" s="34" t="s">
+      <c r="E180" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="F180" s="34"/>
-      <c r="G180" s="34" t="s">
+      <c r="F180" s="33"/>
+      <c r="G180" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="H180" s="34" t="s">
+      <c r="H180" s="33" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="34" t="s">
+      <c r="A181" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="B181" s="34" t="s">
+      <c r="B181" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="C181" s="34"/>
-      <c r="D181" s="34" t="s">
+      <c r="C181" s="33"/>
+      <c r="D181" s="33" t="s">
         <v>653</v>
       </c>
-      <c r="E181" s="34" t="s">
+      <c r="E181" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="F181" s="34" t="s">
+      <c r="F181" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="G181" s="34" t="s">
+      <c r="G181" s="33" t="s">
         <v>995</v>
       </c>
-      <c r="H181" s="34" t="s">
+      <c r="H181" s="33" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A182" s="34" t="s">
+      <c r="A182" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="B182" s="34" t="s">
+      <c r="B182" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="C182" s="34"/>
-      <c r="D182" s="34" t="s">
+      <c r="C182" s="33"/>
+      <c r="D182" s="33" t="s">
         <v>653</v>
       </c>
-      <c r="E182" s="34" t="s">
+      <c r="E182" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="F182" s="34" t="s">
+      <c r="F182" s="33" t="s">
         <v>665</v>
       </c>
-      <c r="G182" s="34" t="s">
+      <c r="G182" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="H182" s="34" t="s">
+      <c r="H182" s="33" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A183" s="33" t="s">
+      <c r="A183" s="32" t="s">
         <v>667</v>
       </c>
-      <c r="B183" s="33"/>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33" t="s">
+      <c r="B183" s="32"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32" t="s">
         <v>668</v>
       </c>
-      <c r="E183" s="33" t="s">
+      <c r="E183" s="32" t="s">
         <v>668</v>
       </c>
-      <c r="F183" s="33" t="s">
+      <c r="F183" s="32" t="s">
         <v>668</v>
       </c>
-      <c r="G183" s="33" t="s">
+      <c r="G183" s="32" t="s">
         <v>669</v>
       </c>
-      <c r="H183" s="33" t="s">
+      <c r="H183" s="32" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A184" s="34" t="s">
+      <c r="A184" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="B184" s="34" t="s">
+      <c r="B184" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="C184" s="34"/>
-      <c r="D184" s="34" t="s">
+      <c r="C184" s="33"/>
+      <c r="D184" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="E184" s="34" t="s">
+      <c r="E184" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="F184" s="34"/>
-      <c r="G184" s="34" t="s">
+      <c r="F184" s="33"/>
+      <c r="G184" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="H184" s="34" t="s">
+      <c r="H184" s="33" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="34" t="s">
+      <c r="A185" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="B185" s="34" t="s">
+      <c r="B185" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="C185" s="34"/>
-      <c r="D185" s="34" t="s">
+      <c r="C185" s="33"/>
+      <c r="D185" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="E185" s="34" t="s">
+      <c r="E185" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="F185" s="34"/>
-      <c r="G185" s="34" t="s">
+      <c r="F185" s="33"/>
+      <c r="G185" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="H185" s="34" t="s">
+      <c r="H185" s="33" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="34" t="s">
+      <c r="A186" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="B186" s="34" t="s">
+      <c r="B186" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="C186" s="34"/>
-      <c r="D186" s="34" t="s">
+      <c r="C186" s="33"/>
+      <c r="D186" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="E186" s="34" t="s">
+      <c r="E186" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="F186" s="34"/>
-      <c r="G186" s="34" t="s">
+      <c r="F186" s="33"/>
+      <c r="G186" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="H186" s="34" t="s">
+      <c r="H186" s="33" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="34" t="s">
+      <c r="A187" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="B187" s="34" t="s">
+      <c r="B187" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="C187" s="34"/>
-      <c r="D187" s="34" t="s">
+      <c r="C187" s="33"/>
+      <c r="D187" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="E187" s="34" t="s">
+      <c r="E187" s="33" t="s">
         <v>682</v>
       </c>
-      <c r="F187" s="34"/>
-      <c r="G187" s="34" t="s">
+      <c r="F187" s="33"/>
+      <c r="G187" s="33" t="s">
         <v>683</v>
       </c>
-      <c r="H187" s="34" t="s">
+      <c r="H187" s="33" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A188" s="34" t="s">
+      <c r="A188" s="33" t="s">
         <v>684</v>
       </c>
-      <c r="B188" s="34" t="s">
+      <c r="B188" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="C188" s="34"/>
-      <c r="D188" s="34" t="s">
+      <c r="C188" s="33"/>
+      <c r="D188" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="E188" s="34" t="s">
+      <c r="E188" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="F188" s="34" t="s">
+      <c r="F188" s="33" t="s">
         <v>686</v>
       </c>
-      <c r="G188" s="34" t="s">
+      <c r="G188" s="33" t="s">
         <v>687</v>
       </c>
-      <c r="H188" s="34" t="s">
+      <c r="H188" s="33" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A189" s="33" t="s">
+      <c r="A189" s="32" t="s">
         <v>688</v>
       </c>
-      <c r="B189" s="33"/>
-      <c r="C189" s="33"/>
-      <c r="D189" s="33" t="s">
+      <c r="B189" s="32"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="E189" s="33" t="s">
+      <c r="E189" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="F189" s="33" t="s">
+      <c r="F189" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="G189" s="33" t="s">
+      <c r="G189" s="32" t="s">
         <v>690</v>
       </c>
-      <c r="H189" s="33" t="s">
+      <c r="H189" s="32" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A190" s="34" t="s">
+      <c r="A190" s="33" t="s">
         <v>692</v>
       </c>
-      <c r="B190" s="34" t="s">
+      <c r="B190" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="C190" s="34"/>
-      <c r="D190" s="34" t="s">
+      <c r="C190" s="33"/>
+      <c r="D190" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="E190" s="34" t="s">
+      <c r="E190" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="F190" s="34"/>
-      <c r="G190" s="34" t="s">
+      <c r="F190" s="33"/>
+      <c r="G190" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="H190" s="34" t="s">
+      <c r="H190" s="33" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A191" s="34" t="s">
+      <c r="A191" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="B191" s="34" t="s">
+      <c r="B191" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="C191" s="34"/>
-      <c r="D191" s="34" t="s">
+      <c r="C191" s="33"/>
+      <c r="D191" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="E191" s="34" t="s">
+      <c r="E191" s="33" t="s">
         <v>696</v>
       </c>
-      <c r="F191" s="34"/>
-      <c r="G191" s="34" t="s">
+      <c r="F191" s="33"/>
+      <c r="G191" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="H191" s="34" t="s">
+      <c r="H191" s="33" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="100" x14ac:dyDescent="0.25">
-      <c r="A192" s="34" t="s">
+      <c r="A192" s="33" t="s">
         <v>698</v>
       </c>
-      <c r="B192" s="34" t="s">
+      <c r="B192" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="C192" s="34"/>
-      <c r="D192" s="34" t="s">
+      <c r="C192" s="33"/>
+      <c r="D192" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="E192" s="34" t="s">
+      <c r="E192" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="F192" s="34"/>
-      <c r="G192" s="34" t="s">
+      <c r="F192" s="33"/>
+      <c r="G192" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="H192" s="34" t="s">
+      <c r="H192" s="33" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="34" t="s">
+      <c r="A193" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="B193" s="34" t="s">
+      <c r="B193" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="C193" s="34"/>
-      <c r="D193" s="34" t="s">
+      <c r="C193" s="33"/>
+      <c r="D193" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="E193" s="34" t="s">
+      <c r="E193" s="33" t="s">
         <v>703</v>
       </c>
-      <c r="F193" s="34"/>
-      <c r="G193" s="34" t="s">
+      <c r="F193" s="33"/>
+      <c r="G193" s="33" t="s">
         <v>704</v>
       </c>
-      <c r="H193" s="34" t="s">
+      <c r="H193" s="33" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A194" s="34" t="s">
+      <c r="A194" s="33" t="s">
         <v>705</v>
       </c>
-      <c r="B194" s="34" t="s">
+      <c r="B194" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="C194" s="34"/>
-      <c r="D194" s="34" t="s">
+      <c r="C194" s="33"/>
+      <c r="D194" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="E194" s="34" t="s">
+      <c r="E194" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="F194" s="34"/>
-      <c r="G194" s="34" t="s">
+      <c r="F194" s="33"/>
+      <c r="G194" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="H194" s="34" t="s">
+      <c r="H194" s="33" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A195" s="33" t="s">
+      <c r="A195" s="32" t="s">
         <v>708</v>
       </c>
-      <c r="B195" s="33"/>
-      <c r="C195" s="33" t="s">
+      <c r="B195" s="32"/>
+      <c r="C195" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D195" s="33" t="s">
+      <c r="D195" s="32" t="s">
         <v>709</v>
       </c>
-      <c r="E195" s="33" t="s">
+      <c r="E195" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="F195" s="33" t="s">
+      <c r="F195" s="32" t="s">
         <v>709</v>
       </c>
-      <c r="G195" s="33" t="s">
+      <c r="G195" s="32" t="s">
         <v>711</v>
       </c>
-      <c r="H195" s="33" t="s">
+      <c r="H195" s="32" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A196" s="34" t="s">
+      <c r="A196" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="B196" s="34" t="s">
+      <c r="B196" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="C196" s="34"/>
-      <c r="D196" s="34" t="s">
+      <c r="C196" s="33"/>
+      <c r="D196" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="E196" s="34" t="s">
+      <c r="E196" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="F196" s="34" t="s">
+      <c r="F196" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="G196" s="34" t="s">
+      <c r="G196" s="33" t="s">
         <v>716</v>
       </c>
-      <c r="H196" s="34" t="s">
+      <c r="H196" s="33" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="34" t="s">
+      <c r="A197" s="33" t="s">
         <v>718</v>
       </c>
-      <c r="B197" s="34" t="s">
+      <c r="B197" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="C197" s="34"/>
-      <c r="D197" s="34" t="s">
+      <c r="C197" s="33"/>
+      <c r="D197" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="E197" s="34" t="s">
+      <c r="E197" s="33" t="s">
         <v>719</v>
       </c>
-      <c r="F197" s="34"/>
-      <c r="G197" s="34" t="s">
+      <c r="F197" s="33"/>
+      <c r="G197" s="33" t="s">
         <v>720</v>
       </c>
-      <c r="H197" s="34" t="s">
+      <c r="H197" s="33" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A198" s="34" t="s">
+      <c r="A198" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="B198" s="34" t="s">
+      <c r="B198" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="C198" s="34"/>
-      <c r="D198" s="34" t="s">
+      <c r="C198" s="33"/>
+      <c r="D198" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="E198" s="34" t="s">
+      <c r="E198" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="F198" s="34"/>
-      <c r="G198" s="34" t="s">
+      <c r="F198" s="33"/>
+      <c r="G198" s="33" t="s">
         <v>724</v>
       </c>
-      <c r="H198" s="34" t="s">
+      <c r="H198" s="33" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="34" t="s">
+      <c r="A199" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="B199" s="34" t="s">
+      <c r="B199" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="C199" s="34"/>
-      <c r="D199" s="34" t="s">
+      <c r="C199" s="33"/>
+      <c r="D199" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="E199" s="34" t="s">
+      <c r="E199" s="33" t="s">
         <v>727</v>
       </c>
-      <c r="F199" s="34"/>
-      <c r="G199" s="34" t="s">
+      <c r="F199" s="33"/>
+      <c r="G199" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="H199" s="34" t="s">
+      <c r="H199" s="33" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A200" s="33" t="s">
+      <c r="A200" s="32" t="s">
         <v>730</v>
       </c>
-      <c r="B200" s="33"/>
-      <c r="C200" s="33" t="s">
+      <c r="B200" s="32"/>
+      <c r="C200" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D200" s="33" t="s">
+      <c r="D200" s="32" t="s">
         <v>731</v>
       </c>
-      <c r="E200" s="33" t="s">
+      <c r="E200" s="32" t="s">
         <v>732</v>
       </c>
-      <c r="F200" s="33" t="s">
+      <c r="F200" s="32" t="s">
         <v>731</v>
       </c>
-      <c r="G200" s="33" t="s">
+      <c r="G200" s="32" t="s">
         <v>733</v>
       </c>
-      <c r="H200" s="33" t="s">
+      <c r="H200" s="32" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A201" s="34" t="s">
+      <c r="A201" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="B201" s="34" t="s">
+      <c r="B201" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="C201" s="34"/>
-      <c r="D201" s="34" t="s">
+      <c r="C201" s="33"/>
+      <c r="D201" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="E201" s="34" t="s">
+      <c r="E201" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="F201" s="34" t="s">
+      <c r="F201" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="G201" s="34" t="s">
+      <c r="G201" s="33" t="s">
         <v>738</v>
       </c>
-      <c r="H201" s="34" t="s">
+      <c r="H201" s="33" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A202" s="34" t="s">
+      <c r="A202" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="B202" s="34" t="s">
+      <c r="B202" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="C202" s="34"/>
-      <c r="D202" s="34" t="s">
+      <c r="C202" s="33"/>
+      <c r="D202" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="E202" s="34" t="s">
+      <c r="E202" s="33" t="s">
         <v>740</v>
       </c>
-      <c r="F202" s="34"/>
-      <c r="G202" s="34" t="s">
+      <c r="F202" s="33"/>
+      <c r="G202" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="H202" s="34" t="s">
+      <c r="H202" s="33" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A203" s="34" t="s">
+      <c r="A203" s="33" t="s">
         <v>743</v>
       </c>
-      <c r="B203" s="34" t="s">
+      <c r="B203" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="C203" s="34"/>
-      <c r="D203" s="34" t="s">
+      <c r="C203" s="33"/>
+      <c r="D203" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="E203" s="34" t="s">
+      <c r="E203" s="33" t="s">
         <v>744</v>
       </c>
-      <c r="F203" s="34"/>
-      <c r="G203" s="34" t="s">
+      <c r="F203" s="33"/>
+      <c r="G203" s="33" t="s">
         <v>745</v>
       </c>
-      <c r="H203" s="34" t="s">
+      <c r="H203" s="33" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A204" s="34" t="s">
+      <c r="A204" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="B204" s="34" t="s">
+      <c r="B204" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="C204" s="34"/>
-      <c r="D204" s="34" t="s">
+      <c r="C204" s="33"/>
+      <c r="D204" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="E204" s="34" t="s">
+      <c r="E204" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="F204" s="34"/>
-      <c r="G204" s="34" t="s">
+      <c r="F204" s="33"/>
+      <c r="G204" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="H204" s="34" t="s">
+      <c r="H204" s="33" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="34" t="s">
+      <c r="A205" s="33" t="s">
         <v>751</v>
       </c>
-      <c r="B205" s="34" t="s">
+      <c r="B205" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="C205" s="34"/>
-      <c r="D205" s="34" t="s">
+      <c r="C205" s="33"/>
+      <c r="D205" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="E205" s="34" t="s">
+      <c r="E205" s="33" t="s">
         <v>752</v>
       </c>
-      <c r="F205" s="34"/>
-      <c r="G205" s="34" t="s">
+      <c r="F205" s="33"/>
+      <c r="G205" s="33" t="s">
         <v>753</v>
       </c>
-      <c r="H205" s="34" t="s">
+      <c r="H205" s="33" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A206" s="34" t="s">
+      <c r="A206" s="33" t="s">
         <v>755</v>
       </c>
-      <c r="B206" s="34" t="s">
+      <c r="B206" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="C206" s="34"/>
-      <c r="D206" s="34" t="s">
+      <c r="C206" s="33"/>
+      <c r="D206" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="E206" s="34" t="s">
+      <c r="E206" s="33" t="s">
         <v>756</v>
       </c>
-      <c r="F206" s="34"/>
-      <c r="G206" s="34" t="s">
+      <c r="F206" s="33"/>
+      <c r="G206" s="33" t="s">
         <v>757</v>
       </c>
-      <c r="H206" s="34" t="s">
+      <c r="H206" s="33" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="34" t="s">
+      <c r="A207" s="33" t="s">
         <v>759</v>
       </c>
-      <c r="B207" s="34" t="s">
+      <c r="B207" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="C207" s="34"/>
-      <c r="D207" s="34" t="s">
+      <c r="C207" s="33"/>
+      <c r="D207" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="E207" s="34" t="s">
+      <c r="E207" s="33" t="s">
         <v>760</v>
       </c>
-      <c r="F207" s="34"/>
-      <c r="G207" s="34" t="s">
+      <c r="F207" s="33"/>
+      <c r="G207" s="33" t="s">
         <v>761</v>
       </c>
-      <c r="H207" s="34" t="s">
+      <c r="H207" s="33" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="34" t="s">
+      <c r="A208" s="33" t="s">
         <v>763</v>
       </c>
-      <c r="B208" s="34" t="s">
+      <c r="B208" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="C208" s="34"/>
-      <c r="D208" s="34" t="s">
+      <c r="C208" s="33"/>
+      <c r="D208" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="E208" s="34" t="s">
+      <c r="E208" s="33" t="s">
         <v>764</v>
       </c>
-      <c r="F208" s="34" t="s">
+      <c r="F208" s="33" t="s">
         <v>765</v>
       </c>
-      <c r="G208" s="34" t="s">
+      <c r="G208" s="33" t="s">
         <v>766</v>
       </c>
-      <c r="H208" s="34" t="s">
+      <c r="H208" s="33" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="34" t="s">
+      <c r="A209" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="B209" s="34" t="s">
+      <c r="B209" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="C209" s="34"/>
-      <c r="D209" s="34" t="s">
+      <c r="C209" s="33"/>
+      <c r="D209" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="E209" s="34" t="s">
+      <c r="E209" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="F209" s="34"/>
-      <c r="G209" s="34" t="s">
+      <c r="F209" s="33"/>
+      <c r="G209" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H209" s="34" t="s">
+      <c r="H209" s="33" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A210" s="34" t="s">
+      <c r="A210" s="33" t="s">
         <v>771</v>
       </c>
-      <c r="B210" s="34" t="s">
+      <c r="B210" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="C210" s="34"/>
-      <c r="D210" s="34" t="s">
+      <c r="C210" s="33"/>
+      <c r="D210" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="E210" s="34" t="s">
+      <c r="E210" s="33" t="s">
         <v>772</v>
       </c>
-      <c r="F210" s="34"/>
-      <c r="G210" s="34" t="s">
+      <c r="F210" s="33"/>
+      <c r="G210" s="33" t="s">
         <v>773</v>
       </c>
-      <c r="H210" s="34" t="s">
+      <c r="H210" s="33" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A211" s="34" t="s">
+      <c r="A211" s="33" t="s">
         <v>775</v>
       </c>
-      <c r="B211" s="34" t="s">
+      <c r="B211" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="C211" s="34"/>
-      <c r="D211" s="34" t="s">
+      <c r="C211" s="33"/>
+      <c r="D211" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="E211" s="34" t="s">
+      <c r="E211" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="F211" s="34" t="s">
+      <c r="F211" s="33" t="s">
         <v>776</v>
       </c>
-      <c r="G211" s="34" t="s">
+      <c r="G211" s="33" t="s">
         <v>777</v>
       </c>
-      <c r="H211" s="34" t="s">
+      <c r="H211" s="33" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="33" t="s">
+      <c r="A212" s="32" t="s">
         <v>779</v>
       </c>
-      <c r="B212" s="33"/>
-      <c r="C212" s="33" t="s">
+      <c r="B212" s="32"/>
+      <c r="C212" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D212" s="33" t="s">
+      <c r="D212" s="32" t="s">
         <v>780</v>
       </c>
-      <c r="E212" s="33" t="s">
+      <c r="E212" s="32" t="s">
         <v>781</v>
       </c>
-      <c r="F212" s="33" t="s">
+      <c r="F212" s="32" t="s">
         <v>780</v>
       </c>
-      <c r="G212" s="33" t="s">
+      <c r="G212" s="32" t="s">
         <v>782</v>
       </c>
-      <c r="H212" s="33" t="s">
+      <c r="H212" s="32" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="34" t="s">
+      <c r="A213" s="33" t="s">
         <v>784</v>
       </c>
-      <c r="B213" s="34" t="s">
+      <c r="B213" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C213" s="34"/>
-      <c r="D213" s="34" t="s">
+      <c r="C213" s="33"/>
+      <c r="D213" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E213" s="34" t="s">
+      <c r="E213" s="33" t="s">
         <v>785</v>
       </c>
-      <c r="F213" s="34" t="s">
+      <c r="F213" s="33" t="s">
         <v>786</v>
       </c>
-      <c r="G213" s="34" t="s">
+      <c r="G213" s="33" t="s">
         <v>787</v>
       </c>
-      <c r="H213" s="34" t="s">
+      <c r="H213" s="33" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="34" t="s">
+      <c r="A214" s="33" t="s">
         <v>789</v>
       </c>
-      <c r="B214" s="34" t="s">
+      <c r="B214" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C214" s="34"/>
-      <c r="D214" s="34" t="s">
+      <c r="C214" s="33"/>
+      <c r="D214" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E214" s="34" t="s">
+      <c r="E214" s="33" t="s">
         <v>790</v>
       </c>
-      <c r="F214" s="34" t="s">
+      <c r="F214" s="33" t="s">
         <v>791</v>
       </c>
-      <c r="G214" s="34" t="s">
+      <c r="G214" s="33" t="s">
         <v>792</v>
       </c>
-      <c r="H214" s="34" t="s">
+      <c r="H214" s="33" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="175" x14ac:dyDescent="0.25">
-      <c r="A215" s="34" t="s">
+      <c r="A215" s="33" t="s">
         <v>794</v>
       </c>
-      <c r="B215" s="34" t="s">
+      <c r="B215" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C215" s="34"/>
-      <c r="D215" s="34" t="s">
+      <c r="C215" s="33"/>
+      <c r="D215" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E215" s="34" t="s">
+      <c r="E215" s="33" t="s">
         <v>795</v>
       </c>
-      <c r="F215" s="34" t="s">
+      <c r="F215" s="33" t="s">
         <v>796</v>
       </c>
-      <c r="G215" s="34" t="s">
+      <c r="G215" s="33" t="s">
         <v>797</v>
       </c>
-      <c r="H215" s="34" t="s">
+      <c r="H215" s="33" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A216" s="34" t="s">
+      <c r="A216" s="33" t="s">
         <v>799</v>
       </c>
-      <c r="B216" s="34" t="s">
+      <c r="B216" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C216" s="34"/>
-      <c r="D216" s="34" t="s">
+      <c r="C216" s="33"/>
+      <c r="D216" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E216" s="34" t="s">
+      <c r="E216" s="33" t="s">
         <v>800</v>
       </c>
-      <c r="F216" s="34" t="s">
+      <c r="F216" s="33" t="s">
         <v>801</v>
       </c>
-      <c r="G216" s="34" t="s">
+      <c r="G216" s="33" t="s">
         <v>802</v>
       </c>
-      <c r="H216" s="34" t="s">
+      <c r="H216" s="33" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A217" s="34" t="s">
+      <c r="A217" s="33" t="s">
         <v>1026</v>
       </c>
-      <c r="B217" s="34" t="s">
+      <c r="B217" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C217" s="34"/>
-      <c r="D217" s="34" t="s">
+      <c r="C217" s="33"/>
+      <c r="D217" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E217" s="34" t="s">
+      <c r="E217" s="33" t="s">
         <v>1027</v>
       </c>
-      <c r="F217" s="34" t="s">
+      <c r="F217" s="33" t="s">
         <v>1028</v>
       </c>
-      <c r="G217" s="34" t="s">
+      <c r="G217" s="33" t="s">
         <v>1029</v>
       </c>
-      <c r="H217" s="34" t="s">
+      <c r="H217" s="33" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A218" s="34" t="s">
+      <c r="A218" s="33" t="s">
         <v>1031</v>
       </c>
-      <c r="B218" s="34" t="s">
+      <c r="B218" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C218" s="34"/>
-      <c r="D218" s="34" t="s">
+      <c r="C218" s="33"/>
+      <c r="D218" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E218" s="34" t="s">
+      <c r="E218" s="33" t="s">
         <v>1032</v>
       </c>
-      <c r="F218" s="34" t="s">
+      <c r="F218" s="33" t="s">
         <v>1033</v>
       </c>
-      <c r="G218" s="34" t="s">
+      <c r="G218" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="H218" s="34" t="s">
+      <c r="H218" s="33" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A219" s="34" t="s">
+      <c r="A219" s="33" t="s">
         <v>1045</v>
       </c>
-      <c r="B219" s="34" t="s">
+      <c r="B219" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C219" s="34"/>
-      <c r="D219" s="34" t="s">
+      <c r="C219" s="33"/>
+      <c r="D219" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E219" s="34" t="s">
+      <c r="E219" s="33" t="s">
         <v>1046</v>
       </c>
-      <c r="F219" s="34" t="s">
+      <c r="F219" s="33" t="s">
         <v>1047</v>
       </c>
-      <c r="G219" s="34" t="s">
+      <c r="G219" s="33" t="s">
         <v>1048</v>
       </c>
-      <c r="H219" s="34" t="s">
+      <c r="H219" s="33" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A220" s="34" t="s">
+      <c r="A220" s="33" t="s">
         <v>1050</v>
       </c>
-      <c r="B220" s="34" t="s">
+      <c r="B220" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C220" s="34"/>
-      <c r="D220" s="34" t="s">
+      <c r="C220" s="33"/>
+      <c r="D220" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E220" s="34" t="s">
+      <c r="E220" s="33" t="s">
         <v>1051</v>
       </c>
-      <c r="F220" s="34" t="s">
+      <c r="F220" s="33" t="s">
         <v>1052</v>
       </c>
-      <c r="G220" s="34" t="s">
+      <c r="G220" s="33" t="s">
         <v>1053</v>
       </c>
-      <c r="H220" s="34" t="s">
+      <c r="H220" s="33" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A221" s="34" t="s">
+      <c r="A221" s="33" t="s">
         <v>804</v>
       </c>
-      <c r="B221" s="34" t="s">
+      <c r="B221" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C221" s="34"/>
-      <c r="D221" s="34" t="s">
+      <c r="C221" s="33"/>
+      <c r="D221" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E221" s="34" t="s">
+      <c r="E221" s="33" t="s">
         <v>805</v>
       </c>
-      <c r="F221" s="34" t="s">
+      <c r="F221" s="33" t="s">
         <v>806</v>
       </c>
-      <c r="G221" s="34" t="s">
+      <c r="G221" s="33" t="s">
         <v>1036</v>
       </c>
-      <c r="H221" s="34" t="s">
+      <c r="H221" s="33" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A222" s="34" t="s">
+      <c r="A222" s="33" t="s">
         <v>808</v>
       </c>
-      <c r="B222" s="34" t="s">
+      <c r="B222" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C222" s="34"/>
-      <c r="D222" s="34" t="s">
+      <c r="C222" s="33"/>
+      <c r="D222" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E222" s="34" t="s">
+      <c r="E222" s="33" t="s">
         <v>809</v>
       </c>
-      <c r="F222" s="34" t="s">
+      <c r="F222" s="33" t="s">
         <v>810</v>
       </c>
-      <c r="G222" s="34" t="s">
+      <c r="G222" s="33" t="s">
         <v>811</v>
       </c>
-      <c r="H222" s="34" t="s">
+      <c r="H222" s="33" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A223" s="34" t="s">
+      <c r="A223" s="33" t="s">
         <v>813</v>
       </c>
-      <c r="B223" s="34" t="s">
+      <c r="B223" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C223" s="34"/>
-      <c r="D223" s="34" t="s">
+      <c r="C223" s="33"/>
+      <c r="D223" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E223" s="34" t="s">
+      <c r="E223" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="F223" s="34" t="s">
+      <c r="F223" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="G223" s="34" t="s">
+      <c r="G223" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="H223" s="34" t="s">
+      <c r="H223" s="33" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A224" s="34" t="s">
+      <c r="A224" s="33" t="s">
         <v>818</v>
       </c>
-      <c r="B224" s="34" t="s">
+      <c r="B224" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C224" s="34"/>
-      <c r="D224" s="34" t="s">
+      <c r="C224" s="33"/>
+      <c r="D224" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E224" s="34" t="s">
+      <c r="E224" s="33" t="s">
         <v>819</v>
       </c>
-      <c r="F224" s="34" t="s">
+      <c r="F224" s="33" t="s">
         <v>820</v>
       </c>
-      <c r="G224" s="34" t="s">
+      <c r="G224" s="33" t="s">
         <v>821</v>
       </c>
-      <c r="H224" s="34" t="s">
+      <c r="H224" s="33" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A225" s="34" t="s">
+      <c r="A225" s="33" t="s">
         <v>823</v>
       </c>
-      <c r="B225" s="34" t="s">
+      <c r="B225" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C225" s="34"/>
-      <c r="D225" s="34" t="s">
+      <c r="C225" s="33"/>
+      <c r="D225" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E225" s="34" t="s">
+      <c r="E225" s="33" t="s">
         <v>824</v>
       </c>
-      <c r="F225" s="34" t="s">
+      <c r="F225" s="33" t="s">
         <v>825</v>
       </c>
-      <c r="G225" s="34" t="s">
+      <c r="G225" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="H225" s="34" t="s">
+      <c r="H225" s="33" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A226" s="34" t="s">
+      <c r="A226" s="33" t="s">
         <v>827</v>
       </c>
-      <c r="B226" s="34" t="s">
+      <c r="B226" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C226" s="34"/>
-      <c r="D226" s="34" t="s">
+      <c r="C226" s="33"/>
+      <c r="D226" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E226" s="34" t="s">
+      <c r="E226" s="33" t="s">
         <v>828</v>
       </c>
-      <c r="F226" s="34" t="s">
+      <c r="F226" s="33" t="s">
         <v>829</v>
       </c>
-      <c r="G226" s="34" t="s">
+      <c r="G226" s="33" t="s">
         <v>830</v>
       </c>
-      <c r="H226" s="34" t="s">
+      <c r="H226" s="33" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A227" s="34" t="s">
+      <c r="A227" s="33" t="s">
         <v>832</v>
       </c>
-      <c r="B227" s="34" t="s">
+      <c r="B227" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C227" s="34"/>
-      <c r="D227" s="34" t="s">
+      <c r="C227" s="33"/>
+      <c r="D227" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E227" s="34" t="s">
+      <c r="E227" s="33" t="s">
         <v>833</v>
       </c>
-      <c r="F227" s="34" t="s">
+      <c r="F227" s="33" t="s">
         <v>834</v>
       </c>
-      <c r="G227" s="34" t="s">
+      <c r="G227" s="33" t="s">
         <v>835</v>
       </c>
-      <c r="H227" s="34" t="s">
+      <c r="H227" s="33" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="34" t="s">
+      <c r="A228" s="33" t="s">
         <v>837</v>
       </c>
-      <c r="B228" s="34" t="s">
+      <c r="B228" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C228" s="34"/>
-      <c r="D228" s="34" t="s">
+      <c r="C228" s="33"/>
+      <c r="D228" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E228" s="34" t="s">
+      <c r="E228" s="33" t="s">
         <v>838</v>
       </c>
-      <c r="F228" s="34" t="s">
+      <c r="F228" s="33" t="s">
         <v>839</v>
       </c>
-      <c r="G228" s="34" t="s">
+      <c r="G228" s="33" t="s">
         <v>1038</v>
       </c>
-      <c r="H228" s="34" t="s">
+      <c r="H228" s="33" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="34" t="s">
+      <c r="A229" s="33" t="s">
         <v>841</v>
       </c>
-      <c r="B229" s="34" t="s">
+      <c r="B229" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="C229" s="34"/>
-      <c r="D229" s="34" t="s">
+      <c r="C229" s="33"/>
+      <c r="D229" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="E229" s="34" t="s">
+      <c r="E229" s="33" t="s">
         <v>842</v>
       </c>
-      <c r="F229" s="34" t="s">
+      <c r="F229" s="33" t="s">
         <v>843</v>
       </c>
-      <c r="G229" s="34" t="s">
+      <c r="G229" s="33" t="s">
         <v>844</v>
       </c>
-      <c r="H229" s="34" t="s">
+      <c r="H229" s="33" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A230" s="33" t="s">
+      <c r="A230" s="32" t="s">
         <v>846</v>
       </c>
-      <c r="B230" s="33"/>
-      <c r="C230" s="33" t="s">
+      <c r="B230" s="32"/>
+      <c r="C230" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D230" s="33" t="s">
+      <c r="D230" s="32" t="s">
         <v>847</v>
       </c>
-      <c r="E230" s="33" t="s">
+      <c r="E230" s="32" t="s">
         <v>848</v>
       </c>
-      <c r="F230" s="33" t="s">
+      <c r="F230" s="32" t="s">
         <v>847</v>
       </c>
-      <c r="G230" s="33" t="s">
+      <c r="G230" s="32" t="s">
         <v>849</v>
       </c>
-      <c r="H230" s="33" t="s">
+      <c r="H230" s="32" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A231" s="34" t="s">
+      <c r="A231" s="33" t="s">
         <v>851</v>
       </c>
-      <c r="B231" s="34" t="s">
+      <c r="B231" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C231" s="34"/>
-      <c r="D231" s="34" t="s">
+      <c r="C231" s="33"/>
+      <c r="D231" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E231" s="34" t="s">
+      <c r="E231" s="33" t="s">
         <v>852</v>
       </c>
-      <c r="F231" s="34"/>
-      <c r="G231" s="34" t="s">
+      <c r="F231" s="33"/>
+      <c r="G231" s="33" t="s">
         <v>853</v>
       </c>
-      <c r="H231" s="34" t="s">
+      <c r="H231" s="33" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A232" s="34" t="s">
+      <c r="A232" s="33" t="s">
         <v>855</v>
       </c>
-      <c r="B232" s="34" t="s">
+      <c r="B232" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C232" s="34"/>
-      <c r="D232" s="34" t="s">
+      <c r="C232" s="33"/>
+      <c r="D232" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E232" s="34" t="s">
+      <c r="E232" s="33" t="s">
         <v>856</v>
       </c>
-      <c r="F232" s="34"/>
-      <c r="G232" s="34" t="s">
+      <c r="F232" s="33"/>
+      <c r="G232" s="33" t="s">
         <v>857</v>
       </c>
-      <c r="H232" s="34" t="s">
+      <c r="H232" s="33" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="34" t="s">
+      <c r="A233" s="33" t="s">
         <v>859</v>
       </c>
-      <c r="B233" s="34" t="s">
+      <c r="B233" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C233" s="34"/>
-      <c r="D233" s="34" t="s">
+      <c r="C233" s="33"/>
+      <c r="D233" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E233" s="34" t="s">
+      <c r="E233" s="33" t="s">
         <v>860</v>
       </c>
-      <c r="F233" s="34"/>
-      <c r="G233" s="34" t="s">
+      <c r="F233" s="33"/>
+      <c r="G233" s="33" t="s">
         <v>861</v>
       </c>
-      <c r="H233" s="34" t="s">
+      <c r="H233" s="33" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="50" x14ac:dyDescent="0.25">
-      <c r="A234" s="34" t="s">
+      <c r="A234" s="33" t="s">
         <v>863</v>
       </c>
-      <c r="B234" s="34" t="s">
+      <c r="B234" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C234" s="34"/>
-      <c r="D234" s="34" t="s">
+      <c r="C234" s="33"/>
+      <c r="D234" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E234" s="34" t="s">
+      <c r="E234" s="33" t="s">
         <v>864</v>
       </c>
-      <c r="F234" s="34"/>
-      <c r="G234" s="34" t="s">
+      <c r="F234" s="33"/>
+      <c r="G234" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="H234" s="34" t="s">
+      <c r="H234" s="33" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="34" t="s">
+      <c r="A235" s="33" t="s">
         <v>867</v>
       </c>
-      <c r="B235" s="34" t="s">
+      <c r="B235" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C235" s="34"/>
-      <c r="D235" s="34" t="s">
+      <c r="C235" s="33"/>
+      <c r="D235" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E235" s="34" t="s">
+      <c r="E235" s="33" t="s">
         <v>868</v>
       </c>
-      <c r="F235" s="34"/>
-      <c r="G235" s="34" t="s">
+      <c r="F235" s="33"/>
+      <c r="G235" s="33" t="s">
         <v>869</v>
       </c>
-      <c r="H235" s="34" t="s">
+      <c r="H235" s="33" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="34" t="s">
+      <c r="A236" s="33" t="s">
         <v>871</v>
       </c>
-      <c r="B236" s="34" t="s">
+      <c r="B236" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C236" s="34"/>
-      <c r="D236" s="34" t="s">
+      <c r="C236" s="33"/>
+      <c r="D236" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E236" s="34" t="s">
+      <c r="E236" s="33" t="s">
         <v>872</v>
       </c>
-      <c r="F236" s="34"/>
-      <c r="G236" s="34" t="s">
+      <c r="F236" s="33"/>
+      <c r="G236" s="33" t="s">
         <v>873</v>
       </c>
-      <c r="H236" s="34" t="s">
+      <c r="H236" s="33" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A237" s="34" t="s">
+      <c r="A237" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="B237" s="34" t="s">
+      <c r="B237" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C237" s="34"/>
-      <c r="D237" s="34" t="s">
+      <c r="C237" s="33"/>
+      <c r="D237" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E237" s="34" t="s">
+      <c r="E237" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="F237" s="34"/>
-      <c r="G237" s="34" t="s">
+      <c r="F237" s="33"/>
+      <c r="G237" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="H237" s="34" t="s">
+      <c r="H237" s="33" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A238" s="34" t="s">
+      <c r="A238" s="33" t="s">
         <v>875</v>
       </c>
-      <c r="B238" s="34" t="s">
+      <c r="B238" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C238" s="34"/>
-      <c r="D238" s="34" t="s">
+      <c r="C238" s="33"/>
+      <c r="D238" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E238" s="34" t="s">
+      <c r="E238" s="33" t="s">
         <v>876</v>
       </c>
-      <c r="F238" s="34"/>
-      <c r="G238" s="34" t="s">
+      <c r="F238" s="33"/>
+      <c r="G238" s="33" t="s">
         <v>877</v>
       </c>
-      <c r="H238" s="34" t="s">
+      <c r="H238" s="33" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A239" s="34" t="s">
+      <c r="A239" s="33" t="s">
         <v>879</v>
       </c>
-      <c r="B239" s="34" t="s">
+      <c r="B239" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C239" s="34"/>
-      <c r="D239" s="34" t="s">
+      <c r="C239" s="33"/>
+      <c r="D239" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E239" s="34" t="s">
+      <c r="E239" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="F239" s="34"/>
-      <c r="G239" s="34" t="s">
+      <c r="F239" s="33"/>
+      <c r="G239" s="33" t="s">
         <v>881</v>
       </c>
-      <c r="H239" s="34" t="s">
+      <c r="H239" s="33" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A240" s="34" t="s">
+      <c r="A240" s="33" t="s">
         <v>883</v>
       </c>
-      <c r="B240" s="34" t="s">
+      <c r="B240" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C240" s="34"/>
-      <c r="D240" s="34" t="s">
+      <c r="C240" s="33"/>
+      <c r="D240" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E240" s="34" t="s">
+      <c r="E240" s="33" t="s">
         <v>884</v>
       </c>
-      <c r="F240" s="34"/>
-      <c r="G240" s="34" t="s">
+      <c r="F240" s="33"/>
+      <c r="G240" s="33" t="s">
         <v>885</v>
       </c>
-      <c r="H240" s="34" t="s">
+      <c r="H240" s="33" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A241" s="34" t="s">
+      <c r="A241" s="33" t="s">
         <v>887</v>
       </c>
-      <c r="B241" s="34" t="s">
+      <c r="B241" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C241" s="34"/>
-      <c r="D241" s="34" t="s">
+      <c r="C241" s="33"/>
+      <c r="D241" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E241" s="34" t="s">
+      <c r="E241" s="33" t="s">
         <v>888</v>
       </c>
-      <c r="F241" s="34"/>
-      <c r="G241" s="34" t="s">
+      <c r="F241" s="33"/>
+      <c r="G241" s="33" t="s">
         <v>889</v>
       </c>
-      <c r="H241" s="34" t="s">
+      <c r="H241" s="33" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A242" s="34" t="s">
+      <c r="A242" s="33" t="s">
         <v>891</v>
       </c>
-      <c r="B242" s="34" t="s">
+      <c r="B242" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C242" s="34"/>
-      <c r="D242" s="34" t="s">
+      <c r="C242" s="33"/>
+      <c r="D242" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E242" s="34" t="s">
+      <c r="E242" s="33" t="s">
         <v>892</v>
       </c>
-      <c r="F242" s="34" t="s">
+      <c r="F242" s="33" t="s">
         <v>893</v>
       </c>
-      <c r="G242" s="34" t="s">
+      <c r="G242" s="33" t="s">
         <v>894</v>
       </c>
-      <c r="H242" s="34" t="s">
+      <c r="H242" s="33" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A243" s="34" t="s">
+      <c r="A243" s="33" t="s">
         <v>895</v>
       </c>
-      <c r="B243" s="34" t="s">
+      <c r="B243" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C243" s="34"/>
-      <c r="D243" s="34" t="s">
+      <c r="C243" s="33"/>
+      <c r="D243" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E243" s="34" t="s">
+      <c r="E243" s="33" t="s">
         <v>896</v>
       </c>
-      <c r="F243" s="34"/>
-      <c r="G243" s="34" t="s">
+      <c r="F243" s="33"/>
+      <c r="G243" s="33" t="s">
         <v>897</v>
       </c>
-      <c r="H243" s="34" t="s">
+      <c r="H243" s="33" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A244" s="34" t="s">
+      <c r="A244" s="33" t="s">
         <v>899</v>
       </c>
-      <c r="B244" s="34" t="s">
+      <c r="B244" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C244" s="34"/>
-      <c r="D244" s="34" t="s">
+      <c r="C244" s="33"/>
+      <c r="D244" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E244" s="34" t="s">
+      <c r="E244" s="33" t="s">
         <v>900</v>
       </c>
-      <c r="F244" s="34"/>
-      <c r="G244" s="34" t="s">
+      <c r="F244" s="33"/>
+      <c r="G244" s="33" t="s">
         <v>901</v>
       </c>
-      <c r="H244" s="34" t="s">
+      <c r="H244" s="33" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="34" t="s">
+      <c r="A245" s="33" t="s">
         <v>903</v>
       </c>
-      <c r="B245" s="34" t="s">
+      <c r="B245" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C245" s="34"/>
-      <c r="D245" s="34" t="s">
+      <c r="C245" s="33"/>
+      <c r="D245" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E245" s="34" t="s">
+      <c r="E245" s="33" t="s">
         <v>904</v>
       </c>
-      <c r="F245" s="34"/>
-      <c r="G245" s="34" t="s">
+      <c r="F245" s="33"/>
+      <c r="G245" s="33" t="s">
         <v>905</v>
       </c>
-      <c r="H245" s="34" t="s">
+      <c r="H245" s="33" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A246" s="34" t="s">
+      <c r="A246" s="33" t="s">
         <v>907</v>
       </c>
-      <c r="B246" s="34" t="s">
+      <c r="B246" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C246" s="34"/>
-      <c r="D246" s="34" t="s">
+      <c r="C246" s="33"/>
+      <c r="D246" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E246" s="34" t="s">
+      <c r="E246" s="33" t="s">
         <v>908</v>
       </c>
-      <c r="F246" s="34"/>
-      <c r="G246" s="34" t="s">
+      <c r="F246" s="33"/>
+      <c r="G246" s="33" t="s">
         <v>909</v>
       </c>
-      <c r="H246" s="34" t="s">
+      <c r="H246" s="33" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A247" s="34" t="s">
+      <c r="A247" s="33" t="s">
         <v>911</v>
       </c>
-      <c r="B247" s="34" t="s">
+      <c r="B247" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C247" s="34"/>
-      <c r="D247" s="34" t="s">
+      <c r="C247" s="33"/>
+      <c r="D247" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E247" s="34" t="s">
+      <c r="E247" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="F247" s="34"/>
-      <c r="G247" s="34" t="s">
+      <c r="F247" s="33"/>
+      <c r="G247" s="33" t="s">
         <v>913</v>
       </c>
-      <c r="H247" s="34" t="s">
+      <c r="H247" s="33" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A248" s="34" t="s">
+      <c r="A248" s="33" t="s">
         <v>915</v>
       </c>
-      <c r="B248" s="34" t="s">
+      <c r="B248" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C248" s="34"/>
-      <c r="D248" s="34" t="s">
+      <c r="C248" s="33"/>
+      <c r="D248" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E248" s="34" t="s">
+      <c r="E248" s="33" t="s">
         <v>916</v>
       </c>
-      <c r="F248" s="34"/>
-      <c r="G248" s="34" t="s">
+      <c r="F248" s="33"/>
+      <c r="G248" s="33" t="s">
         <v>917</v>
       </c>
-      <c r="H248" s="34" t="s">
+      <c r="H248" s="33" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A249" s="34" t="s">
+      <c r="A249" s="33" t="s">
         <v>919</v>
       </c>
-      <c r="B249" s="34" t="s">
+      <c r="B249" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C249" s="34"/>
-      <c r="D249" s="34" t="s">
+      <c r="C249" s="33"/>
+      <c r="D249" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E249" s="34" t="s">
+      <c r="E249" s="33" t="s">
         <v>920</v>
       </c>
-      <c r="F249" s="34"/>
-      <c r="G249" s="34" t="s">
+      <c r="F249" s="33"/>
+      <c r="G249" s="33" t="s">
         <v>921</v>
       </c>
-      <c r="H249" s="34" t="s">
+      <c r="H249" s="33" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A250" s="34" t="s">
+      <c r="A250" s="33" t="s">
         <v>923</v>
       </c>
-      <c r="B250" s="34" t="s">
+      <c r="B250" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C250" s="34"/>
-      <c r="D250" s="34" t="s">
+      <c r="C250" s="33"/>
+      <c r="D250" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E250" s="34" t="s">
+      <c r="E250" s="33" t="s">
         <v>924</v>
       </c>
-      <c r="F250" s="34"/>
-      <c r="G250" s="34" t="s">
+      <c r="F250" s="33"/>
+      <c r="G250" s="33" t="s">
         <v>925</v>
       </c>
-      <c r="H250" s="34" t="s">
+      <c r="H250" s="33" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A251" s="34" t="s">
+      <c r="A251" s="33" t="s">
         <v>927</v>
       </c>
-      <c r="B251" s="34" t="s">
+      <c r="B251" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C251" s="34"/>
-      <c r="D251" s="34" t="s">
+      <c r="C251" s="33"/>
+      <c r="D251" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E251" s="34" t="s">
+      <c r="E251" s="33" t="s">
         <v>928</v>
       </c>
-      <c r="F251" s="34"/>
-      <c r="G251" s="34" t="s">
+      <c r="F251" s="33"/>
+      <c r="G251" s="33" t="s">
         <v>929</v>
       </c>
-      <c r="H251" s="34" t="s">
+      <c r="H251" s="33" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A252" s="34" t="s">
+      <c r="A252" s="33" t="s">
         <v>763</v>
       </c>
-      <c r="B252" s="34" t="s">
+      <c r="B252" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C252" s="34"/>
-      <c r="D252" s="34" t="s">
+      <c r="C252" s="33"/>
+      <c r="D252" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E252" s="34" t="s">
+      <c r="E252" s="33" t="s">
         <v>764</v>
       </c>
-      <c r="F252" s="34" t="s">
+      <c r="F252" s="33" t="s">
         <v>765</v>
       </c>
-      <c r="G252" s="34" t="s">
+      <c r="G252" s="33" t="s">
         <v>766</v>
       </c>
-      <c r="H252" s="34" t="s">
+      <c r="H252" s="33" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A253" s="34" t="s">
+      <c r="A253" s="33" t="s">
         <v>931</v>
       </c>
-      <c r="B253" s="34" t="s">
+      <c r="B253" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C253" s="34"/>
-      <c r="D253" s="34" t="s">
+      <c r="C253" s="33"/>
+      <c r="D253" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E253" s="34" t="s">
+      <c r="E253" s="33" t="s">
         <v>932</v>
       </c>
-      <c r="F253" s="34"/>
-      <c r="G253" s="34" t="s">
+      <c r="F253" s="33"/>
+      <c r="G253" s="33" t="s">
         <v>933</v>
       </c>
-      <c r="H253" s="34" t="s">
+      <c r="H253" s="33" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A254" s="34" t="s">
+      <c r="A254" s="33" t="s">
         <v>935</v>
       </c>
-      <c r="B254" s="34" t="s">
+      <c r="B254" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C254" s="34"/>
-      <c r="D254" s="34" t="s">
+      <c r="C254" s="33"/>
+      <c r="D254" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E254" s="34" t="s">
+      <c r="E254" s="33" t="s">
         <v>936</v>
       </c>
-      <c r="F254" s="34"/>
-      <c r="G254" s="34" t="s">
+      <c r="F254" s="33"/>
+      <c r="G254" s="33" t="s">
         <v>937</v>
       </c>
-      <c r="H254" s="34" t="s">
+      <c r="H254" s="33" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A255" s="34" t="s">
+      <c r="A255" s="33" t="s">
         <v>939</v>
       </c>
-      <c r="B255" s="34" t="s">
+      <c r="B255" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C255" s="34"/>
-      <c r="D255" s="34" t="s">
+      <c r="C255" s="33"/>
+      <c r="D255" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E255" s="34" t="s">
+      <c r="E255" s="33" t="s">
         <v>940</v>
       </c>
-      <c r="F255" s="34"/>
-      <c r="G255" s="34" t="s">
+      <c r="F255" s="33"/>
+      <c r="G255" s="33" t="s">
         <v>941</v>
       </c>
-      <c r="H255" s="34" t="s">
+      <c r="H255" s="33" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A256" s="34" t="s">
+      <c r="A256" s="33" t="s">
         <v>943</v>
       </c>
-      <c r="B256" s="34" t="s">
+      <c r="B256" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C256" s="34"/>
-      <c r="D256" s="34" t="s">
+      <c r="C256" s="33"/>
+      <c r="D256" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E256" s="34" t="s">
+      <c r="E256" s="33" t="s">
         <v>944</v>
       </c>
-      <c r="F256" s="34" t="s">
+      <c r="F256" s="33" t="s">
         <v>945</v>
       </c>
-      <c r="G256" s="34" t="s">
+      <c r="G256" s="33" t="s">
         <v>946</v>
       </c>
-      <c r="H256" s="34" t="s">
+      <c r="H256" s="33" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A257" s="34" t="s">
+      <c r="A257" s="33" t="s">
         <v>948</v>
       </c>
-      <c r="B257" s="34" t="s">
+      <c r="B257" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C257" s="34"/>
-      <c r="D257" s="34" t="s">
+      <c r="C257" s="33"/>
+      <c r="D257" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E257" s="34" t="s">
+      <c r="E257" s="33" t="s">
         <v>949</v>
       </c>
-      <c r="F257" s="34"/>
-      <c r="G257" s="34" t="s">
+      <c r="F257" s="33"/>
+      <c r="G257" s="33" t="s">
         <v>950</v>
       </c>
-      <c r="H257" s="34" t="s">
+      <c r="H257" s="33" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A258" s="34" t="s">
+      <c r="A258" s="33" t="s">
         <v>775</v>
       </c>
-      <c r="B258" s="34" t="s">
+      <c r="B258" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C258" s="34"/>
-      <c r="D258" s="34" t="s">
+      <c r="C258" s="33"/>
+      <c r="D258" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E258" s="34" t="s">
+      <c r="E258" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="F258" s="34" t="s">
+      <c r="F258" s="33" t="s">
         <v>776</v>
       </c>
-      <c r="G258" s="34" t="s">
+      <c r="G258" s="33" t="s">
         <v>777</v>
       </c>
-      <c r="H258" s="34" t="s">
+      <c r="H258" s="33" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="34" t="s">
+      <c r="A259" s="33" t="s">
         <v>952</v>
       </c>
-      <c r="B259" s="34" t="s">
+      <c r="B259" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C259" s="34"/>
-      <c r="D259" s="34" t="s">
+      <c r="C259" s="33"/>
+      <c r="D259" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E259" s="34" t="s">
+      <c r="E259" s="33" t="s">
         <v>953</v>
       </c>
-      <c r="F259" s="34"/>
-      <c r="G259" s="34" t="s">
+      <c r="F259" s="33"/>
+      <c r="G259" s="33" t="s">
         <v>954</v>
       </c>
-      <c r="H259" s="34" t="s">
+      <c r="H259" s="33" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A260" s="34" t="s">
+      <c r="A260" s="33" t="s">
         <v>956</v>
       </c>
-      <c r="B260" s="34" t="s">
+      <c r="B260" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="C260" s="34"/>
-      <c r="D260" s="34" t="s">
+      <c r="C260" s="33"/>
+      <c r="D260" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="E260" s="34" t="s">
+      <c r="E260" s="33" t="s">
         <v>957</v>
       </c>
-      <c r="F260" s="34"/>
-      <c r="G260" s="34" t="s">
+      <c r="F260" s="33"/>
+      <c r="G260" s="33" t="s">
         <v>958</v>
       </c>
-      <c r="H260" s="34" t="s">
+      <c r="H260" s="33" t="s">
         <v>959</v>
       </c>
     </row>
@@ -12651,22 +12715,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>977</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>973</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>974</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>975</v>
       </c>
       <c r="G1" s="15" t="s">
@@ -12678,7 +12742,7 @@
       <c r="I1" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="17" t="s">
@@ -12698,7 +12762,7 @@
       <c r="D2" s="22" t="s">
         <v>990</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>1056</v>
       </c>
       <c r="F2" s="22" t="s">
@@ -13145,7 +13209,7 @@
       <c r="D17" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="39" t="s">
         <v>1061</v>
       </c>
       <c r="F17" s="22" t="s">
@@ -13225,70 +13289,70 @@
         <v>996</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B20" s="22" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B20" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="49" t="s">
         <v>85</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="46" t="s">
         <v>1131</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G20" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G20" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16" t="s">
+      <c r="I20" s="25"/>
+      <c r="J20" s="25" t="s">
         <v>109</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B21" s="22" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B21" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="49" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="46" t="s">
         <v>1132</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G21" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16" t="s">
+      <c r="I21" s="25"/>
+      <c r="J21" s="25" t="s">
         <v>105</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>996</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
@@ -13403,7 +13467,7 @@
       <c r="D25" s="16" t="s">
         <v>992</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="41" t="s">
         <v>1084</v>
       </c>
       <c r="F25" s="16" t="s">
@@ -13436,7 +13500,7 @@
       <c r="D26" s="16" t="s">
         <v>992</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="41" t="s">
         <v>1085</v>
       </c>
       <c r="F26" s="16" t="s">
@@ -13502,7 +13566,7 @@
       <c r="D28" s="16" t="s">
         <v>984</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="41" t="s">
         <v>1119</v>
       </c>
       <c r="F28" s="16" t="s">
@@ -13601,7 +13665,7 @@
       <c r="D31" s="22" t="s">
         <v>1011</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="39" t="s">
         <v>1062</v>
       </c>
       <c r="F31" s="22" t="s">
@@ -13628,7 +13692,7 @@
       <c r="D32" s="22" t="s">
         <v>1011</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="39" t="s">
         <v>1063</v>
       </c>
       <c r="F32" s="22" t="s">
@@ -13652,10 +13716,10 @@
       <c r="C33" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>1013</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="30" t="s">
         <v>1014</v>
       </c>
       <c r="F33" s="25" t="s">
@@ -13682,7 +13746,7 @@
       <c r="D34" s="23" t="s">
         <v>1013</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="38" t="s">
         <v>1065</v>
       </c>
       <c r="F34" s="22" t="s">
@@ -13709,7 +13773,7 @@
       <c r="D35" s="23" t="s">
         <v>1013</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="38" t="s">
         <v>1066</v>
       </c>
       <c r="F35" s="22" t="s">
@@ -13736,7 +13800,7 @@
       <c r="D36" s="23" t="s">
         <v>1013</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="38" t="s">
         <v>1067</v>
       </c>
       <c r="F36" s="22" t="s">
@@ -13763,7 +13827,7 @@
       <c r="D37" s="23" t="s">
         <v>1013</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="38" t="s">
         <v>1134</v>
       </c>
       <c r="F37" s="22" t="s">
@@ -13790,7 +13854,7 @@
       <c r="D38" s="22" t="s">
         <v>1015</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="39" t="s">
         <v>1068</v>
       </c>
       <c r="F38" s="22" t="s">
@@ -13817,7 +13881,7 @@
       <c r="D39" s="22" t="s">
         <v>1015</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>1090</v>
       </c>
       <c r="F39" s="16" t="s">
@@ -13850,7 +13914,7 @@
       <c r="D40" s="22" t="s">
         <v>1015</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="42" t="s">
         <v>1091</v>
       </c>
       <c r="F40" s="16" t="s">
@@ -13936,9 +14000,9 @@
         <v>996</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
-        <v>1069</v>
+    <row r="43" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>1055</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>997</v>
@@ -13946,26 +14010,26 @@
       <c r="C43" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D43" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F43" s="25" t="s">
+      <c r="D43" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F43" s="22" t="s">
         <v>978</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
       <c r="K43" s="14" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
-        <v>1069</v>
+    <row r="44" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>1055</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>997</v>
@@ -13973,13 +14037,13 @@
       <c r="C44" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D44" s="47" t="s">
-        <v>972</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F44" s="25" t="s">
+      <c r="D44" s="51" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F44" s="22" t="s">
         <v>978</v>
       </c>
       <c r="G44" s="14"/>
@@ -13990,9 +14054,9 @@
         <v>997</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
-        <v>1069</v>
+    <row r="45" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>1055</v>
       </c>
       <c r="B45" s="22" t="s">
         <v>997</v>
@@ -14000,13 +14064,13 @@
       <c r="C45" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D45" s="47" t="s">
-        <v>972</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F45" s="25" t="s">
+      <c r="D45" s="51" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F45" s="22" t="s">
         <v>978</v>
       </c>
       <c r="G45" s="14"/>
@@ -14018,102 +14082,84 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>1055</v>
+      <c r="A46" s="40" t="s">
+        <v>1069</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>321</v>
+        <v>997</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D46" s="27" t="s">
+        <v>997</v>
+      </c>
+      <c r="D46" s="50" t="s">
         <v>972</v>
       </c>
-      <c r="E46" s="19" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>979</v>
-      </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17" t="s">
-        <v>980</v>
-      </c>
-      <c r="K46" s="16" t="s">
-        <v>996</v>
+      <c r="E46" s="27" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="14" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>1055</v>
+      <c r="A47" s="40" t="s">
+        <v>1069</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>321</v>
+        <v>997</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D47" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="D47" s="25" t="s">
         <v>972</v>
       </c>
-      <c r="E47" s="19" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>981</v>
-      </c>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17" t="s">
-        <v>1098</v>
-      </c>
-      <c r="K47" s="16" t="s">
-        <v>996</v>
+      <c r="E47" s="27" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>337</v>
+      <c r="A48" s="40" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>997</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16" t="s">
-        <v>1121</v>
-      </c>
-      <c r="K48" s="17" t="s">
-        <v>996</v>
+        <v>997</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>972</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
@@ -14121,97 +14167,97 @@
         <v>1055</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D49" s="44" t="s">
-        <v>988</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F49" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>972</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F49" s="45" t="s">
         <v>967</v>
       </c>
-      <c r="G49" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16" t="s">
-        <v>354</v>
+      <c r="G49" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17" t="s">
+        <v>980</v>
       </c>
       <c r="K49" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>988</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F50" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>972</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F50" s="45" t="s">
         <v>967</v>
       </c>
-      <c r="G50" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16" t="s">
-        <v>1101</v>
+      <c r="G50" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17" t="s">
+        <v>1098</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>355</v>
+      <c r="B51" s="14" t="s">
+        <v>337</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>987</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>1102</v>
+        <v>983</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>1106</v>
       </c>
       <c r="F51" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="I51" s="16"/>
-      <c r="J51" s="17" t="s">
-        <v>1103</v>
-      </c>
-      <c r="K51" s="16" t="s">
+      <c r="J51" s="16" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K51" s="17" t="s">
         <v>996</v>
       </c>
     </row>
@@ -14220,31 +14266,31 @@
         <v>1055</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="F52" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="16" t="s">
-        <v>1105</v>
-      </c>
-      <c r="K52" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="K52" s="16" t="s">
         <v>996</v>
       </c>
     </row>
@@ -14253,35 +14299,35 @@
         <v>1055</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>1129</v>
+        <v>1100</v>
       </c>
       <c r="F53" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I53" s="16"/>
       <c r="J53" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="K53" s="17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K53" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>1055</v>
       </c>
@@ -14295,113 +14341,125 @@
         <v>987</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>1130</v>
+        <v>1102</v>
       </c>
       <c r="F54" s="16" t="s">
         <v>967</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="I54" s="16"/>
-      <c r="J54" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="K54" s="17" t="s">
+      <c r="J54" s="17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K54" s="16" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>997</v>
+        <v>355</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+        <v>1139</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>410</v>
+        <v>1139</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>356</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>989</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>1122</v>
+        <v>987</v>
+      </c>
+      <c r="E57" s="46" t="s">
+        <v>1130</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K57" s="16" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+        <v>1137</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>1055</v>
       </c>
@@ -14411,11 +14469,11 @@
       <c r="C58" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D58" s="14" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E58" s="49" t="s">
-        <v>1127</v>
+      <c r="D58" s="22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>1070</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>978</v>
@@ -14428,7 +14486,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="50" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>1055</v>
       </c>
@@ -14438,11 +14496,11 @@
       <c r="C59" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D59" s="14" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E59" s="49" t="s">
-        <v>1126</v>
+      <c r="D59" s="22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>1071</v>
       </c>
       <c r="F59" s="22" t="s">
         <v>978</v>
@@ -14455,37 +14513,43 @@
         <v>997</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="B60" s="22" t="s">
-        <v>997</v>
+      <c r="B60" s="14" t="s">
+        <v>409</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E60" s="49" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14" t="s">
-        <v>997</v>
+        <v>410</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>989</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>996</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K60" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K53">
-      <sortCondition ref="D1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K60">
+      <sortCondition ref="D1:D60"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E9BB9D-F61C-4E79-AE52-CC41FE1179CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435FBE2F-7BF8-428C-8642-8EA99F4B4FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="590" windowWidth="18960" windowHeight="9820" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1430" yWindow="350" windowWidth="16160" windowHeight="9850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
     <sheet name="DDF Terminology 2023-06-30" sheetId="26" r:id="rId2"/>
-    <sheet name="Terminology Changes sp1 - new" sheetId="25" r:id="rId3"/>
-    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId4"/>
+    <sheet name="Terminology Changes sp2 - new" sheetId="27" r:id="rId3"/>
+    <sheet name="Terminology Changes sp 2 - chg" sheetId="28" r:id="rId4"/>
+    <sheet name="Terminology Changes sp1 - new" sheetId="25" r:id="rId5"/>
+    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF Terminology 2023-06-30'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Terminology Changes Sp1 - chg'!$A$1:$K$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Terminology Changes sp 2 - chg'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Terminology Changes Sp1 - chg'!$A$1:$K$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Terminology Changes sp2 - new'!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="1190">
   <si>
     <t>Code</t>
   </si>
@@ -5586,13 +5590,391 @@
   </si>
   <si>
     <t>Rename UML Item Name. Change UML Item from an Attribute to a Relationship</t>
+  </si>
+  <si>
+    <t>Addition of new Entity</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>C44476</t>
+  </si>
+  <si>
+    <t>Everything that is included in a collection, container, or communication.</t>
+  </si>
+  <si>
+    <t>Addition of new Attribute</t>
+  </si>
+  <si>
+    <t>DDF Content Attribute Terminology</t>
+  </si>
+  <si>
+    <t>sectionNumber</t>
+  </si>
+  <si>
+    <t>Section Number</t>
+  </si>
+  <si>
+    <t>The numeric identifier assigned to a particular document section.</t>
+  </si>
+  <si>
+    <t>sectionTitle</t>
+  </si>
+  <si>
+    <t>Section Title</t>
+  </si>
+  <si>
+    <t>An identifying designation for the document section.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Content Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the content.</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Content Text</t>
+  </si>
+  <si>
+    <t>A textual representation of the content.</t>
+  </si>
+  <si>
+    <t>Addition of new Relationship</t>
+  </si>
+  <si>
+    <t>contentChildren</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Disease Indication Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the disease indication.</t>
+  </si>
+  <si>
+    <t>Target Study Population Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the target study population.</t>
+  </si>
+  <si>
+    <t>Study Objective Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the study objective.</t>
+  </si>
+  <si>
+    <t>DDF Timing Attribute Terminology</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Timing Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the timing.</t>
+  </si>
+  <si>
+    <t>Timing Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the timing.</t>
+  </si>
+  <si>
+    <t>Update USDM Model attribute name</t>
+  </si>
+  <si>
+    <t>DDF Biomedical Concept Attribute Terminology</t>
+  </si>
+  <si>
+    <t>BiomedicalConcept</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bcName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t>Biomedical Concept Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the biomedical concept.</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptProperty</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bcPropertyName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t>Biomedical Concept Property Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the biomedical concept property.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>organizationName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>timingDescription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>description</t>
+    </r>
+  </si>
+  <si>
+    <t>Timing Description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The textual representation of the chronological relationship between temporal events.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A narrative representation of the biomedical concept category.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>endpointPurposeDescription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>purpose</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Study Endpoint Purpose Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Study Endpoint Purpose</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The textual representation of the study endpoint purpose.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The reason or intention for the study endpoint.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5691,8 +6073,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5765,8 +6160,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -5878,13 +6285,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6022,12 +6440,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6038,6 +6450,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6334,10 +6770,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -12669,10 +13105,663 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D1745F-094B-493C-A13B-22B89A7AABE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503195DC-D1D8-4668-937F-5F13E0D1E503}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="18" customWidth="1"/>
+    <col min="5" max="6" width="17.81640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="43.54296875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="17" style="18" customWidth="1"/>
+    <col min="12" max="16384" width="8.6328125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>973</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>974</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>975</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>967</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>967</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>967</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>982</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="16" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>983</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="16" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>984</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="16" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="16" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{503195DC-D1D8-4668-937F-5F13E0D1E503}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6613B91-9C94-4373-A8CA-806726FA647F}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="14.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="21.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="42.90625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>973</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>974</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>975</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="17" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>985</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
+        <v>1189</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{D6613B91-9C94-4373-A8CA-806726FA647F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D1745F-094B-493C-A13B-22B89A7AABE3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12689,16 +13778,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13293,10 +14379,10 @@
       <c r="A20" s="16" t="s">
         <v>1139</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="47" t="s">
         <v>85</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -13326,10 +14412,10 @@
       <c r="A21" s="16" t="s">
         <v>1139</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="47" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -14037,10 +15123,10 @@
       <c r="C44" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="49" t="s">
         <v>1125</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="50" t="s">
         <v>1126</v>
       </c>
       <c r="F44" s="22" t="s">
@@ -14064,10 +15150,10 @@
       <c r="C45" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="49" t="s">
         <v>1125</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="50" t="s">
         <v>1128</v>
       </c>
       <c r="F45" s="22" t="s">
@@ -14091,7 +15177,7 @@
       <c r="C46" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="48" t="s">
         <v>972</v>
       </c>
       <c r="E46" s="27" t="s">
@@ -14397,10 +15483,10 @@
       <c r="A56" s="16" t="s">
         <v>1139</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="47" t="s">
         <v>356</v>
       </c>
       <c r="D56" s="16" t="s">
@@ -14430,10 +15516,10 @@
       <c r="A57" s="16" t="s">
         <v>1139</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="47" t="s">
         <v>356</v>
       </c>
       <c r="D57" s="16" t="s">

--- a/Deliverables/CT/USDM_CT_Changes.xlsx
+++ b/Deliverables/CT/USDM_CT_Changes.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czwic\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A990E-585C-4955-9736-8E0A094D81BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6823D3EE-2844-4B84-B47D-3041198038C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="80" windowWidth="15610" windowHeight="9780" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
     <sheet name="DDF Terminology 2023-06-30" sheetId="26" r:id="rId2"/>
-    <sheet name="Terminology Changes sp2 - new" sheetId="27" r:id="rId3"/>
-    <sheet name="Terminology Changes sp 2 - chg" sheetId="28" r:id="rId4"/>
-    <sheet name="Terminology Changes sp1 - new" sheetId="25" r:id="rId5"/>
-    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId6"/>
+    <sheet name="Terminology Changes sp 4 - new" sheetId="30" r:id="rId3"/>
+    <sheet name="Terminology Changes sp 4 - chg" sheetId="29" r:id="rId4"/>
+    <sheet name="Terminology Changes sp2 - new" sheetId="27" r:id="rId5"/>
+    <sheet name="Terminology Changes sp 2 - chg" sheetId="28" r:id="rId6"/>
+    <sheet name="Terminology Changes sp1 - new" sheetId="25" r:id="rId7"/>
+    <sheet name="Terminology Changes Sp1 - chg" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF Terminology 2023-06-30'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Terminology Changes sp 2 - chg'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Terminology Changes Sp1 - chg'!$A$1:$K$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Terminology Changes sp2 - new'!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Terminology Changes sp 2 - chg'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Terminology Changes sp 4 - chg'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Terminology Changes sp 4 - new'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Terminology Changes Sp1 - chg'!$A$1:$K$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Terminology Changes sp2 - new'!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="1297">
   <si>
     <t>Code</t>
   </si>
@@ -5971,13 +5975,673 @@
   </si>
   <si>
     <t>content</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>type</t>
+    </r>
+  </si>
+  <si>
+    <t>The nature of the investigation for which study information is being collected. (After clinicaltrials.gov)</t>
+  </si>
+  <si>
+    <t>Y (C99077)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>organizationType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>type</t>
+    </r>
+  </si>
+  <si>
+    <t>Y (C188724)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>trialType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>trialTypes</t>
+    </r>
+  </si>
+  <si>
+    <t>Y (C66739)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyArmType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>type</t>
+    </r>
+  </si>
+  <si>
+    <t>Study Arm Type</t>
+  </si>
+  <si>
+    <t>A characterization or classification of the study arm.</t>
+  </si>
+  <si>
+    <t>Y (C174222)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyArmDataOriginType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dataOriginType</t>
+    </r>
+  </si>
+  <si>
+    <t>A characterization or classification of the study arm with respect to where the study arm data originates. </t>
+  </si>
+  <si>
+    <t>Y (C188727)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyEpochType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>type</t>
+    </r>
+  </si>
+  <si>
+    <t>A characterization or classification of the study epoch, i.e., the named time period defined in the protocol, wherein a study activity is specified and unchanging throughout the interval, to support a study-specific purpose.</t>
+  </si>
+  <si>
+    <t>Y (C99079)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>encounterType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>type</t>
+    </r>
+  </si>
+  <si>
+    <t>Y (C188728)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>scheduledInstanceType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>instanceType</t>
+    </r>
+  </si>
+  <si>
+    <t>Scheduled Instance Type</t>
+  </si>
+  <si>
+    <t>A characterization or classification of the scheduled instance.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>timingType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>type</t>
+    </r>
+  </si>
+  <si>
+    <t>Timing Type</t>
+  </si>
+  <si>
+    <t>A characterization or classification of the chronological relationship between temporal events.</t>
+  </si>
+  <si>
+    <t>Y (CNEW)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>procedureCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>code</t>
+    </r>
+  </si>
+  <si>
+    <t>Y (Point out to external dictionary like CPT, MedDRA, SNOMEDCT, etc.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bcConceptCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>code</t>
+    </r>
+  </si>
+  <si>
+    <t>Biomedical Concept Concept Code</t>
+  </si>
+  <si>
+    <t>A concept unique identifier assigned to a biomedical concept that points to the meaning of that biomedical concept.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bcPropertyConceptCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>code</t>
+    </r>
+  </si>
+  <si>
+    <t>Biomedical Concept Property Concept Code</t>
+  </si>
+  <si>
+    <t>A concept unique identifier assigned to a biomedical concept property that points to the meaning of that biomedical concept property.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bcCategoryCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>code</t>
+    </r>
+  </si>
+  <si>
+    <t>Biomedical Concept Category Code</t>
+  </si>
+  <si>
+    <t>A symbol or combination of symbols which is assigned to the biomedical concept category.</t>
+  </si>
+  <si>
+    <t>DDF Biomedical Concept Property Attribute Terminology</t>
+  </si>
+  <si>
+    <t>DDF Scheduled Instance Attribute Terminology</t>
+  </si>
+  <si>
+    <t>SyntaxTemplate</t>
+  </si>
+  <si>
+    <t>Syntax Template</t>
+  </si>
+  <si>
+    <t>A standardized pattern used for the arrangement of words and phrases to create well-formed, structured sentences.</t>
+  </si>
+  <si>
+    <t>Syntax Template Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the syntax template.</t>
+  </si>
+  <si>
+    <t>templateText</t>
+  </si>
+  <si>
+    <t>Syntax Template Text</t>
+  </si>
+  <si>
+    <t>A structured text string containing prescribed text interspersed with user-defined parameter values.</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Syntax Template Description</t>
+  </si>
+  <si>
+    <t>A narrative representation of the syntax template.</t>
+  </si>
+  <si>
+    <t>Syntax Template Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the syntax template.</t>
+  </si>
+  <si>
+    <t>SyntaxTemplateDictionary</t>
+  </si>
+  <si>
+    <t>Syntax Template Dictionary</t>
+  </si>
+  <si>
+    <t>A reference source that provides a listing of valid parameter names and values used in syntax template text strings.</t>
+  </si>
+  <si>
+    <t>Syntax Template Dictionary Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the syntax template dictionary.</t>
+  </si>
+  <si>
+    <t>Syntax Template Dictionary Description</t>
+  </si>
+  <si>
+    <t>A narrative representation of the syntax template dictionary.</t>
+  </si>
+  <si>
+    <t>Syntax Template Dictionary Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the syntax template dictionary.</t>
+  </si>
+  <si>
+    <t>parameterMap</t>
+  </si>
+  <si>
+    <t>Syntax Template Dictionary Parameter Map</t>
+  </si>
+  <si>
+    <t>The paired name and value contained within the syntax template dictionary for a given parameter.</t>
+  </si>
+  <si>
+    <t>Organization Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the organization.</t>
+  </si>
+  <si>
+    <t>Study Design Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the study design.</t>
+  </si>
+  <si>
+    <t>Indication Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the indication.</t>
+  </si>
+  <si>
+    <t>Study Design Population Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the study design population.</t>
+  </si>
+  <si>
+    <t>Study Objective Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the study objective.</t>
+  </si>
+  <si>
+    <t>Study Arm Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the study arm.</t>
+  </si>
+  <si>
+    <t>Study Epoch Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the study epoch.</t>
+  </si>
+  <si>
+    <t>Study Element Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the study element.</t>
+  </si>
+  <si>
+    <t>Encounter Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the encounter.</t>
+  </si>
+  <si>
+    <t>Activity Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the activity.</t>
+  </si>
+  <si>
+    <t>Procedure Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the procedure.</t>
+  </si>
+  <si>
+    <t>Intercurrent Event Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the intercurrent event.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the biomedical concept.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Property Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the biomedical concept property.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Surrogate Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the biomedical concept surrogate.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Category Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the biomedical concept category.</t>
+  </si>
+  <si>
+    <t>Schedule Timeline Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the schedule timeline.</t>
+  </si>
+  <si>
+    <t>Content Label</t>
+  </si>
+  <si>
+    <t>The identifying or descriptive marker that is attached to the content.</t>
+  </si>
+  <si>
+    <t>Addition of new Attribute to SyntaxTemplate Entity</t>
+  </si>
+  <si>
+    <t>DDF Syntax Template Attribute Terminology</t>
+  </si>
+  <si>
+    <t>DDF Syntax Template Dictionary Attribute Terminology</t>
+  </si>
+  <si>
+    <t>Addition of new Attribute to SyntaxTemplateDictionary Entity</t>
+  </si>
+  <si>
+    <t>Addition of new Attribute to Existing Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6311,7 +6975,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6478,6 +7142,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6765,20 +7450,20 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.88671875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="35.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.90625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="69" customHeight="1">
+    <row r="1" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>966</v>
       </c>
       <c r="B1" s="56"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6786,7 +7471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="46.95" customHeight="1">
+    <row r="3" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -6794,7 +7479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="66.75" customHeight="1">
+    <row r="4" spans="1:2" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -6802,7 +7487,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="72.599999999999994" customHeight="1">
+    <row r="5" spans="1:2" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -6810,7 +7495,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="52.8" customHeight="1">
+    <row r="6" spans="1:2" ht="52.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
@@ -6818,7 +7503,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="53.4" customHeight="1">
+    <row r="7" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -6826,7 +7511,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="71.25" customHeight="1">
+    <row r="8" spans="1:2" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -6834,7 +7519,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="59.4" customHeight="1">
+    <row r="9" spans="1:2" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -6842,7 +7527,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="69.599999999999994" customHeight="1">
+    <row r="10" spans="1:2" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -6850,15 +7535,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
     </row>
@@ -6879,331 +7564,331 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="6" width="35.77734375" customWidth="1"/>
-    <col min="7" max="7" width="64.77734375" customWidth="1"/>
-    <col min="8" max="8" width="35.77734375" customWidth="1"/>
-    <col min="257" max="258" width="8.77734375" customWidth="1"/>
-    <col min="259" max="259" width="12.77734375" customWidth="1"/>
-    <col min="260" max="262" width="35.77734375" customWidth="1"/>
-    <col min="263" max="263" width="64.77734375" customWidth="1"/>
-    <col min="264" max="264" width="35.77734375" customWidth="1"/>
-    <col min="513" max="514" width="8.77734375" customWidth="1"/>
-    <col min="515" max="515" width="12.77734375" customWidth="1"/>
-    <col min="516" max="518" width="35.77734375" customWidth="1"/>
-    <col min="519" max="519" width="64.77734375" customWidth="1"/>
-    <col min="520" max="520" width="35.77734375" customWidth="1"/>
-    <col min="769" max="770" width="8.77734375" customWidth="1"/>
-    <col min="771" max="771" width="12.77734375" customWidth="1"/>
-    <col min="772" max="774" width="35.77734375" customWidth="1"/>
-    <col min="775" max="775" width="64.77734375" customWidth="1"/>
-    <col min="776" max="776" width="35.77734375" customWidth="1"/>
-    <col min="1025" max="1026" width="8.77734375" customWidth="1"/>
-    <col min="1027" max="1027" width="12.77734375" customWidth="1"/>
-    <col min="1028" max="1030" width="35.77734375" customWidth="1"/>
-    <col min="1031" max="1031" width="64.77734375" customWidth="1"/>
-    <col min="1032" max="1032" width="35.77734375" customWidth="1"/>
-    <col min="1281" max="1282" width="8.77734375" customWidth="1"/>
-    <col min="1283" max="1283" width="12.77734375" customWidth="1"/>
-    <col min="1284" max="1286" width="35.77734375" customWidth="1"/>
-    <col min="1287" max="1287" width="64.77734375" customWidth="1"/>
-    <col min="1288" max="1288" width="35.77734375" customWidth="1"/>
-    <col min="1537" max="1538" width="8.77734375" customWidth="1"/>
-    <col min="1539" max="1539" width="12.77734375" customWidth="1"/>
-    <col min="1540" max="1542" width="35.77734375" customWidth="1"/>
-    <col min="1543" max="1543" width="64.77734375" customWidth="1"/>
-    <col min="1544" max="1544" width="35.77734375" customWidth="1"/>
-    <col min="1793" max="1794" width="8.77734375" customWidth="1"/>
-    <col min="1795" max="1795" width="12.77734375" customWidth="1"/>
-    <col min="1796" max="1798" width="35.77734375" customWidth="1"/>
-    <col min="1799" max="1799" width="64.77734375" customWidth="1"/>
-    <col min="1800" max="1800" width="35.77734375" customWidth="1"/>
-    <col min="2049" max="2050" width="8.77734375" customWidth="1"/>
-    <col min="2051" max="2051" width="12.77734375" customWidth="1"/>
-    <col min="2052" max="2054" width="35.77734375" customWidth="1"/>
-    <col min="2055" max="2055" width="64.77734375" customWidth="1"/>
-    <col min="2056" max="2056" width="35.77734375" customWidth="1"/>
-    <col min="2305" max="2306" width="8.77734375" customWidth="1"/>
-    <col min="2307" max="2307" width="12.77734375" customWidth="1"/>
-    <col min="2308" max="2310" width="35.77734375" customWidth="1"/>
-    <col min="2311" max="2311" width="64.77734375" customWidth="1"/>
-    <col min="2312" max="2312" width="35.77734375" customWidth="1"/>
-    <col min="2561" max="2562" width="8.77734375" customWidth="1"/>
-    <col min="2563" max="2563" width="12.77734375" customWidth="1"/>
-    <col min="2564" max="2566" width="35.77734375" customWidth="1"/>
-    <col min="2567" max="2567" width="64.77734375" customWidth="1"/>
-    <col min="2568" max="2568" width="35.77734375" customWidth="1"/>
-    <col min="2817" max="2818" width="8.77734375" customWidth="1"/>
-    <col min="2819" max="2819" width="12.77734375" customWidth="1"/>
-    <col min="2820" max="2822" width="35.77734375" customWidth="1"/>
-    <col min="2823" max="2823" width="64.77734375" customWidth="1"/>
-    <col min="2824" max="2824" width="35.77734375" customWidth="1"/>
-    <col min="3073" max="3074" width="8.77734375" customWidth="1"/>
-    <col min="3075" max="3075" width="12.77734375" customWidth="1"/>
-    <col min="3076" max="3078" width="35.77734375" customWidth="1"/>
-    <col min="3079" max="3079" width="64.77734375" customWidth="1"/>
-    <col min="3080" max="3080" width="35.77734375" customWidth="1"/>
-    <col min="3329" max="3330" width="8.77734375" customWidth="1"/>
-    <col min="3331" max="3331" width="12.77734375" customWidth="1"/>
-    <col min="3332" max="3334" width="35.77734375" customWidth="1"/>
-    <col min="3335" max="3335" width="64.77734375" customWidth="1"/>
-    <col min="3336" max="3336" width="35.77734375" customWidth="1"/>
-    <col min="3585" max="3586" width="8.77734375" customWidth="1"/>
-    <col min="3587" max="3587" width="12.77734375" customWidth="1"/>
-    <col min="3588" max="3590" width="35.77734375" customWidth="1"/>
-    <col min="3591" max="3591" width="64.77734375" customWidth="1"/>
-    <col min="3592" max="3592" width="35.77734375" customWidth="1"/>
-    <col min="3841" max="3842" width="8.77734375" customWidth="1"/>
-    <col min="3843" max="3843" width="12.77734375" customWidth="1"/>
-    <col min="3844" max="3846" width="35.77734375" customWidth="1"/>
-    <col min="3847" max="3847" width="64.77734375" customWidth="1"/>
-    <col min="3848" max="3848" width="35.77734375" customWidth="1"/>
-    <col min="4097" max="4098" width="8.77734375" customWidth="1"/>
-    <col min="4099" max="4099" width="12.77734375" customWidth="1"/>
-    <col min="4100" max="4102" width="35.77734375" customWidth="1"/>
-    <col min="4103" max="4103" width="64.77734375" customWidth="1"/>
-    <col min="4104" max="4104" width="35.77734375" customWidth="1"/>
-    <col min="4353" max="4354" width="8.77734375" customWidth="1"/>
-    <col min="4355" max="4355" width="12.77734375" customWidth="1"/>
-    <col min="4356" max="4358" width="35.77734375" customWidth="1"/>
-    <col min="4359" max="4359" width="64.77734375" customWidth="1"/>
-    <col min="4360" max="4360" width="35.77734375" customWidth="1"/>
-    <col min="4609" max="4610" width="8.77734375" customWidth="1"/>
-    <col min="4611" max="4611" width="12.77734375" customWidth="1"/>
-    <col min="4612" max="4614" width="35.77734375" customWidth="1"/>
-    <col min="4615" max="4615" width="64.77734375" customWidth="1"/>
-    <col min="4616" max="4616" width="35.77734375" customWidth="1"/>
-    <col min="4865" max="4866" width="8.77734375" customWidth="1"/>
-    <col min="4867" max="4867" width="12.77734375" customWidth="1"/>
-    <col min="4868" max="4870" width="35.77734375" customWidth="1"/>
-    <col min="4871" max="4871" width="64.77734375" customWidth="1"/>
-    <col min="4872" max="4872" width="35.77734375" customWidth="1"/>
-    <col min="5121" max="5122" width="8.77734375" customWidth="1"/>
-    <col min="5123" max="5123" width="12.77734375" customWidth="1"/>
-    <col min="5124" max="5126" width="35.77734375" customWidth="1"/>
-    <col min="5127" max="5127" width="64.77734375" customWidth="1"/>
-    <col min="5128" max="5128" width="35.77734375" customWidth="1"/>
-    <col min="5377" max="5378" width="8.77734375" customWidth="1"/>
-    <col min="5379" max="5379" width="12.77734375" customWidth="1"/>
-    <col min="5380" max="5382" width="35.77734375" customWidth="1"/>
-    <col min="5383" max="5383" width="64.77734375" customWidth="1"/>
-    <col min="5384" max="5384" width="35.77734375" customWidth="1"/>
-    <col min="5633" max="5634" width="8.77734375" customWidth="1"/>
-    <col min="5635" max="5635" width="12.77734375" customWidth="1"/>
-    <col min="5636" max="5638" width="35.77734375" customWidth="1"/>
-    <col min="5639" max="5639" width="64.77734375" customWidth="1"/>
-    <col min="5640" max="5640" width="35.77734375" customWidth="1"/>
-    <col min="5889" max="5890" width="8.77734375" customWidth="1"/>
-    <col min="5891" max="5891" width="12.77734375" customWidth="1"/>
-    <col min="5892" max="5894" width="35.77734375" customWidth="1"/>
-    <col min="5895" max="5895" width="64.77734375" customWidth="1"/>
-    <col min="5896" max="5896" width="35.77734375" customWidth="1"/>
-    <col min="6145" max="6146" width="8.77734375" customWidth="1"/>
-    <col min="6147" max="6147" width="12.77734375" customWidth="1"/>
-    <col min="6148" max="6150" width="35.77734375" customWidth="1"/>
-    <col min="6151" max="6151" width="64.77734375" customWidth="1"/>
-    <col min="6152" max="6152" width="35.77734375" customWidth="1"/>
-    <col min="6401" max="6402" width="8.77734375" customWidth="1"/>
-    <col min="6403" max="6403" width="12.77734375" customWidth="1"/>
-    <col min="6404" max="6406" width="35.77734375" customWidth="1"/>
-    <col min="6407" max="6407" width="64.77734375" customWidth="1"/>
-    <col min="6408" max="6408" width="35.77734375" customWidth="1"/>
-    <col min="6657" max="6658" width="8.77734375" customWidth="1"/>
-    <col min="6659" max="6659" width="12.77734375" customWidth="1"/>
-    <col min="6660" max="6662" width="35.77734375" customWidth="1"/>
-    <col min="6663" max="6663" width="64.77734375" customWidth="1"/>
-    <col min="6664" max="6664" width="35.77734375" customWidth="1"/>
-    <col min="6913" max="6914" width="8.77734375" customWidth="1"/>
-    <col min="6915" max="6915" width="12.77734375" customWidth="1"/>
-    <col min="6916" max="6918" width="35.77734375" customWidth="1"/>
-    <col min="6919" max="6919" width="64.77734375" customWidth="1"/>
-    <col min="6920" max="6920" width="35.77734375" customWidth="1"/>
-    <col min="7169" max="7170" width="8.77734375" customWidth="1"/>
-    <col min="7171" max="7171" width="12.77734375" customWidth="1"/>
-    <col min="7172" max="7174" width="35.77734375" customWidth="1"/>
-    <col min="7175" max="7175" width="64.77734375" customWidth="1"/>
-    <col min="7176" max="7176" width="35.77734375" customWidth="1"/>
-    <col min="7425" max="7426" width="8.77734375" customWidth="1"/>
-    <col min="7427" max="7427" width="12.77734375" customWidth="1"/>
-    <col min="7428" max="7430" width="35.77734375" customWidth="1"/>
-    <col min="7431" max="7431" width="64.77734375" customWidth="1"/>
-    <col min="7432" max="7432" width="35.77734375" customWidth="1"/>
-    <col min="7681" max="7682" width="8.77734375" customWidth="1"/>
-    <col min="7683" max="7683" width="12.77734375" customWidth="1"/>
-    <col min="7684" max="7686" width="35.77734375" customWidth="1"/>
-    <col min="7687" max="7687" width="64.77734375" customWidth="1"/>
-    <col min="7688" max="7688" width="35.77734375" customWidth="1"/>
-    <col min="7937" max="7938" width="8.77734375" customWidth="1"/>
-    <col min="7939" max="7939" width="12.77734375" customWidth="1"/>
-    <col min="7940" max="7942" width="35.77734375" customWidth="1"/>
-    <col min="7943" max="7943" width="64.77734375" customWidth="1"/>
-    <col min="7944" max="7944" width="35.77734375" customWidth="1"/>
-    <col min="8193" max="8194" width="8.77734375" customWidth="1"/>
-    <col min="8195" max="8195" width="12.77734375" customWidth="1"/>
-    <col min="8196" max="8198" width="35.77734375" customWidth="1"/>
-    <col min="8199" max="8199" width="64.77734375" customWidth="1"/>
-    <col min="8200" max="8200" width="35.77734375" customWidth="1"/>
-    <col min="8449" max="8450" width="8.77734375" customWidth="1"/>
-    <col min="8451" max="8451" width="12.77734375" customWidth="1"/>
-    <col min="8452" max="8454" width="35.77734375" customWidth="1"/>
-    <col min="8455" max="8455" width="64.77734375" customWidth="1"/>
-    <col min="8456" max="8456" width="35.77734375" customWidth="1"/>
-    <col min="8705" max="8706" width="8.77734375" customWidth="1"/>
-    <col min="8707" max="8707" width="12.77734375" customWidth="1"/>
-    <col min="8708" max="8710" width="35.77734375" customWidth="1"/>
-    <col min="8711" max="8711" width="64.77734375" customWidth="1"/>
-    <col min="8712" max="8712" width="35.77734375" customWidth="1"/>
-    <col min="8961" max="8962" width="8.77734375" customWidth="1"/>
-    <col min="8963" max="8963" width="12.77734375" customWidth="1"/>
-    <col min="8964" max="8966" width="35.77734375" customWidth="1"/>
-    <col min="8967" max="8967" width="64.77734375" customWidth="1"/>
-    <col min="8968" max="8968" width="35.77734375" customWidth="1"/>
-    <col min="9217" max="9218" width="8.77734375" customWidth="1"/>
-    <col min="9219" max="9219" width="12.77734375" customWidth="1"/>
-    <col min="9220" max="9222" width="35.77734375" customWidth="1"/>
-    <col min="9223" max="9223" width="64.77734375" customWidth="1"/>
-    <col min="9224" max="9224" width="35.77734375" customWidth="1"/>
-    <col min="9473" max="9474" width="8.77734375" customWidth="1"/>
-    <col min="9475" max="9475" width="12.77734375" customWidth="1"/>
-    <col min="9476" max="9478" width="35.77734375" customWidth="1"/>
-    <col min="9479" max="9479" width="64.77734375" customWidth="1"/>
-    <col min="9480" max="9480" width="35.77734375" customWidth="1"/>
-    <col min="9729" max="9730" width="8.77734375" customWidth="1"/>
-    <col min="9731" max="9731" width="12.77734375" customWidth="1"/>
-    <col min="9732" max="9734" width="35.77734375" customWidth="1"/>
-    <col min="9735" max="9735" width="64.77734375" customWidth="1"/>
-    <col min="9736" max="9736" width="35.77734375" customWidth="1"/>
-    <col min="9985" max="9986" width="8.77734375" customWidth="1"/>
-    <col min="9987" max="9987" width="12.77734375" customWidth="1"/>
-    <col min="9988" max="9990" width="35.77734375" customWidth="1"/>
-    <col min="9991" max="9991" width="64.77734375" customWidth="1"/>
-    <col min="9992" max="9992" width="35.77734375" customWidth="1"/>
-    <col min="10241" max="10242" width="8.77734375" customWidth="1"/>
-    <col min="10243" max="10243" width="12.77734375" customWidth="1"/>
-    <col min="10244" max="10246" width="35.77734375" customWidth="1"/>
-    <col min="10247" max="10247" width="64.77734375" customWidth="1"/>
-    <col min="10248" max="10248" width="35.77734375" customWidth="1"/>
-    <col min="10497" max="10498" width="8.77734375" customWidth="1"/>
-    <col min="10499" max="10499" width="12.77734375" customWidth="1"/>
-    <col min="10500" max="10502" width="35.77734375" customWidth="1"/>
-    <col min="10503" max="10503" width="64.77734375" customWidth="1"/>
-    <col min="10504" max="10504" width="35.77734375" customWidth="1"/>
-    <col min="10753" max="10754" width="8.77734375" customWidth="1"/>
-    <col min="10755" max="10755" width="12.77734375" customWidth="1"/>
-    <col min="10756" max="10758" width="35.77734375" customWidth="1"/>
-    <col min="10759" max="10759" width="64.77734375" customWidth="1"/>
-    <col min="10760" max="10760" width="35.77734375" customWidth="1"/>
-    <col min="11009" max="11010" width="8.77734375" customWidth="1"/>
-    <col min="11011" max="11011" width="12.77734375" customWidth="1"/>
-    <col min="11012" max="11014" width="35.77734375" customWidth="1"/>
-    <col min="11015" max="11015" width="64.77734375" customWidth="1"/>
-    <col min="11016" max="11016" width="35.77734375" customWidth="1"/>
-    <col min="11265" max="11266" width="8.77734375" customWidth="1"/>
-    <col min="11267" max="11267" width="12.77734375" customWidth="1"/>
-    <col min="11268" max="11270" width="35.77734375" customWidth="1"/>
-    <col min="11271" max="11271" width="64.77734375" customWidth="1"/>
-    <col min="11272" max="11272" width="35.77734375" customWidth="1"/>
-    <col min="11521" max="11522" width="8.77734375" customWidth="1"/>
-    <col min="11523" max="11523" width="12.77734375" customWidth="1"/>
-    <col min="11524" max="11526" width="35.77734375" customWidth="1"/>
-    <col min="11527" max="11527" width="64.77734375" customWidth="1"/>
-    <col min="11528" max="11528" width="35.77734375" customWidth="1"/>
-    <col min="11777" max="11778" width="8.77734375" customWidth="1"/>
-    <col min="11779" max="11779" width="12.77734375" customWidth="1"/>
-    <col min="11780" max="11782" width="35.77734375" customWidth="1"/>
-    <col min="11783" max="11783" width="64.77734375" customWidth="1"/>
-    <col min="11784" max="11784" width="35.77734375" customWidth="1"/>
-    <col min="12033" max="12034" width="8.77734375" customWidth="1"/>
-    <col min="12035" max="12035" width="12.77734375" customWidth="1"/>
-    <col min="12036" max="12038" width="35.77734375" customWidth="1"/>
-    <col min="12039" max="12039" width="64.77734375" customWidth="1"/>
-    <col min="12040" max="12040" width="35.77734375" customWidth="1"/>
-    <col min="12289" max="12290" width="8.77734375" customWidth="1"/>
-    <col min="12291" max="12291" width="12.77734375" customWidth="1"/>
-    <col min="12292" max="12294" width="35.77734375" customWidth="1"/>
-    <col min="12295" max="12295" width="64.77734375" customWidth="1"/>
-    <col min="12296" max="12296" width="35.77734375" customWidth="1"/>
-    <col min="12545" max="12546" width="8.77734375" customWidth="1"/>
-    <col min="12547" max="12547" width="12.77734375" customWidth="1"/>
-    <col min="12548" max="12550" width="35.77734375" customWidth="1"/>
-    <col min="12551" max="12551" width="64.77734375" customWidth="1"/>
-    <col min="12552" max="12552" width="35.77734375" customWidth="1"/>
-    <col min="12801" max="12802" width="8.77734375" customWidth="1"/>
-    <col min="12803" max="12803" width="12.77734375" customWidth="1"/>
-    <col min="12804" max="12806" width="35.77734375" customWidth="1"/>
-    <col min="12807" max="12807" width="64.77734375" customWidth="1"/>
-    <col min="12808" max="12808" width="35.77734375" customWidth="1"/>
-    <col min="13057" max="13058" width="8.77734375" customWidth="1"/>
-    <col min="13059" max="13059" width="12.77734375" customWidth="1"/>
-    <col min="13060" max="13062" width="35.77734375" customWidth="1"/>
-    <col min="13063" max="13063" width="64.77734375" customWidth="1"/>
-    <col min="13064" max="13064" width="35.77734375" customWidth="1"/>
-    <col min="13313" max="13314" width="8.77734375" customWidth="1"/>
-    <col min="13315" max="13315" width="12.77734375" customWidth="1"/>
-    <col min="13316" max="13318" width="35.77734375" customWidth="1"/>
-    <col min="13319" max="13319" width="64.77734375" customWidth="1"/>
-    <col min="13320" max="13320" width="35.77734375" customWidth="1"/>
-    <col min="13569" max="13570" width="8.77734375" customWidth="1"/>
-    <col min="13571" max="13571" width="12.77734375" customWidth="1"/>
-    <col min="13572" max="13574" width="35.77734375" customWidth="1"/>
-    <col min="13575" max="13575" width="64.77734375" customWidth="1"/>
-    <col min="13576" max="13576" width="35.77734375" customWidth="1"/>
-    <col min="13825" max="13826" width="8.77734375" customWidth="1"/>
-    <col min="13827" max="13827" width="12.77734375" customWidth="1"/>
-    <col min="13828" max="13830" width="35.77734375" customWidth="1"/>
-    <col min="13831" max="13831" width="64.77734375" customWidth="1"/>
-    <col min="13832" max="13832" width="35.77734375" customWidth="1"/>
-    <col min="14081" max="14082" width="8.77734375" customWidth="1"/>
-    <col min="14083" max="14083" width="12.77734375" customWidth="1"/>
-    <col min="14084" max="14086" width="35.77734375" customWidth="1"/>
-    <col min="14087" max="14087" width="64.77734375" customWidth="1"/>
-    <col min="14088" max="14088" width="35.77734375" customWidth="1"/>
-    <col min="14337" max="14338" width="8.77734375" customWidth="1"/>
-    <col min="14339" max="14339" width="12.77734375" customWidth="1"/>
-    <col min="14340" max="14342" width="35.77734375" customWidth="1"/>
-    <col min="14343" max="14343" width="64.77734375" customWidth="1"/>
-    <col min="14344" max="14344" width="35.77734375" customWidth="1"/>
-    <col min="14593" max="14594" width="8.77734375" customWidth="1"/>
-    <col min="14595" max="14595" width="12.77734375" customWidth="1"/>
-    <col min="14596" max="14598" width="35.77734375" customWidth="1"/>
-    <col min="14599" max="14599" width="64.77734375" customWidth="1"/>
-    <col min="14600" max="14600" width="35.77734375" customWidth="1"/>
-    <col min="14849" max="14850" width="8.77734375" customWidth="1"/>
-    <col min="14851" max="14851" width="12.77734375" customWidth="1"/>
-    <col min="14852" max="14854" width="35.77734375" customWidth="1"/>
-    <col min="14855" max="14855" width="64.77734375" customWidth="1"/>
-    <col min="14856" max="14856" width="35.77734375" customWidth="1"/>
-    <col min="15105" max="15106" width="8.77734375" customWidth="1"/>
-    <col min="15107" max="15107" width="12.77734375" customWidth="1"/>
-    <col min="15108" max="15110" width="35.77734375" customWidth="1"/>
-    <col min="15111" max="15111" width="64.77734375" customWidth="1"/>
-    <col min="15112" max="15112" width="35.77734375" customWidth="1"/>
-    <col min="15361" max="15362" width="8.77734375" customWidth="1"/>
-    <col min="15363" max="15363" width="12.77734375" customWidth="1"/>
-    <col min="15364" max="15366" width="35.77734375" customWidth="1"/>
-    <col min="15367" max="15367" width="64.77734375" customWidth="1"/>
-    <col min="15368" max="15368" width="35.77734375" customWidth="1"/>
-    <col min="15617" max="15618" width="8.77734375" customWidth="1"/>
-    <col min="15619" max="15619" width="12.77734375" customWidth="1"/>
-    <col min="15620" max="15622" width="35.77734375" customWidth="1"/>
-    <col min="15623" max="15623" width="64.77734375" customWidth="1"/>
-    <col min="15624" max="15624" width="35.77734375" customWidth="1"/>
-    <col min="15873" max="15874" width="8.77734375" customWidth="1"/>
-    <col min="15875" max="15875" width="12.77734375" customWidth="1"/>
-    <col min="15876" max="15878" width="35.77734375" customWidth="1"/>
-    <col min="15879" max="15879" width="64.77734375" customWidth="1"/>
-    <col min="15880" max="15880" width="35.77734375" customWidth="1"/>
-    <col min="16129" max="16130" width="8.77734375" customWidth="1"/>
-    <col min="16131" max="16131" width="12.77734375" customWidth="1"/>
-    <col min="16132" max="16134" width="35.77734375" customWidth="1"/>
-    <col min="16135" max="16135" width="64.77734375" customWidth="1"/>
-    <col min="16136" max="16136" width="35.77734375" customWidth="1"/>
+    <col min="1" max="2" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="6" width="35.81640625" customWidth="1"/>
+    <col min="7" max="7" width="64.81640625" customWidth="1"/>
+    <col min="8" max="8" width="35.81640625" customWidth="1"/>
+    <col min="257" max="258" width="8.81640625" customWidth="1"/>
+    <col min="259" max="259" width="12.81640625" customWidth="1"/>
+    <col min="260" max="262" width="35.81640625" customWidth="1"/>
+    <col min="263" max="263" width="64.81640625" customWidth="1"/>
+    <col min="264" max="264" width="35.81640625" customWidth="1"/>
+    <col min="513" max="514" width="8.81640625" customWidth="1"/>
+    <col min="515" max="515" width="12.81640625" customWidth="1"/>
+    <col min="516" max="518" width="35.81640625" customWidth="1"/>
+    <col min="519" max="519" width="64.81640625" customWidth="1"/>
+    <col min="520" max="520" width="35.81640625" customWidth="1"/>
+    <col min="769" max="770" width="8.81640625" customWidth="1"/>
+    <col min="771" max="771" width="12.81640625" customWidth="1"/>
+    <col min="772" max="774" width="35.81640625" customWidth="1"/>
+    <col min="775" max="775" width="64.81640625" customWidth="1"/>
+    <col min="776" max="776" width="35.81640625" customWidth="1"/>
+    <col min="1025" max="1026" width="8.81640625" customWidth="1"/>
+    <col min="1027" max="1027" width="12.81640625" customWidth="1"/>
+    <col min="1028" max="1030" width="35.81640625" customWidth="1"/>
+    <col min="1031" max="1031" width="64.81640625" customWidth="1"/>
+    <col min="1032" max="1032" width="35.81640625" customWidth="1"/>
+    <col min="1281" max="1282" width="8.81640625" customWidth="1"/>
+    <col min="1283" max="1283" width="12.81640625" customWidth="1"/>
+    <col min="1284" max="1286" width="35.81640625" customWidth="1"/>
+    <col min="1287" max="1287" width="64.81640625" customWidth="1"/>
+    <col min="1288" max="1288" width="35.81640625" customWidth="1"/>
+    <col min="1537" max="1538" width="8.81640625" customWidth="1"/>
+    <col min="1539" max="1539" width="12.81640625" customWidth="1"/>
+    <col min="1540" max="1542" width="35.81640625" customWidth="1"/>
+    <col min="1543" max="1543" width="64.81640625" customWidth="1"/>
+    <col min="1544" max="1544" width="35.81640625" customWidth="1"/>
+    <col min="1793" max="1794" width="8.81640625" customWidth="1"/>
+    <col min="1795" max="1795" width="12.81640625" customWidth="1"/>
+    <col min="1796" max="1798" width="35.81640625" customWidth="1"/>
+    <col min="1799" max="1799" width="64.81640625" customWidth="1"/>
+    <col min="1800" max="1800" width="35.81640625" customWidth="1"/>
+    <col min="2049" max="2050" width="8.81640625" customWidth="1"/>
+    <col min="2051" max="2051" width="12.81640625" customWidth="1"/>
+    <col min="2052" max="2054" width="35.81640625" customWidth="1"/>
+    <col min="2055" max="2055" width="64.81640625" customWidth="1"/>
+    <col min="2056" max="2056" width="35.81640625" customWidth="1"/>
+    <col min="2305" max="2306" width="8.81640625" customWidth="1"/>
+    <col min="2307" max="2307" width="12.81640625" customWidth="1"/>
+    <col min="2308" max="2310" width="35.81640625" customWidth="1"/>
+    <col min="2311" max="2311" width="64.81640625" customWidth="1"/>
+    <col min="2312" max="2312" width="35.81640625" customWidth="1"/>
+    <col min="2561" max="2562" width="8.81640625" customWidth="1"/>
+    <col min="2563" max="2563" width="12.81640625" customWidth="1"/>
+    <col min="2564" max="2566" width="35.81640625" customWidth="1"/>
+    <col min="2567" max="2567" width="64.81640625" customWidth="1"/>
+    <col min="2568" max="2568" width="35.81640625" customWidth="1"/>
+    <col min="2817" max="2818" width="8.81640625" customWidth="1"/>
+    <col min="2819" max="2819" width="12.81640625" customWidth="1"/>
+    <col min="2820" max="2822" width="35.81640625" customWidth="1"/>
+    <col min="2823" max="2823" width="64.81640625" customWidth="1"/>
+    <col min="2824" max="2824" width="35.81640625" customWidth="1"/>
+    <col min="3073" max="3074" width="8.81640625" customWidth="1"/>
+    <col min="3075" max="3075" width="12.81640625" customWidth="1"/>
+    <col min="3076" max="3078" width="35.81640625" customWidth="1"/>
+    <col min="3079" max="3079" width="64.81640625" customWidth="1"/>
+    <col min="3080" max="3080" width="35.81640625" customWidth="1"/>
+    <col min="3329" max="3330" width="8.81640625" customWidth="1"/>
+    <col min="3331" max="3331" width="12.81640625" customWidth="1"/>
+    <col min="3332" max="3334" width="35.81640625" customWidth="1"/>
+    <col min="3335" max="3335" width="64.81640625" customWidth="1"/>
+    <col min="3336" max="3336" width="35.81640625" customWidth="1"/>
+    <col min="3585" max="3586" width="8.81640625" customWidth="1"/>
+    <col min="3587" max="3587" width="12.81640625" customWidth="1"/>
+    <col min="3588" max="3590" width="35.81640625" customWidth="1"/>
+    <col min="3591" max="3591" width="64.81640625" customWidth="1"/>
+    <col min="3592" max="3592" width="35.81640625" customWidth="1"/>
+    <col min="3841" max="3842" width="8.81640625" customWidth="1"/>
+    <col min="3843" max="3843" width="12.81640625" customWidth="1"/>
+    <col min="3844" max="3846" width="35.81640625" customWidth="1"/>
+    <col min="3847" max="3847" width="64.81640625" customWidth="1"/>
+    <col min="3848" max="3848" width="35.81640625" customWidth="1"/>
+    <col min="4097" max="4098" width="8.81640625" customWidth="1"/>
+    <col min="4099" max="4099" width="12.81640625" customWidth="1"/>
+    <col min="4100" max="4102" width="35.81640625" customWidth="1"/>
+    <col min="4103" max="4103" width="64.81640625" customWidth="1"/>
+    <col min="4104" max="4104" width="35.81640625" customWidth="1"/>
+    <col min="4353" max="4354" width="8.81640625" customWidth="1"/>
+    <col min="4355" max="4355" width="12.81640625" customWidth="1"/>
+    <col min="4356" max="4358" width="35.81640625" customWidth="1"/>
+    <col min="4359" max="4359" width="64.81640625" customWidth="1"/>
+    <col min="4360" max="4360" width="35.81640625" customWidth="1"/>
+    <col min="4609" max="4610" width="8.81640625" customWidth="1"/>
+    <col min="4611" max="4611" width="12.81640625" customWidth="1"/>
+    <col min="4612" max="4614" width="35.81640625" customWidth="1"/>
+    <col min="4615" max="4615" width="64.81640625" customWidth="1"/>
+    <col min="4616" max="4616" width="35.81640625" customWidth="1"/>
+    <col min="4865" max="4866" width="8.81640625" customWidth="1"/>
+    <col min="4867" max="4867" width="12.81640625" customWidth="1"/>
+    <col min="4868" max="4870" width="35.81640625" customWidth="1"/>
+    <col min="4871" max="4871" width="64.81640625" customWidth="1"/>
+    <col min="4872" max="4872" width="35.81640625" customWidth="1"/>
+    <col min="5121" max="5122" width="8.81640625" customWidth="1"/>
+    <col min="5123" max="5123" width="12.81640625" customWidth="1"/>
+    <col min="5124" max="5126" width="35.81640625" customWidth="1"/>
+    <col min="5127" max="5127" width="64.81640625" customWidth="1"/>
+    <col min="5128" max="5128" width="35.81640625" customWidth="1"/>
+    <col min="5377" max="5378" width="8.81640625" customWidth="1"/>
+    <col min="5379" max="5379" width="12.81640625" customWidth="1"/>
+    <col min="5380" max="5382" width="35.81640625" customWidth="1"/>
+    <col min="5383" max="5383" width="64.81640625" customWidth="1"/>
+    <col min="5384" max="5384" width="35.81640625" customWidth="1"/>
+    <col min="5633" max="5634" width="8.81640625" customWidth="1"/>
+    <col min="5635" max="5635" width="12.81640625" customWidth="1"/>
+    <col min="5636" max="5638" width="35.81640625" customWidth="1"/>
+    <col min="5639" max="5639" width="64.81640625" customWidth="1"/>
+    <col min="5640" max="5640" width="35.81640625" customWidth="1"/>
+    <col min="5889" max="5890" width="8.81640625" customWidth="1"/>
+    <col min="5891" max="5891" width="12.81640625" customWidth="1"/>
+    <col min="5892" max="5894" width="35.81640625" customWidth="1"/>
+    <col min="5895" max="5895" width="64.81640625" customWidth="1"/>
+    <col min="5896" max="5896" width="35.81640625" customWidth="1"/>
+    <col min="6145" max="6146" width="8.81640625" customWidth="1"/>
+    <col min="6147" max="6147" width="12.81640625" customWidth="1"/>
+    <col min="6148" max="6150" width="35.81640625" customWidth="1"/>
+    <col min="6151" max="6151" width="64.81640625" customWidth="1"/>
+    <col min="6152" max="6152" width="35.81640625" customWidth="1"/>
+    <col min="6401" max="6402" width="8.81640625" customWidth="1"/>
+    <col min="6403" max="6403" width="12.81640625" customWidth="1"/>
+    <col min="6404" max="6406" width="35.81640625" customWidth="1"/>
+    <col min="6407" max="6407" width="64.81640625" customWidth="1"/>
+    <col min="6408" max="6408" width="35.81640625" customWidth="1"/>
+    <col min="6657" max="6658" width="8.81640625" customWidth="1"/>
+    <col min="6659" max="6659" width="12.81640625" customWidth="1"/>
+    <col min="6660" max="6662" width="35.81640625" customWidth="1"/>
+    <col min="6663" max="6663" width="64.81640625" customWidth="1"/>
+    <col min="6664" max="6664" width="35.81640625" customWidth="1"/>
+    <col min="6913" max="6914" width="8.81640625" customWidth="1"/>
+    <col min="6915" max="6915" width="12.81640625" customWidth="1"/>
+    <col min="6916" max="6918" width="35.81640625" customWidth="1"/>
+    <col min="6919" max="6919" width="64.81640625" customWidth="1"/>
+    <col min="6920" max="6920" width="35.81640625" customWidth="1"/>
+    <col min="7169" max="7170" width="8.81640625" customWidth="1"/>
+    <col min="7171" max="7171" width="12.81640625" customWidth="1"/>
+    <col min="7172" max="7174" width="35.81640625" customWidth="1"/>
+    <col min="7175" max="7175" width="64.81640625" customWidth="1"/>
+    <col min="7176" max="7176" width="35.81640625" customWidth="1"/>
+    <col min="7425" max="7426" width="8.81640625" customWidth="1"/>
+    <col min="7427" max="7427" width="12.81640625" customWidth="1"/>
+    <col min="7428" max="7430" width="35.81640625" customWidth="1"/>
+    <col min="7431" max="7431" width="64.81640625" customWidth="1"/>
+    <col min="7432" max="7432" width="35.81640625" customWidth="1"/>
+    <col min="7681" max="7682" width="8.81640625" customWidth="1"/>
+    <col min="7683" max="7683" width="12.81640625" customWidth="1"/>
+    <col min="7684" max="7686" width="35.81640625" customWidth="1"/>
+    <col min="7687" max="7687" width="64.81640625" customWidth="1"/>
+    <col min="7688" max="7688" width="35.81640625" customWidth="1"/>
+    <col min="7937" max="7938" width="8.81640625" customWidth="1"/>
+    <col min="7939" max="7939" width="12.81640625" customWidth="1"/>
+    <col min="7940" max="7942" width="35.81640625" customWidth="1"/>
+    <col min="7943" max="7943" width="64.81640625" customWidth="1"/>
+    <col min="7944" max="7944" width="35.81640625" customWidth="1"/>
+    <col min="8193" max="8194" width="8.81640625" customWidth="1"/>
+    <col min="8195" max="8195" width="12.81640625" customWidth="1"/>
+    <col min="8196" max="8198" width="35.81640625" customWidth="1"/>
+    <col min="8199" max="8199" width="64.81640625" customWidth="1"/>
+    <col min="8200" max="8200" width="35.81640625" customWidth="1"/>
+    <col min="8449" max="8450" width="8.81640625" customWidth="1"/>
+    <col min="8451" max="8451" width="12.81640625" customWidth="1"/>
+    <col min="8452" max="8454" width="35.81640625" customWidth="1"/>
+    <col min="8455" max="8455" width="64.81640625" customWidth="1"/>
+    <col min="8456" max="8456" width="35.81640625" customWidth="1"/>
+    <col min="8705" max="8706" width="8.81640625" customWidth="1"/>
+    <col min="8707" max="8707" width="12.81640625" customWidth="1"/>
+    <col min="8708" max="8710" width="35.81640625" customWidth="1"/>
+    <col min="8711" max="8711" width="64.81640625" customWidth="1"/>
+    <col min="8712" max="8712" width="35.81640625" customWidth="1"/>
+    <col min="8961" max="8962" width="8.81640625" customWidth="1"/>
+    <col min="8963" max="8963" width="12.81640625" customWidth="1"/>
+    <col min="8964" max="8966" width="35.81640625" customWidth="1"/>
+    <col min="8967" max="8967" width="64.81640625" customWidth="1"/>
+    <col min="8968" max="8968" width="35.81640625" customWidth="1"/>
+    <col min="9217" max="9218" width="8.81640625" customWidth="1"/>
+    <col min="9219" max="9219" width="12.81640625" customWidth="1"/>
+    <col min="9220" max="9222" width="35.81640625" customWidth="1"/>
+    <col min="9223" max="9223" width="64.81640625" customWidth="1"/>
+    <col min="9224" max="9224" width="35.81640625" customWidth="1"/>
+    <col min="9473" max="9474" width="8.81640625" customWidth="1"/>
+    <col min="9475" max="9475" width="12.81640625" customWidth="1"/>
+    <col min="9476" max="9478" width="35.81640625" customWidth="1"/>
+    <col min="9479" max="9479" width="64.81640625" customWidth="1"/>
+    <col min="9480" max="9480" width="35.81640625" customWidth="1"/>
+    <col min="9729" max="9730" width="8.81640625" customWidth="1"/>
+    <col min="9731" max="9731" width="12.81640625" customWidth="1"/>
+    <col min="9732" max="9734" width="35.81640625" customWidth="1"/>
+    <col min="9735" max="9735" width="64.81640625" customWidth="1"/>
+    <col min="9736" max="9736" width="35.81640625" customWidth="1"/>
+    <col min="9985" max="9986" width="8.81640625" customWidth="1"/>
+    <col min="9987" max="9987" width="12.81640625" customWidth="1"/>
+    <col min="9988" max="9990" width="35.81640625" customWidth="1"/>
+    <col min="9991" max="9991" width="64.81640625" customWidth="1"/>
+    <col min="9992" max="9992" width="35.81640625" customWidth="1"/>
+    <col min="10241" max="10242" width="8.81640625" customWidth="1"/>
+    <col min="10243" max="10243" width="12.81640625" customWidth="1"/>
+    <col min="10244" max="10246" width="35.81640625" customWidth="1"/>
+    <col min="10247" max="10247" width="64.81640625" customWidth="1"/>
+    <col min="10248" max="10248" width="35.81640625" customWidth="1"/>
+    <col min="10497" max="10498" width="8.81640625" customWidth="1"/>
+    <col min="10499" max="10499" width="12.81640625" customWidth="1"/>
+    <col min="10500" max="10502" width="35.81640625" customWidth="1"/>
+    <col min="10503" max="10503" width="64.81640625" customWidth="1"/>
+    <col min="10504" max="10504" width="35.81640625" customWidth="1"/>
+    <col min="10753" max="10754" width="8.81640625" customWidth="1"/>
+    <col min="10755" max="10755" width="12.81640625" customWidth="1"/>
+    <col min="10756" max="10758" width="35.81640625" customWidth="1"/>
+    <col min="10759" max="10759" width="64.81640625" customWidth="1"/>
+    <col min="10760" max="10760" width="35.81640625" customWidth="1"/>
+    <col min="11009" max="11010" width="8.81640625" customWidth="1"/>
+    <col min="11011" max="11011" width="12.81640625" customWidth="1"/>
+    <col min="11012" max="11014" width="35.81640625" customWidth="1"/>
+    <col min="11015" max="11015" width="64.81640625" customWidth="1"/>
+    <col min="11016" max="11016" width="35.81640625" customWidth="1"/>
+    <col min="11265" max="11266" width="8.81640625" customWidth="1"/>
+    <col min="11267" max="11267" width="12.81640625" customWidth="1"/>
+    <col min="11268" max="11270" width="35.81640625" customWidth="1"/>
+    <col min="11271" max="11271" width="64.81640625" customWidth="1"/>
+    <col min="11272" max="11272" width="35.81640625" customWidth="1"/>
+    <col min="11521" max="11522" width="8.81640625" customWidth="1"/>
+    <col min="11523" max="11523" width="12.81640625" customWidth="1"/>
+    <col min="11524" max="11526" width="35.81640625" customWidth="1"/>
+    <col min="11527" max="11527" width="64.81640625" customWidth="1"/>
+    <col min="11528" max="11528" width="35.81640625" customWidth="1"/>
+    <col min="11777" max="11778" width="8.81640625" customWidth="1"/>
+    <col min="11779" max="11779" width="12.81640625" customWidth="1"/>
+    <col min="11780" max="11782" width="35.81640625" customWidth="1"/>
+    <col min="11783" max="11783" width="64.81640625" customWidth="1"/>
+    <col min="11784" max="11784" width="35.81640625" customWidth="1"/>
+    <col min="12033" max="12034" width="8.81640625" customWidth="1"/>
+    <col min="12035" max="12035" width="12.81640625" customWidth="1"/>
+    <col min="12036" max="12038" width="35.81640625" customWidth="1"/>
+    <col min="12039" max="12039" width="64.81640625" customWidth="1"/>
+    <col min="12040" max="12040" width="35.81640625" customWidth="1"/>
+    <col min="12289" max="12290" width="8.81640625" customWidth="1"/>
+    <col min="12291" max="12291" width="12.81640625" customWidth="1"/>
+    <col min="12292" max="12294" width="35.81640625" customWidth="1"/>
+    <col min="12295" max="12295" width="64.81640625" customWidth="1"/>
+    <col min="12296" max="12296" width="35.81640625" customWidth="1"/>
+    <col min="12545" max="12546" width="8.81640625" customWidth="1"/>
+    <col min="12547" max="12547" width="12.81640625" customWidth="1"/>
+    <col min="12548" max="12550" width="35.81640625" customWidth="1"/>
+    <col min="12551" max="12551" width="64.81640625" customWidth="1"/>
+    <col min="12552" max="12552" width="35.81640625" customWidth="1"/>
+    <col min="12801" max="12802" width="8.81640625" customWidth="1"/>
+    <col min="12803" max="12803" width="12.81640625" customWidth="1"/>
+    <col min="12804" max="12806" width="35.81640625" customWidth="1"/>
+    <col min="12807" max="12807" width="64.81640625" customWidth="1"/>
+    <col min="12808" max="12808" width="35.81640625" customWidth="1"/>
+    <col min="13057" max="13058" width="8.81640625" customWidth="1"/>
+    <col min="13059" max="13059" width="12.81640625" customWidth="1"/>
+    <col min="13060" max="13062" width="35.81640625" customWidth="1"/>
+    <col min="13063" max="13063" width="64.81640625" customWidth="1"/>
+    <col min="13064" max="13064" width="35.81640625" customWidth="1"/>
+    <col min="13313" max="13314" width="8.81640625" customWidth="1"/>
+    <col min="13315" max="13315" width="12.81640625" customWidth="1"/>
+    <col min="13316" max="13318" width="35.81640625" customWidth="1"/>
+    <col min="13319" max="13319" width="64.81640625" customWidth="1"/>
+    <col min="13320" max="13320" width="35.81640625" customWidth="1"/>
+    <col min="13569" max="13570" width="8.81640625" customWidth="1"/>
+    <col min="13571" max="13571" width="12.81640625" customWidth="1"/>
+    <col min="13572" max="13574" width="35.81640625" customWidth="1"/>
+    <col min="13575" max="13575" width="64.81640625" customWidth="1"/>
+    <col min="13576" max="13576" width="35.81640625" customWidth="1"/>
+    <col min="13825" max="13826" width="8.81640625" customWidth="1"/>
+    <col min="13827" max="13827" width="12.81640625" customWidth="1"/>
+    <col min="13828" max="13830" width="35.81640625" customWidth="1"/>
+    <col min="13831" max="13831" width="64.81640625" customWidth="1"/>
+    <col min="13832" max="13832" width="35.81640625" customWidth="1"/>
+    <col min="14081" max="14082" width="8.81640625" customWidth="1"/>
+    <col min="14083" max="14083" width="12.81640625" customWidth="1"/>
+    <col min="14084" max="14086" width="35.81640625" customWidth="1"/>
+    <col min="14087" max="14087" width="64.81640625" customWidth="1"/>
+    <col min="14088" max="14088" width="35.81640625" customWidth="1"/>
+    <col min="14337" max="14338" width="8.81640625" customWidth="1"/>
+    <col min="14339" max="14339" width="12.81640625" customWidth="1"/>
+    <col min="14340" max="14342" width="35.81640625" customWidth="1"/>
+    <col min="14343" max="14343" width="64.81640625" customWidth="1"/>
+    <col min="14344" max="14344" width="35.81640625" customWidth="1"/>
+    <col min="14593" max="14594" width="8.81640625" customWidth="1"/>
+    <col min="14595" max="14595" width="12.81640625" customWidth="1"/>
+    <col min="14596" max="14598" width="35.81640625" customWidth="1"/>
+    <col min="14599" max="14599" width="64.81640625" customWidth="1"/>
+    <col min="14600" max="14600" width="35.81640625" customWidth="1"/>
+    <col min="14849" max="14850" width="8.81640625" customWidth="1"/>
+    <col min="14851" max="14851" width="12.81640625" customWidth="1"/>
+    <col min="14852" max="14854" width="35.81640625" customWidth="1"/>
+    <col min="14855" max="14855" width="64.81640625" customWidth="1"/>
+    <col min="14856" max="14856" width="35.81640625" customWidth="1"/>
+    <col min="15105" max="15106" width="8.81640625" customWidth="1"/>
+    <col min="15107" max="15107" width="12.81640625" customWidth="1"/>
+    <col min="15108" max="15110" width="35.81640625" customWidth="1"/>
+    <col min="15111" max="15111" width="64.81640625" customWidth="1"/>
+    <col min="15112" max="15112" width="35.81640625" customWidth="1"/>
+    <col min="15361" max="15362" width="8.81640625" customWidth="1"/>
+    <col min="15363" max="15363" width="12.81640625" customWidth="1"/>
+    <col min="15364" max="15366" width="35.81640625" customWidth="1"/>
+    <col min="15367" max="15367" width="64.81640625" customWidth="1"/>
+    <col min="15368" max="15368" width="35.81640625" customWidth="1"/>
+    <col min="15617" max="15618" width="8.81640625" customWidth="1"/>
+    <col min="15619" max="15619" width="12.81640625" customWidth="1"/>
+    <col min="15620" max="15622" width="35.81640625" customWidth="1"/>
+    <col min="15623" max="15623" width="64.81640625" customWidth="1"/>
+    <col min="15624" max="15624" width="35.81640625" customWidth="1"/>
+    <col min="15873" max="15874" width="8.81640625" customWidth="1"/>
+    <col min="15875" max="15875" width="12.81640625" customWidth="1"/>
+    <col min="15876" max="15878" width="35.81640625" customWidth="1"/>
+    <col min="15879" max="15879" width="64.81640625" customWidth="1"/>
+    <col min="15880" max="15880" width="35.81640625" customWidth="1"/>
+    <col min="16129" max="16130" width="8.81640625" customWidth="1"/>
+    <col min="16131" max="16131" width="12.81640625" customWidth="1"/>
+    <col min="16132" max="16134" width="35.81640625" customWidth="1"/>
+    <col min="16135" max="16135" width="64.81640625" customWidth="1"/>
+    <col min="16136" max="16136" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.55" customHeight="1">
+    <row r="1" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -7229,7 +7914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>22</v>
       </c>
@@ -7251,7 +7936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>26</v>
       </c>
@@ -7273,7 +7958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
@@ -7295,7 +7980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="26.4">
+    <row r="5" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>32</v>
       </c>
@@ -7317,7 +8002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26.4">
+    <row r="6" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>35</v>
       </c>
@@ -7339,7 +8024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26.4">
+    <row r="7" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>38</v>
       </c>
@@ -7361,7 +8046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26.4">
+    <row r="8" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>42</v>
       </c>
@@ -7383,7 +8068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26.4">
+    <row r="9" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>45</v>
       </c>
@@ -7405,7 +8090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>49</v>
       </c>
@@ -7429,7 +8114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="26.4">
+    <row r="11" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>54</v>
       </c>
@@ -7453,7 +8138,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>59</v>
       </c>
@@ -7475,7 +8160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="105.6">
+    <row r="13" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>62</v>
       </c>
@@ -7499,7 +8184,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>66</v>
       </c>
@@ -7521,7 +8206,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="26.4">
+    <row r="15" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>70</v>
       </c>
@@ -7543,7 +8228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>73</v>
       </c>
@@ -7565,7 +8250,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>77</v>
       </c>
@@ -7587,7 +8272,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="26.4">
+    <row r="18" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>80</v>
       </c>
@@ -7609,7 +8294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="26.4">
+    <row r="19" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>84</v>
       </c>
@@ -7631,7 +8316,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>88</v>
       </c>
@@ -7653,7 +8338,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="26.4">
+    <row r="21" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>91</v>
       </c>
@@ -7675,7 +8360,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="39.6">
+    <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>94</v>
       </c>
@@ -7697,7 +8382,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="26.4">
+    <row r="23" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>97</v>
       </c>
@@ -7719,7 +8404,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>100</v>
       </c>
@@ -7741,7 +8426,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="26.4">
+    <row r="25" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>103</v>
       </c>
@@ -7763,7 +8448,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="26.4">
+    <row r="26" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>107</v>
       </c>
@@ -7785,7 +8470,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="26.4">
+    <row r="27" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>111</v>
       </c>
@@ -7807,7 +8492,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>115</v>
       </c>
@@ -7829,7 +8514,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="26.4">
+    <row r="29" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>118</v>
       </c>
@@ -7851,7 +8536,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>121</v>
       </c>
@@ -7873,7 +8558,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="26.4">
+    <row r="31" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>124</v>
       </c>
@@ -7895,7 +8580,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="39.6">
+    <row r="32" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>128</v>
       </c>
@@ -7917,7 +8602,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>131</v>
       </c>
@@ -7939,7 +8624,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="66">
+    <row r="34" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>134</v>
       </c>
@@ -7961,7 +8646,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="26.4">
+    <row r="35" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>137</v>
       </c>
@@ -7983,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="52.8">
+    <row r="36" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>139</v>
       </c>
@@ -8005,7 +8690,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="39.6">
+    <row r="37" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>142</v>
       </c>
@@ -8027,7 +8712,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="52.8">
+    <row r="38" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>145</v>
       </c>
@@ -8049,7 +8734,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="39.6">
+    <row r="39" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>148</v>
       </c>
@@ -8071,7 +8756,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="26.4">
+    <row r="40" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>152</v>
       </c>
@@ -8095,7 +8780,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="39.6">
+    <row r="41" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>157</v>
       </c>
@@ -8117,7 +8802,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="39.6">
+    <row r="42" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>160</v>
       </c>
@@ -8141,7 +8826,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="26.4">
+    <row r="43" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>164</v>
       </c>
@@ -8163,7 +8848,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="39.6">
+    <row r="44" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>167</v>
       </c>
@@ -8185,7 +8870,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="39.6">
+    <row r="45" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>171</v>
       </c>
@@ -8207,7 +8892,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="79.2">
+    <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>174</v>
       </c>
@@ -8229,7 +8914,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="39.6">
+    <row r="47" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>177</v>
       </c>
@@ -8251,7 +8936,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>181</v>
       </c>
@@ -8273,7 +8958,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="26.4">
+    <row r="49" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>184</v>
       </c>
@@ -8295,7 +8980,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="52.8">
+    <row r="50" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>188</v>
       </c>
@@ -8317,7 +9002,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="66">
+    <row r="51" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>191</v>
       </c>
@@ -8339,7 +9024,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="26.4">
+    <row r="52" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>194</v>
       </c>
@@ -8363,7 +9048,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="39.6">
+    <row r="53" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>198</v>
       </c>
@@ -8385,7 +9070,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="26.4">
+    <row r="54" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>201</v>
       </c>
@@ -8409,7 +9094,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>206</v>
       </c>
@@ -8431,7 +9116,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="39.6">
+    <row r="56" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>209</v>
       </c>
@@ -8453,7 +9138,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="26.4">
+    <row r="57" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>212</v>
       </c>
@@ -8475,7 +9160,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="26.4">
+    <row r="58" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>216</v>
       </c>
@@ -8497,7 +9182,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="26.4">
+    <row r="59" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>219</v>
       </c>
@@ -8519,7 +9204,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>223</v>
       </c>
@@ -8541,7 +9226,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="26.4">
+    <row r="61" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>201</v>
       </c>
@@ -8565,7 +9250,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="26.4">
+    <row r="62" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>226</v>
       </c>
@@ -8587,7 +9272,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="26.4">
+    <row r="63" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>230</v>
       </c>
@@ -8609,7 +9294,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="26.4">
+    <row r="64" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>233</v>
       </c>
@@ -8631,7 +9316,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="26.4">
+    <row r="65" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>236</v>
       </c>
@@ -8653,7 +9338,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="26.4">
+    <row r="66" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>239</v>
       </c>
@@ -8675,7 +9360,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="26.4">
+    <row r="67" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
         <v>243</v>
       </c>
@@ -8697,7 +9382,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="26.4">
+    <row r="68" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
         <v>246</v>
       </c>
@@ -8719,7 +9404,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="26.4">
+    <row r="69" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>249</v>
       </c>
@@ -8741,7 +9426,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
         <v>253</v>
       </c>
@@ -8763,7 +9448,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="26.4">
+    <row r="71" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>256</v>
       </c>
@@ -8785,7 +9470,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="26.4">
+    <row r="72" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>259</v>
       </c>
@@ -8807,7 +9492,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>263</v>
       </c>
@@ -8829,7 +9514,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
         <v>266</v>
       </c>
@@ -8851,7 +9536,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>269</v>
       </c>
@@ -8873,7 +9558,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="52.8">
+    <row r="76" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
         <v>272</v>
       </c>
@@ -8895,7 +9580,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="26.4">
+    <row r="77" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>275</v>
       </c>
@@ -8917,7 +9602,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>279</v>
       </c>
@@ -8939,7 +9624,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
         <v>282</v>
       </c>
@@ -8961,7 +9646,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="26.4">
+    <row r="80" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
         <v>286</v>
       </c>
@@ -8983,7 +9668,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
         <v>290</v>
       </c>
@@ -9005,7 +9690,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="26.4">
+    <row r="82" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
         <v>293</v>
       </c>
@@ -9027,7 +9712,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
         <v>296</v>
       </c>
@@ -9051,7 +9736,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
         <v>300</v>
       </c>
@@ -9073,7 +9758,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
         <v>304</v>
       </c>
@@ -9095,7 +9780,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="26.4">
+    <row r="86" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>307</v>
       </c>
@@ -9117,7 +9802,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
         <v>311</v>
       </c>
@@ -9139,7 +9824,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>314</v>
       </c>
@@ -9161,7 +9846,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="26.4">
+    <row r="89" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>317</v>
       </c>
@@ -9183,7 +9868,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="26.4">
+    <row r="90" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
         <v>321</v>
       </c>
@@ -9205,7 +9890,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="26.4">
+    <row r="91" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
         <v>325</v>
       </c>
@@ -9229,7 +9914,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="26.4">
+    <row r="92" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
         <v>329</v>
       </c>
@@ -9253,7 +9938,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="26.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
         <v>333</v>
       </c>
@@ -9277,7 +9962,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="26.4">
+    <row r="94" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
         <v>337</v>
       </c>
@@ -9299,7 +9984,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="26.4">
+    <row r="95" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
         <v>341</v>
       </c>
@@ -9321,7 +10006,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="26.4">
+    <row r="96" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
         <v>345</v>
       </c>
@@ -9343,7 +10028,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
         <v>349</v>
       </c>
@@ -9365,7 +10050,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
         <v>352</v>
       </c>
@@ -9387,7 +10072,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="26.4">
+    <row r="99" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
         <v>355</v>
       </c>
@@ -9409,7 +10094,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="26.4">
+    <row r="100" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
         <v>359</v>
       </c>
@@ -9431,7 +10116,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="26.4">
+    <row r="101" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>362</v>
       </c>
@@ -9453,7 +10138,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
         <v>365</v>
       </c>
@@ -9475,7 +10160,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="52.8">
+    <row r="103" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
         <v>369</v>
       </c>
@@ -9497,7 +10182,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="39.6">
+    <row r="104" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>373</v>
       </c>
@@ -9519,7 +10204,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="26.4">
+    <row r="105" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>376</v>
       </c>
@@ -9541,7 +10226,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="26.4">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>181</v>
       </c>
@@ -9563,7 +10248,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="26.4">
+    <row r="107" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>380</v>
       </c>
@@ -9585,7 +10270,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="26.4">
+    <row r="108" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
         <v>384</v>
       </c>
@@ -9609,7 +10294,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="26.4">
+    <row r="109" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
         <v>388</v>
       </c>
@@ -9631,7 +10316,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="26.4">
+    <row r="110" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A110" s="31" t="s">
         <v>391</v>
       </c>
@@ -9653,7 +10338,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="26.4">
+    <row r="111" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A111" s="31" t="s">
         <v>395</v>
       </c>
@@ -9675,7 +10360,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="26.4">
+    <row r="112" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
         <v>399</v>
       </c>
@@ -9697,7 +10382,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="26.4">
+    <row r="113" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
         <v>402</v>
       </c>
@@ -9719,7 +10404,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="26.4">
+    <row r="114" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
         <v>405</v>
       </c>
@@ -9741,7 +10426,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="52.8">
+    <row r="115" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
         <v>188</v>
       </c>
@@ -9763,7 +10448,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="26.4">
+    <row r="116" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
         <v>409</v>
       </c>
@@ -9785,7 +10470,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
         <v>413</v>
       </c>
@@ -9807,7 +10492,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="26.4">
+    <row r="118" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
         <v>416</v>
       </c>
@@ -9829,7 +10514,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="31" t="s">
         <v>420</v>
       </c>
@@ -9851,7 +10536,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="26.4">
+    <row r="120" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
         <v>423</v>
       </c>
@@ -9873,7 +10558,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="26.4">
+    <row r="121" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
         <v>427</v>
       </c>
@@ -9895,7 +10580,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="26.4">
+    <row r="122" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A122" s="31" t="s">
         <v>430</v>
       </c>
@@ -9917,7 +10602,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="31" t="s">
         <v>206</v>
       </c>
@@ -9939,7 +10624,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="26.4">
+    <row r="124" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
         <v>433</v>
       </c>
@@ -9961,7 +10646,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="26.4">
+    <row r="125" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A125" s="31" t="s">
         <v>437</v>
       </c>
@@ -9983,7 +10668,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="26.4">
+    <row r="126" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
         <v>440</v>
       </c>
@@ -10005,7 +10690,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="52.8">
+    <row r="127" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A127" s="31" t="s">
         <v>444</v>
       </c>
@@ -10027,7 +10712,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="52.8">
+    <row r="128" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A128" s="31" t="s">
         <v>447</v>
       </c>
@@ -10049,7 +10734,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="39.6">
+    <row r="129" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A129" s="31" t="s">
         <v>450</v>
       </c>
@@ -10071,7 +10756,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="26.4">
+    <row r="130" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
         <v>453</v>
       </c>
@@ -10095,7 +10780,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="31" t="s">
         <v>457</v>
       </c>
@@ -10117,7 +10802,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="39.6">
+    <row r="132" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
         <v>461</v>
       </c>
@@ -10139,7 +10824,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="26.4">
+    <row r="133" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A133" s="31" t="s">
         <v>465</v>
       </c>
@@ -10161,7 +10846,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="39.6">
+    <row r="134" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A134" s="31" t="s">
         <v>469</v>
       </c>
@@ -10183,7 +10868,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="31" t="s">
         <v>473</v>
       </c>
@@ -10205,7 +10890,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="s">
         <v>477</v>
       </c>
@@ -10227,7 +10912,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="26.4">
+    <row r="137" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A137" s="31" t="s">
         <v>481</v>
       </c>
@@ -10249,7 +10934,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="31" t="s">
         <v>485</v>
       </c>
@@ -10271,7 +10956,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="52.8">
+    <row r="139" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A139" s="31" t="s">
         <v>489</v>
       </c>
@@ -10293,7 +10978,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="31" t="s">
         <v>493</v>
       </c>
@@ -10315,7 +11000,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="31" t="s">
         <v>497</v>
       </c>
@@ -10337,7 +11022,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="31" t="s">
         <v>501</v>
       </c>
@@ -10359,7 +11044,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="26.4">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="31" t="s">
         <v>505</v>
       </c>
@@ -10381,7 +11066,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="26.4">
+    <row r="144" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A144" s="31" t="s">
         <v>509</v>
       </c>
@@ -10403,7 +11088,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="31" t="s">
         <v>513</v>
       </c>
@@ -10425,7 +11110,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="31" t="s">
         <v>517</v>
       </c>
@@ -10447,7 +11132,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="31" t="s">
         <v>521</v>
       </c>
@@ -10469,7 +11154,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="31" t="s">
         <v>525</v>
       </c>
@@ -10491,7 +11176,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
         <v>529</v>
       </c>
@@ -10515,7 +11200,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="26.4">
+    <row r="150" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A150" s="31" t="s">
         <v>534</v>
       </c>
@@ -10537,7 +11222,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="26.4">
+    <row r="151" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A151" s="31" t="s">
         <v>538</v>
       </c>
@@ -10559,7 +11244,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="26.4">
+    <row r="152" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A152" s="31" t="s">
         <v>542</v>
       </c>
@@ -10583,7 +11268,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="26.4">
+    <row r="153" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A153" s="31" t="s">
         <v>547</v>
       </c>
@@ -10605,7 +11290,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="31" t="s">
         <v>551</v>
       </c>
@@ -10629,7 +11314,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="26.4">
+    <row r="155" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A155" s="31" t="s">
         <v>556</v>
       </c>
@@ -10651,7 +11336,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="26.4">
+    <row r="156" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A156" s="31" t="s">
         <v>560</v>
       </c>
@@ -10673,7 +11358,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="26.4">
+    <row r="157" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A157" s="31" t="s">
         <v>564</v>
       </c>
@@ -10695,7 +11380,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="26.4">
+    <row r="158" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A158" s="31" t="s">
         <v>1041</v>
       </c>
@@ -10717,7 +11402,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="39.6">
+    <row r="159" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A159" s="31" t="s">
         <v>568</v>
       </c>
@@ -10739,7 +11424,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="26.4">
+    <row r="160" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A160" s="31" t="s">
         <v>571</v>
       </c>
@@ -10761,7 +11446,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="26.4">
+    <row r="161" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A161" s="31" t="s">
         <v>575</v>
       </c>
@@ -10783,7 +11468,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="39.6">
+    <row r="162" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A162" s="31" t="s">
         <v>579</v>
       </c>
@@ -10805,7 +11490,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="26.4">
+    <row r="163" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
         <v>583</v>
       </c>
@@ -10829,7 +11514,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="39.6">
+    <row r="164" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A164" s="31" t="s">
         <v>588</v>
       </c>
@@ -10851,7 +11536,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="52.8">
+    <row r="165" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A165" s="31" t="s">
         <v>592</v>
       </c>
@@ -10873,7 +11558,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="26.4">
+    <row r="166" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A166" s="31" t="s">
         <v>596</v>
       </c>
@@ -10895,7 +11580,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="26.4">
+    <row r="167" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A167" s="31" t="s">
         <v>600</v>
       </c>
@@ -10917,7 +11602,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="26.4">
+    <row r="168" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A168" s="31" t="s">
         <v>604</v>
       </c>
@@ -10939,7 +11624,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="26.4">
+    <row r="169" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A169" s="30" t="s">
         <v>608</v>
       </c>
@@ -10963,7 +11648,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="31" t="s">
         <v>613</v>
       </c>
@@ -10987,7 +11672,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="39.6">
+    <row r="171" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A171" s="31" t="s">
         <v>618</v>
       </c>
@@ -11011,7 +11696,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="31" t="s">
         <v>622</v>
       </c>
@@ -11033,7 +11718,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="31" t="s">
         <v>626</v>
       </c>
@@ -11055,7 +11740,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="26.4">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="31" t="s">
         <v>630</v>
       </c>
@@ -11077,7 +11762,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="31" t="s">
         <v>634</v>
       </c>
@@ -11099,7 +11784,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="26.4">
+    <row r="176" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A176" s="30" t="s">
         <v>638</v>
       </c>
@@ -11121,7 +11806,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="26.4">
+    <row r="177" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A177" s="31" t="s">
         <v>642</v>
       </c>
@@ -11145,7 +11830,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="26.4">
+    <row r="178" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A178" s="31" t="s">
         <v>647</v>
       </c>
@@ -11169,7 +11854,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="26.4">
+    <row r="179" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A179" s="30" t="s">
         <v>652</v>
       </c>
@@ -11191,7 +11876,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="26.4">
+    <row r="180" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A180" s="31" t="s">
         <v>656</v>
       </c>
@@ -11213,7 +11898,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="39.6">
+    <row r="181" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A181" s="31" t="s">
         <v>660</v>
       </c>
@@ -11237,7 +11922,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="52.8">
+    <row r="182" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A182" s="31" t="s">
         <v>663</v>
       </c>
@@ -11261,7 +11946,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="26.4">
+    <row r="183" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A183" s="30" t="s">
         <v>667</v>
       </c>
@@ -11283,7 +11968,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="26.4">
+    <row r="184" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A184" s="31" t="s">
         <v>671</v>
       </c>
@@ -11305,7 +11990,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="31" t="s">
         <v>675</v>
       </c>
@@ -11327,7 +12012,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="31" t="s">
         <v>678</v>
       </c>
@@ -11349,7 +12034,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="31" t="s">
         <v>681</v>
       </c>
@@ -11371,7 +12056,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="26.4">
+    <row r="188" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A188" s="31" t="s">
         <v>684</v>
       </c>
@@ -11395,7 +12080,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="26.4">
+    <row r="189" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A189" s="30" t="s">
         <v>688</v>
       </c>
@@ -11417,7 +12102,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="26.4">
+    <row r="190" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A190" s="31" t="s">
         <v>692</v>
       </c>
@@ -11439,7 +12124,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="26.4">
+    <row r="191" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A191" s="31" t="s">
         <v>695</v>
       </c>
@@ -11461,7 +12146,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="118.8">
+    <row r="192" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A192" s="31" t="s">
         <v>698</v>
       </c>
@@ -11483,7 +12168,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="66">
+    <row r="193" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A193" s="31" t="s">
         <v>702</v>
       </c>
@@ -11505,7 +12190,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="26.4">
+    <row r="194" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A194" s="31" t="s">
         <v>705</v>
       </c>
@@ -11527,7 +12212,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="26.4">
+    <row r="195" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A195" s="30" t="s">
         <v>708</v>
       </c>
@@ -11551,7 +12236,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="52.8">
+    <row r="196" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A196" s="31" t="s">
         <v>713</v>
       </c>
@@ -11575,7 +12260,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="66">
+    <row r="197" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A197" s="31" t="s">
         <v>718</v>
       </c>
@@ -11597,7 +12282,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="52.8">
+    <row r="198" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A198" s="31" t="s">
         <v>722</v>
       </c>
@@ -11619,7 +12304,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="105.6">
+    <row r="199" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A199" s="31" t="s">
         <v>726</v>
       </c>
@@ -11641,7 +12326,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="26.4">
+    <row r="200" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A200" s="30" t="s">
         <v>730</v>
       </c>
@@ -11665,7 +12350,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="26.4">
+    <row r="201" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A201" s="31" t="s">
         <v>735</v>
       </c>
@@ -11689,7 +12374,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="26.4">
+    <row r="202" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A202" s="31" t="s">
         <v>739</v>
       </c>
@@ -11711,7 +12396,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="66">
+    <row r="203" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A203" s="31" t="s">
         <v>743</v>
       </c>
@@ -11733,7 +12418,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="26.4">
+    <row r="204" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A204" s="31" t="s">
         <v>747</v>
       </c>
@@ -11755,7 +12440,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="39.6">
+    <row r="205" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A205" s="31" t="s">
         <v>751</v>
       </c>
@@ -11777,7 +12462,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="26.4">
+    <row r="206" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A206" s="31" t="s">
         <v>755</v>
       </c>
@@ -11799,7 +12484,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="39.6">
+    <row r="207" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A207" s="31" t="s">
         <v>759</v>
       </c>
@@ -11821,7 +12506,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="39.6">
+    <row r="208" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A208" s="31" t="s">
         <v>763</v>
       </c>
@@ -11845,7 +12530,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="39.6">
+    <row r="209" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A209" s="31" t="s">
         <v>768</v>
       </c>
@@ -11867,7 +12552,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="52.8">
+    <row r="210" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A210" s="31" t="s">
         <v>771</v>
       </c>
@@ -11889,7 +12574,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="26.4">
+    <row r="211" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A211" s="31" t="s">
         <v>775</v>
       </c>
@@ -11913,7 +12598,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="30" t="s">
         <v>779</v>
       </c>
@@ -11937,7 +12622,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="31" t="s">
         <v>784</v>
       </c>
@@ -11961,7 +12646,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="158.4">
+    <row r="214" spans="1:8" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A214" s="31" t="s">
         <v>789</v>
       </c>
@@ -11985,7 +12670,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="184.8">
+    <row r="215" spans="1:8" ht="175" x14ac:dyDescent="0.25">
       <c r="A215" s="31" t="s">
         <v>794</v>
       </c>
@@ -12009,7 +12694,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="26.4">
+    <row r="216" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A216" s="31" t="s">
         <v>799</v>
       </c>
@@ -12033,7 +12718,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="26.4">
+    <row r="217" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A217" s="31" t="s">
         <v>1026</v>
       </c>
@@ -12057,7 +12742,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="26.4">
+    <row r="218" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A218" s="31" t="s">
         <v>1031</v>
       </c>
@@ -12081,7 +12766,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="26.4">
+    <row r="219" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A219" s="31" t="s">
         <v>1045</v>
       </c>
@@ -12105,7 +12790,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="26.4">
+    <row r="220" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A220" s="31" t="s">
         <v>1050</v>
       </c>
@@ -12129,7 +12814,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="79.2">
+    <row r="221" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A221" s="31" t="s">
         <v>804</v>
       </c>
@@ -12153,7 +12838,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="26.4">
+    <row r="222" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A222" s="31" t="s">
         <v>808</v>
       </c>
@@ -12177,7 +12862,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="26.4">
+    <row r="223" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A223" s="31" t="s">
         <v>813</v>
       </c>
@@ -12201,7 +12886,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="52.8">
+    <row r="224" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A224" s="31" t="s">
         <v>818</v>
       </c>
@@ -12225,7 +12910,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="92.4">
+    <row r="225" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A225" s="31" t="s">
         <v>823</v>
       </c>
@@ -12249,7 +12934,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="26.4">
+    <row r="226" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A226" s="31" t="s">
         <v>827</v>
       </c>
@@ -12273,7 +12958,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="52.8">
+    <row r="227" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A227" s="31" t="s">
         <v>832</v>
       </c>
@@ -12297,7 +12982,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="105.6">
+    <row r="228" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A228" s="31" t="s">
         <v>837</v>
       </c>
@@ -12321,7 +13006,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="31" t="s">
         <v>841</v>
       </c>
@@ -12345,7 +13030,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="26.4">
+    <row r="230" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A230" s="30" t="s">
         <v>846</v>
       </c>
@@ -12369,7 +13054,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="26.4">
+    <row r="231" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A231" s="31" t="s">
         <v>851</v>
       </c>
@@ -12391,7 +13076,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="26.4">
+    <row r="232" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A232" s="31" t="s">
         <v>855</v>
       </c>
@@ -12413,7 +13098,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="39.6">
+    <row r="233" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A233" s="31" t="s">
         <v>859</v>
       </c>
@@ -12435,7 +13120,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="52.8">
+    <row r="234" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A234" s="31" t="s">
         <v>863</v>
       </c>
@@ -12457,7 +13142,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="39.6">
+    <row r="235" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A235" s="31" t="s">
         <v>867</v>
       </c>
@@ -12479,7 +13164,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="39.6">
+    <row r="236" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A236" s="31" t="s">
         <v>871</v>
       </c>
@@ -12501,7 +13186,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="26.4">
+    <row r="237" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A237" s="31" t="s">
         <v>747</v>
       </c>
@@ -12523,7 +13208,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="26.4">
+    <row r="238" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A238" s="31" t="s">
         <v>875</v>
       </c>
@@ -12545,7 +13230,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="26.4">
+    <row r="239" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A239" s="31" t="s">
         <v>879</v>
       </c>
@@ -12567,7 +13252,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="26.4">
+    <row r="240" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A240" s="31" t="s">
         <v>883</v>
       </c>
@@ -12589,7 +13274,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="26.4">
+    <row r="241" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A241" s="31" t="s">
         <v>887</v>
       </c>
@@ -12611,7 +13296,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="26.4">
+    <row r="242" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A242" s="31" t="s">
         <v>891</v>
       </c>
@@ -12635,7 +13320,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="26.4">
+    <row r="243" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A243" s="31" t="s">
         <v>895</v>
       </c>
@@ -12657,7 +13342,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="39.6">
+    <row r="244" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A244" s="31" t="s">
         <v>899</v>
       </c>
@@ -12679,7 +13364,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="31" t="s">
         <v>903</v>
       </c>
@@ -12701,7 +13386,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="39.6">
+    <row r="246" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A246" s="31" t="s">
         <v>907</v>
       </c>
@@ -12723,7 +13408,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="92.4">
+    <row r="247" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A247" s="31" t="s">
         <v>911</v>
       </c>
@@ -12745,7 +13430,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="26.4">
+    <row r="248" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A248" s="31" t="s">
         <v>915</v>
       </c>
@@ -12767,7 +13452,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="39.6">
+    <row r="249" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A249" s="31" t="s">
         <v>919</v>
       </c>
@@ -12789,7 +13474,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="26.4">
+    <row r="250" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A250" s="31" t="s">
         <v>923</v>
       </c>
@@ -12811,7 +13496,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="26.4">
+    <row r="251" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A251" s="31" t="s">
         <v>927</v>
       </c>
@@ -12833,7 +13518,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="39.6">
+    <row r="252" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A252" s="31" t="s">
         <v>763</v>
       </c>
@@ -12857,7 +13542,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="39.6">
+    <row r="253" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A253" s="31" t="s">
         <v>931</v>
       </c>
@@ -12879,7 +13564,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="39.6">
+    <row r="254" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A254" s="31" t="s">
         <v>935</v>
       </c>
@@ -12901,7 +13586,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="26.4">
+    <row r="255" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A255" s="31" t="s">
         <v>939</v>
       </c>
@@ -12923,7 +13608,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="39.6">
+    <row r="256" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A256" s="31" t="s">
         <v>943</v>
       </c>
@@ -12947,7 +13632,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="26.4">
+    <row r="257" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A257" s="31" t="s">
         <v>948</v>
       </c>
@@ -12969,7 +13654,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="26.4">
+    <row r="258" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A258" s="31" t="s">
         <v>775</v>
       </c>
@@ -12993,7 +13678,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="31" t="s">
         <v>952</v>
       </c>
@@ -13015,7 +13700,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="26.4">
+    <row r="260" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A260" s="31" t="s">
         <v>956</v>
       </c>
@@ -13044,33 +13729,1551 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503195DC-D1D8-4668-937F-5F13E0D1E503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF8CAFD-EC7B-4D13-AF47-091182230DA0}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" customWidth="1"/>
+    <col min="10" max="10" width="43.54296875" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>974</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>975</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>968</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>969</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="16" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="16" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="16" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="16" t="s">
+        <v>1246</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="16" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="16" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>972</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>982</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>983</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>984</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>987</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>988</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>990</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>992</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>967</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>967</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>967</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>967</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>967</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>967</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>967</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{3DF8CAFD-EC7B-4D13-AF47-091182230DA0}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1C8570-9E8C-4EEF-9B82-79DBE6082DD9}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="9" width="21.81640625" customWidth="1"/>
+    <col min="10" max="10" width="42.90625" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>974</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>975</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>968</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>969</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="50" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>976</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="100" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>971</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="59" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{5C1C8570-9E8C-4EEF-9B82-79DBE6082DD9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503195DC-D1D8-4668-937F-5F13E0D1E503}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWid